--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,69 @@
           </rPr>
           <t>Tim Lawson:
 Make sure these are updated before running HRBC or HRBA! Otherwise the wrong settings will be run or analysed.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tim Lawson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The Run Id identifies a particular physical setup and its</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> only</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> use is to allow the analysis program (HRBA) to match measurement data with corresponding Rlink data. Each Run Id must be unique and is automatically generated by combining run information such as: the version of HRBC used to acquire the data; the names of the two resistors used and the date and time when the run was started.
+The Run Id should </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NOT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> be confused with the comment, which is intended to record and describe (as opposed to identify)  the physical setup, along with any other relevant  observations. The comment is intended to be read by a human, not HRBA.</t>
         </r>
       </text>
     </comment>
@@ -123,6 +186,75 @@
     <author>Tim Lawson</author>
   </authors>
   <commentList>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tim Lawson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+IUnits of [deg C]^-1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tim Lawson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This means any </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>permanently-attached</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> temperature sensor that forms part of the resistance standard.
+In practice this is 'none'  for any RTD (eg Pt 100r, SR104t) and units that have a thermometer well but no permanant sensor (eg:Tinsleys).
+Typically 'Pt100r'  is used for 'home-made' resistance boxes. In future, each Pt will need a unique id  (eg: 'H100M_Pt 100r',  'New10M_Pt 100r', etc.); calibration info and a prediction equation in the same manner of SR104t 10k.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
@@ -249,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="385">
   <si>
     <t>start_row</t>
   </si>
@@ -947,9 +1079,6 @@
     <t>correction_100r</t>
   </si>
   <si>
-    <t>any</t>
-  </si>
-  <si>
     <t>correction_10k</t>
   </si>
   <si>
@@ -1389,6 +1518,24 @@
   </si>
   <si>
     <t>Don't use for absolute temperature measurement - differences only!</t>
+  </si>
+  <si>
+    <t>Ambient conditions</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>P(mbar)</t>
+  </si>
+  <si>
+    <t>From Results sheet</t>
+  </si>
+  <si>
+    <t>(link to  RefStep data?)</t>
+  </si>
+  <si>
+    <t>(Cal report?)</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1552,7 @@
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1503,6 +1650,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1518,43 +1691,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1668,7 +1810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1680,17 +1822,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1704,23 +1843,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1729,8 +1871,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2071,52 +2211,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="540" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="615" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="X14" sqref="X14"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="44" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="44" customWidth="1"/>
-    <col min="10" max="12" width="2.140625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="25" style="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="44" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="44" customWidth="1"/>
-    <col min="16" max="16" width="25" style="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" style="44" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="44" customWidth="1"/>
-    <col min="23" max="27" width="9.140625" style="44" customWidth="1"/>
-    <col min="28" max="28" width="21.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="29" max="33" width="0" style="44" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="41" customWidth="1"/>
+    <col min="10" max="12" width="2.140625" style="41" customWidth="1"/>
+    <col min="13" max="13" width="25" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="41" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="41" customWidth="1"/>
+    <col min="16" max="16" width="25" style="41" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="41" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="41" customWidth="1"/>
+    <col min="23" max="27" width="9.140625" style="41" customWidth="1"/>
+    <col min="28" max="28" width="10" style="41" customWidth="1"/>
+    <col min="29" max="29" width="9" style="41" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" style="41" customWidth="1"/>
+    <col min="31" max="31" width="15" style="41" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" style="41" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" style="41" customWidth="1"/>
+    <col min="35" max="35" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20">
+      <c r="B1" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>40</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2164,27 +2309,29 @@
       <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="W3" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="W3" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
@@ -2217,30 +2364,39 @@
       <c r="V4">
         <v>20.92</v>
       </c>
+      <c r="W4" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="X4" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y4" s="41" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>10</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>10</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>60</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>5</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>90</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="11">
         <v>-1.0003009423</v>
       </c>
       <c r="I5">
@@ -2258,7 +2414,7 @@
       <c r="P5" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="19">
         <v>10.000023067000001</v>
       </c>
       <c r="R5">
@@ -2276,44 +2432,42 @@
       <c r="V5">
         <v>20.92</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>27</v>
       </c>
-      <c r="AA5" s="36" t="s">
+      <c r="AC5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AB5" s="37" t="s">
+      <c r="AD5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="7"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="46"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>-10</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>1.00037</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>10</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>60</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>5</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>90</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="11">
         <v>1.0003017303999999</v>
       </c>
       <c r="I6">
@@ -2331,7 +2485,7 @@
       <c r="P6" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="12">
         <v>-10.000020509000001</v>
       </c>
       <c r="R6">
@@ -2349,42 +2503,42 @@
       <c r="V6">
         <v>20.92</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="38" t="s">
+      <c r="AC6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="39" t="s">
+      <c r="AD6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AG6" s="8"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="46"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>10</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>10</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>60</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>5</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>90</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="11">
         <v>-1.0003009775</v>
       </c>
       <c r="I7">
@@ -2402,7 +2556,7 @@
       <c r="P7" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="12">
         <v>10.00002347</v>
       </c>
       <c r="R7">
@@ -2420,42 +2574,42 @@
       <c r="V7">
         <v>20.91</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" s="38" t="s">
+      <c r="AC7" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AB7" s="39" t="s">
+      <c r="AD7" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AG7" s="8"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="46"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>10</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>-1.0103736999999999</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>10</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>60</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <v>5</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>90</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="11">
         <v>-1.0103043347</v>
       </c>
       <c r="I8">
@@ -2464,7 +2618,7 @@
       <c r="M8" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="10">
         <v>-9.3983150759000007E-3</v>
       </c>
       <c r="O8">
@@ -2473,7 +2627,7 @@
       <c r="P8" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="12">
         <v>10.000024109</v>
       </c>
       <c r="R8">
@@ -2491,42 +2645,42 @@
       <c r="V8">
         <v>20.91</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>27</v>
       </c>
-      <c r="AA8" s="38" t="s">
+      <c r="AC8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AB8" s="39" t="s">
+      <c r="AD8" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AG8" s="8"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="46"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>10</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>10</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>60</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <v>5</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>90</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="11">
         <v>-1.0003004150000001</v>
       </c>
       <c r="I9">
@@ -2544,7 +2698,7 @@
       <c r="P9" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="12">
         <v>10.000023613</v>
       </c>
       <c r="R9">
@@ -2562,42 +2716,42 @@
       <c r="V9">
         <v>20.91</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>27</v>
       </c>
-      <c r="AA9" s="38" t="s">
+      <c r="AC9" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AB9" s="39" t="s">
+      <c r="AD9" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AG9" s="8"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="46"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>-10</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>1.00037</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>10</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>60</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>5</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>90</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="11">
         <v>1.0003017431000001</v>
       </c>
       <c r="I10">
@@ -2615,7 +2769,7 @@
       <c r="P10" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="12">
         <v>-10.000021125</v>
       </c>
       <c r="R10">
@@ -2633,42 +2787,42 @@
       <c r="V10">
         <v>20.92</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>27</v>
       </c>
-      <c r="AA10" s="38" t="s">
+      <c r="AC10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="AB10" s="39" t="s">
+      <c r="AD10" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AG10" s="8"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="46"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>60</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>5</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>90</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="11">
         <v>-1.0003010632</v>
       </c>
       <c r="I11">
@@ -2686,7 +2840,7 @@
       <c r="P11" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="12">
         <v>10.000023240000001</v>
       </c>
       <c r="R11">
@@ -2704,42 +2858,42 @@
       <c r="V11">
         <v>20.91</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>27</v>
       </c>
-      <c r="AA11" s="38" t="s">
+      <c r="AC11" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="AB11" s="39" t="s">
+      <c r="AD11" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AG11" s="8"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="46"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>-1.0103736999999999</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>10</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>60</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>5</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>90</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="11">
         <v>-1.0103038602000001</v>
       </c>
       <c r="I12">
@@ -2748,7 +2902,7 @@
       <c r="M12" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="10">
         <v>-9.3988829519000006E-3</v>
       </c>
       <c r="O12">
@@ -2757,7 +2911,7 @@
       <c r="P12" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="12">
         <v>10.000023558000001</v>
       </c>
       <c r="R12">
@@ -2775,42 +2929,42 @@
       <c r="V12">
         <v>20.91</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Z12" t="s">
         <v>27</v>
       </c>
-      <c r="AA12" s="38" t="s">
+      <c r="AC12" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="AB12" s="39" t="s">
+      <c r="AD12" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AG12" s="8"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="46"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
         <v>10</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>60</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="8">
         <v>5</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>90</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="11">
         <v>-1.0003008807</v>
       </c>
       <c r="I13">
@@ -2828,7 +2982,7 @@
       <c r="P13" t="s">
         <v>66</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="12">
         <v>10.000023560000001</v>
       </c>
       <c r="R13">
@@ -2846,44 +3000,42 @@
       <c r="V13">
         <v>20.92</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Z13" t="s">
         <v>27</v>
       </c>
-      <c r="AA13" s="40" t="s">
+      <c r="AC13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AB13" s="41" t="s">
+      <c r="AD13" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
       <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="9"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="46"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <v>-10</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>1.00037</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <v>10</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>60</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>5</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <v>90</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="11">
         <v>1.0003016184</v>
       </c>
       <c r="I14">
@@ -2901,7 +3053,7 @@
       <c r="P14" t="s">
         <v>71</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="12">
         <v>-10.000021151</v>
       </c>
       <c r="R14">
@@ -2919,33 +3071,33 @@
       <c r="V14">
         <v>20.92</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Z14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>10</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>10</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>60</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <v>5</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <v>90</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="11">
         <v>-1.0003006325999999</v>
       </c>
       <c r="I15">
@@ -2963,7 +3115,7 @@
       <c r="P15" t="s">
         <v>74</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="12">
         <v>10.000023547</v>
       </c>
       <c r="R15">
@@ -2981,33 +3133,33 @@
       <c r="V15">
         <v>20.92</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Z15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>10</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>-1.0103736999999999</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <v>10</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>60</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="8">
         <v>5</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <v>90</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="11">
         <v>-1.010303849</v>
       </c>
       <c r="I16">
@@ -3016,7 +3168,7 @@
       <c r="M16" t="s">
         <v>76</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="10">
         <v>-9.3988667592000003E-3</v>
       </c>
       <c r="O16">
@@ -3025,7 +3177,7 @@
       <c r="P16" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="12">
         <v>10.000024298</v>
       </c>
       <c r="R16">
@@ -3043,33 +3195,33 @@
       <c r="V16">
         <v>20.92</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Z16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>10</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <v>10</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>60</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <v>5</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <v>90</v>
       </c>
       <c r="G17" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="11">
         <v>-1.0003015235999999</v>
       </c>
       <c r="I17">
@@ -3087,7 +3239,7 @@
       <c r="P17" t="s">
         <v>80</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="12">
         <v>10.000023888999999</v>
       </c>
       <c r="R17">
@@ -3105,33 +3257,33 @@
       <c r="V17">
         <v>20.91</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Z17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>-10</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <v>1.00037</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>10</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>60</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <v>5</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <v>90</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="11">
         <v>1.0003014786</v>
       </c>
       <c r="I18">
@@ -3149,7 +3301,7 @@
       <c r="P18" t="s">
         <v>83</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="12">
         <v>-10.000020242</v>
       </c>
       <c r="R18">
@@ -3167,33 +3319,33 @@
       <c r="V18">
         <v>20.92</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Z18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>10</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <v>10</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="8">
         <v>60</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="8">
         <v>5</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <v>90</v>
       </c>
       <c r="G19" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="11">
         <v>-1.0003005756000001</v>
       </c>
       <c r="I19">
@@ -3211,7 +3363,7 @@
       <c r="P19" t="s">
         <v>86</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="12">
         <v>10.000024202000001</v>
       </c>
       <c r="R19">
@@ -3229,33 +3381,33 @@
       <c r="V19">
         <v>20.91</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Z19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>10</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>-1.0103736999999999</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <v>10</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <v>60</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="8">
         <v>5</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="8">
         <v>90</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="11">
         <v>-1.0103038239</v>
       </c>
       <c r="I20">
@@ -3264,7 +3416,7 @@
       <c r="M20" t="s">
         <v>88</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="10">
         <v>-9.3983049583999997E-3</v>
       </c>
       <c r="O20">
@@ -3273,7 +3425,7 @@
       <c r="P20" t="s">
         <v>89</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="12">
         <v>10.000024446999999</v>
       </c>
       <c r="R20">
@@ -3291,33 +3443,33 @@
       <c r="V20">
         <v>20.91</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Z20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>10</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="8">
         <v>10</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>60</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>5</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="8">
         <v>90</v>
       </c>
       <c r="G21" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="11">
         <v>-1.0003010532000001</v>
       </c>
       <c r="I21">
@@ -3335,7 +3487,7 @@
       <c r="P21" t="s">
         <v>92</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="12">
         <v>10.000023072999999</v>
       </c>
       <c r="R21">
@@ -3353,33 +3505,33 @@
       <c r="V21">
         <v>20.91</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Z21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>-10</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>1.00037</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>10</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>60</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>5</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <v>90</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="11">
         <v>1.0003019523000001</v>
       </c>
       <c r="I22">
@@ -3397,7 +3549,7 @@
       <c r="P22" t="s">
         <v>95</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="12">
         <v>-10.000020631</v>
       </c>
       <c r="R22">
@@ -3415,33 +3567,33 @@
       <c r="V22">
         <v>20.91</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Z22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>10</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="8">
         <v>10</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>60</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <v>5</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="8">
         <v>90</v>
       </c>
       <c r="G23" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="11">
         <v>-1.0003009982</v>
       </c>
       <c r="I23">
@@ -3459,7 +3611,7 @@
       <c r="P23" t="s">
         <v>98</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="12">
         <v>10.000023493</v>
       </c>
       <c r="R23">
@@ -3477,33 +3629,33 @@
       <c r="V23">
         <v>20.91</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Z23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>10</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <v>-1.0103736999999999</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="8">
         <v>10</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8">
         <v>60</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <v>5</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="8">
         <v>90</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="11">
         <v>-1.0103039235</v>
       </c>
       <c r="I24">
@@ -3521,7 +3673,7 @@
       <c r="P24" t="s">
         <v>101</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="12">
         <v>10.000023782</v>
       </c>
       <c r="R24">
@@ -3539,27 +3691,27 @@
       <c r="V24">
         <v>20.91</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Z24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>10</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
         <v>10</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <v>60</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="8">
         <v>5</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="8">
         <v>90</v>
       </c>
       <c r="G25" t="s">
@@ -3601,27 +3753,27 @@
       <c r="V25">
         <v>20.91</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Z25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>-10</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>1.00037</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <v>10</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="8">
         <v>60</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="8">
         <v>5</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="8">
         <v>90</v>
       </c>
       <c r="G26" t="s">
@@ -3663,27 +3815,27 @@
       <c r="V26">
         <v>20.91</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Z26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>10</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <v>10</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="8">
         <v>60</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="8">
         <v>5</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="8">
         <v>90</v>
       </c>
       <c r="G27" t="s">
@@ -3725,27 +3877,27 @@
       <c r="V27">
         <v>20.91</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Z27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>10</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <v>-1.0103736999999999</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="8">
         <v>10</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="8">
         <v>60</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="8">
         <v>5</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="8">
         <v>90</v>
       </c>
       <c r="G28" t="s">
@@ -3787,27 +3939,27 @@
       <c r="V28">
         <v>20.91</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Z28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>10</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="8">
         <v>10</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="8">
         <v>60</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="8">
         <v>5</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="8">
         <v>90</v>
       </c>
       <c r="G29" t="s">
@@ -3849,27 +4001,27 @@
       <c r="V29">
         <v>20.91</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Z29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>-10</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="9">
         <v>1.00037</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="8">
         <v>10</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="8">
         <v>60</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="8">
         <v>5</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="8">
         <v>90</v>
       </c>
       <c r="G30" t="s">
@@ -3911,27 +4063,27 @@
       <c r="V30">
         <v>20.91</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Z30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>10</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="8">
         <v>10</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="8">
         <v>60</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="8">
         <v>5</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="8">
         <v>90</v>
       </c>
       <c r="G31" t="s">
@@ -3973,27 +4125,27 @@
       <c r="V31">
         <v>20.91</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Z31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>10</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="9">
         <v>-1.0103736999999999</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="8">
         <v>10</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="8">
         <v>60</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="8">
         <v>5</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="8">
         <v>90</v>
       </c>
       <c r="G32" t="s">
@@ -4035,27 +4187,27 @@
       <c r="V32">
         <v>20.9</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Z32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>10</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="8">
         <v>10</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="8">
         <v>60</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="8">
         <v>5</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="8">
         <v>90</v>
       </c>
       <c r="G33" t="s">
@@ -4097,27 +4249,27 @@
       <c r="V33">
         <v>20.9</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Z33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>-10</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <v>1.00037</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="8">
         <v>10</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="8">
         <v>60</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="8">
         <v>5</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="8">
         <v>90</v>
       </c>
       <c r="G34" t="s">
@@ -4159,27 +4311,27 @@
       <c r="V34">
         <v>20.9</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Z34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>10</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="8">
         <v>10</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="8">
         <v>60</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="8">
         <v>5</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="8">
         <v>90</v>
       </c>
       <c r="G35" t="s">
@@ -4221,27 +4373,27 @@
       <c r="V35">
         <v>20.9</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Z35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>10</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="9">
         <v>-1.0103736999999999</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="8">
         <v>10</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="8">
         <v>60</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="8">
         <v>5</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="8">
         <v>90</v>
       </c>
       <c r="G36" t="s">
@@ -4283,27 +4435,27 @@
       <c r="V36">
         <v>20.9</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Z36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>10</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="8">
         <v>10</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="8">
         <v>60</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="8">
         <v>5</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="8">
         <v>90</v>
       </c>
       <c r="G37" t="s">
@@ -4345,27 +4497,27 @@
       <c r="V37">
         <v>20.9</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Z37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>-10</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="9">
         <v>1.00037</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="8">
         <v>10</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="8">
         <v>60</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="8">
         <v>5</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="8">
         <v>90</v>
       </c>
       <c r="G38" t="s">
@@ -4407,27 +4559,27 @@
       <c r="V38">
         <v>20.9</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Z38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>10</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="9">
         <v>-1.00037</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="8">
         <v>10</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="8">
         <v>60</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="8">
         <v>5</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="8">
         <v>90</v>
       </c>
       <c r="G39" t="s">
@@ -4469,27 +4621,27 @@
       <c r="V39">
         <v>20.9</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Z39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>10</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="9">
         <v>-1.0103736999999999</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="8">
         <v>10</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="8">
         <v>60</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="8">
         <v>5</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="8">
         <v>90</v>
       </c>
       <c r="G40" t="s">
@@ -4531,19 +4683,20 @@
       <c r="V40">
         <v>20.9</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Z40" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
+    <mergeCell ref="W3:Y3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4552,28 +4705,28 @@
   <dimension ref="A1:T197"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="900" topLeftCell="A5" activePane="bottomLeft"/>
+      <pane ySplit="900" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="0" style="44" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="0" style="44" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="0" style="41" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4617,10 +4770,10 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4631,8 +4784,8 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="44" t="s">
-        <v>376</v>
+      <c r="M6" s="41" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -4646,7 +4799,7 @@
       <c r="D7" t="s">
         <v>157</v>
       </c>
-      <c r="M7" s="44">
+      <c r="M7" s="41">
         <f>(D8+D9)/(C8+C9)</f>
         <v>1E-4</v>
       </c>
@@ -4680,399 +4833,399 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="N10" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="N10" s="43" t="s">
-        <v>375</v>
-      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
+      <c r="A11" s="43">
         <v>-2.5508205729999999E-7</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="44">
         <v>-1.3576838219999999E-6</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="43">
         <v>7.7892653279999995E-8</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="44">
         <v>-1.526541932E-6</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="43">
         <v>-9.0640896509999997E-8</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="44">
         <v>-8.5264869389999995E-7</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="43">
         <v>-4.540295426E-7</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="44">
         <v>-1.151183179E-6</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="43">
         <v>-9.3347690030000001E-7</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="44">
         <v>-2.5551494170000001E-7</v>
       </c>
-      <c r="M11" s="44">
+      <c r="M11" s="41">
         <f>AVERAGE(A11:A20,C11:C20,E11:E20,G11:G20,I11:I20)</f>
         <v>-2.4256906195220004E-8</v>
       </c>
-      <c r="N11" s="44">
+      <c r="N11" s="41">
         <f>AVERAGE(B11:B20,D11:D20,F11:F20,H11:H20,J11:J20)</f>
         <v>-1.0476677315519998E-6</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="46">
+      <c r="A12" s="43">
         <v>-2.329783314E-7</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="44">
         <v>-8.8479890149999997E-7</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="43">
         <v>4.696283372E-7</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="44">
         <v>-1.143837057E-6</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="43">
         <v>2.3672395250000001E-7</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="44">
         <v>-9.0811889250000001E-7</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="43">
         <v>-4.6876899320000002E-7</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="44">
         <v>-1.0723838760000001E-6</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="43">
         <v>1.566664275E-7</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="44">
         <v>-1.1489325660000001E-6</v>
       </c>
-      <c r="M12" s="44">
+      <c r="M12" s="41">
         <f>STDEV(A11:A20,C11:C20,E11:E20,G11:G20,I11:I20)</f>
         <v>3.9183422676544929E-7</v>
       </c>
-      <c r="N12" s="44">
+      <c r="N12" s="41">
         <f>STDEV(B11:B20,D11:D20,F11:F20,H11:H20,J11:J20)</f>
         <v>4.3762876697781685E-7</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="46">
+      <c r="A13" s="43">
         <v>3.1379362389999998E-8</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="44">
         <v>-8.8662129070000005E-7</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="43">
         <v>-3.2810925009999999E-7</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="44">
         <v>-1.0834735659999999E-6</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="43">
         <v>-2.7551609240000001E-7</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="44">
         <v>-1.88789156E-6</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="43">
         <v>6.1374208640000002E-7</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="44">
         <v>-1.517813063E-6</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="43">
         <v>3.3648688669999999E-7</v>
       </c>
-      <c r="J13" s="47">
+      <c r="J13" s="44">
         <v>-1.2409641850000001E-6</v>
       </c>
-      <c r="M13" s="44">
+      <c r="M13" s="41">
         <f>COUNT(A11:A20,C11:C20,E11:E20,G11:G20,I11:I20) -1</f>
         <v>49</v>
       </c>
-      <c r="N13" s="44">
+      <c r="N13" s="41">
         <f>COUNT(B11:B20,D11:D20,F11:F20,H11:H20,J11:J20) -1</f>
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
+      <c r="A14" s="43">
         <v>-3.4041104090000001E-7</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="44">
         <v>-4.5752566669999999E-7</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="43">
         <v>3.3334515060000001E-7</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="44">
         <v>-6.7701942210000005E-7</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="43">
         <v>-1.40149892E-7</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="44">
         <v>-1.17228996E-6</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="43">
         <v>-1.8196594780000001E-7</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="44">
         <v>-1.0005110040000001E-6</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="43">
         <v>2.7490876120000001E-7</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="44">
         <v>-5.7805519300000001E-7</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+      <c r="A15" s="43">
         <v>1.313237668E-7</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="44">
         <v>-3.1456741079999998E-7</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="43">
         <v>1.878475588E-7</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="44">
         <v>-1.1138342589999999E-6</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="43">
         <v>-4.661972748E-7</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="44">
         <v>-1.4291574219999999E-6</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="43">
         <v>3.2798565089999999E-7</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="44">
         <v>-1.095641381E-6</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="43">
         <v>-5.4078980540000003E-7</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="44">
         <v>-5.7904930630000002E-7</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="46">
+      <c r="A16" s="43">
         <v>2.6953165200000002E-7</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="44">
         <v>-1.212402181E-6</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="43">
         <v>-7.9742990500000004E-7</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="44">
         <v>-3.6480221039999999E-7</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="43">
         <v>-3.041675561E-7</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="44">
         <v>-6.067222978E-7</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="43">
         <v>3.2217802620000002E-7</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="44">
         <v>-1.266538701E-6</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="43">
         <v>4.6932641659999997E-7</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="44">
         <v>-7.616225854E-7</v>
       </c>
-      <c r="M16" s="44" t="s">
-        <v>377</v>
+      <c r="M16" s="41" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="46">
+      <c r="A17" s="43">
         <v>-1.575971561E-8</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="44">
         <v>-2.8322875899999997E-7</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="43">
         <v>-2.1855651280000001E-7</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="44">
         <v>-1.663007495E-6</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="43">
         <v>6.0650423680000001E-7</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="44">
         <v>-1.070228262E-6</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="43">
         <v>1.988355448E-7</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="44">
         <v>-6.1669783589999997E-7</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="43">
         <v>-7.8462624280000005E-7</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="44">
         <v>-1.3152882480000001E-6</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="19">
         <f>(M11-N11)/(2*M7)</f>
         <v>5.1170541267838987E-3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="46">
+      <c r="A18" s="43">
         <v>-1.2308889670000001E-7</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="44">
         <v>-1.2378918320000001E-6</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="43">
         <v>6.4553057010000001E-7</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="44">
         <v>-2.3575592369999999E-6</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="43">
         <v>6.7141076369999996E-8</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="44">
         <v>-8.0649555399999999E-7</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="43">
         <v>-4.3256538039999999E-8</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="44">
         <v>-1.2472023610000001E-6</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="43">
         <v>2.6299945499999999E-7</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="44">
         <v>-1.659228216E-6</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="19">
         <f>SQRT((M12/(2*M7))^2 + (N12/(2*M7))^2)</f>
         <v>2.9370606009725174E-3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="46">
+      <c r="A19" s="43">
         <v>-2.046850027E-8</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="44">
         <v>-1.2238996020000001E-6</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="43">
         <v>-1.16227168E-8</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="44">
         <v>-1.6838573339999999E-6</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="43">
         <v>-2.5092242050000002E-7</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="44">
         <v>-1.207616034E-6</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="43">
         <v>-3.2334846029999998E-7</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="44">
         <v>-5.592732282E-7</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="43">
         <v>8.5401725989999993E-9</v>
       </c>
-      <c r="J19" s="47">
+      <c r="J19" s="44">
         <v>-1.097368512E-6</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="12">
         <f>M18^4/((M12/(2*M7))^4/M13 + (N12/(2*M7))^4/N13)</f>
         <v>96.826604214397832</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="46">
+      <c r="A20" s="43">
         <v>5.0665702130000002E-7</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="44">
         <v>-9.1759749160000004E-7</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="43">
         <v>7.488898111E-7</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="44">
         <v>-1.2980028909999999E-6</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="43">
         <v>-3.6859517370000001E-7</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="44">
         <v>-1.086330224E-6</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="43">
         <v>1.6638612129999999E-8</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="44">
         <v>-1.2377025979999999E-6</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="43">
         <v>-5.4358983570000004E-7</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="44">
         <v>-2.6676433610000002E-7</v>
       </c>
     </row>
@@ -5127,81 +5280,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="540" activePane="bottomLeft"/>
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="615" activePane="bottomLeft"/>
+      <selection activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="48" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="44" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="44" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.42578125" style="44" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="41" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="41" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="41" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="74" style="41" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="G2" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="14" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -5220,8 +5377,8 @@
       <c r="F3" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="48" t="s">
-        <v>379</v>
+      <c r="G3" s="22" t="s">
+        <v>378</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -5229,10 +5386,10 @@
       <c r="J3" t="s">
         <v>176</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="26">
         <v>-1E-3</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="26">
         <v>4.4999999999999999E-4</v>
       </c>
       <c r="M3" t="s">
@@ -5241,8 +5398,11 @@
       <c r="N3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="41" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -5271,14 +5431,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>172</v>
       </c>
       <c r="B5" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="26">
         <v>3.9091200000000003E-3</v>
       </c>
       <c r="D5">
@@ -5300,14 +5460,14 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>172</v>
       </c>
       <c r="B6" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="26">
         <v>-5.9260000000000005E-7</v>
       </c>
       <c r="D6">
@@ -5329,14 +5489,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>172</v>
       </c>
       <c r="B7" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="27">
         <v>1</v>
       </c>
       <c r="I7" t="s">
@@ -5349,41 +5509,42 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="52"/>
-      <c r="I8" s="17" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="31"/>
+      <c r="I8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="14">
         <v>1</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>193</v>
       </c>
       <c r="B9" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="26">
         <v>10000.200000000001</v>
       </c>
       <c r="D9">
@@ -5401,10 +5562,10 @@
       <c r="J9" t="s">
         <v>176</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="26">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="26">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="M9" t="s">
@@ -5413,15 +5574,18 @@
       <c r="N9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>193</v>
       </c>
       <c r="B10" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>23</v>
       </c>
       <c r="D10">
@@ -5443,14 +5607,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>193</v>
       </c>
       <c r="B11" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="26">
         <v>1E-3</v>
       </c>
       <c r="D11">
@@ -5472,14 +5636,14 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>193</v>
       </c>
       <c r="B12" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="26">
         <v>0</v>
       </c>
       <c r="D12">
@@ -5501,14 +5665,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>193</v>
       </c>
       <c r="B13" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="27">
         <v>1</v>
       </c>
       <c r="I13" t="s">
@@ -5521,34 +5685,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="52"/>
-      <c r="I14" s="17" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="31"/>
+      <c r="I14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="14">
         <v>1</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -5577,14 +5742,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>161</v>
       </c>
       <c r="B16" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>20</v>
       </c>
       <c r="D16">
@@ -5606,14 +5771,14 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
       <c r="B17" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="26">
         <v>5</v>
       </c>
       <c r="D17">
@@ -5635,7 +5800,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>161</v>
       </c>
@@ -5664,14 +5829,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>161</v>
       </c>
       <c r="B19" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="10">
         <v>20</v>
       </c>
       <c r="D19">
@@ -5683,20 +5848,21 @@
       <c r="F19" t="s">
         <v>211</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="14">
         <v>1</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="31"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -5725,17 +5891,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>161</v>
       </c>
       <c r="B21" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="26">
         <v>3.4200000000000002E-7</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="26">
         <v>1.9000000000000001E-8</v>
       </c>
       <c r="E21">
@@ -5754,17 +5920,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>161</v>
       </c>
       <c r="B22" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="26">
         <v>-2.7E-8</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="26">
         <v>5.0000000000000001E-9</v>
       </c>
       <c r="E22">
@@ -5783,7 +5949,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -5812,43 +5978,44 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>161</v>
       </c>
       <c r="B24" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="27">
         <v>42522</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="14">
         <v>1</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="52"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="31"/>
       <c r="I25" t="s">
         <v>219</v>
       </c>
@@ -5859,14 +6026,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>159</v>
       </c>
       <c r="B26" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="19">
         <v>100003.194</v>
       </c>
       <c r="D26">
@@ -5888,14 +6055,14 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>159</v>
       </c>
       <c r="B27" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="10">
         <v>20.621099999999998</v>
       </c>
       <c r="D27">
@@ -5917,17 +6084,17 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>159</v>
       </c>
       <c r="B28" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="16">
         <v>5.0000031649999999</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="26">
         <v>7.6000000000000006E-8</v>
       </c>
       <c r="E28">
@@ -5946,14 +6113,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>159</v>
       </c>
       <c r="B29" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="18">
         <v>100003.41</v>
       </c>
       <c r="D29">
@@ -5965,20 +6132,21 @@
       <c r="F29" t="s">
         <v>224</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="14">
         <v>1</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="31"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -6007,17 +6175,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>159</v>
       </c>
       <c r="B31" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="20">
         <v>10.0000365</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="26">
         <v>1.6E-7</v>
       </c>
       <c r="E31">
@@ -6036,17 +6204,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>159</v>
       </c>
       <c r="B32" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="26">
         <v>3.4200000000000002E-7</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="26">
         <v>1.9000000000000001E-8</v>
       </c>
       <c r="E32">
@@ -6065,7 +6233,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>159</v>
       </c>
@@ -6094,17 +6262,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>159</v>
       </c>
       <c r="B34" t="s">
         <v>217</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="26">
         <v>5.7900000000000002E-8</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="26">
         <v>1.22E-8</v>
       </c>
       <c r="E34">
@@ -6113,27 +6281,28 @@
       <c r="F34" t="s">
         <v>229</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="14">
         <v>1</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="31"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>159</v>
       </c>
       <c r="B35" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="10" t="s">
         <v>230</v>
       </c>
       <c r="I35" t="s">
@@ -6152,25 +6321,25 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="52"/>
+      <c r="C36" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="31"/>
       <c r="I36" t="s">
         <v>34</v>
       </c>
       <c r="J36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -6182,9 +6351,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s">
         <v>173</v>
@@ -6199,13 +6368,13 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I37" t="s">
         <v>34</v>
       </c>
       <c r="J37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -6217,9 +6386,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B38" t="s">
         <v>178</v>
@@ -6234,13 +6403,13 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I38" t="s">
         <v>34</v>
       </c>
       <c r="J38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -6252,9 +6421,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B39" t="s">
         <v>204</v>
@@ -6262,20 +6431,20 @@
       <c r="C39">
         <v>5.0000212399999997</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="26">
         <v>5.5000000000000003E-8</v>
       </c>
       <c r="E39">
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I39" t="s">
         <v>34</v>
       </c>
       <c r="J39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -6287,14 +6456,14 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="10">
         <v>1000064.65</v>
       </c>
       <c r="D40">
@@ -6304,13 +6473,13 @@
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I40" t="s">
         <v>34</v>
       </c>
       <c r="J40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -6322,9 +6491,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B41" t="s">
         <v>210</v>
@@ -6339,13 +6508,13 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I41" t="s">
         <v>34</v>
       </c>
       <c r="J41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -6357,9 +6526,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B42" t="s">
         <v>212</v>
@@ -6367,20 +6536,20 @@
       <c r="C42">
         <v>10.00007862</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="26">
         <v>1.1999999999999999E-7</v>
       </c>
       <c r="E42">
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I42" t="s">
         <v>34</v>
       </c>
       <c r="J42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -6392,9 +6561,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B43" t="s">
         <v>181</v>
@@ -6402,14 +6571,14 @@
       <c r="C43">
         <v>5.558E-6</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="26">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E43">
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I43" t="s">
         <v>34</v>
@@ -6421,9 +6590,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B44" t="s">
         <v>185</v>
@@ -6431,14 +6600,14 @@
       <c r="C44">
         <v>-3.3780000000000002E-7</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="26">
         <v>1E-8</v>
       </c>
       <c r="E44">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I44" t="s">
         <v>34</v>
@@ -6447,12 +6616,12 @@
         <v>183</v>
       </c>
       <c r="K44" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B45" t="s">
         <v>217</v>
@@ -6460,7 +6629,7 @@
       <c r="C45">
         <v>1.7E-8</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="26">
         <v>1.7E-8</v>
       </c>
       <c r="E45">
@@ -6476,48 +6645,49 @@
         <v>189</v>
       </c>
       <c r="K45" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
         <v>188</v>
       </c>
       <c r="C46" t="s">
+        <v>250</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K46" s="14">
+        <v>1</v>
+      </c>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="31"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="31"/>
+      <c r="I47" t="s">
         <v>251</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="K46" s="17">
-        <v>1</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="52"/>
-      <c r="I47" t="s">
-        <v>252</v>
       </c>
       <c r="J47" t="s">
         <v>231</v>
@@ -6532,9 +6702,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>253</v>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="B48" t="s">
         <v>173</v>
@@ -6549,13 +6719,16 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>382</v>
       </c>
       <c r="I48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -6567,9 +6740,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s">
         <v>178</v>
@@ -6584,13 +6757,16 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>382</v>
       </c>
       <c r="I49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -6602,9 +6778,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B50" t="s">
         <v>204</v>
@@ -6612,17 +6788,20 @@
       <c r="C50">
         <v>10.00008002</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="26">
         <v>1.4999999999999999E-7</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>382</v>
       </c>
       <c r="I50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J50" t="s">
         <v>180</v>
@@ -6630,11 +6809,11 @@
       <c r="K50">
         <v>7</v>
       </c>
-      <c r="M50" s="25"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M50" s="22"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B51" t="s">
         <v>208</v>
@@ -6649,22 +6828,25 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>382</v>
       </c>
       <c r="I51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J51" t="s">
         <v>183</v>
       </c>
       <c r="K51" t="s">
-        <v>257</v>
-      </c>
-      <c r="M51" s="25"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="M51" s="22"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B52" t="s">
         <v>210</v>
@@ -6679,22 +6861,25 @@
         <v>2</v>
       </c>
       <c r="F52" t="s">
+        <v>257</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="I52" t="s">
+        <v>251</v>
+      </c>
+      <c r="J52" t="s">
         <v>258</v>
       </c>
-      <c r="I52" t="s">
+      <c r="K52" t="s">
+        <v>259</v>
+      </c>
+      <c r="M52" s="22"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>252</v>
-      </c>
-      <c r="J52" t="s">
-        <v>259</v>
-      </c>
-      <c r="K52" t="s">
-        <v>260</v>
-      </c>
-      <c r="M52" s="25"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>253</v>
       </c>
       <c r="B53" t="s">
         <v>212</v>
@@ -6702,59 +6887,62 @@
       <c r="C53">
         <v>100.0007269</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="26">
         <v>1.5E-6</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>382</v>
       </c>
       <c r="I53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J53" t="s">
         <v>206</v>
       </c>
       <c r="K53" t="s">
-        <v>262</v>
-      </c>
-      <c r="M53" s="25"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="M53" s="22"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B54" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="26">
         <v>6.8000000000000001E-6</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="26">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E54">
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J54" t="s">
         <v>189</v>
       </c>
       <c r="K54" t="s">
-        <v>264</v>
-      </c>
-      <c r="M54" s="25"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="M54" s="22"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B55" t="s">
         <v>185</v>
@@ -6769,39 +6957,40 @@
         <v>174</v>
       </c>
       <c r="F55" t="s">
-        <v>265</v>
-      </c>
-      <c r="I55" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K55" s="14">
+        <v>1</v>
+      </c>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="31"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>252</v>
-      </c>
-      <c r="J55" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="K55" s="17">
-        <v>1</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>253</v>
       </c>
       <c r="B56" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="26">
         <v>-1.3000000000000001E-8</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="26">
         <v>1.3000000000000001E-9</v>
       </c>
       <c r="E56">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I56" t="s">
         <v>54</v>
@@ -6819,21 +7008,24 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B57" t="s">
         <v>188</v>
       </c>
       <c r="C57" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="G57" s="48" t="s">
+        <v>382</v>
       </c>
       <c r="I57" t="s">
         <v>54</v>
       </c>
       <c r="J57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -6845,25 +7037,25 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B58" s="17" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="52"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="31"/>
       <c r="I58" t="s">
         <v>54</v>
       </c>
       <c r="J58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -6875,9 +7067,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>268</v>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>267</v>
       </c>
       <c r="B59" t="s">
         <v>173</v>
@@ -6892,7 +7084,7 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I59" t="s">
         <v>54</v>
@@ -6904,9 +7096,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B60" t="s">
         <v>178</v>
@@ -6921,7 +7113,7 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I60" t="s">
         <v>54</v>
@@ -6930,12 +7122,12 @@
         <v>183</v>
       </c>
       <c r="K60" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B61" t="s">
         <v>204</v>
@@ -6943,28 +7135,28 @@
       <c r="C61">
         <v>100.0003961</v>
       </c>
-      <c r="D61" s="29">
+      <c r="D61" s="26">
         <v>8.8000000000000004E-7</v>
       </c>
       <c r="E61">
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I61" t="s">
         <v>54</v>
       </c>
       <c r="J61" t="s">
+        <v>258</v>
+      </c>
+      <c r="K61" t="s">
         <v>259</v>
       </c>
-      <c r="K61" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B62" t="s">
         <v>208</v>
@@ -6979,7 +7171,7 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I62" t="s">
         <v>54</v>
@@ -6988,12 +7180,12 @@
         <v>206</v>
       </c>
       <c r="K62" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B63" t="s">
         <v>210</v>
@@ -7008,7 +7200,7 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I63" t="s">
         <v>54</v>
@@ -7017,12 +7209,12 @@
         <v>189</v>
       </c>
       <c r="K63" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B64" t="s">
         <v>212</v>
@@ -7030,66 +7222,67 @@
       <c r="C64">
         <v>1000.0024100000001</v>
       </c>
-      <c r="D64" s="29">
+      <c r="D64" s="26">
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="E64">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>276</v>
-      </c>
-      <c r="I64" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I64" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J64" s="17" t="s">
+      <c r="J64" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K64" s="14">
         <v>1</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="31"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B65" t="s">
         <v>181</v>
       </c>
-      <c r="C65" s="29">
+      <c r="C65" s="26">
         <v>6.8000000000000001E-6</v>
       </c>
-      <c r="D65" s="29">
+      <c r="D65" s="26">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E65">
         <v>8</v>
       </c>
       <c r="F65" t="s">
+        <v>276</v>
+      </c>
+      <c r="I65" t="s">
         <v>277</v>
-      </c>
-      <c r="I65" t="s">
-        <v>278</v>
       </c>
       <c r="J65" t="s">
         <v>231</v>
       </c>
-      <c r="K65" s="25">
+      <c r="K65" s="22">
         <v>0</v>
       </c>
-      <c r="L65" s="25">
+      <c r="L65" s="22">
         <v>0</v>
       </c>
-      <c r="M65" s="25" t="s">
+      <c r="M65" s="22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B66" t="s">
         <v>185</v>
@@ -7104,130 +7297,133 @@
         <v>174</v>
       </c>
       <c r="F66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I66" t="s">
+        <v>277</v>
+      </c>
+      <c r="J66" t="s">
+        <v>232</v>
+      </c>
+      <c r="K66" s="23">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L66" s="23">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M66" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N66" t="s">
         <v>279</v>
       </c>
-      <c r="I66" t="s">
-        <v>278</v>
-      </c>
-      <c r="J66" t="s">
-        <v>233</v>
-      </c>
-      <c r="K66" s="26">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L66" s="26">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M66" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="N66" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B67" t="s">
         <v>217</v>
       </c>
-      <c r="C67" s="29">
+      <c r="C67" s="26">
         <v>-1.3000000000000001E-8</v>
       </c>
-      <c r="D67" s="29">
+      <c r="D67" s="26">
         <v>1.3000000000000001E-9</v>
       </c>
       <c r="E67">
         <v>17</v>
       </c>
       <c r="F67" t="s">
+        <v>280</v>
+      </c>
+      <c r="I67" t="s">
+        <v>277</v>
+      </c>
+      <c r="J67" t="s">
+        <v>235</v>
+      </c>
+      <c r="K67" s="23">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L67" s="23">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M67" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N67" t="s">
         <v>281</v>
       </c>
-      <c r="I67" t="s">
-        <v>278</v>
-      </c>
-      <c r="J67" t="s">
-        <v>236</v>
-      </c>
-      <c r="K67" s="26">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L67" s="26">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M67" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="N67" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B68" t="s">
         <v>188</v>
       </c>
       <c r="C68" t="s">
+        <v>266</v>
+      </c>
+      <c r="I68" t="s">
+        <v>277</v>
+      </c>
+      <c r="J68" t="s">
+        <v>237</v>
+      </c>
+      <c r="K68" s="22">
+        <v>0</v>
+      </c>
+      <c r="L68" s="22">
+        <v>0</v>
+      </c>
+      <c r="M68" s="22">
+        <v>7</v>
+      </c>
+      <c r="N68" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="I68" t="s">
-        <v>278</v>
-      </c>
-      <c r="J68" t="s">
-        <v>238</v>
-      </c>
-      <c r="K68" s="25">
-        <v>0</v>
-      </c>
-      <c r="L68" s="25">
-        <v>0</v>
-      </c>
-      <c r="M68" s="25">
+      <c r="B69" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="31"/>
+      <c r="I69" t="s">
+        <v>277</v>
+      </c>
+      <c r="J69" t="s">
+        <v>239</v>
+      </c>
+      <c r="K69" s="23">
+        <v>2.2210000000000001E-7</v>
+      </c>
+      <c r="L69" s="23">
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M69" s="22">
         <v>7</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N69" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="52"/>
-      <c r="I69" t="s">
-        <v>278</v>
-      </c>
-      <c r="J69" t="s">
-        <v>240</v>
-      </c>
-      <c r="K69" s="26">
-        <v>2.2210000000000001E-7</v>
-      </c>
-      <c r="L69" s="26">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M69" s="25">
-        <v>7</v>
-      </c>
-      <c r="N69" t="s">
+      <c r="O69" s="41" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
-        <v>285</v>
       </c>
       <c r="B70" t="s">
         <v>173</v>
@@ -7242,30 +7438,33 @@
         <v>8</v>
       </c>
       <c r="F70" t="s">
+        <v>285</v>
+      </c>
+      <c r="I70" t="s">
+        <v>277</v>
+      </c>
+      <c r="J70" t="s">
+        <v>241</v>
+      </c>
+      <c r="K70" s="23">
+        <v>4.8090000000000002E-7</v>
+      </c>
+      <c r="L70" s="23">
+        <v>1.8E-7</v>
+      </c>
+      <c r="M70" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N70" t="s">
         <v>286</v>
       </c>
-      <c r="I70" t="s">
-        <v>278</v>
-      </c>
-      <c r="J70" t="s">
-        <v>242</v>
-      </c>
-      <c r="K70" s="26">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L70" s="26">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M70" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="N70" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B71" t="s">
         <v>178</v>
@@ -7280,30 +7479,33 @@
         <v>9</v>
       </c>
       <c r="F71" t="s">
+        <v>287</v>
+      </c>
+      <c r="I71" t="s">
+        <v>277</v>
+      </c>
+      <c r="J71" t="s">
+        <v>243</v>
+      </c>
+      <c r="K71" s="22">
+        <v>0</v>
+      </c>
+      <c r="L71" s="23">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M71" s="22">
+        <v>8</v>
+      </c>
+      <c r="N71" t="s">
         <v>288</v>
       </c>
-      <c r="I71" t="s">
-        <v>278</v>
-      </c>
-      <c r="J71" t="s">
-        <v>244</v>
-      </c>
-      <c r="K71" s="25">
-        <v>0</v>
-      </c>
-      <c r="L71" s="26">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M71" s="25">
-        <v>8</v>
-      </c>
-      <c r="N71" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B72" t="s">
         <v>204</v>
@@ -7311,37 +7513,40 @@
       <c r="C72">
         <v>100.0003961</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="26">
         <v>8.8000000000000004E-7</v>
       </c>
       <c r="E72">
         <v>9</v>
       </c>
       <c r="F72" t="s">
+        <v>289</v>
+      </c>
+      <c r="I72" t="s">
+        <v>277</v>
+      </c>
+      <c r="J72" t="s">
+        <v>245</v>
+      </c>
+      <c r="K72" s="22">
+        <v>0</v>
+      </c>
+      <c r="L72" s="23">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M72" s="22">
+        <v>8</v>
+      </c>
+      <c r="N72" t="s">
         <v>290</v>
       </c>
-      <c r="I72" t="s">
-        <v>278</v>
-      </c>
-      <c r="J72" t="s">
-        <v>246</v>
-      </c>
-      <c r="K72" s="25">
-        <v>0</v>
-      </c>
-      <c r="L72" s="26">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M72" s="25">
-        <v>8</v>
-      </c>
-      <c r="N72" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B73" t="s">
         <v>208</v>
@@ -7356,21 +7561,21 @@
         <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J73" t="s">
         <v>180</v>
       </c>
-      <c r="K73" s="25">
+      <c r="K73" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B74" t="s">
         <v>210</v>
@@ -7385,21 +7590,21 @@
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J74" t="s">
         <v>183</v>
       </c>
-      <c r="K74" s="25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K74" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B75" t="s">
         <v>212</v>
@@ -7407,57 +7612,57 @@
       <c r="C75">
         <v>1000.0024100000001</v>
       </c>
-      <c r="D75" s="29">
+      <c r="D75" s="26">
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="E75">
         <v>9</v>
       </c>
       <c r="F75" t="s">
+        <v>294</v>
+      </c>
+      <c r="I75" t="s">
+        <v>277</v>
+      </c>
+      <c r="J75" t="s">
+        <v>258</v>
+      </c>
+      <c r="K75" t="s">
         <v>295</v>
       </c>
-      <c r="I75" t="s">
-        <v>278</v>
-      </c>
-      <c r="J75" t="s">
-        <v>259</v>
-      </c>
-      <c r="K75" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B76" t="s">
         <v>181</v>
       </c>
-      <c r="C76" s="29">
+      <c r="C76" s="26">
         <v>6.8000000000000001E-6</v>
       </c>
-      <c r="D76" s="29">
+      <c r="D76" s="26">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E76">
         <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J76" t="s">
         <v>206</v>
       </c>
       <c r="K76" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B77" t="s">
         <v>185</v>
@@ -7472,112 +7677,113 @@
         <v>174</v>
       </c>
       <c r="F77" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I77" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J77" t="s">
         <v>189</v>
       </c>
       <c r="K77" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B78" t="s">
         <v>217</v>
       </c>
-      <c r="C78" s="29">
+      <c r="C78" s="26">
         <v>-1.3000000000000001E-8</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="26">
         <v>1.3000000000000001E-9</v>
       </c>
       <c r="E78">
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>301</v>
-      </c>
-      <c r="I78" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="J78" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="J78" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K78" s="17">
+      <c r="K78" s="14">
         <v>1</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="31"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B79" t="s">
         <v>188</v>
       </c>
       <c r="C79" t="s">
+        <v>301</v>
+      </c>
+      <c r="I79" t="s">
         <v>302</v>
-      </c>
-      <c r="I79" t="s">
-        <v>303</v>
       </c>
       <c r="J79" t="s">
         <v>231</v>
       </c>
-      <c r="K79" s="25">
+      <c r="K79" s="22">
         <v>0</v>
       </c>
-      <c r="L79" s="25">
+      <c r="L79" s="22">
         <v>0</v>
       </c>
-      <c r="M79" s="25" t="s">
+      <c r="M79" s="22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B80" s="17" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B80" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="52"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="31"/>
       <c r="I80" t="s">
+        <v>302</v>
+      </c>
+      <c r="J80" t="s">
+        <v>232</v>
+      </c>
+      <c r="K80" s="23">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L80" s="23">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M80" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N80" t="s">
         <v>303</v>
       </c>
-      <c r="J80" t="s">
-        <v>233</v>
-      </c>
-      <c r="K80" s="26">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L80" s="26">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M80" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="N80" t="s">
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>305</v>
       </c>
       <c r="B81" t="s">
         <v>173</v>
@@ -7592,30 +7798,30 @@
         <v>429.4639150882258</v>
       </c>
       <c r="F81" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I81" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J81" t="s">
-        <v>236</v>
-      </c>
-      <c r="K81" s="26">
+        <v>235</v>
+      </c>
+      <c r="K81" s="23">
         <v>-5.63E-5</v>
       </c>
-      <c r="L81" s="26">
+      <c r="L81" s="23">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M81" s="25" t="s">
+      <c r="M81" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N81" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B82" t="s">
         <v>178</v>
@@ -7630,30 +7836,33 @@
         <v>16.6067317125116</v>
       </c>
       <c r="F82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I82" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J82" t="s">
-        <v>238</v>
-      </c>
-      <c r="K82" s="25">
+        <v>237</v>
+      </c>
+      <c r="K82" s="22">
         <v>0</v>
       </c>
-      <c r="L82" s="25">
+      <c r="L82" s="22">
         <v>0</v>
       </c>
-      <c r="M82" s="25">
+      <c r="M82" s="22">
         <v>7</v>
       </c>
       <c r="N82" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="O82" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B83" t="s">
         <v>204</v>
@@ -7668,30 +7877,33 @@
         <v>61.084489897408162</v>
       </c>
       <c r="F83" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J83" t="s">
-        <v>240</v>
-      </c>
-      <c r="K83" s="26">
+        <v>239</v>
+      </c>
+      <c r="K83" s="23">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L83" s="26">
+      <c r="L83" s="23">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M83" s="25">
+      <c r="M83" s="22">
         <v>7</v>
       </c>
       <c r="N83" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="O83" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s">
         <v>208</v>
@@ -7706,30 +7918,33 @@
         <v>549.44114740265024</v>
       </c>
       <c r="F84" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I84" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J84" t="s">
-        <v>242</v>
-      </c>
-      <c r="K84" s="26">
+        <v>241</v>
+      </c>
+      <c r="K84" s="23">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L84" s="26">
+      <c r="L84" s="23">
         <v>1.8E-7</v>
       </c>
-      <c r="M84" s="25" t="s">
+      <c r="M84" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N84" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="O84" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s">
         <v>210</v>
@@ -7744,30 +7959,33 @@
         <v>3.500850985483507</v>
       </c>
       <c r="F85" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J85" t="s">
-        <v>244</v>
-      </c>
-      <c r="K85" s="25">
+        <v>243</v>
+      </c>
+      <c r="K85" s="22">
         <v>0</v>
       </c>
-      <c r="L85" s="26">
+      <c r="L85" s="23">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M85" s="25">
+      <c r="M85" s="22">
         <v>8</v>
       </c>
       <c r="N85" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="O85" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B86" t="s">
         <v>212</v>
@@ -7782,30 +8000,30 @@
         <v>108.93931120587359</v>
       </c>
       <c r="F86" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I86" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J86" t="s">
-        <v>246</v>
-      </c>
-      <c r="K86" s="25">
+        <v>245</v>
+      </c>
+      <c r="K86" s="22">
         <v>0</v>
       </c>
-      <c r="L86" s="26">
+      <c r="L86" s="23">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M86" s="25">
+      <c r="M86" s="22">
         <v>8</v>
       </c>
       <c r="N86" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B87" t="s">
         <v>181</v>
@@ -7820,21 +8038,21 @@
         <v>65.933408080168974</v>
       </c>
       <c r="F87" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I87" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J87" t="s">
         <v>180</v>
       </c>
-      <c r="K87" s="25">
+      <c r="K87" s="22">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B88" t="s">
         <v>185</v>
@@ -7849,21 +8067,21 @@
         <v>174</v>
       </c>
       <c r="F88" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J88" t="s">
         <v>183</v>
       </c>
-      <c r="K88" s="25" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K88" s="22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B89" t="s">
         <v>217</v>
@@ -7878,65 +8096,65 @@
         <v>816.58679248384738</v>
       </c>
       <c r="F89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K89" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B90" t="s">
         <v>188</v>
       </c>
-      <c r="C90" s="33">
+      <c r="C90" s="30">
         <v>42494.906767388668</v>
       </c>
       <c r="I90" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J90" t="s">
         <v>206</v>
       </c>
       <c r="K90" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="B91" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="B91" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="C91" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="52"/>
+      <c r="C91" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="31"/>
       <c r="I91" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J91" t="s">
         <v>189</v>
       </c>
       <c r="K91" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>317</v>
       </c>
       <c r="B92" t="s">
         <v>173</v>
@@ -7951,24 +8169,25 @@
         <v>181.66654604068069</v>
       </c>
       <c r="F92" t="s">
-        <v>318</v>
-      </c>
-      <c r="I92" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="J92" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J92" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K92" s="17">
+      <c r="K92" s="14">
         <v>1</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="31"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B93" t="s">
         <v>178</v>
@@ -7983,27 +8202,27 @@
         <v>22.93020485359223</v>
       </c>
       <c r="F93" t="s">
+        <v>318</v>
+      </c>
+      <c r="I93" t="s">
         <v>319</v>
-      </c>
-      <c r="I93" t="s">
-        <v>320</v>
       </c>
       <c r="J93" t="s">
         <v>231</v>
       </c>
-      <c r="K93" s="25">
+      <c r="K93" s="22">
         <v>0</v>
       </c>
-      <c r="L93" s="25">
+      <c r="L93" s="22">
         <v>0</v>
       </c>
-      <c r="M93" s="25" t="s">
+      <c r="M93" s="22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B94" t="s">
         <v>204</v>
@@ -8018,30 +8237,30 @@
         <v>142.45334891978871</v>
       </c>
       <c r="F94" t="s">
+        <v>320</v>
+      </c>
+      <c r="I94" t="s">
+        <v>319</v>
+      </c>
+      <c r="J94" t="s">
+        <v>232</v>
+      </c>
+      <c r="K94" s="23">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L94" s="23">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M94" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N94" t="s">
         <v>321</v>
       </c>
-      <c r="I94" t="s">
-        <v>320</v>
-      </c>
-      <c r="J94" t="s">
-        <v>233</v>
-      </c>
-      <c r="K94" s="26">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L94" s="26">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M94" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="N94" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B95" t="s">
         <v>208</v>
@@ -8056,30 +8275,30 @@
         <v>129.33446721235609</v>
       </c>
       <c r="F95" t="s">
+        <v>322</v>
+      </c>
+      <c r="I95" t="s">
+        <v>319</v>
+      </c>
+      <c r="J95" t="s">
+        <v>235</v>
+      </c>
+      <c r="K95" s="23">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L95" s="23">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M95" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N95" t="s">
         <v>323</v>
       </c>
-      <c r="I95" t="s">
-        <v>320</v>
-      </c>
-      <c r="J95" t="s">
-        <v>236</v>
-      </c>
-      <c r="K95" s="26">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L95" s="26">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M95" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="N95" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B96" t="s">
         <v>210</v>
@@ -8094,30 +8313,33 @@
         <v>31.432062951924902</v>
       </c>
       <c r="F96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I96" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J96" t="s">
-        <v>238</v>
-      </c>
-      <c r="K96" s="25">
+        <v>237</v>
+      </c>
+      <c r="K96" s="22">
         <v>0</v>
       </c>
-      <c r="L96" s="25">
+      <c r="L96" s="22">
         <v>0</v>
       </c>
-      <c r="M96" s="25">
+      <c r="M96" s="22">
         <v>7</v>
       </c>
       <c r="N96" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="O96" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B97" t="s">
         <v>212</v>
@@ -8132,68 +8354,74 @@
         <v>133.21791520913669</v>
       </c>
       <c r="F97" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I97" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J97" t="s">
-        <v>240</v>
-      </c>
-      <c r="K97" s="26">
+        <v>239</v>
+      </c>
+      <c r="K97" s="23">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L97" s="26">
+      <c r="L97" s="23">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M97" s="25">
+      <c r="M97" s="22">
         <v>7</v>
       </c>
       <c r="N97" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="O97" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B98" t="s">
         <v>181</v>
       </c>
-      <c r="C98" s="29">
+      <c r="C98" s="26">
         <v>-1.2300000000000001E-5</v>
       </c>
-      <c r="D98" s="29">
+      <c r="D98" s="26">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E98">
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I98" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J98" t="s">
-        <v>242</v>
-      </c>
-      <c r="K98" s="26">
+        <v>241</v>
+      </c>
+      <c r="K98" s="23">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L98" s="26">
+      <c r="L98" s="23">
         <v>1.8E-7</v>
       </c>
-      <c r="M98" s="25" t="s">
+      <c r="M98" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N98" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="O98" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B99" t="s">
         <v>185</v>
@@ -8208,30 +8436,33 @@
         <v>174</v>
       </c>
       <c r="F99" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I99" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J99" t="s">
-        <v>244</v>
-      </c>
-      <c r="K99" s="25">
+        <v>243</v>
+      </c>
+      <c r="K99" s="22">
         <v>0</v>
       </c>
-      <c r="L99" s="26">
+      <c r="L99" s="23">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M99" s="25">
+      <c r="M99" s="22">
         <v>8</v>
       </c>
       <c r="N99" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="O99" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B100" t="s">
         <v>217</v>
@@ -8246,74 +8477,74 @@
         <v>1649.046981130565</v>
       </c>
       <c r="F100" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J100" t="s">
-        <v>246</v>
-      </c>
-      <c r="K100" s="25">
+        <v>245</v>
+      </c>
+      <c r="K100" s="22">
         <v>0</v>
       </c>
-      <c r="L100" s="26">
+      <c r="L100" s="23">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M100" s="25">
+      <c r="M100" s="22">
         <v>8</v>
       </c>
       <c r="N100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s">
         <v>188</v>
       </c>
-      <c r="C101" s="33">
+      <c r="C101" s="30">
         <v>42493.882039809992</v>
       </c>
       <c r="I101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J101" t="s">
         <v>180</v>
       </c>
-      <c r="K101" s="25">
+      <c r="K101" s="22">
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="B102" s="32" t="s">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="B102" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="C102" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="52"/>
+      <c r="C102" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="31"/>
       <c r="I102" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J102" t="s">
         <v>183</v>
       </c>
-      <c r="K102" s="25" t="s">
+      <c r="K102" s="22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>331</v>
       </c>
       <c r="B103" t="s">
         <v>173</v>
@@ -8328,21 +8559,21 @@
         <v>36.249303728829837</v>
       </c>
       <c r="F103" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I103" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J103" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K103" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B104" t="s">
         <v>178</v>
@@ -8357,21 +8588,21 @@
         <v>10.63882351464823</v>
       </c>
       <c r="F104" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J104" t="s">
         <v>206</v>
       </c>
       <c r="K104" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s">
         <v>204</v>
@@ -8386,21 +8617,21 @@
         <v>50.860228994958739</v>
       </c>
       <c r="F105" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I105" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J105" t="s">
         <v>189</v>
       </c>
       <c r="K105" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B106" t="s">
         <v>208</v>
@@ -8415,24 +8646,25 @@
         <v>17.105316384443711</v>
       </c>
       <c r="F106" t="s">
-        <v>336</v>
-      </c>
-      <c r="I106" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="J106" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="J106" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K106" s="17">
+      <c r="K106" s="14">
         <v>1</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="31"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B107" t="s">
         <v>210</v>
@@ -8447,7 +8679,7 @@
         <v>15.053987399757251</v>
       </c>
       <c r="F107" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I107" t="s">
         <v>59</v>
@@ -8455,19 +8687,19 @@
       <c r="J107" t="s">
         <v>231</v>
       </c>
-      <c r="K107" s="25">
+      <c r="K107" s="22">
         <v>0</v>
       </c>
-      <c r="L107" s="25">
+      <c r="L107" s="22">
         <v>0</v>
       </c>
-      <c r="M107" s="25" t="s">
+      <c r="M107" s="22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B108" t="s">
         <v>212</v>
@@ -8482,30 +8714,30 @@
         <v>49.194486212662937</v>
       </c>
       <c r="F108" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I108" t="s">
         <v>59</v>
       </c>
       <c r="J108" t="s">
-        <v>233</v>
-      </c>
-      <c r="K108" s="26">
+        <v>232</v>
+      </c>
+      <c r="K108" s="23">
         <v>-5.6799999999999998E-5</v>
       </c>
-      <c r="L108" s="26">
+      <c r="L108" s="23">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="M108" s="25" t="s">
+      <c r="M108" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N108" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B109" t="s">
         <v>181</v>
@@ -8520,30 +8752,30 @@
         <v>90.750622293432627</v>
       </c>
       <c r="F109" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I109" t="s">
         <v>59</v>
       </c>
       <c r="J109" t="s">
-        <v>236</v>
-      </c>
-      <c r="K109" s="26">
+        <v>235</v>
+      </c>
+      <c r="K109" s="23">
         <v>-5.63E-5</v>
       </c>
-      <c r="L109" s="26">
+      <c r="L109" s="23">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M109" s="25" t="s">
+      <c r="M109" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N109" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B110" t="s">
         <v>185</v>
@@ -8558,30 +8790,33 @@
         <v>174</v>
       </c>
       <c r="F110" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I110" t="s">
         <v>59</v>
       </c>
       <c r="J110" t="s">
-        <v>238</v>
-      </c>
-      <c r="K110" s="25">
+        <v>237</v>
+      </c>
+      <c r="K110" s="22">
         <v>0</v>
       </c>
-      <c r="L110" s="25">
+      <c r="L110" s="22">
         <v>0</v>
       </c>
-      <c r="M110" s="25">
+      <c r="M110" s="22">
         <v>7</v>
       </c>
       <c r="N110" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="O110" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B111" t="s">
         <v>217</v>
@@ -8596,110 +8831,119 @@
         <v>85.513696646934221</v>
       </c>
       <c r="F111" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I111" t="s">
         <v>59</v>
       </c>
       <c r="J111" t="s">
-        <v>240</v>
-      </c>
-      <c r="K111" s="26">
+        <v>239</v>
+      </c>
+      <c r="K111" s="23">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L111" s="26">
+      <c r="L111" s="23">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M111" s="25">
+      <c r="M111" s="22">
         <v>7</v>
       </c>
       <c r="N111" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="O111" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B112" t="s">
         <v>188</v>
       </c>
-      <c r="C112" s="33">
+      <c r="C112" s="30">
         <v>42494.691730002567</v>
       </c>
       <c r="I112" t="s">
         <v>59</v>
       </c>
       <c r="J112" t="s">
-        <v>242</v>
-      </c>
-      <c r="K112" s="26">
+        <v>241</v>
+      </c>
+      <c r="K112" s="23">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L112" s="26">
+      <c r="L112" s="23">
         <v>1.8E-7</v>
       </c>
-      <c r="M112" s="25" t="s">
+      <c r="M112" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N112" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="B113" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="O112" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B113" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C113" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="52"/>
+      <c r="C113" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
       <c r="I113" t="s">
         <v>59</v>
       </c>
       <c r="J113" t="s">
-        <v>244</v>
-      </c>
-      <c r="K113" s="25">
+        <v>243</v>
+      </c>
+      <c r="K113" s="22">
         <v>0</v>
       </c>
-      <c r="L113" s="26">
+      <c r="L113" s="23">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M113" s="25">
+      <c r="M113" s="22">
         <v>8</v>
       </c>
       <c r="N113" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="O113" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I114" t="s">
         <v>59</v>
       </c>
       <c r="J114" t="s">
-        <v>246</v>
-      </c>
-      <c r="K114" s="25">
+        <v>245</v>
+      </c>
+      <c r="K114" s="22">
         <v>0</v>
       </c>
-      <c r="L114" s="26">
+      <c r="L114" s="23">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M114" s="25">
+      <c r="M114" s="22">
         <v>8</v>
       </c>
       <c r="N114" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I115" t="s">
         <v>59</v>
       </c>
@@ -8710,7 +8954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
         <v>59</v>
       </c>
@@ -8718,21 +8962,21 @@
         <v>183</v>
       </c>
       <c r="K116" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
         <v>59</v>
       </c>
       <c r="J117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K117" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I118" t="s">
         <v>59</v>
       </c>
@@ -8740,10 +8984,10 @@
         <v>206</v>
       </c>
       <c r="K118" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I119" t="s">
         <v>59</v>
       </c>
@@ -8751,181 +8995,194 @@
         <v>189</v>
       </c>
       <c r="K119" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I120" s="17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I120" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J120" s="17" t="s">
+      <c r="J120" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K120" s="17">
+      <c r="K120" s="14">
         <v>1</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="31"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I121" t="s">
         <v>68</v>
       </c>
       <c r="J121" t="s">
         <v>231</v>
       </c>
-      <c r="K121" s="25">
+      <c r="K121" s="22">
         <v>0</v>
       </c>
-      <c r="L121" s="25">
+      <c r="L121" s="22">
         <v>0</v>
       </c>
-      <c r="M121" s="25" t="s">
+      <c r="M121" s="22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I122" t="s">
         <v>68</v>
       </c>
       <c r="J122" t="s">
-        <v>233</v>
-      </c>
-      <c r="K122" s="26">
+        <v>232</v>
+      </c>
+      <c r="K122" s="23">
         <v>-5.6799999999999998E-5</v>
       </c>
-      <c r="L122" s="26">
+      <c r="L122" s="23">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="M122" s="25" t="s">
+      <c r="M122" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N122" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I123" t="s">
         <v>68</v>
       </c>
       <c r="J123" t="s">
-        <v>236</v>
-      </c>
-      <c r="K123" s="26">
+        <v>235</v>
+      </c>
+      <c r="K123" s="23">
         <v>-5.63E-5</v>
       </c>
-      <c r="L123" s="26">
+      <c r="L123" s="23">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M123" s="25" t="s">
+      <c r="M123" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N123" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I124" t="s">
         <v>68</v>
       </c>
       <c r="J124" t="s">
-        <v>238</v>
-      </c>
-      <c r="K124" s="25">
+        <v>237</v>
+      </c>
+      <c r="K124" s="22">
         <v>0</v>
       </c>
-      <c r="L124" s="25">
+      <c r="L124" s="22">
         <v>0</v>
       </c>
-      <c r="M124" s="25">
+      <c r="M124" s="22">
         <v>7</v>
       </c>
       <c r="N124" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="O124" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I125" t="s">
         <v>68</v>
       </c>
       <c r="J125" t="s">
-        <v>240</v>
-      </c>
-      <c r="K125" s="26">
+        <v>239</v>
+      </c>
+      <c r="K125" s="23">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L125" s="26">
+      <c r="L125" s="23">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M125" s="25">
+      <c r="M125" s="22">
         <v>7</v>
       </c>
       <c r="N125" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="O125" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I126" t="s">
         <v>68</v>
       </c>
       <c r="J126" t="s">
-        <v>242</v>
-      </c>
-      <c r="K126" s="26">
+        <v>241</v>
+      </c>
+      <c r="K126" s="23">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L126" s="26">
+      <c r="L126" s="23">
         <v>1.8E-7</v>
       </c>
-      <c r="M126" s="25" t="s">
+      <c r="M126" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N126" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="O126" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I127" t="s">
         <v>68</v>
       </c>
       <c r="J127" t="s">
-        <v>244</v>
-      </c>
-      <c r="K127" s="25">
+        <v>243</v>
+      </c>
+      <c r="K127" s="22">
         <v>0</v>
       </c>
-      <c r="L127" s="26">
+      <c r="L127" s="23">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M127" s="25">
+      <c r="M127" s="22">
         <v>8</v>
       </c>
       <c r="N127" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="O127" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I128" t="s">
         <v>68</v>
       </c>
       <c r="J128" t="s">
-        <v>246</v>
-      </c>
-      <c r="K128" s="25">
+        <v>245</v>
+      </c>
+      <c r="K128" s="22">
         <v>0</v>
       </c>
-      <c r="L128" s="26">
+      <c r="L128" s="23">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M128" s="25">
+      <c r="M128" s="22">
         <v>8</v>
       </c>
       <c r="N128" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="129" spans="9:14" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="129" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I129" t="s">
         <v>68</v>
       </c>
@@ -8936,7 +9193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I130" t="s">
         <v>68</v>
       </c>
@@ -8944,21 +9201,21 @@
         <v>183</v>
       </c>
       <c r="K130" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="131" spans="9:14" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="131" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I131" t="s">
         <v>68</v>
       </c>
       <c r="J131" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K131" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="132" spans="9:14" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I132" t="s">
         <v>68</v>
       </c>
@@ -8966,10 +9223,10 @@
         <v>206</v>
       </c>
       <c r="K132" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="133" spans="9:14" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="133" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I133" t="s">
         <v>68</v>
       </c>
@@ -8977,24 +9234,25 @@
         <v>189</v>
       </c>
       <c r="K133" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="134" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I134" s="17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="134" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I134" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J134" s="17" t="s">
+      <c r="J134" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K134" s="17">
+      <c r="K134" s="14">
         <v>1</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-    </row>
-    <row r="135" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="L134" s="14"/>
+      <c r="M134" s="14"/>
+      <c r="N134" s="14"/>
+      <c r="O134" s="31"/>
+    </row>
+    <row r="135" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I135" t="s">
         <v>39</v>
       </c>
@@ -9004,10 +9262,10 @@
       <c r="K135">
         <v>2</v>
       </c>
-      <c r="L135" s="25"/>
-      <c r="M135" s="25"/>
-    </row>
-    <row r="136" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="L135" s="22"/>
+      <c r="M135" s="22"/>
+    </row>
+    <row r="136" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I136" t="s">
         <v>39</v>
       </c>
@@ -9015,68 +9273,68 @@
         <v>183</v>
       </c>
       <c r="K136" t="s">
-        <v>350</v>
-      </c>
-      <c r="L136" s="26"/>
-      <c r="M136" s="25"/>
-    </row>
-    <row r="137" spans="9:14" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="L136" s="23"/>
+      <c r="M136" s="22"/>
+    </row>
+    <row r="137" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I137" t="s">
         <v>39</v>
       </c>
       <c r="J137" t="s">
+        <v>350</v>
+      </c>
+      <c r="K137" t="s">
         <v>351</v>
       </c>
-      <c r="K137" t="s">
+      <c r="L137" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="L137" s="27" t="s">
+      <c r="M137" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="M137" s="28" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="138" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I138" t="s">
         <v>39</v>
       </c>
       <c r="J138" t="s">
+        <v>354</v>
+      </c>
+      <c r="K138" t="s">
         <v>355</v>
       </c>
-      <c r="K138" t="s">
+      <c r="L138" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="L138" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="M138" s="25"/>
-    </row>
-    <row r="139" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="M138" s="22"/>
+    </row>
+    <row r="139" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I139" t="s">
         <v>39</v>
       </c>
       <c r="J139" t="s">
+        <v>357</v>
+      </c>
+      <c r="K139" t="s">
         <v>358</v>
       </c>
-      <c r="K139" t="s">
-        <v>359</v>
-      </c>
-      <c r="L139" s="26"/>
-      <c r="M139" s="25"/>
-    </row>
-    <row r="140" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="L139" s="23"/>
+      <c r="M139" s="22"/>
+    </row>
+    <row r="140" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I140" t="s">
         <v>39</v>
       </c>
       <c r="J140" t="s">
+        <v>359</v>
+      </c>
+      <c r="K140" t="s">
         <v>360</v>
       </c>
-      <c r="K140" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="141" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I141" t="s">
         <v>39</v>
       </c>
@@ -9084,10 +9342,10 @@
         <v>206</v>
       </c>
       <c r="K141" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="142" spans="9:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="142" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I142" t="s">
         <v>39</v>
       </c>
@@ -9095,24 +9353,25 @@
         <v>189</v>
       </c>
       <c r="K142" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="143" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I143" s="17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="143" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I143" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J143" s="17" t="s">
+      <c r="J143" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K143" s="17">
+      <c r="K143" s="14">
         <v>1</v>
       </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-    </row>
-    <row r="144" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="L143" s="14"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="14"/>
+      <c r="O143" s="31"/>
+    </row>
+    <row r="144" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I144" t="s">
         <v>29</v>
       </c>
@@ -9122,9 +9381,9 @@
       <c r="K144">
         <v>4</v>
       </c>
-      <c r="L144" s="25"/>
-    </row>
-    <row r="145" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="L144" s="22"/>
+    </row>
+    <row r="145" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I145" t="s">
         <v>29</v>
       </c>
@@ -9132,74 +9391,74 @@
         <v>183</v>
       </c>
       <c r="K145" t="s">
-        <v>364</v>
-      </c>
-      <c r="L145" s="26"/>
-    </row>
-    <row r="146" spans="9:14" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="L145" s="23"/>
+    </row>
+    <row r="146" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I146" t="s">
         <v>29</v>
       </c>
       <c r="J146" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K146" t="s">
-        <v>365</v>
-      </c>
-      <c r="L146" s="26"/>
-    </row>
-    <row r="147" spans="9:14" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="L146" s="23"/>
+    </row>
+    <row r="147" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I147" t="s">
         <v>29</v>
       </c>
       <c r="J147" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K147" t="s">
+        <v>365</v>
+      </c>
+      <c r="L147" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="L147" s="27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="148" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I148" t="s">
         <v>29</v>
       </c>
       <c r="J148" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K148" t="s">
-        <v>368</v>
-      </c>
-      <c r="L148" s="26"/>
-    </row>
-    <row r="149" spans="9:14" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="L148" s="23"/>
+    </row>
+    <row r="149" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I149" t="s">
         <v>29</v>
       </c>
       <c r="J149" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K149" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="150" spans="9:14" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="150" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I150" t="s">
         <v>29</v>
       </c>
       <c r="J150" t="s">
+        <v>369</v>
+      </c>
+      <c r="K150" t="s">
         <v>370</v>
       </c>
-      <c r="K150" t="s">
+      <c r="L150" t="s">
         <v>371</v>
       </c>
-      <c r="L150" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="151" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I151" t="s">
         <v>29</v>
       </c>
@@ -9207,10 +9466,10 @@
         <v>206</v>
       </c>
       <c r="K151" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="152" spans="9:14" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="152" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I152" t="s">
         <v>29</v>
       </c>
@@ -9218,27 +9477,28 @@
         <v>189</v>
       </c>
       <c r="K152" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="153" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I153" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="153" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I153" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J153" s="17" t="s">
+      <c r="J153" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K153" s="17">
+      <c r="K153" s="14">
         <v>1</v>
       </c>
-      <c r="L153" s="17"/>
-      <c r="M153" s="17"/>
-      <c r="N153" s="17"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="14"/>
+      <c r="N153" s="14"/>
+      <c r="O153" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9254,65 +9514,65 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="44" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="44" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="11.42578125" style="44" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33" style="44" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" style="44" customWidth="1"/>
-    <col min="22" max="22" width="38" style="44" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="44" customWidth="1"/>
-    <col min="25" max="25" width="19.28515625" style="44" customWidth="1"/>
+    <col min="1" max="4" width="11.42578125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="41" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="11.42578125" style="41" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" style="41" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" style="41" customWidth="1"/>
+    <col min="22" max="22" width="38" style="41" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="41" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="796" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X796" s="13"/>
+      <c r="X796" s="10"/>
     </row>
     <row r="797" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X797" s="13"/>
+      <c r="X797" s="10"/>
     </row>
     <row r="798" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X798" s="13"/>
+      <c r="X798" s="10"/>
     </row>
     <row r="799" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X799" s="13"/>
+      <c r="X799" s="10"/>
     </row>
     <row r="800" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X800" s="13"/>
+      <c r="X800" s="10"/>
     </row>
     <row r="801" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X801" s="13"/>
+      <c r="X801" s="10"/>
     </row>
     <row r="802" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X802" s="13"/>
+      <c r="X802" s="10"/>
     </row>
     <row r="1278" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X1278" s="13"/>
+      <c r="X1278" s="10"/>
     </row>
     <row r="1279" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X1279" s="13"/>
+      <c r="X1279" s="10"/>
     </row>
     <row r="1280" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X1280" s="13"/>
+      <c r="X1280" s="10"/>
     </row>
     <row r="1281" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X1281" s="13"/>
+      <c r="X1281" s="10"/>
     </row>
     <row r="1282" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X1282" s="13"/>
+      <c r="X1282" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -1810,7 +1810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1864,6 +1864,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2214,7 +2217,7 @@
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="615" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,21 +2285,21 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="M3" s="51" t="s">
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="M3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="51" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
       <c r="S3" t="s">
         <v>11</v>
       </c>
@@ -2309,11 +2312,11 @@
       <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="51" t="s">
+      <c r="W3" s="52" t="s">
         <v>379</v>
       </c>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
       <c r="Z3" t="s">
         <v>16</v>
       </c>
@@ -2364,13 +2367,13 @@
       <c r="V4">
         <v>20.92</v>
       </c>
-      <c r="W4" s="41" t="s">
+      <c r="W4" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="X4" s="41" t="s">
+      <c r="X4" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="Y4" s="41" t="s">
+      <c r="Y4" s="49" t="s">
         <v>15</v>
       </c>
     </row>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MSL\Private\Electricity\Quality\TECHPROC\E052-High resistance (dual source)\Software Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.lawson\Documents\GitHub\HRBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2214,10 +2214,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="615" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="W5" sqref="W5"/>
+      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4707,10 +4707,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T197"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="900" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="401">
   <si>
     <t>start_row</t>
   </si>
@@ -1536,6 +1536,54 @@
   </si>
   <si>
     <t>(Cal report?)</t>
+  </si>
+  <si>
+    <t>GMH: s/n627</t>
+  </si>
+  <si>
+    <t>GMH: s/n628</t>
+  </si>
+  <si>
+    <t>GMH: s/n629</t>
+  </si>
+  <si>
+    <t>Test Temperature measurement function</t>
+  </si>
+  <si>
+    <t>GMH: s/n367</t>
+  </si>
+  <si>
+    <t>T_correction</t>
+  </si>
+  <si>
+    <t>Windows-assigned port to 3100N USB connector</t>
+  </si>
+  <si>
+    <t>not needed</t>
+  </si>
+  <si>
+    <t>UNUSED GMH, s/n367</t>
+  </si>
+  <si>
+    <t>COM3</t>
+  </si>
+  <si>
+    <t>GMH: sn628</t>
+  </si>
+  <si>
+    <t>P_correction</t>
+  </si>
+  <si>
+    <t>RH_correction</t>
+  </si>
+  <si>
+    <t>GMH367T_cor</t>
+  </si>
+  <si>
+    <t>GMH367P_cor</t>
+  </si>
+  <si>
+    <t>GMH367RH_cor</t>
   </si>
 </sst>
 </file>
@@ -1810,7 +1858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1867,6 +1915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2285,21 +2334,21 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="M3" s="52" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="M3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="52" t="s">
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
       <c r="S3" t="s">
         <v>11</v>
       </c>
@@ -2312,11 +2361,11 @@
       <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="52" t="s">
+      <c r="W3" s="53" t="s">
         <v>379</v>
       </c>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
       <c r="Z3" t="s">
         <v>16</v>
       </c>
@@ -4707,7 +4756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="900" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
@@ -5281,12 +5330,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P153"/>
+  <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="615" activePane="bottomLeft"/>
       <selection activeCell="O2" sqref="O2"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5383,25 +5432,16 @@
       <c r="G3" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K3" s="26">
-        <v>-1E-3</v>
-      </c>
-      <c r="L3" s="26">
-        <v>4.4999999999999999E-4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>174</v>
-      </c>
-      <c r="N3" t="s">
-        <v>177</v>
-      </c>
-      <c r="O3" s="41" t="s">
+      <c r="I3" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="O3" s="50" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5424,14 +5464,17 @@
       <c r="F4" t="s">
         <v>179</v>
       </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" t="s">
-        <v>180</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
+      <c r="I4" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>396</v>
+      </c>
+      <c r="N4" s="50" t="s">
+        <v>399</v>
+      </c>
+      <c r="O4" s="50" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -5453,14 +5496,17 @@
       <c r="F5" t="s">
         <v>182</v>
       </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>183</v>
-      </c>
-      <c r="K5" t="s">
-        <v>184</v>
+      <c r="I5" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>397</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>400</v>
+      </c>
+      <c r="O5" s="50" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -5482,14 +5528,17 @@
       <c r="F6" t="s">
         <v>186</v>
       </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" t="s">
-        <v>187</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+      <c r="I6" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" s="41">
+        <v>3</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -5502,14 +5551,17 @@
       <c r="C7" s="27">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K7" t="s">
-        <v>190</v>
+      <c r="I7" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -5526,19 +5578,15 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="31"/>
-      <c r="I8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K8" s="14">
-        <v>1</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="31"/>
+      <c r="I8" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="O8" s="50" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -5559,26 +5607,14 @@
       <c r="F9" t="s">
         <v>194</v>
       </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
-        <v>176</v>
-      </c>
-      <c r="K9" s="26">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-      <c r="L9" s="26">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="M9" t="s">
-        <v>174</v>
-      </c>
-      <c r="N9" t="s">
-        <v>195</v>
-      </c>
-      <c r="O9" s="48" t="s">
-        <v>384</v>
+      <c r="I9" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -5600,14 +5636,11 @@
       <c r="F10" t="s">
         <v>196</v>
       </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
+      <c r="I10" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -5629,15 +5662,17 @@
       <c r="F11" t="s">
         <v>197</v>
       </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" t="s">
-        <v>183</v>
-      </c>
-      <c r="K11" t="s">
-        <v>198</v>
-      </c>
+      <c r="I11" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5659,13 +5694,25 @@
         <v>199</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="J12" t="s">
-        <v>187</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
+        <v>176</v>
+      </c>
+      <c r="K12" s="26">
+        <v>-1E-3</v>
+      </c>
+      <c r="L12" s="26">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>174</v>
+      </c>
+      <c r="N12" t="s">
+        <v>177</v>
+      </c>
+      <c r="O12" s="41" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -5678,14 +5725,17 @@
       <c r="C13" s="27">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
-        <v>44</v>
+      <c r="I13" s="50" t="s">
+        <v>385</v>
       </c>
       <c r="J13" t="s">
-        <v>189</v>
-      </c>
-      <c r="K13" t="s">
-        <v>200</v>
+        <v>180</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="O13" s="50" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -5702,19 +5752,18 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="31"/>
-      <c r="I14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K14" s="14">
-        <v>1</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="31"/>
+      <c r="I14" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="J14" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" t="s">
+        <v>184</v>
+      </c>
+      <c r="O14" s="50" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5735,14 +5784,17 @@
       <c r="F15" t="s">
         <v>201</v>
       </c>
-      <c r="I15" t="s">
-        <v>10</v>
+      <c r="I15" s="50" t="s">
+        <v>385</v>
       </c>
       <c r="J15" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O15" s="50" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -5764,14 +5816,14 @@
       <c r="F16" t="s">
         <v>202</v>
       </c>
-      <c r="I16" t="s">
-        <v>10</v>
+      <c r="I16" s="50" t="s">
+        <v>385</v>
       </c>
       <c r="J16" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K16" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -5793,14 +5845,17 @@
       <c r="F17" t="s">
         <v>205</v>
       </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="I17" s="50" t="s">
+        <v>386</v>
+      </c>
+      <c r="J17" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="K17" t="s">
-        <v>207</v>
+      <c r="K17" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="O17" s="41" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -5822,15 +5877,19 @@
       <c r="F18" t="s">
         <v>209</v>
       </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K18" t="s">
-        <v>63</v>
-      </c>
+      <c r="I18" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" s="14">
+        <v>1</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="31"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -5851,19 +5910,27 @@
       <c r="F19" t="s">
         <v>211</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K19" s="14">
-        <v>1</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="31"/>
+      <c r="I19" t="s">
+        <v>386</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" s="26">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="L19" s="26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>174</v>
+      </c>
+      <c r="N19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O19" s="48" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -5884,14 +5951,17 @@
       <c r="F20" t="s">
         <v>213</v>
       </c>
-      <c r="I20" t="s">
-        <v>9</v>
+      <c r="I20" s="50" t="s">
+        <v>386</v>
       </c>
       <c r="J20" t="s">
         <v>180</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="O20" s="41" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -5913,14 +5983,17 @@
       <c r="F21" t="s">
         <v>214</v>
       </c>
-      <c r="I21" t="s">
-        <v>9</v>
+      <c r="I21" s="50" t="s">
+        <v>386</v>
       </c>
       <c r="J21" t="s">
         <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>198</v>
+      </c>
+      <c r="O21" s="50" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -5942,14 +6015,17 @@
       <c r="F22" t="s">
         <v>215</v>
       </c>
-      <c r="I22" t="s">
-        <v>9</v>
+      <c r="I22" s="50" t="s">
+        <v>386</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
-      </c>
-      <c r="K22" t="s">
-        <v>216</v>
+        <v>187</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="O22" s="41" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -5971,14 +6047,14 @@
       <c r="F23" t="s">
         <v>218</v>
       </c>
-      <c r="I23" t="s">
-        <v>9</v>
+      <c r="I23" s="50" t="s">
+        <v>386</v>
       </c>
       <c r="J23" t="s">
         <v>189</v>
       </c>
       <c r="K23" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -5991,19 +6067,18 @@
       <c r="C24" s="27">
         <v>42522</v>
       </c>
-      <c r="I24" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K24" s="14">
-        <v>1</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="31"/>
+      <c r="I24" s="50" t="s">
+        <v>387</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="O24" s="50" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
@@ -6019,15 +6094,19 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="31"/>
-      <c r="I25" t="s">
-        <v>219</v>
-      </c>
-      <c r="J25" t="s">
-        <v>180</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
+      <c r="I25" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" s="14">
+        <v>1</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="31"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6049,13 +6128,13 @@
         <v>220</v>
       </c>
       <c r="I26" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>183</v>
-      </c>
-      <c r="K26" t="s">
-        <v>203</v>
+        <v>180</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -6078,13 +6157,13 @@
         <v>221</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -6107,13 +6186,13 @@
         <v>223</v>
       </c>
       <c r="I28" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K28" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -6135,19 +6214,15 @@
       <c r="F29" t="s">
         <v>224</v>
       </c>
-      <c r="I29" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K29" s="14">
-        <v>1</v>
-      </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="31"/>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6168,15 +6243,19 @@
       <c r="F30" t="s">
         <v>225</v>
       </c>
-      <c r="I30" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" t="s">
-        <v>180</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
+      <c r="I30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" s="14">
+        <v>1</v>
+      </c>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="31"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -6198,13 +6277,13 @@
         <v>225</v>
       </c>
       <c r="I31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>183</v>
-      </c>
-      <c r="K31" t="s">
-        <v>203</v>
+        <v>180</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -6227,13 +6306,13 @@
         <v>226</v>
       </c>
       <c r="I32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J32" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="K32" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -6256,13 +6335,13 @@
         <v>228</v>
       </c>
       <c r="I33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J33" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K33" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -6284,19 +6363,15 @@
       <c r="F34" t="s">
         <v>229</v>
       </c>
-      <c r="I34" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K34" s="14">
-        <v>1</v>
-      </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="31"/>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>189</v>
+      </c>
+      <c r="K34" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -6308,21 +6383,19 @@
       <c r="C35" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="I35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J35" t="s">
-        <v>231</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>174</v>
-      </c>
+      <c r="I35" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K35" s="14">
+        <v>1</v>
+      </c>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="31"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
@@ -6339,19 +6412,13 @@
       <c r="F36" s="14"/>
       <c r="G36" s="31"/>
       <c r="I36" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="J36" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>174</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -6374,19 +6441,13 @@
         <v>234</v>
       </c>
       <c r="I37" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="J37" t="s">
-        <v>235</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>174</v>
+        <v>183</v>
+      </c>
+      <c r="K37" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -6409,19 +6470,13 @@
         <v>236</v>
       </c>
       <c r="I38" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="J38" t="s">
-        <v>237</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
-        <v>174</v>
+        <v>206</v>
+      </c>
+      <c r="K38" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -6444,19 +6499,13 @@
         <v>238</v>
       </c>
       <c r="I39" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="J39" t="s">
-        <v>239</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>174</v>
+        <v>189</v>
+      </c>
+      <c r="K39" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -6478,21 +6527,19 @@
       <c r="F40" t="s">
         <v>240</v>
       </c>
-      <c r="I40" t="s">
-        <v>34</v>
-      </c>
-      <c r="J40" t="s">
-        <v>241</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
-        <v>174</v>
-      </c>
+      <c r="I40" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K40" s="14">
+        <v>1</v>
+      </c>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="31"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -6514,19 +6561,13 @@
         <v>242</v>
       </c>
       <c r="I41" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J41" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
-        <v>174</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -6549,19 +6590,13 @@
         <v>244</v>
       </c>
       <c r="I42" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J42" t="s">
-        <v>245</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42" t="s">
-        <v>174</v>
+        <v>183</v>
+      </c>
+      <c r="K42" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -6584,13 +6619,13 @@
         <v>246</v>
       </c>
       <c r="I43" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J43" t="s">
-        <v>180</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="K43" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -6613,13 +6648,13 @@
         <v>247</v>
       </c>
       <c r="I44" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J44" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K44" t="s">
-        <v>248</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -6641,15 +6676,19 @@
       <c r="F45" t="s">
         <v>218</v>
       </c>
-      <c r="I45" t="s">
-        <v>34</v>
-      </c>
-      <c r="J45" t="s">
-        <v>189</v>
-      </c>
-      <c r="K45" t="s">
-        <v>249</v>
-      </c>
+      <c r="I45" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K45" s="14">
+        <v>1</v>
+      </c>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="31"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6661,19 +6700,21 @@
       <c r="C46" t="s">
         <v>250</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" t="s">
         <v>34</v>
       </c>
-      <c r="J46" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K46" s="14">
-        <v>1</v>
-      </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="31"/>
+      <c r="J46" t="s">
+        <v>231</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -6690,10 +6731,10 @@
       <c r="F47" s="14"/>
       <c r="G47" s="31"/>
       <c r="I47" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="J47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -6728,10 +6769,10 @@
         <v>382</v>
       </c>
       <c r="I48" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="J48" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -6766,10 +6807,10 @@
         <v>382</v>
       </c>
       <c r="I49" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="J49" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -6804,15 +6845,20 @@
         <v>382</v>
       </c>
       <c r="I50" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="J50" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="K50">
-        <v>7</v>
-      </c>
-      <c r="M50" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -6837,15 +6883,20 @@
         <v>382</v>
       </c>
       <c r="I51" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="J51" t="s">
-        <v>183</v>
-      </c>
-      <c r="K51" t="s">
-        <v>256</v>
-      </c>
-      <c r="M51" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -6870,15 +6921,20 @@
         <v>382</v>
       </c>
       <c r="I52" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="J52" t="s">
-        <v>258</v>
-      </c>
-      <c r="K52" t="s">
-        <v>259</v>
-      </c>
-      <c r="M52" s="22"/>
+        <v>243</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -6903,15 +6959,20 @@
         <v>382</v>
       </c>
       <c r="I53" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="J53" t="s">
-        <v>206</v>
-      </c>
-      <c r="K53" t="s">
-        <v>261</v>
-      </c>
-      <c r="M53" s="22"/>
+        <v>245</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -6933,15 +6994,14 @@
         <v>262</v>
       </c>
       <c r="I54" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="J54" t="s">
-        <v>189</v>
-      </c>
-      <c r="K54" t="s">
-        <v>263</v>
-      </c>
-      <c r="M54" s="22"/>
+        <v>180</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -6962,19 +7022,15 @@
       <c r="F55" t="s">
         <v>264</v>
       </c>
-      <c r="I55" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K55" s="14">
-        <v>1</v>
-      </c>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="31"/>
+      <c r="I55" t="s">
+        <v>34</v>
+      </c>
+      <c r="J55" t="s">
+        <v>183</v>
+      </c>
+      <c r="K55" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -6996,19 +7052,13 @@
         <v>265</v>
       </c>
       <c r="I56" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="J56" t="s">
-        <v>231</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56" t="s">
-        <v>174</v>
+        <v>189</v>
+      </c>
+      <c r="K56" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -7024,21 +7074,19 @@
       <c r="G57" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="I57" t="s">
-        <v>54</v>
-      </c>
-      <c r="J57" t="s">
-        <v>232</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57" t="s">
-        <v>174</v>
-      </c>
+      <c r="I57" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K57" s="14">
+        <v>1</v>
+      </c>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="31"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
@@ -7055,10 +7103,10 @@
       <c r="F58" s="14"/>
       <c r="G58" s="31"/>
       <c r="I58" t="s">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="J58" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -7090,13 +7138,19 @@
         <v>268</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="J59" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="K59">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -7119,13 +7173,19 @@
         <v>269</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="J60" t="s">
-        <v>183</v>
-      </c>
-      <c r="K60" t="s">
-        <v>270</v>
+        <v>235</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -7148,14 +7208,15 @@
         <v>271</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="J61" t="s">
-        <v>258</v>
-      </c>
-      <c r="K61" t="s">
-        <v>259</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="K61">
+        <v>7</v>
+      </c>
+      <c r="M61" s="22"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -7177,14 +7238,15 @@
         <v>272</v>
       </c>
       <c r="I62" t="s">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="J62" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="K62" t="s">
-        <v>261</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M62" s="22"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -7206,14 +7268,15 @@
         <v>273</v>
       </c>
       <c r="I63" t="s">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="J63" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="K63" t="s">
-        <v>274</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M63" s="22"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -7234,19 +7297,16 @@
       <c r="F64" t="s">
         <v>275</v>
       </c>
-      <c r="I64" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K64" s="14">
-        <v>1</v>
-      </c>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="31"/>
+      <c r="I64" t="s">
+        <v>251</v>
+      </c>
+      <c r="J64" t="s">
+        <v>206</v>
+      </c>
+      <c r="K64" t="s">
+        <v>261</v>
+      </c>
+      <c r="M64" s="22"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -7268,20 +7328,15 @@
         <v>276</v>
       </c>
       <c r="I65" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="J65" t="s">
-        <v>231</v>
-      </c>
-      <c r="K65" s="22">
-        <v>0</v>
-      </c>
-      <c r="L65" s="22">
-        <v>0</v>
-      </c>
-      <c r="M65" s="22" t="s">
-        <v>174</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="K65" t="s">
+        <v>263</v>
+      </c>
+      <c r="M65" s="22"/>
     </row>
     <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -7302,24 +7357,19 @@
       <c r="F66" t="s">
         <v>278</v>
       </c>
-      <c r="I66" t="s">
-        <v>277</v>
-      </c>
-      <c r="J66" t="s">
-        <v>232</v>
-      </c>
-      <c r="K66" s="23">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L66" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M66" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N66" t="s">
-        <v>279</v>
-      </c>
+      <c r="I66" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K66" s="14">
+        <v>1</v>
+      </c>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="31"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -7341,22 +7391,19 @@
         <v>280</v>
       </c>
       <c r="I67" t="s">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c r="J67" t="s">
-        <v>235</v>
-      </c>
-      <c r="K67" s="23">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L67" s="23">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M67" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
         <v>174</v>
-      </c>
-      <c r="N67" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -7370,22 +7417,19 @@
         <v>266</v>
       </c>
       <c r="I68" t="s">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c r="J68" t="s">
-        <v>237</v>
-      </c>
-      <c r="K68" s="22">
+        <v>232</v>
+      </c>
+      <c r="K68">
         <v>0</v>
       </c>
-      <c r="L68" s="22">
+      <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68" s="22">
-        <v>7</v>
-      </c>
-      <c r="N68" t="s">
-        <v>282</v>
+      <c r="M68" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -7403,25 +7447,19 @@
       <c r="F69" s="14"/>
       <c r="G69" s="31"/>
       <c r="I69" t="s">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c r="J69" t="s">
-        <v>239</v>
-      </c>
-      <c r="K69" s="23">
-        <v>2.2210000000000001E-7</v>
-      </c>
-      <c r="L69" s="23">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M69" s="22">
-        <v>7</v>
-      </c>
-      <c r="N69" t="s">
-        <v>283</v>
-      </c>
-      <c r="O69" s="41" t="s">
-        <v>383</v>
+        <v>235</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -7444,25 +7482,13 @@
         <v>285</v>
       </c>
       <c r="I70" t="s">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c r="J70" t="s">
-        <v>241</v>
-      </c>
-      <c r="K70" s="23">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L70" s="23">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M70" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N70" t="s">
-        <v>286</v>
-      </c>
-      <c r="O70" s="48" t="s">
-        <v>383</v>
+        <v>180</v>
+      </c>
+      <c r="K70">
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -7485,25 +7511,13 @@
         <v>287</v>
       </c>
       <c r="I71" t="s">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c r="J71" t="s">
-        <v>243</v>
-      </c>
-      <c r="K71" s="22">
-        <v>0</v>
-      </c>
-      <c r="L71" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M71" s="22">
-        <v>8</v>
-      </c>
-      <c r="N71" t="s">
-        <v>288</v>
-      </c>
-      <c r="O71" s="48" t="s">
-        <v>383</v>
+        <v>183</v>
+      </c>
+      <c r="K71" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -7526,25 +7540,13 @@
         <v>289</v>
       </c>
       <c r="I72" t="s">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c r="J72" t="s">
-        <v>245</v>
-      </c>
-      <c r="K72" s="22">
-        <v>0</v>
-      </c>
-      <c r="L72" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M72" s="22">
-        <v>8</v>
-      </c>
-      <c r="N72" t="s">
-        <v>290</v>
-      </c>
-      <c r="O72" s="48" t="s">
-        <v>383</v>
+        <v>258</v>
+      </c>
+      <c r="K72" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -7567,13 +7569,13 @@
         <v>291</v>
       </c>
       <c r="I73" t="s">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c r="J73" t="s">
-        <v>180</v>
-      </c>
-      <c r="K73" s="22">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="K73" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -7596,13 +7598,13 @@
         <v>292</v>
       </c>
       <c r="I74" t="s">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c r="J74" t="s">
-        <v>183</v>
-      </c>
-      <c r="K74" s="22" t="s">
-        <v>293</v>
+        <v>189</v>
+      </c>
+      <c r="K74" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -7624,15 +7626,19 @@
       <c r="F75" t="s">
         <v>294</v>
       </c>
-      <c r="I75" t="s">
-        <v>277</v>
-      </c>
-      <c r="J75" t="s">
-        <v>258</v>
-      </c>
-      <c r="K75" t="s">
-        <v>295</v>
-      </c>
+      <c r="I75" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K75" s="14">
+        <v>1</v>
+      </c>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="31"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -7657,10 +7663,16 @@
         <v>277</v>
       </c>
       <c r="J76" t="s">
-        <v>206</v>
-      </c>
-      <c r="K76" t="s">
-        <v>297</v>
+        <v>231</v>
+      </c>
+      <c r="K76" s="22">
+        <v>0</v>
+      </c>
+      <c r="L76" s="22">
+        <v>0</v>
+      </c>
+      <c r="M76" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -7686,10 +7698,19 @@
         <v>277</v>
       </c>
       <c r="J77" t="s">
-        <v>189</v>
-      </c>
-      <c r="K77" t="s">
-        <v>299</v>
+        <v>232</v>
+      </c>
+      <c r="K77" s="23">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L77" s="23">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M77" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N77" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -7711,19 +7732,24 @@
       <c r="F78" t="s">
         <v>300</v>
       </c>
-      <c r="I78" s="14" t="s">
+      <c r="I78" t="s">
         <v>277</v>
       </c>
-      <c r="J78" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K78" s="14">
-        <v>1</v>
-      </c>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="31"/>
+      <c r="J78" t="s">
+        <v>235</v>
+      </c>
+      <c r="K78" s="23">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L78" s="23">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M78" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N78" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -7736,10 +7762,10 @@
         <v>301</v>
       </c>
       <c r="I79" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="J79" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K79" s="22">
         <v>0</v>
@@ -7747,8 +7773,11 @@
       <c r="L79" s="22">
         <v>0</v>
       </c>
-      <c r="M79" s="22" t="s">
-        <v>174</v>
+      <c r="M79" s="22">
+        <v>7</v>
+      </c>
+      <c r="N79" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -7766,22 +7795,25 @@
       <c r="F80" s="14"/>
       <c r="G80" s="31"/>
       <c r="I80" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="J80" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K80" s="23">
-        <v>-5.6799999999999998E-5</v>
+        <v>2.2210000000000001E-7</v>
       </c>
       <c r="L80" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M80" s="22" t="s">
-        <v>174</v>
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M80" s="22">
+        <v>7</v>
       </c>
       <c r="N80" t="s">
-        <v>303</v>
+        <v>283</v>
+      </c>
+      <c r="O80" s="41" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -7804,22 +7836,25 @@
         <v>305</v>
       </c>
       <c r="I81" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="J81" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K81" s="23">
-        <v>-5.63E-5</v>
+        <v>4.8090000000000002E-7</v>
       </c>
       <c r="L81" s="23">
-        <v>5.9999999999999997E-7</v>
+        <v>1.8E-7</v>
       </c>
       <c r="M81" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N81" t="s">
-        <v>281</v>
+        <v>286</v>
+      </c>
+      <c r="O81" s="48" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -7842,22 +7877,22 @@
         <v>306</v>
       </c>
       <c r="I82" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="J82" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K82" s="22">
         <v>0</v>
       </c>
-      <c r="L82" s="22">
-        <v>0</v>
+      <c r="L82" s="23">
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M82" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N82" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="O82" s="48" t="s">
         <v>383</v>
@@ -7883,22 +7918,22 @@
         <v>307</v>
       </c>
       <c r="I83" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="J83" t="s">
-        <v>239</v>
-      </c>
-      <c r="K83" s="23">
-        <v>2.2210000000000001E-7</v>
+        <v>245</v>
+      </c>
+      <c r="K83" s="22">
+        <v>0</v>
       </c>
       <c r="L83" s="23">
-        <v>8.9999999999999999E-8</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M83" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N83" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="O83" s="48" t="s">
         <v>383</v>
@@ -7924,25 +7959,13 @@
         <v>308</v>
       </c>
       <c r="I84" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="J84" t="s">
-        <v>241</v>
-      </c>
-      <c r="K84" s="23">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L84" s="23">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M84" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N84" t="s">
-        <v>286</v>
-      </c>
-      <c r="O84" s="48" t="s">
-        <v>383</v>
+        <v>180</v>
+      </c>
+      <c r="K84" s="22">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -7965,25 +7988,13 @@
         <v>309</v>
       </c>
       <c r="I85" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="J85" t="s">
-        <v>243</v>
-      </c>
-      <c r="K85" s="22">
-        <v>0</v>
-      </c>
-      <c r="L85" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M85" s="22">
-        <v>8</v>
-      </c>
-      <c r="N85" t="s">
-        <v>288</v>
-      </c>
-      <c r="O85" s="48" t="s">
-        <v>383</v>
+        <v>183</v>
+      </c>
+      <c r="K85" s="22" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -8006,22 +8017,13 @@
         <v>310</v>
       </c>
       <c r="I86" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="J86" t="s">
-        <v>245</v>
-      </c>
-      <c r="K86" s="22">
-        <v>0</v>
-      </c>
-      <c r="L86" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M86" s="22">
-        <v>8</v>
-      </c>
-      <c r="N86" t="s">
-        <v>290</v>
+        <v>258</v>
+      </c>
+      <c r="K86" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -8044,13 +8046,13 @@
         <v>311</v>
       </c>
       <c r="I87" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="J87" t="s">
-        <v>180</v>
-      </c>
-      <c r="K87" s="22">
-        <v>25</v>
+        <v>206</v>
+      </c>
+      <c r="K87" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -8073,13 +8075,13 @@
         <v>312</v>
       </c>
       <c r="I88" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="J88" t="s">
-        <v>183</v>
-      </c>
-      <c r="K88" s="22" t="s">
-        <v>313</v>
+        <v>189</v>
+      </c>
+      <c r="K88" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -8101,15 +8103,19 @@
       <c r="F89" t="s">
         <v>314</v>
       </c>
-      <c r="I89" t="s">
-        <v>302</v>
-      </c>
-      <c r="J89" t="s">
-        <v>258</v>
-      </c>
-      <c r="K89" t="s">
-        <v>295</v>
-      </c>
+      <c r="I89" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K89" s="14">
+        <v>1</v>
+      </c>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="31"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -8125,10 +8131,16 @@
         <v>302</v>
       </c>
       <c r="J90" t="s">
-        <v>206</v>
-      </c>
-      <c r="K90" t="s">
-        <v>297</v>
+        <v>231</v>
+      </c>
+      <c r="K90" s="22">
+        <v>0</v>
+      </c>
+      <c r="L90" s="22">
+        <v>0</v>
+      </c>
+      <c r="M90" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -8149,10 +8161,19 @@
         <v>302</v>
       </c>
       <c r="J91" t="s">
-        <v>189</v>
-      </c>
-      <c r="K91" t="s">
-        <v>315</v>
+        <v>232</v>
+      </c>
+      <c r="K91" s="23">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L91" s="23">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M91" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N91" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -8174,19 +8195,24 @@
       <c r="F92" t="s">
         <v>317</v>
       </c>
-      <c r="I92" s="14" t="s">
+      <c r="I92" t="s">
         <v>302</v>
       </c>
-      <c r="J92" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K92" s="14">
-        <v>1</v>
-      </c>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="14"/>
-      <c r="O92" s="31"/>
+      <c r="J92" t="s">
+        <v>235</v>
+      </c>
+      <c r="K92" s="23">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L92" s="23">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M92" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N92" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -8208,10 +8234,10 @@
         <v>318</v>
       </c>
       <c r="I93" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J93" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K93" s="22">
         <v>0</v>
@@ -8219,8 +8245,14 @@
       <c r="L93" s="22">
         <v>0</v>
       </c>
-      <c r="M93" s="22" t="s">
-        <v>174</v>
+      <c r="M93" s="22">
+        <v>7</v>
+      </c>
+      <c r="N93" t="s">
+        <v>282</v>
+      </c>
+      <c r="O93" s="48" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -8243,22 +8275,25 @@
         <v>320</v>
       </c>
       <c r="I94" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J94" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K94" s="23">
-        <v>-5.6799999999999998E-5</v>
+        <v>2.2210000000000001E-7</v>
       </c>
       <c r="L94" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M94" s="22" t="s">
-        <v>174</v>
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M94" s="22">
+        <v>7</v>
       </c>
       <c r="N94" t="s">
-        <v>321</v>
+        <v>283</v>
+      </c>
+      <c r="O94" s="48" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -8281,22 +8316,25 @@
         <v>322</v>
       </c>
       <c r="I95" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J95" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K95" s="23">
-        <v>-5.63E-5</v>
+        <v>4.8090000000000002E-7</v>
       </c>
       <c r="L95" s="23">
-        <v>5.9999999999999997E-7</v>
+        <v>1.8E-7</v>
       </c>
       <c r="M95" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N95" t="s">
-        <v>323</v>
+        <v>286</v>
+      </c>
+      <c r="O95" s="48" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -8319,22 +8357,22 @@
         <v>324</v>
       </c>
       <c r="I96" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J96" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K96" s="22">
         <v>0</v>
       </c>
-      <c r="L96" s="22">
-        <v>0</v>
+      <c r="L96" s="23">
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M96" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N96" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="O96" s="48" t="s">
         <v>383</v>
@@ -8360,25 +8398,22 @@
         <v>325</v>
       </c>
       <c r="I97" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J97" t="s">
-        <v>239</v>
-      </c>
-      <c r="K97" s="23">
-        <v>2.2210000000000001E-7</v>
+        <v>245</v>
+      </c>
+      <c r="K97" s="22">
+        <v>0</v>
       </c>
       <c r="L97" s="23">
-        <v>8.9999999999999999E-8</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M97" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N97" t="s">
-        <v>283</v>
-      </c>
-      <c r="O97" s="48" t="s">
-        <v>383</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -8401,25 +8436,13 @@
         <v>326</v>
       </c>
       <c r="I98" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J98" t="s">
-        <v>241</v>
-      </c>
-      <c r="K98" s="23">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L98" s="23">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M98" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N98" t="s">
-        <v>286</v>
-      </c>
-      <c r="O98" s="48" t="s">
-        <v>383</v>
+        <v>180</v>
+      </c>
+      <c r="K98" s="22">
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -8442,25 +8465,13 @@
         <v>327</v>
       </c>
       <c r="I99" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J99" t="s">
-        <v>243</v>
-      </c>
-      <c r="K99" s="22">
-        <v>0</v>
-      </c>
-      <c r="L99" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M99" s="22">
-        <v>8</v>
-      </c>
-      <c r="N99" t="s">
-        <v>288</v>
-      </c>
-      <c r="O99" s="48" t="s">
-        <v>383</v>
+        <v>183</v>
+      </c>
+      <c r="K99" s="22" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -8483,22 +8494,13 @@
         <v>328</v>
       </c>
       <c r="I100" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J100" t="s">
-        <v>245</v>
-      </c>
-      <c r="K100" s="22">
-        <v>0</v>
-      </c>
-      <c r="L100" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M100" s="22">
-        <v>8</v>
-      </c>
-      <c r="N100" t="s">
-        <v>290</v>
+        <v>258</v>
+      </c>
+      <c r="K100" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -8512,13 +8514,13 @@
         <v>42493.882039809992</v>
       </c>
       <c r="I101" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J101" t="s">
-        <v>180</v>
-      </c>
-      <c r="K101" s="22">
-        <v>22</v>
+        <v>206</v>
+      </c>
+      <c r="K101" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -8536,13 +8538,13 @@
       <c r="F102" s="29"/>
       <c r="G102" s="31"/>
       <c r="I102" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="J102" t="s">
-        <v>183</v>
-      </c>
-      <c r="K102" s="22" t="s">
-        <v>329</v>
+        <v>189</v>
+      </c>
+      <c r="K102" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -8564,15 +8566,19 @@
       <c r="F103" t="s">
         <v>331</v>
       </c>
-      <c r="I103" t="s">
-        <v>319</v>
-      </c>
-      <c r="J103" t="s">
-        <v>258</v>
-      </c>
-      <c r="K103" t="s">
-        <v>295</v>
-      </c>
+      <c r="I103" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K103" s="14">
+        <v>1</v>
+      </c>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="31"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -8597,10 +8603,16 @@
         <v>319</v>
       </c>
       <c r="J104" t="s">
-        <v>206</v>
-      </c>
-      <c r="K104" t="s">
-        <v>297</v>
+        <v>231</v>
+      </c>
+      <c r="K104" s="22">
+        <v>0</v>
+      </c>
+      <c r="L104" s="22">
+        <v>0</v>
+      </c>
+      <c r="M104" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -8626,10 +8638,19 @@
         <v>319</v>
       </c>
       <c r="J105" t="s">
-        <v>189</v>
-      </c>
-      <c r="K105" t="s">
-        <v>334</v>
+        <v>232</v>
+      </c>
+      <c r="K105" s="23">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L105" s="23">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M105" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N105" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -8651,19 +8672,24 @@
       <c r="F106" t="s">
         <v>335</v>
       </c>
-      <c r="I106" s="14" t="s">
+      <c r="I106" t="s">
         <v>319</v>
       </c>
-      <c r="J106" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K106" s="14">
-        <v>1</v>
-      </c>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
-      <c r="O106" s="31"/>
+      <c r="J106" t="s">
+        <v>235</v>
+      </c>
+      <c r="K106" s="23">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L106" s="23">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M106" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N106" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -8685,10 +8711,10 @@
         <v>336</v>
       </c>
       <c r="I107" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="J107" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K107" s="22">
         <v>0</v>
@@ -8696,8 +8722,14 @@
       <c r="L107" s="22">
         <v>0</v>
       </c>
-      <c r="M107" s="22" t="s">
-        <v>174</v>
+      <c r="M107" s="22">
+        <v>7</v>
+      </c>
+      <c r="N107" t="s">
+        <v>282</v>
+      </c>
+      <c r="O107" s="48" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -8720,22 +8752,25 @@
         <v>337</v>
       </c>
       <c r="I108" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="J108" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K108" s="23">
-        <v>-5.6799999999999998E-5</v>
+        <v>2.2210000000000001E-7</v>
       </c>
       <c r="L108" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M108" s="22" t="s">
-        <v>174</v>
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M108" s="22">
+        <v>7</v>
       </c>
       <c r="N108" t="s">
-        <v>338</v>
+        <v>283</v>
+      </c>
+      <c r="O108" s="48" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -8758,22 +8793,25 @@
         <v>339</v>
       </c>
       <c r="I109" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="J109" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K109" s="23">
-        <v>-5.63E-5</v>
+        <v>4.8090000000000002E-7</v>
       </c>
       <c r="L109" s="23">
-        <v>5.9999999999999997E-7</v>
+        <v>1.8E-7</v>
       </c>
       <c r="M109" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N109" t="s">
-        <v>340</v>
+        <v>286</v>
+      </c>
+      <c r="O109" s="48" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -8796,22 +8834,22 @@
         <v>341</v>
       </c>
       <c r="I110" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="J110" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K110" s="22">
         <v>0</v>
       </c>
-      <c r="L110" s="22">
-        <v>0</v>
+      <c r="L110" s="23">
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M110" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N110" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="O110" s="48" t="s">
         <v>383</v>
@@ -8837,25 +8875,22 @@
         <v>342</v>
       </c>
       <c r="I111" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="J111" t="s">
-        <v>239</v>
-      </c>
-      <c r="K111" s="23">
-        <v>2.2210000000000001E-7</v>
+        <v>245</v>
+      </c>
+      <c r="K111" s="22">
+        <v>0</v>
       </c>
       <c r="L111" s="23">
-        <v>8.9999999999999999E-8</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M111" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N111" t="s">
-        <v>283</v>
-      </c>
-      <c r="O111" s="48" t="s">
-        <v>383</v>
+        <v>290</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -8869,25 +8904,13 @@
         <v>42494.691730002567</v>
       </c>
       <c r="I112" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="J112" t="s">
-        <v>241</v>
-      </c>
-      <c r="K112" s="23">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L112" s="23">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M112" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N112" t="s">
-        <v>286</v>
-      </c>
-      <c r="O112" s="48" t="s">
-        <v>383</v>
+        <v>180</v>
+      </c>
+      <c r="K112" s="22">
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -8905,89 +8928,78 @@
       <c r="F113" s="31"/>
       <c r="G113" s="31"/>
       <c r="I113" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="J113" t="s">
-        <v>243</v>
-      </c>
-      <c r="K113" s="22">
-        <v>0</v>
-      </c>
-      <c r="L113" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M113" s="22">
-        <v>8</v>
-      </c>
-      <c r="N113" t="s">
-        <v>288</v>
-      </c>
-      <c r="O113" s="48" t="s">
-        <v>383</v>
+        <v>183</v>
+      </c>
+      <c r="K113" s="22" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I114" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="J114" t="s">
-        <v>245</v>
-      </c>
-      <c r="K114" s="22">
-        <v>0</v>
-      </c>
-      <c r="L114" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M114" s="22">
-        <v>8</v>
-      </c>
-      <c r="N114" t="s">
-        <v>290</v>
+        <v>258</v>
+      </c>
+      <c r="K114" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I115" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="J115" t="s">
-        <v>180</v>
-      </c>
-      <c r="K115">
-        <v>23</v>
+        <v>206</v>
+      </c>
+      <c r="K115" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="J116" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K116" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I117" t="s">
-        <v>59</v>
-      </c>
-      <c r="J117" t="s">
-        <v>258</v>
-      </c>
-      <c r="K117" t="s">
-        <v>295</v>
-      </c>
+      <c r="I117" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="J117" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K117" s="14">
+        <v>1</v>
+      </c>
+      <c r="L117" s="14"/>
+      <c r="M117" s="14"/>
+      <c r="N117" s="14"/>
+      <c r="O117" s="31"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I118" t="s">
         <v>59</v>
       </c>
       <c r="J118" t="s">
-        <v>206</v>
-      </c>
-      <c r="K118" t="s">
-        <v>297</v>
+        <v>231</v>
+      </c>
+      <c r="K118" s="22">
+        <v>0</v>
+      </c>
+      <c r="L118" s="22">
+        <v>0</v>
+      </c>
+      <c r="M118" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -8995,33 +9007,47 @@
         <v>59</v>
       </c>
       <c r="J119" t="s">
-        <v>189</v>
-      </c>
-      <c r="K119" t="s">
-        <v>344</v>
+        <v>232</v>
+      </c>
+      <c r="K119" s="23">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L119" s="23">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M119" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N119" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I120" s="14" t="s">
+      <c r="I120" t="s">
         <v>59</v>
       </c>
-      <c r="J120" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K120" s="14">
-        <v>1</v>
-      </c>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14"/>
-      <c r="O120" s="31"/>
+      <c r="J120" t="s">
+        <v>235</v>
+      </c>
+      <c r="K120" s="23">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L120" s="23">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M120" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N120" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I121" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J121" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K121" s="22">
         <v>0</v>
@@ -9029,68 +9055,80 @@
       <c r="L121" s="22">
         <v>0</v>
       </c>
-      <c r="M121" s="22" t="s">
-        <v>174</v>
+      <c r="M121" s="22">
+        <v>7</v>
+      </c>
+      <c r="N121" t="s">
+        <v>282</v>
+      </c>
+      <c r="O121" s="48" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I122" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J122" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K122" s="23">
-        <v>-5.6799999999999998E-5</v>
+        <v>2.2210000000000001E-7</v>
       </c>
       <c r="L122" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M122" s="22" t="s">
-        <v>174</v>
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M122" s="22">
+        <v>7</v>
       </c>
       <c r="N122" t="s">
-        <v>345</v>
+        <v>283</v>
+      </c>
+      <c r="O122" s="48" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I123" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J123" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K123" s="23">
-        <v>-5.63E-5</v>
+        <v>4.8090000000000002E-7</v>
       </c>
       <c r="L123" s="23">
-        <v>5.9999999999999997E-7</v>
+        <v>1.8E-7</v>
       </c>
       <c r="M123" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N123" t="s">
-        <v>346</v>
+        <v>286</v>
+      </c>
+      <c r="O123" s="48" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I124" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J124" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K124" s="22">
         <v>0</v>
       </c>
-      <c r="L124" s="22">
-        <v>0</v>
+      <c r="L124" s="23">
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M124" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N124" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="O124" s="48" t="s">
         <v>383</v>
@@ -9098,135 +9136,109 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I125" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J125" t="s">
-        <v>239</v>
-      </c>
-      <c r="K125" s="23">
-        <v>2.2210000000000001E-7</v>
+        <v>245</v>
+      </c>
+      <c r="K125" s="22">
+        <v>0</v>
       </c>
       <c r="L125" s="23">
-        <v>8.9999999999999999E-8</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M125" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N125" t="s">
-        <v>283</v>
-      </c>
-      <c r="O125" s="48" t="s">
-        <v>383</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I126" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J126" t="s">
-        <v>241</v>
-      </c>
-      <c r="K126" s="23">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L126" s="23">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M126" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N126" t="s">
-        <v>286</v>
-      </c>
-      <c r="O126" s="48" t="s">
-        <v>383</v>
+        <v>180</v>
+      </c>
+      <c r="K126">
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I127" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J127" t="s">
-        <v>243</v>
-      </c>
-      <c r="K127" s="22">
-        <v>0</v>
-      </c>
-      <c r="L127" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M127" s="22">
-        <v>8</v>
-      </c>
-      <c r="N127" t="s">
-        <v>288</v>
-      </c>
-      <c r="O127" s="48" t="s">
-        <v>383</v>
+        <v>183</v>
+      </c>
+      <c r="K127" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I128" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J128" t="s">
-        <v>245</v>
-      </c>
-      <c r="K128" s="22">
-        <v>0</v>
-      </c>
-      <c r="L128" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M128" s="22">
-        <v>8</v>
-      </c>
-      <c r="N128" t="s">
-        <v>290</v>
+        <v>258</v>
+      </c>
+      <c r="K128" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I129" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J129" t="s">
-        <v>180</v>
-      </c>
-      <c r="K129">
-        <v>24</v>
+        <v>206</v>
+      </c>
+      <c r="K129" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="130" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I130" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J130" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K130" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="131" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I131" t="s">
-        <v>68</v>
-      </c>
-      <c r="J131" t="s">
-        <v>258</v>
-      </c>
-      <c r="K131" t="s">
-        <v>295</v>
-      </c>
+      <c r="I131" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J131" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K131" s="14">
+        <v>1</v>
+      </c>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
+      <c r="O131" s="31"/>
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I132" t="s">
         <v>68</v>
       </c>
       <c r="J132" t="s">
-        <v>206</v>
-      </c>
-      <c r="K132" t="s">
-        <v>297</v>
+        <v>231</v>
+      </c>
+      <c r="K132" s="22">
+        <v>0</v>
+      </c>
+      <c r="L132" s="22">
+        <v>0</v>
+      </c>
+      <c r="M132" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="9:15" x14ac:dyDescent="0.25">
@@ -9234,269 +9246,465 @@
         <v>68</v>
       </c>
       <c r="J133" t="s">
-        <v>189</v>
-      </c>
-      <c r="K133" t="s">
-        <v>348</v>
+        <v>232</v>
+      </c>
+      <c r="K133" s="23">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L133" s="23">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M133" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N133" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="134" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I134" s="14" t="s">
+      <c r="I134" t="s">
         <v>68</v>
       </c>
-      <c r="J134" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K134" s="14">
-        <v>1</v>
-      </c>
-      <c r="L134" s="14"/>
-      <c r="M134" s="14"/>
-      <c r="N134" s="14"/>
-      <c r="O134" s="31"/>
+      <c r="J134" t="s">
+        <v>235</v>
+      </c>
+      <c r="K134" s="23">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L134" s="23">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M134" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N134" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I135" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="J135" t="s">
-        <v>180</v>
-      </c>
-      <c r="K135">
-        <v>2</v>
-      </c>
-      <c r="L135" s="22"/>
-      <c r="M135" s="22"/>
+        <v>237</v>
+      </c>
+      <c r="K135" s="22">
+        <v>0</v>
+      </c>
+      <c r="L135" s="22">
+        <v>0</v>
+      </c>
+      <c r="M135" s="22">
+        <v>7</v>
+      </c>
+      <c r="N135" t="s">
+        <v>282</v>
+      </c>
+      <c r="O135" s="48" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="136" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I136" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="J136" t="s">
-        <v>183</v>
-      </c>
-      <c r="K136" t="s">
-        <v>349</v>
-      </c>
-      <c r="L136" s="23"/>
-      <c r="M136" s="22"/>
+        <v>239</v>
+      </c>
+      <c r="K136" s="23">
+        <v>2.2210000000000001E-7</v>
+      </c>
+      <c r="L136" s="23">
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M136" s="22">
+        <v>7</v>
+      </c>
+      <c r="N136" t="s">
+        <v>283</v>
+      </c>
+      <c r="O136" s="48" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="137" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I137" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="J137" t="s">
-        <v>350</v>
-      </c>
-      <c r="K137" t="s">
-        <v>351</v>
-      </c>
-      <c r="L137" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="M137" s="25" t="s">
-        <v>353</v>
+        <v>241</v>
+      </c>
+      <c r="K137" s="23">
+        <v>4.8090000000000002E-7</v>
+      </c>
+      <c r="L137" s="23">
+        <v>1.8E-7</v>
+      </c>
+      <c r="M137" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N137" t="s">
+        <v>286</v>
+      </c>
+      <c r="O137" s="48" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I138" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="J138" t="s">
-        <v>354</v>
-      </c>
-      <c r="K138" t="s">
-        <v>355</v>
-      </c>
-      <c r="L138" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="M138" s="22"/>
+        <v>243</v>
+      </c>
+      <c r="K138" s="22">
+        <v>0</v>
+      </c>
+      <c r="L138" s="23">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M138" s="22">
+        <v>8</v>
+      </c>
+      <c r="N138" t="s">
+        <v>288</v>
+      </c>
+      <c r="O138" s="48" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I139" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="J139" t="s">
-        <v>357</v>
-      </c>
-      <c r="K139" t="s">
-        <v>358</v>
-      </c>
-      <c r="L139" s="23"/>
-      <c r="M139" s="22"/>
+        <v>245</v>
+      </c>
+      <c r="K139" s="22">
+        <v>0</v>
+      </c>
+      <c r="L139" s="23">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M139" s="22">
+        <v>8</v>
+      </c>
+      <c r="N139" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I140" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="J140" t="s">
-        <v>359</v>
-      </c>
-      <c r="K140" t="s">
-        <v>360</v>
+        <v>180</v>
+      </c>
+      <c r="K140">
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I141" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="J141" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="K141" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="142" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I142" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="J142" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="K142" t="s">
-        <v>362</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I143" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J143" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K143" s="14">
-        <v>1</v>
-      </c>
-      <c r="L143" s="14"/>
-      <c r="M143" s="14"/>
-      <c r="N143" s="14"/>
-      <c r="O143" s="31"/>
+      <c r="I143" t="s">
+        <v>68</v>
+      </c>
+      <c r="J143" t="s">
+        <v>206</v>
+      </c>
+      <c r="K143" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="144" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I144" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="J144" t="s">
-        <v>180</v>
-      </c>
-      <c r="K144">
-        <v>4</v>
-      </c>
-      <c r="L144" s="22"/>
+        <v>189</v>
+      </c>
+      <c r="K144" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="145" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J145" t="s">
-        <v>183</v>
-      </c>
-      <c r="K145" t="s">
-        <v>363</v>
-      </c>
-      <c r="L145" s="23"/>
+      <c r="I145" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J145" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K145" s="14">
+        <v>1</v>
+      </c>
+      <c r="L145" s="14"/>
+      <c r="M145" s="14"/>
+      <c r="N145" s="14"/>
+      <c r="O145" s="31"/>
     </row>
     <row r="146" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I146" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J146" t="s">
-        <v>350</v>
-      </c>
-      <c r="K146" t="s">
-        <v>364</v>
-      </c>
-      <c r="L146" s="23"/>
+        <v>180</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146" s="22"/>
+      <c r="M146" s="22"/>
     </row>
     <row r="147" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I147" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J147" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="K147" t="s">
-        <v>365</v>
-      </c>
-      <c r="L147" s="24" t="s">
-        <v>366</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="L147" s="23"/>
+      <c r="M147" s="22"/>
     </row>
     <row r="148" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I148" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J148" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="K148" t="s">
-        <v>367</v>
-      </c>
-      <c r="L148" s="23"/>
+        <v>351</v>
+      </c>
+      <c r="L148" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="M148" s="25" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="149" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I149" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J149" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K149" t="s">
-        <v>368</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="L149" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="M149" s="22"/>
     </row>
     <row r="150" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I150" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J150" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K150" t="s">
-        <v>370</v>
-      </c>
-      <c r="L150" t="s">
-        <v>371</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="L150" s="23"/>
+      <c r="M150" s="22"/>
     </row>
     <row r="151" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I151" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J151" t="s">
-        <v>206</v>
+        <v>359</v>
       </c>
       <c r="K151" t="s">
-        <v>261</v>
+        <v>360</v>
       </c>
     </row>
     <row r="152" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I152" t="s">
+        <v>39</v>
+      </c>
+      <c r="J152" t="s">
+        <v>206</v>
+      </c>
+      <c r="K152" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="153" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I153" t="s">
+        <v>39</v>
+      </c>
+      <c r="J153" t="s">
+        <v>189</v>
+      </c>
+      <c r="K153" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="154" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I154" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J154" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K154" s="14">
+        <v>1</v>
+      </c>
+      <c r="L154" s="14"/>
+      <c r="M154" s="14"/>
+      <c r="N154" s="14"/>
+      <c r="O154" s="31"/>
+    </row>
+    <row r="155" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I155" t="s">
         <v>29</v>
       </c>
-      <c r="J152" t="s">
+      <c r="J155" t="s">
+        <v>180</v>
+      </c>
+      <c r="K155">
+        <v>4</v>
+      </c>
+      <c r="L155" s="22"/>
+    </row>
+    <row r="156" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I156" t="s">
+        <v>29</v>
+      </c>
+      <c r="J156" t="s">
+        <v>183</v>
+      </c>
+      <c r="K156" t="s">
+        <v>363</v>
+      </c>
+      <c r="L156" s="23"/>
+    </row>
+    <row r="157" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I157" t="s">
+        <v>29</v>
+      </c>
+      <c r="J157" t="s">
+        <v>350</v>
+      </c>
+      <c r="K157" t="s">
+        <v>364</v>
+      </c>
+      <c r="L157" s="23"/>
+    </row>
+    <row r="158" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I158" t="s">
+        <v>29</v>
+      </c>
+      <c r="J158" t="s">
+        <v>354</v>
+      </c>
+      <c r="K158" t="s">
+        <v>365</v>
+      </c>
+      <c r="L158" s="24" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="159" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I159" t="s">
+        <v>29</v>
+      </c>
+      <c r="J159" t="s">
+        <v>357</v>
+      </c>
+      <c r="K159" t="s">
+        <v>367</v>
+      </c>
+      <c r="L159" s="23"/>
+    </row>
+    <row r="160" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I160" t="s">
+        <v>29</v>
+      </c>
+      <c r="J160" t="s">
+        <v>359</v>
+      </c>
+      <c r="K160" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="161" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I161" t="s">
+        <v>29</v>
+      </c>
+      <c r="J161" t="s">
+        <v>369</v>
+      </c>
+      <c r="K161" t="s">
+        <v>370</v>
+      </c>
+      <c r="L161" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="162" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I162" t="s">
+        <v>29</v>
+      </c>
+      <c r="J162" t="s">
+        <v>206</v>
+      </c>
+      <c r="K162" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I163" t="s">
+        <v>29</v>
+      </c>
+      <c r="J163" t="s">
         <v>189</v>
       </c>
-      <c r="K152" t="s">
+      <c r="K163" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="153" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I153" s="14" t="s">
+    <row r="164" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I164" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J153" s="14" t="s">
+      <c r="J164" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K153" s="14">
+      <c r="K164" s="14">
         <v>1</v>
       </c>
-      <c r="L153" s="14"/>
-      <c r="M153" s="14"/>
-      <c r="N153" s="14"/>
-      <c r="O153" s="31"/>
+      <c r="L164" s="14"/>
+      <c r="M164" s="14"/>
+      <c r="N164" s="14"/>
+      <c r="O164" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -186,6 +186,49 @@
     <author>Tim Lawson</author>
   </authors>
   <commentList>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tim Lawson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+As the resistor section grows and is added to by HRBA, the label will be appended with the RunId of the run that was the source of these values. The combined label acts as the</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> AnalysisId</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -251,7 +294,64 @@
           </rPr>
           <t xml:space="preserve"> temperature sensor that forms part of the resistance standard.
 In practice this is 'none'  for any RTD (eg Pt 100r, SR104t) and units that have a thermometer well but no permanant sensor (eg:Tinsleys).
-Typically 'Pt100r'  is used for 'home-made' resistance boxes. In future, each Pt will need a unique id  (eg: 'H100M_Pt 100r',  'New10M_Pt 100r', etc.); calibration info and a prediction equation in the same manner of SR104t 10k.</t>
+Typically 'Pt100r'  is used for 'home-made' resistance boxes. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In future</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> each Pt will need a unique id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  (eg: 'H100M_Pt 100r',  'New10M_Pt 100r', etc.); </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>calibration info and a prediction equation in the same manner of SR104t 10k</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
         </r>
       </text>
     </comment>
@@ -381,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="426">
   <si>
     <t>start_row</t>
   </si>
@@ -944,9 +1044,6 @@
     <t>Pt_beta</t>
   </si>
   <si>
-    <t>hw_addr</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -1559,9 +1656,6 @@
     <t>Windows-assigned port to 3100N USB connector</t>
   </si>
   <si>
-    <t>not needed</t>
-  </si>
-  <si>
     <t>UNUSED GMH, s/n367</t>
   </si>
   <si>
@@ -1584,6 +1678,179 @@
   </si>
   <si>
     <t>GMH367RH_cor</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>1. Units of alpha and beta are [deg C]^-1 and [def C]^-2, respectively (i.e. 1e-6*ppm/C...).</t>
+  </si>
+  <si>
+    <t>2. Units of gamma are [V]^-1 (i.e. 1e-6*ppm/V).</t>
+  </si>
+  <si>
+    <t>4. For the Hamon, the voltage coefficient is the effect as it [is/would be] measured on the complete configuration of elements;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   The series configuration has 1/10 the voltage drop per element, compared with the parallel, for the same overall ppm change in resistance.</t>
+  </si>
+  <si>
+    <t>5. Calibration dates relate to the LV measurement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   This shouldn't cause a problem as the LV and HV meaurements are interleaved and their means are not likely to differ by more than a few minutes.</t>
+  </si>
+  <si>
+    <t>3. Uncertainties in Rs propagate through to dependant Rx values through the build-up. This is evident in the increasing dof as Rx increases.</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> where:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R2 = R2_0*(1+R2alpha*dT2 + R2beta*dT2**2 + R2gamma*dV2) + Rd</t>
+  </si>
+  <si>
+    <t>where:</t>
+  </si>
+  <si>
+    <t>6. Measurement equation(s):</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R1 = -(R2*(1+vrc)*V1_av*G)/( G*V2_av -Vd_av)</t>
+  </si>
+  <si>
+    <t>dT2 = T2_av - R2TRef + T_def2</t>
+  </si>
+  <si>
+    <t>dV2 = abs(abs(V2av) - R2VRef)</t>
+  </si>
+  <si>
+    <t>V2av = (V2[0]-2*V2[1]+V2[2])/4</t>
+  </si>
+  <si>
+    <t>V1av = (V1[0]-2*V1[1]+V1[2])/4</t>
+  </si>
+  <si>
+    <t>Vdav = (Vd[0]-2*Vd[1]+Vd[2])/4 + Vlin_Vd + Vdrift_Vd</t>
+  </si>
+  <si>
+    <t>( where:</t>
+  </si>
+  <si>
+    <r>
+      <t>T2_av = T2_av_gmh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <t>G = (Vd[3]-Vd[2] + Vlin_gain +Vdrift_gain)/(V2[3]-V2[2])</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vlin_gain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the linearity of DVMd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vdrift_gain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the zero-valued type-B drift of DVMd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vlin_Vd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the linearity of DVMd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vdrift_Vd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the zero-valued type-B drift of DVMd</t>
+    </r>
+  </si>
+  <si>
+    <t>uncertainty in Vdrift = abs(Vd[2]-(Vd[0]+((Vd[3]-Vd[2])/(V2[3]-V2[2]))*(V2[2]-V2[0])))/4</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1867,7 @@
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1723,6 +1990,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1858,7 +2133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1916,6 +2191,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1923,6 +2199,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2263,10 +2541,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="615" activePane="bottomLeft"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="540" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,21 +2612,21 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="M3" s="53" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="M3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53" t="s">
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
       <c r="S3" t="s">
         <v>11</v>
       </c>
@@ -2361,11 +2639,11 @@
       <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
+      <c r="W3" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
       <c r="Z3" t="s">
         <v>16</v>
       </c>
@@ -2417,10 +2695,10 @@
         <v>20.92</v>
       </c>
       <c r="W4" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="X4" s="49" t="s">
         <v>380</v>
-      </c>
-      <c r="X4" s="49" t="s">
-        <v>381</v>
       </c>
       <c r="Y4" s="49" t="s">
         <v>15</v>
@@ -4759,7 +5037,7 @@
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="900" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4837,7 +5115,7 @@
         <v>27</v>
       </c>
       <c r="M6" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -4916,10 +5194,10 @@
         <v>163</v>
       </c>
       <c r="M10" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="N10" s="40" t="s">
         <v>373</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -5138,7 +5416,7 @@
         <v>-7.616225854E-7</v>
       </c>
       <c r="M16" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -5280,6 +5558,17 @@
       <c r="J20" s="44">
         <v>-2.6676433610000002E-7</v>
       </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
     </row>
     <row r="180" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O180" t="s">
@@ -5330,12 +5619,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P164"/>
+  <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="615" activePane="bottomLeft"/>
-      <selection activeCell="O2" sqref="O2"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="540" topLeftCell="A76" activePane="bottomLeft"/>
+      <selection activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5358,15 +5647,18 @@
     <col min="16" max="16" width="11.42578125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>164</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="55" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>166</v>
       </c>
@@ -5386,7 +5678,7 @@
         <v>171</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>166</v>
@@ -5407,10 +5699,13 @@
         <v>171</v>
       </c>
       <c r="O2" s="47" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="Q2" s="51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -5430,22 +5725,25 @@
         <v>175</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I3" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="J3" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="J3" s="50" t="s">
-        <v>390</v>
-      </c>
       <c r="N3" s="41" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="O3" s="50" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -5465,19 +5763,22 @@
         <v>179</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J4" s="50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O4" s="50" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="Q4" s="51" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -5497,19 +5798,22 @@
         <v>182</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N5" s="50" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O5" s="50" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="Q5" s="51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>172</v>
       </c>
@@ -5529,7 +5833,7 @@
         <v>186</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>180</v>
@@ -5538,38 +5842,44 @@
         <v>3</v>
       </c>
       <c r="O6" s="50" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="Q6" s="51" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="27">
         <v>1</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J7" s="50" t="s">
         <v>183</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O7" s="50" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="Q7" s="51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>34</v>
@@ -5579,18 +5889,21 @@
       <c r="F8" s="14"/>
       <c r="G8" s="31"/>
       <c r="I8" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="O8" s="50" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q8" s="51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
         <v>173</v>
@@ -5605,21 +5918,24 @@
         <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J9" s="50" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
         <v>178</v>
@@ -5634,18 +5950,26 @@
         <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>389</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="R10" s="55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
         <v>181</v>
@@ -5660,23 +5984,39 @@
         <v>174</v>
       </c>
       <c r="F11" t="s">
-        <v>197</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="J11" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" t="s">
+        <v>384</v>
+      </c>
+      <c r="J11" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="26">
+        <v>-1E-3</v>
+      </c>
+      <c r="L11" s="26">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>174</v>
+      </c>
+      <c r="N11" t="s">
+        <v>177</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="R11" t="s">
+        <v>408</v>
+      </c>
+      <c r="S11" s="55" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>192</v>
-      </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>193</v>
       </c>
       <c r="B12" t="s">
         <v>185</v>
@@ -5691,59 +6031,62 @@
         <v>174</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
-      </c>
-      <c r="I12" t="s">
-        <v>385</v>
+        <v>198</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>384</v>
       </c>
       <c r="J12" t="s">
-        <v>176</v>
-      </c>
-      <c r="K12" s="26">
-        <v>-1E-3</v>
-      </c>
-      <c r="L12" s="26">
-        <v>4.4999999999999999E-4</v>
-      </c>
-      <c r="M12" t="s">
-        <v>174</v>
-      </c>
-      <c r="N12" t="s">
-        <v>177</v>
-      </c>
-      <c r="O12" s="41" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="O12" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="S12" t="s">
+        <v>410</v>
+      </c>
+      <c r="T12" s="55" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" s="27">
         <v>1</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J13" t="s">
-        <v>180</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
+        <v>183</v>
+      </c>
+      <c r="K13" t="s">
+        <v>184</v>
       </c>
       <c r="O13" s="50" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="T13" t="s">
+        <v>418</v>
+      </c>
+      <c r="U13" s="55" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>34</v>
@@ -5753,19 +6096,19 @@
       <c r="F14" s="14"/>
       <c r="G14" s="31"/>
       <c r="I14" s="50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J14" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K14" t="s">
-        <v>184</v>
-      </c>
-      <c r="O14" s="50" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="T14" s="55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -5782,22 +6125,26 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I15" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="J15" t="s">
-        <v>187</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="O15" s="50" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J15" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="O15" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="S15" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="T15" s="55"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -5814,24 +6161,32 @@
         <v>174</v>
       </c>
       <c r="F16" t="s">
-        <v>202</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>385</v>
-      </c>
-      <c r="J16" t="s">
-        <v>189</v>
-      </c>
-      <c r="K16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="14">
+        <v>1</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="31"/>
+      <c r="S16" s="55" t="s">
+        <v>415</v>
+      </c>
+      <c r="T16" s="55"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="26">
         <v>5</v>
@@ -5843,27 +6198,40 @@
         <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>205</v>
-      </c>
-      <c r="I17" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="J17" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="K17" s="41" t="s">
-        <v>380</v>
-      </c>
-      <c r="O17" s="41" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="I17" t="s">
+        <v>385</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="26">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="L17" s="26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="M17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N17" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="S17" s="55" t="s">
+        <v>417</v>
+      </c>
+      <c r="T17" s="55"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18">
         <v>9999.9992600000005</v>
@@ -5875,28 +6243,33 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
-      </c>
-      <c r="I18" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="J18" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K18" s="14">
-        <v>1</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="31"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="O18" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="S18" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="T18" s="51" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="10">
         <v>20</v>
@@ -5908,36 +6281,30 @@
         <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>211</v>
-      </c>
-      <c r="I19" t="s">
-        <v>386</v>
+        <v>210</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>385</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
-      </c>
-      <c r="K19" s="26">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-      <c r="L19" s="26">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="M19" t="s">
-        <v>174</v>
-      </c>
-      <c r="N19" t="s">
-        <v>195</v>
-      </c>
-      <c r="O19" s="48" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="K19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O19" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="T19" s="51" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -5949,22 +6316,22 @@
         <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
-      </c>
-      <c r="K20">
-        <v>6</v>
-      </c>
-      <c r="O20" s="41" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="S20" s="55" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -5981,22 +6348,28 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I21" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="J21" t="s">
-        <v>183</v>
-      </c>
-      <c r="K21" t="s">
-        <v>198</v>
+      <c r="J21" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>379</v>
       </c>
       <c r="O21" s="50" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="S21" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="T21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>161</v>
       </c>
@@ -6013,27 +6386,31 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="J22" t="s">
-        <v>187</v>
-      </c>
-      <c r="K22">
+        <v>214</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" s="14">
         <v>1</v>
       </c>
-      <c r="O22" s="41" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="31"/>
+      <c r="T22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6045,70 +6422,69 @@
         <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
-      </c>
-      <c r="I23" s="50" t="s">
-        <v>386</v>
+        <v>217</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
-      </c>
-      <c r="K23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s">
+        <v>410</v>
+      </c>
+      <c r="U23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" s="27">
         <v>42522</v>
       </c>
-      <c r="I24" s="50" t="s">
-        <v>387</v>
-      </c>
-      <c r="J24" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="K24" s="41" t="s">
-        <v>380</v>
-      </c>
-      <c r="O24" s="50" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="31"/>
-      <c r="I25" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K25" s="14">
-        <v>1</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="31"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -6125,19 +6501,19 @@
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="K26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -6154,24 +6530,28 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
-      </c>
-      <c r="I27" t="s">
+        <v>220</v>
+      </c>
+      <c r="I27" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J27" t="s">
-        <v>183</v>
-      </c>
-      <c r="K27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J27" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" s="14">
+        <v>1</v>
+      </c>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="31"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>159</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" s="16">
         <v>5.0000031649999999</v>
@@ -6183,24 +6563,24 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
-      </c>
-      <c r="K28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>159</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" s="18">
         <v>100003.41</v>
@@ -6212,24 +6592,24 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30">
         <v>20.6313</v>
@@ -6241,28 +6621,24 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K30" s="14">
-        <v>1</v>
-      </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="31"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C31" s="20">
         <v>10.0000365</v>
@@ -6274,19 +6650,19 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I31" t="s">
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>180</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="K31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -6303,17 +6679,21 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
-      </c>
-      <c r="I32" t="s">
+        <v>225</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J32" t="s">
-        <v>183</v>
-      </c>
-      <c r="K32" t="s">
-        <v>203</v>
-      </c>
+      <c r="J32" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" s="14">
+        <v>1</v>
+      </c>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="31"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6332,16 +6712,16 @@
         <v>174</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I33" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="J33" t="s">
-        <v>206</v>
-      </c>
-      <c r="K33" t="s">
-        <v>216</v>
+        <v>180</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -6349,7 +6729,7 @@
         <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C34" s="26">
         <v>5.7900000000000002E-8</v>
@@ -6361,16 +6741,16 @@
         <v>28.6</v>
       </c>
       <c r="F34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I34" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="J34" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K34" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -6378,31 +6758,27 @@
         <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K35" s="14">
-        <v>1</v>
-      </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="31"/>
+        <v>229</v>
+      </c>
+      <c r="I35" t="s">
+        <v>218</v>
+      </c>
+      <c r="J35" t="s">
+        <v>205</v>
+      </c>
+      <c r="K35" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>34</v>
@@ -6412,18 +6788,18 @@
       <c r="F36" s="14"/>
       <c r="G36" s="31"/>
       <c r="I36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J36" t="s">
-        <v>180</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
+        <v>188</v>
+      </c>
+      <c r="K36" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B37" t="s">
         <v>173</v>
@@ -6438,21 +6814,25 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>234</v>
-      </c>
-      <c r="I37" t="s">
-        <v>219</v>
-      </c>
-      <c r="J37" t="s">
-        <v>183</v>
-      </c>
-      <c r="K37" t="s">
-        <v>203</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K37" s="14">
+        <v>1</v>
+      </c>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="31"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B38" t="s">
         <v>178</v>
@@ -6467,24 +6847,24 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I38" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
       <c r="J38" t="s">
-        <v>206</v>
-      </c>
-      <c r="K38" t="s">
-        <v>222</v>
+        <v>180</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39">
         <v>5.0000212399999997</v>
@@ -6496,24 +6876,24 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I39" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
       <c r="J39" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K39" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C40" s="10">
         <v>1000064.65</v>
@@ -6525,28 +6905,24 @@
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>240</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K40" s="14">
-        <v>1</v>
-      </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="31"/>
+        <v>239</v>
+      </c>
+      <c r="I40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" t="s">
+        <v>205</v>
+      </c>
+      <c r="K40" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C41">
         <v>20.542999999999999</v>
@@ -6558,24 +6934,24 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I41" t="s">
         <v>8</v>
       </c>
       <c r="J41" t="s">
-        <v>180</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
+        <v>188</v>
+      </c>
+      <c r="K41" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C42">
         <v>10.00007862</v>
@@ -6587,21 +6963,25 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>244</v>
-      </c>
-      <c r="I42" t="s">
+        <v>243</v>
+      </c>
+      <c r="I42" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J42" t="s">
-        <v>183</v>
-      </c>
-      <c r="K42" t="s">
-        <v>203</v>
-      </c>
+      <c r="J42" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K42" s="14">
+        <v>1</v>
+      </c>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="31"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B43" t="s">
         <v>181</v>
@@ -6616,21 +6996,27 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I43" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J43" t="s">
-        <v>206</v>
-      </c>
-      <c r="K43" t="s">
-        <v>227</v>
+        <v>230</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s">
         <v>185</v>
@@ -6645,24 +7031,30 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I44" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J44" t="s">
-        <v>189</v>
-      </c>
-      <c r="K44" t="s">
-        <v>63</v>
+        <v>231</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C45">
         <v>1.7E-8</v>
@@ -6674,37 +7066,39 @@
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>218</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K45" s="14">
-        <v>1</v>
-      </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="31"/>
+        <v>217</v>
+      </c>
+      <c r="I45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" t="s">
+        <v>234</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I46" t="s">
         <v>34</v>
       </c>
       <c r="J46" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -6718,10 +7112,10 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>34</v>
@@ -6734,7 +7128,7 @@
         <v>34</v>
       </c>
       <c r="J47" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -6748,7 +7142,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B48" t="s">
         <v>173</v>
@@ -6763,16 +7157,16 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G48" s="45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I48" t="s">
         <v>34</v>
       </c>
       <c r="J48" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -6786,7 +7180,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B49" t="s">
         <v>178</v>
@@ -6801,16 +7195,16 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I49" t="s">
         <v>34</v>
       </c>
       <c r="J49" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -6824,10 +7218,10 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C50">
         <v>10.00008002</v>
@@ -6839,16 +7233,16 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G50" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I50" t="s">
         <v>34</v>
       </c>
       <c r="J50" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -6862,10 +7256,10 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51">
         <v>10001252</v>
@@ -6877,33 +7271,27 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G51" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I51" t="s">
         <v>34</v>
       </c>
       <c r="J51" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C52">
         <v>20.422000000000001</v>
@@ -6915,33 +7303,27 @@
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G52" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I52" t="s">
         <v>34</v>
       </c>
       <c r="J52" t="s">
-        <v>243</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52" t="s">
-        <v>174</v>
+        <v>183</v>
+      </c>
+      <c r="K52" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C53">
         <v>100.0007269</v>
@@ -6953,30 +7335,24 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I53" t="s">
         <v>34</v>
       </c>
       <c r="J53" t="s">
-        <v>245</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53" t="s">
-        <v>174</v>
+        <v>188</v>
+      </c>
+      <c r="K53" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B54" t="s">
         <v>181</v>
@@ -6991,21 +7367,25 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>262</v>
-      </c>
-      <c r="I54" t="s">
+        <v>261</v>
+      </c>
+      <c r="I54" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J54" t="s">
-        <v>180</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
+      <c r="J54" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K54" s="14">
+        <v>1</v>
+      </c>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="31"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B55" t="s">
         <v>185</v>
@@ -7020,24 +7400,30 @@
         <v>174</v>
       </c>
       <c r="F55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I55" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="J55" t="s">
-        <v>183</v>
-      </c>
-      <c r="K55" t="s">
-        <v>248</v>
+        <v>230</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" s="26">
         <v>-1.3000000000000001E-8</v>
@@ -7049,51 +7435,59 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I56" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="J56" t="s">
-        <v>189</v>
-      </c>
-      <c r="K56" t="s">
-        <v>249</v>
+        <v>231</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G57" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K57" s="14">
-        <v>1</v>
-      </c>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="31"/>
+        <v>381</v>
+      </c>
+      <c r="I57" t="s">
+        <v>250</v>
+      </c>
+      <c r="J57" t="s">
+        <v>234</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>172</v>
@@ -7103,24 +7497,19 @@
       <c r="F58" s="14"/>
       <c r="G58" s="31"/>
       <c r="I58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J58" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58" t="s">
-        <v>174</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M58" s="22"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B59" t="s">
         <v>173</v>
@@ -7135,27 +7524,22 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J59" t="s">
-        <v>232</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59" t="s">
-        <v>174</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="K59" t="s">
+        <v>255</v>
+      </c>
+      <c r="M59" s="22"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B60" t="s">
         <v>178</v>
@@ -7170,30 +7554,25 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J60" t="s">
-        <v>235</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60" t="s">
-        <v>174</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="K60" t="s">
+        <v>258</v>
+      </c>
+      <c r="M60" s="22"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C61">
         <v>100.0003961</v>
@@ -7205,25 +7584,25 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J61" t="s">
-        <v>180</v>
-      </c>
-      <c r="K61">
-        <v>7</v>
+        <v>205</v>
+      </c>
+      <c r="K61" t="s">
+        <v>260</v>
       </c>
       <c r="M61" s="22"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C62">
         <v>1000122810</v>
@@ -7235,25 +7614,25 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J62" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K62" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M62" s="22"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C63">
         <v>20.567499999999999</v>
@@ -7265,25 +7644,28 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>273</v>
-      </c>
-      <c r="I63" t="s">
-        <v>251</v>
-      </c>
-      <c r="J63" t="s">
-        <v>258</v>
-      </c>
-      <c r="K63" t="s">
-        <v>259</v>
-      </c>
-      <c r="M63" s="22"/>
+        <v>272</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K63" s="14">
+        <v>1</v>
+      </c>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="31"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C64">
         <v>1000.0024100000001</v>
@@ -7295,22 +7677,27 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I64" t="s">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="J64" t="s">
-        <v>206</v>
-      </c>
-      <c r="K64" t="s">
-        <v>261</v>
-      </c>
-      <c r="M64" s="22"/>
+        <v>230</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B65" t="s">
         <v>181</v>
@@ -7325,22 +7712,27 @@
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I65" t="s">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="J65" t="s">
-        <v>189</v>
-      </c>
-      <c r="K65" t="s">
-        <v>263</v>
-      </c>
-      <c r="M65" s="22"/>
+        <v>231</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B66" t="s">
         <v>185</v>
@@ -7355,28 +7747,30 @@
         <v>174</v>
       </c>
       <c r="F66" t="s">
-        <v>278</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K66" s="14">
-        <v>1</v>
-      </c>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="31"/>
+        <v>277</v>
+      </c>
+      <c r="I66" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" t="s">
+        <v>234</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C67" s="26">
         <v>-1.3000000000000001E-8</v>
@@ -7388,56 +7782,44 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I67" t="s">
         <v>54</v>
       </c>
       <c r="J67" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I68" t="s">
         <v>54</v>
       </c>
       <c r="J68" t="s">
-        <v>232</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68" t="s">
-        <v>174</v>
+        <v>183</v>
+      </c>
+      <c r="K68" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>172</v>
@@ -7450,21 +7832,15 @@
         <v>54</v>
       </c>
       <c r="J69" t="s">
-        <v>235</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69" t="s">
-        <v>174</v>
+        <v>257</v>
+      </c>
+      <c r="K69" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B70" t="s">
         <v>173</v>
@@ -7479,21 +7855,21 @@
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I70" t="s">
         <v>54</v>
       </c>
       <c r="J70" t="s">
-        <v>180</v>
-      </c>
-      <c r="K70">
-        <v>17</v>
+        <v>205</v>
+      </c>
+      <c r="K70" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B71" t="s">
         <v>178</v>
@@ -7508,24 +7884,24 @@
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I71" t="s">
         <v>54</v>
       </c>
       <c r="J71" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K71" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B72" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C72">
         <v>100.0003961</v>
@@ -7537,24 +7913,28 @@
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>289</v>
-      </c>
-      <c r="I72" t="s">
+        <v>288</v>
+      </c>
+      <c r="I72" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J72" t="s">
-        <v>258</v>
-      </c>
-      <c r="K72" t="s">
-        <v>259</v>
-      </c>
+      <c r="J72" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K72" s="14">
+        <v>1</v>
+      </c>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="31"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C73">
         <v>1000122810</v>
@@ -7566,24 +7946,30 @@
         <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>276</v>
       </c>
       <c r="J73" t="s">
-        <v>206</v>
-      </c>
-      <c r="K73" t="s">
-        <v>261</v>
+        <v>230</v>
+      </c>
+      <c r="K73" s="22">
+        <v>0</v>
+      </c>
+      <c r="L73" s="22">
+        <v>0</v>
+      </c>
+      <c r="M73" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C74">
         <v>20.567499999999999</v>
@@ -7595,24 +7981,33 @@
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I74" t="s">
-        <v>54</v>
+        <v>276</v>
       </c>
       <c r="J74" t="s">
-        <v>189</v>
-      </c>
-      <c r="K74" t="s">
-        <v>274</v>
+        <v>231</v>
+      </c>
+      <c r="K74" s="23">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L74" s="23">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M74" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N74" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C75">
         <v>1000.0024100000001</v>
@@ -7624,25 +8019,30 @@
         <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>294</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J75" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K75" s="14">
-        <v>1</v>
-      </c>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="31"/>
+        <v>293</v>
+      </c>
+      <c r="I75" t="s">
+        <v>276</v>
+      </c>
+      <c r="J75" t="s">
+        <v>234</v>
+      </c>
+      <c r="K75" s="23">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L75" s="23">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M75" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N75" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B76" t="s">
         <v>181</v>
@@ -7657,13 +8057,13 @@
         <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I76" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J76" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K76" s="22">
         <v>0</v>
@@ -7671,13 +8071,16 @@
       <c r="L76" s="22">
         <v>0</v>
       </c>
-      <c r="M76" s="22" t="s">
-        <v>174</v>
+      <c r="M76" s="22">
+        <v>7</v>
+      </c>
+      <c r="N76" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B77" t="s">
         <v>185</v>
@@ -7692,33 +8095,36 @@
         <v>174</v>
       </c>
       <c r="F77" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J77" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K77" s="23">
-        <v>-5.6799999999999998E-5</v>
+        <v>2.2210000000000001E-7</v>
       </c>
       <c r="L77" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M77" s="22" t="s">
-        <v>174</v>
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M77" s="22">
+        <v>7</v>
       </c>
       <c r="N77" t="s">
-        <v>279</v>
+        <v>282</v>
+      </c>
+      <c r="O77" s="41" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C78" s="26">
         <v>-1.3000000000000001E-8</v>
@@ -7730,62 +8136,68 @@
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I78" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J78" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K78" s="23">
-        <v>-5.63E-5</v>
+        <v>4.8090000000000002E-7</v>
       </c>
       <c r="L78" s="23">
-        <v>5.9999999999999997E-7</v>
+        <v>1.8E-7</v>
       </c>
       <c r="M78" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N78" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="O78" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I79" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J79" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K79" s="22">
         <v>0</v>
       </c>
-      <c r="L79" s="22">
-        <v>0</v>
+      <c r="L79" s="23">
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M79" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N79" t="s">
-        <v>282</v>
+        <v>287</v>
+      </c>
+      <c r="O79" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>172</v>
@@ -7795,30 +8207,30 @@
       <c r="F80" s="14"/>
       <c r="G80" s="31"/>
       <c r="I80" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J80" t="s">
-        <v>239</v>
-      </c>
-      <c r="K80" s="23">
-        <v>2.2210000000000001E-7</v>
+        <v>244</v>
+      </c>
+      <c r="K80" s="22">
+        <v>0</v>
       </c>
       <c r="L80" s="23">
-        <v>8.9999999999999999E-8</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M80" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N80" t="s">
-        <v>283</v>
-      </c>
-      <c r="O80" s="41" t="s">
-        <v>383</v>
+        <v>289</v>
+      </c>
+      <c r="O80" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B81" t="s">
         <v>173</v>
@@ -7833,33 +8245,21 @@
         <v>429.4639150882258</v>
       </c>
       <c r="F81" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J81" t="s">
-        <v>241</v>
-      </c>
-      <c r="K81" s="23">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L81" s="23">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M81" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N81" t="s">
-        <v>286</v>
-      </c>
-      <c r="O81" s="48" t="s">
-        <v>383</v>
+        <v>180</v>
+      </c>
+      <c r="K81" s="22">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B82" t="s">
         <v>178</v>
@@ -7874,36 +8274,24 @@
         <v>16.6067317125116</v>
       </c>
       <c r="F82" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J82" t="s">
-        <v>243</v>
-      </c>
-      <c r="K82" s="22">
-        <v>0</v>
-      </c>
-      <c r="L82" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M82" s="22">
-        <v>8</v>
-      </c>
-      <c r="N82" t="s">
-        <v>288</v>
-      </c>
-      <c r="O82" s="48" t="s">
-        <v>383</v>
+        <v>183</v>
+      </c>
+      <c r="K82" s="22" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C83">
         <v>0.99997001868571433</v>
@@ -7915,36 +8303,24 @@
         <v>61.084489897408162</v>
       </c>
       <c r="F83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I83" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J83" t="s">
-        <v>245</v>
-      </c>
-      <c r="K83" s="22">
-        <v>0</v>
-      </c>
-      <c r="L83" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M83" s="22">
-        <v>8</v>
-      </c>
-      <c r="N83" t="s">
-        <v>290</v>
-      </c>
-      <c r="O83" s="48" t="s">
-        <v>383</v>
+        <v>257</v>
+      </c>
+      <c r="K83" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C84">
         <v>9999.8808164374568</v>
@@ -7956,24 +8332,24 @@
         <v>549.44114740265024</v>
       </c>
       <c r="F84" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I84" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J84" t="s">
-        <v>180</v>
-      </c>
-      <c r="K84" s="22">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="K84" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C85">
         <v>20.48359037642069</v>
@@ -7985,24 +8361,24 @@
         <v>3.500850985483507</v>
       </c>
       <c r="F85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I85" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J85" t="s">
-        <v>183</v>
-      </c>
-      <c r="K85" s="22" t="s">
-        <v>293</v>
+        <v>188</v>
+      </c>
+      <c r="K85" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C86">
         <v>9.9996528297785723</v>
@@ -8014,21 +8390,25 @@
         <v>108.93931120587359</v>
       </c>
       <c r="F86" t="s">
-        <v>310</v>
-      </c>
-      <c r="I86" t="s">
-        <v>277</v>
-      </c>
-      <c r="J86" t="s">
-        <v>258</v>
-      </c>
-      <c r="K86" t="s">
-        <v>295</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="J86" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K86" s="14">
+        <v>1</v>
+      </c>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="31"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B87" t="s">
         <v>181</v>
@@ -8043,21 +8423,27 @@
         <v>65.933408080168974</v>
       </c>
       <c r="F87" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I87" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="J87" t="s">
-        <v>206</v>
-      </c>
-      <c r="K87" t="s">
-        <v>297</v>
+        <v>230</v>
+      </c>
+      <c r="K87" s="22">
+        <v>0</v>
+      </c>
+      <c r="L87" s="22">
+        <v>0</v>
+      </c>
+      <c r="M87" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B88" t="s">
         <v>185</v>
@@ -8072,24 +8458,33 @@
         <v>174</v>
       </c>
       <c r="F88" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I88" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="J88" t="s">
-        <v>189</v>
-      </c>
-      <c r="K88" t="s">
-        <v>299</v>
+        <v>231</v>
+      </c>
+      <c r="K88" s="23">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L88" s="23">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M88" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N88" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C89">
         <v>1.184149509973361E-8</v>
@@ -8101,37 +8496,42 @@
         <v>816.58679248384738</v>
       </c>
       <c r="F89" t="s">
-        <v>314</v>
-      </c>
-      <c r="I89" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="J89" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K89" s="14">
-        <v>1</v>
-      </c>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="31"/>
+        <v>313</v>
+      </c>
+      <c r="I89" t="s">
+        <v>301</v>
+      </c>
+      <c r="J89" t="s">
+        <v>234</v>
+      </c>
+      <c r="K89" s="23">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L89" s="23">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M89" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N89" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C90" s="30">
         <v>42494.906767388668</v>
       </c>
       <c r="I90" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J90" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K90" s="22">
         <v>0</v>
@@ -8139,16 +8539,22 @@
       <c r="L90" s="22">
         <v>0</v>
       </c>
-      <c r="M90" s="22" t="s">
-        <v>174</v>
+      <c r="M90" s="22">
+        <v>7</v>
+      </c>
+      <c r="N90" t="s">
+        <v>281</v>
+      </c>
+      <c r="O90" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>34</v>
@@ -8158,27 +8564,30 @@
       <c r="F91" s="28"/>
       <c r="G91" s="31"/>
       <c r="I91" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J91" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K91" s="23">
-        <v>-5.6799999999999998E-5</v>
+        <v>2.2210000000000001E-7</v>
       </c>
       <c r="L91" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M91" s="22" t="s">
-        <v>174</v>
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M91" s="22">
+        <v>7</v>
       </c>
       <c r="N91" t="s">
-        <v>303</v>
+        <v>282</v>
+      </c>
+      <c r="O91" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B92" t="s">
         <v>173</v>
@@ -8193,30 +8602,33 @@
         <v>181.66654604068069</v>
       </c>
       <c r="F92" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J92" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K92" s="23">
-        <v>-5.63E-5</v>
+        <v>4.8090000000000002E-7</v>
       </c>
       <c r="L92" s="23">
-        <v>5.9999999999999997E-7</v>
+        <v>1.8E-7</v>
       </c>
       <c r="M92" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N92" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="O92" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B93" t="s">
         <v>178</v>
@@ -8231,36 +8643,36 @@
         <v>22.93020485359223</v>
       </c>
       <c r="F93" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I93" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J93" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K93" s="22">
         <v>0</v>
       </c>
-      <c r="L93" s="22">
-        <v>0</v>
+      <c r="L93" s="23">
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M93" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N93" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O93" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C94">
         <v>10.00008274246875</v>
@@ -8272,36 +8684,33 @@
         <v>142.45334891978871</v>
       </c>
       <c r="F94" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I94" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J94" t="s">
-        <v>239</v>
-      </c>
-      <c r="K94" s="23">
-        <v>2.2210000000000001E-7</v>
+        <v>244</v>
+      </c>
+      <c r="K94" s="22">
+        <v>0</v>
       </c>
       <c r="L94" s="23">
-        <v>8.9999999999999999E-8</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M94" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N94" t="s">
-        <v>283</v>
-      </c>
-      <c r="O94" s="48" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C95">
         <v>10001283.08772916</v>
@@ -8313,36 +8722,24 @@
         <v>129.33446721235609</v>
       </c>
       <c r="F95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I95" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J95" t="s">
-        <v>241</v>
-      </c>
-      <c r="K95" s="23">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L95" s="23">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M95" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N95" t="s">
-        <v>286</v>
-      </c>
-      <c r="O95" s="48" t="s">
-        <v>383</v>
+        <v>180</v>
+      </c>
+      <c r="K95" s="22">
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C96">
         <v>20.89412875253262</v>
@@ -8354,36 +8751,24 @@
         <v>31.432062951924902</v>
       </c>
       <c r="F96" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I96" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J96" t="s">
-        <v>243</v>
-      </c>
-      <c r="K96" s="22">
-        <v>0</v>
-      </c>
-      <c r="L96" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M96" s="22">
-        <v>8</v>
-      </c>
-      <c r="N96" t="s">
-        <v>288</v>
-      </c>
-      <c r="O96" s="48" t="s">
-        <v>383</v>
+        <v>183</v>
+      </c>
+      <c r="K96" s="22" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C97">
         <v>100.0007395721875</v>
@@ -8395,30 +8780,21 @@
         <v>133.21791520913669</v>
       </c>
       <c r="F97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J97" t="s">
-        <v>245</v>
-      </c>
-      <c r="K97" s="22">
-        <v>0</v>
-      </c>
-      <c r="L97" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M97" s="22">
-        <v>8</v>
-      </c>
-      <c r="N97" t="s">
-        <v>290</v>
+        <v>257</v>
+      </c>
+      <c r="K97" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s">
         <v>181</v>
@@ -8433,21 +8809,21 @@
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I98" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J98" t="s">
-        <v>180</v>
-      </c>
-      <c r="K98" s="22">
-        <v>25</v>
+        <v>205</v>
+      </c>
+      <c r="K98" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B99" t="s">
         <v>185</v>
@@ -8462,24 +8838,24 @@
         <v>174</v>
       </c>
       <c r="F99" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I99" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J99" t="s">
-        <v>183</v>
-      </c>
-      <c r="K99" s="22" t="s">
-        <v>313</v>
+        <v>188</v>
+      </c>
+      <c r="K99" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C100">
         <v>-6.6865748800628031E-9</v>
@@ -8491,44 +8867,54 @@
         <v>1649.046981130565</v>
       </c>
       <c r="F100" t="s">
-        <v>328</v>
-      </c>
-      <c r="I100" t="s">
-        <v>302</v>
-      </c>
-      <c r="J100" t="s">
-        <v>258</v>
-      </c>
-      <c r="K100" t="s">
-        <v>295</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="J100" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K100" s="14">
+        <v>1</v>
+      </c>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="31"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C101" s="30">
         <v>42493.882039809992</v>
       </c>
       <c r="I101" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="J101" t="s">
-        <v>206</v>
-      </c>
-      <c r="K101" t="s">
-        <v>297</v>
+        <v>230</v>
+      </c>
+      <c r="K101" s="22">
+        <v>0</v>
+      </c>
+      <c r="L101" s="22">
+        <v>0</v>
+      </c>
+      <c r="M101" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>34</v>
@@ -8538,18 +8924,27 @@
       <c r="F102" s="29"/>
       <c r="G102" s="31"/>
       <c r="I102" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="J102" t="s">
-        <v>189</v>
-      </c>
-      <c r="K102" t="s">
-        <v>315</v>
+        <v>231</v>
+      </c>
+      <c r="K102" s="23">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L102" s="23">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M102" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N102" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B103" t="s">
         <v>173</v>
@@ -8564,25 +8959,30 @@
         <v>36.249303728829837</v>
       </c>
       <c r="F103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I103" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="J103" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K103" s="14">
-        <v>1</v>
-      </c>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="31"/>
+        <v>330</v>
+      </c>
+      <c r="I103" t="s">
+        <v>318</v>
+      </c>
+      <c r="J103" t="s">
+        <v>234</v>
+      </c>
+      <c r="K103" s="23">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L103" s="23">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M103" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N103" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B104" t="s">
         <v>178</v>
@@ -8597,13 +8997,13 @@
         <v>10.63882351464823</v>
       </c>
       <c r="F104" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J104" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K104" s="22">
         <v>0</v>
@@ -8611,16 +9011,22 @@
       <c r="L104" s="22">
         <v>0</v>
       </c>
-      <c r="M104" s="22" t="s">
-        <v>174</v>
+      <c r="M104" s="22">
+        <v>7</v>
+      </c>
+      <c r="N104" t="s">
+        <v>281</v>
+      </c>
+      <c r="O104" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C105">
         <v>10.000082983666671</v>
@@ -8632,33 +9038,36 @@
         <v>50.860228994958739</v>
       </c>
       <c r="F105" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I105" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J105" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K105" s="23">
-        <v>-5.6799999999999998E-5</v>
+        <v>2.2210000000000001E-7</v>
       </c>
       <c r="L105" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M105" s="22" t="s">
-        <v>174</v>
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M105" s="22">
+        <v>7</v>
       </c>
       <c r="N105" t="s">
-        <v>321</v>
+        <v>282</v>
+      </c>
+      <c r="O105" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C106">
         <v>100010372.1260969</v>
@@ -8670,33 +9079,36 @@
         <v>17.105316384443711</v>
       </c>
       <c r="F106" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I106" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J106" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K106" s="23">
-        <v>-5.63E-5</v>
+        <v>4.8090000000000002E-7</v>
       </c>
       <c r="L106" s="23">
-        <v>5.9999999999999997E-7</v>
+        <v>1.8E-7</v>
       </c>
       <c r="M106" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N106" t="s">
-        <v>323</v>
+        <v>285</v>
+      </c>
+      <c r="O106" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C107">
         <v>20.574750767940181</v>
@@ -8708,36 +9120,36 @@
         <v>15.053987399757251</v>
       </c>
       <c r="F107" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I107" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J107" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K107" s="22">
         <v>0</v>
       </c>
-      <c r="L107" s="22">
-        <v>0</v>
+      <c r="L107" s="23">
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M107" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N107" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O107" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C108">
         <v>100.0007446416667</v>
@@ -8749,33 +9161,30 @@
         <v>49.194486212662937</v>
       </c>
       <c r="F108" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I108" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J108" t="s">
-        <v>239</v>
-      </c>
-      <c r="K108" s="23">
-        <v>2.2210000000000001E-7</v>
+        <v>244</v>
+      </c>
+      <c r="K108" s="22">
+        <v>0</v>
       </c>
       <c r="L108" s="23">
-        <v>8.9999999999999999E-8</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M108" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N108" t="s">
-        <v>283</v>
-      </c>
-      <c r="O108" s="48" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B109" t="s">
         <v>181</v>
@@ -8790,33 +9199,21 @@
         <v>90.750622293432627</v>
       </c>
       <c r="F109" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I109" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J109" t="s">
-        <v>241</v>
-      </c>
-      <c r="K109" s="23">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L109" s="23">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M109" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N109" t="s">
-        <v>286</v>
-      </c>
-      <c r="O109" s="48" t="s">
-        <v>383</v>
+        <v>180</v>
+      </c>
+      <c r="K109" s="22">
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B110" t="s">
         <v>185</v>
@@ -8831,36 +9228,24 @@
         <v>174</v>
       </c>
       <c r="F110" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I110" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J110" t="s">
-        <v>243</v>
-      </c>
-      <c r="K110" s="22">
-        <v>0</v>
-      </c>
-      <c r="L110" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M110" s="22">
-        <v>8</v>
-      </c>
-      <c r="N110" t="s">
-        <v>288</v>
-      </c>
-      <c r="O110" s="48" t="s">
-        <v>383</v>
+        <v>183</v>
+      </c>
+      <c r="K110" s="22" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C111">
         <v>-1.528698782574404E-8</v>
@@ -8872,53 +9257,44 @@
         <v>85.513696646934221</v>
       </c>
       <c r="F111" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I111" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J111" t="s">
-        <v>245</v>
-      </c>
-      <c r="K111" s="22">
-        <v>0</v>
-      </c>
-      <c r="L111" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M111" s="22">
-        <v>8</v>
-      </c>
-      <c r="N111" t="s">
-        <v>290</v>
+        <v>257</v>
+      </c>
+      <c r="K111" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C112" s="30">
         <v>42494.691730002567</v>
       </c>
       <c r="I112" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J112" t="s">
-        <v>180</v>
-      </c>
-      <c r="K112" s="22">
-        <v>22</v>
+        <v>205</v>
+      </c>
+      <c r="K112" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>34</v>
@@ -8928,69 +9304,93 @@
       <c r="F113" s="31"/>
       <c r="G113" s="31"/>
       <c r="I113" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J113" t="s">
-        <v>183</v>
-      </c>
-      <c r="K113" s="22" t="s">
-        <v>329</v>
+        <v>188</v>
+      </c>
+      <c r="K113" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I114" t="s">
-        <v>319</v>
-      </c>
-      <c r="J114" t="s">
-        <v>258</v>
-      </c>
-      <c r="K114" t="s">
-        <v>295</v>
-      </c>
+      <c r="I114" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="J114" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K114" s="14">
+        <v>1</v>
+      </c>
+      <c r="L114" s="14"/>
+      <c r="M114" s="14"/>
+      <c r="N114" s="14"/>
+      <c r="O114" s="31"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I115" t="s">
-        <v>319</v>
+        <v>59</v>
       </c>
       <c r="J115" t="s">
-        <v>206</v>
-      </c>
-      <c r="K115" t="s">
-        <v>297</v>
+        <v>230</v>
+      </c>
+      <c r="K115" s="22">
+        <v>0</v>
+      </c>
+      <c r="L115" s="22">
+        <v>0</v>
+      </c>
+      <c r="M115" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>319</v>
+        <v>59</v>
       </c>
       <c r="J116" t="s">
-        <v>189</v>
-      </c>
-      <c r="K116" t="s">
-        <v>334</v>
+        <v>231</v>
+      </c>
+      <c r="K116" s="23">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L116" s="23">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M116" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N116" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I117" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="J117" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K117" s="14">
-        <v>1</v>
-      </c>
-      <c r="L117" s="14"/>
-      <c r="M117" s="14"/>
-      <c r="N117" s="14"/>
-      <c r="O117" s="31"/>
+      <c r="I117" t="s">
+        <v>59</v>
+      </c>
+      <c r="J117" t="s">
+        <v>234</v>
+      </c>
+      <c r="K117" s="23">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L117" s="23">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M117" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N117" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I118" t="s">
         <v>59</v>
       </c>
       <c r="J118" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K118" s="22">
         <v>0</v>
@@ -8998,8 +9398,14 @@
       <c r="L118" s="22">
         <v>0</v>
       </c>
-      <c r="M118" s="22" t="s">
-        <v>174</v>
+      <c r="M118" s="22">
+        <v>7</v>
+      </c>
+      <c r="N118" t="s">
+        <v>281</v>
+      </c>
+      <c r="O118" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -9007,19 +9413,22 @@
         <v>59</v>
       </c>
       <c r="J119" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K119" s="23">
-        <v>-5.6799999999999998E-5</v>
+        <v>2.2210000000000001E-7</v>
       </c>
       <c r="L119" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M119" s="22" t="s">
-        <v>174</v>
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M119" s="22">
+        <v>7</v>
       </c>
       <c r="N119" t="s">
-        <v>338</v>
+        <v>282</v>
+      </c>
+      <c r="O119" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -9027,19 +9436,22 @@
         <v>59</v>
       </c>
       <c r="J120" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K120" s="23">
-        <v>-5.63E-5</v>
+        <v>4.8090000000000002E-7</v>
       </c>
       <c r="L120" s="23">
-        <v>5.9999999999999997E-7</v>
+        <v>1.8E-7</v>
       </c>
       <c r="M120" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N120" t="s">
-        <v>340</v>
+        <v>285</v>
+      </c>
+      <c r="O120" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -9047,22 +9459,22 @@
         <v>59</v>
       </c>
       <c r="J121" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K121" s="22">
         <v>0</v>
       </c>
-      <c r="L121" s="22">
-        <v>0</v>
+      <c r="L121" s="23">
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M121" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N121" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O121" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -9070,22 +9482,19 @@
         <v>59</v>
       </c>
       <c r="J122" t="s">
-        <v>239</v>
-      </c>
-      <c r="K122" s="23">
-        <v>2.2210000000000001E-7</v>
+        <v>244</v>
+      </c>
+      <c r="K122" s="22">
+        <v>0</v>
       </c>
       <c r="L122" s="23">
-        <v>8.9999999999999999E-8</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M122" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N122" t="s">
-        <v>283</v>
-      </c>
-      <c r="O122" s="48" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
@@ -9093,22 +9502,10 @@
         <v>59</v>
       </c>
       <c r="J123" t="s">
-        <v>241</v>
-      </c>
-      <c r="K123" s="23">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L123" s="23">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M123" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N123" t="s">
-        <v>286</v>
-      </c>
-      <c r="O123" s="48" t="s">
-        <v>383</v>
+        <v>180</v>
+      </c>
+      <c r="K123">
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -9116,22 +9513,10 @@
         <v>59</v>
       </c>
       <c r="J124" t="s">
-        <v>243</v>
-      </c>
-      <c r="K124" s="22">
-        <v>0</v>
-      </c>
-      <c r="L124" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M124" s="22">
-        <v>8</v>
-      </c>
-      <c r="N124" t="s">
-        <v>288</v>
-      </c>
-      <c r="O124" s="48" t="s">
-        <v>383</v>
+        <v>183</v>
+      </c>
+      <c r="K124" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -9139,19 +9524,10 @@
         <v>59</v>
       </c>
       <c r="J125" t="s">
-        <v>245</v>
-      </c>
-      <c r="K125" s="22">
-        <v>0</v>
-      </c>
-      <c r="L125" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M125" s="22">
-        <v>8</v>
-      </c>
-      <c r="N125" t="s">
-        <v>290</v>
+        <v>257</v>
+      </c>
+      <c r="K125" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -9159,10 +9535,10 @@
         <v>59</v>
       </c>
       <c r="J126" t="s">
-        <v>180</v>
-      </c>
-      <c r="K126">
-        <v>23</v>
+        <v>205</v>
+      </c>
+      <c r="K126" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -9170,66 +9546,90 @@
         <v>59</v>
       </c>
       <c r="J127" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K127" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I128" t="s">
+      <c r="I128" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J128" t="s">
-        <v>258</v>
-      </c>
-      <c r="K128" t="s">
-        <v>295</v>
-      </c>
+      <c r="J128" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K128" s="14">
+        <v>1</v>
+      </c>
+      <c r="L128" s="14"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="14"/>
+      <c r="O128" s="31"/>
     </row>
     <row r="129" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I129" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J129" t="s">
-        <v>206</v>
-      </c>
-      <c r="K129" t="s">
-        <v>297</v>
+        <v>230</v>
+      </c>
+      <c r="K129" s="22">
+        <v>0</v>
+      </c>
+      <c r="L129" s="22">
+        <v>0</v>
+      </c>
+      <c r="M129" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I130" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J130" t="s">
-        <v>189</v>
-      </c>
-      <c r="K130" t="s">
+        <v>231</v>
+      </c>
+      <c r="K130" s="23">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L130" s="23">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M130" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N130" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="131" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I131" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J131" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K131" s="14">
-        <v>1</v>
-      </c>
-      <c r="L131" s="14"/>
-      <c r="M131" s="14"/>
-      <c r="N131" s="14"/>
-      <c r="O131" s="31"/>
+      <c r="I131" t="s">
+        <v>68</v>
+      </c>
+      <c r="J131" t="s">
+        <v>234</v>
+      </c>
+      <c r="K131" s="23">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L131" s="23">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M131" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N131" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I132" t="s">
         <v>68</v>
       </c>
       <c r="J132" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K132" s="22">
         <v>0</v>
@@ -9237,8 +9637,14 @@
       <c r="L132" s="22">
         <v>0</v>
       </c>
-      <c r="M132" s="22" t="s">
-        <v>174</v>
+      <c r="M132" s="22">
+        <v>7</v>
+      </c>
+      <c r="N132" t="s">
+        <v>281</v>
+      </c>
+      <c r="O132" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="133" spans="9:15" x14ac:dyDescent="0.25">
@@ -9246,19 +9652,22 @@
         <v>68</v>
       </c>
       <c r="J133" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K133" s="23">
-        <v>-5.6799999999999998E-5</v>
+        <v>2.2210000000000001E-7</v>
       </c>
       <c r="L133" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M133" s="22" t="s">
-        <v>174</v>
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M133" s="22">
+        <v>7</v>
       </c>
       <c r="N133" t="s">
-        <v>345</v>
+        <v>282</v>
+      </c>
+      <c r="O133" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="134" spans="9:15" x14ac:dyDescent="0.25">
@@ -9266,19 +9675,22 @@
         <v>68</v>
       </c>
       <c r="J134" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K134" s="23">
-        <v>-5.63E-5</v>
+        <v>4.8090000000000002E-7</v>
       </c>
       <c r="L134" s="23">
-        <v>5.9999999999999997E-7</v>
+        <v>1.8E-7</v>
       </c>
       <c r="M134" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N134" t="s">
-        <v>346</v>
+        <v>285</v>
+      </c>
+      <c r="O134" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.25">
@@ -9286,22 +9698,22 @@
         <v>68</v>
       </c>
       <c r="J135" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K135" s="22">
         <v>0</v>
       </c>
-      <c r="L135" s="22">
-        <v>0</v>
+      <c r="L135" s="23">
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M135" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N135" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O135" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="136" spans="9:15" x14ac:dyDescent="0.25">
@@ -9309,22 +9721,19 @@
         <v>68</v>
       </c>
       <c r="J136" t="s">
-        <v>239</v>
-      </c>
-      <c r="K136" s="23">
-        <v>2.2210000000000001E-7</v>
+        <v>244</v>
+      </c>
+      <c r="K136" s="22">
+        <v>0</v>
       </c>
       <c r="L136" s="23">
-        <v>8.9999999999999999E-8</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="M136" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N136" t="s">
-        <v>283</v>
-      </c>
-      <c r="O136" s="48" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137" spans="9:15" x14ac:dyDescent="0.25">
@@ -9332,22 +9741,10 @@
         <v>68</v>
       </c>
       <c r="J137" t="s">
-        <v>241</v>
-      </c>
-      <c r="K137" s="23">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L137" s="23">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M137" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N137" t="s">
-        <v>286</v>
-      </c>
-      <c r="O137" s="48" t="s">
-        <v>383</v>
+        <v>180</v>
+      </c>
+      <c r="K137">
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.25">
@@ -9355,22 +9752,10 @@
         <v>68</v>
       </c>
       <c r="J138" t="s">
-        <v>243</v>
-      </c>
-      <c r="K138" s="22">
-        <v>0</v>
-      </c>
-      <c r="L138" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M138" s="22">
-        <v>8</v>
-      </c>
-      <c r="N138" t="s">
-        <v>288</v>
-      </c>
-      <c r="O138" s="48" t="s">
-        <v>383</v>
+        <v>183</v>
+      </c>
+      <c r="K138" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.25">
@@ -9378,19 +9763,10 @@
         <v>68</v>
       </c>
       <c r="J139" t="s">
-        <v>245</v>
-      </c>
-      <c r="K139" s="22">
-        <v>0</v>
-      </c>
-      <c r="L139" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M139" s="22">
-        <v>8</v>
-      </c>
-      <c r="N139" t="s">
-        <v>290</v>
+        <v>257</v>
+      </c>
+      <c r="K139" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.25">
@@ -9398,10 +9774,10 @@
         <v>68</v>
       </c>
       <c r="J140" t="s">
-        <v>180</v>
-      </c>
-      <c r="K140">
-        <v>24</v>
+        <v>205</v>
+      </c>
+      <c r="K140" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="141" spans="9:15" x14ac:dyDescent="0.25">
@@ -9409,71 +9785,83 @@
         <v>68</v>
       </c>
       <c r="J141" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K141" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="142" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I142" t="s">
+      <c r="I142" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J142" t="s">
-        <v>258</v>
-      </c>
-      <c r="K142" t="s">
-        <v>295</v>
-      </c>
+      <c r="J142" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K142" s="14">
+        <v>1</v>
+      </c>
+      <c r="L142" s="14"/>
+      <c r="M142" s="14"/>
+      <c r="N142" s="14"/>
+      <c r="O142" s="31"/>
     </row>
     <row r="143" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I143" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="J143" t="s">
-        <v>206</v>
-      </c>
-      <c r="K143" t="s">
-        <v>297</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143" s="22"/>
+      <c r="M143" s="22"/>
     </row>
     <row r="144" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I144" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="J144" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K144" t="s">
         <v>348</v>
       </c>
+      <c r="L144" s="23"/>
+      <c r="M144" s="22"/>
     </row>
     <row r="145" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I145" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J145" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K145" s="14">
-        <v>1</v>
-      </c>
-      <c r="L145" s="14"/>
-      <c r="M145" s="14"/>
-      <c r="N145" s="14"/>
-      <c r="O145" s="31"/>
+      <c r="I145" t="s">
+        <v>39</v>
+      </c>
+      <c r="J145" t="s">
+        <v>349</v>
+      </c>
+      <c r="K145" t="s">
+        <v>350</v>
+      </c>
+      <c r="L145" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="M145" s="25" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="146" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I146" t="s">
         <v>39</v>
       </c>
       <c r="J146" t="s">
-        <v>180</v>
-      </c>
-      <c r="K146">
-        <v>2</v>
-      </c>
-      <c r="L146" s="22"/>
+        <v>353</v>
+      </c>
+      <c r="K146" t="s">
+        <v>354</v>
+      </c>
+      <c r="L146" s="24" t="s">
+        <v>355</v>
+      </c>
       <c r="M146" s="22"/>
     </row>
     <row r="147" spans="9:15" x14ac:dyDescent="0.25">
@@ -9481,10 +9869,10 @@
         <v>39</v>
       </c>
       <c r="J147" t="s">
-        <v>183</v>
+        <v>356</v>
       </c>
       <c r="K147" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L147" s="23"/>
       <c r="M147" s="22"/>
@@ -9494,16 +9882,10 @@
         <v>39</v>
       </c>
       <c r="J148" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K148" t="s">
-        <v>351</v>
-      </c>
-      <c r="L148" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="M148" s="25" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="149" spans="9:15" x14ac:dyDescent="0.25">
@@ -9511,98 +9893,97 @@
         <v>39</v>
       </c>
       <c r="J149" t="s">
-        <v>354</v>
+        <v>205</v>
       </c>
       <c r="K149" t="s">
-        <v>355</v>
-      </c>
-      <c r="L149" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="M149" s="22"/>
+        <v>360</v>
+      </c>
     </row>
     <row r="150" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I150" t="s">
         <v>39</v>
       </c>
       <c r="J150" t="s">
-        <v>357</v>
+        <v>188</v>
       </c>
       <c r="K150" t="s">
-        <v>358</v>
-      </c>
-      <c r="L150" s="23"/>
-      <c r="M150" s="22"/>
+        <v>361</v>
+      </c>
     </row>
     <row r="151" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I151" t="s">
+      <c r="I151" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J151" t="s">
-        <v>359</v>
-      </c>
-      <c r="K151" t="s">
-        <v>360</v>
-      </c>
+      <c r="J151" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K151" s="14">
+        <v>1</v>
+      </c>
+      <c r="L151" s="14"/>
+      <c r="M151" s="14"/>
+      <c r="N151" s="14"/>
+      <c r="O151" s="31"/>
     </row>
     <row r="152" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I152" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J152" t="s">
-        <v>206</v>
-      </c>
-      <c r="K152" t="s">
-        <v>361</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="K152">
+        <v>4</v>
+      </c>
+      <c r="L152" s="22"/>
     </row>
     <row r="153" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I153" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J153" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K153" t="s">
         <v>362</v>
       </c>
+      <c r="L153" s="23"/>
     </row>
     <row r="154" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I154" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J154" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K154" s="14">
-        <v>1</v>
-      </c>
-      <c r="L154" s="14"/>
-      <c r="M154" s="14"/>
-      <c r="N154" s="14"/>
-      <c r="O154" s="31"/>
+      <c r="I154" t="s">
+        <v>29</v>
+      </c>
+      <c r="J154" t="s">
+        <v>349</v>
+      </c>
+      <c r="K154" t="s">
+        <v>363</v>
+      </c>
+      <c r="L154" s="23"/>
     </row>
     <row r="155" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I155" t="s">
         <v>29</v>
       </c>
       <c r="J155" t="s">
-        <v>180</v>
-      </c>
-      <c r="K155">
-        <v>4</v>
-      </c>
-      <c r="L155" s="22"/>
+        <v>353</v>
+      </c>
+      <c r="K155" t="s">
+        <v>364</v>
+      </c>
+      <c r="L155" s="24" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="156" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I156" t="s">
         <v>29</v>
       </c>
       <c r="J156" t="s">
-        <v>183</v>
+        <v>356</v>
       </c>
       <c r="K156" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L156" s="23"/>
     </row>
@@ -9611,25 +9992,24 @@
         <v>29</v>
       </c>
       <c r="J157" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K157" t="s">
-        <v>364</v>
-      </c>
-      <c r="L157" s="23"/>
+        <v>367</v>
+      </c>
     </row>
     <row r="158" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I158" t="s">
         <v>29</v>
       </c>
       <c r="J158" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="K158" t="s">
-        <v>365</v>
-      </c>
-      <c r="L158" s="24" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="L158" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="159" spans="9:15" x14ac:dyDescent="0.25">
@@ -9637,74 +10017,37 @@
         <v>29</v>
       </c>
       <c r="J159" t="s">
-        <v>357</v>
+        <v>205</v>
       </c>
       <c r="K159" t="s">
-        <v>367</v>
-      </c>
-      <c r="L159" s="23"/>
+        <v>260</v>
+      </c>
     </row>
     <row r="160" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I160" t="s">
         <v>29</v>
       </c>
       <c r="J160" t="s">
-        <v>359</v>
+        <v>188</v>
       </c>
       <c r="K160" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="161" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I161" t="s">
+      <c r="I161" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J161" t="s">
-        <v>369</v>
-      </c>
-      <c r="K161" t="s">
-        <v>370</v>
-      </c>
-      <c r="L161" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="162" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I162" t="s">
-        <v>29</v>
-      </c>
-      <c r="J162" t="s">
-        <v>206</v>
-      </c>
-      <c r="K162" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="163" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I163" t="s">
-        <v>29</v>
-      </c>
-      <c r="J163" t="s">
-        <v>189</v>
-      </c>
-      <c r="K163" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="164" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I164" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J164" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K164" s="14">
+      <c r="J161" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K161" s="14">
         <v>1</v>
       </c>
-      <c r="L164" s="14"/>
-      <c r="M164" s="14"/>
-      <c r="N164" s="14"/>
-      <c r="O164" s="31"/>
+      <c r="L161" s="14"/>
+      <c r="M161" s="14"/>
+      <c r="N161" s="14"/>
+      <c r="O161" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="424">
   <si>
     <t>start_row</t>
   </si>
@@ -1641,9 +1641,6 @@
     <t>GMH: s/n628</t>
   </si>
   <si>
-    <t>GMH: s/n629</t>
-  </si>
-  <si>
     <t>Test Temperature measurement function</t>
   </si>
   <si>
@@ -1660,9 +1657,6 @@
   </si>
   <si>
     <t>COM3</t>
-  </si>
-  <si>
-    <t>GMH: sn628</t>
   </si>
   <si>
     <t>P_correction</t>
@@ -2133,7 +2127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2192,6 +2186,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2199,8 +2196,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2612,21 +2607,21 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="M3" s="54" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="M3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54" t="s">
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
       <c r="S3" t="s">
         <v>11</v>
       </c>
@@ -2639,11 +2634,11 @@
       <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="54" t="s">
+      <c r="W3" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
       <c r="Z3" t="s">
         <v>16</v>
       </c>
@@ -5622,9 +5617,9 @@
   <dimension ref="A1:U161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="540" topLeftCell="A76" activePane="bottomLeft"/>
+      <pane ySplit="540" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2"/>
-      <selection pane="bottomLeft" activeCell="U27" sqref="U27"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5654,8 +5649,8 @@
       <c r="I1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="Q1" s="55" t="s">
-        <v>399</v>
+      <c r="Q1" s="53" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -5702,7 +5697,7 @@
         <v>376</v>
       </c>
       <c r="Q2" s="51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -5728,19 +5723,19 @@
         <v>377</v>
       </c>
       <c r="I3" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="J3" s="50" t="s">
         <v>388</v>
       </c>
-      <c r="J3" s="50" t="s">
-        <v>389</v>
-      </c>
       <c r="N3" s="41" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O3" s="50" t="s">
         <v>383</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -5763,19 +5758,19 @@
         <v>179</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J4" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O4" s="50" t="s">
         <v>383</v>
       </c>
       <c r="Q4" s="51" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -5798,19 +5793,19 @@
         <v>182</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N5" s="50" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="O5" s="50" t="s">
         <v>383</v>
       </c>
       <c r="Q5" s="51" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -5833,7 +5828,7 @@
         <v>186</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>180</v>
@@ -5842,10 +5837,10 @@
         <v>3</v>
       </c>
       <c r="O6" s="50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q6" s="51" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -5859,19 +5854,19 @@
         <v>1</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J7" s="50" t="s">
         <v>183</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O7" s="50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q7" s="51" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -5889,16 +5884,16 @@
       <c r="F8" s="14"/>
       <c r="G8" s="31"/>
       <c r="I8" s="50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J8" s="50" t="s">
         <v>188</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q8" s="51" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -5921,16 +5916,16 @@
         <v>193</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J9" s="50" t="s">
         <v>205</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -5953,7 +5948,7 @@
         <v>195</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>191</v>
@@ -5963,8 +5958,8 @@
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
       <c r="O10" s="31"/>
-      <c r="R10" s="55" t="s">
-        <v>412</v>
+      <c r="R10" s="53" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -6008,10 +6003,10 @@
         <v>383</v>
       </c>
       <c r="R11" t="s">
-        <v>408</v>
-      </c>
-      <c r="S11" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
+      </c>
+      <c r="S11" s="53" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -6043,13 +6038,13 @@
         <v>5</v>
       </c>
       <c r="O12" s="50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S12" t="s">
-        <v>410</v>
-      </c>
-      <c r="T12" s="55" t="s">
-        <v>413</v>
+        <v>408</v>
+      </c>
+      <c r="T12" s="53" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -6072,13 +6067,13 @@
         <v>184</v>
       </c>
       <c r="O13" s="50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T13" t="s">
-        <v>418</v>
-      </c>
-      <c r="U13" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
+      </c>
+      <c r="U13" s="53" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -6104,8 +6099,8 @@
       <c r="K14" t="s">
         <v>189</v>
       </c>
-      <c r="T14" s="55" t="s">
-        <v>414</v>
+      <c r="T14" s="53" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -6127,8 +6122,8 @@
       <c r="F15" t="s">
         <v>200</v>
       </c>
-      <c r="I15" s="50" t="s">
-        <v>385</v>
+      <c r="I15" s="52" t="s">
+        <v>384</v>
       </c>
       <c r="J15" s="41" t="s">
         <v>205</v>
@@ -6137,12 +6132,12 @@
         <v>379</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="S15" s="55" t="s">
-        <v>416</v>
-      </c>
-      <c r="T15" s="55"/>
+        <v>386</v>
+      </c>
+      <c r="S15" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="T15" s="53"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -6176,10 +6171,10 @@
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="31"/>
-      <c r="S16" s="55" t="s">
-        <v>415</v>
-      </c>
-      <c r="T16" s="55"/>
+      <c r="S16" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="T16" s="53"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -6221,10 +6216,10 @@
       <c r="O17" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="S17" s="55" t="s">
-        <v>417</v>
-      </c>
-      <c r="T17" s="55"/>
+      <c r="S17" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="T17" s="53"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -6255,13 +6250,13 @@
         <v>6</v>
       </c>
       <c r="O18" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="S18" s="56" t="s">
-        <v>410</v>
+        <v>389</v>
+      </c>
+      <c r="S18" s="54" t="s">
+        <v>408</v>
       </c>
       <c r="T18" s="51" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -6293,10 +6288,10 @@
         <v>197</v>
       </c>
       <c r="O19" s="50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T19" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -6327,8 +6322,8 @@
       <c r="K20" t="s">
         <v>199</v>
       </c>
-      <c r="S20" s="55" t="s">
-        <v>420</v>
+      <c r="S20" s="53" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -6350,8 +6345,8 @@
       <c r="F21" t="s">
         <v>213</v>
       </c>
-      <c r="I21" s="50" t="s">
-        <v>386</v>
+      <c r="I21" s="52" t="s">
+        <v>385</v>
       </c>
       <c r="J21" s="41" t="s">
         <v>205</v>
@@ -6360,13 +6355,13 @@
         <v>379</v>
       </c>
       <c r="O21" s="50" t="s">
-        <v>387</v>
-      </c>
-      <c r="S21" s="56" t="s">
-        <v>410</v>
+        <v>386</v>
+      </c>
+      <c r="S21" s="54" t="s">
+        <v>408</v>
       </c>
       <c r="T21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -6389,7 +6384,7 @@
         <v>214</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>191</v>
@@ -6402,7 +6397,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="31"/>
       <c r="T22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -6434,10 +6429,10 @@
         <v>2</v>
       </c>
       <c r="T23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="U23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="423">
   <si>
     <t>start_row</t>
   </si>
@@ -1054,9 +1054,6 @@
   </si>
   <si>
     <t>T_sensor</t>
-  </si>
-  <si>
-    <t>demo</t>
   </si>
   <si>
     <t>SR104t 10k</t>
@@ -2127,7 +2124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2186,7 +2183,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2196,6 +2192,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2607,21 +2606,21 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="M3" s="57" t="s">
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="M3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="57" t="s">
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
       <c r="S3" t="s">
         <v>11</v>
       </c>
@@ -2634,11 +2633,11 @@
       <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="57" t="s">
-        <v>378</v>
-      </c>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
+      <c r="W3" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
       <c r="Z3" t="s">
         <v>16</v>
       </c>
@@ -2690,10 +2689,10 @@
         <v>20.92</v>
       </c>
       <c r="W4" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="X4" s="49" t="s">
         <v>379</v>
-      </c>
-      <c r="X4" s="49" t="s">
-        <v>380</v>
       </c>
       <c r="Y4" s="49" t="s">
         <v>15</v>
@@ -5110,7 +5109,7 @@
         <v>27</v>
       </c>
       <c r="M6" s="41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -5189,10 +5188,10 @@
         <v>163</v>
       </c>
       <c r="M10" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="N10" s="40" t="s">
         <v>372</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -5411,7 +5410,7 @@
         <v>-7.616225854E-7</v>
       </c>
       <c r="M16" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -5614,12 +5613,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U161"/>
+  <dimension ref="A1:U152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="540" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="K153" sqref="K153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5649,8 +5648,8 @@
       <c r="I1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="Q1" s="53" t="s">
-        <v>397</v>
+      <c r="Q1" s="52" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -5673,7 +5672,7 @@
         <v>171</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>166</v>
@@ -5694,10 +5693,10 @@
         <v>171</v>
       </c>
       <c r="O2" s="47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q2" s="51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -5720,22 +5719,22 @@
         <v>175</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I3" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="J3" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="J3" s="50" t="s">
-        <v>388</v>
-      </c>
       <c r="N3" s="41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O3" s="50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -5758,19 +5757,19 @@
         <v>179</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J4" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O4" s="50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q4" s="51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -5793,19 +5792,19 @@
         <v>182</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N5" s="50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O5" s="50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q5" s="51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -5828,7 +5827,7 @@
         <v>186</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>180</v>
@@ -5837,10 +5836,10 @@
         <v>3</v>
       </c>
       <c r="O6" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q6" s="51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -5854,19 +5853,19 @@
         <v>1</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J7" s="50" t="s">
         <v>183</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O7" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q7" s="51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -5884,21 +5883,21 @@
       <c r="F8" s="14"/>
       <c r="G8" s="31"/>
       <c r="I8" s="50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J8" s="50" t="s">
         <v>188</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q8" s="51" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
         <v>173</v>
@@ -5913,24 +5912,28 @@
         <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>387</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="K9" s="41" t="s">
-        <v>405</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
       <c r="Q9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" t="s">
         <v>178</v>
@@ -5945,26 +5948,36 @@
         <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="R10" s="53" t="s">
-        <v>410</v>
+        <v>194</v>
+      </c>
+      <c r="I10" t="s">
+        <v>383</v>
+      </c>
+      <c r="J10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="26">
+        <v>-1E-3</v>
+      </c>
+      <c r="L10" s="26">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>174</v>
+      </c>
+      <c r="N10" t="s">
+        <v>177</v>
+      </c>
+      <c r="O10" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="R10" s="52" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
         <v>181</v>
@@ -5979,39 +5992,30 @@
         <v>174</v>
       </c>
       <c r="F11" t="s">
-        <v>196</v>
-      </c>
-      <c r="I11" t="s">
-        <v>384</v>
+        <v>195</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>383</v>
       </c>
       <c r="J11" t="s">
-        <v>176</v>
-      </c>
-      <c r="K11" s="26">
-        <v>-1E-3</v>
-      </c>
-      <c r="L11" s="26">
-        <v>4.4999999999999999E-4</v>
-      </c>
-      <c r="M11" t="s">
-        <v>174</v>
-      </c>
-      <c r="N11" t="s">
-        <v>177</v>
-      </c>
-      <c r="O11" s="41" t="s">
-        <v>383</v>
+        <v>180</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="O11" s="50" t="s">
+        <v>388</v>
       </c>
       <c r="R11" t="s">
+        <v>405</v>
+      </c>
+      <c r="S11" s="52" t="s">
         <v>406</v>
-      </c>
-      <c r="S11" s="53" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
         <v>185</v>
@@ -6026,30 +6030,30 @@
         <v>174</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J12" t="s">
-        <v>180</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
+        <v>183</v>
+      </c>
+      <c r="K12" t="s">
+        <v>184</v>
       </c>
       <c r="O12" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S12" t="s">
-        <v>408</v>
-      </c>
-      <c r="T12" s="53" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="T12" s="52" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
         <v>187</v>
@@ -6058,27 +6062,24 @@
         <v>1</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J13" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K13" t="s">
-        <v>184</v>
-      </c>
-      <c r="O13" s="50" t="s">
-        <v>389</v>
+        <v>189</v>
       </c>
       <c r="T13" t="s">
+        <v>415</v>
+      </c>
+      <c r="U13" s="52" t="s">
         <v>416</v>
-      </c>
-      <c r="U13" s="53" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>190</v>
@@ -6090,17 +6091,23 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="31"/>
-      <c r="I14" s="50" t="s">
-        <v>384</v>
-      </c>
-      <c r="J14" t="s">
-        <v>188</v>
-      </c>
-      <c r="K14" t="s">
-        <v>189</v>
-      </c>
-      <c r="T14" s="53" t="s">
-        <v>412</v>
+      <c r="I14" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="T14" s="52" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -6120,24 +6127,33 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>200</v>
-      </c>
-      <c r="I15" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" t="s">
         <v>384</v>
       </c>
-      <c r="J15" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="K15" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="O15" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="S15" s="53" t="s">
-        <v>414</v>
-      </c>
-      <c r="T15" s="53"/>
+      <c r="J15" t="s">
+        <v>176</v>
+      </c>
+      <c r="K15" s="26">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="L15" s="26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>174</v>
+      </c>
+      <c r="N15" t="s">
+        <v>193</v>
+      </c>
+      <c r="O15" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="S15" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="T15" s="52"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -6156,32 +6172,31 @@
         <v>174</v>
       </c>
       <c r="F16" t="s">
-        <v>201</v>
-      </c>
-      <c r="I16" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="I16" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K16" s="14">
-        <v>1</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="31"/>
-      <c r="S16" s="53" t="s">
-        <v>413</v>
-      </c>
-      <c r="T16" s="53"/>
+      <c r="J16" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="O16" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="S16" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="T16" s="52"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="26">
         <v>5</v>
@@ -6193,40 +6208,31 @@
         <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
-      </c>
-      <c r="I17" t="s">
-        <v>385</v>
+        <v>203</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>384</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
-      </c>
-      <c r="K17" s="26">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-      <c r="L17" s="26">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="M17" t="s">
-        <v>174</v>
-      </c>
-      <c r="N17" t="s">
-        <v>194</v>
-      </c>
-      <c r="O17" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="S17" s="53" t="s">
-        <v>415</v>
-      </c>
-      <c r="T17" s="53"/>
+        <v>183</v>
+      </c>
+      <c r="K17" t="s">
+        <v>196</v>
+      </c>
+      <c r="O17" s="50" t="s">
+        <v>388</v>
+      </c>
+      <c r="S17" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="T17" s="52"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18">
         <v>9999.9992600000005</v>
@@ -6238,25 +6244,22 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I18" s="50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
-      </c>
-      <c r="K18">
-        <v>6</v>
-      </c>
-      <c r="O18" s="41" t="s">
-        <v>389</v>
-      </c>
-      <c r="S18" s="54" t="s">
-        <v>408</v>
+        <v>188</v>
+      </c>
+      <c r="K18" t="s">
+        <v>198</v>
+      </c>
+      <c r="S18" s="53" t="s">
+        <v>407</v>
       </c>
       <c r="T18" s="51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -6264,7 +6267,7 @@
         <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" s="10">
         <v>20</v>
@@ -6276,22 +6279,25 @@
         <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
-      </c>
-      <c r="I19" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="J19" t="s">
-        <v>183</v>
-      </c>
-      <c r="K19" t="s">
-        <v>197</v>
-      </c>
-      <c r="O19" s="50" t="s">
-        <v>389</v>
-      </c>
       <c r="T19" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -6299,7 +6305,7 @@
         <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -6311,19 +6317,19 @@
         <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I20" s="50" t="s">
-        <v>385</v>
+        <v>211</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>188</v>
-      </c>
-      <c r="K20" t="s">
-        <v>199</v>
-      </c>
-      <c r="S20" s="53" t="s">
-        <v>418</v>
+        <v>180</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="S20" s="52" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -6343,25 +6349,22 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
-      </c>
-      <c r="I21" s="52" t="s">
-        <v>385</v>
-      </c>
-      <c r="J21" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="K21" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="O21" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="S21" s="54" t="s">
-        <v>408</v>
+        <v>212</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="S21" s="53" t="s">
+        <v>407</v>
       </c>
       <c r="T21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -6381,23 +6384,19 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K22" s="14">
-        <v>1</v>
-      </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="31"/>
+        <v>213</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>63</v>
+      </c>
       <c r="T22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -6405,7 +6404,7 @@
         <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6417,22 +6416,26 @@
         <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
-      </c>
-      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="I23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J23" t="s">
-        <v>180</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
+      <c r="J23" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
       <c r="T23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -6446,13 +6449,13 @@
         <v>42522</v>
       </c>
       <c r="I24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J24" t="s">
-        <v>183</v>
-      </c>
-      <c r="K24" t="s">
-        <v>202</v>
+        <v>180</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -6463,20 +6466,20 @@
         <v>190</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="31"/>
       <c r="I25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J25" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -6496,10 +6499,10 @@
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J26" t="s">
         <v>188</v>
@@ -6525,28 +6528,24 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K27" s="14">
-        <v>1</v>
-      </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="31"/>
+        <v>219</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>159</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" s="16">
         <v>5.0000031649999999</v>
@@ -6558,24 +6557,28 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
-      </c>
-      <c r="I28" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="13">
         <v>2</v>
       </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>159</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29" s="18">
         <v>100003.41</v>
@@ -6587,24 +6590,28 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
-      </c>
-      <c r="I29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="K29" t="s">
-        <v>202</v>
-      </c>
+      <c r="K29" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C30">
         <v>20.6313</v>
@@ -6616,24 +6623,28 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>224</v>
-      </c>
-      <c r="I30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" t="s">
-        <v>205</v>
-      </c>
-      <c r="K30" t="s">
-        <v>215</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31" s="20">
         <v>10.0000365</v>
@@ -6645,17 +6656,21 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
-      </c>
-      <c r="I31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" t="s">
-        <v>188</v>
-      </c>
-      <c r="K31" t="s">
-        <v>63</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="K31" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -6674,21 +6689,17 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K32" s="14">
-        <v>1</v>
-      </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="31"/>
+        <v>224</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" t="s">
+        <v>180</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6707,24 +6718,28 @@
         <v>174</v>
       </c>
       <c r="F33" t="s">
-        <v>227</v>
-      </c>
-      <c r="I33" t="s">
-        <v>218</v>
-      </c>
-      <c r="J33" t="s">
-        <v>180</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C34" s="26">
         <v>5.7900000000000002E-8</v>
@@ -6736,17 +6751,21 @@
         <v>28.6</v>
       </c>
       <c r="F34" t="s">
-        <v>228</v>
-      </c>
-      <c r="I34" t="s">
-        <v>218</v>
-      </c>
-      <c r="J34" t="s">
-        <v>183</v>
-      </c>
-      <c r="K34" t="s">
-        <v>202</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="I34" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -6756,17 +6775,21 @@
         <v>187</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="I35" t="s">
-        <v>218</v>
-      </c>
-      <c r="J35" t="s">
-        <v>205</v>
-      </c>
-      <c r="K35" t="s">
-        <v>221</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
@@ -6783,18 +6806,24 @@
       <c r="F36" s="14"/>
       <c r="G36" s="31"/>
       <c r="I36" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="J36" t="s">
-        <v>188</v>
-      </c>
-      <c r="K36" t="s">
-        <v>63</v>
+        <v>229</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B37" t="s">
         <v>173</v>
@@ -6809,25 +6838,29 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>233</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K37" s="14">
-        <v>1</v>
-      </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="31"/>
+        <v>232</v>
+      </c>
+      <c r="I37" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" t="s">
+        <v>230</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>174</v>
+      </c>
+      <c r="N37"/>
+      <c r="O37"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38" t="s">
         <v>178</v>
@@ -6842,24 +6875,32 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I38" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J38" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="K38">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>174</v>
+      </c>
+      <c r="N38"/>
+      <c r="O38"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C39">
         <v>5.0000212399999997</v>
@@ -6871,24 +6912,30 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I39" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J39" t="s">
-        <v>183</v>
-      </c>
-      <c r="K39" t="s">
-        <v>202</v>
+        <v>235</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C40" s="10">
         <v>1000064.65</v>
@@ -6900,24 +6947,30 @@
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I40" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J40" t="s">
-        <v>205</v>
-      </c>
-      <c r="K40" t="s">
-        <v>226</v>
+        <v>237</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C41">
         <v>20.542999999999999</v>
@@ -6929,24 +6982,30 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I41" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J41" t="s">
-        <v>188</v>
-      </c>
-      <c r="K41" t="s">
-        <v>63</v>
+        <v>239</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C42">
         <v>10.00007862</v>
@@ -6958,25 +7017,29 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>243</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K42" s="14">
-        <v>1</v>
-      </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="31"/>
+        <v>242</v>
+      </c>
+      <c r="I42" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" t="s">
+        <v>241</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>174</v>
+      </c>
+      <c r="N42"/>
+      <c r="O42"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B43" t="s">
         <v>181</v>
@@ -6991,13 +7054,13 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I43" t="s">
         <v>34</v>
       </c>
       <c r="J43" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -7011,7 +7074,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B44" t="s">
         <v>185</v>
@@ -7026,30 +7089,24 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I44" t="s">
         <v>34</v>
       </c>
       <c r="J44" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45">
         <v>1.7E-8</v>
@@ -7061,53 +7118,41 @@
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I45" t="s">
         <v>34</v>
       </c>
       <c r="J45" t="s">
-        <v>234</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45" t="s">
-        <v>174</v>
+        <v>183</v>
+      </c>
+      <c r="K45" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B46" t="s">
         <v>187</v>
       </c>
       <c r="C46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I46" t="s">
         <v>34</v>
       </c>
       <c r="J46" t="s">
-        <v>236</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
-        <v>174</v>
+        <v>188</v>
+      </c>
+      <c r="K46" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>190</v>
@@ -7119,25 +7164,21 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="31"/>
-      <c r="I47" t="s">
+      <c r="I47" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J47" t="s">
-        <v>238</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47" t="s">
-        <v>174</v>
-      </c>
+      <c r="J47" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s">
         <v>173</v>
@@ -7152,16 +7193,16 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G48" s="45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I48" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="J48" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -7175,7 +7216,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B49" t="s">
         <v>178</v>
@@ -7190,16 +7231,16 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I49" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="J49" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -7213,10 +7254,10 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C50">
         <v>10.00008002</v>
@@ -7228,16 +7269,16 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G50" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I50" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="J50" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -7251,10 +7292,10 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C51">
         <v>10001252</v>
@@ -7266,27 +7307,28 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G51" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I51" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="J51" t="s">
         <v>180</v>
       </c>
       <c r="K51">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M51" s="22"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C52">
         <v>20.422000000000001</v>
@@ -7298,27 +7340,28 @@
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G52" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I52" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="J52" t="s">
         <v>183</v>
       </c>
       <c r="K52" t="s">
-        <v>247</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M52" s="22"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C53">
         <v>100.0007269</v>
@@ -7330,24 +7373,25 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I53" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="J53" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="K53" t="s">
-        <v>248</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M53" s="22"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B54" t="s">
         <v>181</v>
@@ -7362,25 +7406,22 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
+        <v>260</v>
+      </c>
+      <c r="I54" t="s">
+        <v>249</v>
+      </c>
+      <c r="J54" t="s">
+        <v>188</v>
+      </c>
+      <c r="K54" t="s">
         <v>261</v>
       </c>
-      <c r="I54" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K54" s="14">
-        <v>1</v>
-      </c>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="31"/>
+      <c r="M54" s="22"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B55" t="s">
         <v>185</v>
@@ -7395,30 +7436,25 @@
         <v>174</v>
       </c>
       <c r="F55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J55" t="s">
-        <v>230</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55" t="s">
-        <v>174</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="K55" t="s">
+        <v>259</v>
+      </c>
+      <c r="M55" s="22"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C56" s="26">
         <v>-1.3000000000000001E-8</v>
@@ -7430,13 +7466,13 @@
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I56" t="s">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="J56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -7450,22 +7486,22 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s">
         <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G57" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I57" t="s">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="J57" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -7479,7 +7515,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>190</v>
@@ -7492,19 +7528,24 @@
       <c r="F58" s="14"/>
       <c r="G58" s="31"/>
       <c r="I58" t="s">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="J58" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="K58">
-        <v>7</v>
-      </c>
-      <c r="M58" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B59" t="s">
         <v>173</v>
@@ -7519,22 +7560,21 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I59" t="s">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="J59" t="s">
-        <v>183</v>
-      </c>
-      <c r="K59" t="s">
-        <v>255</v>
-      </c>
-      <c r="M59" s="22"/>
+        <v>180</v>
+      </c>
+      <c r="K59">
+        <v>17</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B60" t="s">
         <v>178</v>
@@ -7549,25 +7589,24 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
+        <v>267</v>
+      </c>
+      <c r="I60" t="s">
+        <v>54</v>
+      </c>
+      <c r="J60" t="s">
+        <v>183</v>
+      </c>
+      <c r="K60" t="s">
         <v>268</v>
       </c>
-      <c r="I60" t="s">
-        <v>250</v>
-      </c>
-      <c r="J60" t="s">
-        <v>257</v>
-      </c>
-      <c r="K60" t="s">
-        <v>258</v>
-      </c>
-      <c r="M60" s="22"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C61">
         <v>100.0003961</v>
@@ -7579,25 +7618,24 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I61" t="s">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="J61" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="K61" t="s">
-        <v>260</v>
-      </c>
-      <c r="M61" s="22"/>
+        <v>257</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C62">
         <v>1000122810</v>
@@ -7609,25 +7647,24 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I62" t="s">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="J62" t="s">
         <v>188</v>
       </c>
       <c r="K62" t="s">
-        <v>262</v>
-      </c>
-      <c r="M62" s="22"/>
+        <v>272</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C63">
         <v>20.567499999999999</v>
@@ -7639,28 +7676,24 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>272</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K63" s="14">
-        <v>1</v>
-      </c>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="31"/>
+        <v>271</v>
+      </c>
+      <c r="I63" t="s">
+        <v>54</v>
+      </c>
+      <c r="J63" t="s">
+        <v>204</v>
+      </c>
+      <c r="K63" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C64">
         <v>1000.0024100000001</v>
@@ -7672,27 +7705,29 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>274</v>
-      </c>
-      <c r="I64" t="s">
-        <v>54</v>
-      </c>
-      <c r="J64" t="s">
-        <v>230</v>
-      </c>
-      <c r="K64">
+        <v>273</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="K64" s="57">
         <v>0</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="57">
         <v>0</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" s="57" t="s">
         <v>174</v>
       </c>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B65" t="s">
         <v>181</v>
@@ -7707,27 +7742,31 @@
         <v>8</v>
       </c>
       <c r="F65" t="s">
+        <v>274</v>
+      </c>
+      <c r="I65" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="I65" t="s">
-        <v>54</v>
-      </c>
-      <c r="J65" t="s">
-        <v>231</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65" t="s">
+      <c r="J65" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="K65" s="58">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L65" s="58">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M65" s="59" t="s">
         <v>174</v>
       </c>
+      <c r="N65" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="O65" s="46"/>
     </row>
     <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B66" t="s">
         <v>185</v>
@@ -7742,30 +7781,34 @@
         <v>174</v>
       </c>
       <c r="F66" t="s">
-        <v>277</v>
-      </c>
-      <c r="I66" t="s">
-        <v>54</v>
-      </c>
-      <c r="J66" t="s">
-        <v>234</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66" t="s">
+        <v>276</v>
+      </c>
+      <c r="I66" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J66" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="K66" s="58">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L66" s="58">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M66" s="59" t="s">
         <v>174</v>
       </c>
+      <c r="N66" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="O66" s="46"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C67" s="26">
         <v>-1.3000000000000001E-8</v>
@@ -7777,41 +7820,63 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>279</v>
-      </c>
-      <c r="I67" t="s">
-        <v>54</v>
-      </c>
-      <c r="J67" t="s">
-        <v>180</v>
-      </c>
-      <c r="K67">
-        <v>17</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="I67" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J67" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="K67" s="59">
+        <v>0</v>
+      </c>
+      <c r="L67" s="59">
+        <v>0</v>
+      </c>
+      <c r="M67" s="59">
+        <v>7</v>
+      </c>
+      <c r="N67" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="O67" s="46"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s">
         <v>187</v>
       </c>
       <c r="C68" t="s">
-        <v>265</v>
-      </c>
-      <c r="I68" t="s">
-        <v>54</v>
-      </c>
-      <c r="J68" t="s">
-        <v>183</v>
-      </c>
-      <c r="K68" t="s">
-        <v>269</v>
+        <v>264</v>
+      </c>
+      <c r="I68" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J68" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="K68" s="58">
+        <v>2.2210000000000001E-7</v>
+      </c>
+      <c r="L68" s="58">
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M68" s="59">
+        <v>7</v>
+      </c>
+      <c r="N68" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="O68" s="46" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>190</v>
@@ -7823,19 +7888,31 @@
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="31"/>
-      <c r="I69" t="s">
-        <v>54</v>
-      </c>
-      <c r="J69" t="s">
-        <v>257</v>
-      </c>
-      <c r="K69" t="s">
-        <v>258</v>
+      <c r="I69" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J69" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="K69" s="58">
+        <v>4.8090000000000002E-7</v>
+      </c>
+      <c r="L69" s="58">
+        <v>1.8E-7</v>
+      </c>
+      <c r="M69" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="N69" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="O69" s="46" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B70" t="s">
         <v>173</v>
@@ -7850,21 +7927,33 @@
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>284</v>
-      </c>
-      <c r="I70" t="s">
-        <v>54</v>
-      </c>
-      <c r="J70" t="s">
-        <v>205</v>
-      </c>
-      <c r="K70" t="s">
-        <v>260</v>
+        <v>283</v>
+      </c>
+      <c r="I70" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J70" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="K70" s="59">
+        <v>0</v>
+      </c>
+      <c r="L70" s="58">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M70" s="59">
+        <v>8</v>
+      </c>
+      <c r="N70" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="O70" s="46" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B71" t="s">
         <v>178</v>
@@ -7879,24 +7968,36 @@
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>286</v>
-      </c>
-      <c r="I71" t="s">
-        <v>54</v>
-      </c>
-      <c r="J71" t="s">
-        <v>188</v>
-      </c>
-      <c r="K71" t="s">
-        <v>273</v>
+        <v>285</v>
+      </c>
+      <c r="I71" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J71" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="K71" s="59">
+        <v>0</v>
+      </c>
+      <c r="L71" s="58">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M71" s="59">
+        <v>8</v>
+      </c>
+      <c r="N71" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="O71" s="46" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C72">
         <v>100.0003961</v>
@@ -7908,28 +8009,28 @@
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>288</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J72" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K72" s="14">
-        <v>1</v>
-      </c>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="31"/>
+        <v>287</v>
+      </c>
+      <c r="I72" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J72" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="K72" s="59">
+        <v>0</v>
+      </c>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C73">
         <v>1000122810</v>
@@ -7941,30 +8042,28 @@
         <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>290</v>
-      </c>
-      <c r="I73" t="s">
-        <v>276</v>
-      </c>
-      <c r="J73" t="s">
-        <v>230</v>
-      </c>
-      <c r="K73" s="22">
-        <v>0</v>
-      </c>
-      <c r="L73" s="22">
-        <v>0</v>
-      </c>
-      <c r="M73" s="22" t="s">
-        <v>174</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="I73" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J73" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="K73" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C74">
         <v>20.567499999999999</v>
@@ -7976,33 +8075,28 @@
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>291</v>
-      </c>
-      <c r="I74" t="s">
-        <v>276</v>
-      </c>
-      <c r="J74" t="s">
-        <v>231</v>
-      </c>
-      <c r="K74" s="23">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L74" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M74" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N74" t="s">
-        <v>278</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="I74" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J74" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="K74" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C75">
         <v>1000.0024100000001</v>
@@ -8014,30 +8108,25 @@
         <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I75" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J75" t="s">
-        <v>234</v>
-      </c>
-      <c r="K75" s="23">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L75" s="23">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M75" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N75" t="s">
-        <v>280</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K75" t="s">
+        <v>297</v>
+      </c>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B76" t="s">
         <v>181</v>
@@ -8052,30 +8141,25 @@
         <v>8</v>
       </c>
       <c r="F76" t="s">
+        <v>294</v>
+      </c>
+      <c r="I76" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J76" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K76" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="I76" t="s">
-        <v>276</v>
-      </c>
-      <c r="J76" t="s">
-        <v>236</v>
-      </c>
-      <c r="K76" s="22">
-        <v>0</v>
-      </c>
-      <c r="L76" s="22">
-        <v>0</v>
-      </c>
-      <c r="M76" s="22">
-        <v>7</v>
-      </c>
-      <c r="N76" t="s">
-        <v>281</v>
-      </c>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s">
         <v>185</v>
@@ -8090,36 +8174,30 @@
         <v>174</v>
       </c>
       <c r="F77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I77" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="J77" t="s">
-        <v>238</v>
-      </c>
-      <c r="K77" s="23">
-        <v>2.2210000000000001E-7</v>
-      </c>
-      <c r="L77" s="23">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M77" s="22">
-        <v>7</v>
-      </c>
-      <c r="N77" t="s">
-        <v>282</v>
-      </c>
-      <c r="O77" s="41" t="s">
-        <v>382</v>
+        <v>229</v>
+      </c>
+      <c r="K77" s="22">
+        <v>0</v>
+      </c>
+      <c r="L77" s="22">
+        <v>0</v>
+      </c>
+      <c r="M77" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C78" s="26">
         <v>-1.3000000000000001E-8</v>
@@ -8131,65 +8209,59 @@
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I78" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="J78" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K78" s="23">
-        <v>4.8090000000000002E-7</v>
+        <v>-5.6799999999999998E-5</v>
       </c>
       <c r="L78" s="23">
-        <v>1.8E-7</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="M78" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N78" t="s">
-        <v>285</v>
-      </c>
-      <c r="O78" s="48" t="s">
-        <v>382</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B79" t="s">
         <v>187</v>
       </c>
       <c r="C79" t="s">
+        <v>299</v>
+      </c>
+      <c r="I79" t="s">
         <v>300</v>
       </c>
-      <c r="I79" t="s">
-        <v>276</v>
-      </c>
       <c r="J79" t="s">
-        <v>242</v>
-      </c>
-      <c r="K79" s="22">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="K79" s="23">
+        <v>-5.63E-5</v>
       </c>
       <c r="L79" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M79" s="22">
-        <v>8</v>
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M79" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="N79" t="s">
-        <v>287</v>
-      </c>
-      <c r="O79" s="48" t="s">
-        <v>382</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>190</v>
@@ -8202,30 +8274,30 @@
       <c r="F80" s="14"/>
       <c r="G80" s="31"/>
       <c r="I80" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="J80" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="K80" s="22">
         <v>0</v>
       </c>
-      <c r="L80" s="23">
-        <v>2.0000000000000001E-9</v>
+      <c r="L80" s="22">
+        <v>0</v>
       </c>
       <c r="M80" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N80" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="O80" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B81" t="s">
         <v>173</v>
@@ -8240,21 +8312,33 @@
         <v>429.4639150882258</v>
       </c>
       <c r="F81" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I81" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="J81" t="s">
-        <v>180</v>
-      </c>
-      <c r="K81" s="22">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="K81" s="23">
+        <v>2.2210000000000001E-7</v>
+      </c>
+      <c r="L81" s="23">
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M81" s="22">
+        <v>7</v>
+      </c>
+      <c r="N81" t="s">
+        <v>281</v>
+      </c>
+      <c r="O81" s="48" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B82" t="s">
         <v>178</v>
@@ -8269,24 +8353,36 @@
         <v>16.6067317125116</v>
       </c>
       <c r="F82" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I82" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="J82" t="s">
-        <v>183</v>
-      </c>
-      <c r="K82" s="22" t="s">
-        <v>292</v>
+        <v>239</v>
+      </c>
+      <c r="K82" s="23">
+        <v>4.8090000000000002E-7</v>
+      </c>
+      <c r="L82" s="23">
+        <v>1.8E-7</v>
+      </c>
+      <c r="M82" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N82" t="s">
+        <v>284</v>
+      </c>
+      <c r="O82" s="48" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C83">
         <v>0.99997001868571433</v>
@@ -8298,24 +8394,36 @@
         <v>61.084489897408162</v>
       </c>
       <c r="F83" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I83" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="J83" t="s">
-        <v>257</v>
-      </c>
-      <c r="K83" t="s">
-        <v>294</v>
+        <v>241</v>
+      </c>
+      <c r="K83" s="22">
+        <v>0</v>
+      </c>
+      <c r="L83" s="23">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M83" s="22">
+        <v>8</v>
+      </c>
+      <c r="N83" t="s">
+        <v>286</v>
+      </c>
+      <c r="O83" s="48" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C84">
         <v>9999.8808164374568</v>
@@ -8327,24 +8435,33 @@
         <v>549.44114740265024</v>
       </c>
       <c r="F84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I84" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="J84" t="s">
-        <v>205</v>
-      </c>
-      <c r="K84" t="s">
-        <v>296</v>
+        <v>243</v>
+      </c>
+      <c r="K84" s="22">
+        <v>0</v>
+      </c>
+      <c r="L84" s="23">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M84" s="22">
+        <v>8</v>
+      </c>
+      <c r="N84" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C85">
         <v>20.48359037642069</v>
@@ -8356,24 +8473,24 @@
         <v>3.500850985483507</v>
       </c>
       <c r="F85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I85" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="J85" t="s">
-        <v>188</v>
-      </c>
-      <c r="K85" t="s">
-        <v>298</v>
+        <v>180</v>
+      </c>
+      <c r="K85" s="22">
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C86">
         <v>9.9996528297785723</v>
@@ -8385,25 +8502,21 @@
         <v>108.93931120587359</v>
       </c>
       <c r="F86" t="s">
-        <v>309</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="J86" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K86" s="14">
-        <v>1</v>
-      </c>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="31"/>
+        <v>308</v>
+      </c>
+      <c r="I86" t="s">
+        <v>300</v>
+      </c>
+      <c r="J86" t="s">
+        <v>183</v>
+      </c>
+      <c r="K86" s="22" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B87" t="s">
         <v>181</v>
@@ -8418,27 +8531,21 @@
         <v>65.933408080168974</v>
       </c>
       <c r="F87" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I87" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J87" t="s">
-        <v>230</v>
-      </c>
-      <c r="K87" s="22">
-        <v>0</v>
-      </c>
-      <c r="L87" s="22">
-        <v>0</v>
-      </c>
-      <c r="M87" s="22" t="s">
-        <v>174</v>
+        <v>256</v>
+      </c>
+      <c r="K87" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B88" t="s">
         <v>185</v>
@@ -8453,33 +8560,24 @@
         <v>174</v>
       </c>
       <c r="F88" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I88" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J88" t="s">
-        <v>231</v>
-      </c>
-      <c r="K88" s="23">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L88" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M88" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N88" t="s">
-        <v>302</v>
+        <v>188</v>
+      </c>
+      <c r="K88" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C89">
         <v>1.184149509973361E-8</v>
@@ -8491,30 +8589,25 @@
         <v>816.58679248384738</v>
       </c>
       <c r="F89" t="s">
-        <v>313</v>
-      </c>
-      <c r="I89" t="s">
-        <v>301</v>
-      </c>
-      <c r="J89" t="s">
-        <v>234</v>
-      </c>
-      <c r="K89" s="23">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L89" s="23">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M89" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N89" t="s">
-        <v>280</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="I89" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="J89" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K89" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="31"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B90" t="s">
         <v>187</v>
@@ -8523,10 +8616,10 @@
         <v>42494.906767388668</v>
       </c>
       <c r="I90" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="J90" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K90" s="22">
         <v>0</v>
@@ -8534,19 +8627,13 @@
       <c r="L90" s="22">
         <v>0</v>
       </c>
-      <c r="M90" s="22">
-        <v>7</v>
-      </c>
-      <c r="N90" t="s">
-        <v>281</v>
-      </c>
-      <c r="O90" s="48" t="s">
-        <v>382</v>
+      <c r="M90" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B91" s="28" t="s">
         <v>190</v>
@@ -8559,30 +8646,27 @@
       <c r="F91" s="28"/>
       <c r="G91" s="31"/>
       <c r="I91" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="J91" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K91" s="23">
-        <v>2.2210000000000001E-7</v>
+        <v>-5.6799999999999998E-5</v>
       </c>
       <c r="L91" s="23">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M91" s="22">
-        <v>7</v>
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M91" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="N91" t="s">
-        <v>282</v>
-      </c>
-      <c r="O91" s="48" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B92" t="s">
         <v>173</v>
@@ -8597,33 +8681,30 @@
         <v>181.66654604068069</v>
       </c>
       <c r="F92" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I92" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="J92" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K92" s="23">
-        <v>4.8090000000000002E-7</v>
+        <v>-5.63E-5</v>
       </c>
       <c r="L92" s="23">
-        <v>1.8E-7</v>
+        <v>5.9999999999999997E-7</v>
       </c>
       <c r="M92" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N92" t="s">
-        <v>285</v>
-      </c>
-      <c r="O92" s="48" t="s">
-        <v>382</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B93" t="s">
         <v>178</v>
@@ -8638,36 +8719,36 @@
         <v>22.93020485359223</v>
       </c>
       <c r="F93" t="s">
+        <v>316</v>
+      </c>
+      <c r="I93" t="s">
         <v>317</v>
       </c>
-      <c r="I93" t="s">
-        <v>301</v>
-      </c>
       <c r="J93" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K93" s="22">
         <v>0</v>
       </c>
-      <c r="L93" s="23">
-        <v>2.0000000000000001E-9</v>
+      <c r="L93" s="22">
+        <v>0</v>
       </c>
       <c r="M93" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N93" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O93" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C94">
         <v>10.00008274246875</v>
@@ -8679,33 +8760,36 @@
         <v>142.45334891978871</v>
       </c>
       <c r="F94" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I94" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="J94" t="s">
-        <v>244</v>
-      </c>
-      <c r="K94" s="22">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="K94" s="23">
+        <v>2.2210000000000001E-7</v>
       </c>
       <c r="L94" s="23">
-        <v>2.0000000000000001E-9</v>
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="M94" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N94" t="s">
-        <v>289</v>
+        <v>281</v>
+      </c>
+      <c r="O94" s="48" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C95">
         <v>10001283.08772916</v>
@@ -8717,24 +8801,36 @@
         <v>129.33446721235609</v>
       </c>
       <c r="F95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I95" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="J95" t="s">
-        <v>180</v>
-      </c>
-      <c r="K95" s="22">
-        <v>25</v>
+        <v>239</v>
+      </c>
+      <c r="K95" s="23">
+        <v>4.8090000000000002E-7</v>
+      </c>
+      <c r="L95" s="23">
+        <v>1.8E-7</v>
+      </c>
+      <c r="M95" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="N95" t="s">
+        <v>284</v>
+      </c>
+      <c r="O95" s="48" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C96">
         <v>20.89412875253262</v>
@@ -8746,24 +8842,36 @@
         <v>31.432062951924902</v>
       </c>
       <c r="F96" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I96" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="J96" t="s">
-        <v>183</v>
-      </c>
-      <c r="K96" s="22" t="s">
-        <v>312</v>
+        <v>241</v>
+      </c>
+      <c r="K96" s="22">
+        <v>0</v>
+      </c>
+      <c r="L96" s="23">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M96" s="22">
+        <v>8</v>
+      </c>
+      <c r="N96" t="s">
+        <v>286</v>
+      </c>
+      <c r="O96" s="48" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C97">
         <v>100.0007395721875</v>
@@ -8775,21 +8883,30 @@
         <v>133.21791520913669</v>
       </c>
       <c r="F97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I97" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="J97" t="s">
-        <v>257</v>
-      </c>
-      <c r="K97" t="s">
-        <v>294</v>
+        <v>243</v>
+      </c>
+      <c r="K97" s="22">
+        <v>0</v>
+      </c>
+      <c r="L97" s="23">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M97" s="22">
+        <v>8</v>
+      </c>
+      <c r="N97" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B98" t="s">
         <v>181</v>
@@ -8804,21 +8921,21 @@
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I98" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="J98" t="s">
-        <v>205</v>
-      </c>
-      <c r="K98" t="s">
-        <v>296</v>
+        <v>180</v>
+      </c>
+      <c r="K98" s="22">
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B99" t="s">
         <v>185</v>
@@ -8833,24 +8950,24 @@
         <v>174</v>
       </c>
       <c r="F99" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I99" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="J99" t="s">
-        <v>188</v>
-      </c>
-      <c r="K99" t="s">
-        <v>314</v>
+        <v>183</v>
+      </c>
+      <c r="K99" s="22" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C100">
         <v>-6.6865748800628031E-9</v>
@@ -8862,25 +8979,21 @@
         <v>1649.046981130565</v>
       </c>
       <c r="F100" t="s">
-        <v>327</v>
-      </c>
-      <c r="I100" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J100" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K100" s="14">
-        <v>1</v>
-      </c>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="14"/>
-      <c r="O100" s="31"/>
+        <v>326</v>
+      </c>
+      <c r="I100" t="s">
+        <v>317</v>
+      </c>
+      <c r="J100" t="s">
+        <v>256</v>
+      </c>
+      <c r="K100" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B101" t="s">
         <v>187</v>
@@ -8889,24 +9002,18 @@
         <v>42493.882039809992</v>
       </c>
       <c r="I101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J101" t="s">
-        <v>230</v>
-      </c>
-      <c r="K101" s="22">
-        <v>0</v>
-      </c>
-      <c r="L101" s="22">
-        <v>0</v>
-      </c>
-      <c r="M101" s="22" t="s">
-        <v>174</v>
+        <v>188</v>
+      </c>
+      <c r="K101" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B102" s="29" t="s">
         <v>190</v>
@@ -8918,28 +9025,23 @@
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
       <c r="G102" s="31"/>
-      <c r="I102" t="s">
-        <v>318</v>
-      </c>
-      <c r="J102" t="s">
-        <v>231</v>
-      </c>
-      <c r="K102" s="23">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L102" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M102" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N102" t="s">
-        <v>320</v>
-      </c>
+      <c r="I102" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="J102" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K102" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="L102" s="31"/>
+      <c r="M102" s="31"/>
+      <c r="N102" s="31"/>
+      <c r="O102" s="31"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B103" t="s">
         <v>173</v>
@@ -8954,30 +9056,27 @@
         <v>36.249303728829837</v>
       </c>
       <c r="F103" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I103" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="J103" t="s">
-        <v>234</v>
-      </c>
-      <c r="K103" s="23">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L103" s="23">
-        <v>5.9999999999999997E-7</v>
+        <v>229</v>
+      </c>
+      <c r="K103" s="22">
+        <v>0</v>
+      </c>
+      <c r="L103" s="22">
+        <v>0</v>
       </c>
       <c r="M103" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="N103" t="s">
-        <v>322</v>
-      </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B104" t="s">
         <v>178</v>
@@ -8992,36 +9091,33 @@
         <v>10.63882351464823</v>
       </c>
       <c r="F104" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I104" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="J104" t="s">
-        <v>236</v>
-      </c>
-      <c r="K104" s="22">
-        <v>0</v>
-      </c>
-      <c r="L104" s="22">
-        <v>0</v>
-      </c>
-      <c r="M104" s="22">
-        <v>7</v>
+        <v>230</v>
+      </c>
+      <c r="K104" s="23">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L104" s="23">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M104" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="N104" t="s">
-        <v>281</v>
-      </c>
-      <c r="O104" s="48" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C105">
         <v>10.000082983666671</v>
@@ -9033,36 +9129,33 @@
         <v>50.860228994958739</v>
       </c>
       <c r="F105" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I105" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="J105" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K105" s="23">
-        <v>2.2210000000000001E-7</v>
+        <v>-5.63E-5</v>
       </c>
       <c r="L105" s="23">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M105" s="22">
-        <v>7</v>
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M105" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="N105" t="s">
-        <v>282</v>
-      </c>
-      <c r="O105" s="48" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C106">
         <v>100010372.1260969</v>
@@ -9074,36 +9167,36 @@
         <v>17.105316384443711</v>
       </c>
       <c r="F106" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I106" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="J106" t="s">
-        <v>240</v>
-      </c>
-      <c r="K106" s="23">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L106" s="23">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M106" s="22" t="s">
-        <v>174</v>
+        <v>235</v>
+      </c>
+      <c r="K106" s="22">
+        <v>0</v>
+      </c>
+      <c r="L106" s="22">
+        <v>0</v>
+      </c>
+      <c r="M106" s="22">
+        <v>7</v>
       </c>
       <c r="N106" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="O106" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C107">
         <v>20.574750767940181</v>
@@ -9115,36 +9208,36 @@
         <v>15.053987399757251</v>
       </c>
       <c r="F107" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I107" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="J107" t="s">
-        <v>242</v>
-      </c>
-      <c r="K107" s="22">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="K107" s="23">
+        <v>2.2210000000000001E-7</v>
       </c>
       <c r="L107" s="23">
-        <v>2.0000000000000001E-9</v>
+        <v>8.9999999999999999E-8</v>
       </c>
       <c r="M107" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N107" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O107" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C108">
         <v>100.0007446416667</v>
@@ -9156,30 +9249,33 @@
         <v>49.194486212662937</v>
       </c>
       <c r="F108" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I108" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="J108" t="s">
-        <v>244</v>
-      </c>
-      <c r="K108" s="22">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="K108" s="23">
+        <v>4.8090000000000002E-7</v>
       </c>
       <c r="L108" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M108" s="22">
-        <v>8</v>
+        <v>1.8E-7</v>
+      </c>
+      <c r="M108" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="N108" t="s">
-        <v>289</v>
+        <v>284</v>
+      </c>
+      <c r="O108" s="48" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B109" t="s">
         <v>181</v>
@@ -9194,21 +9290,33 @@
         <v>90.750622293432627</v>
       </c>
       <c r="F109" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I109" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="J109" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="K109" s="22">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="L109" s="23">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M109" s="22">
+        <v>8</v>
+      </c>
+      <c r="N109" t="s">
+        <v>286</v>
+      </c>
+      <c r="O109" s="48" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B110" t="s">
         <v>185</v>
@@ -9223,24 +9331,33 @@
         <v>174</v>
       </c>
       <c r="F110" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I110" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="J110" t="s">
-        <v>183</v>
-      </c>
-      <c r="K110" s="22" t="s">
-        <v>328</v>
+        <v>243</v>
+      </c>
+      <c r="K110" s="22">
+        <v>0</v>
+      </c>
+      <c r="L110" s="23">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M110" s="22">
+        <v>8</v>
+      </c>
+      <c r="N110" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C111">
         <v>-1.528698782574404E-8</v>
@@ -9252,21 +9369,21 @@
         <v>85.513696646934221</v>
       </c>
       <c r="F111" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I111" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="J111" t="s">
-        <v>257</v>
-      </c>
-      <c r="K111" t="s">
-        <v>294</v>
+        <v>180</v>
+      </c>
+      <c r="K111">
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B112" t="s">
         <v>187</v>
@@ -9275,18 +9392,18 @@
         <v>42494.691730002567</v>
       </c>
       <c r="I112" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="J112" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="K112" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B113" s="31" t="s">
         <v>190</v>
@@ -9299,185 +9416,173 @@
       <c r="F113" s="31"/>
       <c r="G113" s="31"/>
       <c r="I113" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="J113" t="s">
+        <v>256</v>
+      </c>
+      <c r="K113" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>59</v>
+      </c>
+      <c r="J114" t="s">
         <v>188</v>
       </c>
-      <c r="K113" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I114" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="J114" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K114" s="14">
-        <v>1</v>
-      </c>
-      <c r="L114" s="14"/>
-      <c r="M114" s="14"/>
-      <c r="N114" s="14"/>
-      <c r="O114" s="31"/>
+      <c r="K114" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I115" t="s">
+      <c r="I115" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="J115" t="s">
-        <v>230</v>
-      </c>
-      <c r="K115" s="22">
-        <v>0</v>
-      </c>
-      <c r="L115" s="22">
-        <v>0</v>
-      </c>
-      <c r="M115" s="22" t="s">
-        <v>174</v>
-      </c>
+      <c r="J115" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K115" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="L115" s="31"/>
+      <c r="M115" s="31"/>
+      <c r="N115" s="31"/>
+      <c r="O115" s="31"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J116" t="s">
-        <v>231</v>
-      </c>
-      <c r="K116" s="23">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L116" s="23">
-        <v>1.9999999999999999E-7</v>
+        <v>229</v>
+      </c>
+      <c r="K116" s="22">
+        <v>0</v>
+      </c>
+      <c r="L116" s="22">
+        <v>0</v>
       </c>
       <c r="M116" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="N116" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J117" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K117" s="23">
-        <v>-5.63E-5</v>
+        <v>-5.6799999999999998E-5</v>
       </c>
       <c r="L117" s="23">
-        <v>5.9999999999999997E-7</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="M117" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N117" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I118" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J118" t="s">
-        <v>236</v>
-      </c>
-      <c r="K118" s="22">
-        <v>0</v>
-      </c>
-      <c r="L118" s="22">
-        <v>0</v>
-      </c>
-      <c r="M118" s="22">
-        <v>7</v>
+        <v>233</v>
+      </c>
+      <c r="K118" s="23">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L118" s="23">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M118" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="N118" t="s">
-        <v>281</v>
-      </c>
-      <c r="O118" s="48" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I119" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J119" t="s">
-        <v>238</v>
-      </c>
-      <c r="K119" s="23">
-        <v>2.2210000000000001E-7</v>
-      </c>
-      <c r="L119" s="23">
-        <v>8.9999999999999999E-8</v>
+        <v>235</v>
+      </c>
+      <c r="K119" s="22">
+        <v>0</v>
+      </c>
+      <c r="L119" s="22">
+        <v>0</v>
       </c>
       <c r="M119" s="22">
         <v>7</v>
       </c>
       <c r="N119" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O119" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I120" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J120" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K120" s="23">
-        <v>4.8090000000000002E-7</v>
+        <v>2.2210000000000001E-7</v>
       </c>
       <c r="L120" s="23">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M120" s="22" t="s">
-        <v>174</v>
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M120" s="22">
+        <v>7</v>
       </c>
       <c r="N120" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O120" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I121" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J121" t="s">
-        <v>242</v>
-      </c>
-      <c r="K121" s="22">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="K121" s="23">
+        <v>4.8090000000000002E-7</v>
       </c>
       <c r="L121" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M121" s="22">
-        <v>8</v>
+        <v>1.8E-7</v>
+      </c>
+      <c r="M121" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="N121" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O121" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I122" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J122" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K122" s="22">
         <v>0</v>
@@ -9489,560 +9594,341 @@
         <v>8</v>
       </c>
       <c r="N122" t="s">
-        <v>289</v>
+        <v>286</v>
+      </c>
+      <c r="O122" s="48" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I123" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J123" t="s">
-        <v>180</v>
-      </c>
-      <c r="K123">
-        <v>23</v>
+        <v>243</v>
+      </c>
+      <c r="K123" s="22">
+        <v>0</v>
+      </c>
+      <c r="L123" s="23">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M123" s="22">
+        <v>8</v>
+      </c>
+      <c r="N123" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I124" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J124" t="s">
-        <v>183</v>
-      </c>
-      <c r="K124" t="s">
-        <v>342</v>
+        <v>180</v>
+      </c>
+      <c r="K124">
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I125" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J125" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="K125" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I126" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J126" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="K126" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I127" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J127" t="s">
         <v>188</v>
       </c>
       <c r="K127" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I128" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J128" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K128" s="14">
-        <v>1</v>
-      </c>
-      <c r="L128" s="14"/>
-      <c r="M128" s="14"/>
-      <c r="N128" s="14"/>
+      <c r="I128" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J128" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K128" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="L128" s="31"/>
+      <c r="M128" s="31"/>
+      <c r="N128" s="31"/>
       <c r="O128" s="31"/>
     </row>
     <row r="129" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I129" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="J129" t="s">
-        <v>230</v>
-      </c>
-      <c r="K129" s="22">
-        <v>0</v>
-      </c>
-      <c r="L129" s="22">
-        <v>0</v>
-      </c>
-      <c r="M129" s="22" t="s">
-        <v>174</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129" s="22"/>
+      <c r="M129" s="22"/>
     </row>
     <row r="130" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I130" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="J130" t="s">
-        <v>231</v>
-      </c>
-      <c r="K130" s="23">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L130" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M130" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N130" t="s">
-        <v>344</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="K130" t="s">
+        <v>347</v>
+      </c>
+      <c r="L130" s="23"/>
+      <c r="M130" s="22"/>
     </row>
     <row r="131" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I131" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="J131" t="s">
-        <v>234</v>
-      </c>
-      <c r="K131" s="23">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L131" s="23">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M131" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N131" t="s">
-        <v>345</v>
+        <v>348</v>
+      </c>
+      <c r="K131" t="s">
+        <v>349</v>
+      </c>
+      <c r="L131" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="M131" s="25" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I132" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="J132" t="s">
-        <v>236</v>
-      </c>
-      <c r="K132" s="22">
-        <v>0</v>
-      </c>
-      <c r="L132" s="22">
-        <v>0</v>
-      </c>
-      <c r="M132" s="22">
-        <v>7</v>
-      </c>
-      <c r="N132" t="s">
-        <v>281</v>
-      </c>
-      <c r="O132" s="48" t="s">
-        <v>382</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="K132" t="s">
+        <v>353</v>
+      </c>
+      <c r="L132" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="M132" s="22"/>
     </row>
     <row r="133" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I133" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="J133" t="s">
-        <v>238</v>
-      </c>
-      <c r="K133" s="23">
-        <v>2.2210000000000001E-7</v>
-      </c>
-      <c r="L133" s="23">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M133" s="22">
-        <v>7</v>
-      </c>
-      <c r="N133" t="s">
-        <v>282</v>
-      </c>
-      <c r="O133" s="48" t="s">
-        <v>382</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="K133" t="s">
+        <v>356</v>
+      </c>
+      <c r="L133" s="23"/>
+      <c r="M133" s="22"/>
     </row>
     <row r="134" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I134" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="J134" t="s">
-        <v>240</v>
-      </c>
-      <c r="K134" s="23">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L134" s="23">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M134" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N134" t="s">
-        <v>285</v>
-      </c>
-      <c r="O134" s="48" t="s">
-        <v>382</v>
+        <v>357</v>
+      </c>
+      <c r="K134" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I135" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="J135" t="s">
-        <v>242</v>
-      </c>
-      <c r="K135" s="22">
-        <v>0</v>
-      </c>
-      <c r="L135" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M135" s="22">
-        <v>8</v>
-      </c>
-      <c r="N135" t="s">
-        <v>287</v>
-      </c>
-      <c r="O135" s="48" t="s">
-        <v>382</v>
+        <v>188</v>
+      </c>
+      <c r="K135" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="136" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I136" t="s">
-        <v>68</v>
-      </c>
-      <c r="J136" t="s">
-        <v>244</v>
-      </c>
-      <c r="K136" s="22">
-        <v>0</v>
-      </c>
-      <c r="L136" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M136" s="22">
-        <v>8</v>
-      </c>
-      <c r="N136" t="s">
-        <v>289</v>
-      </c>
+      <c r="I136" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J136" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K136" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="L136" s="31"/>
+      <c r="M136" s="31"/>
+      <c r="N136" s="31"/>
+      <c r="O136" s="31"/>
     </row>
     <row r="137" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I137" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="J137" t="s">
         <v>180</v>
       </c>
       <c r="K137">
-        <v>24</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L137" s="22"/>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I138" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="J138" t="s">
         <v>183</v>
       </c>
       <c r="K138" t="s">
-        <v>346</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="L138" s="23"/>
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I139" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="J139" t="s">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="K139" t="s">
-        <v>294</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="L139" s="23"/>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I140" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="J140" t="s">
-        <v>205</v>
+        <v>352</v>
       </c>
       <c r="K140" t="s">
-        <v>296</v>
+        <v>363</v>
+      </c>
+      <c r="L140" s="24" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="141" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I141" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="J141" t="s">
-        <v>188</v>
+        <v>355</v>
       </c>
       <c r="K141" t="s">
-        <v>347</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="L141" s="23"/>
     </row>
     <row r="142" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I142" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J142" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K142" s="14">
-        <v>1</v>
-      </c>
-      <c r="L142" s="14"/>
-      <c r="M142" s="14"/>
-      <c r="N142" s="14"/>
-      <c r="O142" s="31"/>
+      <c r="I142" t="s">
+        <v>29</v>
+      </c>
+      <c r="J142" t="s">
+        <v>357</v>
+      </c>
+      <c r="K142" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="143" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I143" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J143" t="s">
-        <v>180</v>
-      </c>
-      <c r="K143">
-        <v>2</v>
-      </c>
-      <c r="L143" s="22"/>
-      <c r="M143" s="22"/>
+        <v>367</v>
+      </c>
+      <c r="K143" t="s">
+        <v>368</v>
+      </c>
+      <c r="L143" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="144" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I144" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J144" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K144" t="s">
-        <v>348</v>
-      </c>
-      <c r="L144" s="23"/>
-      <c r="M144" s="22"/>
+        <v>370</v>
+      </c>
     </row>
     <row r="145" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I145" t="s">
-        <v>39</v>
-      </c>
-      <c r="J145" t="s">
-        <v>349</v>
-      </c>
-      <c r="K145" t="s">
-        <v>350</v>
-      </c>
-      <c r="L145" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="M145" s="25" t="s">
-        <v>352</v>
-      </c>
+      <c r="I145" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J145" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="K145" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L145" s="31"/>
+      <c r="M145" s="31"/>
+      <c r="N145" s="31"/>
+      <c r="O145" s="31"/>
     </row>
     <row r="146" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I146" t="s">
-        <v>39</v>
-      </c>
-      <c r="J146" t="s">
-        <v>353</v>
-      </c>
-      <c r="K146" t="s">
-        <v>354</v>
-      </c>
-      <c r="L146" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="M146" s="22"/>
+      <c r="L146" s="46"/>
+      <c r="M146" s="46"/>
+      <c r="N146" s="46"/>
+      <c r="O146" s="46"/>
     </row>
     <row r="147" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I147" t="s">
-        <v>39</v>
-      </c>
-      <c r="J147" t="s">
-        <v>356</v>
-      </c>
-      <c r="K147" t="s">
-        <v>357</v>
-      </c>
-      <c r="L147" s="23"/>
-      <c r="M147" s="22"/>
-    </row>
-    <row r="148" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I148" t="s">
-        <v>39</v>
-      </c>
-      <c r="J148" t="s">
-        <v>358</v>
-      </c>
-      <c r="K148" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="149" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I149" t="s">
-        <v>39</v>
-      </c>
-      <c r="J149" t="s">
-        <v>205</v>
-      </c>
-      <c r="K149" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="150" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I150" t="s">
-        <v>39</v>
-      </c>
-      <c r="J150" t="s">
-        <v>188</v>
-      </c>
-      <c r="K150" t="s">
-        <v>361</v>
-      </c>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
     </row>
     <row r="151" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I151" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J151" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K151" s="14">
-        <v>1</v>
-      </c>
-      <c r="L151" s="14"/>
-      <c r="M151" s="14"/>
-      <c r="N151" s="14"/>
-      <c r="O151" s="31"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
     </row>
     <row r="152" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I152" t="s">
-        <v>29</v>
-      </c>
-      <c r="J152" t="s">
-        <v>180</v>
-      </c>
-      <c r="K152">
-        <v>4</v>
-      </c>
-      <c r="L152" s="22"/>
-    </row>
-    <row r="153" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I153" t="s">
-        <v>29</v>
-      </c>
-      <c r="J153" t="s">
-        <v>183</v>
-      </c>
-      <c r="K153" t="s">
-        <v>362</v>
-      </c>
-      <c r="L153" s="23"/>
-    </row>
-    <row r="154" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I154" t="s">
-        <v>29</v>
-      </c>
-      <c r="J154" t="s">
-        <v>349</v>
-      </c>
-      <c r="K154" t="s">
-        <v>363</v>
-      </c>
-      <c r="L154" s="23"/>
-    </row>
-    <row r="155" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I155" t="s">
-        <v>29</v>
-      </c>
-      <c r="J155" t="s">
-        <v>353</v>
-      </c>
-      <c r="K155" t="s">
-        <v>364</v>
-      </c>
-      <c r="L155" s="24" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="156" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I156" t="s">
-        <v>29</v>
-      </c>
-      <c r="J156" t="s">
-        <v>356</v>
-      </c>
-      <c r="K156" t="s">
-        <v>366</v>
-      </c>
-      <c r="L156" s="23"/>
-    </row>
-    <row r="157" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I157" t="s">
-        <v>29</v>
-      </c>
-      <c r="J157" t="s">
-        <v>358</v>
-      </c>
-      <c r="K157" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="158" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I158" t="s">
-        <v>29</v>
-      </c>
-      <c r="J158" t="s">
-        <v>368</v>
-      </c>
-      <c r="K158" t="s">
-        <v>369</v>
-      </c>
-      <c r="L158" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="159" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I159" t="s">
-        <v>29</v>
-      </c>
-      <c r="J159" t="s">
-        <v>205</v>
-      </c>
-      <c r="K159" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="160" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I160" t="s">
-        <v>29</v>
-      </c>
-      <c r="J160" t="s">
-        <v>188</v>
-      </c>
-      <c r="K160" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="161" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I161" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J161" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="K161" s="14">
-        <v>1</v>
-      </c>
-      <c r="L161" s="14"/>
-      <c r="M161" s="14"/>
-      <c r="N161" s="14"/>
-      <c r="O161" s="31"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -371,117 +371,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Tim Lawson:
-From Summary sheet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A37" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Tim Lawson:
-From Summary sheet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A48" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Tim Lawson:
-From Summary sheet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A59" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Tim Lawson:
-From H100M 10M</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C98" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Tim Lawson:
-From …\OHM\ResistorHistory.xls, '10 Mohm' sheet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D98" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Tim Lawson:
-Guess</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E98" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Tim Lawson:
-Guess</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="342">
   <si>
     <t>start_row</t>
   </si>
@@ -1137,189 +1032,72 @@
     <t>Vd2</t>
   </si>
   <si>
-    <t>Ti612_R0_LV</t>
-  </si>
-  <si>
-    <t>Ti612_Tref_LV</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Ti612_Vref_LV</t>
-  </si>
-  <si>
-    <t>Ti612_R0_HV</t>
-  </si>
-  <si>
-    <t>Ti612_Tref_HV</t>
-  </si>
-  <si>
-    <t>Ti612_alpha</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>Ti612_beta</t>
-  </si>
-  <si>
-    <t>Ti612_gamma</t>
-  </si>
-  <si>
-    <t>28/04/2016 14:45:03</t>
-  </si>
-  <si>
     <t>correction_100r</t>
   </si>
   <si>
     <t>correction_10k</t>
   </si>
   <si>
-    <t>Ti611 1M</t>
-  </si>
-  <si>
-    <t>Ti611_R0_LV</t>
-  </si>
-  <si>
     <t>correction_100k</t>
   </si>
   <si>
-    <t>Ti611_Tref_LV</t>
-  </si>
-  <si>
     <t>VRC_eq</t>
   </si>
   <si>
-    <t>Ti611_Vref_LV</t>
-  </si>
-  <si>
     <t>VRC_10to1</t>
   </si>
   <si>
-    <t>Ti611_R0_HV</t>
-  </si>
-  <si>
     <t>VRC_100to10</t>
   </si>
   <si>
-    <t>Ti611_Tref_HV</t>
-  </si>
-  <si>
     <t>linearity_gain</t>
   </si>
   <si>
-    <t>Ti611_Vref_HV</t>
-  </si>
-  <si>
     <t>linearity_Vd</t>
   </si>
   <si>
-    <t>Ti611_alpha</t>
-  </si>
-  <si>
-    <t>Ti611_beta</t>
-  </si>
-  <si>
     <t>NO_ADDRESS</t>
   </si>
   <si>
     <t>NOT USED</t>
   </si>
   <si>
-    <t>29/04/2016 17:34:17</t>
-  </si>
-  <si>
     <t>DVM: HP34420A, s/n130</t>
   </si>
   <si>
-    <t>H100M 10M</t>
-  </si>
-  <si>
-    <t>H10M_R0_LV</t>
-  </si>
-  <si>
-    <t>H10M_Tref_LV</t>
-  </si>
-  <si>
-    <t>H10M_R0_HV</t>
-  </si>
-  <si>
     <t>GPIB0::7::INSTR</t>
   </si>
   <si>
-    <t>H10M_Tref_HV</t>
-  </si>
-  <si>
     <t>setfn_str</t>
   </si>
   <si>
     <t>FUNC OHMF;OCOMP ON</t>
   </si>
   <si>
-    <t>H10M_Vref_HV</t>
-  </si>
-  <si>
     <t>*IDN?</t>
   </si>
   <si>
-    <t>H10M_alpha</t>
-  </si>
-  <si>
     <t>UNUSED HP34420A, s/n130</t>
   </si>
   <si>
-    <t>H10M_beta</t>
-  </si>
-  <si>
-    <t>H10M_gamma</t>
-  </si>
-  <si>
-    <t>02/05/2016 16:37:25</t>
-  </si>
-  <si>
-    <t>H100M 1G</t>
-  </si>
-  <si>
-    <t>H1G_R0_LV</t>
-  </si>
-  <si>
-    <t>H1G_Tref_LV</t>
-  </si>
-  <si>
     <t>GPIB0::17::INSTR</t>
   </si>
   <si>
-    <t>H1G_Vref_LV</t>
-  </si>
-  <si>
-    <t>H1G_R0_HV</t>
-  </si>
-  <si>
-    <t>H1G_Tref_HV</t>
-  </si>
-  <si>
     <t>UNUSED HP34401A, s/n976</t>
   </si>
   <si>
-    <t>H1G_Vref_HV</t>
-  </si>
-  <si>
-    <t>H1G_alpha</t>
-  </si>
-  <si>
     <t>DVM: HP3458A, s/n066</t>
   </si>
   <si>
-    <t>H1G_beta</t>
-  </si>
-  <si>
     <t>3458A_066_10k_cor</t>
   </si>
   <si>
-    <t>H1G_gamma</t>
-  </si>
-  <si>
     <t>3458A_066_100k_cor</t>
   </si>
   <si>
@@ -1329,183 +1107,60 @@
     <t>VRC10to1</t>
   </si>
   <si>
-    <t>Generic 1G</t>
-  </si>
-  <si>
-    <t>gen1G_R0_LV</t>
-  </si>
-  <si>
     <t>VRC100to10</t>
   </si>
   <si>
-    <t>gen1G_Tref_LV</t>
-  </si>
-  <si>
     <t>Vlin_gain</t>
   </si>
   <si>
-    <t>gen1G_Vref_LV</t>
-  </si>
-  <si>
     <t>Vlin_Vd</t>
   </si>
   <si>
-    <t>gen1G_R0_HV</t>
-  </si>
-  <si>
-    <t>gen1G_Tref_HV</t>
-  </si>
-  <si>
     <t>GPIB0::0::INSTR</t>
   </si>
   <si>
-    <t>gen1G_Vref_HV</t>
-  </si>
-  <si>
     <t>DCV</t>
   </si>
   <si>
-    <t>gen1G_alpha</t>
-  </si>
-  <si>
     <t>ID?</t>
   </si>
   <si>
-    <t>gen1G_beta</t>
-  </si>
-  <si>
     <t>UNUSED HP3458A, s/n066</t>
   </si>
   <si>
-    <t>gen1G_gamma</t>
-  </si>
-  <si>
-    <t>28/09/2016 16:04:14</t>
-  </si>
-  <si>
     <t>DVM: HP3458A, s/n129</t>
   </si>
   <si>
     <t>3458A_129_10k_cor</t>
   </si>
   <si>
-    <t>Auto 10k</t>
-  </si>
-  <si>
-    <t>Auto10k_R0_LV</t>
-  </si>
-  <si>
-    <t>Auto10k_TRef_LV</t>
-  </si>
-  <si>
-    <t>Auto10k_VRef_LV</t>
-  </si>
-  <si>
-    <t>Auto10k_R0_HV</t>
-  </si>
-  <si>
-    <t>Auto10k_TRef_HV</t>
-  </si>
-  <si>
-    <t>Auto10k_VRef_HV</t>
-  </si>
-  <si>
-    <t>Auto10k_alpha</t>
-  </si>
-  <si>
-    <t>Auto10k_beta</t>
-  </si>
-  <si>
     <t>GPIB0::25::INSTR</t>
   </si>
   <si>
-    <t>Auto10k_gamma</t>
-  </si>
-  <si>
     <t>UNUSED HP3458A, s/n129</t>
   </si>
   <si>
-    <t>New 10M</t>
-  </si>
-  <si>
-    <t>New10M_R0_LV</t>
-  </si>
-  <si>
-    <t>New10M_TRef_LV</t>
-  </si>
-  <si>
     <t>DVM: HP3458A, s/n230</t>
   </si>
   <si>
-    <t>New10M_VRef_LV</t>
-  </si>
-  <si>
     <t>3458A_230_10k_cor</t>
   </si>
   <si>
-    <t>New10M_R0_HV</t>
-  </si>
-  <si>
     <t>3458A_230_100k_cor</t>
   </si>
   <si>
-    <t>New10M_TRef_HV</t>
-  </si>
-  <si>
-    <t>New10M_VRef_HV</t>
-  </si>
-  <si>
-    <t>New10M_alpha</t>
-  </si>
-  <si>
-    <t>New10M_beta</t>
-  </si>
-  <si>
-    <t>New10M_gamma</t>
-  </si>
-  <si>
     <t>GPIB0::22::INSTR</t>
   </si>
   <si>
-    <t>New 100M</t>
-  </si>
-  <si>
-    <t>New100M_R0_LV</t>
-  </si>
-  <si>
-    <t>New100M_TRef_LV</t>
-  </si>
-  <si>
-    <t>New100M_VRef_LV</t>
-  </si>
-  <si>
     <t>UNUSED HP3458A, s/n230</t>
   </si>
   <si>
-    <t>New100M_R0_HV</t>
-  </si>
-  <si>
-    <t>New100M_TRef_HV</t>
-  </si>
-  <si>
-    <t>New100M_VRef_HV</t>
-  </si>
-  <si>
     <t>3458A_452_10k_cor</t>
   </si>
   <si>
-    <t>New100M_alpha</t>
-  </si>
-  <si>
     <t>3458A_452_100k_cor</t>
   </si>
   <si>
-    <t>New100M_beta</t>
-  </si>
-  <si>
-    <t>New100M_gamma</t>
-  </si>
-  <si>
     <t>GPIB0::23::INSTR</t>
   </si>
   <si>
@@ -1621,9 +1276,6 @@
   </si>
   <si>
     <t>P(mbar)</t>
-  </si>
-  <si>
-    <t>From Results sheet</t>
   </si>
   <si>
     <t>(link to  RefStep data?)</t>
@@ -1848,15 +1500,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="8">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="d/mm/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.000000000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -2005,7 +1654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2028,24 +1677,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2124,7 +1755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2145,11 +1776,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2157,17 +1785,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2176,7 +1802,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2185,6 +1811,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2192,9 +1822,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2533,40 +2160,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="540" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="41" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="41" customWidth="1"/>
-    <col min="10" max="12" width="2.140625" style="41" customWidth="1"/>
-    <col min="13" max="13" width="25" style="41" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="41" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="41" customWidth="1"/>
-    <col min="16" max="16" width="25" style="41" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" style="41" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="41" customWidth="1"/>
-    <col min="23" max="27" width="9.140625" style="41" customWidth="1"/>
-    <col min="28" max="28" width="10" style="41" customWidth="1"/>
-    <col min="29" max="29" width="9" style="41" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" style="41" customWidth="1"/>
-    <col min="31" max="31" width="15" style="41" customWidth="1"/>
-    <col min="32" max="32" width="12.140625" style="41" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" style="41" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="36" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="36" customWidth="1"/>
+    <col min="10" max="12" width="2.140625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="25" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="36" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="36" customWidth="1"/>
+    <col min="16" max="16" width="25" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="36" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="36" customWidth="1"/>
+    <col min="23" max="27" width="9.140625" style="36" customWidth="1"/>
+    <col min="28" max="28" width="10" style="36" customWidth="1"/>
+    <col min="29" max="29" width="9" style="36" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" style="36" customWidth="1"/>
+    <col min="31" max="31" width="15" style="36" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" style="36" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" style="36" customWidth="1"/>
     <col min="35" max="35" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2574,18 +2201,18 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17">
-        <v>5</v>
+      <c r="B1" s="16">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
-        <v>40</v>
-      </c>
-      <c r="G2" s="30"/>
+      <c r="B2" s="16">
+        <v>47</v>
+      </c>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2606,21 +2233,21 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="M3" s="56" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="M3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56" t="s">
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
       <c r="S3" t="s">
         <v>11</v>
       </c>
@@ -2633,11 +2260,11 @@
       <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="56" t="s">
-        <v>377</v>
-      </c>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
+      <c r="W3" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
       <c r="Z3" t="s">
         <v>16</v>
       </c>
@@ -2649,13 +2276,13 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="25" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
@@ -2688,13 +2315,13 @@
       <c r="V4">
         <v>20.92</v>
       </c>
-      <c r="W4" s="49" t="s">
-        <v>378</v>
-      </c>
-      <c r="X4" s="49" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y4" s="49" t="s">
+      <c r="W4" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="X4" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y4" s="44" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2738,7 +2365,7 @@
       <c r="P5" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="17">
         <v>10.000023067000001</v>
       </c>
       <c r="R5">
@@ -2759,15 +2386,15 @@
       <c r="Z5" t="s">
         <v>27</v>
       </c>
-      <c r="AC5" s="33" t="s">
+      <c r="AC5" s="28" t="s">
         <v>28</v>
       </c>
       <c r="AD5" s="13" t="s">
         <v>29</v>
       </c>
       <c r="AE5" s="13"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="46"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="41"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -2788,7 +2415,7 @@
       <c r="F6" s="8">
         <v>90</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="25" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="11">
@@ -2830,15 +2457,15 @@
       <c r="Z6" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="35" t="s">
+      <c r="AC6" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="46" t="s">
+      <c r="AD6" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="46"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="41"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -2859,7 +2486,7 @@
       <c r="F7" s="8">
         <v>90</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="25" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="11">
@@ -2901,15 +2528,15 @@
       <c r="Z7" t="s">
         <v>27</v>
       </c>
-      <c r="AC7" s="35" t="s">
+      <c r="AC7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AD7" s="46" t="s">
+      <c r="AD7" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="46"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="41"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -2930,7 +2557,7 @@
       <c r="F8" s="8">
         <v>90</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="25" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="11">
@@ -2972,15 +2599,15 @@
       <c r="Z8" t="s">
         <v>27</v>
       </c>
-      <c r="AC8" s="35" t="s">
+      <c r="AC8" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AD8" s="46" t="s">
+      <c r="AD8" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="46"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="41"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -3001,7 +2628,7 @@
       <c r="F9" s="8">
         <v>90</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="25" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="11">
@@ -3043,15 +2670,15 @@
       <c r="Z9" t="s">
         <v>27</v>
       </c>
-      <c r="AC9" s="35" t="s">
+      <c r="AC9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="46" t="s">
+      <c r="AD9" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="46"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="41"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -3072,7 +2699,7 @@
       <c r="F10" s="8">
         <v>90</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="25" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="11">
@@ -3114,15 +2741,15 @@
       <c r="Z10" t="s">
         <v>27</v>
       </c>
-      <c r="AC10" s="35" t="s">
+      <c r="AC10" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AD10" s="46" t="s">
+      <c r="AD10" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="46"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="41"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
@@ -3143,7 +2770,7 @@
       <c r="F11" s="8">
         <v>90</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="25" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="11">
@@ -3185,15 +2812,15 @@
       <c r="Z11" t="s">
         <v>27</v>
       </c>
-      <c r="AC11" s="35" t="s">
+      <c r="AC11" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AD11" s="46" t="s">
+      <c r="AD11" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="46"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="41"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -3214,7 +2841,7 @@
       <c r="F12" s="8">
         <v>90</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="25" t="s">
         <v>60</v>
       </c>
       <c r="H12" s="11">
@@ -3256,15 +2883,15 @@
       <c r="Z12" t="s">
         <v>27</v>
       </c>
-      <c r="AC12" s="35" t="s">
+      <c r="AC12" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AD12" s="46" t="s">
+      <c r="AD12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="46"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="41"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -3285,7 +2912,7 @@
       <c r="F13" s="8">
         <v>90</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="25" t="s">
         <v>64</v>
       </c>
       <c r="H13" s="11">
@@ -3327,15 +2954,15 @@
       <c r="Z13" t="s">
         <v>27</v>
       </c>
-      <c r="AC13" s="37" t="s">
+      <c r="AC13" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="AD13" s="31" t="s">
+      <c r="AD13" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="46"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="41"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -3356,7 +2983,7 @@
       <c r="F14" s="8">
         <v>90</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="25" t="s">
         <v>69</v>
       </c>
       <c r="H14" s="11">
@@ -3418,7 +3045,7 @@
       <c r="F15" s="8">
         <v>90</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="25" t="s">
         <v>72</v>
       </c>
       <c r="H15" s="11">
@@ -3480,7 +3107,7 @@
       <c r="F16" s="8">
         <v>90</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="25" t="s">
         <v>75</v>
       </c>
       <c r="H16" s="11">
@@ -3604,7 +3231,7 @@
       <c r="F18" s="8">
         <v>90</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H18" s="11">
@@ -3728,7 +3355,7 @@
       <c r="F20" s="8">
         <v>90</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="25" t="s">
         <v>87</v>
       </c>
       <c r="H20" s="11">
@@ -3852,7 +3479,7 @@
       <c r="F22" s="8">
         <v>90</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="25" t="s">
         <v>93</v>
       </c>
       <c r="H22" s="11">
@@ -3976,7 +3603,7 @@
       <c r="F24" s="8">
         <v>90</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="25" t="s">
         <v>99</v>
       </c>
       <c r="H24" s="11">
@@ -5010,6 +4637,90 @@
       <c r="Z40" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>10</v>
+      </c>
+      <c r="B44" s="9">
+        <v>-1.00037</v>
+      </c>
+      <c r="C44" s="8">
+        <v>10</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>-10</v>
+      </c>
+      <c r="B45" s="9">
+        <v>1.00037</v>
+      </c>
+      <c r="C45" s="8">
+        <v>10</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>10</v>
+      </c>
+      <c r="B46" s="9">
+        <v>-1.00037</v>
+      </c>
+      <c r="C46" s="8">
+        <v>10</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>10</v>
+      </c>
+      <c r="B47" s="9">
+        <v>-1.0103736999999999</v>
+      </c>
+      <c r="C47" s="8">
+        <v>10</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8">
+        <v>1</v>
+      </c>
+      <c r="F47" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5036,21 +4747,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="0" style="41" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="0" style="36" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5094,10 +4805,10 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5108,8 +4819,8 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="41" t="s">
-        <v>373</v>
+      <c r="M6" s="36" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -5123,7 +4834,7 @@
       <c r="D7" t="s">
         <v>157</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="36">
         <f>(D8+D9)/(C8+C9)</f>
         <v>1E-4</v>
       </c>
@@ -5157,363 +4868,363 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="M10" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>372</v>
+      <c r="M10" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+      <c r="A11" s="38">
         <v>-2.5508205729999999E-7</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="39">
         <v>-1.3576838219999999E-6</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="38">
         <v>7.7892653279999995E-8</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="39">
         <v>-1.526541932E-6</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="38">
         <v>-9.0640896509999997E-8</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="39">
         <v>-8.5264869389999995E-7</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="38">
         <v>-4.540295426E-7</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="39">
         <v>-1.151183179E-6</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="38">
         <v>-9.3347690030000001E-7</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="39">
         <v>-2.5551494170000001E-7</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="36">
         <f>AVERAGE(A11:A20,C11:C20,E11:E20,G11:G20,I11:I20)</f>
         <v>-2.4256906195220004E-8</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="36">
         <f>AVERAGE(B11:B20,D11:D20,F11:F20,H11:H20,J11:J20)</f>
         <v>-1.0476677315519998E-6</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
+      <c r="A12" s="38">
         <v>-2.329783314E-7</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="39">
         <v>-8.8479890149999997E-7</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="38">
         <v>4.696283372E-7</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="39">
         <v>-1.143837057E-6</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="38">
         <v>2.3672395250000001E-7</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="39">
         <v>-9.0811889250000001E-7</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="38">
         <v>-4.6876899320000002E-7</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="39">
         <v>-1.0723838760000001E-6</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="38">
         <v>1.566664275E-7</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="39">
         <v>-1.1489325660000001E-6</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="36">
         <f>STDEV(A11:A20,C11:C20,E11:E20,G11:G20,I11:I20)</f>
         <v>3.9183422676544929E-7</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="36">
         <f>STDEV(B11:B20,D11:D20,F11:F20,H11:H20,J11:J20)</f>
         <v>4.3762876697781685E-7</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="A13" s="38">
         <v>3.1379362389999998E-8</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="39">
         <v>-8.8662129070000005E-7</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="38">
         <v>-3.2810925009999999E-7</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="39">
         <v>-1.0834735659999999E-6</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="38">
         <v>-2.7551609240000001E-7</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="39">
         <v>-1.88789156E-6</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="38">
         <v>6.1374208640000002E-7</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="39">
         <v>-1.517813063E-6</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="38">
         <v>3.3648688669999999E-7</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="39">
         <v>-1.2409641850000001E-6</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="36">
         <f>COUNT(A11:A20,C11:C20,E11:E20,G11:G20,I11:I20) -1</f>
         <v>49</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="36">
         <f>COUNT(B11:B20,D11:D20,F11:F20,H11:H20,J11:J20) -1</f>
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="38">
         <v>-3.4041104090000001E-7</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="39">
         <v>-4.5752566669999999E-7</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="38">
         <v>3.3334515060000001E-7</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="39">
         <v>-6.7701942210000005E-7</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="38">
         <v>-1.40149892E-7</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="39">
         <v>-1.17228996E-6</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="38">
         <v>-1.8196594780000001E-7</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="39">
         <v>-1.0005110040000001E-6</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="38">
         <v>2.7490876120000001E-7</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="39">
         <v>-5.7805519300000001E-7</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+      <c r="A15" s="38">
         <v>1.313237668E-7</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="39">
         <v>-3.1456741079999998E-7</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="38">
         <v>1.878475588E-7</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="39">
         <v>-1.1138342589999999E-6</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="38">
         <v>-4.661972748E-7</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="39">
         <v>-1.4291574219999999E-6</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="38">
         <v>3.2798565089999999E-7</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="39">
         <v>-1.095641381E-6</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="38">
         <v>-5.4078980540000003E-7</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="39">
         <v>-5.7904930630000002E-7</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+      <c r="A16" s="38">
         <v>2.6953165200000002E-7</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="39">
         <v>-1.212402181E-6</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="38">
         <v>-7.9742990500000004E-7</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="39">
         <v>-3.6480221039999999E-7</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="38">
         <v>-3.041675561E-7</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="39">
         <v>-6.067222978E-7</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="38">
         <v>3.2217802620000002E-7</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="39">
         <v>-1.266538701E-6</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="38">
         <v>4.6932641659999997E-7</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="39">
         <v>-7.616225854E-7</v>
       </c>
-      <c r="M16" s="41" t="s">
-        <v>374</v>
+      <c r="M16" s="36" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+      <c r="A17" s="38">
         <v>-1.575971561E-8</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="39">
         <v>-2.8322875899999997E-7</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="38">
         <v>-2.1855651280000001E-7</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="39">
         <v>-1.663007495E-6</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="38">
         <v>6.0650423680000001E-7</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="39">
         <v>-1.070228262E-6</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="38">
         <v>1.988355448E-7</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="39">
         <v>-6.1669783589999997E-7</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="38">
         <v>-7.8462624280000005E-7</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="39">
         <v>-1.3152882480000001E-6</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="17">
         <f>(M11-N11)/(2*M7)</f>
         <v>5.1170541267838987E-3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+      <c r="A18" s="38">
         <v>-1.2308889670000001E-7</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="39">
         <v>-1.2378918320000001E-6</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="38">
         <v>6.4553057010000001E-7</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="39">
         <v>-2.3575592369999999E-6</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="38">
         <v>6.7141076369999996E-8</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="39">
         <v>-8.0649555399999999E-7</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="38">
         <v>-4.3256538039999999E-8</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="39">
         <v>-1.2472023610000001E-6</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="38">
         <v>2.6299945499999999E-7</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="39">
         <v>-1.659228216E-6</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="17">
         <f>SQRT((M12/(2*M7))^2 + (N12/(2*M7))^2)</f>
         <v>2.9370606009725174E-3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
+      <c r="A19" s="38">
         <v>-2.046850027E-8</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="39">
         <v>-1.2238996020000001E-6</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="38">
         <v>-1.16227168E-8</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="39">
         <v>-1.6838573339999999E-6</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="38">
         <v>-2.5092242050000002E-7</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="39">
         <v>-1.207616034E-6</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="38">
         <v>-3.2334846029999998E-7</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="39">
         <v>-5.592732282E-7</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="38">
         <v>8.5401725989999993E-9</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="39">
         <v>-1.097368512E-6</v>
       </c>
       <c r="M19" s="12">
@@ -5522,47 +5233,47 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
+      <c r="A20" s="38">
         <v>5.0665702130000002E-7</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="39">
         <v>-9.1759749160000004E-7</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="38">
         <v>7.488898111E-7</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="39">
         <v>-1.2980028909999999E-6</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="38">
         <v>-3.6859517370000001E-7</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="39">
         <v>-1.086330224E-6</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="38">
         <v>1.6638612129999999E-8</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="39">
         <v>-1.2377025979999999E-6</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="38">
         <v>-5.4358983570000004E-7</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="39">
         <v>-2.6676433610000002E-7</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
     </row>
     <row r="180" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O180" t="s">
@@ -5618,27 +5329,27 @@
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="540" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2"/>
-      <selection pane="bottomLeft" activeCell="K153" sqref="K153"/>
+      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="41" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="41" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="74" style="41" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="36" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="74" style="36" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -5648,8 +5359,8 @@
       <c r="I1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="Q1" s="52" t="s">
-        <v>396</v>
+      <c r="Q1" s="47" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -5671,8 +5382,8 @@
       <c r="F2" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="47" t="s">
-        <v>375</v>
+      <c r="G2" s="42" t="s">
+        <v>295</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>166</v>
@@ -5692,11 +5403,11 @@
       <c r="N2" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="O2" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q2" s="51" t="s">
-        <v>397</v>
+      <c r="O2" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -5718,23 +5429,23 @@
       <c r="F3" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>387</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="O3" s="50" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q3" s="51" t="s">
-        <v>398</v>
+      <c r="G3" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="O3" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -5756,20 +5467,20 @@
       <c r="F4" t="s">
         <v>179</v>
       </c>
-      <c r="I4" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>391</v>
-      </c>
-      <c r="N4" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="O4" s="50" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q4" s="51" t="s">
-        <v>403</v>
+      <c r="I4" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -5779,7 +5490,7 @@
       <c r="B5" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="23">
         <v>3.9091200000000003E-3</v>
       </c>
       <c r="D5">
@@ -5791,20 +5502,20 @@
       <c r="F5" t="s">
         <v>182</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>395</v>
-      </c>
-      <c r="O5" s="50" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q5" s="51" t="s">
-        <v>399</v>
+      <c r="I5" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -5814,7 +5525,7 @@
       <c r="B6" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="23">
         <v>-5.9260000000000005E-7</v>
       </c>
       <c r="D6">
@@ -5826,20 +5537,20 @@
       <c r="F6" t="s">
         <v>186</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="J6" s="50" t="s">
+      <c r="I6" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="J6" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="36">
         <v>3</v>
       </c>
-      <c r="O6" s="50" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q6" s="51" t="s">
-        <v>400</v>
+      <c r="O6" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q6" s="46" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -5849,23 +5560,23 @@
       <c r="B7" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <v>1</v>
       </c>
-      <c r="I7" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="J7" s="50" t="s">
+      <c r="I7" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="J7" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="K7" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="O7" s="50" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q7" s="51" t="s">
-        <v>401</v>
+      <c r="K7" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q7" s="46" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -5881,18 +5592,18 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="31"/>
-      <c r="I8" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="J8" s="50" t="s">
+      <c r="G8" s="26"/>
+      <c r="I8" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="J8" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="K8" s="41" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q8" s="51" t="s">
-        <v>402</v>
+      <c r="K8" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q8" s="46" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -5902,7 +5613,7 @@
       <c r="B9" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="23">
         <v>10000.200000000001</v>
       </c>
       <c r="D9">
@@ -5914,21 +5625,21 @@
       <c r="F9" t="s">
         <v>192</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="J9" s="31" t="s">
+      <c r="I9" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="J9" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
+      <c r="K9" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
       <c r="Q9" t="s">
-        <v>408</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -5938,7 +5649,7 @@
       <c r="B10" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="23">
         <v>23</v>
       </c>
       <c r="D10">
@@ -5951,15 +5662,15 @@
         <v>194</v>
       </c>
       <c r="I10" t="s">
-        <v>383</v>
+        <v>302</v>
       </c>
       <c r="J10" t="s">
         <v>176</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="23">
         <v>-1E-3</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="23">
         <v>4.4999999999999999E-4</v>
       </c>
       <c r="M10" t="s">
@@ -5968,11 +5679,11 @@
       <c r="N10" t="s">
         <v>177</v>
       </c>
-      <c r="O10" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="R10" s="52" t="s">
-        <v>409</v>
+      <c r="O10" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="R10" s="47" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -5982,7 +5693,7 @@
       <c r="B11" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="23">
         <v>1E-3</v>
       </c>
       <c r="D11">
@@ -5994,8 +5705,8 @@
       <c r="F11" t="s">
         <v>195</v>
       </c>
-      <c r="I11" s="50" t="s">
-        <v>383</v>
+      <c r="I11" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="J11" t="s">
         <v>180</v>
@@ -6003,14 +5714,14 @@
       <c r="K11">
         <v>5</v>
       </c>
-      <c r="O11" s="50" t="s">
-        <v>388</v>
+      <c r="O11" s="45" t="s">
+        <v>307</v>
       </c>
       <c r="R11" t="s">
-        <v>405</v>
-      </c>
-      <c r="S11" s="52" t="s">
-        <v>406</v>
+        <v>324</v>
+      </c>
+      <c r="S11" s="47" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -6020,7 +5731,7 @@
       <c r="B12" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="23">
         <v>0</v>
       </c>
       <c r="D12">
@@ -6032,8 +5743,8 @@
       <c r="F12" t="s">
         <v>197</v>
       </c>
-      <c r="I12" s="50" t="s">
-        <v>383</v>
+      <c r="I12" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="J12" t="s">
         <v>183</v>
@@ -6041,14 +5752,14 @@
       <c r="K12" t="s">
         <v>184</v>
       </c>
-      <c r="O12" s="50" t="s">
-        <v>388</v>
+      <c r="O12" s="45" t="s">
+        <v>307</v>
       </c>
       <c r="S12" t="s">
-        <v>407</v>
-      </c>
-      <c r="T12" s="52" t="s">
-        <v>410</v>
+        <v>326</v>
+      </c>
+      <c r="T12" s="47" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -6058,11 +5769,11 @@
       <c r="B13" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="24">
         <v>1</v>
       </c>
-      <c r="I13" s="50" t="s">
-        <v>383</v>
+      <c r="I13" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="J13" t="s">
         <v>188</v>
@@ -6071,10 +5782,10 @@
         <v>189</v>
       </c>
       <c r="T13" t="s">
-        <v>415</v>
-      </c>
-      <c r="U13" s="52" t="s">
-        <v>416</v>
+        <v>334</v>
+      </c>
+      <c r="U13" s="47" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -6090,24 +5801,24 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="31"/>
-      <c r="I14" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="J14" s="31" t="s">
+      <c r="G14" s="26"/>
+      <c r="I14" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="J14" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="K14" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="T14" s="52" t="s">
-        <v>411</v>
+      <c r="K14" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T14" s="47" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -6130,15 +5841,15 @@
         <v>199</v>
       </c>
       <c r="I15" t="s">
-        <v>384</v>
+        <v>303</v>
       </c>
       <c r="J15" t="s">
         <v>176</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="23">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="23">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="M15" t="s">
@@ -6147,13 +5858,13 @@
       <c r="N15" t="s">
         <v>193</v>
       </c>
-      <c r="O15" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="S15" s="52" t="s">
-        <v>413</v>
-      </c>
-      <c r="T15" s="52"/>
+      <c r="O15" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="S15" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T15" s="47"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -6174,8 +5885,8 @@
       <c r="F16" t="s">
         <v>200</v>
       </c>
-      <c r="I16" s="50" t="s">
-        <v>384</v>
+      <c r="I16" s="45" t="s">
+        <v>303</v>
       </c>
       <c r="J16" t="s">
         <v>180</v>
@@ -6183,13 +5894,13 @@
       <c r="K16">
         <v>6</v>
       </c>
-      <c r="O16" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="S16" s="52" t="s">
-        <v>412</v>
-      </c>
-      <c r="T16" s="52"/>
+      <c r="O16" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="S16" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="T16" s="47"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -6198,7 +5909,7 @@
       <c r="B17" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="23">
         <v>5</v>
       </c>
       <c r="D17">
@@ -6210,8 +5921,8 @@
       <c r="F17" t="s">
         <v>203</v>
       </c>
-      <c r="I17" s="50" t="s">
-        <v>384</v>
+      <c r="I17" s="45" t="s">
+        <v>303</v>
       </c>
       <c r="J17" t="s">
         <v>183</v>
@@ -6219,13 +5930,13 @@
       <c r="K17" t="s">
         <v>196</v>
       </c>
-      <c r="O17" s="50" t="s">
-        <v>388</v>
-      </c>
-      <c r="S17" s="52" t="s">
-        <v>414</v>
-      </c>
-      <c r="T17" s="52"/>
+      <c r="O17" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="S17" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="T17" s="47"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -6246,8 +5957,8 @@
       <c r="F18" t="s">
         <v>207</v>
       </c>
-      <c r="I18" s="50" t="s">
-        <v>384</v>
+      <c r="I18" s="45" t="s">
+        <v>303</v>
       </c>
       <c r="J18" t="s">
         <v>188</v>
@@ -6255,11 +5966,11 @@
       <c r="K18" t="s">
         <v>198</v>
       </c>
-      <c r="S18" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="T18" s="51" t="s">
-        <v>420</v>
+      <c r="S18" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="T18" s="46" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -6281,23 +5992,23 @@
       <c r="F19" t="s">
         <v>209</v>
       </c>
-      <c r="I19" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="J19" s="31" t="s">
+      <c r="I19" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="K19" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="T19" s="51" t="s">
-        <v>421</v>
+      <c r="K19" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="T19" s="46" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -6328,8 +6039,8 @@
       <c r="K20">
         <v>2</v>
       </c>
-      <c r="S20" s="52" t="s">
-        <v>417</v>
+      <c r="S20" s="47" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -6339,10 +6050,10 @@
       <c r="B21" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="23">
         <v>3.4200000000000002E-7</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="23">
         <v>1.9000000000000001E-8</v>
       </c>
       <c r="E21">
@@ -6360,11 +6071,11 @@
       <c r="K21" t="s">
         <v>201</v>
       </c>
-      <c r="S21" s="53" t="s">
-        <v>407</v>
+      <c r="S21" s="48" t="s">
+        <v>326</v>
       </c>
       <c r="T21" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -6374,10 +6085,10 @@
       <c r="B22" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="23">
         <v>-2.7E-8</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="23">
         <v>5.0000000000000001E-9</v>
       </c>
       <c r="E22">
@@ -6389,14 +6100,14 @@
       <c r="I22" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="46" t="s">
+      <c r="J22" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="K22" s="46" t="s">
+      <c r="K22" s="41" t="s">
         <v>63</v>
       </c>
       <c r="T22" t="s">
-        <v>419</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -6418,24 +6129,24 @@
       <c r="F23" t="s">
         <v>216</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
       <c r="T23" t="s">
-        <v>407</v>
+        <v>326</v>
       </c>
       <c r="U23" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -6445,7 +6156,7 @@
       <c r="B24" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="24">
         <v>42522</v>
       </c>
       <c r="I24" t="s">
@@ -6471,7 +6182,7 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="31"/>
+      <c r="G25" s="26"/>
       <c r="I25" t="s">
         <v>9</v>
       </c>
@@ -6483,24 +6194,13 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="19">
-        <v>100003.194</v>
-      </c>
-      <c r="D26">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E26">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>218</v>
-      </c>
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
       <c r="I26" t="s">
         <v>9</v>
       </c>
@@ -6512,24 +6212,13 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="10">
-        <v>20.621099999999998</v>
-      </c>
-      <c r="D27">
-        <v>1.8E-3</v>
-      </c>
-      <c r="E27">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>219</v>
-      </c>
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
       <c r="I27" t="s">
         <v>9</v>
       </c>
@@ -6541,24 +6230,13 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="16">
-        <v>5.0000031649999999</v>
-      </c>
-      <c r="D28" s="26">
-        <v>7.6000000000000006E-8</v>
-      </c>
-      <c r="E28">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>221</v>
-      </c>
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
       <c r="I28" s="13" t="s">
         <v>217</v>
       </c>
@@ -6574,123 +6252,79 @@
       <c r="O28" s="13"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" s="18">
-        <v>100003.41</v>
-      </c>
-      <c r="D29">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>222</v>
-      </c>
-      <c r="I29" s="46" t="s">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="I29" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="J29" s="46" t="s">
+      <c r="J29" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="K29" s="46" t="s">
+      <c r="K29" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C30">
-        <v>20.6313</v>
-      </c>
-      <c r="D30">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
-        <v>223</v>
-      </c>
-      <c r="I30" s="46" t="s">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="I30" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="J30" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="K30" s="46" t="s">
+      <c r="K30" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" s="20">
-        <v>10.0000365</v>
-      </c>
-      <c r="D31" s="26">
-        <v>1.6E-7</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>223</v>
-      </c>
-      <c r="I31" s="46" t="s">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="I31" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="J31" s="46" t="s">
+      <c r="J31" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="K31" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
+      <c r="K31" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="26">
-        <v>3.4200000000000002E-7</v>
-      </c>
-      <c r="D32" s="26">
-        <v>1.9000000000000001E-8</v>
-      </c>
-      <c r="E32">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>224</v>
-      </c>
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
       <c r="I32" t="s">
         <v>8</v>
       </c>
@@ -6702,114 +6336,84 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" t="s">
-        <v>226</v>
-      </c>
-      <c r="I33" s="46" t="s">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="I33" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="46" t="s">
+      <c r="J33" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="K33" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" s="26">
-        <v>5.7900000000000002E-8</v>
-      </c>
-      <c r="D34" s="26">
-        <v>1.22E-8</v>
-      </c>
-      <c r="E34">
-        <v>28.6</v>
-      </c>
-      <c r="F34" t="s">
-        <v>227</v>
-      </c>
-      <c r="I34" s="46" t="s">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="I34" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="46" t="s">
+      <c r="J34" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="K34" s="46" t="s">
+      <c r="K34" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="I35" s="31" t="s">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="I35" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="K35" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
+      <c r="K35" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="31"/>
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
       <c r="I36" t="s">
         <v>34</v>
       </c>
       <c r="J36" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -6822,29 +6426,18 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>231</v>
-      </c>
-      <c r="B37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37">
-        <v>1000066.26</v>
-      </c>
-      <c r="D37">
-        <v>0.2</v>
-      </c>
-      <c r="E37">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>232</v>
-      </c>
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
       <c r="I37" t="s">
         <v>34</v>
       </c>
       <c r="J37" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -6859,29 +6452,18 @@
       <c r="O37"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>231</v>
-      </c>
-      <c r="B38" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38">
-        <v>20.623999999999999</v>
-      </c>
-      <c r="D38">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E38">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>234</v>
-      </c>
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
       <c r="I38" t="s">
         <v>34</v>
       </c>
       <c r="J38" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -6896,29 +6478,18 @@
       <c r="O38"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>231</v>
-      </c>
-      <c r="B39" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39">
-        <v>5.0000212399999997</v>
-      </c>
-      <c r="D39" s="26">
-        <v>5.5000000000000003E-8</v>
-      </c>
-      <c r="E39">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>236</v>
-      </c>
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
       <c r="I39" t="s">
         <v>34</v>
       </c>
       <c r="J39" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -6931,29 +6502,18 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>231</v>
-      </c>
-      <c r="B40" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" s="10">
-        <v>1000064.65</v>
-      </c>
-      <c r="D40">
-        <v>0.23</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40" t="s">
-        <v>238</v>
-      </c>
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
       <c r="I40" t="s">
         <v>34</v>
       </c>
       <c r="J40" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -6966,29 +6526,18 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>231</v>
-      </c>
-      <c r="B41" t="s">
-        <v>208</v>
-      </c>
-      <c r="C41">
-        <v>20.542999999999999</v>
-      </c>
-      <c r="D41">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-      <c r="F41" t="s">
-        <v>240</v>
-      </c>
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
       <c r="I41" t="s">
         <v>34</v>
       </c>
       <c r="J41" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -7001,29 +6550,18 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>231</v>
-      </c>
-      <c r="B42" t="s">
-        <v>210</v>
-      </c>
-      <c r="C42">
-        <v>10.00007862</v>
-      </c>
-      <c r="D42" s="26">
-        <v>1.1999999999999999E-7</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>242</v>
-      </c>
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
       <c r="I42" t="s">
         <v>34</v>
       </c>
       <c r="J42" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -7038,29 +6576,18 @@
       <c r="O42"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>231</v>
-      </c>
-      <c r="B43" t="s">
-        <v>181</v>
-      </c>
-      <c r="C43">
-        <v>5.558E-6</v>
-      </c>
-      <c r="D43" s="26">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="E43">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>244</v>
-      </c>
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
       <c r="I43" t="s">
         <v>34</v>
       </c>
       <c r="J43" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -7073,24 +6600,13 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>231</v>
-      </c>
-      <c r="B44" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44">
-        <v>-3.3780000000000002E-7</v>
-      </c>
-      <c r="D44" s="26">
-        <v>1E-8</v>
-      </c>
-      <c r="E44">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>245</v>
-      </c>
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
       <c r="I44" t="s">
         <v>34</v>
       </c>
@@ -7102,24 +6618,13 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>231</v>
-      </c>
-      <c r="B45" t="s">
-        <v>215</v>
-      </c>
-      <c r="C45">
-        <v>1.7E-8</v>
-      </c>
-      <c r="D45" s="26">
-        <v>1.7E-8</v>
-      </c>
-      <c r="E45">
-        <v>15</v>
-      </c>
-      <c r="F45" t="s">
-        <v>216</v>
-      </c>
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
       <c r="I45" t="s">
         <v>34</v>
       </c>
@@ -7127,19 +6632,17 @@
         <v>183</v>
       </c>
       <c r="K45" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>231</v>
-      </c>
-      <c r="B46" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" t="s">
-        <v>248</v>
-      </c>
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
       <c r="I46" t="s">
         <v>34</v>
       </c>
@@ -7147,62 +6650,42 @@
         <v>188</v>
       </c>
       <c r="K46" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C47" s="14" t="s">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="I47" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="31"/>
-      <c r="I47" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="J47" s="31" t="s">
+      <c r="J47" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B48" t="s">
-        <v>173</v>
-      </c>
-      <c r="C48">
-        <v>10001261</v>
-      </c>
-      <c r="D48">
-        <v>6.7</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>251</v>
-      </c>
-      <c r="G48" s="45" t="s">
-        <v>380</v>
-      </c>
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
       <c r="I48" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="J48" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -7215,32 +6698,18 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>250</v>
-      </c>
-      <c r="B49" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49">
-        <v>20.420000000000002</v>
-      </c>
-      <c r="D49">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>252</v>
-      </c>
-      <c r="G49" s="48" t="s">
-        <v>380</v>
-      </c>
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
       <c r="I49" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="J49" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -7253,32 +6722,18 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>250</v>
-      </c>
-      <c r="B50" t="s">
-        <v>202</v>
-      </c>
-      <c r="C50">
-        <v>10.00008002</v>
-      </c>
-      <c r="D50" s="26">
-        <v>1.4999999999999999E-7</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s">
-        <v>253</v>
-      </c>
-      <c r="G50" s="48" t="s">
-        <v>380</v>
-      </c>
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
       <c r="I50" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="J50" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -7291,29 +6746,15 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>250</v>
-      </c>
-      <c r="B51" t="s">
-        <v>206</v>
-      </c>
-      <c r="C51">
-        <v>10001252</v>
-      </c>
-      <c r="D51">
-        <v>5.8</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>253</v>
-      </c>
-      <c r="G51" s="48" t="s">
-        <v>380</v>
-      </c>
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
       <c r="I51" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="J51" t="s">
         <v>180</v>
@@ -7321,158 +6762,97 @@
       <c r="K51">
         <v>7</v>
       </c>
-      <c r="M51" s="22"/>
+      <c r="M51" s="19"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>250</v>
-      </c>
-      <c r="B52" t="s">
-        <v>208</v>
-      </c>
-      <c r="C52">
-        <v>20.422000000000001</v>
-      </c>
-      <c r="D52">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52" t="s">
-        <v>255</v>
-      </c>
-      <c r="G52" s="48" t="s">
-        <v>380</v>
-      </c>
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
       <c r="I52" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="J52" t="s">
         <v>183</v>
       </c>
       <c r="K52" t="s">
-        <v>254</v>
-      </c>
-      <c r="M52" s="22"/>
+        <v>231</v>
+      </c>
+      <c r="M52" s="19"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>250</v>
-      </c>
-      <c r="B53" t="s">
-        <v>210</v>
-      </c>
-      <c r="C53">
-        <v>100.0007269</v>
-      </c>
-      <c r="D53" s="26">
-        <v>1.5E-6</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53" t="s">
-        <v>258</v>
-      </c>
-      <c r="G53" s="48" t="s">
-        <v>380</v>
-      </c>
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
       <c r="I53" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="J53" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="K53" t="s">
-        <v>257</v>
-      </c>
-      <c r="M53" s="22"/>
+        <v>233</v>
+      </c>
+      <c r="M53" s="19"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>250</v>
-      </c>
-      <c r="B54" t="s">
-        <v>181</v>
-      </c>
-      <c r="C54" s="26">
-        <v>6.8000000000000001E-6</v>
-      </c>
-      <c r="D54" s="26">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="E54">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
-        <v>260</v>
-      </c>
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
       <c r="I54" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="J54" t="s">
         <v>188</v>
       </c>
       <c r="K54" t="s">
-        <v>261</v>
-      </c>
-      <c r="M54" s="22"/>
+        <v>235</v>
+      </c>
+      <c r="M54" s="19"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>250</v>
-      </c>
-      <c r="B55" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>174</v>
-      </c>
-      <c r="F55" t="s">
-        <v>262</v>
-      </c>
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
       <c r="I55" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="J55" t="s">
         <v>204</v>
       </c>
       <c r="K55" t="s">
-        <v>259</v>
-      </c>
-      <c r="M55" s="22"/>
+        <v>234</v>
+      </c>
+      <c r="M55" s="19"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>250</v>
-      </c>
-      <c r="B56" t="s">
-        <v>215</v>
-      </c>
-      <c r="C56" s="26">
-        <v>-1.3000000000000001E-8</v>
-      </c>
-      <c r="D56" s="26">
-        <v>1.3000000000000001E-9</v>
-      </c>
-      <c r="E56">
-        <v>17</v>
-      </c>
-      <c r="F56" t="s">
-        <v>263</v>
-      </c>
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
       <c r="I56" t="s">
         <v>54</v>
       </c>
       <c r="J56" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -7485,23 +6865,18 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>250</v>
-      </c>
-      <c r="B57" t="s">
-        <v>187</v>
-      </c>
-      <c r="C57" t="s">
-        <v>264</v>
-      </c>
-      <c r="G57" s="48" t="s">
-        <v>380</v>
-      </c>
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
       <c r="I57" t="s">
         <v>54</v>
       </c>
       <c r="J57" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -7514,24 +6889,18 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="31"/>
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
       <c r="I58" t="s">
         <v>54</v>
       </c>
       <c r="J58" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -7544,24 +6913,13 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="B59" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59">
-        <v>1000123940</v>
-      </c>
-      <c r="D59">
-        <v>500</v>
-      </c>
-      <c r="E59">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>266</v>
-      </c>
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
       <c r="I59" t="s">
         <v>54</v>
       </c>
@@ -7573,24 +6931,13 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>265</v>
-      </c>
-      <c r="B60" t="s">
-        <v>178</v>
-      </c>
-      <c r="C60">
-        <v>20.558199999999999</v>
-      </c>
-      <c r="D60">
-        <v>1.9E-3</v>
-      </c>
-      <c r="E60">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
-        <v>267</v>
-      </c>
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
       <c r="I60" t="s">
         <v>54</v>
       </c>
@@ -7598,57 +6945,35 @@
         <v>183</v>
       </c>
       <c r="K60" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>265</v>
-      </c>
-      <c r="B61" t="s">
-        <v>202</v>
-      </c>
-      <c r="C61">
-        <v>100.0003961</v>
-      </c>
-      <c r="D61" s="26">
-        <v>8.8000000000000004E-7</v>
-      </c>
-      <c r="E61">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>269</v>
-      </c>
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
       <c r="I61" t="s">
         <v>54</v>
       </c>
       <c r="J61" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="K61" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>265</v>
-      </c>
-      <c r="B62" t="s">
-        <v>206</v>
-      </c>
-      <c r="C62">
-        <v>1000122810</v>
-      </c>
-      <c r="D62">
-        <v>290</v>
-      </c>
-      <c r="E62">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>270</v>
-      </c>
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
       <c r="I62" t="s">
         <v>54</v>
       </c>
@@ -7656,28 +6981,17 @@
         <v>188</v>
       </c>
       <c r="K62" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>265</v>
-      </c>
-      <c r="B63" t="s">
-        <v>208</v>
-      </c>
-      <c r="C63">
-        <v>20.567499999999999</v>
-      </c>
-      <c r="D63">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="E63">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>271</v>
-      </c>
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
       <c r="I63" t="s">
         <v>54</v>
       </c>
@@ -7685,1692 +6999,1220 @@
         <v>204</v>
       </c>
       <c r="K63" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>265</v>
-      </c>
-      <c r="B64" t="s">
-        <v>210</v>
-      </c>
-      <c r="C64">
-        <v>1000.0024100000001</v>
-      </c>
-      <c r="D64" s="26">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="E64">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>273</v>
-      </c>
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
       <c r="I64" s="13" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="K64" s="57">
+        <v>220</v>
+      </c>
+      <c r="K64" s="50">
         <v>0</v>
       </c>
-      <c r="L64" s="57">
+      <c r="L64" s="50">
         <v>0</v>
       </c>
-      <c r="M64" s="57" t="s">
+      <c r="M64" s="50" t="s">
         <v>174</v>
       </c>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>265</v>
-      </c>
-      <c r="B65" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="26">
-        <v>6.8000000000000001E-6</v>
-      </c>
-      <c r="D65" s="26">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="E65">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="I65" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J65" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="K65" s="51">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L65" s="51">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M65" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="N65" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="O65" s="41"/>
+    </row>
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="I66" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J66" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="K66" s="51">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L66" s="51">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M66" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="N66" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="O66" s="41"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="I67" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J67" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="K67" s="52">
+        <v>0</v>
+      </c>
+      <c r="L67" s="52">
+        <v>0</v>
+      </c>
+      <c r="M67" s="52">
+        <v>7</v>
+      </c>
+      <c r="N67" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="O67" s="41"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="I68" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J68" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="K68" s="51">
+        <v>2.2210000000000001E-7</v>
+      </c>
+      <c r="L68" s="51">
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M68" s="52">
+        <v>7</v>
+      </c>
+      <c r="N68" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="O68" s="41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="I69" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J69" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="K69" s="51">
+        <v>4.8090000000000002E-7</v>
+      </c>
+      <c r="L69" s="51">
+        <v>1.8E-7</v>
+      </c>
+      <c r="M69" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="N69" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="O69" s="41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="I70" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J70" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="K70" s="52">
+        <v>0</v>
+      </c>
+      <c r="L70" s="51">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M70" s="52">
         <v>8</v>
       </c>
-      <c r="F65" t="s">
-        <v>274</v>
-      </c>
-      <c r="I65" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="J65" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="K65" s="58">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L65" s="58">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M65" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="N65" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="O65" s="46"/>
-    </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>265</v>
-      </c>
-      <c r="B66" t="s">
-        <v>185</v>
-      </c>
-      <c r="C66">
+      <c r="N70" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="O70" s="41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="I71" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J71" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="K71" s="52">
         <v>0</v>
       </c>
-      <c r="D66">
+      <c r="L71" s="51">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M71" s="52">
+        <v>8</v>
+      </c>
+      <c r="N71" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="O71" s="41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="I72" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J72" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="K72" s="52">
         <v>0</v>
       </c>
-      <c r="E66" t="s">
-        <v>174</v>
-      </c>
-      <c r="F66" t="s">
-        <v>276</v>
-      </c>
-      <c r="I66" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="J66" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="K66" s="58">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L66" s="58">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M66" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="N66" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="O66" s="46"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>265</v>
-      </c>
-      <c r="B67" t="s">
-        <v>215</v>
-      </c>
-      <c r="C67" s="26">
-        <v>-1.3000000000000001E-8</v>
-      </c>
-      <c r="D67" s="26">
-        <v>1.3000000000000001E-9</v>
-      </c>
-      <c r="E67">
-        <v>17</v>
-      </c>
-      <c r="F67" t="s">
-        <v>278</v>
-      </c>
-      <c r="I67" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="J67" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="K67" s="59">
-        <v>0</v>
-      </c>
-      <c r="L67" s="59">
-        <v>0</v>
-      </c>
-      <c r="M67" s="59">
-        <v>7</v>
-      </c>
-      <c r="N67" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="O67" s="46"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>265</v>
-      </c>
-      <c r="B68" t="s">
-        <v>187</v>
-      </c>
-      <c r="C68" t="s">
-        <v>264</v>
-      </c>
-      <c r="I68" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="J68" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="K68" s="58">
-        <v>2.2210000000000001E-7</v>
-      </c>
-      <c r="L68" s="58">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M68" s="59">
-        <v>7</v>
-      </c>
-      <c r="N68" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="O68" s="46" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="31"/>
-      <c r="I69" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="J69" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="K69" s="58">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L69" s="58">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M69" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="N69" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="O69" s="46" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B70" t="s">
-        <v>173</v>
-      </c>
-      <c r="C70">
-        <v>1000123940</v>
-      </c>
-      <c r="D70">
-        <v>500</v>
-      </c>
-      <c r="E70">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>283</v>
-      </c>
-      <c r="I70" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="J70" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="K70" s="59">
-        <v>0</v>
-      </c>
-      <c r="L70" s="58">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M70" s="59">
-        <v>8</v>
-      </c>
-      <c r="N70" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="O70" s="46" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>282</v>
-      </c>
-      <c r="B71" t="s">
-        <v>178</v>
-      </c>
-      <c r="C71">
-        <v>20.558199999999999</v>
-      </c>
-      <c r="D71">
-        <v>1.9E-3</v>
-      </c>
-      <c r="E71">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>285</v>
-      </c>
-      <c r="I71" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="J71" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="K71" s="59">
-        <v>0</v>
-      </c>
-      <c r="L71" s="58">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M71" s="59">
-        <v>8</v>
-      </c>
-      <c r="N71" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="O71" s="46" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>282</v>
-      </c>
-      <c r="B72" t="s">
-        <v>202</v>
-      </c>
-      <c r="C72">
-        <v>100.0003961</v>
-      </c>
-      <c r="D72" s="26">
-        <v>8.8000000000000004E-7</v>
-      </c>
-      <c r="E72">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s">
-        <v>287</v>
-      </c>
-      <c r="I72" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="J72" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="K72" s="59">
-        <v>0</v>
-      </c>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="46"/>
-      <c r="O72" s="46"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>282</v>
-      </c>
-      <c r="B73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73">
-        <v>1000122810</v>
-      </c>
-      <c r="D73">
-        <v>290</v>
-      </c>
-      <c r="E73">
-        <v>8</v>
-      </c>
-      <c r="F73" t="s">
-        <v>289</v>
-      </c>
-      <c r="I73" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="J73" s="46" t="s">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="I73" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J73" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="K73" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="46"/>
-      <c r="O73" s="46"/>
+      <c r="K73" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="41"/>
+      <c r="O73" s="41"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>282</v>
-      </c>
-      <c r="B74" t="s">
-        <v>208</v>
-      </c>
-      <c r="C74">
-        <v>20.567499999999999</v>
-      </c>
-      <c r="D74">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="E74">
-        <v>9</v>
-      </c>
-      <c r="F74" t="s">
-        <v>290</v>
-      </c>
-      <c r="I74" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="J74" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="K74" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="46"/>
-      <c r="O74" s="46"/>
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="I74" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J74" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="K74" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="41"/>
+      <c r="O74" s="41"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>282</v>
-      </c>
-      <c r="B75" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75">
-        <v>1000.0024100000001</v>
-      </c>
-      <c r="D75" s="26">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="E75">
-        <v>9</v>
-      </c>
-      <c r="F75" t="s">
-        <v>292</v>
-      </c>
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
       <c r="I75" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="J75" t="s">
         <v>188</v>
       </c>
       <c r="K75" t="s">
-        <v>297</v>
-      </c>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="46"/>
-      <c r="O75" s="46"/>
+        <v>249</v>
+      </c>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="41"/>
+      <c r="O75" s="41"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>282</v>
-      </c>
-      <c r="B76" t="s">
-        <v>181</v>
-      </c>
-      <c r="C76" s="26">
-        <v>6.8000000000000001E-6</v>
-      </c>
-      <c r="D76" s="26">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="E76">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="I76" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K76" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="I77" t="s">
+        <v>250</v>
+      </c>
+      <c r="J77" t="s">
+        <v>220</v>
+      </c>
+      <c r="K77" s="19">
+        <v>0</v>
+      </c>
+      <c r="L77" s="19">
+        <v>0</v>
+      </c>
+      <c r="M77" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="I78" t="s">
+        <v>250</v>
+      </c>
+      <c r="J78" t="s">
+        <v>221</v>
+      </c>
+      <c r="K78" s="20">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L78" s="20">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M78" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="N78" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="I79" t="s">
+        <v>250</v>
+      </c>
+      <c r="J79" t="s">
+        <v>222</v>
+      </c>
+      <c r="K79" s="20">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L79" s="20">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M79" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="N79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="I80" t="s">
+        <v>250</v>
+      </c>
+      <c r="J80" t="s">
+        <v>223</v>
+      </c>
+      <c r="K80" s="19">
+        <v>0</v>
+      </c>
+      <c r="L80" s="19">
+        <v>0</v>
+      </c>
+      <c r="M80" s="19">
+        <v>7</v>
+      </c>
+      <c r="N80" t="s">
+        <v>241</v>
+      </c>
+      <c r="O80" s="43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="I81" t="s">
+        <v>250</v>
+      </c>
+      <c r="J81" t="s">
+        <v>224</v>
+      </c>
+      <c r="K81" s="20">
+        <v>2.2210000000000001E-7</v>
+      </c>
+      <c r="L81" s="20">
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M81" s="19">
+        <v>7</v>
+      </c>
+      <c r="N81" t="s">
+        <v>242</v>
+      </c>
+      <c r="O81" s="43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="I82" t="s">
+        <v>250</v>
+      </c>
+      <c r="J82" t="s">
+        <v>225</v>
+      </c>
+      <c r="K82" s="20">
+        <v>4.8090000000000002E-7</v>
+      </c>
+      <c r="L82" s="20">
+        <v>1.8E-7</v>
+      </c>
+      <c r="M82" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="N82" t="s">
+        <v>243</v>
+      </c>
+      <c r="O82" s="43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="I83" t="s">
+        <v>250</v>
+      </c>
+      <c r="J83" t="s">
+        <v>226</v>
+      </c>
+      <c r="K83" s="19">
+        <v>0</v>
+      </c>
+      <c r="L83" s="20">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M83" s="19">
         <v>8</v>
       </c>
-      <c r="F76" t="s">
-        <v>294</v>
-      </c>
-      <c r="I76" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="J76" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="K76" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>282</v>
-      </c>
-      <c r="B77" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77">
+      <c r="N83" t="s">
+        <v>244</v>
+      </c>
+      <c r="O83" s="43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="I84" t="s">
+        <v>250</v>
+      </c>
+      <c r="J84" t="s">
+        <v>227</v>
+      </c>
+      <c r="K84" s="19">
         <v>0</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77" t="s">
-        <v>174</v>
-      </c>
-      <c r="F77" t="s">
-        <v>296</v>
-      </c>
-      <c r="I77" t="s">
-        <v>300</v>
-      </c>
-      <c r="J77" t="s">
-        <v>229</v>
-      </c>
-      <c r="K77" s="22">
-        <v>0</v>
-      </c>
-      <c r="L77" s="22">
-        <v>0</v>
-      </c>
-      <c r="M77" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>282</v>
-      </c>
-      <c r="B78" t="s">
-        <v>215</v>
-      </c>
-      <c r="C78" s="26">
-        <v>-1.3000000000000001E-8</v>
-      </c>
-      <c r="D78" s="26">
-        <v>1.3000000000000001E-9</v>
-      </c>
-      <c r="E78">
-        <v>17</v>
-      </c>
-      <c r="F78" t="s">
-        <v>298</v>
-      </c>
-      <c r="I78" t="s">
-        <v>300</v>
-      </c>
-      <c r="J78" t="s">
-        <v>230</v>
-      </c>
-      <c r="K78" s="23">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L78" s="23">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M78" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N78" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>282</v>
-      </c>
-      <c r="B79" t="s">
-        <v>187</v>
-      </c>
-      <c r="C79" t="s">
-        <v>299</v>
-      </c>
-      <c r="I79" t="s">
-        <v>300</v>
-      </c>
-      <c r="J79" t="s">
-        <v>233</v>
-      </c>
-      <c r="K79" s="23">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L79" s="23">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M79" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N79" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="31"/>
-      <c r="I80" t="s">
-        <v>300</v>
-      </c>
-      <c r="J80" t="s">
-        <v>235</v>
-      </c>
-      <c r="K80" s="22">
-        <v>0</v>
-      </c>
-      <c r="L80" s="22">
-        <v>0</v>
-      </c>
-      <c r="M80" s="22">
-        <v>7</v>
-      </c>
-      <c r="N80" t="s">
-        <v>280</v>
-      </c>
-      <c r="O80" s="48" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>302</v>
-      </c>
-      <c r="B81" t="s">
-        <v>173</v>
-      </c>
-      <c r="C81">
-        <v>9999.8797507532727</v>
-      </c>
-      <c r="D81">
-        <v>2.1019820691101751E-3</v>
-      </c>
-      <c r="E81">
-        <v>429.4639150882258</v>
-      </c>
-      <c r="F81" t="s">
-        <v>303</v>
-      </c>
-      <c r="I81" t="s">
-        <v>300</v>
-      </c>
-      <c r="J81" t="s">
-        <v>237</v>
-      </c>
-      <c r="K81" s="23">
-        <v>2.2210000000000001E-7</v>
-      </c>
-      <c r="L81" s="23">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M81" s="22">
-        <v>7</v>
-      </c>
-      <c r="N81" t="s">
-        <v>281</v>
-      </c>
-      <c r="O81" s="48" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>302</v>
-      </c>
-      <c r="B82" t="s">
-        <v>178</v>
-      </c>
-      <c r="C82">
-        <v>20.483424630315589</v>
-      </c>
-      <c r="D82">
-        <v>1.3072891110199869E-3</v>
-      </c>
-      <c r="E82">
-        <v>16.6067317125116</v>
-      </c>
-      <c r="F82" t="s">
-        <v>304</v>
-      </c>
-      <c r="I82" t="s">
-        <v>300</v>
-      </c>
-      <c r="J82" t="s">
-        <v>239</v>
-      </c>
-      <c r="K82" s="23">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L82" s="23">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M82" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="N82" t="s">
-        <v>284</v>
-      </c>
-      <c r="O82" s="48" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>302</v>
-      </c>
-      <c r="B83" t="s">
-        <v>202</v>
-      </c>
-      <c r="C83">
-        <v>0.99997001868571433</v>
-      </c>
-      <c r="D83">
-        <v>3.4866118185732038E-8</v>
-      </c>
-      <c r="E83">
-        <v>61.084489897408162</v>
-      </c>
-      <c r="F83" t="s">
-        <v>305</v>
-      </c>
-      <c r="I83" t="s">
-        <v>300</v>
-      </c>
-      <c r="J83" t="s">
-        <v>241</v>
-      </c>
-      <c r="K83" s="22">
-        <v>0</v>
-      </c>
-      <c r="L83" s="23">
+      <c r="L84" s="20">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M83" s="22">
+      <c r="M84" s="19">
         <v>8</v>
       </c>
-      <c r="N83" t="s">
-        <v>286</v>
-      </c>
-      <c r="O83" s="48" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>302</v>
-      </c>
-      <c r="B84" t="s">
-        <v>206</v>
-      </c>
-      <c r="C84">
-        <v>9999.8808164374568</v>
-      </c>
-      <c r="D84">
-        <v>1.6130871613394061E-3</v>
-      </c>
-      <c r="E84">
-        <v>549.44114740265024</v>
-      </c>
-      <c r="F84" t="s">
-        <v>306</v>
-      </c>
-      <c r="I84" t="s">
-        <v>300</v>
-      </c>
-      <c r="J84" t="s">
-        <v>243</v>
-      </c>
-      <c r="K84" s="22">
-        <v>0</v>
-      </c>
-      <c r="L84" s="23">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M84" s="22">
-        <v>8</v>
-      </c>
       <c r="N84" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>302</v>
-      </c>
-      <c r="B85" t="s">
-        <v>208</v>
-      </c>
-      <c r="C85">
-        <v>20.48359037642069</v>
-      </c>
-      <c r="D85">
-        <v>5.1762013613360141E-3</v>
-      </c>
-      <c r="E85">
-        <v>3.500850985483507</v>
-      </c>
-      <c r="F85" t="s">
-        <v>307</v>
-      </c>
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
       <c r="I85" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J85" t="s">
         <v>180</v>
       </c>
-      <c r="K85" s="22">
+      <c r="K85" s="19">
         <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>302</v>
-      </c>
-      <c r="B86" t="s">
-        <v>210</v>
-      </c>
-      <c r="C86">
-        <v>9.9996528297785723</v>
-      </c>
-      <c r="D86">
-        <v>9.6939836435603839E-8</v>
-      </c>
-      <c r="E86">
-        <v>108.93931120587359</v>
-      </c>
-      <c r="F86" t="s">
-        <v>308</v>
-      </c>
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
       <c r="I86" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J86" t="s">
         <v>183</v>
       </c>
-      <c r="K86" s="22" t="s">
-        <v>311</v>
+      <c r="K86" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>302</v>
-      </c>
-      <c r="B87" t="s">
-        <v>181</v>
-      </c>
-      <c r="C87">
-        <v>-3.2594374682707321E-6</v>
-      </c>
-      <c r="D87">
-        <v>1.158396774615323E-5</v>
-      </c>
-      <c r="E87">
-        <v>65.933408080168974</v>
-      </c>
-      <c r="F87" t="s">
-        <v>309</v>
-      </c>
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
       <c r="I87" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J87" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="K87" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>302</v>
-      </c>
-      <c r="B88" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
-        <v>174</v>
-      </c>
-      <c r="F88" t="s">
-        <v>310</v>
-      </c>
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
       <c r="I88" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J88" t="s">
         <v>188</v>
       </c>
       <c r="K88" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>302</v>
-      </c>
-      <c r="B89" t="s">
-        <v>215</v>
-      </c>
-      <c r="C89">
-        <v>1.184149509973361E-8</v>
-      </c>
-      <c r="D89">
-        <v>2.892882861028597E-8</v>
-      </c>
-      <c r="E89">
-        <v>816.58679248384738</v>
-      </c>
-      <c r="F89" t="s">
-        <v>312</v>
-      </c>
-      <c r="I89" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="J89" s="31" t="s">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="I89" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J89" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="K89" s="31" t="s">
-        <v>295</v>
+      <c r="K89" s="26" t="s">
+        <v>248</v>
       </c>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
       <c r="N89" s="14"/>
-      <c r="O89" s="31"/>
+      <c r="O89" s="26"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>302</v>
-      </c>
-      <c r="B90" t="s">
-        <v>187</v>
-      </c>
-      <c r="C90" s="30">
-        <v>42494.906767388668</v>
-      </c>
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
       <c r="I90" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="J90" t="s">
-        <v>229</v>
-      </c>
-      <c r="K90" s="22">
+        <v>220</v>
+      </c>
+      <c r="K90" s="19">
         <v>0</v>
       </c>
-      <c r="L90" s="22">
+      <c r="L90" s="19">
         <v>0</v>
       </c>
-      <c r="M90" s="22" t="s">
+      <c r="M90" s="19" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="31"/>
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
       <c r="I91" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="J91" t="s">
-        <v>230</v>
-      </c>
-      <c r="K91" s="23">
+        <v>221</v>
+      </c>
+      <c r="K91" s="20">
         <v>-5.6799999999999998E-5</v>
       </c>
-      <c r="L91" s="23">
+      <c r="L91" s="20">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="M91" s="22" t="s">
+      <c r="M91" s="19" t="s">
         <v>174</v>
       </c>
       <c r="N91" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>314</v>
-      </c>
-      <c r="B92" t="s">
-        <v>173</v>
-      </c>
-      <c r="C92">
-        <v>10001289.10646625</v>
-      </c>
-      <c r="D92">
-        <v>6.1929257213880922</v>
-      </c>
-      <c r="E92">
-        <v>181.66654604068069</v>
-      </c>
-      <c r="F92" t="s">
-        <v>315</v>
-      </c>
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
       <c r="I92" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="J92" t="s">
-        <v>233</v>
-      </c>
-      <c r="K92" s="23">
+        <v>222</v>
+      </c>
+      <c r="K92" s="20">
         <v>-5.63E-5</v>
       </c>
-      <c r="L92" s="23">
+      <c r="L92" s="20">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M92" s="22" t="s">
+      <c r="M92" s="19" t="s">
         <v>174</v>
       </c>
       <c r="N92" t="s">
-        <v>321</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>314</v>
-      </c>
-      <c r="B93" t="s">
-        <v>178</v>
-      </c>
-      <c r="C93">
-        <v>20.87816110459049</v>
-      </c>
-      <c r="D93">
-        <v>1.1615163277298259E-3</v>
-      </c>
-      <c r="E93">
-        <v>22.93020485359223</v>
-      </c>
-      <c r="F93" t="s">
-        <v>316</v>
-      </c>
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
       <c r="I93" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="J93" t="s">
-        <v>235</v>
-      </c>
-      <c r="K93" s="22">
+        <v>223</v>
+      </c>
+      <c r="K93" s="19">
         <v>0</v>
       </c>
-      <c r="L93" s="22">
+      <c r="L93" s="19">
         <v>0</v>
       </c>
-      <c r="M93" s="22">
+      <c r="M93" s="19">
         <v>7</v>
       </c>
       <c r="N93" t="s">
-        <v>280</v>
-      </c>
-      <c r="O93" s="48" t="s">
-        <v>381</v>
+        <v>241</v>
+      </c>
+      <c r="O93" s="43" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>314</v>
-      </c>
-      <c r="B94" t="s">
-        <v>202</v>
-      </c>
-      <c r="C94">
-        <v>10.00008274246875</v>
-      </c>
-      <c r="D94">
-        <v>9.0374660232609618E-8</v>
-      </c>
-      <c r="E94">
-        <v>142.45334891978871</v>
-      </c>
-      <c r="F94" t="s">
-        <v>318</v>
-      </c>
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
       <c r="I94" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="J94" t="s">
-        <v>237</v>
-      </c>
-      <c r="K94" s="23">
+        <v>224</v>
+      </c>
+      <c r="K94" s="20">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L94" s="23">
+      <c r="L94" s="20">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M94" s="22">
+      <c r="M94" s="19">
         <v>7</v>
       </c>
       <c r="N94" t="s">
-        <v>281</v>
-      </c>
-      <c r="O94" s="48" t="s">
-        <v>381</v>
+        <v>242</v>
+      </c>
+      <c r="O94" s="43" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>314</v>
-      </c>
-      <c r="B95" t="s">
-        <v>206</v>
-      </c>
-      <c r="C95">
-        <v>10001283.08772916</v>
-      </c>
-      <c r="D95">
-        <v>5.5967074946876503</v>
-      </c>
-      <c r="E95">
-        <v>129.33446721235609</v>
-      </c>
-      <c r="F95" t="s">
-        <v>320</v>
-      </c>
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
       <c r="I95" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="J95" t="s">
-        <v>239</v>
-      </c>
-      <c r="K95" s="23">
+        <v>225</v>
+      </c>
+      <c r="K95" s="20">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L95" s="23">
+      <c r="L95" s="20">
         <v>1.8E-7</v>
       </c>
-      <c r="M95" s="22" t="s">
+      <c r="M95" s="19" t="s">
         <v>174</v>
       </c>
       <c r="N95" t="s">
-        <v>284</v>
-      </c>
-      <c r="O95" s="48" t="s">
-        <v>381</v>
+        <v>243</v>
+      </c>
+      <c r="O95" s="43" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>314</v>
-      </c>
-      <c r="B96" t="s">
-        <v>208</v>
-      </c>
-      <c r="C96">
-        <v>20.89412875253262</v>
-      </c>
-      <c r="D96">
-        <v>1.3126822153619331E-3</v>
-      </c>
-      <c r="E96">
-        <v>31.432062951924902</v>
-      </c>
-      <c r="F96" t="s">
-        <v>322</v>
-      </c>
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
       <c r="I96" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="J96" t="s">
-        <v>241</v>
-      </c>
-      <c r="K96" s="22">
+        <v>226</v>
+      </c>
+      <c r="K96" s="19">
         <v>0</v>
       </c>
-      <c r="L96" s="23">
+      <c r="L96" s="20">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M96" s="22">
+      <c r="M96" s="19">
         <v>8</v>
       </c>
       <c r="N96" t="s">
-        <v>286</v>
-      </c>
-      <c r="O96" s="48" t="s">
-        <v>381</v>
+        <v>244</v>
+      </c>
+      <c r="O96" s="43" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>314</v>
-      </c>
-      <c r="B97" t="s">
-        <v>210</v>
-      </c>
-      <c r="C97">
-        <v>100.0007395721875</v>
-      </c>
-      <c r="D97">
-        <v>2.788919960124865E-6</v>
-      </c>
-      <c r="E97">
-        <v>133.21791520913669</v>
-      </c>
-      <c r="F97" t="s">
-        <v>323</v>
-      </c>
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
       <c r="I97" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="J97" t="s">
-        <v>243</v>
-      </c>
-      <c r="K97" s="22">
+        <v>227</v>
+      </c>
+      <c r="K97" s="19">
         <v>0</v>
       </c>
-      <c r="L97" s="23">
+      <c r="L97" s="20">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M97" s="22">
+      <c r="M97" s="19">
         <v>8</v>
       </c>
       <c r="N97" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>314</v>
-      </c>
-      <c r="B98" t="s">
-        <v>181</v>
-      </c>
-      <c r="C98" s="26">
-        <v>-1.2300000000000001E-5</v>
-      </c>
-      <c r="D98" s="26">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="E98">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>324</v>
-      </c>
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
       <c r="I98" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="J98" t="s">
         <v>180</v>
       </c>
-      <c r="K98" s="22">
+      <c r="K98" s="19">
         <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>314</v>
-      </c>
-      <c r="B99" t="s">
-        <v>185</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99" t="s">
-        <v>174</v>
-      </c>
-      <c r="F99" t="s">
-        <v>325</v>
-      </c>
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
       <c r="I99" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="J99" t="s">
         <v>183</v>
       </c>
-      <c r="K99" s="22" t="s">
-        <v>327</v>
+      <c r="K99" s="19" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>314</v>
-      </c>
-      <c r="B100" t="s">
-        <v>215</v>
-      </c>
-      <c r="C100">
-        <v>-6.6865748800628031E-9</v>
-      </c>
-      <c r="D100">
-        <v>8.0009772273944974E-9</v>
-      </c>
-      <c r="E100">
-        <v>1649.046981130565</v>
-      </c>
-      <c r="F100" t="s">
-        <v>326</v>
-      </c>
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
       <c r="I100" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="J100" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="K100" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>314</v>
-      </c>
-      <c r="B101" t="s">
-        <v>187</v>
-      </c>
-      <c r="C101" s="30">
-        <v>42493.882039809992</v>
-      </c>
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
       <c r="I101" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="J101" t="s">
         <v>188</v>
       </c>
       <c r="K101" t="s">
-        <v>332</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="B102" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="31"/>
-      <c r="I102" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="J102" s="31" t="s">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="I102" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J102" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="K102" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="L102" s="31"/>
-      <c r="M102" s="31"/>
-      <c r="N102" s="31"/>
-      <c r="O102" s="31"/>
+      <c r="K102" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L102" s="26"/>
+      <c r="M102" s="26"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="26"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>328</v>
-      </c>
-      <c r="B103" t="s">
-        <v>173</v>
-      </c>
-      <c r="C103">
-        <v>100010509.7244585</v>
-      </c>
-      <c r="D103">
-        <v>159.0748565086499</v>
-      </c>
-      <c r="E103">
-        <v>36.249303728829837</v>
-      </c>
-      <c r="F103" t="s">
-        <v>329</v>
-      </c>
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
       <c r="I103" t="s">
         <v>59</v>
       </c>
       <c r="J103" t="s">
-        <v>229</v>
-      </c>
-      <c r="K103" s="22">
+        <v>220</v>
+      </c>
+      <c r="K103" s="19">
         <v>0</v>
       </c>
-      <c r="L103" s="22">
+      <c r="L103" s="19">
         <v>0</v>
       </c>
-      <c r="M103" s="22" t="s">
+      <c r="M103" s="19" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>328</v>
-      </c>
-      <c r="B104" t="s">
-        <v>178</v>
-      </c>
-      <c r="C104">
-        <v>20.562563016968621</v>
-      </c>
-      <c r="D104">
-        <v>1.1225899607138371E-3</v>
-      </c>
-      <c r="E104">
-        <v>10.63882351464823</v>
-      </c>
-      <c r="F104" t="s">
-        <v>330</v>
-      </c>
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
       <c r="I104" t="s">
         <v>59</v>
       </c>
       <c r="J104" t="s">
-        <v>230</v>
-      </c>
-      <c r="K104" s="23">
+        <v>221</v>
+      </c>
+      <c r="K104" s="20">
         <v>-5.6799999999999998E-5</v>
       </c>
-      <c r="L104" s="23">
+      <c r="L104" s="20">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="M104" s="22" t="s">
+      <c r="M104" s="19" t="s">
         <v>174</v>
       </c>
       <c r="N104" t="s">
-        <v>336</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>328</v>
-      </c>
-      <c r="B105" t="s">
-        <v>202</v>
-      </c>
-      <c r="C105">
-        <v>10.000082983666671</v>
-      </c>
-      <c r="D105">
-        <v>1.4719999829989071E-7</v>
-      </c>
-      <c r="E105">
-        <v>50.860228994958739</v>
-      </c>
-      <c r="F105" t="s">
-        <v>331</v>
-      </c>
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
       <c r="I105" t="s">
         <v>59</v>
       </c>
       <c r="J105" t="s">
-        <v>233</v>
-      </c>
-      <c r="K105" s="23">
+        <v>222</v>
+      </c>
+      <c r="K105" s="20">
         <v>-5.63E-5</v>
       </c>
-      <c r="L105" s="23">
+      <c r="L105" s="20">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M105" s="22" t="s">
+      <c r="M105" s="19" t="s">
         <v>174</v>
       </c>
       <c r="N105" t="s">
-        <v>338</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>328</v>
-      </c>
-      <c r="B106" t="s">
-        <v>206</v>
-      </c>
-      <c r="C106">
-        <v>100010372.1260969</v>
-      </c>
-      <c r="D106">
-        <v>129.1794124850089</v>
-      </c>
-      <c r="E106">
-        <v>17.105316384443711</v>
-      </c>
-      <c r="F106" t="s">
-        <v>333</v>
-      </c>
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
       <c r="I106" t="s">
         <v>59</v>
       </c>
       <c r="J106" t="s">
-        <v>235</v>
-      </c>
-      <c r="K106" s="22">
+        <v>223</v>
+      </c>
+      <c r="K106" s="19">
         <v>0</v>
       </c>
-      <c r="L106" s="22">
+      <c r="L106" s="19">
         <v>0</v>
       </c>
-      <c r="M106" s="22">
+      <c r="M106" s="19">
         <v>7</v>
       </c>
       <c r="N106" t="s">
-        <v>280</v>
-      </c>
-      <c r="O106" s="48" t="s">
-        <v>381</v>
+        <v>241</v>
+      </c>
+      <c r="O106" s="43" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>328</v>
-      </c>
-      <c r="B107" t="s">
-        <v>208</v>
-      </c>
-      <c r="C107">
-        <v>20.574750767940181</v>
-      </c>
-      <c r="D107">
-        <v>1.692937695903598E-3</v>
-      </c>
-      <c r="E107">
-        <v>15.053987399757251</v>
-      </c>
-      <c r="F107" t="s">
-        <v>334</v>
-      </c>
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
       <c r="I107" t="s">
         <v>59</v>
       </c>
       <c r="J107" t="s">
-        <v>237</v>
-      </c>
-      <c r="K107" s="23">
+        <v>224</v>
+      </c>
+      <c r="K107" s="20">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L107" s="23">
+      <c r="L107" s="20">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M107" s="22">
+      <c r="M107" s="19">
         <v>7</v>
       </c>
       <c r="N107" t="s">
-        <v>281</v>
-      </c>
-      <c r="O107" s="48" t="s">
-        <v>381</v>
+        <v>242</v>
+      </c>
+      <c r="O107" s="43" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>328</v>
-      </c>
-      <c r="B108" t="s">
-        <v>210</v>
-      </c>
-      <c r="C108">
-        <v>100.0007446416667</v>
-      </c>
-      <c r="D108">
-        <v>3.8888460311806278E-6</v>
-      </c>
-      <c r="E108">
-        <v>49.194486212662937</v>
-      </c>
-      <c r="F108" t="s">
-        <v>335</v>
-      </c>
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
       <c r="I108" t="s">
         <v>59</v>
       </c>
       <c r="J108" t="s">
-        <v>239</v>
-      </c>
-      <c r="K108" s="23">
+        <v>225</v>
+      </c>
+      <c r="K108" s="20">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L108" s="23">
+      <c r="L108" s="20">
         <v>1.8E-7</v>
       </c>
-      <c r="M108" s="22" t="s">
+      <c r="M108" s="19" t="s">
         <v>174</v>
       </c>
       <c r="N108" t="s">
-        <v>284</v>
-      </c>
-      <c r="O108" s="48" t="s">
-        <v>381</v>
+        <v>243</v>
+      </c>
+      <c r="O108" s="43" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>328</v>
-      </c>
-      <c r="B109" t="s">
-        <v>181</v>
-      </c>
-      <c r="C109">
-        <v>2.1392048005377658E-6</v>
-      </c>
-      <c r="D109">
-        <v>9.9367517207481608E-5</v>
-      </c>
-      <c r="E109">
-        <v>90.750622293432627</v>
-      </c>
-      <c r="F109" t="s">
-        <v>337</v>
-      </c>
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
       <c r="I109" t="s">
         <v>59</v>
       </c>
       <c r="J109" t="s">
-        <v>241</v>
-      </c>
-      <c r="K109" s="22">
+        <v>226</v>
+      </c>
+      <c r="K109" s="19">
         <v>0</v>
       </c>
-      <c r="L109" s="23">
+      <c r="L109" s="20">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M109" s="22">
+      <c r="M109" s="19">
         <v>8</v>
       </c>
       <c r="N109" t="s">
-        <v>286</v>
-      </c>
-      <c r="O109" s="48" t="s">
-        <v>381</v>
+        <v>244</v>
+      </c>
+      <c r="O109" s="43" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>328</v>
-      </c>
-      <c r="B110" t="s">
-        <v>185</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110" t="s">
-        <v>174</v>
-      </c>
-      <c r="F110" t="s">
-        <v>339</v>
-      </c>
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
       <c r="I110" t="s">
         <v>59</v>
       </c>
       <c r="J110" t="s">
-        <v>243</v>
-      </c>
-      <c r="K110" s="22">
+        <v>227</v>
+      </c>
+      <c r="K110" s="19">
         <v>0</v>
       </c>
-      <c r="L110" s="23">
+      <c r="L110" s="20">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M110" s="22">
+      <c r="M110" s="19">
         <v>8</v>
       </c>
       <c r="N110" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>328</v>
-      </c>
-      <c r="B111" t="s">
-        <v>215</v>
-      </c>
-      <c r="C111">
-        <v>-1.528698782574404E-8</v>
-      </c>
-      <c r="D111">
-        <v>1.1601280851907451E-8</v>
-      </c>
-      <c r="E111">
-        <v>85.513696646934221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>340</v>
-      </c>
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
       <c r="I111" t="s">
         <v>59</v>
       </c>
@@ -9382,15 +8224,13 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>328</v>
-      </c>
-      <c r="B112" t="s">
-        <v>187</v>
-      </c>
-      <c r="C112" s="30">
-        <v>42494.691730002567</v>
-      </c>
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
       <c r="I112" t="s">
         <v>59</v>
       </c>
@@ -9398,34 +8238,35 @@
         <v>183</v>
       </c>
       <c r="K112" t="s">
-        <v>341</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="B113" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
       <c r="I113" t="s">
         <v>59</v>
       </c>
       <c r="J113" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="K113" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
       <c r="I114" t="s">
         <v>59</v>
       </c>
@@ -9433,38 +8274,38 @@
         <v>188</v>
       </c>
       <c r="K114" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I115" s="31" t="s">
+      <c r="I115" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J115" s="31" t="s">
+      <c r="J115" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="K115" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="L115" s="31"/>
-      <c r="M115" s="31"/>
-      <c r="N115" s="31"/>
-      <c r="O115" s="31"/>
+      <c r="K115" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L115" s="26"/>
+      <c r="M115" s="26"/>
+      <c r="N115" s="26"/>
+      <c r="O115" s="26"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
         <v>68</v>
       </c>
       <c r="J116" t="s">
-        <v>229</v>
-      </c>
-      <c r="K116" s="22">
+        <v>220</v>
+      </c>
+      <c r="K116" s="19">
         <v>0</v>
       </c>
-      <c r="L116" s="22">
+      <c r="L116" s="19">
         <v>0</v>
       </c>
-      <c r="M116" s="22" t="s">
+      <c r="M116" s="19" t="s">
         <v>174</v>
       </c>
     </row>
@@ -9473,19 +8314,19 @@
         <v>68</v>
       </c>
       <c r="J117" t="s">
-        <v>230</v>
-      </c>
-      <c r="K117" s="23">
+        <v>221</v>
+      </c>
+      <c r="K117" s="20">
         <v>-5.6799999999999998E-5</v>
       </c>
-      <c r="L117" s="23">
+      <c r="L117" s="20">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="M117" s="22" t="s">
+      <c r="M117" s="19" t="s">
         <v>174</v>
       </c>
       <c r="N117" t="s">
-        <v>343</v>
+        <v>263</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -9493,19 +8334,19 @@
         <v>68</v>
       </c>
       <c r="J118" t="s">
-        <v>233</v>
-      </c>
-      <c r="K118" s="23">
+        <v>222</v>
+      </c>
+      <c r="K118" s="20">
         <v>-5.63E-5</v>
       </c>
-      <c r="L118" s="23">
+      <c r="L118" s="20">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M118" s="22" t="s">
+      <c r="M118" s="19" t="s">
         <v>174</v>
       </c>
       <c r="N118" t="s">
-        <v>344</v>
+        <v>264</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -9513,22 +8354,22 @@
         <v>68</v>
       </c>
       <c r="J119" t="s">
-        <v>235</v>
-      </c>
-      <c r="K119" s="22">
+        <v>223</v>
+      </c>
+      <c r="K119" s="19">
         <v>0</v>
       </c>
-      <c r="L119" s="22">
+      <c r="L119" s="19">
         <v>0</v>
       </c>
-      <c r="M119" s="22">
+      <c r="M119" s="19">
         <v>7</v>
       </c>
       <c r="N119" t="s">
-        <v>280</v>
-      </c>
-      <c r="O119" s="48" t="s">
-        <v>381</v>
+        <v>241</v>
+      </c>
+      <c r="O119" s="43" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -9536,22 +8377,22 @@
         <v>68</v>
       </c>
       <c r="J120" t="s">
-        <v>237</v>
-      </c>
-      <c r="K120" s="23">
+        <v>224</v>
+      </c>
+      <c r="K120" s="20">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L120" s="23">
+      <c r="L120" s="20">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M120" s="22">
+      <c r="M120" s="19">
         <v>7</v>
       </c>
       <c r="N120" t="s">
-        <v>281</v>
-      </c>
-      <c r="O120" s="48" t="s">
-        <v>381</v>
+        <v>242</v>
+      </c>
+      <c r="O120" s="43" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -9559,22 +8400,22 @@
         <v>68</v>
       </c>
       <c r="J121" t="s">
-        <v>239</v>
-      </c>
-      <c r="K121" s="23">
+        <v>225</v>
+      </c>
+      <c r="K121" s="20">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L121" s="23">
+      <c r="L121" s="20">
         <v>1.8E-7</v>
       </c>
-      <c r="M121" s="22" t="s">
+      <c r="M121" s="19" t="s">
         <v>174</v>
       </c>
       <c r="N121" t="s">
-        <v>284</v>
-      </c>
-      <c r="O121" s="48" t="s">
-        <v>381</v>
+        <v>243</v>
+      </c>
+      <c r="O121" s="43" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -9582,22 +8423,22 @@
         <v>68</v>
       </c>
       <c r="J122" t="s">
-        <v>241</v>
-      </c>
-      <c r="K122" s="22">
+        <v>226</v>
+      </c>
+      <c r="K122" s="19">
         <v>0</v>
       </c>
-      <c r="L122" s="23">
+      <c r="L122" s="20">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M122" s="22">
+      <c r="M122" s="19">
         <v>8</v>
       </c>
       <c r="N122" t="s">
-        <v>286</v>
-      </c>
-      <c r="O122" s="48" t="s">
-        <v>381</v>
+        <v>244</v>
+      </c>
+      <c r="O122" s="43" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
@@ -9605,19 +8446,19 @@
         <v>68</v>
       </c>
       <c r="J123" t="s">
-        <v>243</v>
-      </c>
-      <c r="K123" s="22">
+        <v>227</v>
+      </c>
+      <c r="K123" s="19">
         <v>0</v>
       </c>
-      <c r="L123" s="23">
+      <c r="L123" s="20">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M123" s="22">
+      <c r="M123" s="19">
         <v>8</v>
       </c>
       <c r="N123" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -9639,7 +8480,7 @@
         <v>183</v>
       </c>
       <c r="K125" t="s">
-        <v>345</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -9647,10 +8488,10 @@
         <v>68</v>
       </c>
       <c r="J126" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="K126" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -9661,23 +8502,23 @@
         <v>188</v>
       </c>
       <c r="K127" t="s">
-        <v>346</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I128" s="31" t="s">
+      <c r="I128" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="J128" s="31" t="s">
+      <c r="J128" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="K128" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="L128" s="31"/>
-      <c r="M128" s="31"/>
-      <c r="N128" s="31"/>
-      <c r="O128" s="31"/>
+      <c r="K128" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L128" s="26"/>
+      <c r="M128" s="26"/>
+      <c r="N128" s="26"/>
+      <c r="O128" s="26"/>
     </row>
     <row r="129" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I129" t="s">
@@ -9689,8 +8530,8 @@
       <c r="K129">
         <v>2</v>
       </c>
-      <c r="L129" s="22"/>
-      <c r="M129" s="22"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="19"/>
     </row>
     <row r="130" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I130" t="s">
@@ -9700,26 +8541,26 @@
         <v>183</v>
       </c>
       <c r="K130" t="s">
-        <v>347</v>
-      </c>
-      <c r="L130" s="23"/>
-      <c r="M130" s="22"/>
+        <v>267</v>
+      </c>
+      <c r="L130" s="20"/>
+      <c r="M130" s="19"/>
     </row>
     <row r="131" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I131" t="s">
         <v>39</v>
       </c>
       <c r="J131" t="s">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="K131" t="s">
-        <v>349</v>
-      </c>
-      <c r="L131" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="M131" s="25" t="s">
-        <v>351</v>
+        <v>269</v>
+      </c>
+      <c r="L131" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="M131" s="22" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.25">
@@ -9727,38 +8568,38 @@
         <v>39</v>
       </c>
       <c r="J132" t="s">
-        <v>352</v>
+        <v>272</v>
       </c>
       <c r="K132" t="s">
-        <v>353</v>
-      </c>
-      <c r="L132" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="M132" s="22"/>
+        <v>273</v>
+      </c>
+      <c r="L132" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="M132" s="19"/>
     </row>
     <row r="133" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I133" t="s">
         <v>39</v>
       </c>
       <c r="J133" t="s">
-        <v>355</v>
+        <v>275</v>
       </c>
       <c r="K133" t="s">
-        <v>356</v>
-      </c>
-      <c r="L133" s="23"/>
-      <c r="M133" s="22"/>
+        <v>276</v>
+      </c>
+      <c r="L133" s="20"/>
+      <c r="M133" s="19"/>
     </row>
     <row r="134" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I134" t="s">
         <v>39</v>
       </c>
       <c r="J134" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="K134" t="s">
-        <v>358</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.25">
@@ -9769,23 +8610,23 @@
         <v>188</v>
       </c>
       <c r="K135" t="s">
-        <v>360</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I136" s="31" t="s">
+      <c r="I136" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J136" s="31" t="s">
+      <c r="J136" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="K136" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="L136" s="31"/>
-      <c r="M136" s="31"/>
-      <c r="N136" s="31"/>
-      <c r="O136" s="31"/>
+      <c r="K136" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="L136" s="26"/>
+      <c r="M136" s="26"/>
+      <c r="N136" s="26"/>
+      <c r="O136" s="26"/>
     </row>
     <row r="137" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I137" t="s">
@@ -9797,7 +8638,7 @@
       <c r="K137">
         <v>4</v>
       </c>
-      <c r="L137" s="22"/>
+      <c r="L137" s="19"/>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I138" t="s">
@@ -9807,34 +8648,34 @@
         <v>183</v>
       </c>
       <c r="K138" t="s">
-        <v>361</v>
-      </c>
-      <c r="L138" s="23"/>
+        <v>281</v>
+      </c>
+      <c r="L138" s="20"/>
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I139" t="s">
         <v>29</v>
       </c>
       <c r="J139" t="s">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="K139" t="s">
-        <v>362</v>
-      </c>
-      <c r="L139" s="23"/>
+        <v>282</v>
+      </c>
+      <c r="L139" s="20"/>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I140" t="s">
         <v>29</v>
       </c>
       <c r="J140" t="s">
-        <v>352</v>
+        <v>272</v>
       </c>
       <c r="K140" t="s">
-        <v>363</v>
-      </c>
-      <c r="L140" s="24" t="s">
-        <v>364</v>
+        <v>283</v>
+      </c>
+      <c r="L140" s="21" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="141" spans="9:15" x14ac:dyDescent="0.25">
@@ -9842,22 +8683,22 @@
         <v>29</v>
       </c>
       <c r="J141" t="s">
-        <v>355</v>
+        <v>275</v>
       </c>
       <c r="K141" t="s">
-        <v>365</v>
-      </c>
-      <c r="L141" s="23"/>
+        <v>285</v>
+      </c>
+      <c r="L141" s="20"/>
     </row>
     <row r="142" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I142" t="s">
         <v>29</v>
       </c>
       <c r="J142" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="K142" t="s">
-        <v>366</v>
+        <v>286</v>
       </c>
     </row>
     <row r="143" spans="9:15" x14ac:dyDescent="0.25">
@@ -9865,13 +8706,13 @@
         <v>29</v>
       </c>
       <c r="J143" t="s">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="K143" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="L143" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
     </row>
     <row r="144" spans="9:15" x14ac:dyDescent="0.25">
@@ -9882,29 +8723,29 @@
         <v>188</v>
       </c>
       <c r="K144" t="s">
-        <v>370</v>
+        <v>290</v>
       </c>
     </row>
     <row r="145" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I145" s="31" t="s">
+      <c r="I145" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J145" s="31" t="s">
+      <c r="J145" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="K145" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="L145" s="31"/>
-      <c r="M145" s="31"/>
-      <c r="N145" s="31"/>
-      <c r="O145" s="31"/>
+      <c r="K145" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="L145" s="26"/>
+      <c r="M145" s="26"/>
+      <c r="N145" s="26"/>
+      <c r="O145" s="26"/>
     </row>
     <row r="146" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="L146" s="46"/>
-      <c r="M146" s="46"/>
-      <c r="N146" s="46"/>
-      <c r="O146" s="46"/>
+      <c r="L146" s="41"/>
+      <c r="M146" s="41"/>
+      <c r="N146" s="41"/>
+      <c r="O146" s="41"/>
     </row>
     <row r="147" spans="9:15" x14ac:dyDescent="0.25">
       <c r="L147"/>
@@ -9949,20 +8790,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="41" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="41" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="11.42578125" style="41" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33" style="41" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" style="41" customWidth="1"/>
-    <col min="22" max="22" width="38" style="41" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="41" customWidth="1"/>
-    <col min="25" max="25" width="19.28515625" style="41" customWidth="1"/>
+    <col min="1" max="4" width="11.42578125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="36" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="11.42578125" style="36" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" style="36" customWidth="1"/>
+    <col min="22" max="22" width="38" style="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="36" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1305,9 +1305,6 @@
     <t>UNUSED GMH, s/n367</t>
   </si>
   <si>
-    <t>COM3</t>
-  </si>
-  <si>
     <t>P_correction</t>
   </si>
   <si>
@@ -1495,6 +1492,9 @@
   <si>
     <t>uncertainty in Vdrift = abs(Vd[2]-(Vd[0]+((Vd[3]-Vd[2])/(V2[3]-V2[2]))*(V2[2]-V2[0])))/4</t>
   </si>
+  <si>
+    <t>COM9</t>
+  </si>
 </sst>
 </file>
 
@@ -1505,7 +1505,7 @@
     <numFmt numFmtId="165" formatCode="d/mm/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1777,7 +1777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4739,7 +4739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T197"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="900" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
@@ -5326,10 +5326,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="540" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5360,7 +5360,7 @@
         <v>165</v>
       </c>
       <c r="Q1" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -5407,7 +5407,7 @@
         <v>295</v>
       </c>
       <c r="Q2" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -5439,13 +5439,13 @@
         <v>306</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>301</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -5471,16 +5471,16 @@
         <v>305</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N4" s="45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O4" s="45" t="s">
         <v>301</v>
       </c>
       <c r="Q4" s="46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -5506,16 +5506,16 @@
         <v>305</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N5" s="45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O5" s="45" t="s">
         <v>301</v>
       </c>
       <c r="Q5" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -5544,13 +5544,13 @@
         <v>180</v>
       </c>
       <c r="K6" s="36">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O6" s="45" t="s">
         <v>307</v>
       </c>
       <c r="Q6" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -5570,13 +5570,13 @@
         <v>183</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="O7" s="45" t="s">
         <v>307</v>
       </c>
       <c r="Q7" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -5603,7 +5603,7 @@
         <v>308</v>
       </c>
       <c r="Q8" s="46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -5632,14 +5632,14 @@
         <v>204</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
       <c r="Q9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -5683,7 +5683,7 @@
         <v>301</v>
       </c>
       <c r="R10" s="47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -5718,10 +5718,10 @@
         <v>307</v>
       </c>
       <c r="R11" t="s">
+        <v>323</v>
+      </c>
+      <c r="S11" s="47" t="s">
         <v>324</v>
-      </c>
-      <c r="S11" s="47" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -5756,10 +5756,10 @@
         <v>307</v>
       </c>
       <c r="S12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T12" s="47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -5782,10 +5782,10 @@
         <v>189</v>
       </c>
       <c r="T13" t="s">
+        <v>333</v>
+      </c>
+      <c r="U13" s="47" t="s">
         <v>334</v>
-      </c>
-      <c r="U13" s="47" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -5818,7 +5818,7 @@
         <v>304</v>
       </c>
       <c r="T14" s="47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -5862,7 +5862,7 @@
         <v>301</v>
       </c>
       <c r="S15" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T15" s="47"/>
     </row>
@@ -5898,7 +5898,7 @@
         <v>307</v>
       </c>
       <c r="S16" s="47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T16" s="47"/>
     </row>
@@ -5934,7 +5934,7 @@
         <v>307</v>
       </c>
       <c r="S17" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T17" s="47"/>
     </row>
@@ -5967,10 +5967,10 @@
         <v>198</v>
       </c>
       <c r="S18" s="48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T18" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -6008,7 +6008,7 @@
         <v>304</v>
       </c>
       <c r="T19" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -6040,7 +6040,7 @@
         <v>2</v>
       </c>
       <c r="S20" s="47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -6072,10 +6072,10 @@
         <v>201</v>
       </c>
       <c r="S21" s="48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -6107,7 +6107,7 @@
         <v>63</v>
       </c>
       <c r="T22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -6143,10 +6143,10 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="T23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1344,9 +1344,6 @@
     <t>3. Uncertainties in Rs propagate through to dependant Rx values through the build-up. This is evident in the increasing dof as Rx increases.</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t xml:space="preserve"> where:</t>
   </si>
   <si>
@@ -1494,6 +1491,9 @@
   </si>
   <si>
     <t>COM9</t>
+  </si>
+  <si>
+    <t>RH</t>
   </si>
 </sst>
 </file>
@@ -4739,7 +4739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="900" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
@@ -5326,10 +5326,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U152"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="540" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5570,7 +5570,7 @@
         <v>183</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O7" s="45" t="s">
         <v>307</v>
@@ -5632,14 +5632,14 @@
         <v>204</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
       <c r="Q9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -5683,7 +5683,7 @@
         <v>301</v>
       </c>
       <c r="R10" s="47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -5718,10 +5718,10 @@
         <v>307</v>
       </c>
       <c r="R11" t="s">
+        <v>322</v>
+      </c>
+      <c r="S11" s="47" t="s">
         <v>323</v>
-      </c>
-      <c r="S11" s="47" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -5756,10 +5756,10 @@
         <v>307</v>
       </c>
       <c r="S12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T12" s="47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -5782,10 +5782,10 @@
         <v>189</v>
       </c>
       <c r="T13" t="s">
+        <v>332</v>
+      </c>
+      <c r="U13" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="U13" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -5818,7 +5818,7 @@
         <v>304</v>
       </c>
       <c r="T14" s="47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -5862,7 +5862,7 @@
         <v>301</v>
       </c>
       <c r="S15" s="47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T15" s="47"/>
     </row>
@@ -5898,7 +5898,7 @@
         <v>307</v>
       </c>
       <c r="S16" s="47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T16" s="47"/>
     </row>
@@ -5934,7 +5934,7 @@
         <v>307</v>
       </c>
       <c r="S17" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T17" s="47"/>
     </row>
@@ -5967,10 +5967,10 @@
         <v>198</v>
       </c>
       <c r="S18" s="48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T18" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -6008,7 +6008,7 @@
         <v>304</v>
       </c>
       <c r="T19" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -6040,7 +6040,7 @@
         <v>2</v>
       </c>
       <c r="S20" s="47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -6072,10 +6072,10 @@
         <v>201</v>
       </c>
       <c r="S21" s="48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -6107,7 +6107,7 @@
         <v>63</v>
       </c>
       <c r="T22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -6143,10 +6143,10 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="T23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -1490,10 +1490,10 @@
     <t>uncertainty in Vdrift = abs(Vd[2]-(Vd[0]+((Vd[3]-Vd[2])/(V2[3]-V2[2]))*(V2[2]-V2[0])))/4</t>
   </si>
   <si>
-    <t>COM9</t>
-  </si>
-  <si>
     <t>RH</t>
+  </si>
+  <si>
+    <t>COM4</t>
   </si>
 </sst>
 </file>
@@ -5329,7 +5329,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="540" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5544,7 +5544,7 @@
         <v>180</v>
       </c>
       <c r="K6" s="36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O6" s="45" t="s">
         <v>307</v>
@@ -5570,7 +5570,7 @@
         <v>183</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="O7" s="45" t="s">
         <v>307</v>
@@ -5632,7 +5632,7 @@
         <v>204</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
@@ -5892,7 +5892,7 @@
         <v>180</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O16" s="36" t="s">
         <v>307</v>
@@ -5928,7 +5928,7 @@
         <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>196</v>
+        <v>341</v>
       </c>
       <c r="O17" s="45" t="s">
         <v>307</v>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27120" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
     <sheet name="Results" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -61,62 +61,15 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Tim Lawson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-The Run Id identifies a particular physical setup and its</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> only</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> use is to allow the analysis program (HRBA) to match measurement data with corresponding Rlink data. Each Run Id must be unique and is automatically generated by combining run information such as: the version of HRBC used to acquire the data; the names of the two resistors used and the date and time when the run was started.
-The Run Id should </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NOT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> be confused with the comment, which is intended to record and describe (as opposed to identify)  the physical setup, along with any other relevant  observations. The comment is intended to be read by a human, not HRBA.</t>
+          <t>Tim Lawson:
+The Run Id identifies a particular physical setup and its only use is to allow the analysis program (HRBA) to match measurement data with corresponding Rlink data. Each Run Id must be unique and is automatically generated by combining run information such as: the version of HRBC used to acquire the data; the names of the two resistors used and the date and time when the run was started.
+The Run Id should NOT be confused with the comment, which is intended to record and describe (as opposed to identify)  the physical setup, along with any other relevant  observations. The comment is intended to be read by a human, not HRBA.</t>
         </r>
       </text>
     </comment>
@@ -190,42 +143,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Tim Lawson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-As the resistor section grows and is added to by HRBA, the label will be appended with the RunId of the run that was the source of these values. The combined label acts as the</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> AnalysisId</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
+          <t>Tim Lawson:
+As the resistor section grows and is added to by HRBA, the label will be appended with the RunId of the run that was the source of these values. The combined label acts as the AnalysisId.</t>
         </r>
       </text>
     </comment>
@@ -233,22 +158,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Tim Lawson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t>Tim Lawson:
 IUnits of [deg C]^-1</t>
         </r>
       </text>
@@ -257,101 +173,16 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Tim Lawson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This means any </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>permanently-attached</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> temperature sensor that forms part of the resistance standard.
+          <t>Tim Lawson:
+This means any permanently-attached temperature sensor that forms part of the resistance standard.
 In practice this is 'none'  for any RTD (eg Pt 100r, SR104t) and units that have a thermometer well but no permanant sensor (eg:Tinsleys).
-Typically 'Pt100r'  is used for 'home-made' resistance boxes. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In future</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> each Pt will need a unique id</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  (eg: 'H100M_Pt 100r',  'New10M_Pt 100r', etc.); </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>calibration info and a prediction equation in the same manner of SR104t 10k</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
+Typically 'Pt100r'  is used for 'home-made' resistance boxes. In future, each Pt will need a unique id  (eg: 'H100M_Pt 100r',  'New10M_Pt 100r', etc.); calibration info and a prediction equation in the same manner of SR104t 10k.</t>
         </r>
       </text>
     </comment>
@@ -376,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="359">
   <si>
     <t>start_row</t>
   </si>
@@ -423,33 +254,42 @@
     <t>GMH_T2</t>
   </si>
   <si>
+    <t>Ambient conditions</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Instrument descr.</t>
+  </si>
+  <si>
+    <t>Run Id:</t>
+  </si>
+  <si>
+    <t>HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>sd(V)</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>P(mbar)</t>
+  </si>
+  <si>
     <t>RH(%)</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Instrument descr.</t>
-  </si>
-  <si>
-    <t>Run Id:</t>
-  </si>
-  <si>
-    <t>HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>sd(V)</t>
-  </si>
-  <si>
     <t>03/03/2017 11:42:16</t>
   </si>
   <si>
@@ -828,6 +668,42 @@
     <t>03/03/2017 15:41:51</t>
   </si>
   <si>
+    <t>Ambient Conditions</t>
+  </si>
+  <si>
+    <t>HRBC.v0.4 CHANGE_THIS! 1G:CHANGE_THIS! 1M 18/05/2017 16:30:31</t>
+  </si>
+  <si>
+    <t>%RH</t>
+  </si>
+  <si>
+    <t>18/05/2017 16:31:06</t>
+  </si>
+  <si>
+    <t>18/05/2017 16:31:11</t>
+  </si>
+  <si>
+    <t>18/05/2017 16:31:01</t>
+  </si>
+  <si>
+    <t>R1: CHANGE_THIS! 1G monitored by GMH: s/n627. R2: CHANGE_THIS! 1M monitored by GMH: s/n628</t>
+  </si>
+  <si>
+    <t>GMH: s/n627</t>
+  </si>
+  <si>
+    <t>GMH: s/n628</t>
+  </si>
+  <si>
+    <t>DVM: HP3458A, s/n230</t>
+  </si>
+  <si>
+    <t>GMHroom</t>
+  </si>
+  <si>
+    <t>GMH: s/n367</t>
+  </si>
+  <si>
     <t>Start row</t>
   </si>
   <si>
@@ -843,6 +719,9 @@
     <t>N_Readings</t>
   </si>
   <si>
+    <t>I_nominal</t>
+  </si>
+  <si>
     <t>06/03/2017 10:33:16</t>
   </si>
   <si>
@@ -870,12 +749,24 @@
     <t>ΔV-</t>
   </si>
   <si>
+    <t>ΔV+_av</t>
+  </si>
+  <si>
+    <t>ΔV-_av</t>
+  </si>
+  <si>
+    <t>Rd</t>
+  </si>
+  <si>
     <t>Resistor Info:</t>
   </si>
   <si>
     <t>Instrument Info:</t>
   </si>
   <si>
+    <t>Notes:</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -894,6 +785,12 @@
     <t>label</t>
   </si>
   <si>
+    <t>Comment / Reference</t>
+  </si>
+  <si>
+    <t>1. Units of alpha and beta are [deg C]^-1 and [def C]^-2, respectively (i.e. 1e-6*ppm/C...).</t>
+  </si>
+  <si>
     <t>Pt 100r</t>
   </si>
   <si>
@@ -906,129 +803,240 @@
     <t>Pt_R0</t>
   </si>
   <si>
+    <t>Don't use for absolute temperature measurement - differences only!</t>
+  </si>
+  <si>
+    <t>T_correction</t>
+  </si>
+  <si>
+    <t>GMH367T_cor</t>
+  </si>
+  <si>
+    <t>(Cal report?)</t>
+  </si>
+  <si>
+    <t>2. Units of gamma are [V]^-1 (i.e. 1e-6*ppm/V).</t>
+  </si>
+  <si>
+    <t>TRef_LV</t>
+  </si>
+  <si>
+    <t>Pt_Tref_LV</t>
+  </si>
+  <si>
+    <t>P_correction</t>
+  </si>
+  <si>
+    <t>GMH367P_cor</t>
+  </si>
+  <si>
+    <t>3. Uncertainties in Rs propagate through to dependant Rx values through the build-up. This is evident in the increasing dof as Rx increases.</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Pt_alpha</t>
+  </si>
+  <si>
+    <t>RH_correction</t>
+  </si>
+  <si>
+    <t>GMH367RH_cor</t>
+  </si>
+  <si>
+    <t>4. For the Hamon, the voltage coefficient is the effect as it [is/would be] measured on the complete configuration of elements;</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>Pt_beta</t>
+  </si>
+  <si>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>Windows-assigned port to 3100N USB connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   The series configuration has 1/10 the voltage drop per element, compared with the parallel, for the same overall ppm change in resistance.</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>str_addr</t>
+  </si>
+  <si>
+    <t>COM6</t>
+  </si>
+  <si>
+    <t>5. Calibration dates relate to the LV measurement.</t>
+  </si>
+  <si>
+    <t>T_sensor</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>UNUSED GMH, s/n367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   This shouldn't cause a problem as the LV and HV meaurements are interleaved and their means are not likely to differ by more than a few minutes.</t>
+  </si>
+  <si>
+    <t>SR104t 10k</t>
+  </si>
+  <si>
+    <t>SR104t_R0</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>6. Measurement equation(s):</t>
+  </si>
+  <si>
+    <t>SR104t_Tref_LV</t>
+  </si>
+  <si>
     <t>correction</t>
   </si>
   <si>
     <t>GMH627_cor</t>
   </si>
   <si>
-    <t>TRef_LV</t>
-  </si>
-  <si>
-    <t>Pt_Tref_LV</t>
-  </si>
-  <si>
-    <t>addr</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>Pt_alpha</t>
-  </si>
-  <si>
-    <t>str_addr</t>
+    <t xml:space="preserve"> R1 = -(R2*(1+vrc)*V1_av*G)/( G*V2_av -Vd_av)</t>
+  </si>
+  <si>
+    <t>SR104t_alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> where:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R2 = R2_0*(1+R2alpha*dT2 + R2beta*dT2**2 + R2gamma*dV2) + Rd</t>
+  </si>
+  <si>
+    <t>SR104t_beta</t>
   </si>
   <si>
     <t>COM5</t>
   </si>
   <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>Pt_beta</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>role</t>
+    <t>where:</t>
+  </si>
+  <si>
+    <t>dT2 = T2_av - R2TRef + T_def2</t>
   </si>
   <si>
     <t>UNUSED GMH, s/n627</t>
   </si>
   <si>
-    <t>T_sensor</t>
-  </si>
-  <si>
-    <t>SR104t 10k</t>
-  </si>
-  <si>
-    <t>SR104t_R0</t>
+    <t>( where:</t>
+  </si>
+  <si>
+    <t>T2_av = T2_av_gmh )</t>
+  </si>
+  <si>
+    <t>Test Temperature measurement function</t>
+  </si>
+  <si>
+    <t>dV2 = abs(abs(V2av) - R2VRef)</t>
+  </si>
+  <si>
+    <t>SR104r_R0_LV</t>
   </si>
   <si>
     <t>GMH628_cor</t>
   </si>
   <si>
-    <t>SR104t_Tref_LV</t>
-  </si>
-  <si>
-    <t>SR104t_alpha</t>
-  </si>
-  <si>
-    <t>COM6</t>
-  </si>
-  <si>
-    <t>SR104t_beta</t>
+    <t>V1av = (V1[0]-2*V1[1]+V1[2])/4</t>
+  </si>
+  <si>
+    <t>SR104r_Tref_LV</t>
+  </si>
+  <si>
+    <t>V2av = (V2[0]-2*V2[1]+V2[2])/4</t>
+  </si>
+  <si>
+    <t>VRef_LV</t>
+  </si>
+  <si>
+    <t>SR104r_Vref_LV</t>
+  </si>
+  <si>
+    <t>COM4</t>
+  </si>
+  <si>
+    <t>Vdav = (Vd[0]-2*Vd[1]+Vd[2])/4 + Vlin_Vd + Vdrift_Vd</t>
+  </si>
+  <si>
+    <t>R0_HV</t>
+  </si>
+  <si>
+    <t>SR104r_R0_HV</t>
   </si>
   <si>
     <t>UNUSED GMH, s/n628</t>
   </si>
   <si>
-    <t>SR104r_R0_LV</t>
-  </si>
-  <si>
-    <t>SR104r_Tref_LV</t>
+    <t>Vlin_Vd is the linearity of DVMd</t>
+  </si>
+  <si>
+    <t>TRef_HV</t>
+  </si>
+  <si>
+    <t>SR104r_Tref_HV</t>
+  </si>
+  <si>
+    <t>Vdrift_Vd is the zero-valued type-B drift of DVMd</t>
+  </si>
+  <si>
+    <t>VRef_HV</t>
+  </si>
+  <si>
+    <t>SR104r_Vref_HV</t>
+  </si>
+  <si>
+    <t>G = (Vd[3]-Vd[2] + Vlin_gain +Vdrift_gain)/(V2[3]-V2[2])</t>
+  </si>
+  <si>
+    <t>SR104r_alpha</t>
   </si>
   <si>
     <t>COM2</t>
   </si>
   <si>
-    <t>VRef_LV</t>
-  </si>
-  <si>
-    <t>SR104r_Vref_LV</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>Vlin_gain is the linearity of DVMd</t>
+  </si>
+  <si>
+    <t>SR104r_beta</t>
+  </si>
+  <si>
+    <t>Vdrift_gain is the zero-valued type-B drift of DVMd</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>Ti611_gamma</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>R0_HV</t>
-  </si>
-  <si>
-    <t>SR104r_R0_HV</t>
-  </si>
-  <si>
-    <t>TRef_HV</t>
-  </si>
-  <si>
-    <t>SR104r_Tref_HV</t>
-  </si>
-  <si>
-    <t>VRef_HV</t>
-  </si>
-  <si>
-    <t>SR104r_Vref_HV</t>
-  </si>
-  <si>
-    <t>SR104r_alpha</t>
-  </si>
-  <si>
-    <t>SR104r_beta</t>
+    <t>uncertainty in Vdrift = abs(Vd[2]-(Vd[0]+((Vd[3]-Vd[2])/(V2[3]-V2[2]))*(V2[2]-V2[0])))/4</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>gamma</t>
-  </si>
-  <si>
-    <t>Ti611_gamma</t>
-  </si>
-  <si>
     <t>Vd2</t>
   </si>
   <si>
@@ -1080,12 +1088,12 @@
     <t>FUNC OHMF;OCOMP ON</t>
   </si>
   <si>
+    <t>UNUSED HP34420A, s/n130</t>
+  </si>
+  <si>
     <t>*IDN?</t>
   </si>
   <si>
-    <t>UNUSED HP34420A, s/n130</t>
-  </si>
-  <si>
     <t>GPIB0::17::INSTR</t>
   </si>
   <si>
@@ -1107,6 +1115,9 @@
     <t>VRC10to1</t>
   </si>
   <si>
+    <t>(link to  RefStep data?)</t>
+  </si>
+  <si>
     <t>VRC100to10</t>
   </si>
   <si>
@@ -1122,12 +1133,12 @@
     <t>DCV</t>
   </si>
   <si>
+    <t>UNUSED HP3458A, s/n066</t>
+  </si>
+  <si>
     <t>ID?</t>
   </si>
   <si>
-    <t>UNUSED HP3458A, s/n066</t>
-  </si>
-  <si>
     <t>DVM: HP3458A, s/n129</t>
   </si>
   <si>
@@ -1140,9 +1151,6 @@
     <t>UNUSED HP3458A, s/n129</t>
   </si>
   <si>
-    <t>DVM: HP3458A, s/n230</t>
-  </si>
-  <si>
     <t>3458A_230_10k_cor</t>
   </si>
   <si>
@@ -1215,12 +1223,12 @@
     <t>O0=</t>
   </si>
   <si>
+    <t>UNUSED D4808</t>
+  </si>
+  <si>
     <t>X8=</t>
   </si>
   <si>
-    <t>UNUSED D4808</t>
-  </si>
-  <si>
     <t>GPIB0::4::INSTR</t>
   </si>
   <si>
@@ -1251,249 +1259,31 @@
     <t>UNUSED F5520A</t>
   </si>
   <si>
-    <t>ΔV+_av</t>
-  </si>
-  <si>
-    <t>ΔV-_av</t>
-  </si>
-  <si>
-    <t>I_nominal</t>
-  </si>
-  <si>
-    <t>Rd</t>
-  </si>
-  <si>
-    <t>Comment / Reference</t>
-  </si>
-  <si>
-    <t>Don't use for absolute temperature measurement - differences only!</t>
-  </si>
-  <si>
-    <t>Ambient conditions</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>P(mbar)</t>
-  </si>
-  <si>
-    <t>(link to  RefStep data?)</t>
-  </si>
-  <si>
-    <t>(Cal report?)</t>
-  </si>
-  <si>
-    <t>GMH: s/n627</t>
-  </si>
-  <si>
-    <t>GMH: s/n628</t>
-  </si>
-  <si>
-    <t>Test Temperature measurement function</t>
-  </si>
-  <si>
-    <t>GMH: s/n367</t>
-  </si>
-  <si>
-    <t>T_correction</t>
-  </si>
-  <si>
-    <t>Windows-assigned port to 3100N USB connector</t>
-  </si>
-  <si>
-    <t>UNUSED GMH, s/n367</t>
-  </si>
-  <si>
-    <t>P_correction</t>
-  </si>
-  <si>
-    <t>RH_correction</t>
-  </si>
-  <si>
-    <t>GMH367T_cor</t>
-  </si>
-  <si>
-    <t>GMH367P_cor</t>
-  </si>
-  <si>
-    <t>GMH367RH_cor</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>1. Units of alpha and beta are [deg C]^-1 and [def C]^-2, respectively (i.e. 1e-6*ppm/C...).</t>
-  </si>
-  <si>
-    <t>2. Units of gamma are [V]^-1 (i.e. 1e-6*ppm/V).</t>
-  </si>
-  <si>
-    <t>4. For the Hamon, the voltage coefficient is the effect as it [is/would be] measured on the complete configuration of elements;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   The series configuration has 1/10 the voltage drop per element, compared with the parallel, for the same overall ppm change in resistance.</t>
-  </si>
-  <si>
-    <t>5. Calibration dates relate to the LV measurement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   This shouldn't cause a problem as the LV and HV meaurements are interleaved and their means are not likely to differ by more than a few minutes.</t>
-  </si>
-  <si>
-    <t>3. Uncertainties in Rs propagate through to dependant Rx values through the build-up. This is evident in the increasing dof as Rx increases.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> where:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R2 = R2_0*(1+R2alpha*dT2 + R2beta*dT2**2 + R2gamma*dV2) + Rd</t>
-  </si>
-  <si>
-    <t>where:</t>
-  </si>
-  <si>
-    <t>6. Measurement equation(s):</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R1 = -(R2*(1+vrc)*V1_av*G)/( G*V2_av -Vd_av)</t>
-  </si>
-  <si>
-    <t>dT2 = T2_av - R2TRef + T_def2</t>
-  </si>
-  <si>
-    <t>dV2 = abs(abs(V2av) - R2VRef)</t>
-  </si>
-  <si>
-    <t>V2av = (V2[0]-2*V2[1]+V2[2])/4</t>
-  </si>
-  <si>
-    <t>V1av = (V1[0]-2*V1[1]+V1[2])/4</t>
-  </si>
-  <si>
-    <t>Vdav = (Vd[0]-2*Vd[1]+Vd[2])/4 + Vlin_Vd + Vdrift_Vd</t>
-  </si>
-  <si>
-    <t>( where:</t>
-  </si>
-  <si>
-    <r>
-      <t>T2_av = T2_av_gmh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-  </si>
-  <si>
-    <t>G = (Vd[3]-Vd[2] + Vlin_gain +Vdrift_gain)/(V2[3]-V2[2])</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vlin_gain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is the linearity of DVMd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vdrift_gain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is the zero-valued type-B drift of DVMd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vlin_Vd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is the linearity of DVMd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vdrift_Vd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is the zero-valued type-B drift of DVMd</t>
-    </r>
-  </si>
-  <si>
-    <t>uncertainty in Vdrift = abs(Vd[2]-(Vd[0]+((Vd[3]-Vd[2])/(V2[3]-V2[2]))*(V2[2]-V2[0])))/4</t>
-  </si>
-  <si>
-    <t>RH</t>
-  </si>
-  <si>
-    <t>COM4</t>
+    <t>18/05/2017 16:31:37</t>
+  </si>
+  <si>
+    <t>18/05/2017 16:31:43</t>
+  </si>
+  <si>
+    <t>18/05/2017 16:31:33</t>
+  </si>
+  <si>
+    <t>18/05/2017 16:32:09</t>
+  </si>
+  <si>
+    <t>18/05/2017 16:32:15</t>
+  </si>
+  <si>
+    <t>18/05/2017 16:32:05</t>
+  </si>
+  <si>
+    <t>18/05/2017 16:32:40</t>
+  </si>
+  <si>
+    <t>18/05/2017 16:32:45</t>
+  </si>
+  <si>
+    <t>18/05/2017 16:32:35</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1297,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1606,38 +1396,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1654,7 +1425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1751,11 +1522,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1779,14 +1612,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1796,25 +1626,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2160,44 +1990,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="540" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="AC51" sqref="AC51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="36" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="36" customWidth="1"/>
-    <col min="10" max="12" width="2.140625" style="36" customWidth="1"/>
-    <col min="13" max="13" width="25" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="36" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="36" customWidth="1"/>
-    <col min="16" max="16" width="25" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" style="36" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="36" customWidth="1"/>
-    <col min="23" max="27" width="9.140625" style="36" customWidth="1"/>
-    <col min="28" max="28" width="10" style="36" customWidth="1"/>
-    <col min="29" max="29" width="9" style="36" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" style="36" customWidth="1"/>
-    <col min="31" max="31" width="15" style="36" customWidth="1"/>
-    <col min="32" max="32" width="12.140625" style="36" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" style="36" customWidth="1"/>
-    <col min="35" max="35" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="41" customWidth="1"/>
+    <col min="10" max="12" width="2.140625" style="41" customWidth="1"/>
+    <col min="13" max="13" width="25" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="41" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="41" customWidth="1"/>
+    <col min="16" max="16" width="25" style="41" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="41" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="41" customWidth="1"/>
+    <col min="23" max="27" width="9.140625" style="41" customWidth="1"/>
+    <col min="28" max="28" width="10" style="41" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" style="41" customWidth="1"/>
+    <col min="31" max="31" width="15" style="41" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" style="41" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" style="41" customWidth="1"/>
+    <col min="35" max="35" width="26.5703125" style="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2205,16 +2035,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="16">
         <v>47</v>
       </c>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2233,21 +2063,21 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="M3" s="55" t="s">
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="M3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
       <c r="S3" t="s">
         <v>11</v>
       </c>
@@ -2260,11 +2090,11 @@
       <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
+      <c r="W3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" t="s">
         <v>16</v>
       </c>
@@ -2275,14 +2105,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="23" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
@@ -2315,17 +2145,17 @@
       <c r="V4">
         <v>20.92</v>
       </c>
-      <c r="W4" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="X4" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y4" s="44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="W4" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>10</v>
       </c>
@@ -2345,7 +2175,7 @@
         <v>90</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" s="11">
         <v>-1.0003009423</v>
@@ -2354,7 +2184,7 @@
         <v>7.5799663588165019E-7</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N5">
         <v>-3.0451918841999998E-4</v>
@@ -2363,7 +2193,7 @@
         <v>7.4346208143899753E-7</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="17">
         <v>10.000023067000001</v>
@@ -2384,19 +2214,18 @@
         <v>20.92</v>
       </c>
       <c r="Z5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC5" s="28" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="AC5" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE5" s="13"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="41"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF5" s="26"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>-10</v>
       </c>
@@ -2415,8 +2244,8 @@
       <c r="F6" s="8">
         <v>90</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>30</v>
+      <c r="G6" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="H6" s="11">
         <v>1.0003017303999999</v>
@@ -2425,7 +2254,7 @@
         <v>7.3423720055379114E-7</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>3.0350254677000003E-4</v>
@@ -2434,7 +2263,7 @@
         <v>5.5713280955002236E-7</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="12">
         <v>-10.000020509000001</v>
@@ -2455,19 +2284,17 @@
         <v>20.92</v>
       </c>
       <c r="Z6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC6" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD6" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="41"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF6" s="28"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>10</v>
       </c>
@@ -2486,8 +2313,8 @@
       <c r="F7" s="8">
         <v>90</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>35</v>
+      <c r="G7" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="H7" s="11">
         <v>-1.0003009775</v>
@@ -2496,7 +2323,7 @@
         <v>5.9877731899947493E-7</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>-3.0446364500999999E-4</v>
@@ -2505,7 +2332,7 @@
         <v>6.357113387158655E-7</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="12">
         <v>10.00002347</v>
@@ -2526,19 +2353,17 @@
         <v>20.91</v>
       </c>
       <c r="Z7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC7" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD7" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="41"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF7" s="28"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>10</v>
       </c>
@@ -2557,8 +2382,8 @@
       <c r="F8" s="8">
         <v>90</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>40</v>
+      <c r="G8" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="H8" s="11">
         <v>-1.0103043347</v>
@@ -2567,7 +2392,7 @@
         <v>3.1889254544372381E-7</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N8" s="10">
         <v>-9.3983150759000007E-3</v>
@@ -2576,7 +2401,7 @@
         <v>4.6224165697418939E-7</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="12">
         <v>10.000024109</v>
@@ -2597,19 +2422,17 @@
         <v>20.91</v>
       </c>
       <c r="Z8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC8" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD8" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="41"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="AC8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF8" s="28"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>10</v>
       </c>
@@ -2628,8 +2451,8 @@
       <c r="F9" s="8">
         <v>90</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>45</v>
+      <c r="G9" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="H9" s="11">
         <v>-1.0003004150000001</v>
@@ -2638,7 +2461,7 @@
         <v>7.4657484555964006E-7</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N9">
         <v>-3.0449704612E-4</v>
@@ -2647,7 +2470,7 @@
         <v>9.2625932088759127E-7</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="12">
         <v>10.000023613</v>
@@ -2668,19 +2491,17 @@
         <v>20.91</v>
       </c>
       <c r="Z9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD9" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="41"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF9" s="28"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>-10</v>
       </c>
@@ -2699,8 +2520,8 @@
       <c r="F10" s="8">
         <v>90</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>50</v>
+      <c r="G10" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="H10" s="11">
         <v>1.0003017431000001</v>
@@ -2709,7 +2530,7 @@
         <v>5.185144271240301E-7</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N10">
         <v>3.0412604709000003E-4</v>
@@ -2718,7 +2539,7 @@
         <v>7.3749261498042023E-7</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="12">
         <v>-10.000021125</v>
@@ -2739,19 +2560,17 @@
         <v>20.92</v>
       </c>
       <c r="Z10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC10" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD10" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="41"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF10" s="28"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2770,8 +2589,8 @@
       <c r="F11" s="8">
         <v>90</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>55</v>
+      <c r="G11" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="H11" s="11">
         <v>-1.0003010632</v>
@@ -2780,7 +2599,7 @@
         <v>3.5548770879843111E-7</v>
       </c>
       <c r="M11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N11">
         <v>-3.0520115826999998E-4</v>
@@ -2789,7 +2608,7 @@
         <v>5.217894838339665E-7</v>
       </c>
       <c r="P11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="12">
         <v>10.000023240000001</v>
@@ -2810,19 +2629,17 @@
         <v>20.91</v>
       </c>
       <c r="Z11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC11" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD11" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="41"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF11" s="28"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -2841,8 +2658,8 @@
       <c r="F12" s="8">
         <v>90</v>
       </c>
-      <c r="G12" s="25" t="s">
-        <v>60</v>
+      <c r="G12" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="H12" s="11">
         <v>-1.0103038602000001</v>
@@ -2851,7 +2668,7 @@
         <v>5.625048740256992E-7</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N12" s="10">
         <v>-9.3988829519000006E-3</v>
@@ -2860,7 +2677,7 @@
         <v>7.5928665982850947E-7</v>
       </c>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="12">
         <v>10.000023558000001</v>
@@ -2881,19 +2698,17 @@
         <v>20.91</v>
       </c>
       <c r="Z12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC12" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD12" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD12" t="s">
         <v>10</v>
       </c>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="41"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF12" s="28"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -2912,8 +2727,8 @@
       <c r="F13" s="8">
         <v>90</v>
       </c>
-      <c r="G13" s="25" t="s">
-        <v>64</v>
+      <c r="G13" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="H13" s="11">
         <v>-1.0003008807</v>
@@ -2922,7 +2737,7 @@
         <v>6.3549666491771739E-7</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N13">
         <v>-3.0511738654999989E-4</v>
@@ -2931,7 +2746,7 @@
         <v>6.3053697802352372E-7</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="12">
         <v>10.000023560000001</v>
@@ -2952,19 +2767,18 @@
         <v>20.92</v>
       </c>
       <c r="Z13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC13" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD13" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="41"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="AC13" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD13" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="30"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>-10</v>
       </c>
@@ -2983,8 +2797,8 @@
       <c r="F14" s="8">
         <v>90</v>
       </c>
-      <c r="G14" s="25" t="s">
-        <v>69</v>
+      <c r="G14" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="H14" s="11">
         <v>1.0003016184</v>
@@ -2993,7 +2807,7 @@
         <v>5.4756860554311688E-7</v>
       </c>
       <c r="M14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N14">
         <v>3.0430913590000002E-4</v>
@@ -3002,7 +2816,7 @@
         <v>5.2180473026271122E-7</v>
       </c>
       <c r="P14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="12">
         <v>-10.000021151</v>
@@ -3023,10 +2837,10 @@
         <v>20.92</v>
       </c>
       <c r="Z14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -3045,8 +2859,8 @@
       <c r="F15" s="8">
         <v>90</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>72</v>
+      <c r="G15" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="H15" s="11">
         <v>-1.0003006325999999</v>
@@ -3055,7 +2869,7 @@
         <v>7.0017604136032464E-7</v>
       </c>
       <c r="M15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N15">
         <v>-3.0492296447999999E-4</v>
@@ -3064,7 +2878,7 @@
         <v>7.5731093357883235E-7</v>
       </c>
       <c r="P15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="12">
         <v>10.000023547</v>
@@ -3085,10 +2899,10 @@
         <v>20.92</v>
       </c>
       <c r="Z15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -3107,8 +2921,8 @@
       <c r="F16" s="8">
         <v>90</v>
       </c>
-      <c r="G16" s="25" t="s">
-        <v>75</v>
+      <c r="G16" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="H16" s="11">
         <v>-1.010303849</v>
@@ -3117,7 +2931,7 @@
         <v>9.1065287932796764E-7</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N16" s="10">
         <v>-9.3988667592000003E-3</v>
@@ -3126,7 +2940,7 @@
         <v>6.9210108782969962E-7</v>
       </c>
       <c r="P16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="12">
         <v>10.000024298</v>
@@ -3147,7 +2961,7 @@
         <v>20.92</v>
       </c>
       <c r="Z16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -3170,7 +2984,7 @@
         <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H17" s="11">
         <v>-1.0003015235999999</v>
@@ -3179,7 +2993,7 @@
         <v>7.2686621110483559E-7</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N17">
         <v>-3.0505884931000002E-4</v>
@@ -3188,7 +3002,7 @@
         <v>7.0194923059769257E-7</v>
       </c>
       <c r="P17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="12">
         <v>10.000023888999999</v>
@@ -3209,7 +3023,7 @@
         <v>20.91</v>
       </c>
       <c r="Z17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -3231,8 +3045,8 @@
       <c r="F18" s="8">
         <v>90</v>
       </c>
-      <c r="G18" s="25" t="s">
-        <v>81</v>
+      <c r="G18" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="H18" s="11">
         <v>1.0003014786</v>
@@ -3241,7 +3055,7 @@
         <v>5.4281963446917905E-7</v>
       </c>
       <c r="M18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N18">
         <v>3.0447996242999998E-4</v>
@@ -3250,7 +3064,7 @@
         <v>5.9097154058762734E-7</v>
       </c>
       <c r="P18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="12">
         <v>-10.000020242</v>
@@ -3271,7 +3085,7 @@
         <v>20.92</v>
       </c>
       <c r="Z18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -3294,7 +3108,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H19" s="11">
         <v>-1.0003005756000001</v>
@@ -3303,7 +3117,7 @@
         <v>7.13548441079886E-7</v>
       </c>
       <c r="M19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N19">
         <v>-3.0495051743000001E-4</v>
@@ -3312,7 +3126,7 @@
         <v>7.7583739633152845E-7</v>
       </c>
       <c r="P19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="12">
         <v>10.000024202000001</v>
@@ -3333,7 +3147,7 @@
         <v>20.91</v>
       </c>
       <c r="Z19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -3355,8 +3169,8 @@
       <c r="F20" s="8">
         <v>90</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>87</v>
+      <c r="G20" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="H20" s="11">
         <v>-1.0103038239</v>
@@ -3365,7 +3179,7 @@
         <v>6.0474226829220521E-7</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N20" s="10">
         <v>-9.3983049583999997E-3</v>
@@ -3374,7 +3188,7 @@
         <v>5.5349620885136084E-7</v>
       </c>
       <c r="P20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="12">
         <v>10.000024446999999</v>
@@ -3395,7 +3209,7 @@
         <v>20.91</v>
       </c>
       <c r="Z20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -3418,7 +3232,7 @@
         <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H21" s="11">
         <v>-1.0003010532000001</v>
@@ -3427,7 +3241,7 @@
         <v>4.7051716227700369E-7</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N21">
         <v>-3.0468557529000011E-4</v>
@@ -3436,7 +3250,7 @@
         <v>6.6559272492850142E-7</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="12">
         <v>10.000023072999999</v>
@@ -3457,7 +3271,7 @@
         <v>20.91</v>
       </c>
       <c r="Z21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -3479,8 +3293,8 @@
       <c r="F22" s="8">
         <v>90</v>
       </c>
-      <c r="G22" s="25" t="s">
-        <v>93</v>
+      <c r="G22" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="H22" s="11">
         <v>1.0003019523000001</v>
@@ -3489,7 +3303,7 @@
         <v>7.8901345570740558E-7</v>
       </c>
       <c r="M22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N22">
         <v>3.0442563560000003E-4</v>
@@ -3498,7 +3312,7 @@
         <v>5.9264227499082122E-7</v>
       </c>
       <c r="P22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="12">
         <v>-10.000020631</v>
@@ -3519,7 +3333,7 @@
         <v>20.91</v>
       </c>
       <c r="Z22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -3542,7 +3356,7 @@
         <v>90</v>
       </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H23" s="11">
         <v>-1.0003009982</v>
@@ -3551,7 +3365,7 @@
         <v>6.1303376745362763E-7</v>
       </c>
       <c r="M23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N23">
         <v>-3.0477900539999998E-4</v>
@@ -3560,7 +3374,7 @@
         <v>7.6309471461281885E-7</v>
       </c>
       <c r="P23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="12">
         <v>10.000023493</v>
@@ -3581,7 +3395,7 @@
         <v>20.91</v>
       </c>
       <c r="Z23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -3603,8 +3417,8 @@
       <c r="F24" s="8">
         <v>90</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>99</v>
+      <c r="G24" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="H24" s="11">
         <v>-1.0103039235</v>
@@ -3613,7 +3427,7 @@
         <v>4.87053100009974E-7</v>
       </c>
       <c r="M24" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N24">
         <v>-9.398484954500002E-3</v>
@@ -3622,7 +3436,7 @@
         <v>6.7223843886337093E-7</v>
       </c>
       <c r="P24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="12">
         <v>10.000023782</v>
@@ -3643,7 +3457,7 @@
         <v>20.91</v>
       </c>
       <c r="Z24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -3666,7 +3480,7 @@
         <v>90</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H25">
         <v>-1.0003015239999999</v>
@@ -3675,7 +3489,7 @@
         <v>9.3525896592688897E-7</v>
       </c>
       <c r="M25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N25">
         <v>-3.0484762067999998E-4</v>
@@ -3684,7 +3498,7 @@
         <v>7.3558284164244919E-7</v>
       </c>
       <c r="P25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q25">
         <v>10.000022971</v>
@@ -3705,7 +3519,7 @@
         <v>20.91</v>
       </c>
       <c r="Z25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -3728,7 +3542,7 @@
         <v>90</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H26">
         <v>1.0003012131</v>
@@ -3737,7 +3551,7 @@
         <v>6.4054307688553444E-7</v>
       </c>
       <c r="M26" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N26">
         <v>3.0450394397000001E-4</v>
@@ -3746,7 +3560,7 @@
         <v>5.9822903459533046E-7</v>
       </c>
       <c r="P26" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q26">
         <v>-10.000021075999999</v>
@@ -3767,7 +3581,7 @@
         <v>20.91</v>
       </c>
       <c r="Z26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -3790,7 +3604,7 @@
         <v>90</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H27">
         <v>-1.0003004069999999</v>
@@ -3799,7 +3613,7 @@
         <v>8.1287036005280375E-7</v>
       </c>
       <c r="M27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N27">
         <v>-3.0469905695000002E-4</v>
@@ -3808,7 +3622,7 @@
         <v>8.3014230932357247E-7</v>
       </c>
       <c r="P27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q27">
         <v>10.000023293</v>
@@ -3829,7 +3643,7 @@
         <v>20.91</v>
       </c>
       <c r="Z27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -3852,7 +3666,7 @@
         <v>90</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H28">
         <v>-1.0103038608999999</v>
@@ -3861,7 +3675,7 @@
         <v>8.2486355101425509E-7</v>
       </c>
       <c r="M28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N28">
         <v>-9.3985903548000002E-3</v>
@@ -3870,7 +3684,7 @@
         <v>6.0388971473078722E-7</v>
       </c>
       <c r="P28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q28">
         <v>10.000023334</v>
@@ -3891,7 +3705,7 @@
         <v>20.91</v>
       </c>
       <c r="Z28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -3914,7 +3728,7 @@
         <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H29">
         <v>-1.0003009251999999</v>
@@ -3923,7 +3737,7 @@
         <v>4.452549332271818E-7</v>
       </c>
       <c r="M29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N29">
         <v>-3.0463584712000011E-4</v>
@@ -3932,7 +3746,7 @@
         <v>5.5502841223791019E-7</v>
       </c>
       <c r="P29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q29">
         <v>10.000024016999999</v>
@@ -3953,7 +3767,7 @@
         <v>20.91</v>
       </c>
       <c r="Z29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -3976,7 +3790,7 @@
         <v>90</v>
       </c>
       <c r="G30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H30">
         <v>1.0003020302000001</v>
@@ -3985,7 +3799,7 @@
         <v>8.3695052291193735E-7</v>
       </c>
       <c r="M30" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N30">
         <v>3.0437386631000001E-4</v>
@@ -3994,7 +3808,7 @@
         <v>7.2153183003415284E-7</v>
       </c>
       <c r="P30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q30">
         <v>-10.000019817</v>
@@ -4015,7 +3829,7 @@
         <v>20.91</v>
       </c>
       <c r="Z30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -4038,7 +3852,7 @@
         <v>90</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H31">
         <v>-1.0003008587</v>
@@ -4047,7 +3861,7 @@
         <v>8.4557160812349214E-7</v>
       </c>
       <c r="M31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N31">
         <v>-3.0459166463999999E-4</v>
@@ -4056,7 +3870,7 @@
         <v>3.8377209262623631E-7</v>
       </c>
       <c r="P31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q31">
         <v>10.000023917</v>
@@ -4077,7 +3891,7 @@
         <v>20.91</v>
       </c>
       <c r="Z31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -4100,7 +3914,7 @@
         <v>90</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H32">
         <v>-1.0103044137999999</v>
@@ -4109,7 +3923,7 @@
         <v>5.0489378420752024E-7</v>
       </c>
       <c r="M32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N32">
         <v>-9.3982111768999999E-3</v>
@@ -4118,7 +3932,7 @@
         <v>4.0380187619278791E-7</v>
       </c>
       <c r="P32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q32">
         <v>10.000022755</v>
@@ -4139,10 +3953,10 @@
         <v>20.9</v>
       </c>
       <c r="Z32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>10</v>
       </c>
@@ -4162,7 +3976,7 @@
         <v>90</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H33">
         <v>-1.000300816</v>
@@ -4171,7 +3985,7 @@
         <v>7.076064505716005E-7</v>
       </c>
       <c r="M33" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N33">
         <v>-3.0464299228999999E-4</v>
@@ -4180,7 +3994,7 @@
         <v>9.4841419087425999E-7</v>
       </c>
       <c r="P33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q33">
         <v>10.00002301</v>
@@ -4201,10 +4015,10 @@
         <v>20.9</v>
       </c>
       <c r="Z33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>-10</v>
       </c>
@@ -4224,7 +4038,7 @@
         <v>90</v>
       </c>
       <c r="G34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H34">
         <v>1.0003018430999999</v>
@@ -4233,7 +4047,7 @@
         <v>4.6450605783233313E-7</v>
       </c>
       <c r="M34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N34">
         <v>3.0400439026000001E-4</v>
@@ -4242,7 +4056,7 @@
         <v>3.5423240772467921E-7</v>
       </c>
       <c r="P34" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q34">
         <v>-10.000020214999999</v>
@@ -4263,10 +4077,10 @@
         <v>20.9</v>
       </c>
       <c r="Z34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>10</v>
       </c>
@@ -4286,7 +4100,7 @@
         <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H35">
         <v>-1.0003004669</v>
@@ -4295,7 +4109,7 @@
         <v>7.2058856345152462E-7</v>
       </c>
       <c r="M35" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N35">
         <v>-3.0453863689000003E-4</v>
@@ -4304,7 +4118,7 @@
         <v>3.835541152724884E-7</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>10.000023741</v>
@@ -4325,10 +4139,10 @@
         <v>20.9</v>
       </c>
       <c r="Z35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>10</v>
       </c>
@@ -4348,7 +4162,7 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H36">
         <v>-1.0103038233999999</v>
@@ -4357,7 +4171,7 @@
         <v>6.2834335973807416E-7</v>
       </c>
       <c r="M36" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N36">
         <v>-9.3983995658000006E-3</v>
@@ -4366,7 +4180,7 @@
         <v>8.412278301759309E-7</v>
       </c>
       <c r="P36" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q36">
         <v>10.000022384999999</v>
@@ -4387,10 +4201,10 @@
         <v>20.9</v>
       </c>
       <c r="Z36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>10</v>
       </c>
@@ -4410,7 +4224,7 @@
         <v>90</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H37">
         <v>-1.0003008641</v>
@@ -4419,7 +4233,7 @@
         <v>8.9769153946424363E-7</v>
       </c>
       <c r="M37" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N37">
         <v>-3.0421448952999989E-4</v>
@@ -4428,7 +4242,7 @@
         <v>7.7733995418689511E-7</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>10.000023264999999</v>
@@ -4449,10 +4263,10 @@
         <v>20.9</v>
       </c>
       <c r="Z37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>-10</v>
       </c>
@@ -4472,7 +4286,7 @@
         <v>90</v>
       </c>
       <c r="G38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H38">
         <v>1.0003015202000001</v>
@@ -4481,7 +4295,7 @@
         <v>6.9510475633076405E-7</v>
       </c>
       <c r="M38" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N38">
         <v>3.0377552598999998E-4</v>
@@ -4490,7 +4304,7 @@
         <v>7.6338341559907353E-7</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <v>-10.000020528</v>
@@ -4511,10 +4325,10 @@
         <v>20.9</v>
       </c>
       <c r="Z38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>10</v>
       </c>
@@ -4534,7 +4348,7 @@
         <v>90</v>
       </c>
       <c r="G39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H39">
         <v>-1.0003008959999999</v>
@@ -4543,7 +4357,7 @@
         <v>9.1961429114045004E-7</v>
       </c>
       <c r="M39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N39">
         <v>-3.0450454660999998E-4</v>
@@ -4552,7 +4366,7 @@
         <v>5.1131919034656663E-7</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>10.000022766000001</v>
@@ -4573,10 +4387,10 @@
         <v>20.9</v>
       </c>
       <c r="Z39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>10</v>
       </c>
@@ -4596,7 +4410,7 @@
         <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H40">
         <v>-1.0103041966999999</v>
@@ -4605,7 +4419,7 @@
         <v>8.2193877170925992E-7</v>
       </c>
       <c r="M40" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N40">
         <v>-9.3981304052999995E-3</v>
@@ -4614,7 +4428,7 @@
         <v>4.7101163357350539E-7</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>10.000023814</v>
@@ -4635,10 +4449,113 @@
         <v>20.9</v>
       </c>
       <c r="Z40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" t="s">
+        <v>9</v>
+      </c>
+      <c r="P42" t="s">
+        <v>10</v>
+      </c>
+      <c r="S42" t="s">
+        <v>11</v>
+      </c>
+      <c r="T42" t="s">
+        <v>12</v>
+      </c>
+      <c r="U42" t="s">
+        <v>13</v>
+      </c>
+      <c r="V42" t="s">
+        <v>14</v>
+      </c>
+      <c r="W42" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43" t="s">
+        <v>23</v>
+      </c>
+      <c r="P43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>22</v>
+      </c>
+      <c r="R43" t="s">
+        <v>23</v>
+      </c>
+      <c r="U43">
+        <v>20.568062037909328</v>
+      </c>
+      <c r="V43">
+        <v>20.42068832652166</v>
+      </c>
+      <c r="W43" t="s">
+        <v>24</v>
+      </c>
+      <c r="X43" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>10</v>
       </c>
@@ -4657,8 +4574,65 @@
       <c r="F44" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>156</v>
+      </c>
+      <c r="H44">
+        <v>-1.0003655982244319</v>
+      </c>
+      <c r="I44">
+        <v>8.6038392847433293E-6</v>
+      </c>
+      <c r="M44" t="s">
+        <v>157</v>
+      </c>
+      <c r="N44">
+        <v>6.1238952630665088E-7</v>
+      </c>
+      <c r="O44">
+        <v>1.176827823418383E-6</v>
+      </c>
+      <c r="P44" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q44">
+        <v>10.00000013945732</v>
+      </c>
+      <c r="R44">
+        <v>7.9829971881664283E-5</v>
+      </c>
+      <c r="S44">
+        <v>107.9857344121594</v>
+      </c>
+      <c r="T44">
+        <v>108.0075822106208</v>
+      </c>
+      <c r="U44">
+        <v>20.56607178458712</v>
+      </c>
+      <c r="V44">
+        <v>20.51754847400067</v>
+      </c>
+      <c r="W44">
+        <v>22.6</v>
+      </c>
+      <c r="X44">
+        <v>1004.7</v>
+      </c>
+      <c r="Y44">
+        <v>49.3</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC44" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD44" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>-10</v>
       </c>
@@ -4677,8 +4651,65 @@
       <c r="F45" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>350</v>
+      </c>
+      <c r="H45">
+        <v>1.000368798494631</v>
+      </c>
+      <c r="I45">
+        <v>8.743343686959469E-6</v>
+      </c>
+      <c r="M45" t="s">
+        <v>351</v>
+      </c>
+      <c r="N45">
+        <v>1.184377664124859E-7</v>
+      </c>
+      <c r="O45">
+        <v>7.0999135486384397E-7</v>
+      </c>
+      <c r="P45" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q45">
+        <v>-9.9999897301482115</v>
+      </c>
+      <c r="R45">
+        <v>6.3202167403406982E-5</v>
+      </c>
+      <c r="S45">
+        <v>107.9731693050212</v>
+      </c>
+      <c r="T45">
+        <v>108.01006157716689</v>
+      </c>
+      <c r="U45">
+        <v>20.463440504579459</v>
+      </c>
+      <c r="V45">
+        <v>20.432574259846469</v>
+      </c>
+      <c r="W45">
+        <v>22.7</v>
+      </c>
+      <c r="X45">
+        <v>1004.7</v>
+      </c>
+      <c r="Y45">
+        <v>49.1</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC45" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD45" s="47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>10</v>
       </c>
@@ -4697,8 +4728,65 @@
       <c r="F46" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>353</v>
+      </c>
+      <c r="H46">
+        <v>-1.000368867008778</v>
+      </c>
+      <c r="I46">
+        <v>8.9993342473712374E-6</v>
+      </c>
+      <c r="M46" t="s">
+        <v>354</v>
+      </c>
+      <c r="N46">
+        <v>-2.9454431755190568E-7</v>
+      </c>
+      <c r="O46">
+        <v>1.0772551273061711E-6</v>
+      </c>
+      <c r="P46" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q46">
+        <v>9.9999943339015953</v>
+      </c>
+      <c r="R46">
+        <v>1.0285995566337219E-4</v>
+      </c>
+      <c r="S46">
+        <v>108.0082461582839</v>
+      </c>
+      <c r="T46">
+        <v>108.0098706068145</v>
+      </c>
+      <c r="U46">
+        <v>20.40917489310819</v>
+      </c>
+      <c r="V46">
+        <v>20.64745766530573</v>
+      </c>
+      <c r="W46">
+        <v>22.7</v>
+      </c>
+      <c r="X46">
+        <v>1004.7</v>
+      </c>
+      <c r="Y46">
+        <v>48.8</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC46" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD46" s="47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>10</v>
       </c>
@@ -4717,10 +4805,111 @@
       <c r="F47" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
+      <c r="G47" t="s">
+        <v>356</v>
+      </c>
+      <c r="H47">
+        <v>-1.0103767764550811</v>
+      </c>
+      <c r="I47">
+        <v>1.378310367435349E-5</v>
+      </c>
+      <c r="M47" t="s">
+        <v>357</v>
+      </c>
+      <c r="N47">
+        <v>5.3233127715989698E-7</v>
+      </c>
+      <c r="O47">
+        <v>9.5065608343274616E-7</v>
+      </c>
+      <c r="P47" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q47">
+        <v>10.000058354564461</v>
+      </c>
+      <c r="R47">
+        <v>8.5086787778067136E-5</v>
+      </c>
+      <c r="S47">
+        <v>108.00140623239921</v>
+      </c>
+      <c r="T47">
+        <v>107.98988475289229</v>
+      </c>
+      <c r="U47">
+        <v>20.451802545699181</v>
+      </c>
+      <c r="V47">
+        <v>20.427240292774879</v>
+      </c>
+      <c r="W47">
+        <v>22.8</v>
+      </c>
+      <c r="X47">
+        <v>1004.7</v>
+      </c>
+      <c r="Y47">
+        <v>48.8</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC47" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD47" s="47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC48" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD48" s="47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="29:30" x14ac:dyDescent="0.25">
+      <c r="AC49" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD49" s="47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="29:30" x14ac:dyDescent="0.25">
+      <c r="AC50" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD50" s="47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="29:30" x14ac:dyDescent="0.25">
+      <c r="AC51" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD51" s="47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="29:30" x14ac:dyDescent="0.25">
+      <c r="AC52" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD52" s="49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="29:30" x14ac:dyDescent="0.25">
+      <c r="AC53" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD53" s="47" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4730,8 +4919,8 @@
     <mergeCell ref="W3:Y3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4747,32 +4936,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="0" style="41" hidden="1"/>
+    <col min="12" max="12" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="0" style="41" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B1" s="3">
         <v>28</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D1" s="4">
         <v>10</v>
@@ -4780,13 +4969,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -4794,7 +4983,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B3" s="3">
         <v>10</v>
@@ -4805,10 +4994,10 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4817,34 +5006,32 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>293</v>
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7"/>
+        <v>171</v>
+      </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M7" s="36">
-        <f>(D8+D9)/(C8+C9)</f>
+        <v>173</v>
+      </c>
+      <c r="M7">
         <v>1E-4</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C8">
         <v>100000</v>
@@ -4855,10 +5042,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C9">
         <v>10000</v>
@@ -4868,451 +5055,431 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>292</v>
+      <c r="A10" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="34">
         <v>-2.5508205729999999E-7</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="35">
         <v>-1.3576838219999999E-6</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="34">
         <v>7.7892653279999995E-8</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="35">
         <v>-1.526541932E-6</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="34">
         <v>-9.0640896509999997E-8</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="35">
         <v>-8.5264869389999995E-7</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="34">
         <v>-4.540295426E-7</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="35">
         <v>-1.151183179E-6</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="34">
         <v>-9.3347690030000001E-7</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="35">
         <v>-2.5551494170000001E-7</v>
       </c>
-      <c r="M11" s="36">
-        <f>AVERAGE(A11:A20,C11:C20,E11:E20,G11:G20,I11:I20)</f>
-        <v>-2.4256906195220004E-8</v>
-      </c>
-      <c r="N11" s="36">
-        <f>AVERAGE(B11:B20,D11:D20,F11:F20,H11:H20,J11:J20)</f>
-        <v>-1.0476677315519998E-6</v>
+      <c r="M11">
+        <v>-2.4256906195220001E-8</v>
+      </c>
+      <c r="N11">
+        <v>-1.047667731552E-6</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="A12" s="34">
         <v>-2.329783314E-7</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="35">
         <v>-8.8479890149999997E-7</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="34">
         <v>4.696283372E-7</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="35">
         <v>-1.143837057E-6</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="34">
         <v>2.3672395250000001E-7</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="35">
         <v>-9.0811889250000001E-7</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="34">
         <v>-4.6876899320000002E-7</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="35">
         <v>-1.0723838760000001E-6</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="34">
         <v>1.566664275E-7</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="35">
         <v>-1.1489325660000001E-6</v>
       </c>
-      <c r="M12" s="36">
-        <f>STDEV(A11:A20,C11:C20,E11:E20,G11:G20,I11:I20)</f>
+      <c r="M12">
         <v>3.9183422676544929E-7</v>
       </c>
-      <c r="N12" s="36">
-        <f>STDEV(B11:B20,D11:D20,F11:F20,H11:H20,J11:J20)</f>
-        <v>4.3762876697781685E-7</v>
+      <c r="N12">
+        <v>4.376287669778169E-7</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="34">
         <v>3.1379362389999998E-8</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="35">
         <v>-8.8662129070000005E-7</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="34">
         <v>-3.2810925009999999E-7</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="35">
         <v>-1.0834735659999999E-6</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="34">
         <v>-2.7551609240000001E-7</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="35">
         <v>-1.88789156E-6</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="34">
         <v>6.1374208640000002E-7</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="35">
         <v>-1.517813063E-6</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="34">
         <v>3.3648688669999999E-7</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="35">
         <v>-1.2409641850000001E-6</v>
       </c>
-      <c r="M13" s="36">
-        <f>COUNT(A11:A20,C11:C20,E11:E20,G11:G20,I11:I20) -1</f>
+      <c r="M13">
         <v>49</v>
       </c>
-      <c r="N13" s="36">
-        <f>COUNT(B11:B20,D11:D20,F11:F20,H11:H20,J11:J20) -1</f>
+      <c r="N13">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="34">
         <v>-3.4041104090000001E-7</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="35">
         <v>-4.5752566669999999E-7</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="34">
         <v>3.3334515060000001E-7</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="35">
         <v>-6.7701942210000005E-7</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="34">
         <v>-1.40149892E-7</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="35">
         <v>-1.17228996E-6</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="34">
         <v>-1.8196594780000001E-7</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="35">
         <v>-1.0005110040000001E-6</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="34">
         <v>2.7490876120000001E-7</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="35">
         <v>-5.7805519300000001E-7</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="34">
         <v>1.313237668E-7</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="35">
         <v>-3.1456741079999998E-7</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="34">
         <v>1.878475588E-7</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="35">
         <v>-1.1138342589999999E-6</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="34">
         <v>-4.661972748E-7</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="35">
         <v>-1.4291574219999999E-6</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="34">
         <v>3.2798565089999999E-7</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="35">
         <v>-1.095641381E-6</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="34">
         <v>-5.4078980540000003E-7</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="35">
         <v>-5.7904930630000002E-7</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="34">
         <v>2.6953165200000002E-7</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="35">
         <v>-1.212402181E-6</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="34">
         <v>-7.9742990500000004E-7</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="35">
         <v>-3.6480221039999999E-7</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="34">
         <v>-3.041675561E-7</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="35">
         <v>-6.067222978E-7</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="34">
         <v>3.2217802620000002E-7</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="35">
         <v>-1.266538701E-6</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="34">
         <v>4.6932641659999997E-7</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="35">
         <v>-7.616225854E-7</v>
       </c>
-      <c r="M16" s="36" t="s">
-        <v>294</v>
+      <c r="M16" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="34">
         <v>-1.575971561E-8</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="35">
         <v>-2.8322875899999997E-7</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="34">
         <v>-2.1855651280000001E-7</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="35">
         <v>-1.663007495E-6</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="34">
         <v>6.0650423680000001E-7</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="35">
         <v>-1.070228262E-6</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="34">
         <v>1.988355448E-7</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="35">
         <v>-6.1669783589999997E-7</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="34">
         <v>-7.8462624280000005E-7</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="35">
         <v>-1.3152882480000001E-6</v>
       </c>
       <c r="M17" s="17">
-        <f>(M11-N11)/(2*M7)</f>
         <v>5.1170541267838987E-3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="34">
         <v>-1.2308889670000001E-7</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="35">
         <v>-1.2378918320000001E-6</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="34">
         <v>6.4553057010000001E-7</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="35">
         <v>-2.3575592369999999E-6</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="34">
         <v>6.7141076369999996E-8</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="35">
         <v>-8.0649555399999999E-7</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="34">
         <v>-4.3256538039999999E-8</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="35">
         <v>-1.2472023610000001E-6</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="34">
         <v>2.6299945499999999E-7</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="35">
         <v>-1.659228216E-6</v>
       </c>
       <c r="M18" s="17">
-        <f>SQRT((M12/(2*M7))^2 + (N12/(2*M7))^2)</f>
-        <v>2.9370606009725174E-3</v>
+        <v>2.937060600972517E-3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="A19" s="34">
         <v>-2.046850027E-8</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="35">
         <v>-1.2238996020000001E-6</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="34">
         <v>-1.16227168E-8</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="35">
         <v>-1.6838573339999999E-6</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="34">
         <v>-2.5092242050000002E-7</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="35">
         <v>-1.207616034E-6</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="34">
         <v>-3.2334846029999998E-7</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="35">
         <v>-5.592732282E-7</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="34">
         <v>8.5401725989999993E-9</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="35">
         <v>-1.097368512E-6</v>
       </c>
       <c r="M19" s="12">
-        <f>M18^4/((M12/(2*M7))^4/M13 + (N12/(2*M7))^4/N13)</f>
         <v>96.826604214397832</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="A20" s="34">
         <v>5.0665702130000002E-7</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="35">
         <v>-9.1759749160000004E-7</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="34">
         <v>7.488898111E-7</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="35">
         <v>-1.2980028909999999E-6</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="34">
         <v>-3.6859517370000001E-7</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="35">
         <v>-1.086330224E-6</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="34">
         <v>1.6638612129999999E-8</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="35">
         <v>-1.2377025979999999E-6</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="34">
         <v>-5.4358983570000004E-7</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="35">
         <v>-2.6676433610000002E-7</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
     </row>
     <row r="180" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O180" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P180" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Q180" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="R180" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="S180" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="T180" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="197" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O197" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P197" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Q197" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="R197" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="S197" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="T197" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5324,9 +5491,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U152"/>
+  <dimension ref="A1:U145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="540" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2"/>
       <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
@@ -5334,88 +5501,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="36" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="36" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="74" style="36" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="41" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="41" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="41" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="74" style="41" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="41" customWidth="1"/>
+    <col min="17" max="21" width="0" style="41" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q1" s="47" t="s">
-        <v>314</v>
+        <v>184</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>295</v>
+        <v>191</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>192</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="O2" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q2" s="46" t="s">
-        <v>315</v>
+        <v>191</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="C3">
         <v>100.01179999999999</v>
@@ -5424,36 +5592,36 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>306</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="O3" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q3" s="46" t="s">
-        <v>316</v>
+        <v>197</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N3" t="s">
+        <v>200</v>
+      </c>
+      <c r="O3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5462,371 +5630,371 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="O4" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q4" s="46" t="s">
-        <v>321</v>
+        <v>204</v>
+      </c>
+      <c r="I4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N4" t="s">
+        <v>206</v>
+      </c>
+      <c r="O4" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="23">
+        <v>208</v>
+      </c>
+      <c r="C5" s="21">
         <v>3.9091200000000003E-3</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="J5" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="N5" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="O5" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q5" s="46" t="s">
-        <v>317</v>
+        <v>209</v>
+      </c>
+      <c r="I5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" t="s">
+        <v>210</v>
+      </c>
+      <c r="N5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O5" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="23">
+        <v>213</v>
+      </c>
+      <c r="C6" s="21">
         <v>-5.9260000000000005E-7</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I6" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="J6" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="K6" s="36">
+        <v>214</v>
+      </c>
+      <c r="I6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6">
         <v>6</v>
       </c>
-      <c r="O6" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q6" s="46" t="s">
-        <v>318</v>
+      <c r="O6" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="24">
+        <v>218</v>
+      </c>
+      <c r="C7" s="22">
         <v>1</v>
       </c>
-      <c r="I7" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="O7" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q7" s="46" t="s">
-        <v>319</v>
+      <c r="I7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="26"/>
-      <c r="I8" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q8" s="46" t="s">
-        <v>320</v>
+      <c r="G8" s="36"/>
+      <c r="I8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="23">
+        <v>195</v>
+      </c>
+      <c r="C9" s="21">
         <v>10000.200000000001</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
-        <v>192</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
+        <v>227</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
       <c r="Q9" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="23">
+        <v>203</v>
+      </c>
+      <c r="C10" s="21">
         <v>23</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F10" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="I10" t="s">
-        <v>302</v>
+        <v>160</v>
       </c>
       <c r="J10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K10" s="23">
+        <v>232</v>
+      </c>
+      <c r="K10" s="21">
         <v>-1E-3</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="21">
         <v>4.4999999999999999E-4</v>
       </c>
       <c r="M10" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="N10" t="s">
-        <v>177</v>
-      </c>
-      <c r="O10" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="R10" s="47" t="s">
-        <v>326</v>
+        <v>233</v>
+      </c>
+      <c r="O10" t="s">
+        <v>201</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="23">
+        <v>208</v>
+      </c>
+      <c r="C11" s="21">
         <v>1E-3</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>302</v>
+        <v>235</v>
+      </c>
+      <c r="I11" t="s">
+        <v>160</v>
       </c>
       <c r="J11" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K11">
         <v>5</v>
       </c>
-      <c r="O11" s="45" t="s">
-        <v>307</v>
+      <c r="O11" t="s">
+        <v>216</v>
       </c>
       <c r="R11" t="s">
-        <v>322</v>
-      </c>
-      <c r="S11" s="47" t="s">
-        <v>323</v>
+        <v>236</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="23">
+        <v>213</v>
+      </c>
+      <c r="C12" s="21">
         <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
-        <v>197</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>302</v>
+        <v>238</v>
+      </c>
+      <c r="I12" t="s">
+        <v>160</v>
       </c>
       <c r="J12" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="K12" t="s">
-        <v>184</v>
-      </c>
-      <c r="O12" s="45" t="s">
-        <v>307</v>
+        <v>239</v>
+      </c>
+      <c r="O12" t="s">
+        <v>216</v>
       </c>
       <c r="S12" t="s">
-        <v>324</v>
-      </c>
-      <c r="T12" s="47" t="s">
-        <v>327</v>
+        <v>240</v>
+      </c>
+      <c r="T12" s="37" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="24">
+        <v>218</v>
+      </c>
+      <c r="C13" s="22">
         <v>1</v>
       </c>
-      <c r="I13" s="45" t="s">
-        <v>302</v>
+      <c r="I13" t="s">
+        <v>160</v>
       </c>
       <c r="J13" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="K13" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="T13" t="s">
-        <v>332</v>
-      </c>
-      <c r="U13" s="47" t="s">
-        <v>333</v>
+        <v>243</v>
+      </c>
+      <c r="U13" s="37" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="26"/>
-      <c r="I14" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T14" s="47" t="s">
-        <v>328</v>
+      <c r="G14" s="36"/>
+      <c r="I14" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="T14" s="37" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="C15">
         <v>9999.9992600000005</v>
@@ -5838,40 +6006,40 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="I15" t="s">
-        <v>303</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>176</v>
-      </c>
-      <c r="K15" s="23">
+        <v>232</v>
+      </c>
+      <c r="K15" s="21">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="21">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="M15" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="N15" t="s">
-        <v>193</v>
-      </c>
-      <c r="O15" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="S15" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="T15" s="47"/>
+        <v>248</v>
+      </c>
+      <c r="O15" t="s">
+        <v>201</v>
+      </c>
+      <c r="S15" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="T15" s="37"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="C16" s="10">
         <v>20</v>
@@ -5880,70 +6048,70 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F16" t="s">
-        <v>200</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>303</v>
+        <v>250</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K16">
         <v>4</v>
       </c>
-      <c r="O16" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="S16" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="T16" s="47"/>
+      <c r="O16" t="s">
+        <v>216</v>
+      </c>
+      <c r="S16" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="T16" s="37"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="23">
+        <v>252</v>
+      </c>
+      <c r="C17" s="21">
         <v>5</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>303</v>
+        <v>253</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="K17" t="s">
-        <v>341</v>
-      </c>
-      <c r="O17" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="S17" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="T17" s="47"/>
+        <v>254</v>
+      </c>
+      <c r="O17" t="s">
+        <v>216</v>
+      </c>
+      <c r="S17" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="T17" s="37"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="C18">
         <v>9999.9992600000005</v>
@@ -5955,30 +6123,30 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>303</v>
+        <v>257</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="K18" t="s">
-        <v>198</v>
-      </c>
-      <c r="S18" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="T18" s="46" t="s">
-        <v>337</v>
+        <v>258</v>
+      </c>
+      <c r="S18" t="s">
+        <v>240</v>
+      </c>
+      <c r="T18" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="C19" s="10">
         <v>20</v>
@@ -5987,36 +6155,36 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="T19" s="46" t="s">
-        <v>338</v>
+        <v>261</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="T19" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -6025,97 +6193,97 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
-      <c r="S20" s="47" t="s">
-        <v>334</v>
+      <c r="S20" s="37" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="23">
+        <v>208</v>
+      </c>
+      <c r="C21" s="21">
         <v>3.4200000000000002E-7</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="21">
         <v>1.9000000000000001E-8</v>
       </c>
       <c r="E21">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
-      </c>
-      <c r="S21" s="48" t="s">
-        <v>324</v>
+        <v>267</v>
+      </c>
+      <c r="S21" t="s">
+        <v>240</v>
       </c>
       <c r="T21" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="23">
+        <v>213</v>
+      </c>
+      <c r="C22" s="21">
         <v>-2.7E-8</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="21">
         <v>5.0000000000000001E-9</v>
       </c>
       <c r="E22">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="K22" s="41" t="s">
-        <v>63</v>
+      <c r="J22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" t="s">
+        <v>66</v>
       </c>
       <c r="T22" t="s">
-        <v>336</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6124,46 +6292,46 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
-      </c>
-      <c r="I23" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I23" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K23" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
+      <c r="J23" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
       <c r="T23" t="s">
-        <v>324</v>
+        <v>240</v>
       </c>
       <c r="U23" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
-      </c>
-      <c r="C24" s="24">
+        <v>218</v>
+      </c>
+      <c r="C24" s="22">
         <v>42522</v>
       </c>
       <c r="I24" t="s">
         <v>9</v>
       </c>
       <c r="J24" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -6171,77 +6339,56 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="26"/>
+      <c r="G25" s="36"/>
       <c r="I25" t="s">
         <v>9</v>
       </c>
       <c r="J25" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
       <c r="I26" t="s">
         <v>9</v>
       </c>
       <c r="J26" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
       <c r="I27" t="s">
         <v>9</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
       <c r="I28" s="13" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K28" s="13">
         <v>2</v>
@@ -6252,168 +6399,92 @@
       <c r="O28" s="13"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="I29" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="J29" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="K29" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
+      <c r="I29" t="s">
+        <v>276</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="I30" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="J30" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="K30" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="I31" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="J31" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
+      <c r="I31" t="s">
+        <v>276</v>
+      </c>
+      <c r="J31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
       <c r="I32" t="s">
         <v>8</v>
       </c>
       <c r="J32" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="I33" s="41" t="s">
+    <row r="33" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="I34" s="41" t="s">
+      <c r="J33" t="s">
+        <v>219</v>
+      </c>
+      <c r="K33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="I35" s="26" t="s">
+      <c r="J34" t="s">
+        <v>223</v>
+      </c>
+      <c r="K34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I35" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K35" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
+      <c r="J35" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+    </row>
+    <row r="36" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J36" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -6422,22 +6493,15 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -6446,24 +6510,15 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>174</v>
-      </c>
-      <c r="N37"/>
-      <c r="O37"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -6472,24 +6527,15 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>174</v>
-      </c>
-      <c r="N38"/>
-      <c r="O38"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J39" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -6498,22 +6544,15 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J40" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -6522,22 +6561,15 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J41" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -6546,22 +6578,15 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -6570,24 +6595,15 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>174</v>
-      </c>
-      <c r="N42"/>
-      <c r="O42"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J43" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -6596,96 +6612,61 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J44" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
+    <row r="45" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J45" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="K45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" t="s">
+        <v>223</v>
+      </c>
+      <c r="K46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I47" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="36" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="I46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" t="s">
-        <v>188</v>
-      </c>
-      <c r="K46" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="I47" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="J47" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+    </row>
+    <row r="48" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="J48" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -6694,22 +6675,15 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I49" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="J49" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -6718,22 +6692,15 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="J50" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -6742,117 +6709,75 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="J51" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K51">
         <v>7</v>
       </c>
-      <c r="M51" s="19"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
+      <c r="M51" s="40"/>
+    </row>
+    <row r="52" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I52" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="J52" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="K52" t="s">
-        <v>231</v>
-      </c>
-      <c r="M52" s="19"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
+        <v>290</v>
+      </c>
+      <c r="M52" s="40"/>
+    </row>
+    <row r="53" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="J53" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="K53" t="s">
-        <v>233</v>
-      </c>
-      <c r="M53" s="19"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
+        <v>292</v>
+      </c>
+      <c r="M53" s="40"/>
+    </row>
+    <row r="54" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I54" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="J54" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="K54" t="s">
-        <v>235</v>
-      </c>
-      <c r="M54" s="19"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
+        <v>293</v>
+      </c>
+      <c r="M54" s="40"/>
+    </row>
+    <row r="55" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="J55" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K55" t="s">
-        <v>234</v>
-      </c>
-      <c r="M55" s="19"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
+        <v>294</v>
+      </c>
+      <c r="M55" s="40"/>
+    </row>
+    <row r="56" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I56" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J56" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -6861,22 +6786,15 @@
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J57" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -6885,22 +6803,15 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -6909,1872 +6820,1431 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J59" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K59">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
+    <row r="60" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J60" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="K60" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I61" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J61" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="K61" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J62" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="K62" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J63" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K63" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I64" s="13" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="K64" s="50">
+        <v>279</v>
+      </c>
+      <c r="K64" s="38">
         <v>0</v>
       </c>
-      <c r="L64" s="50">
+      <c r="L64" s="38">
         <v>0</v>
       </c>
-      <c r="M64" s="50" t="s">
-        <v>174</v>
+      <c r="M64" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="I65" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="J65" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="K65" s="51">
+    <row r="65" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>297</v>
+      </c>
+      <c r="J65" t="s">
+        <v>280</v>
+      </c>
+      <c r="K65" s="39">
         <v>-5.6799999999999998E-5</v>
       </c>
-      <c r="L65" s="51">
+      <c r="L65" s="39">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="M65" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="N65" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="O65" s="41"/>
-    </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="I66" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="J66" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="K66" s="51">
+      <c r="M65" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="N65" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="9:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>297</v>
+      </c>
+      <c r="J66" t="s">
+        <v>281</v>
+      </c>
+      <c r="K66" s="39">
         <v>-5.63E-5</v>
       </c>
-      <c r="L66" s="51">
+      <c r="L66" s="39">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M66" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="N66" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="O66" s="41"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="I67" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="J67" s="41" t="s">
+      <c r="M66" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="N66" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>297</v>
+      </c>
+      <c r="J67" t="s">
+        <v>282</v>
+      </c>
+      <c r="K67" s="40">
+        <v>0</v>
+      </c>
+      <c r="L67" s="40">
+        <v>0</v>
+      </c>
+      <c r="M67" s="40">
+        <v>7</v>
+      </c>
+      <c r="N67" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>297</v>
+      </c>
+      <c r="J68" t="s">
+        <v>283</v>
+      </c>
+      <c r="K68" s="39">
+        <v>2.2210000000000001E-7</v>
+      </c>
+      <c r="L68" s="39">
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M68" s="40">
+        <v>7</v>
+      </c>
+      <c r="N68" t="s">
+        <v>301</v>
+      </c>
+      <c r="O68" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>297</v>
+      </c>
+      <c r="J69" t="s">
+        <v>284</v>
+      </c>
+      <c r="K69" s="39">
+        <v>4.8090000000000002E-7</v>
+      </c>
+      <c r="L69" s="39">
+        <v>1.8E-7</v>
+      </c>
+      <c r="M69" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="N69" t="s">
+        <v>303</v>
+      </c>
+      <c r="O69" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="70" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>297</v>
+      </c>
+      <c r="J70" t="s">
+        <v>285</v>
+      </c>
+      <c r="K70" s="40">
+        <v>0</v>
+      </c>
+      <c r="L70" s="39">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M70" s="40">
+        <v>8</v>
+      </c>
+      <c r="N70" t="s">
+        <v>304</v>
+      </c>
+      <c r="O70" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="71" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>297</v>
+      </c>
+      <c r="J71" t="s">
+        <v>286</v>
+      </c>
+      <c r="K71" s="40">
+        <v>0</v>
+      </c>
+      <c r="L71" s="39">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M71" s="40">
+        <v>8</v>
+      </c>
+      <c r="N71" t="s">
+        <v>305</v>
+      </c>
+      <c r="O71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>297</v>
+      </c>
+      <c r="J72" t="s">
+        <v>215</v>
+      </c>
+      <c r="K72" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>297</v>
+      </c>
+      <c r="J73" t="s">
+        <v>219</v>
+      </c>
+      <c r="K73" s="40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>297</v>
+      </c>
+      <c r="J74" t="s">
+        <v>291</v>
+      </c>
+      <c r="K74" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>297</v>
+      </c>
+      <c r="J75" t="s">
         <v>223</v>
       </c>
-      <c r="K67" s="52">
+      <c r="K75" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I76" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="J76" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K76" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+    </row>
+    <row r="77" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>310</v>
+      </c>
+      <c r="J77" t="s">
+        <v>279</v>
+      </c>
+      <c r="K77" s="40">
         <v>0</v>
       </c>
-      <c r="L67" s="52">
+      <c r="L77" s="40">
         <v>0</v>
       </c>
-      <c r="M67" s="52">
+      <c r="M77" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>310</v>
+      </c>
+      <c r="J78" t="s">
+        <v>280</v>
+      </c>
+      <c r="K78" s="39">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L78" s="39">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M78" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="N78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>310</v>
+      </c>
+      <c r="J79" t="s">
+        <v>281</v>
+      </c>
+      <c r="K79" s="39">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L79" s="39">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M79" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="N79" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>310</v>
+      </c>
+      <c r="J80" t="s">
+        <v>282</v>
+      </c>
+      <c r="K80" s="40">
+        <v>0</v>
+      </c>
+      <c r="L80" s="40">
+        <v>0</v>
+      </c>
+      <c r="M80" s="40">
         <v>7</v>
       </c>
-      <c r="N67" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="O67" s="41"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="I68" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="J68" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="K68" s="51">
+      <c r="N80" t="s">
+        <v>300</v>
+      </c>
+      <c r="O80" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>310</v>
+      </c>
+      <c r="J81" t="s">
+        <v>283</v>
+      </c>
+      <c r="K81" s="39">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L68" s="51">
+      <c r="L81" s="39">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M68" s="52">
+      <c r="M81" s="40">
         <v>7</v>
       </c>
-      <c r="N68" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="O68" s="41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="I69" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="J69" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="K69" s="51">
+      <c r="N81" t="s">
+        <v>301</v>
+      </c>
+      <c r="O81" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>310</v>
+      </c>
+      <c r="J82" t="s">
+        <v>284</v>
+      </c>
+      <c r="K82" s="39">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L69" s="51">
+      <c r="L82" s="39">
         <v>1.8E-7</v>
       </c>
-      <c r="M69" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="N69" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="O69" s="41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="I70" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="J70" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="K70" s="52">
+      <c r="M82" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="N82" t="s">
+        <v>303</v>
+      </c>
+      <c r="O82" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>310</v>
+      </c>
+      <c r="J83" t="s">
+        <v>285</v>
+      </c>
+      <c r="K83" s="40">
         <v>0</v>
       </c>
-      <c r="L70" s="51">
+      <c r="L83" s="39">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M70" s="52">
+      <c r="M83" s="40">
         <v>8</v>
       </c>
-      <c r="N70" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="O70" s="41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="I71" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="J71" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="K71" s="52">
+      <c r="N83" t="s">
+        <v>304</v>
+      </c>
+      <c r="O83" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="84" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>310</v>
+      </c>
+      <c r="J84" t="s">
+        <v>286</v>
+      </c>
+      <c r="K84" s="40">
         <v>0</v>
       </c>
-      <c r="L71" s="51">
+      <c r="L84" s="39">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M71" s="52">
+      <c r="M84" s="40">
         <v>8</v>
       </c>
-      <c r="N71" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="O71" s="41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="I72" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="J72" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="K72" s="52">
-        <v>0</v>
-      </c>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="I73" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="J73" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="K73" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
-      <c r="O73" s="41"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="I74" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="J74" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="K74" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="L74" s="41"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="41"/>
-      <c r="O74" s="41"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="I75" t="s">
-        <v>238</v>
-      </c>
-      <c r="J75" t="s">
-        <v>188</v>
-      </c>
-      <c r="K75" t="s">
-        <v>249</v>
-      </c>
-      <c r="L75" s="41"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
-      <c r="O75" s="41"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="I76" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="J76" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K76" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="26"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="I77" t="s">
-        <v>250</v>
-      </c>
-      <c r="J77" t="s">
-        <v>220</v>
-      </c>
-      <c r="K77" s="19">
-        <v>0</v>
-      </c>
-      <c r="L77" s="19">
-        <v>0</v>
-      </c>
-      <c r="M77" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="I78" t="s">
-        <v>250</v>
-      </c>
-      <c r="J78" t="s">
-        <v>221</v>
-      </c>
-      <c r="K78" s="20">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L78" s="20">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M78" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="N78" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="I79" t="s">
-        <v>250</v>
-      </c>
-      <c r="J79" t="s">
-        <v>222</v>
-      </c>
-      <c r="K79" s="20">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L79" s="20">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M79" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="N79" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="I80" t="s">
-        <v>250</v>
-      </c>
-      <c r="J80" t="s">
+      <c r="N84" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>310</v>
+      </c>
+      <c r="J85" t="s">
+        <v>215</v>
+      </c>
+      <c r="K85" s="40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>310</v>
+      </c>
+      <c r="J86" t="s">
+        <v>219</v>
+      </c>
+      <c r="K86" s="40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="87" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>310</v>
+      </c>
+      <c r="J87" t="s">
+        <v>291</v>
+      </c>
+      <c r="K87" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="88" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>310</v>
+      </c>
+      <c r="J88" t="s">
         <v>223</v>
       </c>
-      <c r="K80" s="19">
-        <v>0</v>
-      </c>
-      <c r="L80" s="19">
-        <v>0</v>
-      </c>
-      <c r="M80" s="19">
-        <v>7</v>
-      </c>
-      <c r="N80" t="s">
-        <v>241</v>
-      </c>
-      <c r="O80" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="I81" t="s">
-        <v>250</v>
-      </c>
-      <c r="J81" t="s">
-        <v>224</v>
-      </c>
-      <c r="K81" s="20">
-        <v>2.2210000000000001E-7</v>
-      </c>
-      <c r="L81" s="20">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M81" s="19">
-        <v>7</v>
-      </c>
-      <c r="N81" t="s">
-        <v>242</v>
-      </c>
-      <c r="O81" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="I82" t="s">
-        <v>250</v>
-      </c>
-      <c r="J82" t="s">
-        <v>225</v>
-      </c>
-      <c r="K82" s="20">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L82" s="20">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M82" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="N82" t="s">
-        <v>243</v>
-      </c>
-      <c r="O82" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="I83" t="s">
-        <v>250</v>
-      </c>
-      <c r="J83" t="s">
-        <v>226</v>
-      </c>
-      <c r="K83" s="19">
-        <v>0</v>
-      </c>
-      <c r="L83" s="20">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M83" s="19">
-        <v>8</v>
-      </c>
-      <c r="N83" t="s">
-        <v>244</v>
-      </c>
-      <c r="O83" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="I84" t="s">
-        <v>250</v>
-      </c>
-      <c r="J84" t="s">
-        <v>227</v>
-      </c>
-      <c r="K84" s="19">
-        <v>0</v>
-      </c>
-      <c r="L84" s="20">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M84" s="19">
-        <v>8</v>
-      </c>
-      <c r="N84" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="I85" t="s">
-        <v>250</v>
-      </c>
-      <c r="J85" t="s">
-        <v>180</v>
-      </c>
-      <c r="K85" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="I86" t="s">
-        <v>250</v>
-      </c>
-      <c r="J86" t="s">
-        <v>183</v>
-      </c>
-      <c r="K86" s="19" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="I87" t="s">
-        <v>250</v>
-      </c>
-      <c r="J87" t="s">
-        <v>232</v>
-      </c>
-      <c r="K87" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="I88" t="s">
-        <v>250</v>
-      </c>
-      <c r="J88" t="s">
-        <v>188</v>
-      </c>
       <c r="K88" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="I89" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="J89" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K89" s="26" t="s">
-        <v>248</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I89" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="J89" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K89" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
       <c r="N89" s="14"/>
-      <c r="O89" s="26"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
+      <c r="O89" s="36"/>
+    </row>
+    <row r="90" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I90" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="J90" t="s">
-        <v>220</v>
-      </c>
-      <c r="K90" s="19">
+        <v>279</v>
+      </c>
+      <c r="K90" s="40">
         <v>0</v>
       </c>
-      <c r="L90" s="19">
+      <c r="L90" s="40">
         <v>0</v>
       </c>
-      <c r="M90" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
+      <c r="M90" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I91" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="J91" t="s">
-        <v>221</v>
-      </c>
-      <c r="K91" s="20">
+        <v>280</v>
+      </c>
+      <c r="K91" s="39">
         <v>-5.6799999999999998E-5</v>
       </c>
-      <c r="L91" s="20">
+      <c r="L91" s="39">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="M91" s="19" t="s">
-        <v>174</v>
+      <c r="M91" s="40" t="s">
+        <v>196</v>
       </c>
       <c r="N91" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="92" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I92" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="J92" t="s">
-        <v>222</v>
-      </c>
-      <c r="K92" s="20">
+        <v>281</v>
+      </c>
+      <c r="K92" s="39">
         <v>-5.63E-5</v>
       </c>
-      <c r="L92" s="20">
+      <c r="L92" s="39">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M92" s="19" t="s">
-        <v>174</v>
+      <c r="M92" s="40" t="s">
+        <v>196</v>
       </c>
       <c r="N92" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="93" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I93" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="J93" t="s">
+        <v>282</v>
+      </c>
+      <c r="K93" s="40">
+        <v>0</v>
+      </c>
+      <c r="L93" s="40">
+        <v>0</v>
+      </c>
+      <c r="M93" s="40">
+        <v>7</v>
+      </c>
+      <c r="N93" t="s">
+        <v>300</v>
+      </c>
+      <c r="O93" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>162</v>
+      </c>
+      <c r="J94" t="s">
+        <v>283</v>
+      </c>
+      <c r="K94" s="39">
+        <v>2.2210000000000001E-7</v>
+      </c>
+      <c r="L94" s="39">
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="M94" s="40">
+        <v>7</v>
+      </c>
+      <c r="N94" t="s">
+        <v>301</v>
+      </c>
+      <c r="O94" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>162</v>
+      </c>
+      <c r="J95" t="s">
+        <v>284</v>
+      </c>
+      <c r="K95" s="39">
+        <v>4.8090000000000002E-7</v>
+      </c>
+      <c r="L95" s="39">
+        <v>1.8E-7</v>
+      </c>
+      <c r="M95" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="N95" t="s">
+        <v>303</v>
+      </c>
+      <c r="O95" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>162</v>
+      </c>
+      <c r="J96" t="s">
+        <v>285</v>
+      </c>
+      <c r="K96" s="40">
+        <v>0</v>
+      </c>
+      <c r="L96" s="39">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M96" s="40">
+        <v>8</v>
+      </c>
+      <c r="N96" t="s">
+        <v>304</v>
+      </c>
+      <c r="O96" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>162</v>
+      </c>
+      <c r="J97" t="s">
+        <v>286</v>
+      </c>
+      <c r="K97" s="40">
+        <v>0</v>
+      </c>
+      <c r="L97" s="39">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="M97" s="40">
+        <v>8</v>
+      </c>
+      <c r="N97" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>162</v>
+      </c>
+      <c r="J98" t="s">
+        <v>215</v>
+      </c>
+      <c r="K98" s="40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>162</v>
+      </c>
+      <c r="J99" t="s">
+        <v>219</v>
+      </c>
+      <c r="K99" s="40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="100" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>162</v>
+      </c>
+      <c r="J100" t="s">
+        <v>291</v>
+      </c>
+      <c r="K100" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>162</v>
+      </c>
+      <c r="J101" t="s">
         <v>223</v>
       </c>
-      <c r="K93" s="19">
+      <c r="K101" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="102" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I102" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="J102" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K102" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="L102" s="36"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36"/>
+    </row>
+    <row r="103" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>62</v>
+      </c>
+      <c r="J103" t="s">
+        <v>279</v>
+      </c>
+      <c r="K103" s="40">
         <v>0</v>
       </c>
-      <c r="L93" s="19">
+      <c r="L103" s="40">
         <v>0</v>
       </c>
-      <c r="M93" s="19">
+      <c r="M103" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>62</v>
+      </c>
+      <c r="J104" t="s">
+        <v>280</v>
+      </c>
+      <c r="K104" s="39">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L104" s="39">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M104" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="N104" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="105" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>62</v>
+      </c>
+      <c r="J105" t="s">
+        <v>281</v>
+      </c>
+      <c r="K105" s="39">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L105" s="39">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M105" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="N105" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="106" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>62</v>
+      </c>
+      <c r="J106" t="s">
+        <v>282</v>
+      </c>
+      <c r="K106" s="40">
+        <v>0</v>
+      </c>
+      <c r="L106" s="40">
+        <v>0</v>
+      </c>
+      <c r="M106" s="40">
         <v>7</v>
       </c>
-      <c r="N93" t="s">
-        <v>241</v>
-      </c>
-      <c r="O93" s="43" t="s">
+      <c r="N106" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="I94" t="s">
-        <v>254</v>
-      </c>
-      <c r="J94" t="s">
-        <v>224</v>
-      </c>
-      <c r="K94" s="20">
+      <c r="O106" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>62</v>
+      </c>
+      <c r="J107" t="s">
+        <v>283</v>
+      </c>
+      <c r="K107" s="39">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L94" s="20">
+      <c r="L107" s="39">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M94" s="19">
+      <c r="M107" s="40">
         <v>7</v>
       </c>
-      <c r="N94" t="s">
-        <v>242</v>
-      </c>
-      <c r="O94" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="I95" t="s">
-        <v>254</v>
-      </c>
-      <c r="J95" t="s">
-        <v>225</v>
-      </c>
-      <c r="K95" s="20">
+      <c r="N107" t="s">
+        <v>301</v>
+      </c>
+      <c r="O107" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="108" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J108" t="s">
+        <v>284</v>
+      </c>
+      <c r="K108" s="39">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L95" s="20">
+      <c r="L108" s="39">
         <v>1.8E-7</v>
       </c>
-      <c r="M95" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="N95" t="s">
-        <v>243</v>
-      </c>
-      <c r="O95" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="I96" t="s">
-        <v>254</v>
-      </c>
-      <c r="J96" t="s">
-        <v>226</v>
-      </c>
-      <c r="K96" s="19">
+      <c r="M108" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="N108" t="s">
+        <v>303</v>
+      </c>
+      <c r="O108" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>62</v>
+      </c>
+      <c r="J109" t="s">
+        <v>285</v>
+      </c>
+      <c r="K109" s="40">
         <v>0</v>
       </c>
-      <c r="L96" s="20">
+      <c r="L109" s="39">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M96" s="19">
+      <c r="M109" s="40">
         <v>8</v>
       </c>
-      <c r="N96" t="s">
-        <v>244</v>
-      </c>
-      <c r="O96" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="I97" t="s">
-        <v>254</v>
-      </c>
-      <c r="J97" t="s">
-        <v>227</v>
-      </c>
-      <c r="K97" s="19">
+      <c r="N109" t="s">
+        <v>304</v>
+      </c>
+      <c r="O109" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="110" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>62</v>
+      </c>
+      <c r="J110" t="s">
+        <v>286</v>
+      </c>
+      <c r="K110" s="40">
         <v>0</v>
       </c>
-      <c r="L97" s="20">
+      <c r="L110" s="39">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M97" s="19">
+      <c r="M110" s="40">
         <v>8</v>
       </c>
-      <c r="N97" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="I98" t="s">
-        <v>254</v>
-      </c>
-      <c r="J98" t="s">
-        <v>180</v>
-      </c>
-      <c r="K98" s="19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="I99" t="s">
-        <v>254</v>
-      </c>
-      <c r="J99" t="s">
-        <v>183</v>
-      </c>
-      <c r="K99" s="19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="I100" t="s">
-        <v>254</v>
-      </c>
-      <c r="J100" t="s">
-        <v>232</v>
-      </c>
-      <c r="K100" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="I101" t="s">
-        <v>254</v>
-      </c>
-      <c r="J101" t="s">
-        <v>188</v>
-      </c>
-      <c r="K101" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="I102" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="J102" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K102" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="L102" s="26"/>
-      <c r="M102" s="26"/>
-      <c r="N102" s="26"/>
-      <c r="O102" s="26"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="I103" t="s">
-        <v>59</v>
-      </c>
-      <c r="J103" t="s">
-        <v>220</v>
-      </c>
-      <c r="K103" s="19">
-        <v>0</v>
-      </c>
-      <c r="L103" s="19">
-        <v>0</v>
-      </c>
-      <c r="M103" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="I104" t="s">
-        <v>59</v>
-      </c>
-      <c r="J104" t="s">
-        <v>221</v>
-      </c>
-      <c r="K104" s="20">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L104" s="20">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M104" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="N104" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="I105" t="s">
-        <v>59</v>
-      </c>
-      <c r="J105" t="s">
-        <v>222</v>
-      </c>
-      <c r="K105" s="20">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L105" s="20">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M105" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="N105" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="I106" t="s">
-        <v>59</v>
-      </c>
-      <c r="J106" t="s">
-        <v>223</v>
-      </c>
-      <c r="K106" s="19">
-        <v>0</v>
-      </c>
-      <c r="L106" s="19">
-        <v>0</v>
-      </c>
-      <c r="M106" s="19">
-        <v>7</v>
-      </c>
-      <c r="N106" t="s">
-        <v>241</v>
-      </c>
-      <c r="O106" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="I107" t="s">
-        <v>59</v>
-      </c>
-      <c r="J107" t="s">
-        <v>224</v>
-      </c>
-      <c r="K107" s="20">
-        <v>2.2210000000000001E-7</v>
-      </c>
-      <c r="L107" s="20">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M107" s="19">
-        <v>7</v>
-      </c>
-      <c r="N107" t="s">
-        <v>242</v>
-      </c>
-      <c r="O107" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="I108" t="s">
-        <v>59</v>
-      </c>
-      <c r="J108" t="s">
-        <v>225</v>
-      </c>
-      <c r="K108" s="20">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L108" s="20">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M108" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="N108" t="s">
-        <v>243</v>
-      </c>
-      <c r="O108" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="I109" t="s">
-        <v>59</v>
-      </c>
-      <c r="J109" t="s">
-        <v>226</v>
-      </c>
-      <c r="K109" s="19">
-        <v>0</v>
-      </c>
-      <c r="L109" s="20">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M109" s="19">
-        <v>8</v>
-      </c>
-      <c r="N109" t="s">
-        <v>244</v>
-      </c>
-      <c r="O109" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="I110" t="s">
-        <v>59</v>
-      </c>
-      <c r="J110" t="s">
-        <v>227</v>
-      </c>
-      <c r="K110" s="19">
-        <v>0</v>
-      </c>
-      <c r="L110" s="20">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M110" s="19">
-        <v>8</v>
-      </c>
       <c r="N110" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I111" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J111" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K111">
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
+    <row r="112" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I112" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J112" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="K112" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I113" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J113" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="K113" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="114" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I114" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J114" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="K114" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I115" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="J115" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K115" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="L115" s="26"/>
-      <c r="M115" s="26"/>
-      <c r="N115" s="26"/>
-      <c r="O115" s="26"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I115" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J115" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K115" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="L115" s="36"/>
+      <c r="M115" s="36"/>
+      <c r="N115" s="36"/>
+      <c r="O115" s="36"/>
+    </row>
+    <row r="116" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J116" t="s">
-        <v>220</v>
-      </c>
-      <c r="K116" s="19">
+        <v>279</v>
+      </c>
+      <c r="K116" s="40">
         <v>0</v>
       </c>
-      <c r="L116" s="19">
+      <c r="L116" s="40">
         <v>0</v>
       </c>
-      <c r="M116" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M116" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J117" t="s">
-        <v>221</v>
-      </c>
-      <c r="K117" s="20">
+        <v>280</v>
+      </c>
+      <c r="K117" s="39">
         <v>-5.6799999999999998E-5</v>
       </c>
-      <c r="L117" s="20">
+      <c r="L117" s="39">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="M117" s="19" t="s">
-        <v>174</v>
+      <c r="M117" s="40" t="s">
+        <v>196</v>
       </c>
       <c r="N117" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="118" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I118" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J118" t="s">
-        <v>222</v>
-      </c>
-      <c r="K118" s="20">
+        <v>281</v>
+      </c>
+      <c r="K118" s="39">
         <v>-5.63E-5</v>
       </c>
-      <c r="L118" s="20">
+      <c r="L118" s="39">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M118" s="19" t="s">
-        <v>174</v>
+      <c r="M118" s="40" t="s">
+        <v>196</v>
       </c>
       <c r="N118" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="119" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I119" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J119" t="s">
-        <v>223</v>
-      </c>
-      <c r="K119" s="19">
+        <v>282</v>
+      </c>
+      <c r="K119" s="40">
         <v>0</v>
       </c>
-      <c r="L119" s="19">
+      <c r="L119" s="40">
         <v>0</v>
       </c>
-      <c r="M119" s="19">
+      <c r="M119" s="40">
         <v>7</v>
       </c>
       <c r="N119" t="s">
-        <v>241</v>
-      </c>
-      <c r="O119" s="43" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O119" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="120" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I120" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J120" t="s">
-        <v>224</v>
-      </c>
-      <c r="K120" s="20">
+        <v>283</v>
+      </c>
+      <c r="K120" s="39">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L120" s="20">
+      <c r="L120" s="39">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M120" s="19">
+      <c r="M120" s="40">
         <v>7</v>
       </c>
       <c r="N120" t="s">
-        <v>242</v>
-      </c>
-      <c r="O120" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="O120" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I121" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J121" t="s">
-        <v>225</v>
-      </c>
-      <c r="K121" s="20">
+        <v>284</v>
+      </c>
+      <c r="K121" s="39">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L121" s="20">
+      <c r="L121" s="39">
         <v>1.8E-7</v>
       </c>
-      <c r="M121" s="19" t="s">
-        <v>174</v>
+      <c r="M121" s="40" t="s">
+        <v>196</v>
       </c>
       <c r="N121" t="s">
-        <v>243</v>
-      </c>
-      <c r="O121" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="O121" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I122" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J122" t="s">
-        <v>226</v>
-      </c>
-      <c r="K122" s="19">
+        <v>285</v>
+      </c>
+      <c r="K122" s="40">
         <v>0</v>
       </c>
-      <c r="L122" s="20">
+      <c r="L122" s="39">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M122" s="19">
+      <c r="M122" s="40">
         <v>8</v>
       </c>
       <c r="N122" t="s">
-        <v>244</v>
-      </c>
-      <c r="O122" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="O122" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="123" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I123" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J123" t="s">
-        <v>227</v>
-      </c>
-      <c r="K123" s="19">
+        <v>286</v>
+      </c>
+      <c r="K123" s="40">
         <v>0</v>
       </c>
-      <c r="L123" s="20">
+      <c r="L123" s="39">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M123" s="19">
+      <c r="M123" s="40">
         <v>8</v>
       </c>
       <c r="N123" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I124" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J124" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K124">
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I125" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J125" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="K125" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="126" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I126" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J126" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="K126" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I127" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J127" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="K127" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I128" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J128" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K128" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="L128" s="26"/>
-      <c r="M128" s="26"/>
-      <c r="N128" s="26"/>
-      <c r="O128" s="26"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I128" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J128" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K128" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="L128" s="36"/>
+      <c r="M128" s="36"/>
+      <c r="N128" s="36"/>
+      <c r="O128" s="36"/>
     </row>
     <row r="129" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I129" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J129" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K129">
         <v>2</v>
       </c>
-      <c r="L129" s="19"/>
-      <c r="M129" s="19"/>
+      <c r="L129" s="40"/>
+      <c r="M129" s="40"/>
     </row>
     <row r="130" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I130" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J130" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="K130" t="s">
-        <v>267</v>
-      </c>
-      <c r="L130" s="20"/>
-      <c r="M130" s="19"/>
+        <v>326</v>
+      </c>
+      <c r="L130" s="39"/>
+      <c r="M130" s="40"/>
     </row>
     <row r="131" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I131" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J131" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="K131" t="s">
-        <v>269</v>
-      </c>
-      <c r="L131" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="M131" s="22" t="s">
-        <v>271</v>
+        <v>328</v>
+      </c>
+      <c r="L131" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="M131" s="20" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I132" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J132" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="K132" t="s">
-        <v>273</v>
-      </c>
-      <c r="L132" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="M132" s="19"/>
+        <v>332</v>
+      </c>
+      <c r="L132" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="M132" s="40"/>
     </row>
     <row r="133" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I133" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J133" t="s">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="K133" t="s">
-        <v>276</v>
-      </c>
-      <c r="L133" s="20"/>
-      <c r="M133" s="19"/>
+        <v>335</v>
+      </c>
+      <c r="L133" s="39"/>
+      <c r="M133" s="40"/>
     </row>
     <row r="134" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I134" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J134" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="K134" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I135" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J135" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="K135" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
     </row>
     <row r="136" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I136" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J136" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K136" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="L136" s="26"/>
-      <c r="M136" s="26"/>
-      <c r="N136" s="26"/>
-      <c r="O136" s="26"/>
+      <c r="I136" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J136" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K136" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="L136" s="36"/>
+      <c r="M136" s="36"/>
+      <c r="N136" s="36"/>
+      <c r="O136" s="36"/>
     </row>
     <row r="137" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I137" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J137" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K137">
         <v>4</v>
       </c>
-      <c r="L137" s="19"/>
+      <c r="L137" s="40"/>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I138" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J138" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="K138" t="s">
-        <v>281</v>
-      </c>
-      <c r="L138" s="20"/>
+        <v>340</v>
+      </c>
+      <c r="L138" s="39"/>
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I139" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J139" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="K139" t="s">
-        <v>282</v>
-      </c>
-      <c r="L139" s="20"/>
+        <v>341</v>
+      </c>
+      <c r="L139" s="39"/>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I140" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J140" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="K140" t="s">
-        <v>283</v>
-      </c>
-      <c r="L140" s="21" t="s">
-        <v>284</v>
+        <v>342</v>
+      </c>
+      <c r="L140" s="19" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="141" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I141" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J141" t="s">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="K141" t="s">
-        <v>285</v>
-      </c>
-      <c r="L141" s="20"/>
+        <v>344</v>
+      </c>
+      <c r="L141" s="39"/>
     </row>
     <row r="142" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I142" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J142" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="K142" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I143" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J143" t="s">
-        <v>287</v>
+        <v>346</v>
       </c>
       <c r="K143" t="s">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="L143" t="s">
-        <v>289</v>
+        <v>348</v>
       </c>
     </row>
     <row r="144" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I144" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J144" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="K144" t="s">
-        <v>290</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I145" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J145" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K145" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="L145" s="26"/>
-      <c r="M145" s="26"/>
-      <c r="N145" s="26"/>
-      <c r="O145" s="26"/>
-    </row>
-    <row r="146" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="L146" s="41"/>
-      <c r="M146" s="41"/>
-      <c r="N146" s="41"/>
-      <c r="O146" s="41"/>
-    </row>
-    <row r="147" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="L147"/>
-      <c r="M147"/>
-      <c r="N147"/>
-      <c r="O147"/>
-    </row>
-    <row r="151" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I151"/>
-      <c r="J151"/>
-      <c r="K151"/>
-      <c r="L151"/>
-      <c r="M151"/>
-      <c r="N151"/>
-      <c r="O151"/>
-    </row>
-    <row r="152" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I152"/>
-      <c r="J152"/>
-      <c r="K152"/>
-      <c r="L152"/>
-      <c r="M152"/>
-      <c r="N152"/>
-      <c r="O152"/>
+      <c r="I145" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J145" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K145" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="L145" s="36"/>
+      <c r="M145" s="36"/>
+      <c r="N145" s="36"/>
+      <c r="O145" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8790,25 +8260,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="36" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="36" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="11.42578125" style="36" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33" style="36" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" style="36" customWidth="1"/>
-    <col min="22" max="22" width="38" style="36" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="36" customWidth="1"/>
-    <col min="25" max="25" width="19.28515625" style="36" customWidth="1"/>
+    <col min="1" max="4" width="11.42578125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="41" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="11.42578125" style="41" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" style="41" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" style="41" customWidth="1"/>
+    <col min="22" max="22" width="38" style="41" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="41" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B1" s="15">
         <v>4</v>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="361">
   <si>
     <t>start_row</t>
   </si>
@@ -950,9 +950,6 @@
   </si>
   <si>
     <t>SR104t_Tref_LV</t>
-  </si>
-  <si>
-    <t>correction</t>
   </si>
   <si>
     <t>GMH627_cor</t>
@@ -1679,6 +1676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1686,7 +1684,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2098,21 +2095,21 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="M3" s="54" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="M3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54" t="s">
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
       <c r="S3" t="s">
         <v>11</v>
       </c>
@@ -2125,11 +2122,11 @@
       <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="54" t="s">
+      <c r="W3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
       <c r="Z3" t="s">
         <v>16</v>
       </c>
@@ -5939,7 +5936,7 @@
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="540" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49:F49"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6276,7 +6273,7 @@
         <v>169</v>
       </c>
       <c r="J10" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="K10" s="21">
         <v>-1E-3</v>
@@ -6288,13 +6285,13 @@
         <v>208</v>
       </c>
       <c r="N10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O10" t="s">
         <v>213</v>
       </c>
       <c r="R10" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -6314,7 +6311,7 @@
         <v>208</v>
       </c>
       <c r="F11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I11" t="s">
         <v>169</v>
@@ -6329,10 +6326,10 @@
         <v>228</v>
       </c>
       <c r="R11" t="s">
+        <v>247</v>
+      </c>
+      <c r="S11" s="37" t="s">
         <v>248</v>
-      </c>
-      <c r="S11" s="37" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -6352,7 +6349,7 @@
         <v>208</v>
       </c>
       <c r="F12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I12" t="s">
         <v>169</v>
@@ -6361,16 +6358,16 @@
         <v>231</v>
       </c>
       <c r="K12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O12" t="s">
         <v>228</v>
       </c>
       <c r="S12" t="s">
+        <v>251</v>
+      </c>
+      <c r="T12" s="37" t="s">
         <v>252</v>
-      </c>
-      <c r="T12" s="37" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -6390,13 +6387,13 @@
         <v>235</v>
       </c>
       <c r="K13" t="s">
+        <v>253</v>
+      </c>
+      <c r="T13" t="s">
         <v>254</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" s="37" t="s">
         <v>255</v>
-      </c>
-      <c r="U13" s="37" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -6426,10 +6423,10 @@
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="T14" s="37" t="s">
         <v>257</v>
-      </c>
-      <c r="T14" s="37" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -6449,13 +6446,13 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I15" t="s">
         <v>170</v>
       </c>
       <c r="J15" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="K15" s="21">
         <v>-5.0000000000000001E-4</v>
@@ -6467,13 +6464,13 @@
         <v>208</v>
       </c>
       <c r="N15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O15" t="s">
         <v>213</v>
       </c>
       <c r="S15" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T15" s="37"/>
     </row>
@@ -6494,7 +6491,7 @@
         <v>208</v>
       </c>
       <c r="F16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I16" t="s">
         <v>170</v>
@@ -6509,7 +6506,7 @@
         <v>228</v>
       </c>
       <c r="S16" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T16" s="37"/>
     </row>
@@ -6518,7 +6515,7 @@
         <v>186</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17" s="21">
         <v>5</v>
@@ -6530,7 +6527,7 @@
         <v>208</v>
       </c>
       <c r="F17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I17" t="s">
         <v>170</v>
@@ -6539,13 +6536,13 @@
         <v>231</v>
       </c>
       <c r="K17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O17" t="s">
         <v>228</v>
       </c>
       <c r="S17" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T17" s="37"/>
     </row>
@@ -6554,7 +6551,7 @@
         <v>186</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C18">
         <v>9999.9992600000005</v>
@@ -6566,7 +6563,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I18" t="s">
         <v>170</v>
@@ -6575,13 +6572,13 @@
         <v>235</v>
       </c>
       <c r="K18" t="s">
+        <v>269</v>
+      </c>
+      <c r="S18" t="s">
+        <v>251</v>
+      </c>
+      <c r="T18" t="s">
         <v>270</v>
-      </c>
-      <c r="S18" t="s">
-        <v>252</v>
-      </c>
-      <c r="T18" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -6589,7 +6586,7 @@
         <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" s="10">
         <v>20</v>
@@ -6601,7 +6598,7 @@
         <v>208</v>
       </c>
       <c r="F19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I19" s="36" t="s">
         <v>170</v>
@@ -6616,10 +6613,10 @@
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -6627,7 +6624,7 @@
         <v>186</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -6639,7 +6636,7 @@
         <v>208</v>
       </c>
       <c r="F20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -6651,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="S20" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -6671,7 +6668,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -6680,13 +6677,13 @@
         <v>231</v>
       </c>
       <c r="K21" t="s">
+        <v>278</v>
+      </c>
+      <c r="S21" t="s">
+        <v>251</v>
+      </c>
+      <c r="T21" t="s">
         <v>279</v>
-      </c>
-      <c r="S21" t="s">
-        <v>252</v>
-      </c>
-      <c r="T21" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -6706,7 +6703,7 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -6718,7 +6715,7 @@
         <v>66</v>
       </c>
       <c r="T22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -6726,7 +6723,7 @@
         <v>186</v>
       </c>
       <c r="B23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6738,7 +6735,7 @@
         <v>208</v>
       </c>
       <c r="F23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I23" s="36" t="s">
         <v>10</v>
@@ -6747,17 +6744,17 @@
         <v>240</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L23" s="36"/>
       <c r="M23" s="36"/>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
       <c r="T23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -6801,7 +6798,7 @@
         <v>231</v>
       </c>
       <c r="K25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -6823,12 +6820,12 @@
         <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I28" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>227</v>
@@ -6843,18 +6840,18 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J29" t="s">
         <v>231</v>
       </c>
       <c r="K29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J30" t="s">
         <v>235</v>
@@ -6865,13 +6862,13 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I31" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J31" s="36" t="s">
         <v>240</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
@@ -6897,7 +6894,7 @@
         <v>231</v>
       </c>
       <c r="K33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="9:15" x14ac:dyDescent="0.25">
@@ -6919,7 +6916,7 @@
         <v>240</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
@@ -6931,7 +6928,7 @@
         <v>37</v>
       </c>
       <c r="J36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -6948,7 +6945,7 @@
         <v>37</v>
       </c>
       <c r="J37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -6965,7 +6962,7 @@
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -6982,7 +6979,7 @@
         <v>37</v>
       </c>
       <c r="J39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -6999,7 +6996,7 @@
         <v>37</v>
       </c>
       <c r="J40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -7016,7 +7013,7 @@
         <v>37</v>
       </c>
       <c r="J41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -7033,7 +7030,7 @@
         <v>37</v>
       </c>
       <c r="J42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -7050,7 +7047,7 @@
         <v>37</v>
       </c>
       <c r="J43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -7081,7 +7078,7 @@
         <v>231</v>
       </c>
       <c r="K45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="9:15" x14ac:dyDescent="0.25">
@@ -7092,7 +7089,7 @@
         <v>235</v>
       </c>
       <c r="K46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="9:15" x14ac:dyDescent="0.25">
@@ -7110,10 +7107,10 @@
     </row>
     <row r="48" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -7127,10 +7124,10 @@
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -7144,10 +7141,10 @@
     </row>
     <row r="50" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -7161,7 +7158,7 @@
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J51" t="s">
         <v>227</v>
@@ -7173,52 +7170,52 @@
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J52" t="s">
         <v>231</v>
       </c>
       <c r="K52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M52" s="40"/>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J53" t="s">
+        <v>301</v>
+      </c>
+      <c r="K53" t="s">
         <v>302</v>
-      </c>
-      <c r="K53" t="s">
-        <v>303</v>
       </c>
       <c r="M53" s="40"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J54" t="s">
         <v>235</v>
       </c>
       <c r="K54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M54" s="40"/>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I55" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J55" s="36" t="s">
         <v>240</v>
       </c>
       <c r="K55" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L55" s="36"/>
-      <c r="M55" s="55"/>
+      <c r="M55" s="52"/>
       <c r="N55" s="36"/>
       <c r="O55" s="36"/>
     </row>
@@ -7227,7 +7224,7 @@
         <v>57</v>
       </c>
       <c r="J56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -7244,7 +7241,7 @@
         <v>57</v>
       </c>
       <c r="J57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -7261,7 +7258,7 @@
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -7292,7 +7289,7 @@
         <v>231</v>
       </c>
       <c r="K60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.25">
@@ -7300,10 +7297,10 @@
         <v>57</v>
       </c>
       <c r="J61" t="s">
+        <v>301</v>
+      </c>
+      <c r="K61" t="s">
         <v>302</v>
-      </c>
-      <c r="K61" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.25">
@@ -7314,7 +7311,7 @@
         <v>235</v>
       </c>
       <c r="K62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.25">
@@ -7325,15 +7322,15 @@
         <v>240</v>
       </c>
       <c r="K63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I64" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K64" s="38">
         <v>0</v>
@@ -7349,10 +7346,10 @@
     </row>
     <row r="65" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K65" s="39">
         <v>-5.6799999999999998E-5</v>
@@ -7364,15 +7361,15 @@
         <v>208</v>
       </c>
       <c r="N65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="9:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K66" s="39">
         <v>-5.63E-5</v>
@@ -7384,15 +7381,15 @@
         <v>208</v>
       </c>
       <c r="N66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K67" s="40">
         <v>0</v>
@@ -7404,15 +7401,15 @@
         <v>7</v>
       </c>
       <c r="N67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K68" s="39">
         <v>2.2210000000000001E-7</v>
@@ -7424,18 +7421,18 @@
         <v>7</v>
       </c>
       <c r="N68" t="s">
+        <v>311</v>
+      </c>
+      <c r="O68" t="s">
         <v>312</v>
-      </c>
-      <c r="O68" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="69" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K69" s="39">
         <v>4.8090000000000002E-7</v>
@@ -7447,18 +7444,18 @@
         <v>208</v>
       </c>
       <c r="N69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K70" s="40">
         <v>0</v>
@@ -7470,18 +7467,18 @@
         <v>8</v>
       </c>
       <c r="N70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O70" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K71" s="40">
         <v>0</v>
@@ -7493,15 +7490,15 @@
         <v>8</v>
       </c>
       <c r="N71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J72" t="s">
         <v>227</v>
@@ -7512,46 +7509,46 @@
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J73" t="s">
         <v>231</v>
       </c>
       <c r="K73" s="40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J75" t="s">
         <v>235</v>
       </c>
       <c r="K75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I76" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J76" s="36" t="s">
         <v>240</v>
       </c>
       <c r="K76" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L76" s="36"/>
       <c r="M76" s="36"/>
@@ -7560,10 +7557,10 @@
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J77" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K77" s="40">
         <v>0</v>
@@ -7577,10 +7574,10 @@
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J78" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K78" s="39">
         <v>-5.6799999999999998E-5</v>
@@ -7592,15 +7589,15 @@
         <v>208</v>
       </c>
       <c r="N78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K79" s="39">
         <v>-5.63E-5</v>
@@ -7612,15 +7609,15 @@
         <v>208</v>
       </c>
       <c r="N79" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K80" s="40">
         <v>0</v>
@@ -7632,18 +7629,18 @@
         <v>7</v>
       </c>
       <c r="N80" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O80" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J81" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K81" s="39">
         <v>2.2210000000000001E-7</v>
@@ -7655,18 +7652,18 @@
         <v>7</v>
       </c>
       <c r="N81" t="s">
+        <v>311</v>
+      </c>
+      <c r="O81" t="s">
         <v>312</v>
-      </c>
-      <c r="O81" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J82" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K82" s="39">
         <v>4.8090000000000002E-7</v>
@@ -7678,18 +7675,18 @@
         <v>208</v>
       </c>
       <c r="N82" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O82" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K83" s="40">
         <v>0</v>
@@ -7701,18 +7698,18 @@
         <v>8</v>
       </c>
       <c r="N83" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O83" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J84" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K84" s="40">
         <v>0</v>
@@ -7724,12 +7721,12 @@
         <v>8</v>
       </c>
       <c r="N84" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J85" t="s">
         <v>227</v>
@@ -7740,46 +7737,46 @@
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J86" t="s">
         <v>231</v>
       </c>
       <c r="K86" s="40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K87" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J88" t="s">
         <v>235</v>
       </c>
       <c r="K88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I89" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J89" s="36" t="s">
         <v>240</v>
       </c>
       <c r="K89" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
@@ -7791,7 +7788,7 @@
         <v>171</v>
       </c>
       <c r="J90" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K90" s="40">
         <v>0</v>
@@ -7808,7 +7805,7 @@
         <v>171</v>
       </c>
       <c r="J91" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K91" s="39">
         <v>-5.6799999999999998E-5</v>
@@ -7820,7 +7817,7 @@
         <v>208</v>
       </c>
       <c r="N91" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="9:15" x14ac:dyDescent="0.25">
@@ -7828,7 +7825,7 @@
         <v>171</v>
       </c>
       <c r="J92" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K92" s="39">
         <v>-5.63E-5</v>
@@ -7840,7 +7837,7 @@
         <v>208</v>
       </c>
       <c r="N92" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="9:15" x14ac:dyDescent="0.25">
@@ -7848,7 +7845,7 @@
         <v>171</v>
       </c>
       <c r="J93" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K93" s="40">
         <v>0</v>
@@ -7860,10 +7857,10 @@
         <v>7</v>
       </c>
       <c r="N93" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O93" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.25">
@@ -7871,7 +7868,7 @@
         <v>171</v>
       </c>
       <c r="J94" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K94" s="39">
         <v>2.2210000000000001E-7</v>
@@ -7883,10 +7880,10 @@
         <v>7</v>
       </c>
       <c r="N94" t="s">
+        <v>311</v>
+      </c>
+      <c r="O94" t="s">
         <v>312</v>
-      </c>
-      <c r="O94" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.25">
@@ -7894,7 +7891,7 @@
         <v>171</v>
       </c>
       <c r="J95" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K95" s="39">
         <v>4.8090000000000002E-7</v>
@@ -7906,10 +7903,10 @@
         <v>208</v>
       </c>
       <c r="N95" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O95" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.25">
@@ -7917,7 +7914,7 @@
         <v>171</v>
       </c>
       <c r="J96" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K96" s="40">
         <v>0</v>
@@ -7929,10 +7926,10 @@
         <v>8</v>
       </c>
       <c r="N96" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O96" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="9:15" x14ac:dyDescent="0.25">
@@ -7940,7 +7937,7 @@
         <v>171</v>
       </c>
       <c r="J97" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K97" s="40">
         <v>0</v>
@@ -7952,7 +7949,7 @@
         <v>8</v>
       </c>
       <c r="N97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="98" spans="9:15" x14ac:dyDescent="0.25">
@@ -7974,7 +7971,7 @@
         <v>231</v>
       </c>
       <c r="K99" s="40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="9:15" x14ac:dyDescent="0.25">
@@ -7982,10 +7979,10 @@
         <v>171</v>
       </c>
       <c r="J100" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K100" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="9:15" x14ac:dyDescent="0.25">
@@ -7996,7 +7993,7 @@
         <v>235</v>
       </c>
       <c r="K101" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="9:15" x14ac:dyDescent="0.25">
@@ -8007,7 +8004,7 @@
         <v>240</v>
       </c>
       <c r="K102" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L102" s="36"/>
       <c r="M102" s="36"/>
@@ -8019,7 +8016,7 @@
         <v>62</v>
       </c>
       <c r="J103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K103" s="40">
         <v>0</v>
@@ -8036,7 +8033,7 @@
         <v>62</v>
       </c>
       <c r="J104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K104" s="39">
         <v>-5.6799999999999998E-5</v>
@@ -8048,7 +8045,7 @@
         <v>208</v>
       </c>
       <c r="N104" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="9:15" x14ac:dyDescent="0.25">
@@ -8056,7 +8053,7 @@
         <v>62</v>
       </c>
       <c r="J105" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K105" s="39">
         <v>-5.63E-5</v>
@@ -8068,7 +8065,7 @@
         <v>208</v>
       </c>
       <c r="N105" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="9:15" x14ac:dyDescent="0.25">
@@ -8076,7 +8073,7 @@
         <v>62</v>
       </c>
       <c r="J106" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K106" s="40">
         <v>0</v>
@@ -8088,10 +8085,10 @@
         <v>7</v>
       </c>
       <c r="N106" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O106" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="9:15" x14ac:dyDescent="0.25">
@@ -8099,7 +8096,7 @@
         <v>62</v>
       </c>
       <c r="J107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K107" s="39">
         <v>2.2210000000000001E-7</v>
@@ -8111,10 +8108,10 @@
         <v>7</v>
       </c>
       <c r="N107" t="s">
+        <v>311</v>
+      </c>
+      <c r="O107" t="s">
         <v>312</v>
-      </c>
-      <c r="O107" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="108" spans="9:15" x14ac:dyDescent="0.25">
@@ -8122,7 +8119,7 @@
         <v>62</v>
       </c>
       <c r="J108" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K108" s="39">
         <v>4.8090000000000002E-7</v>
@@ -8134,10 +8131,10 @@
         <v>208</v>
       </c>
       <c r="N108" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O108" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="9:15" x14ac:dyDescent="0.25">
@@ -8145,7 +8142,7 @@
         <v>62</v>
       </c>
       <c r="J109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K109" s="40">
         <v>0</v>
@@ -8157,10 +8154,10 @@
         <v>8</v>
       </c>
       <c r="N109" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O109" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="9:15" x14ac:dyDescent="0.25">
@@ -8168,7 +8165,7 @@
         <v>62</v>
       </c>
       <c r="J110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K110" s="40">
         <v>0</v>
@@ -8180,7 +8177,7 @@
         <v>8</v>
       </c>
       <c r="N110" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" spans="9:15" x14ac:dyDescent="0.25">
@@ -8202,7 +8199,7 @@
         <v>231</v>
       </c>
       <c r="K112" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" spans="9:15" x14ac:dyDescent="0.25">
@@ -8210,10 +8207,10 @@
         <v>62</v>
       </c>
       <c r="J113" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K113" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" spans="9:15" x14ac:dyDescent="0.25">
@@ -8224,7 +8221,7 @@
         <v>235</v>
       </c>
       <c r="K114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="9:15" x14ac:dyDescent="0.25">
@@ -8235,7 +8232,7 @@
         <v>240</v>
       </c>
       <c r="K115" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L115" s="36"/>
       <c r="M115" s="36"/>
@@ -8247,7 +8244,7 @@
         <v>71</v>
       </c>
       <c r="J116" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K116" s="40">
         <v>0</v>
@@ -8264,7 +8261,7 @@
         <v>71</v>
       </c>
       <c r="J117" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K117" s="39">
         <v>-5.6799999999999998E-5</v>
@@ -8276,7 +8273,7 @@
         <v>208</v>
       </c>
       <c r="N117" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118" spans="9:15" x14ac:dyDescent="0.25">
@@ -8284,7 +8281,7 @@
         <v>71</v>
       </c>
       <c r="J118" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K118" s="39">
         <v>-5.63E-5</v>
@@ -8296,7 +8293,7 @@
         <v>208</v>
       </c>
       <c r="N118" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119" spans="9:15" x14ac:dyDescent="0.25">
@@ -8304,7 +8301,7 @@
         <v>71</v>
       </c>
       <c r="J119" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K119" s="40">
         <v>0</v>
@@ -8316,10 +8313,10 @@
         <v>7</v>
       </c>
       <c r="N119" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O119" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="9:15" x14ac:dyDescent="0.25">
@@ -8327,7 +8324,7 @@
         <v>71</v>
       </c>
       <c r="J120" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K120" s="39">
         <v>2.2210000000000001E-7</v>
@@ -8339,10 +8336,10 @@
         <v>7</v>
       </c>
       <c r="N120" t="s">
+        <v>311</v>
+      </c>
+      <c r="O120" t="s">
         <v>312</v>
-      </c>
-      <c r="O120" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="121" spans="9:15" x14ac:dyDescent="0.25">
@@ -8350,7 +8347,7 @@
         <v>71</v>
       </c>
       <c r="J121" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K121" s="39">
         <v>4.8090000000000002E-7</v>
@@ -8362,10 +8359,10 @@
         <v>208</v>
       </c>
       <c r="N121" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O121" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="9:15" x14ac:dyDescent="0.25">
@@ -8373,7 +8370,7 @@
         <v>71</v>
       </c>
       <c r="J122" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K122" s="40">
         <v>0</v>
@@ -8385,10 +8382,10 @@
         <v>8</v>
       </c>
       <c r="N122" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O122" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="9:15" x14ac:dyDescent="0.25">
@@ -8396,7 +8393,7 @@
         <v>71</v>
       </c>
       <c r="J123" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K123" s="40">
         <v>0</v>
@@ -8408,7 +8405,7 @@
         <v>8</v>
       </c>
       <c r="N123" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" spans="9:15" x14ac:dyDescent="0.25">
@@ -8430,7 +8427,7 @@
         <v>231</v>
       </c>
       <c r="K125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="126" spans="9:15" x14ac:dyDescent="0.25">
@@ -8438,10 +8435,10 @@
         <v>71</v>
       </c>
       <c r="J126" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K126" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="127" spans="9:15" x14ac:dyDescent="0.25">
@@ -8452,7 +8449,7 @@
         <v>235</v>
       </c>
       <c r="K127" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="128" spans="9:15" x14ac:dyDescent="0.25">
@@ -8463,7 +8460,7 @@
         <v>240</v>
       </c>
       <c r="K128" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L128" s="36"/>
       <c r="M128" s="36"/>
@@ -8491,7 +8488,7 @@
         <v>231</v>
       </c>
       <c r="K130" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L130" s="39"/>
       <c r="M130" s="40"/>
@@ -8501,16 +8498,16 @@
         <v>42</v>
       </c>
       <c r="J131" t="s">
+        <v>337</v>
+      </c>
+      <c r="K131" t="s">
         <v>338</v>
       </c>
-      <c r="K131" t="s">
+      <c r="L131" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="L131" s="19" t="s">
+      <c r="M131" s="20" t="s">
         <v>340</v>
-      </c>
-      <c r="M131" s="20" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.25">
@@ -8518,13 +8515,13 @@
         <v>42</v>
       </c>
       <c r="J132" t="s">
+        <v>341</v>
+      </c>
+      <c r="K132" t="s">
         <v>342</v>
       </c>
-      <c r="K132" t="s">
+      <c r="L132" s="19" t="s">
         <v>343</v>
-      </c>
-      <c r="L132" s="19" t="s">
-        <v>344</v>
       </c>
       <c r="M132" s="40"/>
     </row>
@@ -8533,10 +8530,10 @@
         <v>42</v>
       </c>
       <c r="J133" t="s">
+        <v>344</v>
+      </c>
+      <c r="K133" t="s">
         <v>345</v>
-      </c>
-      <c r="K133" t="s">
-        <v>346</v>
       </c>
       <c r="L133" s="39"/>
       <c r="M133" s="40"/>
@@ -8546,10 +8543,10 @@
         <v>42</v>
       </c>
       <c r="J134" t="s">
+        <v>346</v>
+      </c>
+      <c r="K134" t="s">
         <v>347</v>
-      </c>
-      <c r="K134" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.25">
@@ -8560,7 +8557,7 @@
         <v>235</v>
       </c>
       <c r="K135" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="136" spans="9:15" x14ac:dyDescent="0.25">
@@ -8571,7 +8568,7 @@
         <v>240</v>
       </c>
       <c r="K136" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L136" s="36"/>
       <c r="M136" s="36"/>
@@ -8598,7 +8595,7 @@
         <v>231</v>
       </c>
       <c r="K138" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L138" s="39"/>
     </row>
@@ -8607,10 +8604,10 @@
         <v>32</v>
       </c>
       <c r="J139" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K139" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L139" s="39"/>
     </row>
@@ -8619,13 +8616,13 @@
         <v>32</v>
       </c>
       <c r="J140" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K140" t="s">
+        <v>352</v>
+      </c>
+      <c r="L140" s="19" t="s">
         <v>353</v>
-      </c>
-      <c r="L140" s="19" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="141" spans="9:15" x14ac:dyDescent="0.25">
@@ -8633,10 +8630,10 @@
         <v>32</v>
       </c>
       <c r="J141" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K141" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L141" s="39"/>
     </row>
@@ -8645,10 +8642,10 @@
         <v>32</v>
       </c>
       <c r="J142" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K142" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="143" spans="9:15" x14ac:dyDescent="0.25">
@@ -8656,13 +8653,13 @@
         <v>32</v>
       </c>
       <c r="J143" t="s">
+        <v>356</v>
+      </c>
+      <c r="K143" t="s">
         <v>357</v>
       </c>
-      <c r="K143" t="s">
+      <c r="L143" t="s">
         <v>358</v>
-      </c>
-      <c r="L143" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="144" spans="9:15" x14ac:dyDescent="0.25">
@@ -8673,7 +8670,7 @@
         <v>235</v>
       </c>
       <c r="K144" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="145" spans="9:15" x14ac:dyDescent="0.25">
@@ -8684,7 +8681,7 @@
         <v>240</v>
       </c>
       <c r="K145" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L145" s="36"/>
       <c r="M145" s="36"/>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
   <si>
     <t>start_row</t>
   </si>
@@ -624,34 +624,31 @@
     <t>R1: TestR1 1G monitored by GMH: s/n627. R2: TestR2 100M monitored by GMH: s/n628</t>
   </si>
   <si>
-    <t>18/05/2017 16:58:09</t>
-  </si>
-  <si>
-    <t>18/05/2017 16:58:14</t>
-  </si>
-  <si>
-    <t>18/05/2017 16:58:04</t>
-  </si>
-  <si>
-    <t>R1: CHANGE_THIS! 1G monitored by GMH: s/n627. R2: CHANGE_THIS! 1M monitored by GMH: s/n628</t>
-  </si>
-  <si>
-    <t>18/05/2017 16:58:40</t>
-  </si>
-  <si>
-    <t>18/05/2017 16:58:46</t>
-  </si>
-  <si>
-    <t>18/05/2017 16:58:36</t>
-  </si>
-  <si>
-    <t>18/05/2017 16:59:11</t>
-  </si>
-  <si>
-    <t>18/05/2017 16:59:16</t>
-  </si>
-  <si>
-    <t>18/05/2017 16:59:06</t>
+    <t>25/05/2017 14:38:05</t>
+  </si>
+  <si>
+    <t>25/05/2017 14:38:11</t>
+  </si>
+  <si>
+    <t>25/05/2017 14:38:01</t>
+  </si>
+  <si>
+    <t>25/05/2017 14:38:39</t>
+  </si>
+  <si>
+    <t>25/05/2017 14:38:45</t>
+  </si>
+  <si>
+    <t>25/05/2017 14:38:35</t>
+  </si>
+  <si>
+    <t>25/05/2017 14:39:12</t>
+  </si>
+  <si>
+    <t>25/05/2017 14:39:17</t>
+  </si>
+  <si>
+    <t>25/05/2017 14:39:07</t>
   </si>
   <si>
     <t>GMH: s/n627</t>
@@ -723,16 +720,13 @@
     <t>Rd</t>
   </si>
   <si>
-    <t>HRBC.v0.4 CHANGE_THIS! 1G:CHANGE_THIS! 1M 18/05/2017 16:57:02</t>
-  </si>
-  <si>
-    <t>18/05/2017 17:01:29</t>
-  </si>
-  <si>
-    <t>CHANGE_THIS! 1G</t>
-  </si>
-  <si>
-    <t>CHANGE_THIS! 1M</t>
+    <t>25/05/2017 14:40:22</t>
+  </si>
+  <si>
+    <t>TestR1 1G</t>
+  </si>
+  <si>
+    <t>TestR2 100M</t>
   </si>
   <si>
     <t>Resistor Info:</t>
@@ -1231,33 +1225,6 @@
   </si>
   <si>
     <t>UNUSED F5520A</t>
-  </si>
-  <si>
-    <t>25/05/2017 14:38:05</t>
-  </si>
-  <si>
-    <t>25/05/2017 14:38:11</t>
-  </si>
-  <si>
-    <t>25/05/2017 14:38:01</t>
-  </si>
-  <si>
-    <t>25/05/2017 14:38:39</t>
-  </si>
-  <si>
-    <t>25/05/2017 14:38:45</t>
-  </si>
-  <si>
-    <t>25/05/2017 14:38:35</t>
-  </si>
-  <si>
-    <t>25/05/2017 14:39:12</t>
-  </si>
-  <si>
-    <t>25/05/2017 14:39:17</t>
-  </si>
-  <si>
-    <t>25/05/2017 14:39:07</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1238,7 @@
     <numFmt formatCode="0.00000" numFmtId="167"/>
     <numFmt formatCode="0.0000" numFmtId="168"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1401,6 +1368,18 @@
       <family val="2"/>
       <b val="1"/>
       <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="00FF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="000000FF"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -1623,7 +1602,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0"/>
@@ -1698,6 +1677,8 @@
     <xf borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="20" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="21" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4695,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>363</v>
+        <v>160</v>
       </c>
       <c r="H45" t="n">
         <v>1.000375572074</v>
@@ -4704,7 +4685,7 @@
         <v>1.142601011611787e-05</v>
       </c>
       <c r="M45" t="s">
-        <v>364</v>
+        <v>161</v>
       </c>
       <c r="N45" t="n">
         <v>-5.779654168612317e-07</v>
@@ -4713,7 +4694,7 @@
         <v>1.18572366257827e-06</v>
       </c>
       <c r="P45" t="s">
-        <v>365</v>
+        <v>162</v>
       </c>
       <c r="Q45" t="n">
         <v>-9.999991826104967</v>
@@ -4772,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>366</v>
+        <v>163</v>
       </c>
       <c r="H46" t="n">
         <v>-1.000368184232376</v>
@@ -4781,7 +4762,7 @@
         <v>7.838164654959872e-06</v>
       </c>
       <c r="M46" t="s">
-        <v>367</v>
+        <v>164</v>
       </c>
       <c r="N46" t="n">
         <v>2.728296693586928e-08</v>
@@ -4790,7 +4771,7 @@
         <v>8.9845151580551e-07</v>
       </c>
       <c r="P46" t="s">
-        <v>368</v>
+        <v>165</v>
       </c>
       <c r="Q46" t="n">
         <v>10.00002011031934</v>
@@ -4849,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>369</v>
+        <v>166</v>
       </c>
       <c r="H47" t="n">
         <v>-1.010370466552908</v>
@@ -4858,7 +4839,7 @@
         <v>1.081586397589585e-05</v>
       </c>
       <c r="M47" t="s">
-        <v>370</v>
+        <v>167</v>
       </c>
       <c r="N47" t="n">
         <v>-2.728360361729995e-07</v>
@@ -4867,7 +4848,7 @@
         <v>6.574043515367278e-07</v>
       </c>
       <c r="P47" t="s">
-        <v>371</v>
+        <v>168</v>
       </c>
       <c r="Q47" t="n">
         <v>9.999961668555143</v>
@@ -4903,7 +4884,7 @@
         <v>46</v>
       </c>
       <c s="61" r="AD47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row s="55" r="48" spans="1:35">
@@ -4911,7 +4892,7 @@
         <v>51</v>
       </c>
       <c s="61" r="AD48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row s="55" r="49" spans="1:35">
@@ -4927,15 +4908,15 @@
         <v>61</v>
       </c>
       <c s="61" r="AD50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row s="55" r="51" spans="1:35">
       <c s="60" r="AC51" t="s">
+        <v>172</v>
+      </c>
+      <c s="61" r="AD51" t="s">
         <v>173</v>
-      </c>
-      <c s="61" r="AD51" t="s">
-        <v>174</v>
       </c>
     </row>
     <row s="55" r="52" spans="1:35">
@@ -4993,27 +4974,27 @@
     <col bestFit="1" customWidth="1" max="8" min="8" style="55" width="14.7109375"/>
     <col bestFit="1" customWidth="1" max="9" min="9" style="55" width="15.42578125"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="55" width="14.7109375"/>
-    <col customWidth="1" hidden="1" max="11" min="11" style="55"/>
+    <col hidden="1" max="11" min="11" style="55"/>
     <col bestFit="1" customWidth="1" max="12" min="12" style="55" width="15.42578125"/>
     <col bestFit="1" customWidth="1" max="13" min="13" style="55" width="14.7109375"/>
     <col bestFit="1" customWidth="1" max="14" min="14" style="55" width="15.42578125"/>
-    <col customWidth="1" hidden="1" max="20" min="15" style="55"/>
-    <col customWidth="1" hidden="1" max="20" min="15" style="55"/>
-    <col customWidth="1" hidden="1" max="20" min="15" style="55"/>
-    <col customWidth="1" hidden="1" max="20" min="15" style="55"/>
-    <col customWidth="1" hidden="1" max="20" min="15" style="55"/>
-    <col customWidth="1" hidden="1" max="20" min="15" style="55"/>
+    <col hidden="1" max="20" min="15" style="55"/>
+    <col hidden="1" max="20" min="15" style="55"/>
+    <col hidden="1" max="20" min="15" style="55"/>
+    <col hidden="1" max="20" min="15" style="55"/>
+    <col hidden="1" max="20" min="15" style="55"/>
+    <col hidden="1" max="20" min="15" style="55"/>
   </cols>
   <sheetData>
     <row s="55" r="1" spans="1:20">
       <c s="5" r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c s="3" r="B1" t="n">
+        <v>45</v>
+      </c>
+      <c s="6" r="C1" t="s">
         <v>175</v>
-      </c>
-      <c s="3" r="B1" t="n">
-        <v>28</v>
-      </c>
-      <c s="6" r="C1" t="s">
-        <v>176</v>
       </c>
       <c s="4" r="D1" t="n">
         <v>10</v>
@@ -5021,13 +5002,13 @@
     </row>
     <row s="55" r="2" spans="1:20">
       <c s="5" r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c s="3" r="B2" t="n">
         <v>10</v>
       </c>
       <c s="6" r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c s="4" r="D2" t="n">
         <v>1</v>
@@ -5035,7 +5016,7 @@
     </row>
     <row s="55" r="3" spans="1:20">
       <c s="5" r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c s="3" r="B3" t="n">
         <v>10</v>
@@ -5061,18 +5042,18 @@
         <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row s="55" r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" t="s">
         <v>181</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>182</v>
-      </c>
-      <c r="D7" t="s">
-        <v>183</v>
       </c>
       <c r="M7" t="n">
         <v>0.0001</v>
@@ -5080,10 +5061,10 @@
     </row>
     <row s="55" r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
         <v>184</v>
-      </c>
-      <c r="B8" t="s">
-        <v>185</v>
       </c>
       <c r="C8" t="n">
         <v>100000</v>
@@ -5094,10 +5075,10 @@
     </row>
     <row s="55" r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" t="s">
         <v>186</v>
-      </c>
-      <c r="B9" t="s">
-        <v>187</v>
       </c>
       <c r="C9" t="n">
         <v>10000</v>
@@ -5108,40 +5089,40 @@
     </row>
     <row s="55" r="10" spans="1:20">
       <c s="34" r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c s="35" r="B10" t="s">
         <v>188</v>
       </c>
-      <c s="35" r="B10" t="s">
+      <c s="34" r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c s="35" r="D10" t="s">
+        <v>188</v>
+      </c>
+      <c s="34" r="E10" t="s">
+        <v>187</v>
+      </c>
+      <c s="35" r="F10" t="s">
+        <v>188</v>
+      </c>
+      <c s="34" r="G10" t="s">
+        <v>187</v>
+      </c>
+      <c s="35" r="H10" t="s">
+        <v>188</v>
+      </c>
+      <c s="34" r="I10" t="s">
+        <v>187</v>
+      </c>
+      <c s="35" r="J10" t="s">
+        <v>188</v>
+      </c>
+      <c s="31" r="M10" t="s">
         <v>189</v>
       </c>
-      <c s="34" r="C10" t="s">
-        <v>188</v>
-      </c>
-      <c s="35" r="D10" t="s">
-        <v>189</v>
-      </c>
-      <c s="34" r="E10" t="s">
-        <v>188</v>
-      </c>
-      <c s="35" r="F10" t="s">
-        <v>189</v>
-      </c>
-      <c s="34" r="G10" t="s">
-        <v>188</v>
-      </c>
-      <c s="35" r="H10" t="s">
-        <v>189</v>
-      </c>
-      <c s="34" r="I10" t="s">
-        <v>188</v>
-      </c>
-      <c s="35" r="J10" t="s">
-        <v>189</v>
-      </c>
-      <c s="31" r="M10" t="s">
+      <c s="32" r="N10" t="s">
         <v>190</v>
-      </c>
-      <c s="32" r="N10" t="s">
-        <v>191</v>
       </c>
     </row>
     <row s="55" r="11" spans="1:20">
@@ -5354,7 +5335,7 @@
         <v>-7.616225854e-07</v>
       </c>
       <c r="M16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row s="55" r="17" spans="1:20">
@@ -5495,11 +5476,11 @@
       </c>
     </row>
     <row s="55" r="22" spans="1:20">
-      <c s="43" r="A22" t="s">
+      <c s="57" r="A22" t="s">
         <v>19</v>
       </c>
-      <c s="43" r="B22" t="s">
-        <v>193</v>
+      <c s="57" r="B22" t="s">
+        <v>154</v>
       </c>
     </row>
     <row s="55" r="23" spans="1:20">
@@ -5507,21 +5488,22 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row s="55" r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>194</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B24" t="s"/>
       <c r="C24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" t="s">
         <v>182</v>
-      </c>
-      <c r="D24" t="s">
-        <v>183</v>
       </c>
       <c r="M24" t="n">
         <v>1.098901098901099e-08</v>
@@ -5529,10 +5511,10 @@
     </row>
     <row s="55" r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" t="n">
         <v>1000000000</v>
@@ -5543,86 +5525,86 @@
     </row>
     <row s="55" r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C26" t="n">
-        <v>1000000</v>
+        <v>100000000</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
     </row>
     <row s="55" r="27" spans="1:20">
-      <c s="50" r="A27" t="s">
+      <c s="64" r="A27" t="s">
+        <v>187</v>
+      </c>
+      <c s="65" r="B27" t="s">
         <v>188</v>
       </c>
-      <c s="51" r="B27" t="s">
+      <c s="64" r="C27" t="s">
+        <v>187</v>
+      </c>
+      <c s="65" r="D27" t="s">
+        <v>188</v>
+      </c>
+      <c s="64" r="E27" t="s">
+        <v>187</v>
+      </c>
+      <c s="65" r="F27" t="s">
+        <v>188</v>
+      </c>
+      <c s="64" r="G27" t="s">
+        <v>187</v>
+      </c>
+      <c s="65" r="H27" t="s">
+        <v>188</v>
+      </c>
+      <c s="64" r="I27" t="s">
+        <v>187</v>
+      </c>
+      <c s="65" r="J27" t="s">
+        <v>188</v>
+      </c>
+      <c s="31" r="M27" t="s">
         <v>189</v>
       </c>
-      <c s="50" r="C27" t="s">
-        <v>188</v>
-      </c>
-      <c s="51" r="D27" t="s">
-        <v>189</v>
-      </c>
-      <c s="50" r="E27" t="s">
-        <v>188</v>
-      </c>
-      <c s="51" r="F27" t="s">
-        <v>189</v>
-      </c>
-      <c s="50" r="G27" t="s">
-        <v>188</v>
-      </c>
-      <c s="51" r="H27" t="s">
-        <v>189</v>
-      </c>
-      <c s="50" r="I27" t="s">
-        <v>188</v>
-      </c>
-      <c s="51" r="J27" t="s">
-        <v>189</v>
-      </c>
-      <c s="31" r="M27" t="s">
+      <c s="32" r="N27" t="s">
         <v>190</v>
       </c>
-      <c s="32" r="N27" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row s="55" r="28" spans="1:20">
-      <c s="50" r="A28" t="n">
-        <v>1.104339364600259e-05</v>
-      </c>
-      <c s="51" r="B28" t="n">
-        <v>-1.102052070415042e-05</v>
-      </c>
-      <c s="50" r="C28" t="n">
-        <v>1.112083556749776e-05</v>
-      </c>
-      <c s="51" r="D28" t="n">
-        <v>-1.100499099685229e-05</v>
-      </c>
-      <c s="50" r="E28" t="n">
-        <v>1.088810912802895e-05</v>
-      </c>
-      <c s="51" r="F28" t="n">
-        <v>-1.112776110868055e-05</v>
-      </c>
-      <c s="50" r="G28" t="n">
-        <v>1.11032541211641e-05</v>
-      </c>
-      <c s="51" r="H28" t="n">
-        <v>-1.086542222990888e-05</v>
-      </c>
-      <c s="50" r="I28" t="n">
-        <v>1.106458368829284e-05</v>
-      </c>
-      <c s="51" r="J28" t="n">
-        <v>-1.076520410473305e-05</v>
+      <c s="64" r="A28" t="n">
+        <v>1.111128859286232e-05</v>
+      </c>
+      <c s="65" r="B28" t="n">
+        <v>-1.082116919870992e-05</v>
+      </c>
+      <c s="64" r="C28" t="n">
+        <v>1.098525836429284e-05</v>
+      </c>
+      <c s="65" r="D28" t="n">
+        <v>-1.09035139525499e-05</v>
+      </c>
+      <c s="64" r="E28" t="n">
+        <v>1.101326724166088e-05</v>
+      </c>
+      <c s="65" r="F28" t="n">
+        <v>-1.105174063593678e-05</v>
+      </c>
+      <c s="64" r="G28" t="n">
+        <v>1.104213279602983e-05</v>
+      </c>
+      <c s="65" r="H28" t="n">
+        <v>-1.093497780098531e-05</v>
+      </c>
+      <c s="64" r="I28" t="n">
+        <v>1.102514660325083e-05</v>
+      </c>
+      <c s="65" r="J28" t="n">
+        <v>-1.075079247191027e-05</v>
       </c>
       <c r="M28" t="n">
         <v>-2.425690619522e-08</v>
@@ -5632,35 +5614,35 @@
       </c>
     </row>
     <row s="55" r="29" spans="1:20">
-      <c s="50" r="A29" t="n">
-        <v>1.101994097989272e-05</v>
-      </c>
-      <c s="51" r="B29" t="n">
-        <v>-1.111237827202198e-05</v>
-      </c>
-      <c s="50" r="C29" t="n">
-        <v>1.10985765161526e-05</v>
-      </c>
-      <c s="51" r="D29" t="n">
-        <v>-1.081162580367737e-05</v>
-      </c>
-      <c s="50" r="E29" t="n">
-        <v>1.116652664629528e-05</v>
-      </c>
-      <c s="51" r="F29" t="n">
-        <v>-1.112561901581021e-05</v>
-      </c>
-      <c s="50" r="G29" t="n">
-        <v>1.082587786046952e-05</v>
-      </c>
-      <c s="51" r="H29" t="n">
-        <v>-1.088118491272897e-05</v>
-      </c>
-      <c s="50" r="I29" t="n">
-        <v>1.101428126165593e-05</v>
-      </c>
-      <c s="51" r="J29" t="n">
-        <v>-1.095549976758487e-05</v>
+      <c s="64" r="A29" t="n">
+        <v>1.090022827529212e-05</v>
+      </c>
+      <c s="65" r="B29" t="n">
+        <v>-1.101370041098007e-05</v>
+      </c>
+      <c s="64" r="C29" t="n">
+        <v>1.093030989956194e-05</v>
+      </c>
+      <c s="65" r="D29" t="n">
+        <v>-1.084989685587355e-05</v>
+      </c>
+      <c s="64" r="E29" t="n">
+        <v>1.092396552237727e-05</v>
+      </c>
+      <c s="65" r="F29" t="n">
+        <v>-1.104211784586657e-05</v>
+      </c>
+      <c s="64" r="G29" t="n">
+        <v>1.080413856292303e-05</v>
+      </c>
+      <c s="65" r="H29" t="n">
+        <v>-1.10368989504856e-05</v>
+      </c>
+      <c s="64" r="I29" t="n">
+        <v>1.097551790063789e-05</v>
+      </c>
+      <c s="65" r="J29" t="n">
+        <v>-1.085137443174699e-05</v>
       </c>
       <c r="M29" t="n">
         <v>3.918342267654493e-07</v>
@@ -5670,35 +5652,35 @@
       </c>
     </row>
     <row s="55" r="30" spans="1:20">
-      <c s="50" r="A30" t="n">
-        <v>1.097740949696193e-05</v>
-      </c>
-      <c s="51" r="B30" t="n">
-        <v>-1.089798910676023e-05</v>
-      </c>
-      <c s="50" r="C30" t="n">
-        <v>1.099208295054066e-05</v>
-      </c>
-      <c s="51" r="D30" t="n">
-        <v>-1.107443930614636e-05</v>
-      </c>
-      <c s="50" r="E30" t="n">
-        <v>1.088735597116857e-05</v>
-      </c>
-      <c s="51" r="F30" t="n">
-        <v>-1.104089827892274e-05</v>
-      </c>
-      <c s="50" r="G30" t="n">
-        <v>1.087738676799388e-05</v>
-      </c>
-      <c s="51" r="H30" t="n">
-        <v>-1.102603651397573e-05</v>
-      </c>
-      <c s="50" r="I30" t="n">
-        <v>1.090874655083734e-05</v>
-      </c>
-      <c s="51" r="J30" t="n">
-        <v>-1.108868791149381e-05</v>
+      <c s="64" r="A30" t="n">
+        <v>1.114365755711997e-05</v>
+      </c>
+      <c s="65" r="B30" t="n">
+        <v>-1.118195662129844e-05</v>
+      </c>
+      <c s="64" r="C30" t="n">
+        <v>1.082455854105116e-05</v>
+      </c>
+      <c s="65" r="D30" t="n">
+        <v>-1.089905952099539e-05</v>
+      </c>
+      <c s="64" r="E30" t="n">
+        <v>1.133039500193132e-05</v>
+      </c>
+      <c s="65" r="F30" t="n">
+        <v>-1.114848699923234e-05</v>
+      </c>
+      <c s="64" r="G30" t="n">
+        <v>1.108133716586929e-05</v>
+      </c>
+      <c s="65" r="H30" t="n">
+        <v>-1.095964532131547e-05</v>
+      </c>
+      <c s="64" r="I30" t="n">
+        <v>1.107798600831523e-05</v>
+      </c>
+      <c s="65" r="J30" t="n">
+        <v>-1.097335996979085e-05</v>
       </c>
       <c r="M30" t="n">
         <v>49</v>
@@ -5708,279 +5690,279 @@
       </c>
     </row>
     <row s="55" r="31" spans="1:20">
-      <c s="50" r="A31" t="n">
-        <v>1.109707774070863e-05</v>
-      </c>
-      <c s="51" r="B31" t="n">
-        <v>-1.120484239569209e-05</v>
-      </c>
-      <c s="50" r="C31" t="n">
-        <v>1.115032030954542e-05</v>
-      </c>
-      <c s="51" r="D31" t="n">
-        <v>-1.100834788708769e-05</v>
-      </c>
-      <c s="50" r="E31" t="n">
-        <v>1.102329192566298e-05</v>
-      </c>
-      <c s="51" r="F31" t="n">
-        <v>-1.098898947259973e-05</v>
-      </c>
-      <c s="50" r="G31" t="n">
-        <v>1.099873415976007e-05</v>
-      </c>
-      <c s="51" r="H31" t="n">
-        <v>-1.105951806648551e-05</v>
-      </c>
-      <c s="50" r="I31" t="n">
-        <v>1.087671076848252e-05</v>
-      </c>
-      <c s="51" r="J31" t="n">
-        <v>-1.102197912650231e-05</v>
+      <c s="64" r="A31" t="n">
+        <v>1.09273618799371e-05</v>
+      </c>
+      <c s="65" r="B31" t="n">
+        <v>-1.08510452264633e-05</v>
+      </c>
+      <c s="64" r="C31" t="n">
+        <v>1.107627184758177e-05</v>
+      </c>
+      <c s="65" r="D31" t="n">
+        <v>-1.103144169337835e-05</v>
+      </c>
+      <c s="64" r="E31" t="n">
+        <v>1.108028659670026e-05</v>
+      </c>
+      <c s="65" r="F31" t="n">
+        <v>-1.085760882699556e-05</v>
+      </c>
+      <c s="64" r="G31" t="n">
+        <v>1.118592470950626e-05</v>
+      </c>
+      <c s="65" r="H31" t="n">
+        <v>-1.099289792959733e-05</v>
+      </c>
+      <c s="64" r="I31" t="n">
+        <v>1.09439357196777e-05</v>
+      </c>
+      <c s="65" r="J31" t="n">
+        <v>-1.110021243723675e-05</v>
       </c>
     </row>
     <row s="55" r="32" spans="1:20">
-      <c s="50" r="A32" t="n">
-        <v>1.130386744905342e-05</v>
-      </c>
-      <c s="51" r="B32" t="n">
-        <v>-1.109359498141882e-05</v>
-      </c>
-      <c s="50" r="C32" t="n">
-        <v>1.098332096732271e-05</v>
-      </c>
-      <c s="51" r="D32" t="n">
-        <v>-1.103137448566092e-05</v>
-      </c>
-      <c s="50" r="E32" t="n">
-        <v>1.096872578388309e-05</v>
-      </c>
-      <c s="51" r="F32" t="n">
-        <v>-1.085632459569711e-05</v>
-      </c>
-      <c s="50" r="G32" t="n">
-        <v>1.105319855650008e-05</v>
-      </c>
-      <c s="51" r="H32" t="n">
-        <v>-1.094874997546479e-05</v>
-      </c>
-      <c s="50" r="I32" t="n">
-        <v>1.103021386597666e-05</v>
-      </c>
-      <c s="51" r="J32" t="n">
-        <v>-1.103376869795102e-05</v>
+      <c s="64" r="A32" t="n">
+        <v>1.109944901463142e-05</v>
+      </c>
+      <c s="65" r="B32" t="n">
+        <v>-1.094063929735949e-05</v>
+      </c>
+      <c s="64" r="C32" t="n">
+        <v>1.10509775638285e-05</v>
+      </c>
+      <c s="65" r="D32" t="n">
+        <v>-1.097338372130156e-05</v>
+      </c>
+      <c s="64" r="E32" t="n">
+        <v>1.099549397288064e-05</v>
+      </c>
+      <c s="65" r="F32" t="n">
+        <v>-1.095580941983887e-05</v>
+      </c>
+      <c s="64" r="G32" t="n">
+        <v>1.114814589748716e-05</v>
+      </c>
+      <c s="65" r="H32" t="n">
+        <v>-1.0988158947059e-05</v>
+      </c>
+      <c s="64" r="I32" t="n">
+        <v>1.106223371041575e-05</v>
+      </c>
+      <c s="65" r="J32" t="n">
+        <v>-1.099618096855123e-05</v>
       </c>
     </row>
     <row s="55" r="33" spans="1:20">
-      <c s="50" r="A33" t="n">
-        <v>1.072906822589163e-05</v>
-      </c>
-      <c s="51" r="B33" t="n">
-        <v>-1.098696579640201e-05</v>
-      </c>
-      <c s="50" r="C33" t="n">
-        <v>1.108029714199913e-05</v>
-      </c>
-      <c s="51" r="D33" t="n">
-        <v>-1.091045185691885e-05</v>
-      </c>
-      <c s="50" r="E33" t="n">
-        <v>1.099917428301678e-05</v>
-      </c>
-      <c s="51" r="F33" t="n">
-        <v>-1.097030494432233e-05</v>
-      </c>
-      <c s="50" r="G33" t="n">
-        <v>1.111109676818503e-05</v>
-      </c>
-      <c s="51" r="H33" t="n">
-        <v>-1.103944489565402e-05</v>
-      </c>
-      <c s="50" r="I33" t="n">
-        <v>1.099177321678114e-05</v>
-      </c>
-      <c s="51" r="J33" t="n">
-        <v>-1.092142980057622e-05</v>
+      <c s="64" r="A33" t="n">
+        <v>1.095184504759529e-05</v>
+      </c>
+      <c s="65" r="B33" t="n">
+        <v>-1.103561405455641e-05</v>
+      </c>
+      <c s="64" r="C33" t="n">
+        <v>1.090055488941644e-05</v>
+      </c>
+      <c s="65" r="D33" t="n">
+        <v>-1.092897232101499e-05</v>
+      </c>
+      <c s="64" r="E33" t="n">
+        <v>1.110323495682629e-05</v>
+      </c>
+      <c s="65" r="F33" t="n">
+        <v>-1.09840734545857e-05</v>
+      </c>
+      <c s="64" r="G33" t="n">
+        <v>1.103835419802977e-05</v>
+      </c>
+      <c s="65" r="H33" t="n">
+        <v>-1.101106173025462e-05</v>
+      </c>
+      <c s="64" r="I33" t="n">
+        <v>1.104169799328775e-05</v>
+      </c>
+      <c s="65" r="J33" t="n">
+        <v>-1.109291837425951e-05</v>
       </c>
       <c r="M33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row s="55" r="34" spans="1:20">
-      <c s="50" r="A34" t="n">
-        <v>1.102729202144005e-05</v>
-      </c>
-      <c s="51" r="B34" t="n">
-        <v>-1.102426261702664e-05</v>
-      </c>
-      <c s="50" r="C34" t="n">
-        <v>1.092362562813499e-05</v>
-      </c>
-      <c s="51" r="D34" t="n">
-        <v>-1.0867834872149e-05</v>
-      </c>
-      <c s="50" r="E34" t="n">
-        <v>1.097187707445251e-05</v>
-      </c>
-      <c s="51" r="F34" t="n">
-        <v>-1.103361430653677e-05</v>
-      </c>
-      <c s="50" r="G34" t="n">
-        <v>1.110937802233701e-05</v>
-      </c>
-      <c s="51" r="H34" t="n">
-        <v>-1.107201208170334e-05</v>
-      </c>
-      <c s="50" r="I34" t="n">
-        <v>1.091095438931515e-05</v>
-      </c>
-      <c s="51" r="J34" t="n">
-        <v>-1.079612549690955e-05</v>
+      <c s="64" r="A34" t="n">
+        <v>1.080600650973956e-05</v>
+      </c>
+      <c s="65" r="B34" t="n">
+        <v>-1.10586616913258e-05</v>
+      </c>
+      <c s="64" r="C34" t="n">
+        <v>1.099353450921344e-05</v>
+      </c>
+      <c s="65" r="D34" t="n">
+        <v>-1.083530604452111e-05</v>
+      </c>
+      <c s="64" r="E34" t="n">
+        <v>1.101848027158349e-05</v>
+      </c>
+      <c s="65" r="F34" t="n">
+        <v>-1.100958360428644e-05</v>
+      </c>
+      <c s="64" r="G34" t="n">
+        <v>1.108395065356388e-05</v>
+      </c>
+      <c s="65" r="H34" t="n">
+        <v>-1.095700720356318e-05</v>
+      </c>
+      <c s="64" r="I34" t="n">
+        <v>1.096872318691264e-05</v>
+      </c>
+      <c s="65" r="J34" t="n">
+        <v>-1.098516756844001e-05</v>
       </c>
       <c s="17" r="M34" t="n">
         <v>0.005117054126783899</v>
       </c>
     </row>
     <row s="55" r="35" spans="1:20">
-      <c s="50" r="A35" t="n">
-        <v>1.10257707090435e-05</v>
-      </c>
-      <c s="51" r="B35" t="n">
-        <v>-1.082753450186405e-05</v>
-      </c>
-      <c s="50" r="C35" t="n">
-        <v>1.096457397036158e-05</v>
-      </c>
-      <c s="51" r="D35" t="n">
-        <v>-1.103868008941529e-05</v>
-      </c>
-      <c s="50" r="E35" t="n">
-        <v>1.0990130088416e-05</v>
-      </c>
-      <c s="51" r="F35" t="n">
-        <v>-1.126867833701853e-05</v>
-      </c>
-      <c s="50" r="G35" t="n">
-        <v>1.096087298799423e-05</v>
-      </c>
-      <c s="51" r="H35" t="n">
-        <v>-1.104556803069215e-05</v>
-      </c>
-      <c s="50" r="I35" t="n">
-        <v>1.087707801733295e-05</v>
-      </c>
-      <c s="51" r="J35" t="n">
-        <v>-1.112257504980168e-05</v>
+      <c s="64" r="A35" t="n">
+        <v>1.113748279023496e-05</v>
+      </c>
+      <c s="65" r="B35" t="n">
+        <v>-1.093302717104113e-05</v>
+      </c>
+      <c s="64" r="C35" t="n">
+        <v>1.096409239254451e-05</v>
+      </c>
+      <c s="65" r="D35" t="n">
+        <v>-1.094866235568759e-05</v>
+      </c>
+      <c s="64" r="E35" t="n">
+        <v>1.076193881401705e-05</v>
+      </c>
+      <c s="65" r="F35" t="n">
+        <v>-1.094247744538984e-05</v>
+      </c>
+      <c s="64" r="G35" t="n">
+        <v>1.096900654631768e-05</v>
+      </c>
+      <c s="65" r="H35" t="n">
+        <v>-1.098343029814674e-05</v>
+      </c>
+      <c s="64" r="I35" t="n">
+        <v>1.11128274654694e-05</v>
+      </c>
+      <c s="65" r="J35" t="n">
+        <v>-1.091302322975078e-05</v>
       </c>
       <c s="17" r="M35" t="n">
         <v>0.002937060600972517</v>
       </c>
     </row>
     <row s="55" r="36" spans="1:20">
-      <c s="50" r="A36" t="n">
-        <v>1.098998586510615e-05</v>
-      </c>
-      <c s="51" r="B36" t="n">
-        <v>-1.091940424336834e-05</v>
-      </c>
-      <c s="50" r="C36" t="n">
-        <v>1.122376583436084e-05</v>
-      </c>
-      <c s="51" r="D36" t="n">
-        <v>-1.114650239088899e-05</v>
-      </c>
-      <c s="50" r="E36" t="n">
-        <v>1.104640130578588e-05</v>
-      </c>
-      <c s="51" r="F36" t="n">
-        <v>-1.100143580119379e-05</v>
-      </c>
-      <c s="50" r="G36" t="n">
-        <v>1.082693558274751e-05</v>
-      </c>
-      <c s="51" r="H36" t="n">
-        <v>-1.108594670118507e-05</v>
-      </c>
-      <c s="50" r="I36" t="n">
-        <v>1.091466201669468e-05</v>
-      </c>
-      <c s="51" r="J36" t="n">
-        <v>-1.094182299569284e-05</v>
+      <c s="64" r="A36" t="n">
+        <v>1.105701083195259e-05</v>
+      </c>
+      <c s="65" r="B36" t="n">
+        <v>-1.108936608070832e-05</v>
+      </c>
+      <c s="64" r="C36" t="n">
+        <v>1.098601134565646e-05</v>
+      </c>
+      <c s="65" r="D36" t="n">
+        <v>-1.095107357215492e-05</v>
+      </c>
+      <c s="64" r="E36" t="n">
+        <v>1.092238955391944e-05</v>
+      </c>
+      <c s="65" r="F36" t="n">
+        <v>-1.084051209490265e-05</v>
+      </c>
+      <c s="64" r="G36" t="n">
+        <v>1.110903496829714e-05</v>
+      </c>
+      <c s="65" r="H36" t="n">
+        <v>-1.110917761359627e-05</v>
+      </c>
+      <c s="64" r="I36" t="n">
+        <v>1.094682613510683e-05</v>
+      </c>
+      <c s="65" r="J36" t="n">
+        <v>-1.106197235225377e-05</v>
       </c>
       <c s="12" r="M36" t="n">
         <v>96.82660421439783</v>
       </c>
     </row>
     <row s="55" r="37" spans="1:20">
-      <c s="50" r="A37" t="n">
-        <v>1.070304779318875e-05</v>
-      </c>
-      <c s="51" r="B37" t="n">
-        <v>-1.100093917513632e-05</v>
-      </c>
-      <c s="50" r="C37" t="n">
-        <v>1.103379033859362e-05</v>
-      </c>
-      <c s="51" r="D37" t="n">
-        <v>-1.111127637946324e-05</v>
-      </c>
-      <c s="50" r="E37" t="n">
-        <v>1.09079267148041e-05</v>
-      </c>
-      <c s="51" r="F37" t="n">
-        <v>-1.099005227698923e-05</v>
-      </c>
-      <c s="50" r="G37" t="n">
-        <v>1.093715426870302e-05</v>
-      </c>
-      <c s="51" r="H37" t="n">
-        <v>-1.097905991880286e-05</v>
-      </c>
-      <c s="50" r="I37" t="n">
-        <v>1.109043500030451e-05</v>
-      </c>
-      <c s="51" r="J37" t="n">
-        <v>-1.101367545402407e-05</v>
+      <c s="64" r="A37" t="n">
+        <v>1.110993332867541e-05</v>
+      </c>
+      <c s="65" r="B37" t="n">
+        <v>-1.103518008405607e-05</v>
+      </c>
+      <c s="64" r="C37" t="n">
+        <v>1.093950028276945e-05</v>
+      </c>
+      <c s="65" r="D37" t="n">
+        <v>-1.102272546800555e-05</v>
+      </c>
+      <c s="64" r="E37" t="n">
+        <v>1.095678694192023e-05</v>
+      </c>
+      <c s="65" r="F37" t="n">
+        <v>-1.099369366169114e-05</v>
+      </c>
+      <c s="64" r="G37" t="n">
+        <v>1.107195443963907e-05</v>
+      </c>
+      <c s="65" r="H37" t="n">
+        <v>-1.110295615199901e-05</v>
+      </c>
+      <c s="64" r="I37" t="n">
+        <v>1.105546130281027e-05</v>
+      </c>
+      <c s="65" r="J37" t="n">
+        <v>-1.11236951194603e-05</v>
       </c>
     </row>
     <row s="55" r="180" spans="1:20">
       <c r="O180" t="s">
+        <v>187</v>
+      </c>
+      <c r="P180" t="s">
         <v>188</v>
       </c>
-      <c r="P180" t="s">
-        <v>189</v>
-      </c>
       <c r="Q180" t="s">
+        <v>187</v>
+      </c>
+      <c r="R180" t="s">
         <v>188</v>
       </c>
-      <c r="R180" t="s">
-        <v>189</v>
-      </c>
       <c r="S180" t="s">
+        <v>187</v>
+      </c>
+      <c r="T180" t="s">
         <v>188</v>
-      </c>
-      <c r="T180" t="s">
-        <v>189</v>
       </c>
     </row>
     <row s="55" r="197" spans="1:20">
       <c r="O197" t="s">
+        <v>187</v>
+      </c>
+      <c r="P197" t="s">
         <v>188</v>
       </c>
-      <c r="P197" t="s">
-        <v>189</v>
-      </c>
       <c r="Q197" t="s">
+        <v>187</v>
+      </c>
+      <c r="R197" t="s">
         <v>188</v>
       </c>
-      <c r="R197" t="s">
-        <v>189</v>
-      </c>
       <c r="S197" t="s">
+        <v>187</v>
+      </c>
+      <c r="T197" t="s">
         <v>188</v>
-      </c>
-      <c r="T197" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6022,77 +6004,77 @@
     <col bestFit="1" customWidth="1" max="14" min="14" style="55" width="23.28515625"/>
     <col customWidth="1" max="15" min="15" style="55" width="74"/>
     <col customWidth="1" max="16" min="16" style="55" width="11.42578125"/>
-    <col customWidth="1" hidden="1" max="21" min="17" style="55"/>
-    <col customWidth="1" hidden="1" max="21" min="17" style="55"/>
-    <col customWidth="1" hidden="1" max="21" min="17" style="55"/>
-    <col customWidth="1" hidden="1" max="21" min="17" style="55"/>
-    <col customWidth="1" hidden="1" max="21" min="17" style="55"/>
+    <col hidden="1" max="21" min="17" style="55"/>
+    <col hidden="1" max="21" min="17" style="55"/>
+    <col hidden="1" max="21" min="17" style="55"/>
+    <col hidden="1" max="21" min="17" style="55"/>
+    <col hidden="1" max="21" min="17" style="55"/>
   </cols>
   <sheetData>
     <row s="55" r="1" spans="1:21">
       <c s="7" r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c s="7" r="I1" t="s">
+        <v>196</v>
+      </c>
+      <c s="37" r="Q1" t="s">
         <v>197</v>
-      </c>
-      <c s="7" r="I1" t="s">
-        <v>198</v>
-      </c>
-      <c s="37" r="Q1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row s="55" r="2" spans="1:21">
       <c s="14" r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c s="14" r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c s="14" r="C2" t="s">
         <v>200</v>
       </c>
-      <c s="14" r="B2" t="s">
+      <c s="14" r="D2" t="s">
         <v>201</v>
       </c>
-      <c s="14" r="C2" t="s">
+      <c s="14" r="E2" t="s">
         <v>202</v>
       </c>
-      <c s="14" r="D2" t="s">
+      <c s="14" r="F2" t="s">
         <v>203</v>
       </c>
-      <c s="14" r="E2" t="s">
+      <c s="36" r="G2" t="s">
         <v>204</v>
       </c>
-      <c s="14" r="F2" t="s">
+      <c s="14" r="I2" t="s">
+        <v>198</v>
+      </c>
+      <c s="14" r="J2" t="s">
+        <v>199</v>
+      </c>
+      <c s="14" r="K2" t="s">
+        <v>200</v>
+      </c>
+      <c s="14" r="L2" t="s">
+        <v>201</v>
+      </c>
+      <c s="14" r="M2" t="s">
+        <v>202</v>
+      </c>
+      <c s="14" r="N2" t="s">
+        <v>203</v>
+      </c>
+      <c s="36" r="O2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q2" t="s">
         <v>205</v>
-      </c>
-      <c s="36" r="G2" t="s">
-        <v>206</v>
-      </c>
-      <c s="14" r="I2" t="s">
-        <v>200</v>
-      </c>
-      <c s="14" r="J2" t="s">
-        <v>201</v>
-      </c>
-      <c s="14" r="K2" t="s">
-        <v>202</v>
-      </c>
-      <c s="14" r="L2" t="s">
-        <v>203</v>
-      </c>
-      <c s="14" r="M2" t="s">
-        <v>204</v>
-      </c>
-      <c s="14" r="N2" t="s">
-        <v>205</v>
-      </c>
-      <c s="36" r="O2" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row s="55" r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C3" t="n">
         <v>100.0118</v>
@@ -6101,36 +6083,36 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" t="s">
+        <v>209</v>
+      </c>
+      <c s="40" r="G3" t="s">
         <v>210</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" t="s">
         <v>211</v>
       </c>
-      <c s="40" r="G3" t="s">
+      <c r="N3" t="s">
         <v>212</v>
       </c>
-      <c r="I3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>213</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>214</v>
-      </c>
-      <c r="O3" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row s="55" r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -6139,33 +6121,33 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" t="s">
+        <v>217</v>
+      </c>
+      <c r="N4" t="s">
         <v>218</v>
       </c>
-      <c r="I4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" t="s">
         <v>219</v>
-      </c>
-      <c r="N4" t="s">
-        <v>220</v>
-      </c>
-      <c r="O4" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>221</v>
       </c>
     </row>
     <row s="55" r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c s="21" r="C5" t="n">
         <v>0.00390912</v>
@@ -6174,33 +6156,33 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N5" t="s">
         <v>223</v>
       </c>
-      <c r="I5" t="s">
-        <v>174</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q5" t="s">
         <v>224</v>
-      </c>
-      <c r="N5" t="s">
-        <v>225</v>
-      </c>
-      <c r="O5" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row s="55" r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c s="21" r="C6" t="n">
         <v>-5.926000000000001e-07</v>
@@ -6209,59 +6191,59 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K6" t="n">
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row s="55" r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c s="22" r="C7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K7" t="s">
+        <v>232</v>
+      </c>
+      <c r="O7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q7" t="s">
         <v>233</v>
-      </c>
-      <c r="K7" t="s">
-        <v>234</v>
-      </c>
-      <c r="O7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row s="55" r="8" spans="1:21">
       <c s="14" r="A8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c s="14" r="B8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c s="14" r="C8" t="s">
         <v>37</v>
@@ -6271,24 +6253,24 @@
       <c s="14" r="F8" t="n"/>
       <c s="36" r="G8" t="n"/>
       <c r="I8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J8" t="s">
+        <v>235</v>
+      </c>
+      <c r="K8" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q8" t="s">
         <v>237</v>
-      </c>
-      <c r="K8" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>239</v>
       </c>
     </row>
     <row s="55" r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c s="21" r="C9" t="n">
         <v>10000.2</v>
@@ -6297,34 +6279,34 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
+        <v>239</v>
+      </c>
+      <c s="36" r="I9" t="s">
+        <v>173</v>
+      </c>
+      <c s="36" r="J9" t="s">
+        <v>240</v>
+      </c>
+      <c s="36" r="K9" t="s">
         <v>241</v>
-      </c>
-      <c s="36" r="I9" t="s">
-        <v>174</v>
-      </c>
-      <c s="36" r="J9" t="s">
-        <v>242</v>
-      </c>
-      <c s="36" r="K9" t="s">
-        <v>243</v>
       </c>
       <c s="36" r="L9" t="n"/>
       <c s="36" r="M9" t="n"/>
       <c s="36" r="N9" t="n"/>
       <c s="36" r="O9" t="n"/>
       <c r="Q9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row s="55" r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c s="21" r="C10" t="n">
         <v>23</v>
@@ -6333,16 +6315,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c s="21" r="K10" t="n">
         <v>-0.001</v>
@@ -6351,24 +6333,24 @@
         <v>0.00045</v>
       </c>
       <c r="M10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c s="37" r="R10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row s="55" r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c s="21" r="C11" t="n">
         <v>0.001</v>
@@ -6377,36 +6359,36 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K11" t="n">
         <v>5</v>
       </c>
       <c r="O11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="R11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c s="37" r="S11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row s="55" r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c s="21" r="C12" t="n">
         <v>0</v>
@@ -6415,62 +6397,62 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I12" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" t="s">
+        <v>250</v>
+      </c>
+      <c r="O12" t="s">
+        <v>228</v>
+      </c>
+      <c r="S12" t="s">
         <v>251</v>
       </c>
-      <c r="I12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" t="s">
-        <v>233</v>
-      </c>
-      <c r="K12" t="s">
+      <c s="37" r="T12" t="s">
         <v>252</v>
-      </c>
-      <c r="O12" t="s">
-        <v>230</v>
-      </c>
-      <c r="S12" t="s">
-        <v>253</v>
-      </c>
-      <c s="37" r="T12" t="s">
-        <v>254</v>
       </c>
     </row>
     <row s="55" r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c s="22" r="C13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K13" t="s">
+        <v>253</v>
+      </c>
+      <c r="T13" t="s">
+        <v>254</v>
+      </c>
+      <c s="37" r="U13" t="s">
         <v>255</v>
-      </c>
-      <c r="T13" t="s">
-        <v>256</v>
-      </c>
-      <c s="37" r="U13" t="s">
-        <v>257</v>
       </c>
     </row>
     <row s="55" r="14" spans="1:21">
       <c s="14" r="A14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c s="14" r="B14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c s="14" r="C14" t="s">
         <v>37</v>
@@ -6480,10 +6462,10 @@
       <c s="14" r="F14" t="n"/>
       <c s="36" r="G14" t="n"/>
       <c s="36" r="I14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c s="36" r="J14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c s="36" r="K14" t="s">
         <v>24</v>
@@ -6492,18 +6474,18 @@
       <c s="36" r="M14" t="n"/>
       <c s="36" r="N14" t="n"/>
       <c s="36" r="O14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c s="37" r="T14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row s="55" r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C15" t="n">
         <v>9999.999260000001</v>
@@ -6515,13 +6497,13 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c s="21" r="K15" t="n">
         <v>-0.0005</v>
@@ -6530,25 +6512,25 @@
         <v>0.0004</v>
       </c>
       <c r="M15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c s="37" r="S15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c s="37" r="T15" t="n"/>
     </row>
     <row s="55" r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c s="10" r="C16" t="n">
         <v>20</v>
@@ -6557,34 +6539,34 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c s="37" r="S16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c s="37" r="T16" t="n"/>
     </row>
     <row s="55" r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c s="21" r="C17" t="n">
         <v>5</v>
@@ -6593,34 +6575,34 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F17" t="s">
+        <v>264</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>231</v>
+      </c>
+      <c r="K17" t="s">
+        <v>265</v>
+      </c>
+      <c r="O17" t="s">
+        <v>228</v>
+      </c>
+      <c s="37" r="S17" t="s">
         <v>266</v>
-      </c>
-      <c r="I17" t="s">
-        <v>171</v>
-      </c>
-      <c r="J17" t="s">
-        <v>233</v>
-      </c>
-      <c r="K17" t="s">
-        <v>267</v>
-      </c>
-      <c r="O17" t="s">
-        <v>230</v>
-      </c>
-      <c s="37" r="S17" t="s">
-        <v>268</v>
       </c>
       <c s="37" r="T17" t="n"/>
     </row>
     <row s="55" r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C18" t="n">
         <v>9999.999260000001</v>
@@ -6632,30 +6614,30 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
+        <v>268</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" t="s">
+        <v>235</v>
+      </c>
+      <c r="K18" t="s">
+        <v>269</v>
+      </c>
+      <c r="S18" t="s">
+        <v>251</v>
+      </c>
+      <c r="T18" t="s">
         <v>270</v>
-      </c>
-      <c r="I18" t="s">
-        <v>171</v>
-      </c>
-      <c r="J18" t="s">
-        <v>237</v>
-      </c>
-      <c r="K18" t="s">
-        <v>271</v>
-      </c>
-      <c r="S18" t="s">
-        <v>253</v>
-      </c>
-      <c r="T18" t="s">
-        <v>272</v>
       </c>
     </row>
     <row s="55" r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c s="10" r="C19" t="n">
         <v>20</v>
@@ -6664,16 +6646,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c s="36" r="I19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c s="36" r="J19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c s="36" r="K19" t="s">
         <v>24</v>
@@ -6682,18 +6664,18 @@
       <c s="36" r="M19" t="n"/>
       <c s="36" r="N19" t="n"/>
       <c s="36" r="O19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="T19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row s="55" r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C20" t="n">
         <v>10</v>
@@ -6702,30 +6684,30 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
       </c>
       <c s="37" r="S20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row s="55" r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c s="21" r="C21" t="n">
         <v>3.42e-07</v>
@@ -6737,30 +6719,30 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="T21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row s="55" r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c s="21" r="C22" t="n">
         <v>-2.7e-08</v>
@@ -6772,27 +6754,27 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K22" t="s">
         <v>66</v>
       </c>
       <c r="T22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row s="55" r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -6801,37 +6783,37 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c s="36" r="I23" t="s">
         <v>10</v>
       </c>
       <c s="36" r="J23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c s="36" r="K23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c s="36" r="L23" t="n"/>
       <c s="36" r="M23" t="n"/>
       <c s="36" r="N23" t="n"/>
       <c s="36" r="O23" t="n"/>
       <c r="T23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row s="55" r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c s="22" r="C24" t="n">
         <v>42522</v>
@@ -6840,7 +6822,7 @@
         <v>9</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -6848,13 +6830,13 @@
     </row>
     <row s="55" r="25" spans="1:21">
       <c s="14" r="A25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c s="14" r="B25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c s="14" r="C25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c s="14" r="D25" t="n"/>
       <c s="14" r="E25" t="n"/>
@@ -6864,10 +6846,10 @@
         <v>9</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row s="55" r="26" spans="1:21">
@@ -6875,7 +6857,7 @@
         <v>9</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s">
         <v>66</v>
@@ -6886,18 +6868,18 @@
         <v>9</v>
       </c>
       <c r="J27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row s="55" r="28" spans="1:21">
       <c s="13" r="I28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c s="13" r="J28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c s="13" r="K28" t="n">
         <v>2</v>
@@ -6909,21 +6891,21 @@
     </row>
     <row s="55" r="29" spans="1:21">
       <c r="I29" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row s="55" r="30" spans="1:21">
       <c r="I30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K30" t="s">
         <v>66</v>
@@ -6931,13 +6913,13 @@
     </row>
     <row s="55" r="31" spans="1:21">
       <c s="36" r="I31" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c s="36" r="J31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c s="36" r="K31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c s="36" r="L31" t="n"/>
       <c s="36" r="M31" t="n"/>
@@ -6949,7 +6931,7 @@
         <v>8</v>
       </c>
       <c r="J32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K32" t="n">
         <v>2</v>
@@ -6960,10 +6942,10 @@
         <v>8</v>
       </c>
       <c r="J33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row s="55" r="34" spans="1:21">
@@ -6971,7 +6953,7 @@
         <v>8</v>
       </c>
       <c r="J34" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K34" t="s">
         <v>66</v>
@@ -6982,10 +6964,10 @@
         <v>8</v>
       </c>
       <c s="36" r="J35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c s="36" r="K35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c s="36" r="L35" t="n"/>
       <c s="36" r="M35" t="n"/>
@@ -6997,7 +6979,7 @@
         <v>37</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -7006,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="37" spans="1:21">
@@ -7014,7 +6996,7 @@
         <v>37</v>
       </c>
       <c r="J37" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -7023,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="38" spans="1:21">
@@ -7031,7 +7013,7 @@
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -7040,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="39" spans="1:21">
@@ -7048,7 +7030,7 @@
         <v>37</v>
       </c>
       <c r="J39" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -7057,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="40" spans="1:21">
@@ -7065,7 +7047,7 @@
         <v>37</v>
       </c>
       <c r="J40" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -7074,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="41" spans="1:21">
@@ -7082,7 +7064,7 @@
         <v>37</v>
       </c>
       <c r="J41" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -7091,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="42" spans="1:21">
@@ -7099,7 +7081,7 @@
         <v>37</v>
       </c>
       <c r="J42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -7108,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="43" spans="1:21">
@@ -7116,7 +7098,7 @@
         <v>37</v>
       </c>
       <c r="J43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -7125,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="44" spans="1:21">
@@ -7133,7 +7115,7 @@
         <v>37</v>
       </c>
       <c r="J44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -7144,10 +7126,10 @@
         <v>37</v>
       </c>
       <c r="J45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K45" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row s="55" r="46" spans="1:21">
@@ -7155,10 +7137,10 @@
         <v>37</v>
       </c>
       <c r="J46" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K46" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row s="55" r="47" spans="1:21">
@@ -7166,7 +7148,7 @@
         <v>37</v>
       </c>
       <c s="36" r="J47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c s="36" r="K47" t="n"/>
       <c s="36" r="L47" t="n"/>
@@ -7176,10 +7158,10 @@
     </row>
     <row s="55" r="48" spans="1:21">
       <c r="I48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -7188,15 +7170,15 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="49" spans="1:21">
       <c r="I49" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -7205,15 +7187,15 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="50" spans="1:21">
       <c r="I50" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J50" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -7222,15 +7204,15 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="51" spans="1:21">
       <c r="I51" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K51" t="n">
         <v>7</v>
@@ -7239,49 +7221,49 @@
     </row>
     <row s="55" r="52" spans="1:21">
       <c r="I52" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J52" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K52" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c s="40" r="M52" t="n"/>
     </row>
     <row s="55" r="53" spans="1:21">
       <c r="I53" t="s">
+        <v>300</v>
+      </c>
+      <c r="J53" t="s">
         <v>302</v>
       </c>
-      <c r="J53" t="s">
-        <v>304</v>
-      </c>
       <c r="K53" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c s="40" r="M53" t="n"/>
     </row>
     <row s="55" r="54" spans="1:21">
       <c r="I54" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J54" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K54" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c s="40" r="M54" t="n"/>
     </row>
     <row s="55" r="55" spans="1:21">
       <c s="36" r="I55" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c s="36" r="J55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c s="36" r="K55" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c s="36" r="L55" t="n"/>
       <c s="53" r="M55" t="n"/>
@@ -7293,7 +7275,7 @@
         <v>57</v>
       </c>
       <c r="J56" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -7302,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="57" spans="1:21">
@@ -7310,7 +7292,7 @@
         <v>57</v>
       </c>
       <c r="J57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -7319,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="58" spans="1:21">
@@ -7327,7 +7309,7 @@
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -7336,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="59" spans="1:21">
@@ -7344,7 +7326,7 @@
         <v>57</v>
       </c>
       <c r="J59" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K59" t="n">
         <v>17</v>
@@ -7355,10 +7337,10 @@
         <v>57</v>
       </c>
       <c r="J60" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K60" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row s="55" r="61" spans="1:21">
@@ -7366,10 +7348,10 @@
         <v>57</v>
       </c>
       <c r="J61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K61" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row s="55" r="62" spans="1:21">
@@ -7377,10 +7359,10 @@
         <v>57</v>
       </c>
       <c r="J62" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K62" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row s="55" r="63" spans="1:21">
@@ -7388,18 +7370,18 @@
         <v>57</v>
       </c>
       <c r="J63" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K63" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row s="55" r="64" spans="1:21">
       <c s="13" r="I64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c s="13" r="J64" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c s="38" r="K64" t="n">
         <v>0</v>
@@ -7408,17 +7390,17 @@
         <v>0</v>
       </c>
       <c s="38" r="M64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c s="13" r="N64" t="n"/>
       <c s="13" r="O64" t="n"/>
     </row>
     <row s="55" r="65" spans="1:21">
       <c r="I65" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J65" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c s="39" r="K65" t="n">
         <v>-5.68e-05</v>
@@ -7427,18 +7409,18 @@
         <v>2e-07</v>
       </c>
       <c s="40" r="M65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row hidden="1" r="66" s="55" spans="1:21">
       <c r="I66" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J66" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c s="39" r="K66" t="n">
         <v>-5.63e-05</v>
@@ -7447,18 +7429,18 @@
         <v>6e-07</v>
       </c>
       <c s="40" r="M66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N66" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row s="55" r="67" spans="1:21">
       <c r="I67" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J67" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c s="40" r="K67" t="n">
         <v>0</v>
@@ -7470,15 +7452,15 @@
         <v>7</v>
       </c>
       <c r="N67" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row s="55" r="68" spans="1:21">
       <c r="I68" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J68" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c s="39" r="K68" t="n">
         <v>2.221e-07</v>
@@ -7490,18 +7472,18 @@
         <v>7</v>
       </c>
       <c r="N68" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O68" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="69" spans="1:21">
       <c r="I69" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J69" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c s="39" r="K69" t="n">
         <v>4.809e-07</v>
@@ -7510,21 +7492,21 @@
         <v>1.8e-07</v>
       </c>
       <c s="40" r="M69" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N69" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O69" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="70" spans="1:21">
       <c r="I70" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J70" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c s="40" r="K70" t="n">
         <v>0</v>
@@ -7536,18 +7518,18 @@
         <v>8</v>
       </c>
       <c r="N70" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O70" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="71" spans="1:21">
       <c r="I71" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J71" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c s="40" r="K71" t="n">
         <v>0</v>
@@ -7559,18 +7541,18 @@
         <v>8</v>
       </c>
       <c r="N71" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O71" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="72" spans="1:21">
       <c r="I72" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c s="40" r="K72" t="n">
         <v>0</v>
@@ -7578,46 +7560,46 @@
     </row>
     <row s="55" r="73" spans="1:21">
       <c r="I73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J73" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c s="40" r="K73" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row s="55" r="74" spans="1:21">
       <c r="I74" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J74" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K74" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row s="55" r="75" spans="1:21">
       <c r="I75" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J75" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K75" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row s="55" r="76" spans="1:21">
       <c s="36" r="I76" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c s="36" r="J76" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c s="36" r="K76" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c s="36" r="L76" t="n"/>
       <c s="36" r="M76" t="n"/>
@@ -7626,10 +7608,10 @@
     </row>
     <row s="55" r="77" spans="1:21">
       <c r="I77" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J77" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c s="40" r="K77" t="n">
         <v>0</v>
@@ -7638,15 +7620,15 @@
         <v>0</v>
       </c>
       <c s="40" r="M77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="78" spans="1:21">
       <c r="I78" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J78" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c s="39" r="K78" t="n">
         <v>-5.68e-05</v>
@@ -7655,18 +7637,18 @@
         <v>2e-07</v>
       </c>
       <c s="40" r="M78" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row s="55" r="79" spans="1:21">
       <c r="I79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J79" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c s="39" r="K79" t="n">
         <v>-5.63e-05</v>
@@ -7675,18 +7657,18 @@
         <v>6e-07</v>
       </c>
       <c s="40" r="M79" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N79" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row s="55" r="80" spans="1:21">
       <c r="I80" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J80" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c s="40" r="K80" t="n">
         <v>0</v>
@@ -7698,18 +7680,18 @@
         <v>7</v>
       </c>
       <c r="N80" t="s">
+        <v>311</v>
+      </c>
+      <c r="O80" t="s">
         <v>313</v>
-      </c>
-      <c r="O80" t="s">
-        <v>315</v>
       </c>
     </row>
     <row s="55" r="81" spans="1:21">
       <c r="I81" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J81" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c s="39" r="K81" t="n">
         <v>2.221e-07</v>
@@ -7721,18 +7703,18 @@
         <v>7</v>
       </c>
       <c r="N81" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O81" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="82" spans="1:21">
       <c r="I82" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J82" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c s="39" r="K82" t="n">
         <v>4.809e-07</v>
@@ -7741,21 +7723,21 @@
         <v>1.8e-07</v>
       </c>
       <c s="40" r="M82" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N82" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O82" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="83" spans="1:21">
       <c r="I83" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J83" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c s="40" r="K83" t="n">
         <v>0</v>
@@ -7767,18 +7749,18 @@
         <v>8</v>
       </c>
       <c r="N83" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O83" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="84" spans="1:21">
       <c r="I84" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J84" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c s="40" r="K84" t="n">
         <v>0</v>
@@ -7790,15 +7772,15 @@
         <v>8</v>
       </c>
       <c r="N84" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row s="55" r="85" spans="1:21">
       <c r="I85" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J85" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c s="40" r="K85" t="n">
         <v>25</v>
@@ -7806,46 +7788,46 @@
     </row>
     <row s="55" r="86" spans="1:21">
       <c r="I86" t="s">
+        <v>321</v>
+      </c>
+      <c r="J86" t="s">
+        <v>231</v>
+      </c>
+      <c s="40" r="K86" t="s">
         <v>323</v>
-      </c>
-      <c r="J86" t="s">
-        <v>233</v>
-      </c>
-      <c s="40" r="K86" t="s">
-        <v>325</v>
       </c>
     </row>
     <row s="55" r="87" spans="1:21">
       <c r="I87" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J87" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K87" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row s="55" r="88" spans="1:21">
       <c r="I88" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J88" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K88" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row s="55" r="89" spans="1:21">
       <c s="36" r="I89" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c s="36" r="J89" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c s="36" r="K89" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c s="14" r="L89" t="n"/>
       <c s="14" r="M89" t="n"/>
@@ -7854,10 +7836,10 @@
     </row>
     <row s="55" r="90" spans="1:21">
       <c r="I90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J90" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c s="40" r="K90" t="n">
         <v>0</v>
@@ -7866,15 +7848,15 @@
         <v>0</v>
       </c>
       <c s="40" r="M90" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="91" spans="1:21">
       <c r="I91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J91" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c s="39" r="K91" t="n">
         <v>-5.68e-05</v>
@@ -7883,18 +7865,18 @@
         <v>2e-07</v>
       </c>
       <c s="40" r="M91" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N91" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row s="55" r="92" spans="1:21">
       <c r="I92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J92" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c s="39" r="K92" t="n">
         <v>-5.63e-05</v>
@@ -7903,18 +7885,18 @@
         <v>6e-07</v>
       </c>
       <c s="40" r="M92" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N92" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row s="55" r="93" spans="1:21">
       <c r="I93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J93" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c s="40" r="K93" t="n">
         <v>0</v>
@@ -7926,18 +7908,18 @@
         <v>7</v>
       </c>
       <c r="N93" t="s">
+        <v>311</v>
+      </c>
+      <c r="O93" t="s">
         <v>313</v>
-      </c>
-      <c r="O93" t="s">
-        <v>315</v>
       </c>
     </row>
     <row s="55" r="94" spans="1:21">
       <c r="I94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J94" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c s="39" r="K94" t="n">
         <v>2.221e-07</v>
@@ -7949,18 +7931,18 @@
         <v>7</v>
       </c>
       <c r="N94" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O94" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="95" spans="1:21">
       <c r="I95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J95" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c s="39" r="K95" t="n">
         <v>4.809e-07</v>
@@ -7969,21 +7951,21 @@
         <v>1.8e-07</v>
       </c>
       <c s="40" r="M95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N95" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O95" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="96" spans="1:21">
       <c r="I96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J96" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c s="40" r="K96" t="n">
         <v>0</v>
@@ -7995,18 +7977,18 @@
         <v>8</v>
       </c>
       <c r="N96" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O96" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="97" spans="1:21">
       <c r="I97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J97" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c s="40" r="K97" t="n">
         <v>0</v>
@@ -8018,15 +8000,15 @@
         <v>8</v>
       </c>
       <c r="N97" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row s="55" r="98" spans="1:21">
       <c r="I98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J98" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c s="40" r="K98" t="n">
         <v>22</v>
@@ -8034,46 +8016,46 @@
     </row>
     <row s="55" r="99" spans="1:21">
       <c r="I99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J99" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c s="40" r="K99" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row s="55" r="100" spans="1:21">
       <c r="I100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J100" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K100" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row s="55" r="101" spans="1:21">
       <c r="I101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K101" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row s="55" r="102" spans="1:21">
       <c s="36" r="I102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c s="36" r="J102" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c s="36" r="K102" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c s="36" r="L102" t="n"/>
       <c s="36" r="M102" t="n"/>
@@ -8085,7 +8067,7 @@
         <v>62</v>
       </c>
       <c r="J103" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c s="40" r="K103" t="n">
         <v>0</v>
@@ -8094,7 +8076,7 @@
         <v>0</v>
       </c>
       <c s="40" r="M103" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="104" spans="1:21">
@@ -8102,7 +8084,7 @@
         <v>62</v>
       </c>
       <c r="J104" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c s="39" r="K104" t="n">
         <v>-5.68e-05</v>
@@ -8111,10 +8093,10 @@
         <v>2e-07</v>
       </c>
       <c s="40" r="M104" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N104" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row s="55" r="105" spans="1:21">
@@ -8122,7 +8104,7 @@
         <v>62</v>
       </c>
       <c r="J105" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c s="39" r="K105" t="n">
         <v>-5.63e-05</v>
@@ -8131,10 +8113,10 @@
         <v>6e-07</v>
       </c>
       <c s="40" r="M105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N105" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row s="55" r="106" spans="1:21">
@@ -8142,7 +8124,7 @@
         <v>62</v>
       </c>
       <c r="J106" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c s="40" r="K106" t="n">
         <v>0</v>
@@ -8154,10 +8136,10 @@
         <v>7</v>
       </c>
       <c r="N106" t="s">
+        <v>311</v>
+      </c>
+      <c r="O106" t="s">
         <v>313</v>
-      </c>
-      <c r="O106" t="s">
-        <v>315</v>
       </c>
     </row>
     <row s="55" r="107" spans="1:21">
@@ -8165,7 +8147,7 @@
         <v>62</v>
       </c>
       <c r="J107" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c s="39" r="K107" t="n">
         <v>2.221e-07</v>
@@ -8177,10 +8159,10 @@
         <v>7</v>
       </c>
       <c r="N107" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O107" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="108" spans="1:21">
@@ -8188,7 +8170,7 @@
         <v>62</v>
       </c>
       <c r="J108" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c s="39" r="K108" t="n">
         <v>4.809e-07</v>
@@ -8197,13 +8179,13 @@
         <v>1.8e-07</v>
       </c>
       <c s="40" r="M108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N108" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O108" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="109" spans="1:21">
@@ -8211,7 +8193,7 @@
         <v>62</v>
       </c>
       <c r="J109" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c s="40" r="K109" t="n">
         <v>0</v>
@@ -8223,10 +8205,10 @@
         <v>8</v>
       </c>
       <c r="N109" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O109" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="110" spans="1:21">
@@ -8234,7 +8216,7 @@
         <v>62</v>
       </c>
       <c r="J110" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c s="40" r="K110" t="n">
         <v>0</v>
@@ -8246,7 +8228,7 @@
         <v>8</v>
       </c>
       <c r="N110" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row s="55" r="111" spans="1:21">
@@ -8254,7 +8236,7 @@
         <v>62</v>
       </c>
       <c r="J111" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K111" t="n">
         <v>23</v>
@@ -8265,10 +8247,10 @@
         <v>62</v>
       </c>
       <c r="J112" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K112" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row s="55" r="113" spans="1:21">
@@ -8276,10 +8258,10 @@
         <v>62</v>
       </c>
       <c r="J113" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K113" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row s="55" r="114" spans="1:21">
@@ -8287,10 +8269,10 @@
         <v>62</v>
       </c>
       <c r="J114" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K114" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row s="55" r="115" spans="1:21">
@@ -8298,10 +8280,10 @@
         <v>62</v>
       </c>
       <c s="36" r="J115" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c s="36" r="K115" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c s="36" r="L115" t="n"/>
       <c s="36" r="M115" t="n"/>
@@ -8313,7 +8295,7 @@
         <v>71</v>
       </c>
       <c r="J116" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c s="40" r="K116" t="n">
         <v>0</v>
@@ -8322,7 +8304,7 @@
         <v>0</v>
       </c>
       <c s="40" r="M116" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row s="55" r="117" spans="1:21">
@@ -8330,7 +8312,7 @@
         <v>71</v>
       </c>
       <c r="J117" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c s="39" r="K117" t="n">
         <v>-5.68e-05</v>
@@ -8339,10 +8321,10 @@
         <v>2e-07</v>
       </c>
       <c s="40" r="M117" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N117" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row s="55" r="118" spans="1:21">
@@ -8350,7 +8332,7 @@
         <v>71</v>
       </c>
       <c r="J118" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c s="39" r="K118" t="n">
         <v>-5.63e-05</v>
@@ -8359,10 +8341,10 @@
         <v>6e-07</v>
       </c>
       <c s="40" r="M118" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N118" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row s="55" r="119" spans="1:21">
@@ -8370,7 +8352,7 @@
         <v>71</v>
       </c>
       <c r="J119" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c s="40" r="K119" t="n">
         <v>0</v>
@@ -8382,10 +8364,10 @@
         <v>7</v>
       </c>
       <c r="N119" t="s">
+        <v>311</v>
+      </c>
+      <c r="O119" t="s">
         <v>313</v>
-      </c>
-      <c r="O119" t="s">
-        <v>315</v>
       </c>
     </row>
     <row s="55" r="120" spans="1:21">
@@ -8393,7 +8375,7 @@
         <v>71</v>
       </c>
       <c r="J120" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c s="39" r="K120" t="n">
         <v>2.221e-07</v>
@@ -8405,10 +8387,10 @@
         <v>7</v>
       </c>
       <c r="N120" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O120" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="121" spans="1:21">
@@ -8416,7 +8398,7 @@
         <v>71</v>
       </c>
       <c r="J121" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c s="39" r="K121" t="n">
         <v>4.809e-07</v>
@@ -8425,13 +8407,13 @@
         <v>1.8e-07</v>
       </c>
       <c s="40" r="M121" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N121" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O121" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="122" spans="1:21">
@@ -8439,7 +8421,7 @@
         <v>71</v>
       </c>
       <c r="J122" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c s="40" r="K122" t="n">
         <v>0</v>
@@ -8451,10 +8433,10 @@
         <v>8</v>
       </c>
       <c r="N122" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O122" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row s="55" r="123" spans="1:21">
@@ -8462,7 +8444,7 @@
         <v>71</v>
       </c>
       <c r="J123" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c s="40" r="K123" t="n">
         <v>0</v>
@@ -8474,7 +8456,7 @@
         <v>8</v>
       </c>
       <c r="N123" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row s="55" r="124" spans="1:21">
@@ -8482,7 +8464,7 @@
         <v>71</v>
       </c>
       <c r="J124" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K124" t="n">
         <v>24</v>
@@ -8493,10 +8475,10 @@
         <v>71</v>
       </c>
       <c r="J125" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K125" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row s="55" r="126" spans="1:21">
@@ -8504,10 +8486,10 @@
         <v>71</v>
       </c>
       <c r="J126" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K126" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row s="55" r="127" spans="1:21">
@@ -8515,10 +8497,10 @@
         <v>71</v>
       </c>
       <c r="J127" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K127" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row s="55" r="128" spans="1:21">
@@ -8526,10 +8508,10 @@
         <v>71</v>
       </c>
       <c s="36" r="J128" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c s="36" r="K128" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c s="36" r="L128" t="n"/>
       <c s="36" r="M128" t="n"/>
@@ -8541,7 +8523,7 @@
         <v>42</v>
       </c>
       <c r="J129" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K129" t="n">
         <v>2</v>
@@ -8554,10 +8536,10 @@
         <v>42</v>
       </c>
       <c r="J130" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K130" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c s="39" r="L130" t="n"/>
       <c s="40" r="M130" t="n"/>
@@ -8567,16 +8549,16 @@
         <v>42</v>
       </c>
       <c r="J131" t="s">
+        <v>338</v>
+      </c>
+      <c r="K131" t="s">
+        <v>339</v>
+      </c>
+      <c s="19" r="L131" t="s">
         <v>340</v>
       </c>
-      <c r="K131" t="s">
+      <c s="20" r="M131" t="s">
         <v>341</v>
-      </c>
-      <c s="19" r="L131" t="s">
-        <v>342</v>
-      </c>
-      <c s="20" r="M131" t="s">
-        <v>343</v>
       </c>
     </row>
     <row s="55" r="132" spans="1:21">
@@ -8584,13 +8566,13 @@
         <v>42</v>
       </c>
       <c r="J132" t="s">
+        <v>342</v>
+      </c>
+      <c r="K132" t="s">
+        <v>343</v>
+      </c>
+      <c s="19" r="L132" t="s">
         <v>344</v>
-      </c>
-      <c r="K132" t="s">
-        <v>345</v>
-      </c>
-      <c s="19" r="L132" t="s">
-        <v>346</v>
       </c>
       <c s="40" r="M132" t="n"/>
     </row>
@@ -8599,10 +8581,10 @@
         <v>42</v>
       </c>
       <c r="J133" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K133" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c s="39" r="L133" t="n"/>
       <c s="40" r="M133" t="n"/>
@@ -8612,10 +8594,10 @@
         <v>42</v>
       </c>
       <c r="J134" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K134" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row s="55" r="135" spans="1:21">
@@ -8623,10 +8605,10 @@
         <v>42</v>
       </c>
       <c r="J135" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K135" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row s="55" r="136" spans="1:21">
@@ -8634,10 +8616,10 @@
         <v>42</v>
       </c>
       <c s="36" r="J136" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c s="36" r="K136" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c s="36" r="L136" t="n"/>
       <c s="36" r="M136" t="n"/>
@@ -8649,7 +8631,7 @@
         <v>32</v>
       </c>
       <c r="J137" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K137" t="n">
         <v>4</v>
@@ -8661,10 +8643,10 @@
         <v>32</v>
       </c>
       <c r="J138" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K138" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c s="39" r="L138" t="n"/>
     </row>
@@ -8673,10 +8655,10 @@
         <v>32</v>
       </c>
       <c r="J139" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K139" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c s="39" r="L139" t="n"/>
     </row>
@@ -8685,13 +8667,13 @@
         <v>32</v>
       </c>
       <c r="J140" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K140" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c s="19" r="L140" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row s="55" r="141" spans="1:21">
@@ -8699,10 +8681,10 @@
         <v>32</v>
       </c>
       <c r="J141" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K141" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c s="39" r="L141" t="n"/>
     </row>
@@ -8711,10 +8693,10 @@
         <v>32</v>
       </c>
       <c r="J142" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K142" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row s="55" r="143" spans="1:21">
@@ -8722,13 +8704,13 @@
         <v>32</v>
       </c>
       <c r="J143" t="s">
+        <v>357</v>
+      </c>
+      <c r="K143" t="s">
+        <v>358</v>
+      </c>
+      <c r="L143" t="s">
         <v>359</v>
-      </c>
-      <c r="K143" t="s">
-        <v>360</v>
-      </c>
-      <c r="L143" t="s">
-        <v>361</v>
       </c>
     </row>
     <row s="55" r="144" spans="1:21">
@@ -8736,10 +8718,10 @@
         <v>32</v>
       </c>
       <c r="J144" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K144" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row s="55" r="145" spans="1:21">
@@ -8747,10 +8729,10 @@
         <v>32</v>
       </c>
       <c s="36" r="J145" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c s="36" r="K145" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c s="36" r="L145" t="n"/>
       <c s="36" r="M145" t="n"/>
@@ -8806,7 +8788,7 @@
   <sheetData>
     <row s="55" r="1" spans="1:25">
       <c s="15" r="A1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c s="15" r="B1" t="n">
         <v>4</v>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27120" windowHeight="12060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27120" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="340">
   <si>
     <t>start_row</t>
   </si>
@@ -350,9 +350,6 @@
     <t>GMH1</t>
   </si>
   <si>
-    <t>GMH, s/n628</t>
-  </si>
-  <si>
     <t>03/03/2017 12:09:50</t>
   </si>
   <si>
@@ -365,9 +362,6 @@
     <t>GMH2</t>
   </si>
   <si>
-    <t>GMH, s/n627</t>
-  </si>
-  <si>
     <t>03/03/2017 12:16:44</t>
   </si>
   <si>
@@ -668,54 +662,6 @@
     <t>03/03/2017 15:41:51</t>
   </si>
   <si>
-    <t>Ambient Conditions</t>
-  </si>
-  <si>
-    <t>HRBC.v0.4 TestR1 10M:TestR2 1M 26/05/2017 13:46:13</t>
-  </si>
-  <si>
-    <t>%RH</t>
-  </si>
-  <si>
-    <t>26/05/2017 13:46:53</t>
-  </si>
-  <si>
-    <t>26/05/2017 13:46:59</t>
-  </si>
-  <si>
-    <t>26/05/2017 13:46:49</t>
-  </si>
-  <si>
-    <t>R1: TestR1 10M monitored by GMH: s/n627. R2: TestR2 1M monitored by GMH: s/n628. Test</t>
-  </si>
-  <si>
-    <t>26/05/2017 13:47:25</t>
-  </si>
-  <si>
-    <t>26/05/2017 13:47:31</t>
-  </si>
-  <si>
-    <t>26/05/2017 13:47:21</t>
-  </si>
-  <si>
-    <t>26/05/2017 13:47:58</t>
-  </si>
-  <si>
-    <t>26/05/2017 13:48:03</t>
-  </si>
-  <si>
-    <t>26/05/2017 13:47:53</t>
-  </si>
-  <si>
-    <t>26/05/2017 13:48:29</t>
-  </si>
-  <si>
-    <t>26/05/2017 13:48:35</t>
-  </si>
-  <si>
-    <t>26/05/2017 13:48:25</t>
-  </si>
-  <si>
     <t>GMH: s/n627</t>
   </si>
   <si>
@@ -783,15 +729,6 @@
   </si>
   <si>
     <t>Rd</t>
-  </si>
-  <si>
-    <t>26/05/2017 13:49:40</t>
-  </si>
-  <si>
-    <t>TestR1 10M</t>
-  </si>
-  <si>
-    <t>TestR2 1M</t>
   </si>
   <si>
     <t>Resistor Info:</t>
@@ -1443,7 +1380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1540,73 +1477,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1636,12 +1511,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1658,14 +1527,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2011,41 +1881,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI53"/>
+  <dimension ref="A1:AI54"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="540" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <selection pane="bottomLeft" activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="42" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="42" customWidth="1"/>
-    <col min="10" max="12" width="2.140625" style="42" customWidth="1"/>
-    <col min="13" max="13" width="25" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="42" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="42" customWidth="1"/>
-    <col min="16" max="16" width="25" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" style="42" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="42" customWidth="1"/>
-    <col min="23" max="27" width="9.140625" style="42" customWidth="1"/>
-    <col min="28" max="28" width="10" style="42" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" style="42" customWidth="1"/>
-    <col min="31" max="31" width="15" style="42" customWidth="1"/>
-    <col min="32" max="32" width="12.140625" style="42" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" style="42" customWidth="1"/>
-    <col min="35" max="35" width="26.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="36" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="36" customWidth="1"/>
+    <col min="10" max="12" width="2.140625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="25" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="36" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="36" customWidth="1"/>
+    <col min="16" max="16" width="25" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="36" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="36" customWidth="1"/>
+    <col min="23" max="27" width="9.140625" style="36" customWidth="1"/>
+    <col min="28" max="28" width="10" style="36" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" style="36" customWidth="1"/>
+    <col min="31" max="31" width="15" style="36" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" style="36" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" style="36" customWidth="1"/>
+    <col min="35" max="35" width="26.5703125" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -2053,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -2061,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G2" s="23"/>
     </row>
@@ -2084,21 +1954,21 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="M3" s="55" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="M3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55" t="s">
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
       <c r="S3" t="s">
         <v>11</v>
       </c>
@@ -2111,11 +1981,11 @@
       <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="55" t="s">
+      <c r="W3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
       <c r="Z3" t="s">
         <v>16</v>
       </c>
@@ -2166,13 +2036,13 @@
       <c r="V4">
         <v>20.92</v>
       </c>
-      <c r="W4" s="43" t="s">
+      <c r="W4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="43" t="s">
+      <c r="X4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="43" t="s">
+      <c r="Y4" s="37" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2237,14 +2107,14 @@
       <c r="Z5" t="s">
         <v>30</v>
       </c>
-      <c r="AC5" s="25" t="s">
+      <c r="AC5" s="39" t="s">
         <v>31</v>
       </c>
       <c r="AD5" s="13" t="s">
         <v>32</v>
       </c>
       <c r="AE5" s="13"/>
-      <c r="AF5" s="26"/>
+      <c r="AF5" s="40"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -2307,13 +2177,14 @@
       <c r="Z6" t="s">
         <v>30</v>
       </c>
-      <c r="AC6" s="27" t="s">
+      <c r="AC6" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AF6" s="28"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="42"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -2376,13 +2247,14 @@
       <c r="Z7" t="s">
         <v>30</v>
       </c>
-      <c r="AC7" s="27" t="s">
+      <c r="AC7" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="AF7" s="28"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="42"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -2445,13 +2317,14 @@
       <c r="Z8" t="s">
         <v>30</v>
       </c>
-      <c r="AC8" s="27" t="s">
+      <c r="AC8" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AD8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF8" s="28"/>
+      <c r="AD8" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="42"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -2473,7 +2346,7 @@
         <v>90</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="11">
         <v>-1.0003004150000001</v>
@@ -2482,7 +2355,7 @@
         <v>7.4657484555964006E-7</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>-3.0449704612E-4</v>
@@ -2491,7 +2364,7 @@
         <v>9.2625932088759127E-7</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="12">
         <v>10.000023613</v>
@@ -2514,13 +2387,14 @@
       <c r="Z9" t="s">
         <v>30</v>
       </c>
-      <c r="AC9" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF9" s="28"/>
+      <c r="AC9" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD9" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="42"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -2542,7 +2416,7 @@
         <v>90</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10" s="11">
         <v>1.0003017431000001</v>
@@ -2551,7 +2425,7 @@
         <v>5.185144271240301E-7</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N10">
         <v>3.0412604709000003E-4</v>
@@ -2560,7 +2434,7 @@
         <v>7.3749261498042023E-7</v>
       </c>
       <c r="P10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="12">
         <v>-10.000021125</v>
@@ -2583,13 +2457,14 @@
       <c r="Z10" t="s">
         <v>30</v>
       </c>
-      <c r="AC10" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF10" s="28"/>
+      <c r="AC10" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD10" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="42"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
@@ -2611,7 +2486,7 @@
         <v>90</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H11" s="11">
         <v>-1.0003010632</v>
@@ -2620,7 +2495,7 @@
         <v>3.5548770879843111E-7</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N11">
         <v>-3.0520115826999998E-4</v>
@@ -2629,7 +2504,7 @@
         <v>5.217894838339665E-7</v>
       </c>
       <c r="P11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="12">
         <v>10.000023240000001</v>
@@ -2652,13 +2527,14 @@
       <c r="Z11" t="s">
         <v>30</v>
       </c>
-      <c r="AC11" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF11" s="28"/>
+      <c r="AC11" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD11" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="42"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -2680,7 +2556,7 @@
         <v>90</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H12" s="11">
         <v>-1.0103038602000001</v>
@@ -2689,7 +2565,7 @@
         <v>5.625048740256992E-7</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N12" s="10">
         <v>-9.3988829519000006E-3</v>
@@ -2698,7 +2574,7 @@
         <v>7.5928665982850947E-7</v>
       </c>
       <c r="P12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="12">
         <v>10.000023558000001</v>
@@ -2721,13 +2597,14 @@
       <c r="Z12" t="s">
         <v>30</v>
       </c>
-      <c r="AC12" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD12" t="s">
+      <c r="AC12" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AF12" s="28"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="42"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -2749,7 +2626,7 @@
         <v>90</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H13" s="11">
         <v>-1.0003008807</v>
@@ -2758,7 +2635,7 @@
         <v>6.3549666491771739E-7</v>
       </c>
       <c r="M13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>-3.0511738654999989E-4</v>
@@ -2767,7 +2644,7 @@
         <v>6.3053697802352372E-7</v>
       </c>
       <c r="P13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="12">
         <v>10.000023560000001</v>
@@ -2790,14 +2667,14 @@
       <c r="Z13" t="s">
         <v>30</v>
       </c>
-      <c r="AC13" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD13" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="30"/>
+      <c r="AC13" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD13" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="42"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -2819,7 +2696,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H14" s="11">
         <v>1.0003016184</v>
@@ -2828,7 +2705,7 @@
         <v>5.4756860554311688E-7</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N14">
         <v>3.0430913590000002E-4</v>
@@ -2837,7 +2714,7 @@
         <v>5.2180473026271122E-7</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="12">
         <v>-10.000021151</v>
@@ -2860,6 +2737,14 @@
       <c r="Z14" t="s">
         <v>30</v>
       </c>
+      <c r="AC14" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD14" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="44"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
@@ -2881,7 +2766,7 @@
         <v>90</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H15" s="11">
         <v>-1.0003006325999999</v>
@@ -2890,7 +2775,7 @@
         <v>7.0017604136032464E-7</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N15">
         <v>-3.0492296447999999E-4</v>
@@ -2899,7 +2784,7 @@
         <v>7.5731093357883235E-7</v>
       </c>
       <c r="P15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="12">
         <v>10.000023547</v>
@@ -2943,7 +2828,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H16" s="11">
         <v>-1.010303849</v>
@@ -2952,7 +2837,7 @@
         <v>9.1065287932796764E-7</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N16" s="10">
         <v>-9.3988667592000003E-3</v>
@@ -2961,7 +2846,7 @@
         <v>6.9210108782969962E-7</v>
       </c>
       <c r="P16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="12">
         <v>10.000024298</v>
@@ -3005,7 +2890,7 @@
         <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H17" s="11">
         <v>-1.0003015235999999</v>
@@ -3014,7 +2899,7 @@
         <v>7.2686621110483559E-7</v>
       </c>
       <c r="M17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N17">
         <v>-3.0505884931000002E-4</v>
@@ -3023,7 +2908,7 @@
         <v>7.0194923059769257E-7</v>
       </c>
       <c r="P17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="12">
         <v>10.000023888999999</v>
@@ -3067,7 +2952,7 @@
         <v>90</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H18" s="11">
         <v>1.0003014786</v>
@@ -3076,7 +2961,7 @@
         <v>5.4281963446917905E-7</v>
       </c>
       <c r="M18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N18">
         <v>3.0447996242999998E-4</v>
@@ -3085,7 +2970,7 @@
         <v>5.9097154058762734E-7</v>
       </c>
       <c r="P18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q18" s="12">
         <v>-10.000020242</v>
@@ -3129,7 +3014,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H19" s="11">
         <v>-1.0003005756000001</v>
@@ -3138,7 +3023,7 @@
         <v>7.13548441079886E-7</v>
       </c>
       <c r="M19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N19">
         <v>-3.0495051743000001E-4</v>
@@ -3147,7 +3032,7 @@
         <v>7.7583739633152845E-7</v>
       </c>
       <c r="P19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="12">
         <v>10.000024202000001</v>
@@ -3191,7 +3076,7 @@
         <v>90</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H20" s="11">
         <v>-1.0103038239</v>
@@ -3200,7 +3085,7 @@
         <v>6.0474226829220521E-7</v>
       </c>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N20" s="10">
         <v>-9.3983049583999997E-3</v>
@@ -3209,7 +3094,7 @@
         <v>5.5349620885136084E-7</v>
       </c>
       <c r="P20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="12">
         <v>10.000024446999999</v>
@@ -3253,7 +3138,7 @@
         <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H21" s="11">
         <v>-1.0003010532000001</v>
@@ -3262,7 +3147,7 @@
         <v>4.7051716227700369E-7</v>
       </c>
       <c r="M21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N21">
         <v>-3.0468557529000011E-4</v>
@@ -3271,7 +3156,7 @@
         <v>6.6559272492850142E-7</v>
       </c>
       <c r="P21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q21" s="12">
         <v>10.000023072999999</v>
@@ -3315,7 +3200,7 @@
         <v>90</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H22" s="11">
         <v>1.0003019523000001</v>
@@ -3324,7 +3209,7 @@
         <v>7.8901345570740558E-7</v>
       </c>
       <c r="M22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N22">
         <v>3.0442563560000003E-4</v>
@@ -3333,7 +3218,7 @@
         <v>5.9264227499082122E-7</v>
       </c>
       <c r="P22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="12">
         <v>-10.000020631</v>
@@ -3377,7 +3262,7 @@
         <v>90</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H23" s="11">
         <v>-1.0003009982</v>
@@ -3386,7 +3271,7 @@
         <v>6.1303376745362763E-7</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N23">
         <v>-3.0477900539999998E-4</v>
@@ -3395,7 +3280,7 @@
         <v>7.6309471461281885E-7</v>
       </c>
       <c r="P23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="12">
         <v>10.000023493</v>
@@ -3439,7 +3324,7 @@
         <v>90</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H24" s="11">
         <v>-1.0103039235</v>
@@ -3448,7 +3333,7 @@
         <v>4.87053100009974E-7</v>
       </c>
       <c r="M24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N24">
         <v>-9.398484954500002E-3</v>
@@ -3457,7 +3342,7 @@
         <v>6.7223843886337093E-7</v>
       </c>
       <c r="P24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q24" s="12">
         <v>10.000023782</v>
@@ -3501,7 +3386,7 @@
         <v>90</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H25">
         <v>-1.0003015239999999</v>
@@ -3510,7 +3395,7 @@
         <v>9.3525896592688897E-7</v>
       </c>
       <c r="M25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N25">
         <v>-3.0484762067999998E-4</v>
@@ -3519,7 +3404,7 @@
         <v>7.3558284164244919E-7</v>
       </c>
       <c r="P25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q25">
         <v>10.000022971</v>
@@ -3563,7 +3448,7 @@
         <v>90</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H26">
         <v>1.0003012131</v>
@@ -3572,7 +3457,7 @@
         <v>6.4054307688553444E-7</v>
       </c>
       <c r="M26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N26">
         <v>3.0450394397000001E-4</v>
@@ -3581,7 +3466,7 @@
         <v>5.9822903459533046E-7</v>
       </c>
       <c r="P26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q26">
         <v>-10.000021075999999</v>
@@ -3625,7 +3510,7 @@
         <v>90</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H27">
         <v>-1.0003004069999999</v>
@@ -3634,7 +3519,7 @@
         <v>8.1287036005280375E-7</v>
       </c>
       <c r="M27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N27">
         <v>-3.0469905695000002E-4</v>
@@ -3643,7 +3528,7 @@
         <v>8.3014230932357247E-7</v>
       </c>
       <c r="P27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q27">
         <v>10.000023293</v>
@@ -3687,7 +3572,7 @@
         <v>90</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H28">
         <v>-1.0103038608999999</v>
@@ -3696,7 +3581,7 @@
         <v>8.2486355101425509E-7</v>
       </c>
       <c r="M28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N28">
         <v>-9.3985903548000002E-3</v>
@@ -3705,7 +3590,7 @@
         <v>6.0388971473078722E-7</v>
       </c>
       <c r="P28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q28">
         <v>10.000023334</v>
@@ -3749,7 +3634,7 @@
         <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H29">
         <v>-1.0003009251999999</v>
@@ -3758,7 +3643,7 @@
         <v>4.452549332271818E-7</v>
       </c>
       <c r="M29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N29">
         <v>-3.0463584712000011E-4</v>
@@ -3767,7 +3652,7 @@
         <v>5.5502841223791019E-7</v>
       </c>
       <c r="P29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q29">
         <v>10.000024016999999</v>
@@ -3811,7 +3696,7 @@
         <v>90</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H30">
         <v>1.0003020302000001</v>
@@ -3820,7 +3705,7 @@
         <v>8.3695052291193735E-7</v>
       </c>
       <c r="M30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N30">
         <v>3.0437386631000001E-4</v>
@@ -3829,7 +3714,7 @@
         <v>7.2153183003415284E-7</v>
       </c>
       <c r="P30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q30">
         <v>-10.000019817</v>
@@ -3873,7 +3758,7 @@
         <v>90</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H31">
         <v>-1.0003008587</v>
@@ -3882,7 +3767,7 @@
         <v>8.4557160812349214E-7</v>
       </c>
       <c r="M31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N31">
         <v>-3.0459166463999999E-4</v>
@@ -3891,7 +3776,7 @@
         <v>3.8377209262623631E-7</v>
       </c>
       <c r="P31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q31">
         <v>10.000023917</v>
@@ -3935,7 +3820,7 @@
         <v>90</v>
       </c>
       <c r="G32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H32">
         <v>-1.0103044137999999</v>
@@ -3944,7 +3829,7 @@
         <v>5.0489378420752024E-7</v>
       </c>
       <c r="M32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N32">
         <v>-9.3982111768999999E-3</v>
@@ -3953,7 +3838,7 @@
         <v>4.0380187619278791E-7</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q32">
         <v>10.000022755</v>
@@ -3977,7 +3862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>10</v>
       </c>
@@ -3997,7 +3882,7 @@
         <v>90</v>
       </c>
       <c r="G33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H33">
         <v>-1.000300816</v>
@@ -4006,7 +3891,7 @@
         <v>7.076064505716005E-7</v>
       </c>
       <c r="M33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N33">
         <v>-3.0464299228999999E-4</v>
@@ -4015,7 +3900,7 @@
         <v>9.4841419087425999E-7</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q33">
         <v>10.00002301</v>
@@ -4039,7 +3924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>-10</v>
       </c>
@@ -4059,7 +3944,7 @@
         <v>90</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H34">
         <v>1.0003018430999999</v>
@@ -4068,7 +3953,7 @@
         <v>4.6450605783233313E-7</v>
       </c>
       <c r="M34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N34">
         <v>3.0400439026000001E-4</v>
@@ -4077,7 +3962,7 @@
         <v>3.5423240772467921E-7</v>
       </c>
       <c r="P34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q34">
         <v>-10.000020214999999</v>
@@ -4101,7 +3986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>10</v>
       </c>
@@ -4121,7 +4006,7 @@
         <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H35">
         <v>-1.0003004669</v>
@@ -4130,7 +4015,7 @@
         <v>7.2058856345152462E-7</v>
       </c>
       <c r="M35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N35">
         <v>-3.0453863689000003E-4</v>
@@ -4139,7 +4024,7 @@
         <v>3.835541152724884E-7</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q35">
         <v>10.000023741</v>
@@ -4163,7 +4048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>10</v>
       </c>
@@ -4183,7 +4068,7 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H36">
         <v>-1.0103038233999999</v>
@@ -4192,7 +4077,7 @@
         <v>6.2834335973807416E-7</v>
       </c>
       <c r="M36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N36">
         <v>-9.3983995658000006E-3</v>
@@ -4201,7 +4086,7 @@
         <v>8.412278301759309E-7</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q36">
         <v>10.000022384999999</v>
@@ -4225,7 +4110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>10</v>
       </c>
@@ -4245,7 +4130,7 @@
         <v>90</v>
       </c>
       <c r="G37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H37">
         <v>-1.0003008641</v>
@@ -4254,7 +4139,7 @@
         <v>8.9769153946424363E-7</v>
       </c>
       <c r="M37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N37">
         <v>-3.0421448952999989E-4</v>
@@ -4263,7 +4148,7 @@
         <v>7.7733995418689511E-7</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>10.000023264999999</v>
@@ -4287,7 +4172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>-10</v>
       </c>
@@ -4307,7 +4192,7 @@
         <v>90</v>
       </c>
       <c r="G38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H38">
         <v>1.0003015202000001</v>
@@ -4316,7 +4201,7 @@
         <v>6.9510475633076405E-7</v>
       </c>
       <c r="M38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N38">
         <v>3.0377552598999998E-4</v>
@@ -4325,7 +4210,7 @@
         <v>7.6338341559907353E-7</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>-10.000020528</v>
@@ -4349,7 +4234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>10</v>
       </c>
@@ -4369,7 +4254,7 @@
         <v>90</v>
       </c>
       <c r="G39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H39">
         <v>-1.0003008959999999</v>
@@ -4378,7 +4263,7 @@
         <v>9.1961429114045004E-7</v>
       </c>
       <c r="M39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N39">
         <v>-3.0450454660999998E-4</v>
@@ -4387,7 +4272,7 @@
         <v>5.1131919034656663E-7</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>10.000022766000001</v>
@@ -4411,7 +4296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>10</v>
       </c>
@@ -4431,7 +4316,7 @@
         <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H40">
         <v>-1.0103041966999999</v>
@@ -4440,7 +4325,7 @@
         <v>8.2193877170925992E-7</v>
       </c>
       <c r="M40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N40">
         <v>-9.3981304052999995E-3</v>
@@ -4449,7 +4334,7 @@
         <v>4.7101163357350539E-7</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>10.000023814</v>
@@ -4473,464 +4358,447 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" t="s">
-        <v>9</v>
-      </c>
-      <c r="P42" t="s">
-        <v>10</v>
-      </c>
-      <c r="S42" t="s">
-        <v>11</v>
-      </c>
-      <c r="T42" t="s">
-        <v>12</v>
-      </c>
-      <c r="U42" t="s">
-        <v>13</v>
-      </c>
-      <c r="V42" t="s">
-        <v>14</v>
-      </c>
-      <c r="W42" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" t="s">
-        <v>23</v>
-      </c>
-      <c r="M43" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" t="s">
-        <v>22</v>
-      </c>
-      <c r="O43" t="s">
-        <v>23</v>
-      </c>
-      <c r="P43" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>22</v>
-      </c>
-      <c r="R43" t="s">
-        <v>23</v>
-      </c>
-      <c r="U43">
-        <v>20.12337864956616</v>
-      </c>
-      <c r="V43">
-        <v>20.784127537624091</v>
-      </c>
-      <c r="W43" t="s">
-        <v>24</v>
-      </c>
-      <c r="X43" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>10</v>
-      </c>
-      <c r="B44" s="9">
-        <v>-1.00037</v>
-      </c>
-      <c r="C44" s="8">
-        <v>10</v>
-      </c>
-      <c r="D44" s="8">
-        <v>1</v>
-      </c>
-      <c r="E44" s="8">
-        <v>1</v>
-      </c>
-      <c r="F44" s="8">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44">
-        <v>-1.000371042559264</v>
-      </c>
-      <c r="I44">
-        <v>1.1152521212608569E-5</v>
-      </c>
-      <c r="M44" t="s">
-        <v>157</v>
-      </c>
-      <c r="N44">
-        <v>-1.1919992529092521E-7</v>
-      </c>
-      <c r="O44">
-        <v>1.3196024095837469E-6</v>
-      </c>
-      <c r="P44" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q44">
-        <v>9.9999491278399937</v>
-      </c>
-      <c r="R44">
-        <v>1.076138729069224E-4</v>
-      </c>
-      <c r="S44">
-        <v>108.0088943468954</v>
-      </c>
-      <c r="T44">
-        <v>107.9877721147779</v>
-      </c>
-      <c r="U44">
-        <v>20.561479084278169</v>
-      </c>
-      <c r="V44">
-        <v>20.452990656938791</v>
-      </c>
-      <c r="W44">
-        <v>23</v>
-      </c>
-      <c r="X44">
-        <v>1015</v>
-      </c>
-      <c r="Y44">
-        <v>40</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC44" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD44" s="46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>-10</v>
-      </c>
-      <c r="B45" s="9">
-        <v>1.00037</v>
-      </c>
-      <c r="C45" s="8">
-        <v>10</v>
-      </c>
-      <c r="D45" s="8">
-        <v>1</v>
-      </c>
-      <c r="E45" s="8">
-        <v>1</v>
-      </c>
-      <c r="F45" s="8">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s">
-        <v>160</v>
-      </c>
-      <c r="H45">
-        <v>1.0003689099356869</v>
-      </c>
-      <c r="I45">
-        <v>1.2019786349386671E-5</v>
-      </c>
-      <c r="M45" t="s">
-        <v>161</v>
-      </c>
-      <c r="N45">
-        <v>1.9523134152559239E-7</v>
-      </c>
-      <c r="O45">
-        <v>7.3605320381396214E-7</v>
-      </c>
-      <c r="P45" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q45">
-        <v>-9.9999740302896178</v>
-      </c>
-      <c r="R45">
-        <v>8.8301934192101315E-5</v>
-      </c>
-      <c r="S45">
-        <v>107.9901578487255</v>
-      </c>
-      <c r="T45">
-        <v>107.9753387665147</v>
-      </c>
-      <c r="U45">
-        <v>20.394398287141481</v>
-      </c>
-      <c r="V45">
-        <v>20.492060366484761</v>
-      </c>
-      <c r="W45">
-        <v>23</v>
-      </c>
-      <c r="X45">
-        <v>1015.1</v>
-      </c>
-      <c r="Y45">
-        <v>40</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC45" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD45" s="48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>10</v>
-      </c>
-      <c r="B46" s="9">
-        <v>-1.00037</v>
-      </c>
-      <c r="C46" s="8">
-        <v>10</v>
-      </c>
-      <c r="D46" s="8">
-        <v>1</v>
-      </c>
-      <c r="E46" s="8">
-        <v>1</v>
-      </c>
-      <c r="F46" s="8">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
-        <v>163</v>
-      </c>
-      <c r="H46">
-        <v>-1.0003749064832399</v>
-      </c>
-      <c r="I46">
-        <v>7.1413975126742757E-6</v>
-      </c>
-      <c r="M46" t="s">
-        <v>164</v>
-      </c>
-      <c r="N46">
-        <v>7.2457518946232454E-8</v>
-      </c>
-      <c r="O46">
-        <v>1.0059744420052E-6</v>
-      </c>
-      <c r="P46" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q46">
-        <v>9.9999325073716196</v>
-      </c>
-      <c r="R46">
-        <v>1.16564148121496E-4</v>
-      </c>
-      <c r="S46">
-        <v>107.99139713660389</v>
-      </c>
-      <c r="T46">
-        <v>108.01058155544639</v>
-      </c>
-      <c r="U46">
-        <v>20.84901469180847</v>
-      </c>
-      <c r="V46">
-        <v>20.48013440517499</v>
-      </c>
-      <c r="W46">
-        <v>23</v>
-      </c>
-      <c r="X46">
-        <v>1015.1</v>
-      </c>
-      <c r="Y46">
-        <v>40</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC46" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD46" s="48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>10</v>
-      </c>
-      <c r="B47" s="9">
-        <v>-1.0103736999999999</v>
-      </c>
-      <c r="C47" s="8">
-        <v>10</v>
-      </c>
-      <c r="D47" s="8">
-        <v>1</v>
-      </c>
-      <c r="E47" s="8">
-        <v>1</v>
-      </c>
-      <c r="F47" s="8">
-        <v>1</v>
-      </c>
-      <c r="G47" t="s">
-        <v>166</v>
-      </c>
-      <c r="H47">
-        <v>-1.010374451917996</v>
-      </c>
-      <c r="I47">
-        <v>1.0431184678528891E-5</v>
-      </c>
-      <c r="M47" t="s">
-        <v>167</v>
-      </c>
-      <c r="N47">
-        <v>5.9614342098699631E-8</v>
-      </c>
-      <c r="O47">
-        <v>8.811205720516165E-7</v>
-      </c>
-      <c r="P47" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q47">
-        <v>9.9999742719547147</v>
-      </c>
-      <c r="R47">
-        <v>6.04965894318117E-5</v>
-      </c>
-      <c r="S47">
-        <v>107.9874795976357</v>
-      </c>
-      <c r="T47">
-        <v>107.9999593694955</v>
-      </c>
-      <c r="U47">
-        <v>20.308034620623129</v>
-      </c>
-      <c r="V47">
-        <v>20.572037780309451</v>
-      </c>
-      <c r="W47">
-        <v>23</v>
-      </c>
-      <c r="X47">
-        <v>1015.1</v>
-      </c>
-      <c r="Y47">
-        <v>40</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC47" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD47" s="48" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AC48" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD48" s="48" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="29:30" x14ac:dyDescent="0.25">
-      <c r="AC49" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD49" s="48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="29:30" x14ac:dyDescent="0.25">
-      <c r="AC50" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD50" s="48" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="29:30" x14ac:dyDescent="0.25">
-      <c r="AC51" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD51" s="48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="29:30" x14ac:dyDescent="0.25">
-      <c r="AC52" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD52" s="48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="29:30" x14ac:dyDescent="0.25">
-      <c r="AC53" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD53" s="50" t="s">
-        <v>62</v>
-      </c>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4950,39 +4818,39 @@
   <dimension ref="A1:T197"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="900"/>
+      <pane ySplit="900" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="42" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="0" style="42" hidden="1"/>
-    <col min="12" max="12" width="15.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="0" style="42" hidden="1"/>
+    <col min="1" max="1" width="18.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="0" style="36" hidden="1"/>
+    <col min="12" max="12" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="0" style="36" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D1" s="4">
         <v>10</v>
@@ -4990,13 +4858,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -5004,7 +4872,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B3" s="3">
         <v>10</v>
@@ -5015,10 +4883,10 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5030,18 +4898,18 @@
         <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="M7">
         <v>1E-4</v>
@@ -5049,10 +4917,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C8">
         <v>100000</v>
@@ -5063,10 +4931,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C9">
         <v>10000</v>
@@ -5076,72 +4944,72 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="N10" s="32" t="s">
-        <v>190</v>
+      <c r="A10" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="28">
         <v>-2.5508205729999999E-7</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="29">
         <v>-1.3576838219999999E-6</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="28">
         <v>7.7892653279999995E-8</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="29">
         <v>-1.526541932E-6</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="28">
         <v>-9.0640896509999997E-8</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="29">
         <v>-8.5264869389999995E-7</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="28">
         <v>-4.540295426E-7</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="29">
         <v>-1.151183179E-6</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="28">
         <v>-9.3347690030000001E-7</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="29">
         <v>-2.5551494170000001E-7</v>
       </c>
       <c r="M11">
@@ -5152,34 +5020,34 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="28">
         <v>-2.329783314E-7</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="29">
         <v>-8.8479890149999997E-7</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="28">
         <v>4.696283372E-7</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="29">
         <v>-1.143837057E-6</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="28">
         <v>2.3672395250000001E-7</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="29">
         <v>-9.0811889250000001E-7</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="28">
         <v>-4.6876899320000002E-7</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="29">
         <v>-1.0723838760000001E-6</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="28">
         <v>1.566664275E-7</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="29">
         <v>-1.1489325660000001E-6</v>
       </c>
       <c r="M12">
@@ -5190,34 +5058,34 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="28">
         <v>3.1379362389999998E-8</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="29">
         <v>-8.8662129070000005E-7</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="28">
         <v>-3.2810925009999999E-7</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="29">
         <v>-1.0834735659999999E-6</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="28">
         <v>-2.7551609240000001E-7</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="29">
         <v>-1.88789156E-6</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="28">
         <v>6.1374208640000002E-7</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="29">
         <v>-1.517813063E-6</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="28">
         <v>3.3648688669999999E-7</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="29">
         <v>-1.2409641850000001E-6</v>
       </c>
       <c r="M13">
@@ -5228,133 +5096,133 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="28">
         <v>-3.4041104090000001E-7</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="29">
         <v>-4.5752566669999999E-7</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="28">
         <v>3.3334515060000001E-7</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="29">
         <v>-6.7701942210000005E-7</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="28">
         <v>-1.40149892E-7</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="29">
         <v>-1.17228996E-6</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="28">
         <v>-1.8196594780000001E-7</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="29">
         <v>-1.0005110040000001E-6</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="28">
         <v>2.7490876120000001E-7</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="29">
         <v>-5.7805519300000001E-7</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="28">
         <v>1.313237668E-7</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="29">
         <v>-3.1456741079999998E-7</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="28">
         <v>1.878475588E-7</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="29">
         <v>-1.1138342589999999E-6</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="28">
         <v>-4.661972748E-7</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="29">
         <v>-1.4291574219999999E-6</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="28">
         <v>3.2798565089999999E-7</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="29">
         <v>-1.095641381E-6</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="28">
         <v>-5.4078980540000003E-7</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="29">
         <v>-5.7904930630000002E-7</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="28">
         <v>2.6953165200000002E-7</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="29">
         <v>-1.212402181E-6</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="28">
         <v>-7.9742990500000004E-7</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="29">
         <v>-3.6480221039999999E-7</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="28">
         <v>-3.041675561E-7</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="29">
         <v>-6.067222978E-7</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="28">
         <v>3.2217802620000002E-7</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="29">
         <v>-1.266538701E-6</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="28">
         <v>4.6932641659999997E-7</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="29">
         <v>-7.616225854E-7</v>
       </c>
       <c r="M16" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="A17" s="28">
         <v>-1.575971561E-8</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="29">
         <v>-2.8322875899999997E-7</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="28">
         <v>-2.1855651280000001E-7</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="29">
         <v>-1.663007495E-6</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="28">
         <v>6.0650423680000001E-7</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="29">
         <v>-1.070228262E-6</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="28">
         <v>1.988355448E-7</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="29">
         <v>-6.1669783589999997E-7</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="28">
         <v>-7.8462624280000005E-7</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="29">
         <v>-1.3152882480000001E-6</v>
       </c>
       <c r="M17" s="17">
@@ -5362,34 +5230,34 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="A18" s="28">
         <v>-1.2308889670000001E-7</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="29">
         <v>-1.2378918320000001E-6</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="28">
         <v>6.4553057010000001E-7</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="29">
         <v>-2.3575592369999999E-6</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="28">
         <v>6.7141076369999996E-8</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="29">
         <v>-8.0649555399999999E-7</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="28">
         <v>-4.3256538039999999E-8</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="29">
         <v>-1.2472023610000001E-6</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="28">
         <v>2.6299945499999999E-7</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="29">
         <v>-1.659228216E-6</v>
       </c>
       <c r="M18" s="17">
@@ -5397,34 +5265,34 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="28">
         <v>-2.046850027E-8</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="29">
         <v>-1.2238996020000001E-6</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="28">
         <v>-1.16227168E-8</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="29">
         <v>-1.6838573339999999E-6</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="28">
         <v>-2.5092242050000002E-7</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="29">
         <v>-1.207616034E-6</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="28">
         <v>-3.2334846029999998E-7</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="29">
         <v>-5.592732282E-7</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="28">
         <v>8.5401725989999993E-9</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="29">
         <v>-1.097368512E-6</v>
       </c>
       <c r="M19" s="12">
@@ -5432,525 +5300,247 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="A20" s="28">
         <v>5.0665702130000002E-7</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="29">
         <v>-9.1759749160000004E-7</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="28">
         <v>7.488898111E-7</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="29">
         <v>-1.2980028909999999E-6</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="28">
         <v>-3.6859517370000001E-7</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="29">
         <v>-1.086330224E-6</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="28">
         <v>1.6638612129999999E-8</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="29">
         <v>-1.2377025979999999E-6</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="28">
         <v>-5.4358983570000004E-7</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="29">
         <v>-2.6676433610000002E-7</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>154</v>
-      </c>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>159</v>
-      </c>
-      <c r="M23" t="s">
-        <v>179</v>
-      </c>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="M23"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>192</v>
-      </c>
+      <c r="A24"/>
       <c r="B24"/>
-      <c r="C24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" t="s">
-        <v>182</v>
-      </c>
-      <c r="M24">
-        <v>1.098901098901099E-8</v>
-      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="M24"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25">
-        <v>10000000</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26">
-        <v>1000000</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="H27" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="I27" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="J27" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="M27" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="N27" s="32" t="s">
-        <v>190</v>
-      </c>
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="46"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="26"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="51">
-        <v>1.1206742245181531E-5</v>
-      </c>
-      <c r="B28" s="52">
-        <v>-1.1123353384200149E-5</v>
-      </c>
-      <c r="C28" s="51">
-        <v>1.116041423597806E-5</v>
-      </c>
-      <c r="D28" s="52">
-        <v>-1.0946301961197771E-5</v>
-      </c>
-      <c r="E28" s="51">
-        <v>1.089423207949212E-5</v>
-      </c>
-      <c r="F28" s="52">
-        <v>-1.0842230093216801E-5</v>
-      </c>
-      <c r="G28" s="51">
-        <v>1.081279251576997E-5</v>
-      </c>
-      <c r="H28" s="52">
-        <v>-1.121097606950067E-5</v>
-      </c>
-      <c r="I28" s="51">
-        <v>1.0956589164727191E-5</v>
-      </c>
-      <c r="J28" s="52">
-        <v>-1.120082531495419E-5</v>
-      </c>
-      <c r="M28">
-        <v>-2.4256906195220001E-8</v>
-      </c>
-      <c r="N28">
-        <v>-1.047667731552E-6</v>
-      </c>
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="46"/>
+      <c r="M28"/>
+      <c r="N28"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="51">
-        <v>1.11141659662926E-5</v>
-      </c>
-      <c r="B29" s="52">
-        <v>-1.0908020203288881E-5</v>
-      </c>
-      <c r="C29" s="51">
-        <v>1.081147998154716E-5</v>
-      </c>
-      <c r="D29" s="52">
-        <v>-1.09317097664514E-5</v>
-      </c>
-      <c r="E29" s="51">
-        <v>1.093907303796073E-5</v>
-      </c>
-      <c r="F29" s="52">
-        <v>-1.08675600733089E-5</v>
-      </c>
-      <c r="G29" s="51">
-        <v>1.085090392892343E-5</v>
-      </c>
-      <c r="H29" s="52">
-        <v>-1.099767155333512E-5</v>
-      </c>
-      <c r="I29" s="51">
-        <v>1.0659761697214019E-5</v>
-      </c>
-      <c r="J29" s="52">
-        <v>-1.091982261645814E-5</v>
-      </c>
-      <c r="M29">
-        <v>3.9183422676544929E-7</v>
-      </c>
-      <c r="N29">
-        <v>4.376287669778169E-7</v>
-      </c>
+      <c r="A29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="46"/>
+      <c r="M29"/>
+      <c r="N29"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="51">
-        <v>1.1090376952745711E-5</v>
-      </c>
-      <c r="B30" s="52">
-        <v>-1.102132853223246E-5</v>
-      </c>
-      <c r="C30" s="51">
-        <v>1.09652503447814E-5</v>
-      </c>
-      <c r="D30" s="52">
-        <v>-1.100707166566695E-5</v>
-      </c>
-      <c r="E30" s="51">
-        <v>1.113572230982027E-5</v>
-      </c>
-      <c r="F30" s="52">
-        <v>-1.121184752936157E-5</v>
-      </c>
-      <c r="G30" s="51">
-        <v>1.0986598797275871E-5</v>
-      </c>
-      <c r="H30" s="52">
-        <v>-1.089079923065058E-5</v>
-      </c>
-      <c r="I30" s="51">
-        <v>1.0924208386698801E-5</v>
-      </c>
-      <c r="J30" s="52">
-        <v>-1.1030496564023699E-5</v>
-      </c>
-      <c r="M30">
-        <v>49</v>
-      </c>
-      <c r="N30">
-        <v>49</v>
-      </c>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="46"/>
+      <c r="M30"/>
+      <c r="N30"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="51">
-        <v>1.097136382372965E-5</v>
-      </c>
-      <c r="B31" s="52">
-        <v>-1.1018217146218629E-5</v>
-      </c>
-      <c r="C31" s="51">
-        <v>1.10617437335009E-5</v>
-      </c>
-      <c r="D31" s="52">
-        <v>-1.102497774749862E-5</v>
-      </c>
-      <c r="E31" s="51">
-        <v>1.105842253829601E-5</v>
-      </c>
-      <c r="F31" s="52">
-        <v>-1.1062154512604641E-5</v>
-      </c>
-      <c r="G31" s="51">
-        <v>1.1237905865089099E-5</v>
-      </c>
-      <c r="H31" s="52">
-        <v>-1.1200658893409769E-5</v>
-      </c>
-      <c r="I31" s="51">
-        <v>1.104222845697998E-5</v>
-      </c>
-      <c r="J31" s="52">
-        <v>-1.086496295493758E-5</v>
-      </c>
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="51">
-        <v>1.100634692700204E-5</v>
-      </c>
-      <c r="B32" s="52">
-        <v>-1.1047530453796051E-5</v>
-      </c>
-      <c r="C32" s="51">
-        <v>1.121696155231602E-5</v>
-      </c>
-      <c r="D32" s="52">
-        <v>-1.095103536277809E-5</v>
-      </c>
-      <c r="E32" s="51">
-        <v>1.101790583211221E-5</v>
-      </c>
-      <c r="F32" s="52">
-        <v>-1.0970961013833521E-5</v>
-      </c>
-      <c r="G32" s="51">
-        <v>1.0859306520327429E-5</v>
-      </c>
-      <c r="H32" s="52">
-        <v>-1.0897414461150651E-5</v>
-      </c>
-      <c r="I32" s="51">
-        <v>1.112238105974305E-5</v>
-      </c>
-      <c r="J32" s="52">
-        <v>-1.096647138226831E-5</v>
-      </c>
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="46"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="51">
-        <v>1.0791411513430579E-5</v>
-      </c>
-      <c r="B33" s="52">
-        <v>-1.081101170010591E-5</v>
-      </c>
-      <c r="C33" s="51">
-        <v>1.1058533630416241E-5</v>
-      </c>
-      <c r="D33" s="52">
-        <v>-1.107039360741768E-5</v>
-      </c>
-      <c r="E33" s="51">
-        <v>1.097740969978182E-5</v>
-      </c>
-      <c r="F33" s="52">
-        <v>-1.118884047675793E-5</v>
-      </c>
-      <c r="G33" s="51">
-        <v>1.08386611472641E-5</v>
-      </c>
-      <c r="H33" s="52">
-        <v>-1.112510573445156E-5</v>
-      </c>
-      <c r="I33" s="51">
-        <v>1.0780052167428519E-5</v>
-      </c>
-      <c r="J33" s="52">
-        <v>-1.084796738217309E-5</v>
-      </c>
-      <c r="M33" t="s">
-        <v>191</v>
-      </c>
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="46"/>
+      <c r="M33"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="51">
-        <v>1.1253234634819211E-5</v>
-      </c>
-      <c r="B34" s="52">
-        <v>-1.084990271698333E-5</v>
-      </c>
-      <c r="C34" s="51">
-        <v>1.097540519534877E-5</v>
-      </c>
-      <c r="D34" s="52">
-        <v>-1.077334654613137E-5</v>
-      </c>
-      <c r="E34" s="51">
-        <v>1.1026088776726449E-5</v>
-      </c>
-      <c r="F34" s="52">
-        <v>-1.082037175053182E-5</v>
-      </c>
-      <c r="G34" s="51">
-        <v>1.0895697633051771E-5</v>
-      </c>
-      <c r="H34" s="52">
-        <v>-1.1132005408271669E-5</v>
-      </c>
-      <c r="I34" s="51">
-        <v>1.115291796105939E-5</v>
-      </c>
-      <c r="J34" s="52">
-        <v>-1.0975313382145909E-5</v>
-      </c>
-      <c r="M34" s="17">
-        <v>5.1170541267838987E-3</v>
-      </c>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="46"/>
+      <c r="M34" s="17"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="51">
-        <v>1.0948934527679611E-5</v>
-      </c>
-      <c r="B35" s="52">
-        <v>-1.08901405142249E-5</v>
-      </c>
-      <c r="C35" s="51">
-        <v>1.098886928430826E-5</v>
-      </c>
-      <c r="D35" s="52">
-        <v>-1.1130215487211279E-5</v>
-      </c>
-      <c r="E35" s="51">
-        <v>1.098073956210485E-5</v>
-      </c>
-      <c r="F35" s="52">
-        <v>-1.0791797068310299E-5</v>
-      </c>
-      <c r="G35" s="51">
-        <v>1.081438399130992E-5</v>
-      </c>
-      <c r="H35" s="52">
-        <v>-1.09787826676238E-5</v>
-      </c>
-      <c r="I35" s="51">
-        <v>1.1274317118922921E-5</v>
-      </c>
-      <c r="J35" s="52">
-        <v>-1.1317120136606191E-5</v>
-      </c>
-      <c r="M35" s="17">
-        <v>2.937060600972517E-3</v>
-      </c>
+      <c r="A35" s="45"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="46"/>
+      <c r="M35" s="17"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="51">
-        <v>1.123070685643913E-5</v>
-      </c>
-      <c r="B36" s="52">
-        <v>-1.104090218385576E-5</v>
-      </c>
-      <c r="C36" s="51">
-        <v>1.0984607187759841E-5</v>
-      </c>
-      <c r="D36" s="52">
-        <v>-1.0999902560541121E-5</v>
-      </c>
-      <c r="E36" s="51">
-        <v>1.101116761499097E-5</v>
-      </c>
-      <c r="F36" s="52">
-        <v>-1.1020276602574989E-5</v>
-      </c>
-      <c r="G36" s="51">
-        <v>1.083710877007656E-5</v>
-      </c>
-      <c r="H36" s="52">
-        <v>-1.1073076434713811E-5</v>
-      </c>
-      <c r="I36" s="51">
-        <v>1.1114168150906109E-5</v>
-      </c>
-      <c r="J36" s="52">
-        <v>-1.0811727392594551E-5</v>
-      </c>
-      <c r="M36" s="12">
-        <v>96.826604214397832</v>
-      </c>
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="46"/>
+      <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="51">
-        <v>1.079431385130296E-5</v>
-      </c>
-      <c r="B37" s="52">
-        <v>-1.1019356856166661E-5</v>
-      </c>
-      <c r="C37" s="51">
-        <v>1.084475819108993E-5</v>
-      </c>
-      <c r="D37" s="52">
-        <v>-1.1010844648679241E-5</v>
-      </c>
-      <c r="E37" s="51">
-        <v>1.079692723530791E-5</v>
-      </c>
-      <c r="F37" s="52">
-        <v>-1.118494699257465E-5</v>
-      </c>
-      <c r="G37" s="51">
-        <v>1.112289084467463E-5</v>
-      </c>
-      <c r="H37" s="52">
-        <v>-1.078868503355594E-5</v>
-      </c>
-      <c r="I37" s="51">
-        <v>1.1222135886020571E-5</v>
-      </c>
-      <c r="J37" s="52">
-        <v>-1.1099119006373851E-5</v>
-      </c>
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="46"/>
     </row>
     <row r="180" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O180" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="P180" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="Q180" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="R180" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="S180" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="T180" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O197" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="P197" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="Q197" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="R197" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="S197" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="T197" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5972,89 +5562,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="42" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="42" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="42" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="74" style="42" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="42" customWidth="1"/>
-    <col min="17" max="21" width="0" style="42" hidden="1"/>
+    <col min="1" max="1" width="20.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="36" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="74" style="36" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="36" customWidth="1"/>
+    <col min="17" max="21" width="0" style="36" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>197</v>
+        <v>175</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>204</v>
+        <v>182</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>183</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>204</v>
+        <v>182</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>183</v>
       </c>
       <c r="Q2" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C3">
         <v>100.01179999999999</v>
@@ -6063,36 +5653,36 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>210</v>
+        <v>188</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>189</v>
       </c>
       <c r="I3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="J3" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="N3" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="O3" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="Q3" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6101,33 +5691,33 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="I4" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="J4" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="N4" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="O4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="Q4" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C5" s="21">
         <v>3.9091200000000003E-3</v>
@@ -6136,33 +5726,33 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="I5" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="J5" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="N5" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="O5" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="Q5" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C6" s="21">
         <v>-5.9260000000000005E-7</v>
@@ -6171,59 +5761,59 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F6" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="I6" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="J6" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K6">
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="Q6" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C7" s="22">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="J7" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K7" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="O7" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="Q7" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>37</v>
@@ -6231,26 +5821,26 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="36"/>
+      <c r="G8" s="30"/>
       <c r="I8" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="J8" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K8" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="Q8" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C9" s="21">
         <v>10000.200000000001</v>
@@ -6259,34 +5849,34 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+        <v>218</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
       <c r="Q9" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C10" s="21">
         <v>23</v>
@@ -6295,16 +5885,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="I10" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="J10" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K10" s="21">
         <v>-1E-3</v>
@@ -6313,24 +5903,24 @@
         <v>4.4999999999999999E-4</v>
       </c>
       <c r="M10" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="N10" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="O10" t="s">
-        <v>213</v>
-      </c>
-      <c r="R10" s="37" t="s">
-        <v>245</v>
+        <v>192</v>
+      </c>
+      <c r="R10" s="31" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C11" s="21">
         <v>1E-3</v>
@@ -6339,36 +5929,36 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="I11" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="J11" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K11">
         <v>5</v>
       </c>
       <c r="O11" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="R11" t="s">
-        <v>247</v>
-      </c>
-      <c r="S11" s="37" t="s">
-        <v>248</v>
+        <v>226</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C12" s="21">
         <v>0</v>
@@ -6377,62 +5967,62 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F12" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="J12" t="s">
+        <v>210</v>
+      </c>
+      <c r="K12" t="s">
+        <v>229</v>
+      </c>
+      <c r="O12" t="s">
+        <v>207</v>
+      </c>
+      <c r="S12" t="s">
+        <v>230</v>
+      </c>
+      <c r="T12" s="31" t="s">
         <v>231</v>
-      </c>
-      <c r="K12" t="s">
-        <v>250</v>
-      </c>
-      <c r="O12" t="s">
-        <v>228</v>
-      </c>
-      <c r="S12" t="s">
-        <v>251</v>
-      </c>
-      <c r="T12" s="37" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C13" s="22">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="J13" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K13" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="T13" t="s">
-        <v>254</v>
-      </c>
-      <c r="U13" s="37" t="s">
-        <v>255</v>
+        <v>233</v>
+      </c>
+      <c r="U13" s="31" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>37</v>
@@ -6440,32 +6030,32 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="36"/>
-      <c r="I14" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K14" s="36" t="s">
+      <c r="G14" s="30"/>
+      <c r="I14" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="T14" s="37" t="s">
-        <v>257</v>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="T14" s="31" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" t="s">
         <v>186</v>
-      </c>
-      <c r="B15" t="s">
-        <v>207</v>
       </c>
       <c r="C15">
         <v>9999.9992600000005</v>
@@ -6477,13 +6067,13 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K15" s="21">
         <v>-5.0000000000000001E-4</v>
@@ -6492,25 +6082,25 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="M15" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="N15" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="O15" t="s">
-        <v>213</v>
-      </c>
-      <c r="S15" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="T15" s="37"/>
+        <v>192</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="T15" s="31"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C16" s="10">
         <v>20</v>
@@ -6519,34 +6109,34 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F16" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K16">
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>228</v>
-      </c>
-      <c r="S16" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="T16" s="37"/>
+        <v>207</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="T16" s="31"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="C17" s="21">
         <v>5</v>
@@ -6555,34 +6145,34 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F17" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K17" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="O17" t="s">
-        <v>228</v>
-      </c>
-      <c r="S17" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="T17" s="37"/>
+        <v>207</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="T17" s="31"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C18">
         <v>9999.9992600000005</v>
@@ -6594,30 +6184,30 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K18" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="S18" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="T18" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="C19" s="10">
         <v>20</v>
@@ -6626,36 +6216,36 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F19" t="s">
-        <v>272</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K19" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36" t="s">
-        <v>256</v>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30" t="s">
+        <v>235</v>
       </c>
       <c r="T19" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -6664,30 +6254,30 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F20" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
-      <c r="S20" s="37" t="s">
-        <v>276</v>
+      <c r="S20" s="31" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C21" s="21">
         <v>3.4200000000000002E-7</v>
@@ -6699,30 +6289,30 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="S21" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="T21" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C22" s="21">
         <v>-2.7E-8</v>
@@ -6734,27 +6324,27 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T22" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6763,37 +6353,37 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F23" t="s">
-        <v>283</v>
-      </c>
-      <c r="I23" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="I23" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K23" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
+      <c r="J23" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
       <c r="T23" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="U23" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C24" s="22">
         <v>42522</v>
@@ -6802,7 +6392,7 @@
         <v>9</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -6810,26 +6400,26 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="36"/>
+      <c r="G25" s="30"/>
       <c r="I25" t="s">
         <v>9</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -6837,10 +6427,10 @@
         <v>9</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -6848,18 +6438,18 @@
         <v>9</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="K27" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I28" s="13" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K28" s="13">
         <v>2</v>
@@ -6871,47 +6461,47 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="J29" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K29" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="J30" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I31" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="J31" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K31" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
+      <c r="I31" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
         <v>8</v>
       </c>
       <c r="J32" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -6922,10 +6512,10 @@
         <v>8</v>
       </c>
       <c r="J33" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K33" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="9:15" x14ac:dyDescent="0.25">
@@ -6933,33 +6523,33 @@
         <v>8</v>
       </c>
       <c r="J34" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K35" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
+      <c r="J35" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
     </row>
     <row r="36" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
         <v>37</v>
       </c>
       <c r="J36" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -6968,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="9:15" x14ac:dyDescent="0.25">
@@ -6976,7 +6566,7 @@
         <v>37</v>
       </c>
       <c r="J37" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -6985,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="9:15" x14ac:dyDescent="0.25">
@@ -6993,7 +6583,7 @@
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -7002,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="9:15" x14ac:dyDescent="0.25">
@@ -7010,7 +6600,7 @@
         <v>37</v>
       </c>
       <c r="J39" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -7019,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="9:15" x14ac:dyDescent="0.25">
@@ -7027,7 +6617,7 @@
         <v>37</v>
       </c>
       <c r="J40" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -7036,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="9:15" x14ac:dyDescent="0.25">
@@ -7044,7 +6634,7 @@
         <v>37</v>
       </c>
       <c r="J41" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -7053,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="9:15" x14ac:dyDescent="0.25">
@@ -7061,7 +6651,7 @@
         <v>37</v>
       </c>
       <c r="J42" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -7070,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="9:15" x14ac:dyDescent="0.25">
@@ -7078,7 +6668,7 @@
         <v>37</v>
       </c>
       <c r="J43" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -7087,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="9:15" x14ac:dyDescent="0.25">
@@ -7095,7 +6685,7 @@
         <v>37</v>
       </c>
       <c r="J44" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -7106,10 +6696,10 @@
         <v>37</v>
       </c>
       <c r="J45" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K45" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="9:15" x14ac:dyDescent="0.25">
@@ -7117,31 +6707,31 @@
         <v>37</v>
       </c>
       <c r="J46" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K46" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I47" s="36" t="s">
+      <c r="I47" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="J47" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
+      <c r="J47" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
     </row>
     <row r="48" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="J48" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -7150,15 +6740,15 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I49" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="J49" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -7167,15 +6757,15 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="J50" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -7184,78 +6774,78 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="J51" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K51">
         <v>7</v>
       </c>
-      <c r="M51" s="40"/>
+      <c r="M51" s="34"/>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I52" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="J52" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K52" t="s">
-        <v>301</v>
-      </c>
-      <c r="M52" s="40"/>
+        <v>280</v>
+      </c>
+      <c r="M52" s="34"/>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="J53" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="K53" t="s">
-        <v>303</v>
-      </c>
-      <c r="M53" s="40"/>
+        <v>282</v>
+      </c>
+      <c r="M53" s="34"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I54" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="J54" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K54" t="s">
-        <v>304</v>
-      </c>
-      <c r="M54" s="40"/>
+        <v>283</v>
+      </c>
+      <c r="M54" s="34"/>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I55" s="36" t="s">
-        <v>300</v>
-      </c>
-      <c r="J55" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K55" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="L55" s="36"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
+      <c r="I55" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K55" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="L55" s="30"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -7264,15 +6854,15 @@
         <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J57" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -7281,15 +6871,15 @@
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J58" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -7298,15 +6888,15 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J59" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K59">
         <v>17</v>
@@ -7314,909 +6904,909 @@
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J60" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K60" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J61" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="K61" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J62" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K62" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J63" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="K63" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I64" s="13" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="K64" s="38">
+        <v>269</v>
+      </c>
+      <c r="K64" s="32">
         <v>0</v>
       </c>
-      <c r="L64" s="38">
+      <c r="L64" s="32">
         <v>0</v>
       </c>
-      <c r="M64" s="38" t="s">
-        <v>208</v>
+      <c r="M64" s="32" t="s">
+        <v>187</v>
       </c>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
     </row>
     <row r="65" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J65" t="s">
-        <v>291</v>
-      </c>
-      <c r="K65" s="39">
+        <v>270</v>
+      </c>
+      <c r="K65" s="33">
         <v>-5.6799999999999998E-5</v>
       </c>
-      <c r="L65" s="39">
+      <c r="L65" s="33">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="M65" s="40" t="s">
-        <v>208</v>
+      <c r="M65" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N65" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="9:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J66" t="s">
-        <v>292</v>
-      </c>
-      <c r="K66" s="39">
+        <v>271</v>
+      </c>
+      <c r="K66" s="33">
         <v>-5.63E-5</v>
       </c>
-      <c r="L66" s="39">
+      <c r="L66" s="33">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M66" s="40" t="s">
-        <v>208</v>
+      <c r="M66" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N66" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J67" t="s">
-        <v>293</v>
-      </c>
-      <c r="K67" s="40">
+        <v>272</v>
+      </c>
+      <c r="K67" s="34">
         <v>0</v>
       </c>
-      <c r="L67" s="40">
+      <c r="L67" s="34">
         <v>0</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M67" s="34">
         <v>7</v>
       </c>
       <c r="N67" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J68" t="s">
-        <v>294</v>
-      </c>
-      <c r="K68" s="39">
+        <v>273</v>
+      </c>
+      <c r="K68" s="33">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L68" s="39">
+      <c r="L68" s="33">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M68" s="40">
+      <c r="M68" s="34">
         <v>7</v>
       </c>
       <c r="N68" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="O68" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J69" t="s">
-        <v>295</v>
-      </c>
-      <c r="K69" s="39">
+        <v>274</v>
+      </c>
+      <c r="K69" s="33">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L69" s="39">
+      <c r="L69" s="33">
         <v>1.8E-7</v>
       </c>
-      <c r="M69" s="40" t="s">
-        <v>208</v>
+      <c r="M69" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N69" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="O69" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J70" t="s">
-        <v>296</v>
-      </c>
-      <c r="K70" s="40">
+        <v>275</v>
+      </c>
+      <c r="K70" s="34">
         <v>0</v>
       </c>
-      <c r="L70" s="39">
+      <c r="L70" s="33">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M70" s="40">
+      <c r="M70" s="34">
         <v>8</v>
       </c>
       <c r="N70" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="O70" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J71" t="s">
-        <v>297</v>
-      </c>
-      <c r="K71" s="40">
+        <v>276</v>
+      </c>
+      <c r="K71" s="34">
         <v>0</v>
       </c>
-      <c r="L71" s="39">
+      <c r="L71" s="33">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M71" s="40">
+      <c r="M71" s="34">
         <v>8</v>
       </c>
       <c r="N71" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="O71" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J72" t="s">
-        <v>227</v>
-      </c>
-      <c r="K72" s="40">
+        <v>206</v>
+      </c>
+      <c r="K72" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J73" t="s">
-        <v>231</v>
-      </c>
-      <c r="K73" s="40" t="s">
-        <v>317</v>
+        <v>210</v>
+      </c>
+      <c r="K73" s="34" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J74" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="K74" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J75" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K75" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I76" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J76" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K76" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="36"/>
+      <c r="I76" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="J76" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K76" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J77" t="s">
-        <v>290</v>
-      </c>
-      <c r="K77" s="40">
+        <v>269</v>
+      </c>
+      <c r="K77" s="34">
         <v>0</v>
       </c>
-      <c r="L77" s="40">
+      <c r="L77" s="34">
         <v>0</v>
       </c>
-      <c r="M77" s="40" t="s">
-        <v>208</v>
+      <c r="M77" s="34" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J78" t="s">
-        <v>291</v>
-      </c>
-      <c r="K78" s="39">
+        <v>270</v>
+      </c>
+      <c r="K78" s="33">
         <v>-5.6799999999999998E-5</v>
       </c>
-      <c r="L78" s="39">
+      <c r="L78" s="33">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="M78" s="40" t="s">
-        <v>208</v>
+      <c r="M78" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N78" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J79" t="s">
-        <v>292</v>
-      </c>
-      <c r="K79" s="39">
+        <v>271</v>
+      </c>
+      <c r="K79" s="33">
         <v>-5.63E-5</v>
       </c>
-      <c r="L79" s="39">
+      <c r="L79" s="33">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M79" s="40" t="s">
-        <v>208</v>
+      <c r="M79" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N79" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J80" t="s">
-        <v>293</v>
-      </c>
-      <c r="K80" s="40">
+        <v>272</v>
+      </c>
+      <c r="K80" s="34">
         <v>0</v>
       </c>
-      <c r="L80" s="40">
+      <c r="L80" s="34">
         <v>0</v>
       </c>
-      <c r="M80" s="40">
+      <c r="M80" s="34">
         <v>7</v>
       </c>
       <c r="N80" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="O80" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J81" t="s">
-        <v>294</v>
-      </c>
-      <c r="K81" s="39">
+        <v>273</v>
+      </c>
+      <c r="K81" s="33">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L81" s="39">
+      <c r="L81" s="33">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M81" s="40">
+      <c r="M81" s="34">
         <v>7</v>
       </c>
       <c r="N81" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="O81" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J82" t="s">
-        <v>295</v>
-      </c>
-      <c r="K82" s="39">
+        <v>274</v>
+      </c>
+      <c r="K82" s="33">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L82" s="39">
+      <c r="L82" s="33">
         <v>1.8E-7</v>
       </c>
-      <c r="M82" s="40" t="s">
-        <v>208</v>
+      <c r="M82" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N82" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="O82" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J83" t="s">
-        <v>296</v>
-      </c>
-      <c r="K83" s="40">
+        <v>275</v>
+      </c>
+      <c r="K83" s="34">
         <v>0</v>
       </c>
-      <c r="L83" s="39">
+      <c r="L83" s="33">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M83" s="40">
+      <c r="M83" s="34">
         <v>8</v>
       </c>
       <c r="N83" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="O83" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J84" t="s">
-        <v>297</v>
-      </c>
-      <c r="K84" s="40">
+        <v>276</v>
+      </c>
+      <c r="K84" s="34">
         <v>0</v>
       </c>
-      <c r="L84" s="39">
+      <c r="L84" s="33">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M84" s="40">
+      <c r="M84" s="34">
         <v>8</v>
       </c>
       <c r="N84" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J85" t="s">
-        <v>227</v>
-      </c>
-      <c r="K85" s="40">
+        <v>206</v>
+      </c>
+      <c r="K85" s="34">
         <v>25</v>
       </c>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J86" t="s">
-        <v>231</v>
-      </c>
-      <c r="K86" s="40" t="s">
-        <v>323</v>
+        <v>210</v>
+      </c>
+      <c r="K86" s="34" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J87" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="K87" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J88" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K88" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I89" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="J89" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K89" s="36" t="s">
-        <v>320</v>
+      <c r="I89" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="J89" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K89" s="30" t="s">
+        <v>299</v>
       </c>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
       <c r="N89" s="14"/>
-      <c r="O89" s="36"/>
+      <c r="O89" s="30"/>
     </row>
     <row r="90" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I90" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="J90" t="s">
-        <v>290</v>
-      </c>
-      <c r="K90" s="40">
+        <v>269</v>
+      </c>
+      <c r="K90" s="34">
         <v>0</v>
       </c>
-      <c r="L90" s="40">
+      <c r="L90" s="34">
         <v>0</v>
       </c>
-      <c r="M90" s="40" t="s">
-        <v>208</v>
+      <c r="M90" s="34" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I91" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="J91" t="s">
-        <v>291</v>
-      </c>
-      <c r="K91" s="39">
+        <v>270</v>
+      </c>
+      <c r="K91" s="33">
         <v>-5.6799999999999998E-5</v>
       </c>
-      <c r="L91" s="39">
+      <c r="L91" s="33">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="M91" s="40" t="s">
-        <v>208</v>
+      <c r="M91" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N91" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I92" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="J92" t="s">
-        <v>292</v>
-      </c>
-      <c r="K92" s="39">
+        <v>271</v>
+      </c>
+      <c r="K92" s="33">
         <v>-5.63E-5</v>
       </c>
-      <c r="L92" s="39">
+      <c r="L92" s="33">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M92" s="40" t="s">
-        <v>208</v>
+      <c r="M92" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N92" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I93" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="J93" t="s">
-        <v>293</v>
-      </c>
-      <c r="K93" s="40">
+        <v>272</v>
+      </c>
+      <c r="K93" s="34">
         <v>0</v>
       </c>
-      <c r="L93" s="40">
+      <c r="L93" s="34">
         <v>0</v>
       </c>
-      <c r="M93" s="40">
+      <c r="M93" s="34">
         <v>7</v>
       </c>
       <c r="N93" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="O93" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I94" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="J94" t="s">
-        <v>294</v>
-      </c>
-      <c r="K94" s="39">
+        <v>273</v>
+      </c>
+      <c r="K94" s="33">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L94" s="39">
+      <c r="L94" s="33">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M94" s="40">
+      <c r="M94" s="34">
         <v>7</v>
       </c>
       <c r="N94" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="O94" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I95" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="J95" t="s">
-        <v>295</v>
-      </c>
-      <c r="K95" s="39">
+        <v>274</v>
+      </c>
+      <c r="K95" s="33">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L95" s="39">
+      <c r="L95" s="33">
         <v>1.8E-7</v>
       </c>
-      <c r="M95" s="40" t="s">
-        <v>208</v>
+      <c r="M95" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N95" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="O95" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I96" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="J96" t="s">
-        <v>296</v>
-      </c>
-      <c r="K96" s="40">
+        <v>275</v>
+      </c>
+      <c r="K96" s="34">
         <v>0</v>
       </c>
-      <c r="L96" s="39">
+      <c r="L96" s="33">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M96" s="40">
+      <c r="M96" s="34">
         <v>8</v>
       </c>
       <c r="N96" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="O96" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="J97" t="s">
-        <v>297</v>
-      </c>
-      <c r="K97" s="40">
+        <v>276</v>
+      </c>
+      <c r="K97" s="34">
         <v>0</v>
       </c>
-      <c r="L97" s="39">
+      <c r="L97" s="33">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M97" s="40">
+      <c r="M97" s="34">
         <v>8</v>
       </c>
       <c r="N97" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I98" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="J98" t="s">
-        <v>227</v>
-      </c>
-      <c r="K98" s="40">
+        <v>206</v>
+      </c>
+      <c r="K98" s="34">
         <v>22</v>
       </c>
     </row>
     <row r="99" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I99" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="J99" t="s">
-        <v>231</v>
-      </c>
-      <c r="K99" s="40" t="s">
-        <v>327</v>
+        <v>210</v>
+      </c>
+      <c r="K99" s="34" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I100" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="J100" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="K100" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I101" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="J101" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K101" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I102" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="J102" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K102" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="L102" s="36"/>
-      <c r="M102" s="36"/>
-      <c r="N102" s="36"/>
-      <c r="O102" s="36"/>
+      <c r="I102" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="J102" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K102" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="L102" s="30"/>
+      <c r="M102" s="30"/>
+      <c r="N102" s="30"/>
+      <c r="O102" s="30"/>
     </row>
     <row r="103" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I103" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J103" t="s">
-        <v>290</v>
-      </c>
-      <c r="K103" s="40">
+        <v>269</v>
+      </c>
+      <c r="K103" s="34">
         <v>0</v>
       </c>
-      <c r="L103" s="40">
+      <c r="L103" s="34">
         <v>0</v>
       </c>
-      <c r="M103" s="40" t="s">
-        <v>208</v>
+      <c r="M103" s="34" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I104" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J104" t="s">
-        <v>291</v>
-      </c>
-      <c r="K104" s="39">
+        <v>270</v>
+      </c>
+      <c r="K104" s="33">
         <v>-5.6799999999999998E-5</v>
       </c>
-      <c r="L104" s="39">
+      <c r="L104" s="33">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="M104" s="40" t="s">
-        <v>208</v>
+      <c r="M104" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N104" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I105" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J105" t="s">
-        <v>292</v>
-      </c>
-      <c r="K105" s="39">
+        <v>271</v>
+      </c>
+      <c r="K105" s="33">
         <v>-5.63E-5</v>
       </c>
-      <c r="L105" s="39">
+      <c r="L105" s="33">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M105" s="40" t="s">
-        <v>208</v>
+      <c r="M105" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N105" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I106" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J106" t="s">
-        <v>293</v>
-      </c>
-      <c r="K106" s="40">
+        <v>272</v>
+      </c>
+      <c r="K106" s="34">
         <v>0</v>
       </c>
-      <c r="L106" s="40">
+      <c r="L106" s="34">
         <v>0</v>
       </c>
-      <c r="M106" s="40">
+      <c r="M106" s="34">
         <v>7</v>
       </c>
       <c r="N106" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="O106" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I107" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J107" t="s">
-        <v>294</v>
-      </c>
-      <c r="K107" s="39">
+        <v>273</v>
+      </c>
+      <c r="K107" s="33">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L107" s="39">
+      <c r="L107" s="33">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M107" s="40">
+      <c r="M107" s="34">
         <v>7</v>
       </c>
       <c r="N107" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="O107" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I108" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J108" t="s">
-        <v>295</v>
-      </c>
-      <c r="K108" s="39">
+        <v>274</v>
+      </c>
+      <c r="K108" s="33">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L108" s="39">
+      <c r="L108" s="33">
         <v>1.8E-7</v>
       </c>
-      <c r="M108" s="40" t="s">
-        <v>208</v>
+      <c r="M108" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N108" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="O108" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I109" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J109" t="s">
-        <v>296</v>
-      </c>
-      <c r="K109" s="40">
+        <v>275</v>
+      </c>
+      <c r="K109" s="34">
         <v>0</v>
       </c>
-      <c r="L109" s="39">
+      <c r="L109" s="33">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M109" s="40">
+      <c r="M109" s="34">
         <v>8</v>
       </c>
       <c r="N109" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="O109" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I110" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J110" t="s">
-        <v>297</v>
-      </c>
-      <c r="K110" s="40">
+        <v>276</v>
+      </c>
+      <c r="K110" s="34">
         <v>0</v>
       </c>
-      <c r="L110" s="39">
+      <c r="L110" s="33">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M110" s="40">
+      <c r="M110" s="34">
         <v>8</v>
       </c>
       <c r="N110" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I111" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J111" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K111">
         <v>23</v>
@@ -8224,227 +7814,227 @@
     </row>
     <row r="112" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I112" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J112" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K112" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I113" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J113" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="K113" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I114" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J114" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K114" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I115" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="J115" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K115" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="L115" s="36"/>
-      <c r="M115" s="36"/>
-      <c r="N115" s="36"/>
-      <c r="O115" s="36"/>
+      <c r="I115" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J115" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K115" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="L115" s="30"/>
+      <c r="M115" s="30"/>
+      <c r="N115" s="30"/>
+      <c r="O115" s="30"/>
     </row>
     <row r="116" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J116" t="s">
-        <v>290</v>
-      </c>
-      <c r="K116" s="40">
+        <v>269</v>
+      </c>
+      <c r="K116" s="34">
         <v>0</v>
       </c>
-      <c r="L116" s="40">
+      <c r="L116" s="34">
         <v>0</v>
       </c>
-      <c r="M116" s="40" t="s">
-        <v>208</v>
+      <c r="M116" s="34" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J117" t="s">
-        <v>291</v>
-      </c>
-      <c r="K117" s="39">
+        <v>270</v>
+      </c>
+      <c r="K117" s="33">
         <v>-5.6799999999999998E-5</v>
       </c>
-      <c r="L117" s="39">
+      <c r="L117" s="33">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="M117" s="40" t="s">
-        <v>208</v>
+      <c r="M117" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N117" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I118" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J118" t="s">
-        <v>292</v>
-      </c>
-      <c r="K118" s="39">
+        <v>271</v>
+      </c>
+      <c r="K118" s="33">
         <v>-5.63E-5</v>
       </c>
-      <c r="L118" s="39">
+      <c r="L118" s="33">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="M118" s="40" t="s">
-        <v>208</v>
+      <c r="M118" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N118" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I119" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J119" t="s">
-        <v>293</v>
-      </c>
-      <c r="K119" s="40">
+        <v>272</v>
+      </c>
+      <c r="K119" s="34">
         <v>0</v>
       </c>
-      <c r="L119" s="40">
+      <c r="L119" s="34">
         <v>0</v>
       </c>
-      <c r="M119" s="40">
+      <c r="M119" s="34">
         <v>7</v>
       </c>
       <c r="N119" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="O119" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="120" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I120" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J120" t="s">
-        <v>294</v>
-      </c>
-      <c r="K120" s="39">
+        <v>273</v>
+      </c>
+      <c r="K120" s="33">
         <v>2.2210000000000001E-7</v>
       </c>
-      <c r="L120" s="39">
+      <c r="L120" s="33">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="M120" s="40">
+      <c r="M120" s="34">
         <v>7</v>
       </c>
       <c r="N120" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="O120" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I121" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J121" t="s">
-        <v>295</v>
-      </c>
-      <c r="K121" s="39">
+        <v>274</v>
+      </c>
+      <c r="K121" s="33">
         <v>4.8090000000000002E-7</v>
       </c>
-      <c r="L121" s="39">
+      <c r="L121" s="33">
         <v>1.8E-7</v>
       </c>
-      <c r="M121" s="40" t="s">
-        <v>208</v>
+      <c r="M121" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="N121" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="O121" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I122" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J122" t="s">
-        <v>296</v>
-      </c>
-      <c r="K122" s="40">
+        <v>275</v>
+      </c>
+      <c r="K122" s="34">
         <v>0</v>
       </c>
-      <c r="L122" s="39">
+      <c r="L122" s="33">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M122" s="40">
+      <c r="M122" s="34">
         <v>8</v>
       </c>
       <c r="N122" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="O122" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I123" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J123" t="s">
-        <v>297</v>
-      </c>
-      <c r="K123" s="40">
+        <v>276</v>
+      </c>
+      <c r="K123" s="34">
         <v>0</v>
       </c>
-      <c r="L123" s="39">
+      <c r="L123" s="33">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="M123" s="40">
+      <c r="M123" s="34">
         <v>8</v>
       </c>
       <c r="N123" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I124" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J124" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K124">
         <v>24</v>
@@ -8452,93 +8042,93 @@
     </row>
     <row r="125" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I125" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J125" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K125" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I126" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J126" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="K126" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="127" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I127" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J127" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K127" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I128" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="J128" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K128" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="L128" s="36"/>
-      <c r="M128" s="36"/>
-      <c r="N128" s="36"/>
-      <c r="O128" s="36"/>
+      <c r="I128" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="J128" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K128" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="L128" s="30"/>
+      <c r="M128" s="30"/>
+      <c r="N128" s="30"/>
+      <c r="O128" s="30"/>
     </row>
     <row r="129" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I129" t="s">
         <v>42</v>
       </c>
       <c r="J129" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K129">
         <v>2</v>
       </c>
-      <c r="L129" s="40"/>
-      <c r="M129" s="40"/>
+      <c r="L129" s="34"/>
+      <c r="M129" s="34"/>
     </row>
     <row r="130" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I130" t="s">
         <v>42</v>
       </c>
       <c r="J130" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K130" t="s">
-        <v>337</v>
-      </c>
-      <c r="L130" s="39"/>
-      <c r="M130" s="40"/>
+        <v>316</v>
+      </c>
+      <c r="L130" s="33"/>
+      <c r="M130" s="34"/>
     </row>
     <row r="131" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I131" t="s">
         <v>42</v>
       </c>
       <c r="J131" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="K131" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="L131" s="19" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="M131" s="20" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.25">
@@ -8546,38 +8136,38 @@
         <v>42</v>
       </c>
       <c r="J132" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="K132" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="L132" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="M132" s="40"/>
+        <v>323</v>
+      </c>
+      <c r="M132" s="34"/>
     </row>
     <row r="133" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I133" t="s">
         <v>42</v>
       </c>
       <c r="J133" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="K133" t="s">
-        <v>346</v>
-      </c>
-      <c r="L133" s="39"/>
-      <c r="M133" s="40"/>
+        <v>325</v>
+      </c>
+      <c r="L133" s="33"/>
+      <c r="M133" s="34"/>
     </row>
     <row r="134" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I134" t="s">
         <v>42</v>
       </c>
       <c r="J134" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="K134" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.25">
@@ -8585,75 +8175,75 @@
         <v>42</v>
       </c>
       <c r="J135" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K135" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I136" s="36" t="s">
+      <c r="I136" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J136" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K136" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="L136" s="36"/>
-      <c r="M136" s="36"/>
-      <c r="N136" s="36"/>
-      <c r="O136" s="36"/>
+      <c r="J136" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K136" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="L136" s="30"/>
+      <c r="M136" s="30"/>
+      <c r="N136" s="30"/>
+      <c r="O136" s="30"/>
     </row>
     <row r="137" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I137" t="s">
         <v>32</v>
       </c>
       <c r="J137" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K137">
         <v>4</v>
       </c>
-      <c r="L137" s="40"/>
+      <c r="L137" s="34"/>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I138" t="s">
         <v>32</v>
       </c>
       <c r="J138" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K138" t="s">
-        <v>351</v>
-      </c>
-      <c r="L138" s="39"/>
+        <v>330</v>
+      </c>
+      <c r="L138" s="33"/>
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I139" t="s">
         <v>32</v>
       </c>
       <c r="J139" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="K139" t="s">
-        <v>352</v>
-      </c>
-      <c r="L139" s="39"/>
+        <v>331</v>
+      </c>
+      <c r="L139" s="33"/>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I140" t="s">
         <v>32</v>
       </c>
       <c r="J140" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="K140" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="L140" s="19" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
     </row>
     <row r="141" spans="9:15" x14ac:dyDescent="0.25">
@@ -8661,22 +8251,22 @@
         <v>32</v>
       </c>
       <c r="J141" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="K141" t="s">
-        <v>355</v>
-      </c>
-      <c r="L141" s="39"/>
+        <v>334</v>
+      </c>
+      <c r="L141" s="33"/>
     </row>
     <row r="142" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I142" t="s">
         <v>32</v>
       </c>
       <c r="J142" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="K142" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143" spans="9:15" x14ac:dyDescent="0.25">
@@ -8684,13 +8274,13 @@
         <v>32</v>
       </c>
       <c r="J143" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="K143" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="L143" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="144" spans="9:15" x14ac:dyDescent="0.25">
@@ -8698,26 +8288,26 @@
         <v>32</v>
       </c>
       <c r="J144" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K144" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
     </row>
     <row r="145" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I145" s="36" t="s">
+      <c r="I145" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J145" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K145" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="L145" s="36"/>
-      <c r="M145" s="36"/>
-      <c r="N145" s="36"/>
-      <c r="O145" s="36"/>
+      <c r="J145" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K145" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="L145" s="30"/>
+      <c r="M145" s="30"/>
+      <c r="N145" s="30"/>
+      <c r="O145" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8730,7 +8320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="360" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
@@ -8738,25 +8328,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="42" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="42" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="11.42578125" style="42" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33" style="42" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" style="42" customWidth="1"/>
-    <col min="22" max="22" width="38" style="42" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="42" customWidth="1"/>
-    <col min="25" max="25" width="19.28515625" style="42" customWidth="1"/>
+    <col min="1" max="4" width="11.42578125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="36" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="11.42578125" style="36" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" style="36" customWidth="1"/>
+    <col min="22" max="22" width="38" style="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="36" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B1" s="15">
         <v>4</v>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -17,8 +17,7 @@
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
     <sheet name="Results" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -203,6 +202,246 @@
         </r>
       </text>
     </comment>
+    <comment ref="K72" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tim Lawson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= [Max Linearity of 10V range at +/- 1V] x [range ratio], where range ratio is 100mV/10V. Units are [V].</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K73" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tim Lawson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= [Max Linearity of 10V range at +/- 1V] x [range ratio], where range ratio is 100mV/10V. Units are [V].</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K87" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tim Lawson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= [Max Linearity of 10V range at +/- 1V] x [range ratio], where range ratio is 100mV/10V. Units are [V].</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K88" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tim Lawson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= [Max Linearity of 10V range at +/- 1V] x [range ratio], where range ratio is 100mV/10V. Units are [V].</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K102" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tim Lawson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= [Max Linearity of 10V range at +/- 1V] x [range ratio], where range ratio is 100mV/10V. Units are [V].</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K103" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tim Lawson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= [Max Linearity of 10V range at +/- 1V] x [range ratio], where range ratio is 100mV/10V. Units are [V].</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K117" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tim Lawson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= [Max Linearity of 10V range at +/- 1V] x [range ratio], where range ratio is 100mV/10V. Units are [V].</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K118" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tim Lawson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= [Max Linearity of 10V range at +/- 1V] x [range ratio], where range ratio is 100mV/10V. Units are [V].</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K132" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tim Lawson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= [Max Linearity of 10V range at +/- 1V] x [range ratio], where range ratio is 100mV/10V. Units are [V].</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K133" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tim Lawson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= [Max Linearity of 10V range at +/- 1V] x [range ratio], where range ratio is 100mV/10V. Units are [V].</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -233,7 +472,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="439">
   <si>
     <t>start_row</t>
   </si>
@@ -1135,15 +1374,9 @@
     <t>3458A_066_VRCeq</t>
   </si>
   <si>
-    <t>3458A_066_VRC10to1</t>
-  </si>
-  <si>
     <t>(link to  RefStep data?)</t>
   </si>
   <si>
-    <t>3458A_066_VRC100to10</t>
-  </si>
-  <si>
     <t>3458A_066_Vlin_gain</t>
   </si>
   <si>
@@ -1174,12 +1407,6 @@
     <t>3458A_129_VRCeq</t>
   </si>
   <si>
-    <t>3458A_129_VRC10to1</t>
-  </si>
-  <si>
-    <t>3458A_129_VRC100to10</t>
-  </si>
-  <si>
     <t>3458A_129_Vlin_gain</t>
   </si>
   <si>
@@ -1204,12 +1431,6 @@
     <t>3458A_230_VRCeq</t>
   </si>
   <si>
-    <t>3458A_230_VRC10to1</t>
-  </si>
-  <si>
-    <t>3458A_230_VRC100to10</t>
-  </si>
-  <si>
     <t>3458A_230_Vlin_gain</t>
   </si>
   <si>
@@ -1231,12 +1452,6 @@
     <t>3458A_452_VRCeq</t>
   </si>
   <si>
-    <t>3458A_452_VRC10to1</t>
-  </si>
-  <si>
-    <t>3458A_452_VRC100to10</t>
-  </si>
-  <si>
     <t>3458A_452_Vlin_gain</t>
   </si>
   <si>
@@ -1261,9 +1476,6 @@
     <t>3458A_518_VRC10to1</t>
   </si>
   <si>
-    <t>3458A_518_VRC100to10</t>
-  </si>
-  <si>
     <t>3458A_518_Vlin_gain</t>
   </si>
   <si>
@@ -1499,6 +1711,84 @@
   </si>
   <si>
     <t>03/03/2017 15:33:16</t>
+  </si>
+  <si>
+    <t>VRC_n10to1</t>
+  </si>
+  <si>
+    <t>3458A_066_VRC_n10to1</t>
+  </si>
+  <si>
+    <t>VRC_calcs.xlsx</t>
+  </si>
+  <si>
+    <t>VRC_10ton1</t>
+  </si>
+  <si>
+    <t>3458A_066_VRC10ton1</t>
+  </si>
+  <si>
+    <t>VRC_n100to10</t>
+  </si>
+  <si>
+    <t>3458A_066_VRCn100to10</t>
+  </si>
+  <si>
+    <t>3458A_066_VRC100ton10</t>
+  </si>
+  <si>
+    <t>VRC_100ton10</t>
+  </si>
+  <si>
+    <t>3458A_066_100r_cor</t>
+  </si>
+  <si>
+    <t>3458A_129_VRC_n10to1</t>
+  </si>
+  <si>
+    <t>3458A_129_VRC10ton1</t>
+  </si>
+  <si>
+    <t>3458A_129_VRCn100to10</t>
+  </si>
+  <si>
+    <t>3458A_129_VRC100ton10</t>
+  </si>
+  <si>
+    <t>3458A_230_VRC_n10to1</t>
+  </si>
+  <si>
+    <t>3458A_230_VRC10ton1</t>
+  </si>
+  <si>
+    <t>3458A_230_VRCn100to10</t>
+  </si>
+  <si>
+    <t>3458A_230_VRC100ton10</t>
+  </si>
+  <si>
+    <t>3458A_452_VRC_n10to1</t>
+  </si>
+  <si>
+    <t>3458A_452_VRC10ton1</t>
+  </si>
+  <si>
+    <t>3458A_452_VRCn100to10</t>
+  </si>
+  <si>
+    <t>3458A_452_VRC100ton10</t>
+  </si>
+  <si>
+    <t>3458A_518_VRC_n10to1</t>
+  </si>
+  <si>
+    <t>3458A_518_VRC10ton1</t>
+  </si>
+  <si>
+    <t>3458A_518_VRCn100to10</t>
+  </si>
+  <si>
+    <t>3458A_518_VRC100ton10</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1802,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1650,6 +1940,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1780,7 +2089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1838,6 +2147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1845,6 +2155,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2186,9 +2500,9 @@
   <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="540" topLeftCell="A4" activePane="bottomLeft"/>
+      <pane ySplit="540" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,21 +2570,21 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="M3" s="53" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="M3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53" t="s">
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
       <c r="S3" t="s">
         <v>11</v>
       </c>
@@ -2283,11 +2597,11 @@
       <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="53" t="s">
+      <c r="W3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
       <c r="Z3" t="s">
         <v>16</v>
       </c>
@@ -5373,12 +5687,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U145"/>
+  <dimension ref="A1:U155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="540" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="540" topLeftCell="A77" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="L132" sqref="L132:L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5396,7 +5710,7 @@
     <col min="11" max="11" width="29.85546875" style="45" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="45" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="45" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" style="45" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="74" style="45" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" style="45" customWidth="1"/>
     <col min="17" max="21" width="0" style="45" hidden="1" customWidth="1"/>
@@ -6982,6 +7296,7 @@
       <c r="K63" t="s">
         <v>293</v>
       </c>
+      <c r="N63" s="48"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I64" s="13" t="s">
@@ -6999,7 +7314,9 @@
       <c r="M64" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="N64" s="13"/>
+      <c r="N64" s="51" t="s">
+        <v>422</v>
+      </c>
       <c r="O64" s="13"/>
     </row>
     <row r="65" spans="9:15" x14ac:dyDescent="0.25">
@@ -7049,40 +7366,40 @@
       <c r="J67" t="s">
         <v>281</v>
       </c>
-      <c r="K67" s="34">
-        <v>0</v>
-      </c>
-      <c r="L67" s="34">
-        <v>0</v>
-      </c>
-      <c r="M67" s="34">
-        <v>7</v>
+      <c r="K67" s="55">
+        <v>0</v>
+      </c>
+      <c r="L67" s="55">
+        <v>0</v>
+      </c>
+      <c r="M67" s="55" t="s">
+        <v>186</v>
       </c>
       <c r="N67" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I68" t="s">
+    <row r="68" spans="9:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="J68" t="s">
-        <v>282</v>
-      </c>
-      <c r="K68" s="33">
-        <v>2.2210000000000001E-7</v>
-      </c>
-      <c r="L68" s="33">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M68" s="34">
-        <v>7</v>
-      </c>
-      <c r="N68" t="s">
-        <v>300</v>
-      </c>
-      <c r="O68" t="s">
-        <v>301</v>
+      <c r="J68" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="K68" s="56">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="L68" s="56">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="M68" s="55">
+        <v>151</v>
+      </c>
+      <c r="N68" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="O68" s="51" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="9:15" x14ac:dyDescent="0.25">
@@ -7090,45 +7407,45 @@
         <v>296</v>
       </c>
       <c r="J69" t="s">
-        <v>283</v>
-      </c>
-      <c r="K69" s="33">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L69" s="33">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M69" s="34" t="s">
-        <v>186</v>
+        <v>416</v>
+      </c>
+      <c r="K69" s="57">
+        <v>-1.3E-6</v>
+      </c>
+      <c r="L69" s="57">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="M69" s="58">
+        <v>151</v>
       </c>
       <c r="N69" t="s">
-        <v>302</v>
-      </c>
-      <c r="O69" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="70" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I70" t="s">
+        <v>417</v>
+      </c>
+      <c r="O69" s="51" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="70" spans="9:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="J70" t="s">
-        <v>284</v>
-      </c>
-      <c r="K70" s="34">
-        <v>0</v>
-      </c>
-      <c r="L70" s="33">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M70" s="34">
-        <v>8</v>
-      </c>
-      <c r="N70" t="s">
-        <v>303</v>
-      </c>
-      <c r="O70" t="s">
-        <v>301</v>
+      <c r="J70" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="K70" s="57">
+        <v>-2.8000000000000002E-7</v>
+      </c>
+      <c r="L70" s="57">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="M70" s="58">
+        <v>150</v>
+      </c>
+      <c r="N70" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="O70" s="51" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.25">
@@ -7136,22 +7453,22 @@
         <v>296</v>
       </c>
       <c r="J71" t="s">
-        <v>285</v>
-      </c>
-      <c r="K71" s="34">
-        <v>0</v>
-      </c>
-      <c r="L71" s="33">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M71" s="34">
-        <v>8</v>
+        <v>421</v>
+      </c>
+      <c r="K71" s="57">
+        <v>-4.2E-7</v>
+      </c>
+      <c r="L71" s="57">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="M71" s="58">
+        <v>150</v>
       </c>
       <c r="N71" t="s">
-        <v>304</v>
-      </c>
-      <c r="O71" t="s">
-        <v>301</v>
+        <v>420</v>
+      </c>
+      <c r="O71" s="51" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.25">
@@ -7159,10 +7476,23 @@
         <v>296</v>
       </c>
       <c r="J72" t="s">
-        <v>205</v>
-      </c>
-      <c r="K72" s="34">
-        <v>0</v>
+        <v>284</v>
+      </c>
+      <c r="K72" s="33">
+        <v>1.3000000000000001E-8</v>
+      </c>
+      <c r="L72" s="33">
+        <f>0.000000017/2.1</f>
+        <v>8.0952380952380954E-9</v>
+      </c>
+      <c r="M72" s="34">
+        <v>18</v>
+      </c>
+      <c r="N72" t="s">
+        <v>301</v>
+      </c>
+      <c r="O72" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.25">
@@ -7170,10 +7500,23 @@
         <v>296</v>
       </c>
       <c r="J73" t="s">
-        <v>209</v>
-      </c>
-      <c r="K73" s="34" t="s">
-        <v>305</v>
+        <v>285</v>
+      </c>
+      <c r="K73" s="33">
+        <v>1.3000000000000001E-8</v>
+      </c>
+      <c r="L73" s="33">
+        <f>0.000000017/2.1</f>
+        <v>8.0952380952380954E-9</v>
+      </c>
+      <c r="M73" s="34">
+        <v>18</v>
+      </c>
+      <c r="N73" t="s">
+        <v>302</v>
+      </c>
+      <c r="O73" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="9:15" x14ac:dyDescent="0.25">
@@ -7181,10 +7524,10 @@
         <v>296</v>
       </c>
       <c r="J74" t="s">
-        <v>290</v>
-      </c>
-      <c r="K74" t="s">
-        <v>306</v>
+        <v>205</v>
+      </c>
+      <c r="K74" s="34">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="9:15" x14ac:dyDescent="0.25">
@@ -7192,630 +7535,618 @@
         <v>296</v>
       </c>
       <c r="J75" t="s">
-        <v>213</v>
-      </c>
-      <c r="K75" t="s">
-        <v>307</v>
+        <v>209</v>
+      </c>
+      <c r="K75" s="34" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I76" s="30" t="s">
+      <c r="I76" t="s">
         <v>296</v>
       </c>
-      <c r="J76" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="K76" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="L76" s="30"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="30"/>
+      <c r="J76" t="s">
+        <v>290</v>
+      </c>
+      <c r="K76" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="J77" t="s">
-        <v>278</v>
-      </c>
-      <c r="K77" s="34">
-        <v>0</v>
-      </c>
-      <c r="L77" s="34">
-        <v>0</v>
-      </c>
-      <c r="M77" s="34" t="s">
-        <v>186</v>
+        <v>213</v>
+      </c>
+      <c r="K77" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I78" t="s">
-        <v>309</v>
-      </c>
-      <c r="J78" t="s">
-        <v>279</v>
-      </c>
-      <c r="K78" s="33">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L78" s="33">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M78" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="N78" t="s">
-        <v>310</v>
-      </c>
+      <c r="I78" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="J78" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K78" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J79" t="s">
-        <v>280</v>
-      </c>
-      <c r="K79" s="33">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L79" s="33">
-        <v>5.9999999999999997E-7</v>
+        <v>278</v>
+      </c>
+      <c r="K79" s="34">
+        <v>0</v>
+      </c>
+      <c r="L79" s="34">
+        <v>0</v>
       </c>
       <c r="M79" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="N79" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J80" t="s">
-        <v>281</v>
-      </c>
-      <c r="K80" s="34">
-        <v>0</v>
-      </c>
-      <c r="L80" s="34">
-        <v>0</v>
-      </c>
-      <c r="M80" s="34">
-        <v>7</v>
+        <v>279</v>
+      </c>
+      <c r="K80" s="33">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L80" s="33">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M80" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="N80" t="s">
-        <v>312</v>
-      </c>
-      <c r="O80" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
+        <v>307</v>
+      </c>
+      <c r="J81" t="s">
+        <v>280</v>
+      </c>
+      <c r="K81" s="33">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L81" s="33">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M81" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="N81" t="s">
         <v>309</v>
       </c>
-      <c r="J81" t="s">
-        <v>282</v>
-      </c>
-      <c r="K81" s="33">
-        <v>2.2210000000000001E-7</v>
-      </c>
-      <c r="L81" s="33">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M81" s="34">
-        <v>7</v>
-      </c>
-      <c r="N81" t="s">
-        <v>313</v>
-      </c>
-      <c r="O81" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="82" spans="9:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="9:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J82" t="s">
-        <v>283</v>
-      </c>
-      <c r="K82" s="33">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L82" s="33">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M82" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="K82" s="55">
+        <v>0</v>
+      </c>
+      <c r="L82" s="55">
+        <v>0</v>
+      </c>
+      <c r="M82" s="55" t="s">
         <v>186</v>
       </c>
       <c r="N82" t="s">
-        <v>314</v>
-      </c>
-      <c r="O82" t="s">
-        <v>301</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O82"/>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I83" t="s">
-        <v>309</v>
-      </c>
-      <c r="J83" t="s">
-        <v>284</v>
-      </c>
-      <c r="K83" s="34">
-        <v>0</v>
-      </c>
-      <c r="L83" s="33">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M83" s="34">
-        <v>8</v>
-      </c>
-      <c r="N83" t="s">
-        <v>315</v>
-      </c>
-      <c r="O83" t="s">
-        <v>301</v>
+      <c r="I83" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="J83" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="K83" s="21">
+        <v>-6.5E-8</v>
+      </c>
+      <c r="L83" s="21">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="M83" s="45">
+        <v>151</v>
+      </c>
+      <c r="N83" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="O83" s="51" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
-        <v>309</v>
-      </c>
-      <c r="J84" t="s">
-        <v>285</v>
-      </c>
-      <c r="K84" s="34">
-        <v>0</v>
-      </c>
-      <c r="L84" s="33">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M84" s="34">
-        <v>8</v>
-      </c>
-      <c r="N84" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="85" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I85" t="s">
-        <v>309</v>
-      </c>
-      <c r="J85" t="s">
-        <v>205</v>
-      </c>
-      <c r="K85" s="34">
-        <v>25</v>
+        <v>307</v>
+      </c>
+      <c r="J84" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="K84" s="57">
+        <v>-2.3999999999999998E-7</v>
+      </c>
+      <c r="L84" s="57">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="M84" s="58">
+        <v>151</v>
+      </c>
+      <c r="N84" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O84" s="51" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="9:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="J85" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="K85" s="57">
+        <v>-5.0000000000000004E-6</v>
+      </c>
+      <c r="L85" s="57">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="M85" s="58">
+        <v>150</v>
+      </c>
+      <c r="N85" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="O85" s="51" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
-        <v>309</v>
-      </c>
-      <c r="J86" t="s">
-        <v>209</v>
-      </c>
-      <c r="K86" s="34" t="s">
-        <v>317</v>
+        <v>307</v>
+      </c>
+      <c r="J86" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="K86" s="57">
+        <v>-3.1999999999999999E-6</v>
+      </c>
+      <c r="L86" s="57">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="M86" s="58">
+        <v>75</v>
+      </c>
+      <c r="N86" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O86" s="51" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J87" t="s">
-        <v>290</v>
-      </c>
-      <c r="K87" t="s">
-        <v>306</v>
+        <v>284</v>
+      </c>
+      <c r="K87" s="33">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="L87" s="33">
+        <f>0.000000017/2.1</f>
+        <v>8.0952380952380954E-9</v>
+      </c>
+      <c r="M87" s="34">
+        <v>18</v>
+      </c>
+      <c r="N87" t="s">
+        <v>311</v>
+      </c>
+      <c r="O87" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J88" t="s">
-        <v>213</v>
-      </c>
-      <c r="K88" t="s">
-        <v>318</v>
+        <v>285</v>
+      </c>
+      <c r="K88" s="33">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="L88" s="33">
+        <f>0.000000017/2.1</f>
+        <v>8.0952380952380954E-9</v>
+      </c>
+      <c r="M88" s="34">
+        <v>18</v>
+      </c>
+      <c r="N88" t="s">
+        <v>312</v>
+      </c>
+      <c r="O88" s="51" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I89" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="J89" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="K89" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="30"/>
+      <c r="I89" t="s">
+        <v>307</v>
+      </c>
+      <c r="J89" t="s">
+        <v>205</v>
+      </c>
+      <c r="K89" s="34">
+        <v>25</v>
+      </c>
     </row>
     <row r="90" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I90" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="J90" t="s">
-        <v>278</v>
-      </c>
-      <c r="K90" s="34">
-        <v>0</v>
-      </c>
-      <c r="L90" s="34">
-        <v>0</v>
-      </c>
-      <c r="M90" s="34" t="s">
-        <v>186</v>
+        <v>209</v>
+      </c>
+      <c r="K90" s="34" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I91" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="J91" t="s">
-        <v>279</v>
-      </c>
-      <c r="K91" s="33">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L91" s="33">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M91" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="N91" t="s">
-        <v>320</v>
+        <v>290</v>
+      </c>
+      <c r="K91" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I92" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="J92" t="s">
-        <v>280</v>
-      </c>
-      <c r="K92" s="33">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L92" s="33">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M92" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="N92" t="s">
-        <v>321</v>
+        <v>213</v>
+      </c>
+      <c r="K92" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I93" t="s">
-        <v>319</v>
-      </c>
-      <c r="J93" t="s">
-        <v>281</v>
-      </c>
-      <c r="K93" s="34">
-        <v>0</v>
-      </c>
-      <c r="L93" s="34">
-        <v>0</v>
-      </c>
-      <c r="M93" s="34">
-        <v>7</v>
-      </c>
-      <c r="N93" t="s">
-        <v>322</v>
-      </c>
-      <c r="O93" t="s">
-        <v>301</v>
-      </c>
+      <c r="I93" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J93" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K93" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="30"/>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I94" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J94" t="s">
-        <v>282</v>
-      </c>
-      <c r="K94" s="33">
-        <v>2.2210000000000001E-7</v>
-      </c>
-      <c r="L94" s="33">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M94" s="34">
-        <v>7</v>
-      </c>
-      <c r="N94" t="s">
-        <v>323</v>
-      </c>
-      <c r="O94" t="s">
-        <v>301</v>
+        <v>278</v>
+      </c>
+      <c r="K94" s="34">
+        <v>0</v>
+      </c>
+      <c r="L94" s="34">
+        <v>0</v>
+      </c>
+      <c r="M94" s="34" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I95" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J95" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K95" s="33">
-        <v>4.8090000000000002E-7</v>
+        <v>-5.6799999999999998E-5</v>
       </c>
       <c r="L95" s="33">
-        <v>1.8E-7</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="M95" s="34" t="s">
         <v>186</v>
       </c>
       <c r="N95" t="s">
-        <v>324</v>
-      </c>
-      <c r="O95" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I96" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J96" t="s">
-        <v>284</v>
-      </c>
-      <c r="K96" s="34">
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="K96" s="33">
+        <v>-5.63E-5</v>
       </c>
       <c r="L96" s="33">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M96" s="34">
-        <v>8</v>
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M96" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="N96" t="s">
-        <v>325</v>
-      </c>
-      <c r="O96" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J97" t="s">
-        <v>285</v>
-      </c>
-      <c r="K97" s="34">
-        <v>0</v>
-      </c>
-      <c r="L97" s="33">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M97" s="34">
-        <v>8</v>
+        <v>281</v>
+      </c>
+      <c r="K97" s="55">
+        <v>0</v>
+      </c>
+      <c r="L97" s="55">
+        <v>0</v>
+      </c>
+      <c r="M97" s="55">
+        <v>7</v>
       </c>
       <c r="N97" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="98" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I98" t="s">
-        <v>319</v>
-      </c>
-      <c r="J98" t="s">
-        <v>205</v>
-      </c>
-      <c r="K98" s="34">
-        <v>22</v>
+        <v>318</v>
+      </c>
+      <c r="O97"/>
+    </row>
+    <row r="98" spans="9:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I98" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="J98" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="K98" s="56">
+        <v>-1.4999999999999999E-7</v>
+      </c>
+      <c r="L98" s="56">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="M98" s="55">
+        <v>151</v>
+      </c>
+      <c r="N98" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="O98" s="51" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="99" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I99" t="s">
-        <v>319</v>
-      </c>
-      <c r="J99" t="s">
-        <v>209</v>
-      </c>
-      <c r="K99" s="34" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="100" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I100" t="s">
-        <v>319</v>
-      </c>
-      <c r="J100" t="s">
-        <v>290</v>
-      </c>
-      <c r="K100" t="s">
-        <v>306</v>
+        <v>315</v>
+      </c>
+      <c r="J99" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="K99" s="57">
+        <v>-4.8E-8</v>
+      </c>
+      <c r="L99" s="57">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="M99" s="58">
+        <v>151</v>
+      </c>
+      <c r="N99" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="O99" s="51" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="100" spans="9:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I100" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="J100" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="K100" s="57">
+        <v>-3.9999999999999998E-7</v>
+      </c>
+      <c r="L100" s="57">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="M100" s="58">
+        <v>150</v>
+      </c>
+      <c r="N100" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="O100" s="51" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="101" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I101" t="s">
+        <v>315</v>
+      </c>
+      <c r="J101" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="K101" s="57">
+        <v>-4.9999999999999998E-7</v>
+      </c>
+      <c r="L101" s="57">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="M101" s="58">
+        <v>150</v>
+      </c>
+      <c r="N101" s="51" t="s">
+        <v>430</v>
+      </c>
+      <c r="O101" s="51" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="102" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>315</v>
+      </c>
+      <c r="J102" t="s">
+        <v>284</v>
+      </c>
+      <c r="K102" s="33">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="L102" s="33">
+        <f>0.000000017/2.1</f>
+        <v>8.0952380952380954E-9</v>
+      </c>
+      <c r="M102" s="34">
+        <v>18</v>
+      </c>
+      <c r="N102" t="s">
         <v>319</v>
       </c>
-      <c r="J101" t="s">
-        <v>213</v>
-      </c>
-      <c r="K101" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="102" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I102" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="J102" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="K102" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="L102" s="30"/>
-      <c r="M102" s="30"/>
-      <c r="N102" s="30"/>
-      <c r="O102" s="30"/>
+      <c r="O102" s="51" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="103" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I103" t="s">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="J103" t="s">
-        <v>278</v>
-      </c>
-      <c r="K103" s="34">
-        <v>0</v>
-      </c>
-      <c r="L103" s="34">
-        <v>0</v>
-      </c>
-      <c r="M103" s="34" t="s">
-        <v>186</v>
+        <v>285</v>
+      </c>
+      <c r="K103" s="33">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="L103" s="33">
+        <f>0.000000017/2.1</f>
+        <v>8.0952380952380954E-9</v>
+      </c>
+      <c r="M103" s="34">
+        <v>18</v>
+      </c>
+      <c r="N103" t="s">
+        <v>320</v>
+      </c>
+      <c r="O103" s="51" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I104" t="s">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="J104" t="s">
-        <v>279</v>
-      </c>
-      <c r="K104" s="33">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L104" s="33">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M104" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="N104" t="s">
-        <v>329</v>
+        <v>205</v>
+      </c>
+      <c r="K104" s="34">
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I105" t="s">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="J105" t="s">
-        <v>280</v>
-      </c>
-      <c r="K105" s="33">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L105" s="33">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M105" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="N105" t="s">
-        <v>330</v>
+        <v>209</v>
+      </c>
+      <c r="K105" s="34" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I106" t="s">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="J106" t="s">
-        <v>281</v>
-      </c>
-      <c r="K106" s="34">
-        <v>0</v>
-      </c>
-      <c r="L106" s="34">
-        <v>0</v>
-      </c>
-      <c r="M106" s="34">
-        <v>7</v>
-      </c>
-      <c r="N106" t="s">
-        <v>331</v>
-      </c>
-      <c r="O106" t="s">
-        <v>301</v>
+        <v>290</v>
+      </c>
+      <c r="K106" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I107" t="s">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="J107" t="s">
-        <v>282</v>
-      </c>
-      <c r="K107" s="33">
-        <v>2.2210000000000001E-7</v>
-      </c>
-      <c r="L107" s="33">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M107" s="34">
-        <v>7</v>
-      </c>
-      <c r="N107" t="s">
-        <v>332</v>
-      </c>
-      <c r="O107" t="s">
-        <v>301</v>
+        <v>213</v>
+      </c>
+      <c r="K107" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I108" t="s">
-        <v>62</v>
-      </c>
-      <c r="J108" t="s">
-        <v>283</v>
-      </c>
-      <c r="K108" s="33">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L108" s="33">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M108" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="N108" t="s">
-        <v>333</v>
-      </c>
-      <c r="O108" t="s">
-        <v>301</v>
-      </c>
+      <c r="I108" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="J108" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K108" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="L108" s="30"/>
+      <c r="M108" s="30"/>
+      <c r="N108" s="30"/>
+      <c r="O108" s="30"/>
     </row>
     <row r="109" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I109" t="s">
         <v>62</v>
       </c>
       <c r="J109" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K109" s="34">
         <v>0</v>
       </c>
-      <c r="L109" s="33">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M109" s="34">
-        <v>8</v>
-      </c>
-      <c r="N109" t="s">
-        <v>334</v>
-      </c>
-      <c r="O109" t="s">
-        <v>301</v>
+      <c r="L109" s="34">
+        <v>0</v>
+      </c>
+      <c r="M109" s="34" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="110" spans="9:15" x14ac:dyDescent="0.25">
@@ -7823,19 +8154,19 @@
         <v>62</v>
       </c>
       <c r="J110" t="s">
-        <v>285</v>
-      </c>
-      <c r="K110" s="34">
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="K110" s="33">
+        <v>-5.6799999999999998E-5</v>
       </c>
       <c r="L110" s="33">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M110" s="34">
-        <v>8</v>
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M110" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="N110" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="111" spans="9:15" x14ac:dyDescent="0.25">
@@ -7843,10 +8174,19 @@
         <v>62</v>
       </c>
       <c r="J111" t="s">
-        <v>205</v>
-      </c>
-      <c r="K111">
-        <v>23</v>
+        <v>280</v>
+      </c>
+      <c r="K111" s="33">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L111" s="33">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M111" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="N111" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="112" spans="9:15" x14ac:dyDescent="0.25">
@@ -7854,227 +8194,236 @@
         <v>62</v>
       </c>
       <c r="J112" t="s">
-        <v>209</v>
-      </c>
-      <c r="K112" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="113" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I113" t="s">
+        <v>281</v>
+      </c>
+      <c r="K112" s="55">
+        <v>0</v>
+      </c>
+      <c r="L112" s="55">
+        <v>0</v>
+      </c>
+      <c r="M112" s="55">
+        <v>7</v>
+      </c>
+      <c r="N112" t="s">
+        <v>325</v>
+      </c>
+      <c r="O112"/>
+    </row>
+    <row r="113" spans="9:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I113" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="J113" t="s">
-        <v>290</v>
-      </c>
-      <c r="K113" t="s">
-        <v>306</v>
+      <c r="J113" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="K113" s="56">
+        <v>-1.6999999999999999E-7</v>
+      </c>
+      <c r="L113" s="56">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="M113" s="55">
+        <v>151</v>
+      </c>
+      <c r="N113" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="O113" s="51" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="114" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I114" t="s">
         <v>62</v>
       </c>
-      <c r="J114" t="s">
-        <v>213</v>
-      </c>
-      <c r="K114" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="115" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I115" s="30" t="s">
+      <c r="J114" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="K114" s="57">
+        <v>-3.2999999999999998E-8</v>
+      </c>
+      <c r="L114" s="57">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="M114" s="58">
+        <v>76</v>
+      </c>
+      <c r="N114" s="51" t="s">
+        <v>432</v>
+      </c>
+      <c r="O114" s="51" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="115" spans="9:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="J115" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="K115" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="L115" s="30"/>
-      <c r="M115" s="30"/>
-      <c r="N115" s="30"/>
-      <c r="O115" s="30"/>
+      <c r="J115" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="K115" s="57">
+        <v>6.1999999999999999E-7</v>
+      </c>
+      <c r="L115" s="57">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="M115" s="58">
+        <v>75</v>
+      </c>
+      <c r="N115" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="O115" s="51" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="116" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>71</v>
-      </c>
-      <c r="J116" t="s">
-        <v>278</v>
-      </c>
-      <c r="K116" s="34">
-        <v>0</v>
-      </c>
-      <c r="L116" s="34">
-        <v>0</v>
-      </c>
-      <c r="M116" s="34" t="s">
-        <v>186</v>
+        <v>62</v>
+      </c>
+      <c r="J116" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="K116" s="57">
+        <v>6.7999999999999995E-7</v>
+      </c>
+      <c r="L116" s="57">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="M116" s="58">
+        <v>75</v>
+      </c>
+      <c r="N116" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="O116" s="51" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="117" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J117" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K117" s="33">
-        <v>-5.6799999999999998E-5</v>
+        <v>8.0000000000000005E-9</v>
       </c>
       <c r="L117" s="33">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M117" s="34" t="s">
-        <v>186</v>
+        <f>0.000000017/2.1</f>
+        <v>8.0952380952380954E-9</v>
+      </c>
+      <c r="M117" s="34">
+        <v>18</v>
       </c>
       <c r="N117" t="s">
-        <v>338</v>
+        <v>326</v>
+      </c>
+      <c r="O117" s="51" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I118" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J118" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K118" s="33">
-        <v>-5.63E-5</v>
+        <v>8.0000000000000005E-9</v>
       </c>
       <c r="L118" s="33">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M118" s="34" t="s">
-        <v>186</v>
+        <f>0.000000017/2.1</f>
+        <v>8.0952380952380954E-9</v>
+      </c>
+      <c r="M118" s="34">
+        <v>18</v>
       </c>
       <c r="N118" t="s">
-        <v>339</v>
+        <v>327</v>
+      </c>
+      <c r="O118" s="51" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I119" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J119" t="s">
-        <v>281</v>
-      </c>
-      <c r="K119" s="34">
-        <v>0</v>
-      </c>
-      <c r="L119" s="34">
-        <v>0</v>
-      </c>
-      <c r="M119" s="34">
-        <v>7</v>
-      </c>
-      <c r="N119" t="s">
-        <v>340</v>
-      </c>
-      <c r="O119" t="s">
-        <v>301</v>
+        <v>205</v>
+      </c>
+      <c r="K119">
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I120" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J120" t="s">
-        <v>282</v>
-      </c>
-      <c r="K120" s="33">
-        <v>2.2210000000000001E-7</v>
-      </c>
-      <c r="L120" s="33">
-        <v>8.9999999999999999E-8</v>
-      </c>
-      <c r="M120" s="34">
-        <v>7</v>
-      </c>
-      <c r="N120" t="s">
-        <v>341</v>
-      </c>
-      <c r="O120" t="s">
-        <v>301</v>
+        <v>209</v>
+      </c>
+      <c r="K120" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I121" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J121" t="s">
-        <v>283</v>
-      </c>
-      <c r="K121" s="33">
-        <v>4.8090000000000002E-7</v>
-      </c>
-      <c r="L121" s="33">
-        <v>1.8E-7</v>
-      </c>
-      <c r="M121" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="N121" t="s">
-        <v>342</v>
-      </c>
-      <c r="O121" t="s">
-        <v>301</v>
+        <v>290</v>
+      </c>
+      <c r="K121" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="122" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I122" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J122" t="s">
-        <v>284</v>
-      </c>
-      <c r="K122" s="34">
-        <v>0</v>
-      </c>
-      <c r="L122" s="33">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M122" s="34">
-        <v>8</v>
-      </c>
-      <c r="N122" t="s">
-        <v>343</v>
-      </c>
-      <c r="O122" t="s">
-        <v>301</v>
+        <v>213</v>
+      </c>
+      <c r="K122" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="123" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I123" t="s">
-        <v>71</v>
-      </c>
-      <c r="J123" t="s">
-        <v>285</v>
-      </c>
-      <c r="K123" s="34">
-        <v>0</v>
-      </c>
-      <c r="L123" s="33">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="M123" s="34">
-        <v>8</v>
-      </c>
-      <c r="N123" t="s">
-        <v>344</v>
-      </c>
+      <c r="I123" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J123" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K123" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="L123" s="30"/>
+      <c r="M123" s="30"/>
+      <c r="N123" s="30"/>
+      <c r="O123" s="30"/>
     </row>
     <row r="124" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I124" t="s">
         <v>71</v>
       </c>
       <c r="J124" t="s">
-        <v>205</v>
-      </c>
-      <c r="K124">
-        <v>24</v>
+        <v>278</v>
+      </c>
+      <c r="K124" s="34">
+        <v>0</v>
+      </c>
+      <c r="L124" s="34">
+        <v>0</v>
+      </c>
+      <c r="M124" s="34" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="9:15" x14ac:dyDescent="0.25">
@@ -8082,10 +8431,19 @@
         <v>71</v>
       </c>
       <c r="J125" t="s">
-        <v>209</v>
-      </c>
-      <c r="K125" t="s">
-        <v>345</v>
+        <v>279</v>
+      </c>
+      <c r="K125" s="33">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L125" s="33">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M125" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="N125" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="126" spans="9:15" x14ac:dyDescent="0.25">
@@ -8093,10 +8451,19 @@
         <v>71</v>
       </c>
       <c r="J126" t="s">
-        <v>290</v>
-      </c>
-      <c r="K126" t="s">
-        <v>306</v>
+        <v>280</v>
+      </c>
+      <c r="K126" s="33">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L126" s="33">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M126" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="N126" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="127" spans="9:15" x14ac:dyDescent="0.25">
@@ -8104,247 +8471,441 @@
         <v>71</v>
       </c>
       <c r="J127" t="s">
-        <v>213</v>
-      </c>
-      <c r="K127" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="128" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I128" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="K127" s="55">
+        <v>0</v>
+      </c>
+      <c r="L127" s="55">
+        <v>0</v>
+      </c>
+      <c r="M127" s="55">
+        <v>7</v>
+      </c>
+      <c r="N127" t="s">
+        <v>332</v>
+      </c>
+      <c r="O127"/>
+    </row>
+    <row r="128" spans="9:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I128" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="J128" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="K128" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="L128" s="30"/>
-      <c r="M128" s="30"/>
-      <c r="N128" s="30"/>
-      <c r="O128" s="30"/>
+      <c r="J128" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="K128" s="56">
+        <v>9.7000000000000003E-7</v>
+      </c>
+      <c r="L128" s="56">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="M128" s="55">
+        <v>75</v>
+      </c>
+      <c r="N128" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="O128" s="51" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="129" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I129" t="s">
-        <v>42</v>
-      </c>
-      <c r="J129" t="s">
-        <v>205</v>
-      </c>
-      <c r="K129">
-        <v>2</v>
-      </c>
-      <c r="L129" s="34"/>
-      <c r="M129" s="34"/>
-    </row>
-    <row r="130" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I130" t="s">
-        <v>42</v>
-      </c>
-      <c r="J130" t="s">
-        <v>209</v>
-      </c>
-      <c r="K130" t="s">
-        <v>347</v>
-      </c>
-      <c r="L130" s="33"/>
-      <c r="M130" s="34"/>
+        <v>71</v>
+      </c>
+      <c r="J129" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="K129" s="57">
+        <v>-2.7000000000000001E-7</v>
+      </c>
+      <c r="L129" s="57">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="M129" s="58">
+        <v>75</v>
+      </c>
+      <c r="N129" s="51" t="s">
+        <v>436</v>
+      </c>
+      <c r="O129" s="51" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="130" spans="9:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I130" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J130" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="K130" s="57">
+        <v>-1.4000000000000001E-7</v>
+      </c>
+      <c r="L130" s="57">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="M130" s="58">
+        <v>76</v>
+      </c>
+      <c r="N130" s="51" t="s">
+        <v>437</v>
+      </c>
+      <c r="O130" s="51" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="131" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I131" t="s">
-        <v>42</v>
-      </c>
-      <c r="J131" t="s">
-        <v>348</v>
-      </c>
-      <c r="K131" t="s">
-        <v>349</v>
-      </c>
-      <c r="L131" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="M131" s="20" t="s">
-        <v>351</v>
+        <v>71</v>
+      </c>
+      <c r="J131" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="K131" s="57">
+        <v>-6.1000000000000004E-8</v>
+      </c>
+      <c r="L131" s="57">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="M131" s="58">
+        <v>76</v>
+      </c>
+      <c r="N131" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="O131" s="51" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I132" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="J132" t="s">
-        <v>352</v>
-      </c>
-      <c r="K132" t="s">
-        <v>353</v>
-      </c>
-      <c r="L132" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="M132" s="34"/>
+        <v>284</v>
+      </c>
+      <c r="K132" s="33">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="L132" s="33">
+        <f>0.000000017/2.1</f>
+        <v>8.0952380952380954E-9</v>
+      </c>
+      <c r="M132" s="34">
+        <v>18</v>
+      </c>
+      <c r="N132" t="s">
+        <v>334</v>
+      </c>
+      <c r="O132" s="51" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="133" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I133" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="J133" t="s">
-        <v>355</v>
-      </c>
-      <c r="K133" t="s">
-        <v>356</v>
-      </c>
-      <c r="L133" s="33"/>
-      <c r="M133" s="34"/>
+        <v>285</v>
+      </c>
+      <c r="K133" s="33">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="L133" s="33">
+        <f>0.000000017/2.1</f>
+        <v>8.0952380952380954E-9</v>
+      </c>
+      <c r="M133" s="34">
+        <v>18</v>
+      </c>
+      <c r="N133" t="s">
+        <v>335</v>
+      </c>
+      <c r="O133" s="51" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="134" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I134" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="J134" t="s">
-        <v>357</v>
-      </c>
-      <c r="K134" t="s">
-        <v>358</v>
+        <v>205</v>
+      </c>
+      <c r="K134">
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I135" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="J135" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K135" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
     </row>
     <row r="136" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I136" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="J136" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="K136" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="L136" s="30"/>
-      <c r="M136" s="30"/>
-      <c r="N136" s="30"/>
-      <c r="O136" s="30"/>
+      <c r="I136" t="s">
+        <v>71</v>
+      </c>
+      <c r="J136" t="s">
+        <v>290</v>
+      </c>
+      <c r="K136" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="137" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I137" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="J137" t="s">
-        <v>205</v>
-      </c>
-      <c r="K137">
-        <v>4</v>
-      </c>
-      <c r="L137" s="34"/>
+        <v>213</v>
+      </c>
+      <c r="K137" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I138" t="s">
-        <v>32</v>
-      </c>
-      <c r="J138" t="s">
-        <v>209</v>
-      </c>
-      <c r="K138" t="s">
-        <v>361</v>
-      </c>
-      <c r="L138" s="33"/>
+      <c r="I138" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="J138" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K138" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="L138" s="30"/>
+      <c r="M138" s="30"/>
+      <c r="N138" s="30"/>
+      <c r="O138" s="30"/>
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I139" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J139" t="s">
-        <v>348</v>
-      </c>
-      <c r="K139" t="s">
-        <v>362</v>
-      </c>
-      <c r="L139" s="33"/>
+        <v>205</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139" s="34"/>
+      <c r="M139" s="34"/>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I140" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J140" t="s">
-        <v>352</v>
+        <v>209</v>
       </c>
       <c r="K140" t="s">
-        <v>363</v>
-      </c>
-      <c r="L140" s="19" t="s">
-        <v>364</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="L140" s="33"/>
+      <c r="M140" s="34"/>
     </row>
     <row r="141" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I141" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J141" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="K141" t="s">
-        <v>365</v>
-      </c>
-      <c r="L141" s="33"/>
+        <v>340</v>
+      </c>
+      <c r="L141" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="M141" s="20" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="142" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I142" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J142" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="K142" t="s">
-        <v>366</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="L142" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="M142" s="34"/>
     </row>
     <row r="143" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I143" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J143" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K143" t="s">
-        <v>368</v>
-      </c>
-      <c r="L143" t="s">
-        <v>369</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="L143" s="33"/>
+      <c r="M143" s="34"/>
     </row>
     <row r="144" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I144" t="s">
+        <v>42</v>
+      </c>
+      <c r="J144" t="s">
+        <v>348</v>
+      </c>
+      <c r="K144" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="145" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I145" t="s">
+        <v>42</v>
+      </c>
+      <c r="J145" t="s">
+        <v>213</v>
+      </c>
+      <c r="K145" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="146" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I146" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J146" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K146" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="L146" s="30"/>
+      <c r="M146" s="30"/>
+      <c r="N146" s="30"/>
+      <c r="O146" s="30"/>
+    </row>
+    <row r="147" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I147" t="s">
         <v>32</v>
       </c>
-      <c r="J144" t="s">
+      <c r="J147" t="s">
+        <v>205</v>
+      </c>
+      <c r="K147">
+        <v>4</v>
+      </c>
+      <c r="L147" s="34"/>
+    </row>
+    <row r="148" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I148" t="s">
+        <v>32</v>
+      </c>
+      <c r="J148" t="s">
+        <v>209</v>
+      </c>
+      <c r="K148" t="s">
+        <v>352</v>
+      </c>
+      <c r="L148" s="33"/>
+    </row>
+    <row r="149" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I149" t="s">
+        <v>32</v>
+      </c>
+      <c r="J149" t="s">
+        <v>339</v>
+      </c>
+      <c r="K149" t="s">
+        <v>353</v>
+      </c>
+      <c r="L149" s="33"/>
+    </row>
+    <row r="150" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I150" t="s">
+        <v>32</v>
+      </c>
+      <c r="J150" t="s">
+        <v>343</v>
+      </c>
+      <c r="K150" t="s">
+        <v>354</v>
+      </c>
+      <c r="L150" s="19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="151" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I151" t="s">
+        <v>32</v>
+      </c>
+      <c r="J151" t="s">
+        <v>346</v>
+      </c>
+      <c r="K151" t="s">
+        <v>356</v>
+      </c>
+      <c r="L151" s="33"/>
+    </row>
+    <row r="152" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I152" t="s">
+        <v>32</v>
+      </c>
+      <c r="J152" t="s">
+        <v>348</v>
+      </c>
+      <c r="K152" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="153" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I153" t="s">
+        <v>32</v>
+      </c>
+      <c r="J153" t="s">
+        <v>358</v>
+      </c>
+      <c r="K153" t="s">
+        <v>359</v>
+      </c>
+      <c r="L153" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="154" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I154" t="s">
+        <v>32</v>
+      </c>
+      <c r="J154" t="s">
         <v>213</v>
       </c>
-      <c r="K144" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="145" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I145" s="30" t="s">
+      <c r="K154" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="155" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I155" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J145" s="30" t="s">
+      <c r="J155" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="K145" s="30" t="s">
+      <c r="K155" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="L145" s="30"/>
-      <c r="M145" s="30"/>
-      <c r="N145" s="30"/>
-      <c r="O145" s="30"/>
+      <c r="L155" s="30"/>
+      <c r="M155" s="30"/>
+      <c r="N155" s="30"/>
+      <c r="O155" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8358,7 +8919,7 @@
   <dimension ref="A1:Y1282"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="360" activePane="bottomLeft"/>
+      <pane ySplit="360" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
@@ -8391,7 +8952,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -8402,33 +8963,33 @@
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="R4" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="S4" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="T4" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="U4" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V4" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -8437,49 +8998,49 @@
         <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G5" t="s">
         <v>180</v>
       </c>
       <c r="H5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J5" t="s">
+        <v>373</v>
+      </c>
+      <c r="K5" t="s">
         <v>374</v>
       </c>
-      <c r="J5" t="s">
-        <v>382</v>
-      </c>
-      <c r="K5" t="s">
-        <v>383</v>
-      </c>
       <c r="L5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="M5" t="s">
         <v>180</v>
       </c>
       <c r="N5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="O5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="Q5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="R5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="S5">
         <v>4.4777507956319872E-2</v>
       </c>
       <c r="T5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="U5" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="V5" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -8490,7 +9051,7 @@
         <v>10.00002188875</v>
       </c>
       <c r="C6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D6">
         <v>20.764612499999998</v>
@@ -8508,7 +9069,7 @@
         <v>0.12564404388870831</v>
       </c>
       <c r="J6" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K6">
         <v>1.0003017303999999</v>
@@ -8526,27 +9087,27 @@
         <v>3.6714402231706807E-2</v>
       </c>
       <c r="Q6" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="R6" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="S6">
         <v>4.4777507956319872E-2</v>
       </c>
       <c r="T6" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="U6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="V6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K7">
         <v>3.0350254677000003E-4</v>
@@ -8566,7 +9127,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K8">
         <v>-3.0451918841999998E-4</v>
@@ -8584,15 +9145,15 @@
         <v>2.0446869578453639E-2</v>
       </c>
       <c r="R8" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="T8" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K9">
         <v>-3.0446364500999999E-4</v>
@@ -8610,15 +9171,15 @@
         <v>1.982129407733613E-2</v>
       </c>
       <c r="R9" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="T9" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K10">
         <v>-1.0003009423</v>
@@ -8638,7 +9199,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K11">
         <v>-1.0003009775</v>
@@ -8658,7 +9219,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K12">
         <v>2.2210000000000001E-7</v>
@@ -8678,7 +9239,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K13">
         <v>5.1170541267839013E-3</v>
@@ -8718,7 +9279,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -8738,7 +9299,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K16">
         <v>-10.000020509000001</v>
@@ -8758,7 +9319,7 @@
     </row>
     <row r="17" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K17">
         <v>-9.3983150759000007E-3</v>
@@ -8798,7 +9359,7 @@
     </row>
     <row r="19" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K19">
         <v>10.000023067000001</v>
@@ -8818,7 +9379,7 @@
     </row>
     <row r="20" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K20">
         <v>10.00002347</v>
@@ -8838,7 +9399,7 @@
     </row>
     <row r="21" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="K21">
         <v>-1.0103043347</v>
@@ -8878,7 +9439,7 @@
     </row>
     <row r="23" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -8898,7 +9459,7 @@
     </row>
     <row r="24" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -8918,7 +9479,7 @@
     </row>
     <row r="25" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K25">
         <v>20.894085</v>
@@ -8938,7 +9499,7 @@
     </row>
     <row r="26" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -8958,7 +9519,7 @@
     </row>
     <row r="27" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -9038,7 +9599,7 @@
     </row>
     <row r="31" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K31">
         <v>10.000024109</v>
@@ -9064,7 +9625,7 @@
         <v>10.00002227575</v>
       </c>
       <c r="C33" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D33">
         <v>20.792098750000001</v>
@@ -9082,7 +9643,7 @@
         <v>0.1255260349983971</v>
       </c>
       <c r="J33" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K33">
         <v>3.0412604709000003E-4</v>
@@ -9102,7 +9663,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K34">
         <v>1.0003017431000001</v>
@@ -9122,7 +9683,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J35" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K35">
         <v>-3.0449704612E-4</v>
@@ -9142,7 +9703,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J36" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K36">
         <v>-1.0003004150000001</v>
@@ -9162,7 +9723,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J37" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K37">
         <v>-3.0520115826999998E-4</v>
@@ -9182,7 +9743,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J38" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K38">
         <v>-1.0003010632</v>
@@ -9202,7 +9763,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J39" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K39">
         <v>2.2210000000000001E-7</v>
@@ -9222,7 +9783,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J40" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K40">
         <v>5.1170541267839013E-3</v>
@@ -9262,7 +9823,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -9282,7 +9843,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J43" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K43">
         <v>-9.3988829519000006E-3</v>
@@ -9302,7 +9863,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="K44">
         <v>-1.0103038602000001</v>
@@ -9322,7 +9883,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K45">
         <v>-10.000021125</v>
@@ -9362,7 +9923,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K47">
         <v>10.000023240000001</v>
@@ -9382,7 +9943,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K48">
         <v>10.000023613</v>
@@ -9422,7 +9983,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -9442,7 +10003,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -9462,7 +10023,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -9482,7 +10043,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K53">
         <v>20.8915875</v>
@@ -9502,7 +10063,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -9582,7 +10143,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J58" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K58">
         <v>10.000023558000001</v>
@@ -9608,7 +10169,7 @@
         <v>10.000022352249999</v>
       </c>
       <c r="C60" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D60">
         <v>20.824582500000002</v>
@@ -9626,7 +10187,7 @@
         <v>0.1139545054374424</v>
       </c>
       <c r="J60" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K60">
         <v>3.0430913590000002E-4</v>
@@ -9646,7 +10207,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J61" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K61">
         <v>1.0003016184</v>
@@ -9666,7 +10227,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J62" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K62">
         <v>-3.0492296447999999E-4</v>
@@ -9686,7 +10247,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J63" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K63">
         <v>-1.0003006325999999</v>
@@ -9706,7 +10267,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J64" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K64">
         <v>-3.0511738654999989E-4</v>
@@ -9726,7 +10287,7 @@
     </row>
     <row r="65" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J65" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K65">
         <v>-1.0003008807</v>
@@ -9746,7 +10307,7 @@
     </row>
     <row r="66" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J66" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K66">
         <v>2.2210000000000001E-7</v>
@@ -9766,7 +10327,7 @@
     </row>
     <row r="67" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J67" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K67">
         <v>5.1170541267839013E-3</v>
@@ -9806,7 +10367,7 @@
     </row>
     <row r="69" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J69" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="K69">
         <v>-1.010303849</v>
@@ -9826,7 +10387,7 @@
     </row>
     <row r="70" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J70" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K70">
         <v>-10.000021151</v>
@@ -9846,7 +10407,7 @@
     </row>
     <row r="71" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J71" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K71">
         <v>-9.3988667592000003E-3</v>
@@ -9886,7 +10447,7 @@
     </row>
     <row r="73" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J73" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K73">
         <v>10.000023560000001</v>
@@ -9906,7 +10467,7 @@
     </row>
     <row r="74" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J74" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K74">
         <v>10.000023547</v>
@@ -9926,7 +10487,7 @@
     </row>
     <row r="75" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J75" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -9966,7 +10527,7 @@
     </row>
     <row r="77" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J77" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -9986,7 +10547,7 @@
     </row>
     <row r="78" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J78" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -10006,7 +10567,7 @@
     </row>
     <row r="79" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J79" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -10026,7 +10587,7 @@
     </row>
     <row r="80" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J80" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -10106,7 +10667,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J84" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K84">
         <v>20.899080000000001</v>
@@ -10126,7 +10687,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J85" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K85">
         <v>10.000024298</v>
@@ -10152,7 +10713,7 @@
         <v>10.00002214375</v>
       </c>
       <c r="C87" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D87">
         <v>20.819585</v>
@@ -10170,7 +10731,7 @@
         <v>0.1274315963228275</v>
       </c>
       <c r="J87" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K87">
         <v>3.0447996242999998E-4</v>
@@ -10190,7 +10751,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J88" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K88">
         <v>1.0003014786</v>
@@ -10210,7 +10771,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J89" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K89">
         <v>-3.0495051743000001E-4</v>
@@ -10230,7 +10791,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J90" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -10250,7 +10811,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J91" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K91">
         <v>-1.0003005756000001</v>
@@ -10270,7 +10831,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J92" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K92">
         <v>-3.0505884931000002E-4</v>
@@ -10290,7 +10851,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J93" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K93">
         <v>-1.0003015235999999</v>
@@ -10310,7 +10871,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J94" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K94">
         <v>2.2210000000000001E-7</v>
@@ -10330,7 +10891,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J95" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K95">
         <v>5.1170541267839013E-3</v>
@@ -10370,7 +10931,7 @@
     </row>
     <row r="97" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J97" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K97">
         <v>-9.3983049583999997E-3</v>
@@ -10390,7 +10951,7 @@
     </row>
     <row r="98" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J98" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="K98">
         <v>-1.0103038239</v>
@@ -10430,7 +10991,7 @@
     </row>
     <row r="100" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J100" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K100">
         <v>10.000024202000001</v>
@@ -10450,7 +11011,7 @@
     </row>
     <row r="101" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J101" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K101">
         <v>10.000023888999999</v>
@@ -10470,7 +11031,7 @@
     </row>
     <row r="102" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J102" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K102">
         <v>-10.000020242</v>
@@ -10490,7 +11051,7 @@
     </row>
     <row r="103" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J103" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -10530,7 +11091,7 @@
     </row>
     <row r="105" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J105" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -10550,7 +11111,7 @@
     </row>
     <row r="106" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J106" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -10570,7 +11131,7 @@
     </row>
     <row r="107" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J107" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K107">
         <v>20.8915875</v>
@@ -10590,7 +11151,7 @@
     </row>
     <row r="108" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J108" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -10670,7 +11231,7 @@
     </row>
     <row r="112" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J112" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K112">
         <v>10.000024446999999</v>
@@ -10696,7 +11257,7 @@
         <v>10.000021957</v>
       </c>
       <c r="C114" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D114">
         <v>20.794597499999998</v>
@@ -10714,7 +11275,7 @@
         <v>0.1298587694046332</v>
       </c>
       <c r="J114" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K114">
         <v>1.0003019523000001</v>
@@ -10734,7 +11295,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J115" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K115">
         <v>3.0442563560000003E-4</v>
@@ -10754,7 +11315,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J116" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K116">
         <v>-3.0477900539999998E-4</v>
@@ -10774,7 +11335,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J117" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K117">
         <v>-3.0468557529000011E-4</v>
@@ -10794,7 +11355,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J118" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K118">
         <v>-1.0003009982</v>
@@ -10814,7 +11375,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J119" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K119">
         <v>-1.0003010532000001</v>
@@ -10834,7 +11395,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J120" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K120">
         <v>2.2210000000000001E-7</v>
@@ -10854,7 +11415,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J121" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K121">
         <v>5.1170541267839013E-3</v>
@@ -10874,7 +11435,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J122" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -10914,7 +11475,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J124" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K124">
         <v>-9.398484954500002E-3</v>
@@ -10934,7 +11495,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J125" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K125">
         <v>-10.000020631</v>
@@ -10974,7 +11535,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J127" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="K127">
         <v>-1.0103039235</v>
@@ -10994,7 +11555,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J128" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K128">
         <v>10.000023493</v>
@@ -11014,7 +11575,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J129" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K129">
         <v>10.000023072999999</v>
@@ -11054,7 +11615,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J131" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -11074,7 +11635,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J132" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -11094,7 +11655,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J133" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -11114,7 +11675,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J134" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -11194,7 +11755,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J138" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K138">
         <v>20.889089999999999</v>
@@ -11214,7 +11775,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J139" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K139">
         <v>10.000023782</v>
@@ -11240,7 +11801,7 @@
         <v>10.000022103999999</v>
       </c>
       <c r="C141" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D141">
         <v>20.794597499999998</v>
@@ -11258,7 +11819,7 @@
         <v>0.1410579960769226</v>
       </c>
       <c r="J141" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K141">
         <v>3.0450394397000001E-4</v>
@@ -11278,7 +11839,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J142" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K142">
         <v>1.0003012131</v>
@@ -11298,7 +11859,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J143" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K143">
         <v>-3.0469905695000002E-4</v>
@@ -11318,7 +11879,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J144" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -11338,7 +11899,7 @@
     </row>
     <row r="145" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J145" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K145">
         <v>-1.0003015239999999</v>
@@ -11358,7 +11919,7 @@
     </row>
     <row r="146" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J146" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K146">
         <v>-1.0003004069999999</v>
@@ -11378,7 +11939,7 @@
     </row>
     <row r="147" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J147" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K147">
         <v>-3.0484762067999998E-4</v>
@@ -11398,7 +11959,7 @@
     </row>
     <row r="148" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J148" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K148">
         <v>2.2210000000000001E-7</v>
@@ -11418,7 +11979,7 @@
     </row>
     <row r="149" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J149" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K149">
         <v>5.1170541267839013E-3</v>
@@ -11458,7 +12019,7 @@
     </row>
     <row r="151" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J151" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="K151">
         <v>-1.0103038608999999</v>
@@ -11478,7 +12039,7 @@
     </row>
     <row r="152" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J152" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K152">
         <v>-10.000021075999999</v>
@@ -11498,7 +12059,7 @@
     </row>
     <row r="153" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J153" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K153">
         <v>-9.3985903548000002E-3</v>
@@ -11538,7 +12099,7 @@
     </row>
     <row r="155" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J155" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K155">
         <v>10.000023293</v>
@@ -11558,7 +12119,7 @@
     </row>
     <row r="156" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J156" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K156">
         <v>10.000022971</v>
@@ -11578,7 +12139,7 @@
     </row>
     <row r="157" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J157" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -11618,7 +12179,7 @@
     </row>
     <row r="159" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J159" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -11638,7 +12199,7 @@
     </row>
     <row r="160" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J160" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -11658,7 +12219,7 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J161" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -11738,7 +12299,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J165" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K165">
         <v>20.889089999999999</v>
@@ -11758,7 +12319,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J166" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K166">
         <v>10.000023334</v>
@@ -11784,7 +12345,7 @@
         <v>10.000021891999999</v>
       </c>
       <c r="C168" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D168">
         <v>20.792098750000001</v>
@@ -11802,7 +12363,7 @@
         <v>0.13723818146316799</v>
       </c>
       <c r="J168" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K168">
         <v>1.0003020302000001</v>
@@ -11822,7 +12383,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J169" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K169">
         <v>3.0437386631000001E-4</v>
@@ -11842,7 +12403,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J170" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K170">
         <v>-1.0003008587</v>
@@ -11862,7 +12423,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J171" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K171">
         <v>-3.0463584712000011E-4</v>
@@ -11882,7 +12443,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J172" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K172">
         <v>-3.0459166463999999E-4</v>
@@ -11902,7 +12463,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J173" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K173">
         <v>-1.0003009251999999</v>
@@ -11922,7 +12483,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J174" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K174">
         <v>2.2210000000000001E-7</v>
@@ -11942,7 +12503,7 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J175" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K175">
         <v>5.1170541267839013E-3</v>
@@ -11982,7 +12543,7 @@
     </row>
     <row r="177" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J177" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K177">
         <v>-10.000019817</v>
@@ -12002,7 +12563,7 @@
     </row>
     <row r="178" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J178" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="K178">
         <v>-1.0103044137999999</v>
@@ -12042,7 +12603,7 @@
     </row>
     <row r="180" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J180" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K180">
         <v>-9.3982111768999999E-3</v>
@@ -12062,7 +12623,7 @@
     </row>
     <row r="181" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J181" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K181">
         <v>10.000024016999999</v>
@@ -12082,7 +12643,7 @@
     </row>
     <row r="182" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J182" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K182">
         <v>10.000023917</v>
@@ -12102,7 +12663,7 @@
     </row>
     <row r="183" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J183" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K183">
         <v>0</v>
@@ -12142,7 +12703,7 @@
     </row>
     <row r="185" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J185" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K185">
         <v>0</v>
@@ -12162,7 +12723,7 @@
     </row>
     <row r="186" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J186" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -12182,7 +12743,7 @@
     </row>
     <row r="187" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J187" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K187">
         <v>20.886592499999999</v>
@@ -12202,7 +12763,7 @@
     </row>
     <row r="188" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J188" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -12222,7 +12783,7 @@
     </row>
     <row r="189" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J189" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -12302,7 +12863,7 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J193" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K193">
         <v>10.000022755</v>
@@ -12328,7 +12889,7 @@
         <v>10.000021795249999</v>
       </c>
       <c r="C195" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D195">
         <v>20.767111249999999</v>
@@ -12346,7 +12907,7 @@
         <v>0.103163989628556</v>
       </c>
       <c r="J195" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K195">
         <v>-3.0464299228999999E-4</v>
@@ -12366,7 +12927,7 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J196" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K196">
         <v>1.0003018430999999</v>
@@ -12386,7 +12947,7 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J197" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K197">
         <v>-1.0003004669</v>
@@ -12406,7 +12967,7 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J198" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K198">
         <v>3.0400439026000001E-4</v>
@@ -12426,7 +12987,7 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J199" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K199">
         <v>-1.000300816</v>
@@ -12446,7 +13007,7 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J200" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K200">
         <v>-3.0453863689000003E-4</v>
@@ -12466,7 +13027,7 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J201" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K201">
         <v>2.2210000000000001E-7</v>
@@ -12486,7 +13047,7 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J202" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -12506,7 +13067,7 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J203" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K203">
         <v>5.1170541267839013E-3</v>
@@ -12546,7 +13107,7 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J205" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K205">
         <v>-9.3983995658000006E-3</v>
@@ -12566,7 +13127,7 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J206" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K206">
         <v>-10.000020214999999</v>
@@ -12586,7 +13147,7 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J207" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="K207">
         <v>-1.0103038233999999</v>
@@ -12626,7 +13187,7 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J209" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K209">
         <v>10.000023741</v>
@@ -12646,7 +13207,7 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J210" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K210">
         <v>10.00002301</v>
@@ -12686,7 +13247,7 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J212" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K212">
         <v>0</v>
@@ -12706,7 +13267,7 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J213" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K213">
         <v>0</v>
@@ -12726,7 +13287,7 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J214" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K214">
         <v>0</v>
@@ -12746,7 +13307,7 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J215" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K215">
         <v>0</v>
@@ -12826,7 +13387,7 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J219" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K219">
         <v>20.879100000000001</v>
@@ -12846,7 +13407,7 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J220" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K220">
         <v>10.000022384999999</v>
@@ -12872,7 +13433,7 @@
         <v>10.000021771749999</v>
       </c>
       <c r="C222" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D222">
         <v>20.764612499999998</v>
@@ -12890,7 +13451,7 @@
         <v>0.14344163745528379</v>
       </c>
       <c r="J222" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K222">
         <v>3.0377552598999998E-4</v>
@@ -12910,7 +13471,7 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J223" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K223">
         <v>1.0003015202000001</v>
@@ -12930,7 +13491,7 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J224" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K224">
         <v>-1.0003008959999999</v>
@@ -12950,7 +13511,7 @@
     </row>
     <row r="225" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J225" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K225">
         <v>-1.0003008641</v>
@@ -12970,7 +13531,7 @@
     </row>
     <row r="226" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J226" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K226">
         <v>-3.0421448952999989E-4</v>
@@ -12990,7 +13551,7 @@
     </row>
     <row r="227" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J227" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K227">
         <v>-3.0450454660999998E-4</v>
@@ -13010,7 +13571,7 @@
     </row>
     <row r="228" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J228" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K228">
         <v>2.2210000000000001E-7</v>
@@ -13030,7 +13591,7 @@
     </row>
     <row r="229" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J229" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -13050,7 +13611,7 @@
     </row>
     <row r="230" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J230" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K230">
         <v>5.1170541267839013E-3</v>
@@ -13090,7 +13651,7 @@
     </row>
     <row r="232" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J232" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="K232">
         <v>-1.0103041966999999</v>
@@ -13110,7 +13671,7 @@
     </row>
     <row r="233" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J233" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K233">
         <v>-10.000020528</v>
@@ -13130,7 +13691,7 @@
     </row>
     <row r="234" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J234" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K234">
         <v>-9.3981304052999995E-3</v>
@@ -13170,7 +13731,7 @@
     </row>
     <row r="236" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J236" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K236">
         <v>10.000022766000001</v>
@@ -13190,7 +13751,7 @@
     </row>
     <row r="237" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J237" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K237">
         <v>10.000023264999999</v>
@@ -13230,7 +13791,7 @@
     </row>
     <row r="239" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J239" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K239">
         <v>0</v>
@@ -13250,7 +13811,7 @@
     </row>
     <row r="240" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J240" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -13270,7 +13831,7 @@
     </row>
     <row r="241" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J241" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="K241">
         <v>0</v>
@@ -13290,7 +13851,7 @@
     </row>
     <row r="242" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J242" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K242">
         <v>0</v>
@@ -13370,7 +13931,7 @@
     </row>
     <row r="246" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J246" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K246">
         <v>20.879100000000001</v>
@@ -13390,7 +13951,7 @@
     </row>
     <row r="247" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J247" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K247">
         <v>10.000023814</v>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -799,43 +799,43 @@
     <t>uncertainty in Vdrift = abs(Vd[2]-(Vd[0]+((Vd[3]-Vd[2])/(V2[3]-V2[2]))*(V2[2]-V2[0])))/4</t>
   </si>
   <si>
-    <t>Ti612_R0_LV HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
-  </si>
-  <si>
-    <t>HRBA1.0_26/05/2017 16:34:52</t>
-  </si>
-  <si>
-    <t>Ti612_TRef_LV HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
+    <t>Ti612_R0_LV_HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
+  </si>
+  <si>
+    <t>HRBA1.2_13/06/2017 11:21:25</t>
+  </si>
+  <si>
+    <t>Ti612_TRef_LV_HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>Ti612_VRef_LV HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
+    <t>Ti612_VRef_LV_HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
   </si>
   <si>
     <t>Vd2</t>
   </si>
   <si>
-    <t>Ti612_R0_HV HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
-  </si>
-  <si>
-    <t>Ti612_TRef_HV HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
-  </si>
-  <si>
-    <t>Ti612_VRef_HV HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
+    <t>Ti612_R0_HV_HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
+  </si>
+  <si>
+    <t>Ti612_TRef_HV_HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
+  </si>
+  <si>
+    <t>Ti612_VRef_HV_HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>Ti612_alpha HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
-  </si>
-  <si>
-    <t>Ti612_beta HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
-  </si>
-  <si>
-    <t>Ti612_gamma HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
+    <t>Ti612_alpha_HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
+  </si>
+  <si>
+    <t>Ti612_beta_HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
+  </si>
+  <si>
+    <t>Ti612_gamma_HRBC.v0.4 Ti612 100k:SR104r 10k 03/03/2017 11:37:33</t>
   </si>
   <si>
     <t>D</t>
@@ -1168,7 +1168,7 @@
     <t>UNUSED F5520A</t>
   </si>
   <si>
-    <t>Processed with HRBA v1.2 on Friday, 09. June 2017 01:59PM</t>
+    <t>Processed with HRBA v1.2 on Tuesday, 13. June 2017 11:21AM</t>
   </si>
   <si>
     <t>Uncertainty Budget</t>
@@ -1310,13 +1310,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
     <numFmt formatCode="d/mm/yyyy\ h:mm:ss" numFmtId="165"/>
     <numFmt formatCode="0.000000" numFmtId="166"/>
     <numFmt formatCode="0.00000" numFmtId="167"/>
     <numFmt formatCode="0.0000" numFmtId="168"/>
     <numFmt formatCode="0.0000E+00" numFmtId="169"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="170"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1476,7 +1477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1582,11 +1583,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1634,12 +1642,12 @@
     <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1651,6 +1659,8 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -2209,7 +2219,7 @@
       <c s="16" r="B2" t="n">
         <v>40</v>
       </c>
-      <c s="43" r="G2" t="n"/>
+      <c s="48" r="G2" t="n"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" t="s">
@@ -2271,7 +2281,7 @@
       <c s="22" r="B4" t="s">
         <v>20</v>
       </c>
-      <c s="43" r="G4" t="s">
+      <c s="48" r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
@@ -2403,7 +2413,7 @@
       <c s="8" r="F6" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G6" t="s">
+      <c s="48" r="G6" t="s">
         <v>33</v>
       </c>
       <c s="11" r="H6" t="n">
@@ -2472,7 +2482,7 @@
       <c s="8" r="F7" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G7" t="s">
+      <c s="48" r="G7" t="s">
         <v>38</v>
       </c>
       <c s="11" r="H7" t="n">
@@ -2541,7 +2551,7 @@
       <c s="8" r="F8" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G8" t="s">
+      <c s="48" r="G8" t="s">
         <v>43</v>
       </c>
       <c s="11" r="H8" t="n">
@@ -2610,7 +2620,7 @@
       <c s="8" r="F9" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G9" t="s">
+      <c s="48" r="G9" t="s">
         <v>48</v>
       </c>
       <c s="11" r="H9" t="n">
@@ -2679,7 +2689,7 @@
       <c s="8" r="F10" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G10" t="s">
+      <c s="48" r="G10" t="s">
         <v>53</v>
       </c>
       <c s="11" r="H10" t="n">
@@ -2748,7 +2758,7 @@
       <c s="8" r="F11" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G11" t="s">
+      <c s="48" r="G11" t="s">
         <v>58</v>
       </c>
       <c s="11" r="H11" t="n">
@@ -2817,7 +2827,7 @@
       <c s="8" r="F12" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G12" t="s">
+      <c s="48" r="G12" t="s">
         <v>63</v>
       </c>
       <c s="11" r="H12" t="n">
@@ -2886,7 +2896,7 @@
       <c s="8" r="F13" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G13" t="s">
+      <c s="48" r="G13" t="s">
         <v>67</v>
       </c>
       <c s="11" r="H13" t="n">
@@ -2955,7 +2965,7 @@
       <c s="8" r="F14" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G14" t="s">
+      <c s="48" r="G14" t="s">
         <v>72</v>
       </c>
       <c s="11" r="H14" t="n">
@@ -3025,7 +3035,7 @@
       <c s="8" r="F15" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G15" t="s">
+      <c s="48" r="G15" t="s">
         <v>77</v>
       </c>
       <c s="11" r="H15" t="n">
@@ -3087,7 +3097,7 @@
       <c s="8" r="F16" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G16" t="s">
+      <c s="48" r="G16" t="s">
         <v>80</v>
       </c>
       <c s="11" r="H16" t="n">
@@ -3211,7 +3221,7 @@
       <c s="8" r="F18" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G18" t="s">
+      <c s="48" r="G18" t="s">
         <v>86</v>
       </c>
       <c s="11" r="H18" t="n">
@@ -3335,7 +3345,7 @@
       <c s="8" r="F20" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G20" t="s">
+      <c s="48" r="G20" t="s">
         <v>92</v>
       </c>
       <c s="11" r="H20" t="n">
@@ -3459,7 +3469,7 @@
       <c s="8" r="F22" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G22" t="s">
+      <c s="48" r="G22" t="s">
         <v>98</v>
       </c>
       <c s="11" r="H22" t="n">
@@ -3583,7 +3593,7 @@
       <c s="8" r="F24" t="n">
         <v>90</v>
       </c>
-      <c s="43" r="G24" t="s">
+      <c s="48" r="G24" t="s">
         <v>104</v>
       </c>
       <c s="11" r="H24" t="n">
@@ -5312,9 +5322,9 @@
   <dimension ref="A1:U155"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <pane activePane="bottomLeft" state="split" topLeftCell="A8" ySplit="540"/>
+      <pane activePane="bottomLeft" state="split" ySplit="540"/>
       <selection activeCell="F2" sqref="F2"/>
-      <selection activeCell="L72" pane="bottomLeft" sqref="L72:L73"/>
+      <selection activeCell="A26" pane="bottomLeft" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -5477,7 +5487,7 @@
       <c r="B5" t="s">
         <v>194</v>
       </c>
-      <c s="45" r="C5" t="n">
+      <c s="44" r="C5" t="n">
         <v>0.00390912</v>
       </c>
       <c r="D5" t="n">
@@ -5512,7 +5522,7 @@
       <c r="B6" t="s">
         <v>199</v>
       </c>
-      <c s="45" r="C6" t="n">
+      <c s="44" r="C6" t="n">
         <v>-5.926000000000001e-07</v>
       </c>
       <c r="D6" t="n">
@@ -5600,7 +5610,7 @@
       <c r="B9" t="s">
         <v>181</v>
       </c>
-      <c s="45" r="C9" t="n">
+      <c s="44" r="C9" t="n">
         <v>10000.2</v>
       </c>
       <c r="D9" t="n">
@@ -5636,7 +5646,7 @@
       <c r="B10" t="s">
         <v>189</v>
       </c>
-      <c s="45" r="C10" t="n">
+      <c s="44" r="C10" t="n">
         <v>23</v>
       </c>
       <c r="D10" t="n">
@@ -5654,10 +5664,10 @@
       <c r="J10" t="s">
         <v>185</v>
       </c>
-      <c s="45" r="K10" t="n">
+      <c s="44" r="K10" t="n">
         <v>-0.001</v>
       </c>
-      <c s="45" r="L10" t="n">
+      <c s="44" r="L10" t="n">
         <v>0.00045</v>
       </c>
       <c r="M10" t="s">
@@ -5680,7 +5690,7 @@
       <c r="B11" t="s">
         <v>194</v>
       </c>
-      <c s="45" r="C11" t="n">
+      <c s="44" r="C11" t="n">
         <v>0.001</v>
       </c>
       <c r="D11" t="n">
@@ -5718,7 +5728,7 @@
       <c r="B12" t="s">
         <v>199</v>
       </c>
-      <c s="45" r="C12" t="n">
+      <c s="44" r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
@@ -5833,10 +5843,10 @@
       <c r="J15" t="s">
         <v>185</v>
       </c>
-      <c s="45" r="K15" t="n">
+      <c s="44" r="K15" t="n">
         <v>-0.0005</v>
       </c>
-      <c s="45" r="L15" t="n">
+      <c s="44" r="L15" t="n">
         <v>0.0004</v>
       </c>
       <c r="M15" t="s">
@@ -5896,7 +5906,7 @@
       <c r="B17" t="s">
         <v>237</v>
       </c>
-      <c s="45" r="C17" t="n">
+      <c s="44" r="C17" t="n">
         <v>5</v>
       </c>
       <c r="D17" t="n">
@@ -6037,10 +6047,10 @@
       <c r="B21" t="s">
         <v>194</v>
       </c>
-      <c s="45" r="C21" t="n">
+      <c s="44" r="C21" t="n">
         <v>3.42e-07</v>
       </c>
-      <c s="45" r="D21" t="n">
+      <c s="44" r="D21" t="n">
         <v>1.9e-08</v>
       </c>
       <c r="E21" t="n">
@@ -6072,10 +6082,10 @@
       <c r="B22" t="s">
         <v>199</v>
       </c>
-      <c s="45" r="C22" t="n">
+      <c s="44" r="C22" t="n">
         <v>-2.7e-08</v>
       </c>
-      <c s="45" r="D22" t="n">
+      <c s="44" r="D22" t="n">
         <v>5e-09</v>
       </c>
       <c r="E22" t="n">
@@ -6188,13 +6198,13 @@
         <v>181</v>
       </c>
       <c r="C26" t="n">
-        <v>100003.6756752265</v>
+        <v>100003.625478355</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02269676598030112</v>
+        <v>0.2111110135205206</v>
       </c>
       <c r="E26" t="n">
-        <v>185.1624562042641</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
         <v>260</v>
@@ -6226,7 +6236,7 @@
         <v>0.001477845839162932</v>
       </c>
       <c r="E27" t="n">
-        <v>12.81785925488101</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
         <v>262</v>
@@ -6258,7 +6268,7 @@
         <v>9.180757968762575e-08</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9071930959072</v>
+        <v>147</v>
       </c>
       <c r="F28" t="s">
         <v>264</v>
@@ -6288,13 +6298,13 @@
         <v>241</v>
       </c>
       <c r="C29" t="n">
-        <v>100003.6756752265</v>
+        <v>100003.625478355</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02269676598030112</v>
+        <v>0.2111110135205206</v>
       </c>
       <c r="E29" t="n">
-        <v>185.1624562042641</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
         <v>266</v>
@@ -6326,7 +6336,7 @@
         <v>0.001477845839162932</v>
       </c>
       <c r="E30" t="n">
-        <v>12.81785925488101</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>267</v>
@@ -6358,7 +6368,7 @@
         <v>9.180757968762575e-08</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9071930959072</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
         <v>268</v>
@@ -6388,13 +6398,13 @@
         <v>194</v>
       </c>
       <c r="C32" t="n">
-        <v>1.257741719894329e-05</v>
+        <v>1.316463109323634e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>9.483002693964003e-06</v>
+        <v>9.625192710082799e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>213.8723153579484</v>
+        <v>217</v>
       </c>
       <c r="F32" t="s">
         <v>270</v>
@@ -6483,7 +6493,7 @@
       <c r="B35" t="s">
         <v>204</v>
       </c>
-      <c s="43" r="C35" t="n">
+      <c s="54" r="C35" t="n">
         <v>42797.57151974022</v>
       </c>
       <c r="G35" t="s">
@@ -6504,19 +6514,19 @@
       <c s="28" r="O35" t="n"/>
     </row>
     <row r="36" spans="1:21">
-      <c s="44" r="A36" t="s">
+      <c s="55" r="A36" t="s">
         <v>164</v>
       </c>
-      <c s="44" r="B36" t="s">
+      <c s="55" r="B36" t="s">
         <v>208</v>
       </c>
-      <c s="44" r="C36" t="s">
+      <c s="55" r="C36" t="s">
         <v>37</v>
       </c>
-      <c s="44" r="D36" t="n"/>
-      <c s="44" r="E36" t="n"/>
-      <c s="44" r="F36" t="n"/>
-      <c s="44" r="G36" t="s">
+      <c s="55" r="D36" t="n"/>
+      <c s="55" r="E36" t="n"/>
+      <c s="55" r="F36" t="n"/>
+      <c s="55" r="G36" t="s">
         <v>261</v>
       </c>
       <c r="I36" t="s">
@@ -6919,7 +6929,7 @@
       <c r="K63" t="s">
         <v>289</v>
       </c>
-      <c s="44" r="N63" t="n"/>
+      <c s="43" r="N63" t="n"/>
     </row>
     <row r="64" spans="1:21">
       <c s="13" r="I64" t="s">
@@ -7009,10 +7019,10 @@
       <c r="J68" t="s">
         <v>297</v>
       </c>
-      <c s="45" r="K68" t="n">
+      <c s="44" r="K68" t="n">
         <v>5e-07</v>
       </c>
-      <c s="45" r="L68" t="n">
+      <c s="44" r="L68" t="n">
         <v>3e-06</v>
       </c>
       <c r="M68" t="n">
@@ -7032,13 +7042,13 @@
       <c r="J69" t="s">
         <v>300</v>
       </c>
-      <c s="46" r="K69" t="n">
+      <c s="45" r="K69" t="n">
         <v>-1.3e-06</v>
       </c>
-      <c s="46" r="L69" t="n">
+      <c s="45" r="L69" t="n">
         <v>3e-06</v>
       </c>
-      <c s="47" r="M69" t="n">
+      <c s="46" r="M69" t="n">
         <v>151</v>
       </c>
       <c r="N69" t="s">
@@ -7055,13 +7065,13 @@
       <c r="J70" t="s">
         <v>302</v>
       </c>
-      <c s="46" r="K70" t="n">
+      <c s="45" r="K70" t="n">
         <v>-2.8e-07</v>
       </c>
-      <c s="46" r="L70" t="n">
+      <c s="45" r="L70" t="n">
         <v>3e-06</v>
       </c>
-      <c s="47" r="M70" t="n">
+      <c s="46" r="M70" t="n">
         <v>150</v>
       </c>
       <c r="N70" t="s">
@@ -7078,13 +7088,13 @@
       <c r="J71" t="s">
         <v>304</v>
       </c>
-      <c s="46" r="K71" t="n">
+      <c s="45" r="K71" t="n">
         <v>-4.2e-07</v>
       </c>
-      <c s="46" r="L71" t="n">
+      <c s="45" r="L71" t="n">
         <v>3e-06</v>
       </c>
-      <c s="47" r="M71" t="n">
+      <c s="46" r="M71" t="n">
         <v>150</v>
       </c>
       <c r="N71" t="s">
@@ -7283,10 +7293,10 @@
       <c r="J83" t="s">
         <v>297</v>
       </c>
-      <c s="45" r="K83" t="n">
+      <c s="44" r="K83" t="n">
         <v>-6.5e-08</v>
       </c>
-      <c s="45" r="L83" t="n">
+      <c s="44" r="L83" t="n">
         <v>3e-06</v>
       </c>
       <c r="M83" t="n">
@@ -7298,7 +7308,7 @@
       <c r="O83" t="s">
         <v>299</v>
       </c>
-      <c s="48" r="P83" t="n"/>
+      <c s="47" r="P83" t="n"/>
     </row>
     <row r="84" spans="1:21">
       <c r="I84" t="s">
@@ -7307,13 +7317,13 @@
       <c r="J84" t="s">
         <v>300</v>
       </c>
-      <c s="46" r="K84" t="n">
+      <c s="45" r="K84" t="n">
         <v>-2.4e-07</v>
       </c>
-      <c s="46" r="L84" t="n">
+      <c s="45" r="L84" t="n">
         <v>3e-06</v>
       </c>
-      <c s="47" r="M84" t="n">
+      <c s="46" r="M84" t="n">
         <v>151</v>
       </c>
       <c r="N84" t="s">
@@ -7330,13 +7340,13 @@
       <c r="J85" t="s">
         <v>302</v>
       </c>
-      <c s="46" r="K85" t="n">
+      <c s="45" r="K85" t="n">
         <v>-5e-06</v>
       </c>
-      <c s="46" r="L85" t="n">
+      <c s="45" r="L85" t="n">
         <v>3e-06</v>
       </c>
-      <c s="47" r="M85" t="n">
+      <c s="46" r="M85" t="n">
         <v>150</v>
       </c>
       <c r="N85" t="s">
@@ -7353,13 +7363,13 @@
       <c r="J86" t="s">
         <v>304</v>
       </c>
-      <c s="46" r="K86" t="n">
+      <c s="45" r="K86" t="n">
         <v>-3.2e-06</v>
       </c>
-      <c s="46" r="L86" t="n">
+      <c s="45" r="L86" t="n">
         <v>2.1e-06</v>
       </c>
-      <c s="47" r="M86" t="n">
+      <c s="46" r="M86" t="n">
         <v>75</v>
       </c>
       <c r="N86" t="s">
@@ -7558,10 +7568,10 @@
       <c r="J98" t="s">
         <v>297</v>
       </c>
-      <c s="45" r="K98" t="n">
+      <c s="44" r="K98" t="n">
         <v>-1.5e-07</v>
       </c>
-      <c s="45" r="L98" t="n">
+      <c s="44" r="L98" t="n">
         <v>3e-06</v>
       </c>
       <c r="M98" t="n">
@@ -7581,13 +7591,13 @@
       <c r="J99" t="s">
         <v>300</v>
       </c>
-      <c s="46" r="K99" t="n">
+      <c s="45" r="K99" t="n">
         <v>-4.8e-08</v>
       </c>
-      <c s="46" r="L99" t="n">
+      <c s="45" r="L99" t="n">
         <v>3e-06</v>
       </c>
-      <c s="47" r="M99" t="n">
+      <c s="46" r="M99" t="n">
         <v>151</v>
       </c>
       <c r="N99" t="s">
@@ -7604,13 +7614,13 @@
       <c r="J100" t="s">
         <v>302</v>
       </c>
-      <c s="46" r="K100" t="n">
+      <c s="45" r="K100" t="n">
         <v>-4e-07</v>
       </c>
-      <c s="46" r="L100" t="n">
+      <c s="45" r="L100" t="n">
         <v>3e-06</v>
       </c>
-      <c s="47" r="M100" t="n">
+      <c s="46" r="M100" t="n">
         <v>150</v>
       </c>
       <c r="N100" t="s">
@@ -7627,13 +7637,13 @@
       <c r="J101" t="s">
         <v>304</v>
       </c>
-      <c s="46" r="K101" t="n">
+      <c s="45" r="K101" t="n">
         <v>-5e-07</v>
       </c>
-      <c s="46" r="L101" t="n">
+      <c s="45" r="L101" t="n">
         <v>3e-06</v>
       </c>
-      <c s="47" r="M101" t="n">
+      <c s="46" r="M101" t="n">
         <v>150</v>
       </c>
       <c r="N101" t="s">
@@ -7832,10 +7842,10 @@
       <c r="J113" t="s">
         <v>297</v>
       </c>
-      <c s="45" r="K113" t="n">
+      <c s="44" r="K113" t="n">
         <v>-1.7e-07</v>
       </c>
-      <c s="45" r="L113" t="n">
+      <c s="44" r="L113" t="n">
         <v>3e-06</v>
       </c>
       <c r="M113" t="n">
@@ -7855,13 +7865,13 @@
       <c r="J114" t="s">
         <v>300</v>
       </c>
-      <c s="46" r="K114" t="n">
+      <c s="45" r="K114" t="n">
         <v>-3.3e-08</v>
       </c>
-      <c s="46" r="L114" t="n">
+      <c s="45" r="L114" t="n">
         <v>2.1e-06</v>
       </c>
-      <c s="47" r="M114" t="n">
+      <c s="46" r="M114" t="n">
         <v>76</v>
       </c>
       <c r="N114" t="s">
@@ -7878,13 +7888,13 @@
       <c r="J115" t="s">
         <v>302</v>
       </c>
-      <c s="46" r="K115" t="n">
+      <c s="45" r="K115" t="n">
         <v>6.2e-07</v>
       </c>
-      <c s="46" r="L115" t="n">
+      <c s="45" r="L115" t="n">
         <v>2.1e-06</v>
       </c>
-      <c s="47" r="M115" t="n">
+      <c s="46" r="M115" t="n">
         <v>75</v>
       </c>
       <c r="N115" t="s">
@@ -7901,13 +7911,13 @@
       <c r="J116" t="s">
         <v>304</v>
       </c>
-      <c s="46" r="K116" t="n">
+      <c s="45" r="K116" t="n">
         <v>6.799999999999999e-07</v>
       </c>
-      <c s="46" r="L116" t="n">
+      <c s="45" r="L116" t="n">
         <v>2.1e-06</v>
       </c>
-      <c s="47" r="M116" t="n">
+      <c s="46" r="M116" t="n">
         <v>75</v>
       </c>
       <c r="N116" t="s">
@@ -8106,10 +8116,10 @@
       <c r="J128" t="s">
         <v>297</v>
       </c>
-      <c s="45" r="K128" t="n">
+      <c s="44" r="K128" t="n">
         <v>9.7e-07</v>
       </c>
-      <c s="45" r="L128" t="n">
+      <c s="44" r="L128" t="n">
         <v>2.1e-06</v>
       </c>
       <c r="M128" t="n">
@@ -8129,13 +8139,13 @@
       <c r="J129" t="s">
         <v>300</v>
       </c>
-      <c s="46" r="K129" t="n">
+      <c s="45" r="K129" t="n">
         <v>-2.7e-07</v>
       </c>
-      <c s="46" r="L129" t="n">
+      <c s="45" r="L129" t="n">
         <v>2.1e-06</v>
       </c>
-      <c s="47" r="M129" t="n">
+      <c s="46" r="M129" t="n">
         <v>75</v>
       </c>
       <c r="N129" t="s">
@@ -8152,13 +8162,13 @@
       <c r="J130" t="s">
         <v>302</v>
       </c>
-      <c s="46" r="K130" t="n">
+      <c s="45" r="K130" t="n">
         <v>-1.4e-07</v>
       </c>
-      <c s="46" r="L130" t="n">
+      <c s="45" r="L130" t="n">
         <v>2.1e-06</v>
       </c>
-      <c s="47" r="M130" t="n">
+      <c s="46" r="M130" t="n">
         <v>76</v>
       </c>
       <c r="N130" t="s">
@@ -8175,13 +8185,13 @@
       <c r="J131" t="s">
         <v>304</v>
       </c>
-      <c s="46" r="K131" t="n">
+      <c s="45" r="K131" t="n">
         <v>-6.1e-08</v>
       </c>
-      <c s="46" r="L131" t="n">
+      <c s="45" r="L131" t="n">
         <v>2.1e-06</v>
       </c>
-      <c s="47" r="M131" t="n">
+      <c s="46" r="M131" t="n">
         <v>76</v>
       </c>
       <c r="N131" t="s">
@@ -8530,12 +8540,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB753"/>
+  <dimension ref="A1:AB247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
       <pane activePane="bottomLeft" state="split" ySplit="900"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection activeCell="F17" pane="bottomLeft" sqref="F17"/>
+      <selection activeCell="B1" pane="bottomLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -8567,7 +8577,7 @@
       </c>
     </row>
     <row r="3" spans="1:28">
-      <c s="54" r="A3" t="s">
+      <c s="56" r="A3" t="s">
         <v>383</v>
       </c>
     </row>
@@ -8647,13 +8657,13 @@
         <v>100003.625478355</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2110746874858505</v>
+        <v>0.2111110135205206</v>
       </c>
       <c r="T5" t="n">
         <v>77</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4203442078233214</v>
+        <v>0.420411904852511</v>
       </c>
       <c r="V5" t="n">
         <v>20.79043291666666</v>
@@ -8678,7 +8688,7 @@
       </c>
     </row>
     <row r="6" spans="1:28">
-      <c s="55" r="A6" t="s">
+      <c s="57" r="A6" t="s">
         <v>164</v>
       </c>
       <c r="B6" t="n">
@@ -8697,7 +8707,7 @@
         <v>0.2188532887735499</v>
       </c>
       <c r="G6" t="n">
-        <v>87.24622046511229</v>
+        <v>87</v>
       </c>
       <c r="H6" t="n">
         <v>0.4349773006921108</v>
@@ -8727,13 +8737,13 @@
         <v>100003.625478355</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2110746874858505</v>
+        <v>0.2111110135205206</v>
       </c>
       <c r="T6" t="n">
         <v>77</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4203442078233214</v>
+        <v>0.420411904852511</v>
       </c>
       <c r="V6" t="n">
         <v>20.79043291666666</v>
@@ -8826,10 +8836,10 @@
         <v>1.316463109323634e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>9.647955345220622e-06</v>
+        <v>9.625192710082799e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -8837,8 +8847,8 @@
       <c r="W9" t="n">
         <v>0</v>
       </c>
-      <c r="X9" t="n">
-        <v>inf</v>
+      <c r="X9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -8912,7 +8922,7 @@
         <v>0.0004153630935407008</v>
       </c>
       <c r="M13" t="n">
-        <v>96.82660421439785</v>
+        <v>97</v>
       </c>
       <c r="N13" t="n">
         <v>10.00034967086338</v>
@@ -9211,8 +9221,8 @@
       <c r="L28" t="n">
         <v>0</v>
       </c>
-      <c r="M28" t="n">
-        <v>inf</v>
+      <c r="M28" t="s">
+        <v>182</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -9231,8 +9241,8 @@
       <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="M29" t="n">
-        <v>inf</v>
+      <c r="M29" t="s">
+        <v>182</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -9251,8 +9261,8 @@
       <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="M30" t="n">
-        <v>inf</v>
+      <c r="M30" t="s">
+        <v>182</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -9283,7 +9293,7 @@
     </row>
     <row r="32" spans="1:28"/>
     <row r="33" spans="1:28">
-      <c s="55" r="A33" t="s">
+      <c s="57" r="A33" t="s">
         <v>164</v>
       </c>
       <c r="B33" t="n">
@@ -9302,7 +9312,7 @@
         <v>0.2187314463411475</v>
       </c>
       <c r="G33" t="n">
-        <v>86.85280775334473</v>
+        <v>87</v>
       </c>
       <c r="H33" t="n">
         <v>0.4347628230715564</v>
@@ -9457,7 +9467,7 @@
         <v>0.0004153630935407008</v>
       </c>
       <c r="M40" t="n">
-        <v>96.82660421439785</v>
+        <v>97</v>
       </c>
       <c r="N40" t="n">
         <v>10.00035637031159</v>
@@ -9756,8 +9766,8 @@
       <c r="L55" t="n">
         <v>0</v>
       </c>
-      <c r="M55" t="n">
-        <v>inf</v>
+      <c r="M55" t="s">
+        <v>182</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -9776,8 +9786,8 @@
       <c r="L56" t="n">
         <v>0</v>
       </c>
-      <c r="M56" t="n">
-        <v>inf</v>
+      <c r="M56" t="s">
+        <v>182</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -9796,8 +9806,8 @@
       <c r="L57" t="n">
         <v>0</v>
       </c>
-      <c r="M57" t="n">
-        <v>inf</v>
+      <c r="M57" t="s">
+        <v>182</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -9828,7 +9838,7 @@
     </row>
     <row r="59" spans="1:28"/>
     <row r="60" spans="1:28">
-      <c s="55" r="A60" t="s">
+      <c s="57" r="A60" t="s">
         <v>164</v>
       </c>
       <c r="B60" t="n">
@@ -9847,7 +9857,7 @@
         <v>0.2173506564501503</v>
       </c>
       <c r="G60" t="n">
-        <v>85.37170722416769</v>
+        <v>85</v>
       </c>
       <c r="H60" t="n">
         <v>0.4321241737080048</v>
@@ -10002,7 +10012,7 @@
         <v>0.0004153630935407008</v>
       </c>
       <c r="M67" t="n">
-        <v>96.82660421439785</v>
+        <v>97</v>
       </c>
       <c r="N67" t="n">
         <v>10.00035897453954</v>
@@ -10281,8 +10291,8 @@
       <c r="L81" t="n">
         <v>0</v>
       </c>
-      <c r="M81" t="n">
-        <v>inf</v>
+      <c r="M81" t="s">
+        <v>182</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -10301,8 +10311,8 @@
       <c r="L82" t="n">
         <v>0</v>
       </c>
-      <c r="M82" t="n">
-        <v>inf</v>
+      <c r="M82" t="s">
+        <v>182</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -10321,8 +10331,8 @@
       <c r="L83" t="n">
         <v>0</v>
       </c>
-      <c r="M83" t="n">
-        <v>inf</v>
+      <c r="M83" t="s">
+        <v>182</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -10373,7 +10383,7 @@
     </row>
     <row r="86" spans="1:28"/>
     <row r="87" spans="1:28">
-      <c s="55" r="A87" t="s">
+      <c s="57" r="A87" t="s">
         <v>164</v>
       </c>
       <c r="B87" t="n">
@@ -10392,7 +10402,7 @@
         <v>0.2192473456196246</v>
       </c>
       <c r="G87" t="n">
-        <v>88.10479475574562</v>
+        <v>88</v>
       </c>
       <c r="H87" t="n">
         <v>0.4357008048882479</v>
@@ -10567,7 +10577,7 @@
         <v>0.0004153630935407008</v>
       </c>
       <c r="M95" t="n">
-        <v>96.82660421439785</v>
+        <v>97</v>
       </c>
       <c r="N95" t="n">
         <v>10.0003590825752</v>
@@ -10846,8 +10856,8 @@
       <c r="L109" t="n">
         <v>0</v>
       </c>
-      <c r="M109" t="n">
-        <v>inf</v>
+      <c r="M109" t="s">
+        <v>182</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
@@ -10866,8 +10876,8 @@
       <c r="L110" t="n">
         <v>0</v>
       </c>
-      <c r="M110" t="n">
-        <v>inf</v>
+      <c r="M110" t="s">
+        <v>182</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -10886,8 +10896,8 @@
       <c r="L111" t="n">
         <v>0</v>
       </c>
-      <c r="M111" t="n">
-        <v>inf</v>
+      <c r="M111" t="s">
+        <v>182</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -10918,7 +10928,7 @@
     </row>
     <row r="113" spans="1:28"/>
     <row r="114" spans="1:28">
-      <c s="55" r="A114" t="s">
+      <c s="57" r="A114" t="s">
         <v>164</v>
       </c>
       <c r="B114" t="n">
@@ -10937,7 +10947,7 @@
         <v>0.2193865482424374</v>
       </c>
       <c r="G114" t="n">
-        <v>87.78209388799844</v>
+        <v>88</v>
       </c>
       <c r="H114" t="n">
         <v>0.4359997484621793</v>
@@ -11092,7 +11102,7 @@
         <v>0.0004153630935407008</v>
       </c>
       <c r="M121" t="n">
-        <v>96.82660421439785</v>
+        <v>97</v>
       </c>
       <c r="N121" t="n">
         <v>10.00035461177032</v>
@@ -11371,8 +11381,8 @@
       <c r="L135" t="n">
         <v>0</v>
       </c>
-      <c r="M135" t="n">
-        <v>inf</v>
+      <c r="M135" t="s">
+        <v>182</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -11391,8 +11401,8 @@
       <c r="L136" t="n">
         <v>0</v>
       </c>
-      <c r="M136" t="n">
-        <v>inf</v>
+      <c r="M136" t="s">
+        <v>182</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
@@ -11411,8 +11421,8 @@
       <c r="L137" t="n">
         <v>0</v>
       </c>
-      <c r="M137" t="n">
-        <v>inf</v>
+      <c r="M137" t="s">
+        <v>182</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
@@ -11463,7 +11473,7 @@
     </row>
     <row r="140" spans="1:28"/>
     <row r="141" spans="1:28">
-      <c s="55" r="A141" t="s">
+      <c s="57" r="A141" t="s">
         <v>164</v>
       </c>
       <c r="B141" t="n">
@@ -11482,7 +11492,7 @@
         <v>0.2213384421042924</v>
       </c>
       <c r="G141" t="n">
-        <v>91.06652284974366</v>
+        <v>91</v>
       </c>
       <c r="H141" t="n">
         <v>0.439657298009266</v>
@@ -11657,7 +11667,7 @@
         <v>0.0004153630935407008</v>
       </c>
       <c r="M149" t="n">
-        <v>96.82660421439785</v>
+        <v>97</v>
       </c>
       <c r="N149" t="n">
         <v>10.0003595213352</v>
@@ -11916,8 +11926,8 @@
       <c r="L162" t="n">
         <v>0</v>
       </c>
-      <c r="M162" t="n">
-        <v>inf</v>
+      <c r="M162" t="s">
+        <v>182</v>
       </c>
       <c r="N162" t="n">
         <v>0</v>
@@ -11936,8 +11946,8 @@
       <c r="L163" t="n">
         <v>0</v>
       </c>
-      <c r="M163" t="n">
-        <v>inf</v>
+      <c r="M163" t="s">
+        <v>182</v>
       </c>
       <c r="N163" t="n">
         <v>0</v>
@@ -11956,8 +11966,8 @@
       <c r="L164" t="n">
         <v>0</v>
       </c>
-      <c r="M164" t="n">
-        <v>inf</v>
+      <c r="M164" t="s">
+        <v>182</v>
       </c>
       <c r="N164" t="n">
         <v>0</v>
@@ -12008,7 +12018,7 @@
     </row>
     <row r="167" spans="1:28"/>
     <row r="168" spans="1:28">
-      <c s="55" r="A168" t="s">
+      <c s="57" r="A168" t="s">
         <v>164</v>
       </c>
       <c r="B168" t="n">
@@ -12027,7 +12037,7 @@
         <v>0.2203382418858722</v>
       </c>
       <c r="G168" t="n">
-        <v>88.61613530147852</v>
+        <v>89</v>
       </c>
       <c r="H168" t="n">
         <v>0.4378335262455142</v>
@@ -12182,7 +12192,7 @@
         <v>0.0004153630935407008</v>
       </c>
       <c r="M175" t="n">
-        <v>96.82660421439785</v>
+        <v>97</v>
       </c>
       <c r="N175" t="n">
         <v>10.00035413204706</v>
@@ -12481,8 +12491,8 @@
       <c r="L190" t="n">
         <v>0</v>
       </c>
-      <c r="M190" t="n">
-        <v>inf</v>
+      <c r="M190" t="s">
+        <v>182</v>
       </c>
       <c r="N190" t="n">
         <v>0</v>
@@ -12501,8 +12511,8 @@
       <c r="L191" t="n">
         <v>0</v>
       </c>
-      <c r="M191" t="n">
-        <v>inf</v>
+      <c r="M191" t="s">
+        <v>182</v>
       </c>
       <c r="N191" t="n">
         <v>0</v>
@@ -12521,8 +12531,8 @@
       <c r="L192" t="n">
         <v>0</v>
       </c>
-      <c r="M192" t="n">
-        <v>inf</v>
+      <c r="M192" t="s">
+        <v>182</v>
       </c>
       <c r="N192" t="n">
         <v>0</v>
@@ -12553,7 +12563,7 @@
     </row>
     <row r="194" spans="1:28"/>
     <row r="195" spans="1:28">
-      <c s="55" r="A195" t="s">
+      <c s="57" r="A195" t="s">
         <v>164</v>
       </c>
       <c r="B195" t="n">
@@ -12572,7 +12582,7 @@
         <v>0.2160255203682737</v>
       </c>
       <c r="G195" t="n">
-        <v>83.54655477872656</v>
+        <v>84</v>
       </c>
       <c r="H195" t="n">
         <v>0.4296245061487087</v>
@@ -12747,7 +12757,7 @@
         <v>0.0004153630935407008</v>
       </c>
       <c r="M203" t="n">
-        <v>96.82660421439785</v>
+        <v>97</v>
       </c>
       <c r="N203" t="n">
         <v>10.00035390954686</v>
@@ -13006,8 +13016,8 @@
       <c r="L216" t="n">
         <v>0</v>
       </c>
-      <c r="M216" t="n">
-        <v>inf</v>
+      <c r="M216" t="s">
+        <v>182</v>
       </c>
       <c r="N216" t="n">
         <v>0</v>
@@ -13026,8 +13036,8 @@
       <c r="L217" t="n">
         <v>0</v>
       </c>
-      <c r="M217" t="n">
-        <v>inf</v>
+      <c r="M217" t="s">
+        <v>182</v>
       </c>
       <c r="N217" t="n">
         <v>0</v>
@@ -13046,8 +13056,8 @@
       <c r="L218" t="n">
         <v>0</v>
       </c>
-      <c r="M218" t="n">
-        <v>inf</v>
+      <c r="M218" t="s">
+        <v>182</v>
       </c>
       <c r="N218" t="n">
         <v>0</v>
@@ -13098,7 +13108,7 @@
     </row>
     <row r="221" spans="1:28"/>
     <row r="222" spans="1:28">
-      <c s="55" r="A222" t="s">
+      <c s="57" r="A222" t="s">
         <v>164</v>
       </c>
       <c r="B222" t="n">
@@ -13117,7 +13127,7 @@
         <v>0.2215148821475751</v>
       </c>
       <c r="G222" t="n">
-        <v>90.67929838388923</v>
+        <v>91</v>
       </c>
       <c r="H222" t="n">
         <v>0.4400330672903515</v>
@@ -13292,7 +13302,7 @@
         <v>0.0004153630935407008</v>
       </c>
       <c r="M230" t="n">
-        <v>96.82660421439785</v>
+        <v>97</v>
       </c>
       <c r="N230" t="n">
         <v>10.00035184429442</v>
@@ -13551,8 +13561,8 @@
       <c r="L243" t="n">
         <v>0</v>
       </c>
-      <c r="M243" t="n">
-        <v>inf</v>
+      <c r="M243" t="s">
+        <v>182</v>
       </c>
       <c r="N243" t="n">
         <v>0</v>
@@ -13571,8 +13581,8 @@
       <c r="L244" t="n">
         <v>0</v>
       </c>
-      <c r="M244" t="n">
-        <v>inf</v>
+      <c r="M244" t="s">
+        <v>182</v>
       </c>
       <c r="N244" t="n">
         <v>0</v>
@@ -13591,8 +13601,8 @@
       <c r="L245" t="n">
         <v>0</v>
       </c>
-      <c r="M245" t="n">
-        <v>inf</v>
+      <c r="M245" t="s">
+        <v>182</v>
       </c>
       <c r="N245" t="n">
         <v>0</v>
@@ -13641,512 +13651,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:28"/>
-    <row r="249" spans="1:28"/>
-    <row r="250" spans="1:28"/>
-    <row r="251" spans="1:28"/>
-    <row r="252" spans="1:28"/>
-    <row r="253" spans="1:28"/>
-    <row r="254" spans="1:28"/>
-    <row r="255" spans="1:28"/>
-    <row r="256" spans="1:28"/>
-    <row r="257" spans="1:28"/>
-    <row r="258" spans="1:28"/>
-    <row r="259" spans="1:28"/>
-    <row r="260" spans="1:28"/>
-    <row r="261" spans="1:28"/>
-    <row r="262" spans="1:28"/>
-    <row r="263" spans="1:28"/>
-    <row r="264" spans="1:28"/>
-    <row r="265" spans="1:28"/>
-    <row r="266" spans="1:28"/>
-    <row r="267" spans="1:28"/>
-    <row r="268" spans="1:28"/>
-    <row r="269" spans="1:28"/>
-    <row r="270" spans="1:28"/>
-    <row r="271" spans="1:28"/>
-    <row r="272" spans="1:28"/>
-    <row r="273" spans="1:28"/>
-    <row r="274" spans="1:28"/>
-    <row r="275" spans="1:28"/>
-    <row r="276" spans="1:28"/>
-    <row r="277" spans="1:28"/>
-    <row r="278" spans="1:28"/>
-    <row r="279" spans="1:28"/>
-    <row r="280" spans="1:28"/>
-    <row r="281" spans="1:28"/>
-    <row r="282" spans="1:28"/>
-    <row r="283" spans="1:28"/>
-    <row r="284" spans="1:28"/>
-    <row r="285" spans="1:28"/>
-    <row r="286" spans="1:28"/>
-    <row r="287" spans="1:28"/>
-    <row r="288" spans="1:28"/>
-    <row r="289" spans="1:28"/>
-    <row r="290" spans="1:28"/>
-    <row r="291" spans="1:28"/>
-    <row r="292" spans="1:28"/>
-    <row r="293" spans="1:28"/>
-    <row r="294" spans="1:28"/>
-    <row r="295" spans="1:28"/>
-    <row r="296" spans="1:28"/>
-    <row r="297" spans="1:28"/>
-    <row r="298" spans="1:28"/>
-    <row r="299" spans="1:28"/>
-    <row r="300" spans="1:28"/>
-    <row r="301" spans="1:28"/>
-    <row r="302" spans="1:28"/>
-    <row r="303" spans="1:28"/>
-    <row r="304" spans="1:28"/>
-    <row r="305" spans="1:28"/>
-    <row r="306" spans="1:28"/>
-    <row r="307" spans="1:28"/>
-    <row r="308" spans="1:28"/>
-    <row r="309" spans="1:28"/>
-    <row r="310" spans="1:28"/>
-    <row r="311" spans="1:28"/>
-    <row r="312" spans="1:28"/>
-    <row r="313" spans="1:28"/>
-    <row r="314" spans="1:28"/>
-    <row r="315" spans="1:28"/>
-    <row r="316" spans="1:28"/>
-    <row r="317" spans="1:28"/>
-    <row r="318" spans="1:28"/>
-    <row r="319" spans="1:28"/>
-    <row r="320" spans="1:28"/>
-    <row r="321" spans="1:28"/>
-    <row r="322" spans="1:28"/>
-    <row r="323" spans="1:28"/>
-    <row r="324" spans="1:28"/>
-    <row r="325" spans="1:28"/>
-    <row r="326" spans="1:28"/>
-    <row r="327" spans="1:28"/>
-    <row r="328" spans="1:28"/>
-    <row r="329" spans="1:28"/>
-    <row r="330" spans="1:28"/>
-    <row r="331" spans="1:28"/>
-    <row r="332" spans="1:28"/>
-    <row r="333" spans="1:28"/>
-    <row r="334" spans="1:28"/>
-    <row r="335" spans="1:28"/>
-    <row r="336" spans="1:28"/>
-    <row r="337" spans="1:28"/>
-    <row r="338" spans="1:28"/>
-    <row r="339" spans="1:28"/>
-    <row r="340" spans="1:28"/>
-    <row r="341" spans="1:28"/>
-    <row r="342" spans="1:28"/>
-    <row r="343" spans="1:28"/>
-    <row r="344" spans="1:28"/>
-    <row r="345" spans="1:28"/>
-    <row r="346" spans="1:28"/>
-    <row r="347" spans="1:28"/>
-    <row r="348" spans="1:28"/>
-    <row r="349" spans="1:28"/>
-    <row r="350" spans="1:28"/>
-    <row r="351" spans="1:28"/>
-    <row r="352" spans="1:28"/>
-    <row r="353" spans="1:28"/>
-    <row r="354" spans="1:28"/>
-    <row r="355" spans="1:28"/>
-    <row r="356" spans="1:28"/>
-    <row r="357" spans="1:28"/>
-    <row r="358" spans="1:28"/>
-    <row r="359" spans="1:28"/>
-    <row r="360" spans="1:28"/>
-    <row r="361" spans="1:28"/>
-    <row r="362" spans="1:28"/>
-    <row r="363" spans="1:28"/>
-    <row r="364" spans="1:28"/>
-    <row r="365" spans="1:28"/>
-    <row r="366" spans="1:28"/>
-    <row r="367" spans="1:28"/>
-    <row r="368" spans="1:28"/>
-    <row r="369" spans="1:28"/>
-    <row r="370" spans="1:28"/>
-    <row r="371" spans="1:28"/>
-    <row r="372" spans="1:28"/>
-    <row r="373" spans="1:28"/>
-    <row r="374" spans="1:28"/>
-    <row r="375" spans="1:28"/>
-    <row r="376" spans="1:28"/>
-    <row r="377" spans="1:28"/>
-    <row r="378" spans="1:28"/>
-    <row r="379" spans="1:28"/>
-    <row r="380" spans="1:28"/>
-    <row r="381" spans="1:28"/>
-    <row r="382" spans="1:28"/>
-    <row r="383" spans="1:28"/>
-    <row r="384" spans="1:28"/>
-    <row r="385" spans="1:28"/>
-    <row r="386" spans="1:28"/>
-    <row r="387" spans="1:28"/>
-    <row r="388" spans="1:28"/>
-    <row r="389" spans="1:28"/>
-    <row r="390" spans="1:28"/>
-    <row r="391" spans="1:28"/>
-    <row r="392" spans="1:28"/>
-    <row r="393" spans="1:28"/>
-    <row r="394" spans="1:28"/>
-    <row r="395" spans="1:28"/>
-    <row r="396" spans="1:28"/>
-    <row r="397" spans="1:28"/>
-    <row r="398" spans="1:28"/>
-    <row r="399" spans="1:28"/>
-    <row r="400" spans="1:28"/>
-    <row r="401" spans="1:28"/>
-    <row r="402" spans="1:28"/>
-    <row r="403" spans="1:28"/>
-    <row r="404" spans="1:28"/>
-    <row r="405" spans="1:28"/>
-    <row r="406" spans="1:28"/>
-    <row r="407" spans="1:28"/>
-    <row r="408" spans="1:28"/>
-    <row r="409" spans="1:28"/>
-    <row r="410" spans="1:28"/>
-    <row r="411" spans="1:28"/>
-    <row r="412" spans="1:28"/>
-    <row r="413" spans="1:28"/>
-    <row r="414" spans="1:28"/>
-    <row r="415" spans="1:28"/>
-    <row r="416" spans="1:28"/>
-    <row r="417" spans="1:28"/>
-    <row r="418" spans="1:28"/>
-    <row r="419" spans="1:28"/>
-    <row r="420" spans="1:28"/>
-    <row r="421" spans="1:28"/>
-    <row r="422" spans="1:28"/>
-    <row r="423" spans="1:28"/>
-    <row r="424" spans="1:28"/>
-    <row r="425" spans="1:28"/>
-    <row r="426" spans="1:28"/>
-    <row r="427" spans="1:28"/>
-    <row r="428" spans="1:28"/>
-    <row r="429" spans="1:28"/>
-    <row r="430" spans="1:28"/>
-    <row r="431" spans="1:28"/>
-    <row r="432" spans="1:28"/>
-    <row r="433" spans="1:28"/>
-    <row r="434" spans="1:28"/>
-    <row r="435" spans="1:28"/>
-    <row r="436" spans="1:28"/>
-    <row r="437" spans="1:28"/>
-    <row r="438" spans="1:28"/>
-    <row r="439" spans="1:28"/>
-    <row r="440" spans="1:28"/>
-    <row r="441" spans="1:28"/>
-    <row r="442" spans="1:28"/>
-    <row r="443" spans="1:28"/>
-    <row r="444" spans="1:28"/>
-    <row r="445" spans="1:28"/>
-    <row r="446" spans="1:28"/>
-    <row r="447" spans="1:28"/>
-    <row r="448" spans="1:28"/>
-    <row r="449" spans="1:28"/>
-    <row r="450" spans="1:28"/>
-    <row r="451" spans="1:28"/>
-    <row r="452" spans="1:28"/>
-    <row r="453" spans="1:28"/>
-    <row r="454" spans="1:28"/>
-    <row r="455" spans="1:28"/>
-    <row r="456" spans="1:28"/>
-    <row r="457" spans="1:28"/>
-    <row r="458" spans="1:28"/>
-    <row r="459" spans="1:28"/>
-    <row r="460" spans="1:28"/>
-    <row r="461" spans="1:28"/>
-    <row r="462" spans="1:28"/>
-    <row r="463" spans="1:28"/>
-    <row r="464" spans="1:28"/>
-    <row r="465" spans="1:28"/>
-    <row r="466" spans="1:28"/>
-    <row r="467" spans="1:28"/>
-    <row r="468" spans="1:28"/>
-    <row r="469" spans="1:28"/>
-    <row r="470" spans="1:28"/>
-    <row r="471" spans="1:28"/>
-    <row r="472" spans="1:28"/>
-    <row r="473" spans="1:28"/>
-    <row r="474" spans="1:28"/>
-    <row r="475" spans="1:28"/>
-    <row r="476" spans="1:28"/>
-    <row r="477" spans="1:28"/>
-    <row r="478" spans="1:28"/>
-    <row r="479" spans="1:28"/>
-    <row r="480" spans="1:28"/>
-    <row r="481" spans="1:28"/>
-    <row r="482" spans="1:28"/>
-    <row r="483" spans="1:28"/>
-    <row r="484" spans="1:28"/>
-    <row r="485" spans="1:28"/>
-    <row r="486" spans="1:28"/>
-    <row r="487" spans="1:28"/>
-    <row r="488" spans="1:28"/>
-    <row r="489" spans="1:28"/>
-    <row r="490" spans="1:28"/>
-    <row r="491" spans="1:28"/>
-    <row r="492" spans="1:28"/>
-    <row r="493" spans="1:28"/>
-    <row r="494" spans="1:28"/>
-    <row r="495" spans="1:28"/>
-    <row r="496" spans="1:28"/>
-    <row r="497" spans="1:28"/>
-    <row r="498" spans="1:28"/>
-    <row r="499" spans="1:28"/>
-    <row r="500" spans="1:28"/>
-    <row r="501" spans="1:28"/>
-    <row r="502" spans="1:28"/>
-    <row r="503" spans="1:28"/>
-    <row r="504" spans="1:28"/>
-    <row r="505" spans="1:28"/>
-    <row r="506" spans="1:28"/>
-    <row r="507" spans="1:28"/>
-    <row r="508" spans="1:28"/>
-    <row r="509" spans="1:28"/>
-    <row r="510" spans="1:28"/>
-    <row r="511" spans="1:28"/>
-    <row r="512" spans="1:28"/>
-    <row r="513" spans="1:28"/>
-    <row r="514" spans="1:28"/>
-    <row r="515" spans="1:28"/>
-    <row r="516" spans="1:28"/>
-    <row r="517" spans="1:28"/>
-    <row r="518" spans="1:28"/>
-    <row r="519" spans="1:28"/>
-    <row r="520" spans="1:28"/>
-    <row r="521" spans="1:28"/>
-    <row r="522" spans="1:28"/>
-    <row r="523" spans="1:28"/>
-    <row r="524" spans="1:28"/>
-    <row r="525" spans="1:28"/>
-    <row r="526" spans="1:28"/>
-    <row r="527" spans="1:28"/>
-    <row r="528" spans="1:28"/>
-    <row r="529" spans="1:28"/>
-    <row r="530" spans="1:28"/>
-    <row r="531" spans="1:28"/>
-    <row r="532" spans="1:28"/>
-    <row r="533" spans="1:28"/>
-    <row r="534" spans="1:28"/>
-    <row r="535" spans="1:28"/>
-    <row r="536" spans="1:28"/>
-    <row r="537" spans="1:28"/>
-    <row r="538" spans="1:28"/>
-    <row r="539" spans="1:28"/>
-    <row r="540" spans="1:28"/>
-    <row r="541" spans="1:28"/>
-    <row r="542" spans="1:28"/>
-    <row r="543" spans="1:28"/>
-    <row r="544" spans="1:28"/>
-    <row r="545" spans="1:28"/>
-    <row r="546" spans="1:28"/>
-    <row r="547" spans="1:28"/>
-    <row r="548" spans="1:28"/>
-    <row r="549" spans="1:28"/>
-    <row r="550" spans="1:28"/>
-    <row r="551" spans="1:28"/>
-    <row r="552" spans="1:28"/>
-    <row r="553" spans="1:28"/>
-    <row r="554" spans="1:28"/>
-    <row r="555" spans="1:28"/>
-    <row r="556" spans="1:28"/>
-    <row r="557" spans="1:28"/>
-    <row r="558" spans="1:28"/>
-    <row r="559" spans="1:28"/>
-    <row r="560" spans="1:28"/>
-    <row r="561" spans="1:28"/>
-    <row r="562" spans="1:28"/>
-    <row r="563" spans="1:28"/>
-    <row r="564" spans="1:28"/>
-    <row r="565" spans="1:28"/>
-    <row r="566" spans="1:28"/>
-    <row r="567" spans="1:28"/>
-    <row r="568" spans="1:28"/>
-    <row r="569" spans="1:28"/>
-    <row r="570" spans="1:28"/>
-    <row r="571" spans="1:28"/>
-    <row r="572" spans="1:28"/>
-    <row r="573" spans="1:28"/>
-    <row r="574" spans="1:28"/>
-    <row r="575" spans="1:28"/>
-    <row r="576" spans="1:28"/>
-    <row r="577" spans="1:28"/>
-    <row r="578" spans="1:28"/>
-    <row r="579" spans="1:28"/>
-    <row r="580" spans="1:28"/>
-    <row r="581" spans="1:28"/>
-    <row r="582" spans="1:28"/>
-    <row r="583" spans="1:28"/>
-    <row r="584" spans="1:28"/>
-    <row r="585" spans="1:28"/>
-    <row r="586" spans="1:28"/>
-    <row r="587" spans="1:28"/>
-    <row r="588" spans="1:28"/>
-    <row r="589" spans="1:28"/>
-    <row r="590" spans="1:28"/>
-    <row r="591" spans="1:28"/>
-    <row r="592" spans="1:28"/>
-    <row r="593" spans="1:28"/>
-    <row r="594" spans="1:28"/>
-    <row r="595" spans="1:28"/>
-    <row r="596" spans="1:28"/>
-    <row r="597" spans="1:28"/>
-    <row r="598" spans="1:28"/>
-    <row r="599" spans="1:28"/>
-    <row r="600" spans="1:28"/>
-    <row r="601" spans="1:28"/>
-    <row r="602" spans="1:28"/>
-    <row r="603" spans="1:28"/>
-    <row r="604" spans="1:28"/>
-    <row r="605" spans="1:28"/>
-    <row r="606" spans="1:28"/>
-    <row r="607" spans="1:28"/>
-    <row r="608" spans="1:28"/>
-    <row r="609" spans="1:28"/>
-    <row r="610" spans="1:28"/>
-    <row r="611" spans="1:28"/>
-    <row r="612" spans="1:28"/>
-    <row r="613" spans="1:28"/>
-    <row r="614" spans="1:28"/>
-    <row r="615" spans="1:28"/>
-    <row r="616" spans="1:28"/>
-    <row r="617" spans="1:28"/>
-    <row r="618" spans="1:28"/>
-    <row r="619" spans="1:28"/>
-    <row r="620" spans="1:28"/>
-    <row r="621" spans="1:28"/>
-    <row r="622" spans="1:28"/>
-    <row r="623" spans="1:28"/>
-    <row r="624" spans="1:28"/>
-    <row r="625" spans="1:28"/>
-    <row r="626" spans="1:28"/>
-    <row r="627" spans="1:28"/>
-    <row r="628" spans="1:28"/>
-    <row r="629" spans="1:28"/>
-    <row r="630" spans="1:28"/>
-    <row r="631" spans="1:28"/>
-    <row r="632" spans="1:28"/>
-    <row r="633" spans="1:28"/>
-    <row r="634" spans="1:28"/>
-    <row r="635" spans="1:28"/>
-    <row r="636" spans="1:28"/>
-    <row r="637" spans="1:28"/>
-    <row r="638" spans="1:28"/>
-    <row r="639" spans="1:28"/>
-    <row r="640" spans="1:28"/>
-    <row r="641" spans="1:28"/>
-    <row r="642" spans="1:28"/>
-    <row r="643" spans="1:28"/>
-    <row r="644" spans="1:28"/>
-    <row r="645" spans="1:28"/>
-    <row r="646" spans="1:28"/>
-    <row r="647" spans="1:28"/>
-    <row r="648" spans="1:28"/>
-    <row r="649" spans="1:28"/>
-    <row r="650" spans="1:28"/>
-    <row r="651" spans="1:28"/>
-    <row r="652" spans="1:28"/>
-    <row r="653" spans="1:28"/>
-    <row r="654" spans="1:28"/>
-    <row r="655" spans="1:28"/>
-    <row r="656" spans="1:28"/>
-    <row r="657" spans="1:28"/>
-    <row r="658" spans="1:28"/>
-    <row r="659" spans="1:28"/>
-    <row r="660" spans="1:28"/>
-    <row r="661" spans="1:28"/>
-    <row r="662" spans="1:28"/>
-    <row r="663" spans="1:28"/>
-    <row r="664" spans="1:28"/>
-    <row r="665" spans="1:28"/>
-    <row r="666" spans="1:28"/>
-    <row r="667" spans="1:28"/>
-    <row r="668" spans="1:28"/>
-    <row r="669" spans="1:28"/>
-    <row r="670" spans="1:28"/>
-    <row r="671" spans="1:28"/>
-    <row r="672" spans="1:28"/>
-    <row r="673" spans="1:28"/>
-    <row r="674" spans="1:28"/>
-    <row r="675" spans="1:28"/>
-    <row r="676" spans="1:28"/>
-    <row r="677" spans="1:28"/>
-    <row r="678" spans="1:28"/>
-    <row r="679" spans="1:28"/>
-    <row r="680" spans="1:28"/>
-    <row r="681" spans="1:28"/>
-    <row r="682" spans="1:28"/>
-    <row r="683" spans="1:28"/>
-    <row r="684" spans="1:28"/>
-    <row r="685" spans="1:28"/>
-    <row r="686" spans="1:28"/>
-    <row r="687" spans="1:28"/>
-    <row r="688" spans="1:28"/>
-    <row r="689" spans="1:28"/>
-    <row r="690" spans="1:28"/>
-    <row r="691" spans="1:28"/>
-    <row r="692" spans="1:28"/>
-    <row r="693" spans="1:28"/>
-    <row r="694" spans="1:28"/>
-    <row r="695" spans="1:28"/>
-    <row r="696" spans="1:28"/>
-    <row r="697" spans="1:28"/>
-    <row r="698" spans="1:28"/>
-    <row r="699" spans="1:28"/>
-    <row r="700" spans="1:28"/>
-    <row r="701" spans="1:28"/>
-    <row r="702" spans="1:28"/>
-    <row r="703" spans="1:28"/>
-    <row r="704" spans="1:28"/>
-    <row r="705" spans="1:28"/>
-    <row r="706" spans="1:28"/>
-    <row r="707" spans="1:28"/>
-    <row r="708" spans="1:28"/>
-    <row r="709" spans="1:28"/>
-    <row r="710" spans="1:28"/>
-    <row r="711" spans="1:28"/>
-    <row r="712" spans="1:28"/>
-    <row r="713" spans="1:28"/>
-    <row r="714" spans="1:28"/>
-    <row r="715" spans="1:28"/>
-    <row r="716" spans="1:28"/>
-    <row r="717" spans="1:28"/>
-    <row r="718" spans="1:28"/>
-    <row r="719" spans="1:28"/>
-    <row r="720" spans="1:28"/>
-    <row r="721" spans="1:28"/>
-    <row r="722" spans="1:28"/>
-    <row r="723" spans="1:28"/>
-    <row r="724" spans="1:28"/>
-    <row r="725" spans="1:28"/>
-    <row r="726" spans="1:28"/>
-    <row r="727" spans="1:28"/>
-    <row r="728" spans="1:28"/>
-    <row r="729" spans="1:28"/>
-    <row r="730" spans="1:28"/>
-    <row r="731" spans="1:28"/>
-    <row r="732" spans="1:28"/>
-    <row r="733" spans="1:28"/>
-    <row r="734" spans="1:28"/>
-    <row r="735" spans="1:28"/>
-    <row r="736" spans="1:28"/>
-    <row r="737" spans="1:28"/>
-    <row r="738" spans="1:28"/>
-    <row r="739" spans="1:28"/>
-    <row r="740" spans="1:28"/>
-    <row r="741" spans="1:28"/>
-    <row r="742" spans="1:28"/>
-    <row r="743" spans="1:28"/>
-    <row r="744" spans="1:28"/>
-    <row r="745" spans="1:28"/>
-    <row r="746" spans="1:28"/>
-    <row r="747" spans="1:28"/>
-    <row r="748" spans="1:28"/>
-    <row r="749" spans="1:28"/>
-    <row r="750" spans="1:28"/>
-    <row r="751" spans="1:28"/>
-    <row r="752" spans="1:28"/>
-    <row r="753" spans="1:28"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27120" windowHeight="13125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27120" windowHeight="13125" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Comments" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="502">
   <si>
     <t>start_row</t>
   </si>
@@ -913,42 +913,9 @@
     <t>3458A_066_100k_cor</t>
   </si>
   <si>
-    <t>3458A_066_VRCeq</t>
-  </si>
-  <si>
-    <t>VRC_n10to1</t>
-  </si>
-  <si>
-    <t>3458A_066_VRC_n10to1</t>
-  </si>
-  <si>
-    <t>VRC_calcs.xlsx</t>
-  </si>
-  <si>
-    <t>VRC_10ton1</t>
-  </si>
-  <si>
-    <t>3458A_066_VRC10ton1</t>
-  </si>
-  <si>
-    <t>VRC_n100to10</t>
-  </si>
-  <si>
-    <t>3458A_066_VRCn100to10</t>
-  </si>
-  <si>
-    <t>VRC_100ton10</t>
-  </si>
-  <si>
-    <t>3458A_066_VRC100ton10</t>
-  </si>
-  <si>
     <t>3458A_066_Vlin_gain</t>
   </si>
   <si>
-    <t>(link to  RefStep data?)</t>
-  </si>
-  <si>
     <t>3458A_066_Vlin_Vd</t>
   </si>
   <si>
@@ -973,21 +940,6 @@
     <t>3458A_129_100k_cor</t>
   </si>
   <si>
-    <t>3458A_129_VRCeq</t>
-  </si>
-  <si>
-    <t>3458A_129_VRC_n10to1</t>
-  </si>
-  <si>
-    <t>3458A_129_VRC10ton1</t>
-  </si>
-  <si>
-    <t>3458A_129_VRCn100to10</t>
-  </si>
-  <si>
-    <t>3458A_129_VRC100ton10</t>
-  </si>
-  <si>
     <t>3458A_129_Vlin_gain</t>
   </si>
   <si>
@@ -1009,21 +961,6 @@
     <t>3458A_230_100k_cor</t>
   </si>
   <si>
-    <t>3458A_230_VRCeq</t>
-  </si>
-  <si>
-    <t>3458A_230_VRC_n10to1</t>
-  </si>
-  <si>
-    <t>3458A_230_VRC10ton1</t>
-  </si>
-  <si>
-    <t>3458A_230_VRCn100to10</t>
-  </si>
-  <si>
-    <t>3458A_230_VRC100ton10</t>
-  </si>
-  <si>
     <t>3458A_230_Vlin_gain</t>
   </si>
   <si>
@@ -1042,21 +979,6 @@
     <t>3458A_452_100k_cor</t>
   </si>
   <si>
-    <t>3458A_452_VRCeq</t>
-  </si>
-  <si>
-    <t>3458A_452_VRC_n10to1</t>
-  </si>
-  <si>
-    <t>3458A_452_VRC10ton1</t>
-  </si>
-  <si>
-    <t>3458A_452_VRCn100to10</t>
-  </si>
-  <si>
-    <t>3458A_452_VRC100ton10</t>
-  </si>
-  <si>
     <t>3458A_452_Vlin_gain</t>
   </si>
   <si>
@@ -1075,19 +997,7 @@
     <t>3458A_518_100k_cor</t>
   </si>
   <si>
-    <t>3458A_518_VRCeq</t>
-  </si>
-  <si>
-    <t>3458A_518_VRC_n10to1</t>
-  </si>
-  <si>
     <t>3458A_518_VRC10ton1</t>
-  </si>
-  <si>
-    <t>3458A_518_VRCn100to10</t>
-  </si>
-  <si>
-    <t>3458A_518_VRC100ton10</t>
   </si>
   <si>
     <t>3458A_518_Vlin_gain</t>
@@ -1646,18 +1556,194 @@
       <t xml:space="preserve"> Two rows above 1st row of actual data.</t>
     </r>
   </si>
+  <si>
+    <t>Vgain_01</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_01</t>
+  </si>
+  <si>
+    <t>Vgain_calcs.xlsx, S21939</t>
+  </si>
+  <si>
+    <t>Vgain_05</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_05</t>
+  </si>
+  <si>
+    <t>Vgain_1</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_1</t>
+  </si>
+  <si>
+    <t>Vgain_5</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_5</t>
+  </si>
+  <si>
+    <t>Vgain_10</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_10</t>
+  </si>
+  <si>
+    <t>Vgain_50</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_50</t>
+  </si>
+  <si>
+    <t>Vgain_100</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_100</t>
+  </si>
+  <si>
+    <t>linearity_pert</t>
+  </si>
+  <si>
+    <t>S21939</t>
+  </si>
+  <si>
+    <t>linearity_Vdav</t>
+  </si>
+  <si>
+    <t>3458A_129_100r_cor</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_01</t>
+  </si>
+  <si>
+    <t>Vgain_calcs.xlsx, S21930</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_05</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_1</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_5</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_10</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_50</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_100</t>
+  </si>
+  <si>
+    <t>S21930</t>
+  </si>
+  <si>
+    <t>3458A_230_100r_cor</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_01</t>
+  </si>
+  <si>
+    <t>Vgain_calcs.xlsx, S21928</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_05</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_1</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_5</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_10</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_50</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_100</t>
+  </si>
+  <si>
+    <t>S21928</t>
+  </si>
+  <si>
+    <t>3458A_452_100r_cor</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_01</t>
+  </si>
+  <si>
+    <t>Vgain_calcs.xlsx, S21927</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_05</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_1</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_5</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_10</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_50</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_100</t>
+  </si>
+  <si>
+    <t>S21927</t>
+  </si>
+  <si>
+    <t>3458A_518_100r_cor</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_01</t>
+  </si>
+  <si>
+    <t>Vgain_calcs.xlsx, S21926</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_05</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_1</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_5</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_10</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_50</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S21926</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="d/mm/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="171" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1785,13 +1871,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1800,6 +1879,12 @@
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5B9BD5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1992,7 +2077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2038,8 +2123,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2048,15 +2131,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -2070,8 +2147,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2412,7 +2501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -2424,322 +2513,322 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
-        <v>431</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
+      <c r="A4" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="C6" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="B7" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="C7" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="C8" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" t="s">
         <v>435</v>
-      </c>
-      <c r="B9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C9" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="D10" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="D11" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="B12" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="D12" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="B14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" t="s">
         <v>436</v>
-      </c>
-      <c r="C14" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="B15" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="C15" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="B16" t="s">
-        <v>444</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>467</v>
+        <v>414</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B18" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="C18" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B19" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="C19" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B20" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="C20" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B21" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="D21" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B22" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="D22" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B23" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="C23" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B24" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="C24" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B25" t="s">
-        <v>453</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>472</v>
+        <v>423</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B26" t="s">
-        <v>454</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>472</v>
+        <v>424</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B27" t="s">
-        <v>455</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>472</v>
+        <v>425</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B28" t="s">
-        <v>456</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>472</v>
+        <v>426</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B29" t="s">
-        <v>457</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>472</v>
+        <v>427</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B30" t="s">
-        <v>458</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>472</v>
+        <v>428</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B31" t="s">
-        <v>459</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>472</v>
+        <v>429</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B32" t="s">
-        <v>460</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>472</v>
+        <v>430</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B33" t="s">
-        <v>461</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>472</v>
+        <v>431</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="B35" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="C35" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -2760,35 +2849,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="47" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="47" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="47" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="47" customWidth="1"/>
-    <col min="10" max="12" width="2.140625" style="47" customWidth="1"/>
-    <col min="13" max="13" width="25" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="47" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="47" customWidth="1"/>
-    <col min="16" max="16" width="25" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" style="47" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="47" customWidth="1"/>
-    <col min="23" max="27" width="9.140625" style="47" customWidth="1"/>
-    <col min="28" max="28" width="10" style="47" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" style="47" customWidth="1"/>
-    <col min="31" max="31" width="15" style="47" customWidth="1"/>
-    <col min="32" max="32" width="12.140625" style="47" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" style="47" customWidth="1"/>
-    <col min="35" max="35" width="26.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="45" customWidth="1"/>
+    <col min="10" max="12" width="2.140625" style="45" customWidth="1"/>
+    <col min="13" max="13" width="25" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="45" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="45" customWidth="1"/>
+    <col min="16" max="16" width="25" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="45" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="45" customWidth="1"/>
+    <col min="23" max="27" width="9.140625" style="45" customWidth="1"/>
+    <col min="28" max="28" width="10" style="45" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" style="45" customWidth="1"/>
+    <col min="31" max="31" width="15" style="45" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" style="45" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" style="45" customWidth="1"/>
+    <col min="35" max="35" width="26.5703125" style="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15">
@@ -2796,13 +2885,13 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15">
         <v>40</v>
       </c>
-      <c r="G2" s="46"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2823,21 +2912,21 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="M3" s="55" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="M3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55" t="s">
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
       <c r="S3" t="s">
         <v>11</v>
       </c>
@@ -2850,11 +2939,11 @@
       <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="55" t="s">
+      <c r="W3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
       <c r="Z3" t="s">
         <v>16</v>
       </c>
@@ -2866,13 +2955,13 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="59" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="44" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
@@ -2905,13 +2994,13 @@
       <c r="V4">
         <v>20.92</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="46" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3004,7 +3093,7 @@
       <c r="F6" s="7">
         <v>90</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="44" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="10">
@@ -3073,7 +3162,7 @@
       <c r="F7" s="7">
         <v>90</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="44" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="10">
@@ -3142,7 +3231,7 @@
       <c r="F8" s="7">
         <v>90</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="44" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="10">
@@ -3211,7 +3300,7 @@
       <c r="F9" s="7">
         <v>90</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="44" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="10">
@@ -3280,7 +3369,7 @@
       <c r="F10" s="7">
         <v>90</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="44" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="10">
@@ -3349,7 +3438,7 @@
       <c r="F11" s="7">
         <v>90</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="44" t="s">
         <v>58</v>
       </c>
       <c r="H11" s="10">
@@ -3418,7 +3507,7 @@
       <c r="F12" s="7">
         <v>90</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="44" t="s">
         <v>63</v>
       </c>
       <c r="H12" s="10">
@@ -3487,7 +3576,7 @@
       <c r="F13" s="7">
         <v>90</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="44" t="s">
         <v>67</v>
       </c>
       <c r="H13" s="10">
@@ -3556,7 +3645,7 @@
       <c r="F14" s="7">
         <v>90</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="44" t="s">
         <v>72</v>
       </c>
       <c r="H14" s="10">
@@ -3626,7 +3715,7 @@
       <c r="F15" s="7">
         <v>90</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="44" t="s">
         <v>77</v>
       </c>
       <c r="H15" s="10">
@@ -3688,7 +3777,7 @@
       <c r="F16" s="7">
         <v>90</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="44" t="s">
         <v>80</v>
       </c>
       <c r="H16" s="10">
@@ -3812,7 +3901,7 @@
       <c r="F18" s="7">
         <v>90</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="44" t="s">
         <v>86</v>
       </c>
       <c r="H18" s="10">
@@ -3936,7 +4025,7 @@
       <c r="F20" s="7">
         <v>90</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="44" t="s">
         <v>92</v>
       </c>
       <c r="H20" s="10">
@@ -4060,7 +4149,7 @@
       <c r="F22" s="7">
         <v>90</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="44" t="s">
         <v>98</v>
       </c>
       <c r="H22" s="10">
@@ -4184,7 +4273,7 @@
       <c r="F24" s="7">
         <v>90</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="44" t="s">
         <v>104</v>
       </c>
       <c r="H24" s="10">
@@ -5243,31 +5332,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="47" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="0" style="47" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="0" style="47" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="0" style="45" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>155</v>
       </c>
       <c r="B1" s="3">
         <v>28</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="57" t="s">
         <v>156</v>
       </c>
       <c r="D1" s="4">
@@ -5281,7 +5370,7 @@
       <c r="B2" s="3">
         <v>10</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="57" t="s">
         <v>158</v>
       </c>
       <c r="D2" s="4">
@@ -5901,34 +5990,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U155"/>
+  <dimension ref="A1:U166"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="540" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="540" topLeftCell="A103" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="I64" sqref="I64:O166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="47" customWidth="1"/>
-    <col min="6" max="6" width="71.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="47" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="47" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="47" customWidth="1"/>
-    <col min="14" max="14" width="27.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="74" style="47" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="0" style="47" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="87" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="71.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="45" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="45" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="74" style="45" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="87" style="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5958,7 +6047,7 @@
       <c r="E2" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="52" t="s">
         <v>177</v>
       </c>
       <c r="G2" s="26" t="s">
@@ -6066,7 +6155,7 @@
       <c r="A5" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="52" t="s">
         <v>194</v>
       </c>
       <c r="C5" s="42">
@@ -6162,7 +6251,7 @@
       <c r="A8" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="52" t="s">
         <v>208</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -6368,7 +6457,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="60" t="s">
         <v>212</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -6401,7 +6490,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="52" t="s">
         <v>166</v>
       </c>
       <c r="B15" t="s">
@@ -6749,7 +6838,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="60" t="s">
         <v>166</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -6773,7 +6862,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="52" t="s">
         <v>164</v>
       </c>
       <c r="B26" t="s">
@@ -7075,7 +7164,7 @@
       <c r="B35" t="s">
         <v>204</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="47">
         <v>42797.571519740217</v>
       </c>
       <c r="G35" t="s">
@@ -7096,19 +7185,19 @@
       <c r="O35" s="26"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50" t="s">
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48" t="s">
         <v>261</v>
       </c>
       <c r="I36" t="s">
@@ -7529,16 +7618,16 @@
       <c r="M64" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N64" s="51" t="s">
         <v>293</v>
       </c>
       <c r="O64" s="12"/>
     </row>
     <row r="65" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I65" t="s">
+      <c r="I65" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="51" t="s">
         <v>275</v>
       </c>
       <c r="K65" s="29">
@@ -7550,15 +7639,16 @@
       <c r="M65" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N65" s="51" t="s">
         <v>294</v>
       </c>
+      <c r="O65" s="51"/>
     </row>
     <row r="66" spans="9:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I66" t="s">
+      <c r="I66" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="51" t="s">
         <v>276</v>
       </c>
       <c r="K66" s="29">
@@ -7570,1544 +7660,1959 @@
       <c r="M66" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N66" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="O66" s="51"/>
+    </row>
+    <row r="67" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I67" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J67" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="K67" s="30">
+        <v>0</v>
+      </c>
+      <c r="L67" s="30">
+        <v>0</v>
+      </c>
+      <c r="M67" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N67" s="51" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="67" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I67" t="s">
+      <c r="O67" s="51"/>
+    </row>
+    <row r="68" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I68" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="J67" t="s">
-        <v>277</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="J68" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="K68" s="65">
+        <v>1.000001000001</v>
+      </c>
+      <c r="L68" s="66">
+        <v>1.4142163908044624E-6</v>
+      </c>
+      <c r="M68" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N68" s="51" t="s">
+        <v>445</v>
+      </c>
+      <c r="O68" s="51" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="69" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I69" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J69" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="K69" s="65">
+        <v>1.0000013000016901</v>
+      </c>
+      <c r="L69" s="66">
+        <v>9.1924120556809292E-7</v>
+      </c>
+      <c r="M69" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N69" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="O69" s="51" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I70" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J70" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="K70" s="65">
+        <v>1.00000120000144</v>
+      </c>
+      <c r="L70" s="66">
+        <v>7.0710847824587696E-7</v>
+      </c>
+      <c r="M70" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N70" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="O70" s="51" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="71" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I71" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J71" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="K71" s="65">
+        <v>1.00000120000144</v>
+      </c>
+      <c r="L71" s="66">
+        <v>3.5355423912293853E-7</v>
+      </c>
+      <c r="M71" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N71" s="51" t="s">
+        <v>452</v>
+      </c>
+      <c r="O71" s="51" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="72" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I72" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J72" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="K72" s="65">
+        <v>1.0000011500013224</v>
+      </c>
+      <c r="L72" s="66">
+        <v>2.4748794263723231E-7</v>
+      </c>
+      <c r="M72" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N72" s="51" t="s">
+        <v>454</v>
+      </c>
+      <c r="O72" s="51" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="73" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I73" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J73" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="K73" s="65">
+        <v>1.000001000001</v>
+      </c>
+      <c r="L73" s="66">
+        <v>8.4852983448267751E-7</v>
+      </c>
+      <c r="M73" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N73" s="51" t="s">
+        <v>456</v>
+      </c>
+      <c r="O73" s="51" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I74" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J74" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="K74" s="65">
+        <v>1.00000070000049</v>
+      </c>
+      <c r="L74" s="66">
+        <v>7.0710777113708063E-7</v>
+      </c>
+      <c r="M74" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N74" s="51" t="s">
+        <v>458</v>
+      </c>
+      <c r="O74" s="51" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="75" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I75" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J75" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="K75" s="68">
+        <v>0</v>
+      </c>
+      <c r="L75" s="69">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="M75" s="67">
+        <v>18</v>
+      </c>
+      <c r="N75" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="O75" s="51" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="76" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I76" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J76" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="K76" s="68">
+        <v>0</v>
+      </c>
+      <c r="L76" s="69">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="M76" s="67">
+        <v>18</v>
+      </c>
+      <c r="N76" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="O76" s="51" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="77" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I77" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J77" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="K77" s="30">
+        <v>0</v>
+      </c>
+      <c r="L77" s="51"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="51"/>
+    </row>
+    <row r="78" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I78" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J78" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="K78" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+    </row>
+    <row r="79" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I79" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J79" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="K79" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="L79" s="51"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="51"/>
+      <c r="O79" s="51"/>
+    </row>
+    <row r="80" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I80" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="J80" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="K80" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="51"/>
+    </row>
+    <row r="81" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I81" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="J81" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="K81" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="L81" s="48"/>
+      <c r="M81" s="48"/>
+      <c r="N81" s="48"/>
+      <c r="O81" s="48"/>
+    </row>
+    <row r="82" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I82" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J82" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="K82" s="30">
+        <v>0</v>
+      </c>
+      <c r="L82" s="30">
+        <v>0</v>
+      </c>
+      <c r="M82" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="N67" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="68" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I68" t="s">
-        <v>292</v>
-      </c>
-      <c r="J68" t="s">
-        <v>297</v>
-      </c>
-      <c r="K68" s="42">
-        <v>4.9999999999999998E-7</v>
-      </c>
-      <c r="L68" s="42">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="M68">
-        <v>151</v>
-      </c>
-      <c r="N68" t="s">
-        <v>298</v>
-      </c>
-      <c r="O68" t="s">
+      <c r="N82" s="51" t="s">
+        <v>462</v>
+      </c>
+      <c r="O82" s="51"/>
+    </row>
+    <row r="83" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I83" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J83" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="K83" s="29">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L83" s="29">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M83" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N83" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="O83" s="51"/>
+      <c r="P83" s="43"/>
+    </row>
+    <row r="84" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I84" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J84" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="K84" s="29">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L84" s="29">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M84" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N84" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="O84" s="51"/>
+    </row>
+    <row r="85" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I85" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J85" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="K85" s="65">
+        <v>1</v>
+      </c>
+      <c r="L85" s="66">
+        <v>1.4142135623730949E-6</v>
+      </c>
+      <c r="M85" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N85" s="51" t="s">
+        <v>463</v>
+      </c>
+      <c r="O85" s="51" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="86" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I86" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J86" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="K86" s="65">
+        <v>1.0000001000000101</v>
+      </c>
+      <c r="L86" s="66">
+        <v>9.1923899939030255E-7</v>
+      </c>
+      <c r="M86" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N86" s="51" t="s">
+        <v>465</v>
+      </c>
+      <c r="O86" s="51" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="87" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I87" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J87" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="K87" s="65">
+        <v>1</v>
+      </c>
+      <c r="L87" s="66">
+        <v>7.0710678118654747E-7</v>
+      </c>
+      <c r="M87" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N87" s="51" t="s">
+        <v>466</v>
+      </c>
+      <c r="O87" s="51" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="88" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I88" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J88" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="K88" s="65">
+        <v>1.0000002000000401</v>
+      </c>
+      <c r="L88" s="66">
+        <v>3.535535320146725E-7</v>
+      </c>
+      <c r="M88" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N88" s="51" t="s">
+        <v>467</v>
+      </c>
+      <c r="O88" s="51" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="89" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I89" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J89" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="K89" s="65">
+        <v>1.0000002000000401</v>
+      </c>
+      <c r="L89" s="66">
+        <v>2.4748747241027072E-7</v>
+      </c>
+      <c r="M89" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N89" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="O89" s="51" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="90" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I90" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J90" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="K90" s="65">
+        <v>0.99999970000008986</v>
+      </c>
+      <c r="L90" s="66">
+        <v>8.4852762830720346E-7</v>
+      </c>
+      <c r="M90" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N90" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="O90" s="51" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="91" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I91" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J91" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="K91" s="65">
+        <v>0.99999960000015997</v>
+      </c>
+      <c r="L91" s="66">
+        <v>7.07106215501462E-7</v>
+      </c>
+      <c r="M91" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N91" s="51" t="s">
+        <v>470</v>
+      </c>
+      <c r="O91" s="51" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="92" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I92" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J92" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="K92" s="68">
+        <v>0</v>
+      </c>
+      <c r="L92" s="69">
+        <v>2E-8</v>
+      </c>
+      <c r="M92" s="67">
+        <v>18</v>
+      </c>
+      <c r="N92" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="O92" s="51" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="93" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I93" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J93" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="K93" s="68">
+        <v>0</v>
+      </c>
+      <c r="L93" s="69">
+        <v>2E-8</v>
+      </c>
+      <c r="M93" s="67">
+        <v>18</v>
+      </c>
+      <c r="N93" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="O93" s="51" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="94" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I94" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J94" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="K94" s="30">
+        <v>25</v>
+      </c>
+      <c r="L94" s="51"/>
+      <c r="M94" s="51"/>
+      <c r="N94" s="51"/>
+      <c r="O94" s="51"/>
+    </row>
+    <row r="95" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I95" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J95" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="K95" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="L95" s="51"/>
+      <c r="M95" s="51"/>
+      <c r="N95" s="51"/>
+      <c r="O95" s="51"/>
+    </row>
+    <row r="96" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I96" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J96" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="K96" s="51" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="69" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I69" t="s">
-        <v>292</v>
-      </c>
-      <c r="J69" t="s">
-        <v>300</v>
-      </c>
-      <c r="K69" s="43">
-        <v>-1.3E-6</v>
-      </c>
-      <c r="L69" s="43">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="M69" s="44">
-        <v>151</v>
-      </c>
-      <c r="N69" t="s">
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="51"/>
+      <c r="O96" s="51"/>
+    </row>
+    <row r="97" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I97" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J97" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="K97" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="L97" s="51"/>
+      <c r="M97" s="51"/>
+      <c r="N97" s="51"/>
+      <c r="O97" s="51"/>
+    </row>
+    <row r="98" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I98" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="J98" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="K98" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="O69" t="s">
+      <c r="L98" s="48"/>
+      <c r="M98" s="48"/>
+      <c r="N98" s="48"/>
+      <c r="O98" s="48"/>
+    </row>
+    <row r="99" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I99" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J99" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="K99" s="30">
+        <v>0</v>
+      </c>
+      <c r="L99" s="30">
+        <v>0</v>
+      </c>
+      <c r="M99" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N99" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="O99" s="51"/>
+    </row>
+    <row r="100" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I100" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J100" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="K100" s="29">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L100" s="29">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M100" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N100" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="O100" s="51"/>
+    </row>
+    <row r="101" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I101" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J101" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="K101" s="29">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L101" s="29">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M101" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N101" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="O101" s="51"/>
+    </row>
+    <row r="102" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I102" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J102" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="K102" s="65">
+        <v>1.00000250000625</v>
+      </c>
+      <c r="L102" s="66">
+        <v>1.4142206334674234E-6</v>
+      </c>
+      <c r="M102" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N102" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="O102" s="51" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="103" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I103" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J103" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="K103" s="65">
+        <v>1.0000031000096101</v>
+      </c>
+      <c r="L103" s="66">
+        <v>9.1924451484967022E-7</v>
+      </c>
+      <c r="M103" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N103" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="O103" s="51" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="104" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I104" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J104" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="K104" s="65">
+        <v>1.0000030500093025</v>
+      </c>
+      <c r="L104" s="66">
+        <v>7.0711109455764635E-7</v>
+      </c>
+      <c r="M104" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N104" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="O104" s="51" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="105" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I105" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J105" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="K105" s="65">
+        <v>1.0000034000115601</v>
+      </c>
+      <c r="L105" s="66">
+        <v>3.5355579476859107E-7</v>
+      </c>
+      <c r="M105" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N105" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="O105" s="51" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="106" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I106" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J106" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="K106" s="65">
+        <v>1.0000033000108901</v>
+      </c>
+      <c r="L106" s="66">
+        <v>2.4748900684004164E-7</v>
+      </c>
+      <c r="M106" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N106" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="O106" s="51" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="107" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I107" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J107" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="K107" s="65">
+        <v>1.0000029000084101</v>
+      </c>
+      <c r="L107" s="66">
+        <v>8.4853305890846271E-7</v>
+      </c>
+      <c r="M107" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N107" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="O107" s="51" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="108" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I108" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J108" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="K108" s="65">
+        <v>1.0000027500075626</v>
+      </c>
+      <c r="L108" s="66">
+        <v>7.0711067028988679E-7</v>
+      </c>
+      <c r="M108" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N108" s="51" t="s">
+        <v>480</v>
+      </c>
+      <c r="O108" s="51" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="109" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I109" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J109" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="K109" s="68">
+        <v>0</v>
+      </c>
+      <c r="L109" s="69">
+        <v>2E-8</v>
+      </c>
+      <c r="M109" s="67">
+        <v>18</v>
+      </c>
+      <c r="N109" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="O109" s="51" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="110" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I110" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J110" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="K110" s="68">
+        <v>0</v>
+      </c>
+      <c r="L110" s="69">
+        <v>2E-8</v>
+      </c>
+      <c r="M110" s="67">
+        <v>18</v>
+      </c>
+      <c r="N110" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="O110" s="51" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="111" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I111" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J111" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="K111" s="30">
+        <v>22</v>
+      </c>
+      <c r="L111" s="51"/>
+      <c r="M111" s="51"/>
+      <c r="N111" s="51"/>
+      <c r="O111" s="51"/>
+    </row>
+    <row r="112" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I112" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J112" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="K112" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="51"/>
+      <c r="O112" s="51"/>
+    </row>
+    <row r="113" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I113" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J113" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="K113" s="51" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="70" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I70" t="s">
-        <v>292</v>
-      </c>
-      <c r="J70" t="s">
-        <v>302</v>
-      </c>
-      <c r="K70" s="43">
-        <v>-2.8000000000000002E-7</v>
-      </c>
-      <c r="L70" s="43">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="M70" s="44">
-        <v>150</v>
-      </c>
-      <c r="N70" t="s">
-        <v>303</v>
-      </c>
-      <c r="O70" t="s">
+      <c r="L113" s="51"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="51"/>
+      <c r="O113" s="51"/>
+    </row>
+    <row r="114" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I114" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J114" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="K114" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="L114" s="51"/>
+      <c r="M114" s="51"/>
+      <c r="N114" s="51"/>
+      <c r="O114" s="51"/>
+    </row>
+    <row r="115" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I115" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="J115" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="K115" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="L115" s="48"/>
+      <c r="M115" s="48"/>
+      <c r="N115" s="48"/>
+      <c r="O115" s="48"/>
+    </row>
+    <row r="116" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I116" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J116" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="K116" s="30">
+        <v>0</v>
+      </c>
+      <c r="L116" s="30">
+        <v>0</v>
+      </c>
+      <c r="M116" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N116" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="O116" s="51"/>
+    </row>
+    <row r="117" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I117" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J117" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="K117" s="29">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L117" s="29">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M117" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N117" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="O117" s="51"/>
+    </row>
+    <row r="118" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I118" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J118" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="K118" s="29">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L118" s="29">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M118" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N118" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="O118" s="51"/>
+    </row>
+    <row r="119" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I119" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J119" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="K119" s="70">
+        <v>1</v>
+      </c>
+      <c r="L119" s="66">
+        <v>1.4142135623730949E-6</v>
+      </c>
+      <c r="M119" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N119" s="51" t="s">
+        <v>483</v>
+      </c>
+      <c r="O119" s="51" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="120" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I120" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J120" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="K120" s="65">
+        <v>1.00000150000225</v>
+      </c>
+      <c r="L120" s="66">
+        <v>9.1924157326516319E-7</v>
+      </c>
+      <c r="M120" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N120" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="O120" s="51" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="121" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I121" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J121" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="K121" s="65">
+        <v>1.00000160000256</v>
+      </c>
+      <c r="L121" s="66">
+        <v>7.0710904393367791E-7</v>
+      </c>
+      <c r="M121" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N121" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="O121" s="51" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="122" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I122" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J122" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="K122" s="65">
+        <v>1.00000170000289</v>
+      </c>
+      <c r="L122" s="66">
+        <v>3.5355459267786709E-7</v>
+      </c>
+      <c r="M122" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N122" s="51" t="s">
+        <v>487</v>
+      </c>
+      <c r="O122" s="51" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="123" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I123" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J123" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="K123" s="65">
+        <v>1.0000018500034225</v>
+      </c>
+      <c r="L123" s="66">
+        <v>2.4748828912111432E-7</v>
+      </c>
+      <c r="M123" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N123" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="O123" s="51" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="124" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I124" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J124" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="K124" s="65">
+        <v>1.00000180000324</v>
+      </c>
+      <c r="L124" s="66">
+        <v>8.4853119213339951E-7</v>
+      </c>
+      <c r="M124" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N124" s="51" t="s">
+        <v>489</v>
+      </c>
+      <c r="O124" s="51" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="125" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I125" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J125" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="K125" s="65">
+        <v>1.0000017500030625</v>
+      </c>
+      <c r="L125" s="66">
+        <v>7.0710925606677826E-7</v>
+      </c>
+      <c r="M125" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N125" s="51" t="s">
+        <v>490</v>
+      </c>
+      <c r="O125" s="51" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="126" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I126" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J126" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="K126" s="68">
+        <v>0</v>
+      </c>
+      <c r="L126" s="69">
+        <v>1.9000000000000001E-8</v>
+      </c>
+      <c r="M126" s="67">
+        <v>18</v>
+      </c>
+      <c r="N126" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="O126" s="51" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="127" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I127" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J127" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="K127" s="68">
+        <v>0</v>
+      </c>
+      <c r="L127" s="69">
+        <v>1.9000000000000001E-8</v>
+      </c>
+      <c r="M127" s="67">
+        <v>18</v>
+      </c>
+      <c r="N127" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="O127" s="51" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="128" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I128" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J128" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="K128" s="51">
+        <v>23</v>
+      </c>
+      <c r="L128" s="51"/>
+      <c r="M128" s="51"/>
+      <c r="N128" s="51"/>
+      <c r="O128" s="51"/>
+    </row>
+    <row r="129" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I129" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J129" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="K129" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="L129" s="51"/>
+      <c r="M129" s="51"/>
+      <c r="N129" s="51"/>
+      <c r="O129" s="51"/>
+    </row>
+    <row r="130" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I130" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J130" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="K130" s="51" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="71" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I71" t="s">
-        <v>292</v>
-      </c>
-      <c r="J71" t="s">
-        <v>304</v>
-      </c>
-      <c r="K71" s="43">
-        <v>-4.2E-7</v>
-      </c>
-      <c r="L71" s="43">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="M71" s="44">
-        <v>150</v>
-      </c>
-      <c r="N71" t="s">
-        <v>305</v>
-      </c>
-      <c r="O71" t="s">
+      <c r="L130" s="51"/>
+      <c r="M130" s="51"/>
+      <c r="N130" s="51"/>
+      <c r="O130" s="51"/>
+    </row>
+    <row r="131" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I131" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="J131" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="K131" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="L131" s="51"/>
+      <c r="M131" s="51"/>
+      <c r="N131" s="51"/>
+      <c r="O131" s="51"/>
+    </row>
+    <row r="132" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I132" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="J132" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="K132" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="L132" s="48"/>
+      <c r="M132" s="48"/>
+      <c r="N132" s="48"/>
+      <c r="O132" s="48"/>
+    </row>
+    <row r="133" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I133" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J133" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="K133" s="30">
+        <v>0</v>
+      </c>
+      <c r="L133" s="30">
+        <v>0</v>
+      </c>
+      <c r="M133" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N133" s="51" t="s">
+        <v>492</v>
+      </c>
+      <c r="O133" s="51"/>
+    </row>
+    <row r="134" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I134" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J134" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="K134" s="29">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L134" s="29">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M134" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N134" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="O134" s="51"/>
+    </row>
+    <row r="135" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I135" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J135" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="K135" s="29">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L135" s="29">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M135" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N135" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="O135" s="51"/>
+    </row>
+    <row r="136" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I136" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J136" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="K136" s="70">
+        <v>1</v>
+      </c>
+      <c r="L136" s="66">
+        <v>1.4142135623730949E-6</v>
+      </c>
+      <c r="M136" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N136" s="51" t="s">
+        <v>493</v>
+      </c>
+      <c r="O136" s="51" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="137" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I137" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J137" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="K137" s="65">
+        <v>1.00000150000225</v>
+      </c>
+      <c r="L137" s="66">
+        <v>9.1924157326516319E-7</v>
+      </c>
+      <c r="M137" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N137" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="O137" s="51" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="138" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I138" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J138" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="K138" s="65">
+        <v>1.00000160000256</v>
+      </c>
+      <c r="L138" s="66">
+        <v>7.0710904393367791E-7</v>
+      </c>
+      <c r="M138" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N138" s="51" t="s">
+        <v>496</v>
+      </c>
+      <c r="O138" s="51" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="139" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I139" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J139" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="K139" s="65">
+        <v>1.00000170000289</v>
+      </c>
+      <c r="L139" s="66">
+        <v>3.5355459267786709E-7</v>
+      </c>
+      <c r="M139" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N139" s="51" t="s">
+        <v>497</v>
+      </c>
+      <c r="O139" s="51" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="140" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I140" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J140" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="K140" s="65">
+        <v>1.0000018500034225</v>
+      </c>
+      <c r="L140" s="66">
+        <v>2.4748828912111432E-7</v>
+      </c>
+      <c r="M140" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N140" s="51" t="s">
+        <v>498</v>
+      </c>
+      <c r="O140" s="51" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="141" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I141" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J141" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="K141" s="65">
+        <v>1.00000180000324</v>
+      </c>
+      <c r="L141" s="66">
+        <v>8.4853119213339951E-7</v>
+      </c>
+      <c r="M141" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N141" s="51" t="s">
+        <v>499</v>
+      </c>
+      <c r="O141" s="51" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="142" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I142" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J142" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="K142" s="65">
+        <v>1.0000017500030625</v>
+      </c>
+      <c r="L142" s="66">
+        <v>7.0710925606677826E-7</v>
+      </c>
+      <c r="M142" s="67">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N142" s="51" t="s">
+        <v>500</v>
+      </c>
+      <c r="O142" s="51" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="143" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I143" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J143" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="K143" s="68">
+        <v>0</v>
+      </c>
+      <c r="L143" s="69">
+        <v>1.7E-8</v>
+      </c>
+      <c r="M143" s="67">
+        <v>18</v>
+      </c>
+      <c r="N143" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="O143" s="51" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="144" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I144" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J144" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="K144" s="68">
+        <v>0</v>
+      </c>
+      <c r="L144" s="69">
+        <v>1.7E-8</v>
+      </c>
+      <c r="M144" s="67">
+        <v>18</v>
+      </c>
+      <c r="N144" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="O144" s="51" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="145" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I145" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J145" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="K145" s="51">
+        <v>24</v>
+      </c>
+      <c r="L145" s="51"/>
+      <c r="M145" s="51"/>
+      <c r="N145" s="51"/>
+      <c r="O145" s="51"/>
+    </row>
+    <row r="146" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I146" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J146" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="K146" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="L146" s="51"/>
+      <c r="M146" s="51"/>
+      <c r="N146" s="51"/>
+      <c r="O146" s="51"/>
+    </row>
+    <row r="147" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I147" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J147" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="K147" s="51" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="72" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I72" t="s">
-        <v>292</v>
-      </c>
-      <c r="J72" t="s">
-        <v>280</v>
-      </c>
-      <c r="K72" s="65">
-        <v>1.3000000000000001E-8</v>
-      </c>
-      <c r="L72" s="29">
-        <v>8.0999999999999997E-9</v>
-      </c>
-      <c r="M72" s="30">
-        <v>18</v>
-      </c>
-      <c r="N72" t="s">
-        <v>306</v>
-      </c>
-      <c r="O72" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="73" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I73" t="s">
-        <v>292</v>
-      </c>
-      <c r="J73" t="s">
-        <v>281</v>
-      </c>
-      <c r="K73" s="65">
-        <v>1.3000000000000001E-8</v>
-      </c>
-      <c r="L73" s="29">
-        <v>8.0999999999999997E-9</v>
-      </c>
-      <c r="M73" s="30">
-        <v>18</v>
-      </c>
-      <c r="N73" t="s">
-        <v>308</v>
-      </c>
-      <c r="O73" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="74" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I74" t="s">
-        <v>292</v>
-      </c>
-      <c r="J74" t="s">
+      <c r="L147" s="51"/>
+      <c r="M147" s="51"/>
+      <c r="N147" s="51"/>
+      <c r="O147" s="51"/>
+    </row>
+    <row r="148" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I148" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J148" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="K148" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="L148" s="51"/>
+      <c r="M148" s="51"/>
+      <c r="N148" s="51"/>
+      <c r="O148" s="51"/>
+    </row>
+    <row r="149" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I149" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="J149" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="K149" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="L149" s="48"/>
+      <c r="M149" s="48"/>
+      <c r="N149" s="48"/>
+      <c r="O149" s="48"/>
+    </row>
+    <row r="150" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I150" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J150" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="K74" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I75" t="s">
-        <v>292</v>
-      </c>
-      <c r="J75" t="s">
+      <c r="K150" s="51">
+        <v>2</v>
+      </c>
+      <c r="L150" s="30"/>
+      <c r="M150" s="30"/>
+      <c r="N150" s="51"/>
+      <c r="O150" s="51"/>
+    </row>
+    <row r="151" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I151" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J151" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="K75" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="76" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I76" t="s">
-        <v>292</v>
-      </c>
-      <c r="J76" t="s">
-        <v>286</v>
-      </c>
-      <c r="K76" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="77" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I77" t="s">
-        <v>292</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="K151" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="L151" s="29"/>
+      <c r="M151" s="30"/>
+      <c r="N151" s="51"/>
+      <c r="O151" s="51"/>
+    </row>
+    <row r="152" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I152" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J152" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="K152" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="L152" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M152" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="N152" s="51"/>
+      <c r="O152" s="51"/>
+    </row>
+    <row r="153" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I153" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J153" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="K153" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="L153" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M153" s="30"/>
+      <c r="N153" s="51"/>
+      <c r="O153" s="51"/>
+    </row>
+    <row r="154" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I154" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J154" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="K154" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="L154" s="29"/>
+      <c r="M154" s="30"/>
+      <c r="N154" s="51"/>
+      <c r="O154" s="51"/>
+    </row>
+    <row r="155" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I155" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J155" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="K155" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="L155" s="51"/>
+      <c r="M155" s="51"/>
+      <c r="N155" s="51"/>
+      <c r="O155" s="51"/>
+    </row>
+    <row r="156" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I156" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J156" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="K77" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="78" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I78" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="J78" s="26" t="s">
+      <c r="K156" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="L156" s="51"/>
+      <c r="M156" s="51"/>
+      <c r="N156" s="51"/>
+      <c r="O156" s="51"/>
+    </row>
+    <row r="157" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I157" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="J157" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K78" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
-    </row>
-    <row r="79" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I79" t="s">
-        <v>313</v>
-      </c>
-      <c r="J79" t="s">
-        <v>274</v>
-      </c>
-      <c r="K79" s="30">
-        <v>0</v>
-      </c>
-      <c r="L79" s="30">
-        <v>0</v>
-      </c>
-      <c r="M79" s="30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I80" t="s">
-        <v>313</v>
-      </c>
-      <c r="J80" t="s">
-        <v>275</v>
-      </c>
-      <c r="K80" s="29">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L80" s="29">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M80" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="N80" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="81" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I81" t="s">
-        <v>313</v>
-      </c>
-      <c r="J81" t="s">
-        <v>276</v>
-      </c>
-      <c r="K81" s="29">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L81" s="29">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M81" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="N81" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="82" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I82" t="s">
-        <v>313</v>
-      </c>
-      <c r="J82" t="s">
-        <v>277</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82" t="s">
-        <v>182</v>
-      </c>
-      <c r="N82" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="83" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I83" t="s">
-        <v>313</v>
-      </c>
-      <c r="J83" t="s">
-        <v>297</v>
-      </c>
-      <c r="K83" s="42">
-        <v>-6.5E-8</v>
-      </c>
-      <c r="L83" s="42">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="M83">
-        <v>151</v>
-      </c>
-      <c r="N83" t="s">
-        <v>317</v>
-      </c>
-      <c r="O83" t="s">
-        <v>299</v>
-      </c>
-      <c r="P83" s="45"/>
-    </row>
-    <row r="84" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I84" t="s">
-        <v>313</v>
-      </c>
-      <c r="J84" t="s">
-        <v>300</v>
-      </c>
-      <c r="K84" s="43">
-        <v>-2.3999999999999998E-7</v>
-      </c>
-      <c r="L84" s="43">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="M84" s="44">
-        <v>151</v>
-      </c>
-      <c r="N84" t="s">
-        <v>318</v>
-      </c>
-      <c r="O84" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="85" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I85" t="s">
-        <v>313</v>
-      </c>
-      <c r="J85" t="s">
-        <v>302</v>
-      </c>
-      <c r="K85" s="43">
-        <v>-5.0000000000000004E-6</v>
-      </c>
-      <c r="L85" s="43">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="M85" s="44">
-        <v>150</v>
-      </c>
-      <c r="N85" t="s">
-        <v>319</v>
-      </c>
-      <c r="O85" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="86" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I86" t="s">
-        <v>313</v>
-      </c>
-      <c r="J86" t="s">
-        <v>304</v>
-      </c>
-      <c r="K86" s="43">
-        <v>-3.1999999999999999E-6</v>
-      </c>
-      <c r="L86" s="43">
-        <v>2.0999999999999998E-6</v>
-      </c>
-      <c r="M86" s="44">
-        <v>75</v>
-      </c>
-      <c r="N86" t="s">
-        <v>320</v>
-      </c>
-      <c r="O86" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="87" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I87" t="s">
-        <v>313</v>
-      </c>
-      <c r="J87" t="s">
-        <v>280</v>
-      </c>
-      <c r="K87" s="65">
-        <v>1.0999999999999999E-8</v>
-      </c>
-      <c r="L87" s="29">
-        <v>8.0999999999999997E-9</v>
-      </c>
-      <c r="M87" s="30">
-        <v>18</v>
-      </c>
-      <c r="N87" t="s">
-        <v>321</v>
-      </c>
-      <c r="O87" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="88" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I88" t="s">
-        <v>313</v>
-      </c>
-      <c r="J88" t="s">
-        <v>281</v>
-      </c>
-      <c r="K88" s="65">
-        <v>1.0999999999999999E-8</v>
-      </c>
-      <c r="L88" s="29">
-        <v>8.0999999999999997E-9</v>
-      </c>
-      <c r="M88" s="30">
-        <v>18</v>
-      </c>
-      <c r="N88" t="s">
-        <v>322</v>
-      </c>
-      <c r="O88" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="89" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I89" t="s">
-        <v>313</v>
-      </c>
-      <c r="J89" t="s">
+      <c r="K157" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="L157" s="48"/>
+      <c r="M157" s="48"/>
+      <c r="N157" s="48"/>
+      <c r="O157" s="48"/>
+    </row>
+    <row r="158" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I158" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J158" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="K89" s="30">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I90" t="s">
-        <v>313</v>
-      </c>
-      <c r="J90" t="s">
+      <c r="K158" s="51">
+        <v>4</v>
+      </c>
+      <c r="L158" s="30"/>
+      <c r="M158" s="51"/>
+      <c r="N158" s="51"/>
+      <c r="O158" s="51"/>
+    </row>
+    <row r="159" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I159" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J159" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="K90" s="30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="91" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I91" t="s">
-        <v>313</v>
-      </c>
-      <c r="J91" t="s">
-        <v>286</v>
-      </c>
-      <c r="K91" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="92" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I92" t="s">
-        <v>313</v>
-      </c>
-      <c r="J92" t="s">
+      <c r="K159" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="L159" s="29"/>
+      <c r="M159" s="51"/>
+      <c r="N159" s="51"/>
+      <c r="O159" s="51"/>
+    </row>
+    <row r="160" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I160" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J160" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="K160" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="L160" s="29"/>
+      <c r="M160" s="51"/>
+      <c r="N160" s="51"/>
+      <c r="O160" s="51"/>
+    </row>
+    <row r="161" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I161" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J161" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="K161" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="L161" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="M161" s="51"/>
+      <c r="N161" s="51"/>
+      <c r="O161" s="51"/>
+    </row>
+    <row r="162" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I162" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J162" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="K162" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="L162" s="29"/>
+      <c r="M162" s="51"/>
+      <c r="N162" s="51"/>
+      <c r="O162" s="51"/>
+    </row>
+    <row r="163" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I163" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J163" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="K163" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="L163" s="51"/>
+      <c r="M163" s="51"/>
+      <c r="N163" s="51"/>
+      <c r="O163" s="51"/>
+    </row>
+    <row r="164" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I164" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J164" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="K164" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="L164" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="M164" s="51"/>
+      <c r="N164" s="51"/>
+      <c r="O164" s="51"/>
+    </row>
+    <row r="165" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I165" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J165" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="K92" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="93" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I93" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="J93" s="26" t="s">
+      <c r="K165" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="L165" s="51"/>
+      <c r="M165" s="51"/>
+      <c r="N165" s="51"/>
+      <c r="O165" s="51"/>
+    </row>
+    <row r="166" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I166" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J166" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K93" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="26"/>
-    </row>
-    <row r="94" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I94" t="s">
-        <v>325</v>
-      </c>
-      <c r="J94" t="s">
-        <v>274</v>
-      </c>
-      <c r="K94" s="30">
-        <v>0</v>
-      </c>
-      <c r="L94" s="30">
-        <v>0</v>
-      </c>
-      <c r="M94" s="30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="95" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I95" t="s">
-        <v>325</v>
-      </c>
-      <c r="J95" t="s">
-        <v>275</v>
-      </c>
-      <c r="K95" s="29">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L95" s="29">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M95" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="N95" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="96" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I96" t="s">
-        <v>325</v>
-      </c>
-      <c r="J96" t="s">
-        <v>276</v>
-      </c>
-      <c r="K96" s="29">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L96" s="29">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M96" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="N96" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="97" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I97" t="s">
-        <v>325</v>
-      </c>
-      <c r="J97" t="s">
-        <v>277</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>7</v>
-      </c>
-      <c r="N97" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="98" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I98" t="s">
-        <v>325</v>
-      </c>
-      <c r="J98" t="s">
-        <v>297</v>
-      </c>
-      <c r="K98" s="42">
-        <v>-1.4999999999999999E-7</v>
-      </c>
-      <c r="L98" s="42">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="M98">
-        <v>151</v>
-      </c>
-      <c r="N98" t="s">
-        <v>329</v>
-      </c>
-      <c r="O98" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="99" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I99" t="s">
-        <v>325</v>
-      </c>
-      <c r="J99" t="s">
-        <v>300</v>
-      </c>
-      <c r="K99" s="43">
-        <v>-4.8E-8</v>
-      </c>
-      <c r="L99" s="43">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="M99" s="44">
-        <v>151</v>
-      </c>
-      <c r="N99" t="s">
-        <v>330</v>
-      </c>
-      <c r="O99" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="100" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I100" t="s">
-        <v>325</v>
-      </c>
-      <c r="J100" t="s">
-        <v>302</v>
-      </c>
-      <c r="K100" s="43">
-        <v>-3.9999999999999998E-7</v>
-      </c>
-      <c r="L100" s="43">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="M100" s="44">
-        <v>150</v>
-      </c>
-      <c r="N100" t="s">
-        <v>331</v>
-      </c>
-      <c r="O100" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="101" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I101" t="s">
-        <v>325</v>
-      </c>
-      <c r="J101" t="s">
-        <v>304</v>
-      </c>
-      <c r="K101" s="43">
-        <v>-4.9999999999999998E-7</v>
-      </c>
-      <c r="L101" s="43">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="M101" s="44">
-        <v>150</v>
-      </c>
-      <c r="N101" t="s">
-        <v>332</v>
-      </c>
-      <c r="O101" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="102" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I102" t="s">
-        <v>325</v>
-      </c>
-      <c r="J102" t="s">
-        <v>280</v>
-      </c>
-      <c r="K102" s="65">
-        <v>1.0999999999999999E-8</v>
-      </c>
-      <c r="L102" s="29">
-        <v>8.0999999999999997E-9</v>
-      </c>
-      <c r="M102" s="30">
-        <v>18</v>
-      </c>
-      <c r="N102" t="s">
-        <v>333</v>
-      </c>
-      <c r="O102" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="103" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I103" t="s">
-        <v>325</v>
-      </c>
-      <c r="J103" t="s">
-        <v>281</v>
-      </c>
-      <c r="K103" s="65">
-        <v>1.0999999999999999E-8</v>
-      </c>
-      <c r="L103" s="29">
-        <v>8.0999999999999997E-9</v>
-      </c>
-      <c r="M103" s="30">
-        <v>18</v>
-      </c>
-      <c r="N103" t="s">
-        <v>334</v>
-      </c>
-      <c r="O103" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="104" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I104" t="s">
-        <v>325</v>
-      </c>
-      <c r="J104" t="s">
-        <v>201</v>
-      </c>
-      <c r="K104" s="30">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I105" t="s">
-        <v>325</v>
-      </c>
-      <c r="J105" t="s">
-        <v>205</v>
-      </c>
-      <c r="K105" s="30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="106" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I106" t="s">
-        <v>325</v>
-      </c>
-      <c r="J106" t="s">
-        <v>286</v>
-      </c>
-      <c r="K106" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="107" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I107" t="s">
-        <v>325</v>
-      </c>
-      <c r="J107" t="s">
-        <v>209</v>
-      </c>
-      <c r="K107" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="108" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I108" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="J108" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="K108" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="L108" s="26"/>
-      <c r="M108" s="26"/>
-      <c r="N108" s="26"/>
-      <c r="O108" s="26"/>
-    </row>
-    <row r="109" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I109" t="s">
-        <v>62</v>
-      </c>
-      <c r="J109" t="s">
-        <v>274</v>
-      </c>
-      <c r="K109" s="30">
-        <v>0</v>
-      </c>
-      <c r="L109" s="30">
-        <v>0</v>
-      </c>
-      <c r="M109" s="30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="110" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I110" t="s">
-        <v>62</v>
-      </c>
-      <c r="J110" t="s">
-        <v>275</v>
-      </c>
-      <c r="K110" s="29">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L110" s="29">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M110" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="N110" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="111" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I111" t="s">
-        <v>62</v>
-      </c>
-      <c r="J111" t="s">
-        <v>276</v>
-      </c>
-      <c r="K111" s="29">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L111" s="29">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M111" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="N111" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="112" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I112" t="s">
-        <v>62</v>
-      </c>
-      <c r="J112" t="s">
-        <v>277</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <v>7</v>
-      </c>
-      <c r="N112" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="113" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I113" t="s">
-        <v>62</v>
-      </c>
-      <c r="J113" t="s">
-        <v>297</v>
-      </c>
-      <c r="K113" s="42">
-        <v>-1.6999999999999999E-7</v>
-      </c>
-      <c r="L113" s="42">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="M113">
-        <v>151</v>
-      </c>
-      <c r="N113" t="s">
-        <v>340</v>
-      </c>
-      <c r="O113" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="114" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I114" t="s">
-        <v>62</v>
-      </c>
-      <c r="J114" t="s">
-        <v>300</v>
-      </c>
-      <c r="K114" s="43">
-        <v>-3.2999999999999998E-8</v>
-      </c>
-      <c r="L114" s="43">
-        <v>2.0999999999999998E-6</v>
-      </c>
-      <c r="M114" s="44">
-        <v>76</v>
-      </c>
-      <c r="N114" t="s">
-        <v>341</v>
-      </c>
-      <c r="O114" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="115" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I115" t="s">
-        <v>62</v>
-      </c>
-      <c r="J115" t="s">
-        <v>302</v>
-      </c>
-      <c r="K115" s="43">
-        <v>6.1999999999999999E-7</v>
-      </c>
-      <c r="L115" s="43">
-        <v>2.0999999999999998E-6</v>
-      </c>
-      <c r="M115" s="44">
-        <v>75</v>
-      </c>
-      <c r="N115" t="s">
-        <v>342</v>
-      </c>
-      <c r="O115" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="116" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I116" t="s">
-        <v>62</v>
-      </c>
-      <c r="J116" t="s">
-        <v>304</v>
-      </c>
-      <c r="K116" s="43">
-        <v>6.7999999999999995E-7</v>
-      </c>
-      <c r="L116" s="43">
-        <v>2.0999999999999998E-6</v>
-      </c>
-      <c r="M116" s="44">
-        <v>75</v>
-      </c>
-      <c r="N116" t="s">
-        <v>343</v>
-      </c>
-      <c r="O116" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="117" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I117" t="s">
-        <v>62</v>
-      </c>
-      <c r="J117" t="s">
-        <v>280</v>
-      </c>
-      <c r="K117" s="65">
-        <v>8.0000000000000005E-9</v>
-      </c>
-      <c r="L117" s="29">
-        <v>8.0999999999999997E-9</v>
-      </c>
-      <c r="M117" s="30">
-        <v>18</v>
-      </c>
-      <c r="N117" t="s">
-        <v>344</v>
-      </c>
-      <c r="O117" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="118" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I118" t="s">
-        <v>62</v>
-      </c>
-      <c r="J118" t="s">
-        <v>281</v>
-      </c>
-      <c r="K118" s="65">
-        <v>8.0000000000000005E-9</v>
-      </c>
-      <c r="L118" s="29">
-        <v>8.0999999999999997E-9</v>
-      </c>
-      <c r="M118" s="30">
-        <v>18</v>
-      </c>
-      <c r="N118" t="s">
-        <v>345</v>
-      </c>
-      <c r="O118" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="119" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I119" t="s">
-        <v>62</v>
-      </c>
-      <c r="J119" t="s">
-        <v>201</v>
-      </c>
-      <c r="K119">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="120" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I120" t="s">
-        <v>62</v>
-      </c>
-      <c r="J120" t="s">
-        <v>205</v>
-      </c>
-      <c r="K120" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="121" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I121" t="s">
-        <v>62</v>
-      </c>
-      <c r="J121" t="s">
-        <v>286</v>
-      </c>
-      <c r="K121" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="122" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I122" t="s">
-        <v>62</v>
-      </c>
-      <c r="J122" t="s">
-        <v>209</v>
-      </c>
-      <c r="K122" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="123" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I123" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="J123" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="K123" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="L123" s="26"/>
-      <c r="M123" s="26"/>
-      <c r="N123" s="26"/>
-      <c r="O123" s="26"/>
-    </row>
-    <row r="124" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I124" t="s">
-        <v>71</v>
-      </c>
-      <c r="J124" t="s">
-        <v>274</v>
-      </c>
-      <c r="K124" s="30">
-        <v>0</v>
-      </c>
-      <c r="L124" s="30">
-        <v>0</v>
-      </c>
-      <c r="M124" s="30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="125" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I125" t="s">
-        <v>71</v>
-      </c>
-      <c r="J125" t="s">
-        <v>275</v>
-      </c>
-      <c r="K125" s="29">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L125" s="29">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M125" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="N125" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="126" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I126" t="s">
-        <v>71</v>
-      </c>
-      <c r="J126" t="s">
-        <v>276</v>
-      </c>
-      <c r="K126" s="29">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L126" s="29">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M126" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="N126" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="127" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I127" t="s">
-        <v>71</v>
-      </c>
-      <c r="J127" t="s">
-        <v>277</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127">
-        <v>7</v>
-      </c>
-      <c r="N127" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="128" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I128" t="s">
-        <v>71</v>
-      </c>
-      <c r="J128" t="s">
-        <v>297</v>
-      </c>
-      <c r="K128" s="42">
-        <v>9.7000000000000003E-7</v>
-      </c>
-      <c r="L128" s="42">
-        <v>2.0999999999999998E-6</v>
-      </c>
-      <c r="M128">
-        <v>75</v>
-      </c>
-      <c r="N128" t="s">
-        <v>351</v>
-      </c>
-      <c r="O128" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="129" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I129" t="s">
-        <v>71</v>
-      </c>
-      <c r="J129" t="s">
-        <v>300</v>
-      </c>
-      <c r="K129" s="43">
-        <v>-2.7000000000000001E-7</v>
-      </c>
-      <c r="L129" s="43">
-        <v>2.0999999999999998E-6</v>
-      </c>
-      <c r="M129" s="44">
-        <v>75</v>
-      </c>
-      <c r="N129" t="s">
-        <v>352</v>
-      </c>
-      <c r="O129" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="130" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I130" t="s">
-        <v>71</v>
-      </c>
-      <c r="J130" t="s">
-        <v>302</v>
-      </c>
-      <c r="K130" s="43">
-        <v>-1.4000000000000001E-7</v>
-      </c>
-      <c r="L130" s="43">
-        <v>2.0999999999999998E-6</v>
-      </c>
-      <c r="M130" s="44">
-        <v>76</v>
-      </c>
-      <c r="N130" t="s">
-        <v>353</v>
-      </c>
-      <c r="O130" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="131" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I131" t="s">
-        <v>71</v>
-      </c>
-      <c r="J131" t="s">
-        <v>304</v>
-      </c>
-      <c r="K131" s="43">
-        <v>-6.1000000000000004E-8</v>
-      </c>
-      <c r="L131" s="43">
-        <v>2.0999999999999998E-6</v>
-      </c>
-      <c r="M131" s="44">
-        <v>76</v>
-      </c>
-      <c r="N131" t="s">
-        <v>354</v>
-      </c>
-      <c r="O131" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="132" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I132" t="s">
-        <v>71</v>
-      </c>
-      <c r="J132" t="s">
-        <v>280</v>
-      </c>
-      <c r="K132" s="65">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="L132" s="29">
-        <v>8.0999999999999997E-9</v>
-      </c>
-      <c r="M132" s="30">
-        <v>18</v>
-      </c>
-      <c r="N132" t="s">
-        <v>355</v>
-      </c>
-      <c r="O132" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="133" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I133" t="s">
-        <v>71</v>
-      </c>
-      <c r="J133" t="s">
-        <v>281</v>
-      </c>
-      <c r="K133" s="65">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="L133" s="29">
-        <v>8.0999999999999997E-9</v>
-      </c>
-      <c r="M133" s="30">
-        <v>18</v>
-      </c>
-      <c r="N133" t="s">
-        <v>356</v>
-      </c>
-      <c r="O133" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="134" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I134" t="s">
-        <v>71</v>
-      </c>
-      <c r="J134" t="s">
-        <v>201</v>
-      </c>
-      <c r="K134">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="135" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I135" t="s">
-        <v>71</v>
-      </c>
-      <c r="J135" t="s">
-        <v>205</v>
-      </c>
-      <c r="K135" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="136" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I136" t="s">
-        <v>71</v>
-      </c>
-      <c r="J136" t="s">
-        <v>286</v>
-      </c>
-      <c r="K136" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="137" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I137" t="s">
-        <v>71</v>
-      </c>
-      <c r="J137" t="s">
-        <v>209</v>
-      </c>
-      <c r="K137" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="138" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I138" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="J138" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="K138" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="L138" s="26"/>
-      <c r="M138" s="26"/>
-      <c r="N138" s="26"/>
-      <c r="O138" s="26"/>
-    </row>
-    <row r="139" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I139" t="s">
-        <v>42</v>
-      </c>
-      <c r="J139" t="s">
-        <v>201</v>
-      </c>
-      <c r="K139">
-        <v>2</v>
-      </c>
-      <c r="L139" s="30"/>
-      <c r="M139" s="30"/>
-    </row>
-    <row r="140" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I140" t="s">
-        <v>42</v>
-      </c>
-      <c r="J140" t="s">
-        <v>205</v>
-      </c>
-      <c r="K140" t="s">
-        <v>359</v>
-      </c>
-      <c r="L140" s="29"/>
-      <c r="M140" s="30"/>
-    </row>
-    <row r="141" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I141" t="s">
-        <v>42</v>
-      </c>
-      <c r="J141" t="s">
-        <v>360</v>
-      </c>
-      <c r="K141" t="s">
-        <v>361</v>
-      </c>
-      <c r="L141" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="M141" s="18" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="142" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I142" t="s">
-        <v>42</v>
-      </c>
-      <c r="J142" t="s">
-        <v>364</v>
-      </c>
-      <c r="K142" t="s">
-        <v>365</v>
-      </c>
-      <c r="L142" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="M142" s="30"/>
-    </row>
-    <row r="143" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I143" t="s">
-        <v>42</v>
-      </c>
-      <c r="J143" t="s">
-        <v>367</v>
-      </c>
-      <c r="K143" t="s">
-        <v>368</v>
-      </c>
-      <c r="L143" s="29"/>
-      <c r="M143" s="30"/>
-    </row>
-    <row r="144" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I144" t="s">
-        <v>42</v>
-      </c>
-      <c r="J144" t="s">
-        <v>369</v>
-      </c>
-      <c r="K144" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="145" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I145" t="s">
-        <v>42</v>
-      </c>
-      <c r="J145" t="s">
-        <v>209</v>
-      </c>
-      <c r="K145" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="146" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I146" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J146" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="K146" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="L146" s="26"/>
-      <c r="M146" s="26"/>
-      <c r="N146" s="26"/>
-      <c r="O146" s="26"/>
-    </row>
-    <row r="147" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I147" t="s">
-        <v>32</v>
-      </c>
-      <c r="J147" t="s">
-        <v>201</v>
-      </c>
-      <c r="K147">
-        <v>4</v>
-      </c>
-      <c r="L147" s="30"/>
-    </row>
-    <row r="148" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I148" t="s">
-        <v>32</v>
-      </c>
-      <c r="J148" t="s">
-        <v>205</v>
-      </c>
-      <c r="K148" t="s">
-        <v>373</v>
-      </c>
-      <c r="L148" s="29"/>
-    </row>
-    <row r="149" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I149" t="s">
-        <v>32</v>
-      </c>
-      <c r="J149" t="s">
-        <v>360</v>
-      </c>
-      <c r="K149" t="s">
-        <v>374</v>
-      </c>
-      <c r="L149" s="29"/>
-    </row>
-    <row r="150" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I150" t="s">
-        <v>32</v>
-      </c>
-      <c r="J150" t="s">
-        <v>364</v>
-      </c>
-      <c r="K150" t="s">
-        <v>375</v>
-      </c>
-      <c r="L150" s="17" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="151" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I151" t="s">
-        <v>32</v>
-      </c>
-      <c r="J151" t="s">
-        <v>367</v>
-      </c>
-      <c r="K151" t="s">
-        <v>377</v>
-      </c>
-      <c r="L151" s="29"/>
-    </row>
-    <row r="152" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I152" t="s">
-        <v>32</v>
-      </c>
-      <c r="J152" t="s">
-        <v>369</v>
-      </c>
-      <c r="K152" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="153" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I153" t="s">
-        <v>32</v>
-      </c>
-      <c r="J153" t="s">
-        <v>379</v>
-      </c>
-      <c r="K153" t="s">
-        <v>380</v>
-      </c>
-      <c r="L153" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="154" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I154" t="s">
-        <v>32</v>
-      </c>
-      <c r="J154" t="s">
-        <v>209</v>
-      </c>
-      <c r="K154" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="155" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I155" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J155" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="K155" s="26" t="s">
+      <c r="K166" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="L155" s="26"/>
-      <c r="M155" s="26"/>
-      <c r="N155" s="26"/>
-      <c r="O155" s="26"/>
+      <c r="L166" s="48"/>
+      <c r="M166" s="48"/>
+      <c r="N166" s="48"/>
+      <c r="O166" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9127,35 +9632,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="47" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="47" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="47" customWidth="1"/>
-    <col min="10" max="10" width="66.85546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="11.42578125" style="47" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33" style="47" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" style="47" customWidth="1"/>
-    <col min="22" max="22" width="38" style="47" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="47" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="14.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.42578125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="45" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="66.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="11.42578125" style="45" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" style="45" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" style="45" customWidth="1"/>
+    <col min="22" max="22" width="38" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="45" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="14.7109375" style="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="66">
+      <c r="B1" s="61">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>383</v>
+      <c r="A3" s="49" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -9166,33 +9671,33 @@
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="R4" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="U4" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="V4" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="Y4" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="Z4" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="C5" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -9201,34 +9706,34 @@
         <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="G5" t="s">
         <v>176</v>
       </c>
       <c r="H5" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="J5" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="K5" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="L5" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="M5" t="s">
         <v>176</v>
       </c>
       <c r="N5" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="O5" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="Q5" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="R5">
         <v>100003.625478355</v>
@@ -9252,7 +9757,7 @@
         <v>13</v>
       </c>
       <c r="Y5" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="Z5">
         <v>10.00002202005556</v>
@@ -9265,14 +9770,14 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="50" t="s">
         <v>164</v>
       </c>
       <c r="B6">
         <v>10.00002188875</v>
       </c>
       <c r="C6" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="D6">
         <v>20.764612499999998</v>
@@ -9290,7 +9795,7 @@
         <v>0.43497730069211082</v>
       </c>
       <c r="J6" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K6">
         <v>-2.7000000000000001E-7</v>
@@ -9308,7 +9813,7 @@
         <v>0.21000755139425789</v>
       </c>
       <c r="Q6" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="R6">
         <v>100003.625478355</v>
@@ -9332,7 +9837,7 @@
         <v>13</v>
       </c>
       <c r="Y6" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="Z6">
         <v>10.00002202005556</v>
@@ -9346,7 +9851,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="K7">
         <v>1.0003017303999999</v>
@@ -9366,7 +9871,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="K8">
         <v>3.0350254677000003E-4</v>
@@ -9384,15 +9889,15 @@
         <v>3.0644807316790989E-2</v>
       </c>
       <c r="R8" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="V8" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="K9">
         <v>-3.0451918841999998E-4</v>
@@ -9430,7 +9935,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="K10">
         <v>-3.0446364500999999E-4</v>
@@ -9450,7 +9955,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="K11">
         <v>-1.0003009423</v>
@@ -9470,7 +9975,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="K12">
         <v>-1.0003009775</v>
@@ -9490,7 +9995,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="K13">
         <v>5.1170541267839013E-3</v>
@@ -9530,7 +10035,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -9550,7 +10055,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="K16">
         <v>-10.000020509000001</v>
@@ -9570,7 +10075,7 @@
     </row>
     <row r="17" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="K17">
         <v>-9.3983150759000007E-3</v>
@@ -9610,7 +10115,7 @@
     </row>
     <row r="19" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="K19">
         <v>10.000023067000001</v>
@@ -9630,7 +10135,7 @@
     </row>
     <row r="20" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="K20">
         <v>10.00002347</v>
@@ -9650,7 +10155,7 @@
     </row>
     <row r="21" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="K21">
         <v>-1.0103043347</v>
@@ -9670,7 +10175,7 @@
     </row>
     <row r="22" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="K22">
         <v>8.0000000000000005E-9</v>
@@ -9710,7 +10215,7 @@
     </row>
     <row r="24" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -9730,7 +10235,7 @@
     </row>
     <row r="25" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="K25">
         <v>20.894085</v>
@@ -9750,7 +10255,7 @@
     </row>
     <row r="26" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -9770,7 +10275,7 @@
     </row>
     <row r="27" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="K27">
         <v>8.0000000000000005E-9</v>
@@ -9850,7 +10355,7 @@
     </row>
     <row r="31" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="K31">
         <v>10.000024109</v>
@@ -9869,14 +10374,14 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="50" t="s">
         <v>164</v>
       </c>
       <c r="B33">
         <v>10.00002227575</v>
       </c>
       <c r="C33" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="D33">
         <v>20.792098750000001</v>
@@ -9894,7 +10399,7 @@
         <v>0.43476282307155639</v>
       </c>
       <c r="J33" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K33">
         <v>-2.7000000000000001E-7</v>
@@ -9914,7 +10419,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="K34">
         <v>3.0412604709000003E-4</v>
@@ -9934,7 +10439,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J35" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="K35">
         <v>1.0003017431000001</v>
@@ -9954,7 +10459,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J36" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="K36">
         <v>-3.0449704612E-4</v>
@@ -9974,7 +10479,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J37" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="K37">
         <v>-1.0003004150000001</v>
@@ -9994,7 +10499,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J38" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="K38">
         <v>-3.0520115826999998E-4</v>
@@ -10014,7 +10519,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J39" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="K39">
         <v>-1.0003010632</v>
@@ -10034,7 +10539,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J40" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="K40">
         <v>5.1170541267839013E-3</v>
@@ -10074,7 +10579,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -10094,7 +10599,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J43" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="K43">
         <v>-9.3988829519000006E-3</v>
@@ -10114,7 +10619,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="K44">
         <v>-1.0103038602000001</v>
@@ -10134,7 +10639,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="K45">
         <v>-10.000021125</v>
@@ -10174,7 +10679,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="K47">
         <v>10.000023240000001</v>
@@ -10194,7 +10699,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="K48">
         <v>8.0000000000000005E-9</v>
@@ -10214,7 +10719,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="K49">
         <v>10.000023613</v>
@@ -10254,7 +10759,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -10274,7 +10779,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -10294,7 +10799,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="K53">
         <v>20.8915875</v>
@@ -10314,7 +10819,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="K54">
         <v>8.0000000000000005E-9</v>
@@ -10394,7 +10899,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J58" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="K58">
         <v>10.000023558000001</v>
@@ -10413,14 +10918,14 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="52" t="s">
+      <c r="A60" s="50" t="s">
         <v>164</v>
       </c>
       <c r="B60">
         <v>10.000022352249999</v>
       </c>
       <c r="C60" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D60">
         <v>20.824582500000002</v>
@@ -10438,7 +10943,7 @@
         <v>0.43212417370800482</v>
       </c>
       <c r="J60" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K60">
         <v>-2.7000000000000001E-7</v>
@@ -10458,7 +10963,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J61" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="K61">
         <v>3.0430913590000002E-4</v>
@@ -10478,7 +10983,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J62" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="K62">
         <v>1.0003016184</v>
@@ -10498,7 +11003,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J63" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="K63">
         <v>-3.0492296447999999E-4</v>
@@ -10518,7 +11023,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J64" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="K64">
         <v>-1.0003006325999999</v>
@@ -10538,7 +11043,7 @@
     </row>
     <row r="65" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J65" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="K65">
         <v>-3.0511738654999989E-4</v>
@@ -10558,7 +11063,7 @@
     </row>
     <row r="66" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J66" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="K66">
         <v>-1.0003008807</v>
@@ -10578,7 +11083,7 @@
     </row>
     <row r="67" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J67" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="K67">
         <v>5.1170541267839013E-3</v>
@@ -10618,7 +11123,7 @@
     </row>
     <row r="69" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J69" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="K69">
         <v>-1.010303849</v>
@@ -10638,7 +11143,7 @@
     </row>
     <row r="70" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J70" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="K70">
         <v>-10.000021151</v>
@@ -10658,7 +11163,7 @@
     </row>
     <row r="71" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J71" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="K71">
         <v>-9.3988667592000003E-3</v>
@@ -10698,7 +11203,7 @@
     </row>
     <row r="73" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J73" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="K73">
         <v>10.000023560000001</v>
@@ -10718,7 +11223,7 @@
     </row>
     <row r="74" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J74" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="K74">
         <v>10.000023547</v>
@@ -10738,7 +11243,7 @@
     </row>
     <row r="75" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J75" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="K75">
         <v>8.0000000000000005E-9</v>
@@ -10758,7 +11263,7 @@
     </row>
     <row r="76" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J76" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -10798,7 +11303,7 @@
     </row>
     <row r="78" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J78" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -10818,7 +11323,7 @@
     </row>
     <row r="79" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J79" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="K79">
         <v>8.0000000000000005E-9</v>
@@ -10838,7 +11343,7 @@
     </row>
     <row r="80" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J80" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -10918,7 +11423,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J84" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="K84">
         <v>20.899080000000001</v>
@@ -10938,7 +11443,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J85" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="K85">
         <v>10.000024298</v>
@@ -10957,14 +11462,14 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="52" t="s">
+      <c r="A87" s="50" t="s">
         <v>164</v>
       </c>
       <c r="B87">
         <v>10.00002214375</v>
       </c>
       <c r="C87" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="D87">
         <v>20.819585</v>
@@ -10982,7 +11487,7 @@
         <v>0.43570080488824792</v>
       </c>
       <c r="J87" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K87">
         <v>-2.7000000000000001E-7</v>
@@ -11002,7 +11507,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J88" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="K88">
         <v>3.0447996242999998E-4</v>
@@ -11022,7 +11527,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J89" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="K89">
         <v>1.0003014786</v>
@@ -11042,7 +11547,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J90" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="K90">
         <v>-3.0495051743000001E-4</v>
@@ -11062,7 +11567,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J91" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -11082,7 +11587,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J92" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="K92">
         <v>-1.0003005756000001</v>
@@ -11102,7 +11607,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J93" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="K93">
         <v>-3.0505884931000002E-4</v>
@@ -11122,7 +11627,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J94" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="K94">
         <v>-1.0003015235999999</v>
@@ -11142,7 +11647,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J95" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="K95">
         <v>5.1170541267839013E-3</v>
@@ -11182,7 +11687,7 @@
     </row>
     <row r="97" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J97" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="K97">
         <v>-9.3983049583999997E-3</v>
@@ -11202,7 +11707,7 @@
     </row>
     <row r="98" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J98" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="K98">
         <v>-1.0103038239</v>
@@ -11242,7 +11747,7 @@
     </row>
     <row r="100" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J100" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="K100">
         <v>10.000024202000001</v>
@@ -11262,7 +11767,7 @@
     </row>
     <row r="101" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J101" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="K101">
         <v>10.000023888999999</v>
@@ -11282,7 +11787,7 @@
     </row>
     <row r="102" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J102" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="K102">
         <v>-10.000020242</v>
@@ -11302,7 +11807,7 @@
     </row>
     <row r="103" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J103" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="K103">
         <v>8.0000000000000005E-9</v>
@@ -11322,7 +11827,7 @@
     </row>
     <row r="104" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J104" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -11362,7 +11867,7 @@
     </row>
     <row r="106" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J106" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -11382,7 +11887,7 @@
     </row>
     <row r="107" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J107" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="K107">
         <v>20.8915875</v>
@@ -11402,7 +11907,7 @@
     </row>
     <row r="108" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J108" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="K108">
         <v>8.0000000000000005E-9</v>
@@ -11482,7 +11987,7 @@
     </row>
     <row r="112" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J112" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="K112">
         <v>10.000024446999999</v>
@@ -11501,14 +12006,14 @@
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="52" t="s">
+      <c r="A114" s="50" t="s">
         <v>164</v>
       </c>
       <c r="B114">
         <v>10.000021957</v>
       </c>
       <c r="C114" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="D114">
         <v>20.794597499999998</v>
@@ -11526,7 +12031,7 @@
         <v>0.43599974846217932</v>
       </c>
       <c r="J114" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K114">
         <v>-2.7000000000000001E-7</v>
@@ -11546,7 +12051,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J115" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="K115">
         <v>1.0003019523000001</v>
@@ -11566,7 +12071,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J116" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="K116">
         <v>3.0442563560000003E-4</v>
@@ -11586,7 +12091,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J117" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="K117">
         <v>-3.0477900539999998E-4</v>
@@ -11606,7 +12111,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J118" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="K118">
         <v>-3.0468557529000011E-4</v>
@@ -11626,7 +12131,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J119" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="K119">
         <v>-1.0003009982</v>
@@ -11646,7 +12151,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J120" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="K120">
         <v>-1.0003010532000001</v>
@@ -11666,7 +12171,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J121" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="K121">
         <v>5.1170541267839013E-3</v>
@@ -11686,7 +12191,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J122" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -11726,7 +12231,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J124" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="K124">
         <v>-9.398484954500002E-3</v>
@@ -11746,7 +12251,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J125" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="K125">
         <v>-10.000020631</v>
@@ -11786,7 +12291,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J127" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="K127">
         <v>-1.0103039235</v>
@@ -11806,7 +12311,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J128" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="K128">
         <v>10.000023493</v>
@@ -11826,7 +12331,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J129" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="K129">
         <v>10.000023072999999</v>
@@ -11846,7 +12351,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J130" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="K130">
         <v>8.0000000000000005E-9</v>
@@ -11886,7 +12391,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J132" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -11906,7 +12411,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J133" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -11926,7 +12431,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J134" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="K134">
         <v>8.0000000000000005E-9</v>
@@ -12006,7 +12511,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J138" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="K138">
         <v>20.889089999999999</v>
@@ -12026,7 +12531,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J139" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="K139">
         <v>10.000023782</v>
@@ -12045,14 +12550,14 @@
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" s="52" t="s">
+      <c r="A141" s="50" t="s">
         <v>164</v>
       </c>
       <c r="B141">
         <v>10.000022103999999</v>
       </c>
       <c r="C141" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="D141">
         <v>20.794597499999998</v>
@@ -12070,7 +12575,7 @@
         <v>0.43965729800926601</v>
       </c>
       <c r="J141" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K141">
         <v>-2.7000000000000001E-7</v>
@@ -12090,7 +12595,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J142" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="K142">
         <v>3.0450394397000001E-4</v>
@@ -12110,7 +12615,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J143" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="K143">
         <v>1.0003012131</v>
@@ -12130,7 +12635,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J144" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="K144">
         <v>-3.0469905695000002E-4</v>
@@ -12150,7 +12655,7 @@
     </row>
     <row r="145" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J145" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -12170,7 +12675,7 @@
     </row>
     <row r="146" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J146" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="K146">
         <v>-1.0003015239999999</v>
@@ -12190,7 +12695,7 @@
     </row>
     <row r="147" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J147" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="K147">
         <v>-1.0003004069999999</v>
@@ -12210,7 +12715,7 @@
     </row>
     <row r="148" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J148" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="K148">
         <v>-3.0484762067999998E-4</v>
@@ -12230,7 +12735,7 @@
     </row>
     <row r="149" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J149" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="K149">
         <v>5.1170541267839013E-3</v>
@@ -12270,7 +12775,7 @@
     </row>
     <row r="151" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J151" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="K151">
         <v>-1.0103038608999999</v>
@@ -12290,7 +12795,7 @@
     </row>
     <row r="152" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J152" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="K152">
         <v>-10.000021075999999</v>
@@ -12310,7 +12815,7 @@
     </row>
     <row r="153" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J153" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="K153">
         <v>-9.3985903548000002E-3</v>
@@ -12350,7 +12855,7 @@
     </row>
     <row r="155" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J155" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="K155">
         <v>10.000023293</v>
@@ -12370,7 +12875,7 @@
     </row>
     <row r="156" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J156" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="K156">
         <v>10.000022971</v>
@@ -12390,7 +12895,7 @@
     </row>
     <row r="157" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J157" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="K157">
         <v>8.0000000000000005E-9</v>
@@ -12410,7 +12915,7 @@
     </row>
     <row r="158" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J158" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -12450,7 +12955,7 @@
     </row>
     <row r="160" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J160" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -12470,7 +12975,7 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J161" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="K161">
         <v>8.0000000000000005E-9</v>
@@ -12550,7 +13055,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J165" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="K165">
         <v>20.889089999999999</v>
@@ -12570,7 +13075,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J166" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="K166">
         <v>10.000023334</v>
@@ -12589,14 +13094,14 @@
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A168" s="52" t="s">
+      <c r="A168" s="50" t="s">
         <v>164</v>
       </c>
       <c r="B168">
         <v>10.000021891999999</v>
       </c>
       <c r="C168" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="D168">
         <v>20.792098750000001</v>
@@ -12614,7 +13119,7 @@
         <v>0.43783352624551419</v>
       </c>
       <c r="J168" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K168">
         <v>-2.7000000000000001E-7</v>
@@ -12634,7 +13139,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J169" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="K169">
         <v>1.0003020302000001</v>
@@ -12654,7 +13159,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J170" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="K170">
         <v>3.0437386631000001E-4</v>
@@ -12674,7 +13179,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J171" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="K171">
         <v>-1.0003008587</v>
@@ -12694,7 +13199,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J172" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="K172">
         <v>-3.0463584712000011E-4</v>
@@ -12714,7 +13219,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J173" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="K173">
         <v>-3.0459166463999999E-4</v>
@@ -12734,7 +13239,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J174" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="K174">
         <v>-1.0003009251999999</v>
@@ -12754,7 +13259,7 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J175" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="K175">
         <v>5.1170541267839013E-3</v>
@@ -12794,7 +13299,7 @@
     </row>
     <row r="177" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J177" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="K177">
         <v>-10.000019817</v>
@@ -12814,7 +13319,7 @@
     </row>
     <row r="178" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J178" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="K178">
         <v>-1.0103044137999999</v>
@@ -12854,7 +13359,7 @@
     </row>
     <row r="180" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J180" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="K180">
         <v>-9.3982111768999999E-3</v>
@@ -12874,7 +13379,7 @@
     </row>
     <row r="181" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J181" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="K181">
         <v>10.000024016999999</v>
@@ -12894,7 +13399,7 @@
     </row>
     <row r="182" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J182" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="K182">
         <v>8.0000000000000005E-9</v>
@@ -12914,7 +13419,7 @@
     </row>
     <row r="183" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J183" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="K183">
         <v>10.000023917</v>
@@ -12934,7 +13439,7 @@
     </row>
     <row r="184" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J184" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -12974,7 +13479,7 @@
     </row>
     <row r="186" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J186" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -12994,7 +13499,7 @@
     </row>
     <row r="187" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J187" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="K187">
         <v>20.886592499999999</v>
@@ -13014,7 +13519,7 @@
     </row>
     <row r="188" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J188" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="K188">
         <v>8.0000000000000005E-9</v>
@@ -13034,7 +13539,7 @@
     </row>
     <row r="189" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J189" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -13114,7 +13619,7 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J193" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="K193">
         <v>10.000022755</v>
@@ -13133,14 +13638,14 @@
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A195" s="52" t="s">
+      <c r="A195" s="50" t="s">
         <v>164</v>
       </c>
       <c r="B195">
         <v>10.000021795249999</v>
       </c>
       <c r="C195" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="D195">
         <v>20.767111249999999</v>
@@ -13158,7 +13663,7 @@
         <v>0.42962450614870867</v>
       </c>
       <c r="J195" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K195">
         <v>-2.7000000000000001E-7</v>
@@ -13178,7 +13683,7 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J196" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="K196">
         <v>-3.0464299228999999E-4</v>
@@ -13198,7 +13703,7 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J197" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="K197">
         <v>1.0003018430999999</v>
@@ -13218,7 +13723,7 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J198" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="K198">
         <v>-1.0003004669</v>
@@ -13238,7 +13743,7 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J199" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="K199">
         <v>3.0400439026000001E-4</v>
@@ -13258,7 +13763,7 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J200" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="K200">
         <v>-1.000300816</v>
@@ -13278,7 +13783,7 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J201" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="K201">
         <v>-3.0453863689000003E-4</v>
@@ -13298,7 +13803,7 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J202" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -13318,7 +13823,7 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J203" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="K203">
         <v>5.1170541267839013E-3</v>
@@ -13358,7 +13863,7 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J205" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="K205">
         <v>-9.3983995658000006E-3</v>
@@ -13378,7 +13883,7 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J206" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="K206">
         <v>-10.000020214999999</v>
@@ -13398,7 +13903,7 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J207" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="K207">
         <v>-1.0103038233999999</v>
@@ -13438,7 +13943,7 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J209" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="K209">
         <v>10.000023741</v>
@@ -13458,7 +13963,7 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J210" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="K210">
         <v>10.00002301</v>
@@ -13478,7 +13983,7 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J211" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="K211">
         <v>8.0000000000000005E-9</v>
@@ -13518,7 +14023,7 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J213" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="K213">
         <v>0</v>
@@ -13538,7 +14043,7 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J214" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K214">
         <v>0</v>
@@ -13558,7 +14063,7 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J215" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="K215">
         <v>8.0000000000000005E-9</v>
@@ -13638,7 +14143,7 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J219" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="K219">
         <v>20.879100000000001</v>
@@ -13658,7 +14163,7 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J220" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="K220">
         <v>10.000022384999999</v>
@@ -13677,14 +14182,14 @@
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A222" s="52" t="s">
+      <c r="A222" s="50" t="s">
         <v>164</v>
       </c>
       <c r="B222">
         <v>10.000021771749999</v>
       </c>
       <c r="C222" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="D222">
         <v>20.764612499999998</v>
@@ -13702,7 +14207,7 @@
         <v>0.44003306729035152</v>
       </c>
       <c r="J222" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K222">
         <v>-2.7000000000000001E-7</v>
@@ -13722,7 +14227,7 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J223" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="K223">
         <v>3.0377552598999998E-4</v>
@@ -13742,7 +14247,7 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J224" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="K224">
         <v>1.0003015202000001</v>
@@ -13762,7 +14267,7 @@
     </row>
     <row r="225" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J225" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="K225">
         <v>-1.0003008959999999</v>
@@ -13782,7 +14287,7 @@
     </row>
     <row r="226" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J226" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="K226">
         <v>-1.0003008641</v>
@@ -13802,7 +14307,7 @@
     </row>
     <row r="227" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J227" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="K227">
         <v>-3.0421448952999989E-4</v>
@@ -13822,7 +14327,7 @@
     </row>
     <row r="228" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J228" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="K228">
         <v>-3.0450454660999998E-4</v>
@@ -13842,7 +14347,7 @@
     </row>
     <row r="229" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J229" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -13862,7 +14367,7 @@
     </row>
     <row r="230" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J230" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="K230">
         <v>5.1170541267839013E-3</v>
@@ -13902,7 +14407,7 @@
     </row>
     <row r="232" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J232" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="K232">
         <v>-1.0103041966999999</v>
@@ -13922,7 +14427,7 @@
     </row>
     <row r="233" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J233" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="K233">
         <v>-10.000020528</v>
@@ -13942,7 +14447,7 @@
     </row>
     <row r="234" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J234" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="K234">
         <v>-9.3981304052999995E-3</v>
@@ -13982,7 +14487,7 @@
     </row>
     <row r="236" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J236" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="K236">
         <v>10.000022766000001</v>
@@ -14002,7 +14507,7 @@
     </row>
     <row r="237" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J237" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="K237">
         <v>10.000023264999999</v>
@@ -14022,7 +14527,7 @@
     </row>
     <row r="238" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J238" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="K238">
         <v>8.0000000000000005E-9</v>
@@ -14062,7 +14567,7 @@
     </row>
     <row r="240" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J240" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -14082,7 +14587,7 @@
     </row>
     <row r="241" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J241" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K241">
         <v>0</v>
@@ -14102,7 +14607,7 @@
     </row>
     <row r="242" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J242" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="K242">
         <v>8.0000000000000005E-9</v>
@@ -14182,7 +14687,7 @@
     </row>
     <row r="246" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J246" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="K246">
         <v>20.879100000000001</v>
@@ -14202,7 +14707,7 @@
     </row>
     <row r="247" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J247" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="K247">
         <v>10.000023814</v>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="12150" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="12150" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Comments" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="688">
   <si>
     <t>WARNING: DO NOT INSERT ANY COMMENTS IN THIS WORKBOOK!</t>
   </si>
@@ -1507,51 +1507,9 @@
     <t>3458A_066_100k_cor</t>
   </si>
   <si>
-    <t>Vgain_01</t>
-  </si>
-  <si>
-    <t>3458A_066_Vgain_01</t>
-  </si>
-  <si>
     <t>Vgain_calcs.xlsx, S21939</t>
   </si>
   <si>
-    <t>Vgain_05</t>
-  </si>
-  <si>
-    <t>3458A_066_Vgain_05</t>
-  </si>
-  <si>
-    <t>Vgain_1</t>
-  </si>
-  <si>
-    <t>3458A_066_Vgain_1</t>
-  </si>
-  <si>
-    <t>Vgain_5</t>
-  </si>
-  <si>
-    <t>3458A_066_Vgain_5</t>
-  </si>
-  <si>
-    <t>Vgain_10</t>
-  </si>
-  <si>
-    <t>3458A_066_Vgain_10</t>
-  </si>
-  <si>
-    <t>Vgain_50</t>
-  </si>
-  <si>
-    <t>3458A_066_Vgain_50</t>
-  </si>
-  <si>
-    <t>Vgain_100</t>
-  </si>
-  <si>
-    <t>3458A_066_Vgain_100</t>
-  </si>
-  <si>
     <t>linearity_pert</t>
   </si>
   <si>
@@ -1591,30 +1549,9 @@
     <t>3458A_129_100k_cor</t>
   </si>
   <si>
-    <t>3458A_129_Vgain_01</t>
-  </si>
-  <si>
     <t>Vgain_calcs.xlsx, S21930</t>
   </si>
   <si>
-    <t>3458A_129_Vgain_05</t>
-  </si>
-  <si>
-    <t>3458A_129_Vgain_1</t>
-  </si>
-  <si>
-    <t>3458A_129_Vgain_5</t>
-  </si>
-  <si>
-    <t>3458A_129_Vgain_10</t>
-  </si>
-  <si>
-    <t>3458A_129_Vgain_50</t>
-  </si>
-  <si>
-    <t>3458A_129_Vgain_100</t>
-  </si>
-  <si>
     <t>3458A_129_Vlin_gain</t>
   </si>
   <si>
@@ -1642,30 +1579,9 @@
     <t>3458A_230_100k_cor</t>
   </si>
   <si>
-    <t>3458A_230_Vgain_01</t>
-  </si>
-  <si>
     <t>Vgain_calcs.xlsx, S21928</t>
   </si>
   <si>
-    <t>3458A_230_Vgain_05</t>
-  </si>
-  <si>
-    <t>3458A_230_Vgain_1</t>
-  </si>
-  <si>
-    <t>3458A_230_Vgain_5</t>
-  </si>
-  <si>
-    <t>3458A_230_Vgain_10</t>
-  </si>
-  <si>
-    <t>3458A_230_Vgain_50</t>
-  </si>
-  <si>
-    <t>3458A_230_Vgain_100</t>
-  </si>
-  <si>
     <t>3458A_230_Vlin_gain</t>
   </si>
   <si>
@@ -1690,30 +1606,9 @@
     <t>3458A_452_100k_cor</t>
   </si>
   <si>
-    <t>3458A_452_Vgain_01</t>
-  </si>
-  <si>
     <t>Vgain_calcs.xlsx, S21927</t>
   </si>
   <si>
-    <t>3458A_452_Vgain_05</t>
-  </si>
-  <si>
-    <t>3458A_452_Vgain_1</t>
-  </si>
-  <si>
-    <t>3458A_452_Vgain_5</t>
-  </si>
-  <si>
-    <t>3458A_452_Vgain_10</t>
-  </si>
-  <si>
-    <t>3458A_452_Vgain_50</t>
-  </si>
-  <si>
-    <t>3458A_452_Vgain_100</t>
-  </si>
-  <si>
     <t>3458A_452_Vlin_gain</t>
   </si>
   <si>
@@ -1738,30 +1633,9 @@
     <t>3458A_518_100k_cor</t>
   </si>
   <si>
-    <t>3458A_518_Vgain_01</t>
-  </si>
-  <si>
     <t>Vgain_calcs.xlsx, S21926</t>
   </si>
   <si>
-    <t>3458A_518_Vgain_05</t>
-  </si>
-  <si>
-    <t>3458A_518_Vgain_1</t>
-  </si>
-  <si>
-    <t>3458A_518_Vgain_5</t>
-  </si>
-  <si>
-    <t>3458A_518_Vgain_10</t>
-  </si>
-  <si>
-    <t>3458A_518_Vgain_50</t>
-  </si>
-  <si>
-    <t>3458A_518_Vgain_100</t>
-  </si>
-  <si>
     <t>3458A_518_Vlin_gain</t>
   </si>
   <si>
@@ -2063,6 +1937,156 @@
   </si>
   <si>
     <t>02/08/2017 18:45:35</t>
+  </si>
+  <si>
+    <t>Vgain_05r1</t>
+  </si>
+  <si>
+    <t>Vgain_1r1</t>
+  </si>
+  <si>
+    <t>Vgain_5r10</t>
+  </si>
+  <si>
+    <t>Vgain_10r10</t>
+  </si>
+  <si>
+    <t>Vgain_100r100</t>
+  </si>
+  <si>
+    <t>Vgain_1r10</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_05r1</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_1r1</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_1r10</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_5r10</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_10r10</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_100r100</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_01r01</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_05r1</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_1r1</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_1r10</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_5r10</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_10r10</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_100r100</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_01r01</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_1r10</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_1r10</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_1r10</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_05r1</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_1r1</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_5r10</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_10r10</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_50r100</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_100r100</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_01r01</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_05r1</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_1r1</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_5r10</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_10r10</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_50r100</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_100r100</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_01r01</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_05r1</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_1r1</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_5r10</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_10r10</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_100r100</t>
+  </si>
+  <si>
+    <t>Vgain_05r10</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_05r10</t>
+  </si>
+  <si>
+    <t>UNKNOWN!</t>
+  </si>
+  <si>
+    <t>Vgain_10r100</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_10r100</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_10r100</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_10r100</t>
+  </si>
+  <si>
+    <t>AUTO-range DVm12</t>
   </si>
 </sst>
 </file>
@@ -2455,7 +2479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2520,7 +2544,6 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2536,6 +2559,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2543,8 +2569,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2889,12 +2921,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="68" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="68" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="67" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="67" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3229,38 +3261,38 @@
   <dimension ref="A1:AI94"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="540" topLeftCell="A36"/>
+      <pane ySplit="540" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomLeft" activeCell="AG84" sqref="AG84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="68" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="68" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="68" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="68" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="68" customWidth="1"/>
-    <col min="10" max="12" width="2.140625" style="68" customWidth="1"/>
-    <col min="13" max="13" width="25" style="68" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="68" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="68" customWidth="1"/>
-    <col min="16" max="16" width="25" style="68" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" style="68" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="68" customWidth="1"/>
-    <col min="23" max="27" width="9.140625" style="68" customWidth="1"/>
-    <col min="28" max="28" width="10" style="68" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" style="68" customWidth="1"/>
-    <col min="31" max="31" width="15" style="68" customWidth="1"/>
-    <col min="32" max="32" width="12.140625" style="68" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" style="68" customWidth="1"/>
-    <col min="35" max="35" width="26.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="67" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="67" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="67" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="67" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="67" customWidth="1"/>
+    <col min="10" max="12" width="2.140625" style="67" customWidth="1"/>
+    <col min="13" max="13" width="25" style="67" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="67" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="67" customWidth="1"/>
+    <col min="16" max="16" width="25" style="67" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="67" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="67" customWidth="1"/>
+    <col min="23" max="27" width="9.140625" style="67" customWidth="1"/>
+    <col min="28" max="28" width="10" style="67" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" style="67" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" style="67" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" style="67" customWidth="1"/>
+    <col min="35" max="35" width="26.5703125" style="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3278,7 +3310,7 @@
       <c r="B2" s="15">
         <v>67</v>
       </c>
-      <c r="G2" s="66"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3299,21 +3331,21 @@
       <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="M3" s="74" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="M3" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="74" t="s">
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
       <c r="S3" t="s">
         <v>57</v>
       </c>
@@ -3326,11 +3358,11 @@
       <c r="V3" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="74" t="s">
+      <c r="W3" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
       <c r="Z3" t="s">
         <v>62</v>
       </c>
@@ -3348,7 +3380,7 @@
       <c r="B4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="65" t="s">
         <v>67</v>
       </c>
       <c r="H4" t="s">
@@ -3381,13 +3413,13 @@
       <c r="V4">
         <v>20.92</v>
       </c>
-      <c r="W4" s="69" t="s">
+      <c r="W4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="69" t="s">
+      <c r="X4" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="69" t="s">
+      <c r="Y4" s="68" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3455,11 +3487,11 @@
       <c r="AC5" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="AD5" s="12" t="s">
+      <c r="AD5" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="33"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -3480,7 +3512,7 @@
       <c r="F6" s="7">
         <v>90</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="65" t="s">
         <v>79</v>
       </c>
       <c r="H6" s="10">
@@ -3525,10 +3557,11 @@
       <c r="AC6" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="AF6" s="35"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -3549,7 +3582,7 @@
       <c r="F7" s="7">
         <v>90</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="65" t="s">
         <v>84</v>
       </c>
       <c r="H7" s="10">
@@ -3594,10 +3627,11 @@
       <c r="AC7" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="AF7" s="35"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="80"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -3618,7 +3652,7 @@
       <c r="F8" s="7">
         <v>90</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="65" t="s">
         <v>89</v>
       </c>
       <c r="H8" s="10">
@@ -3663,10 +3697,11 @@
       <c r="AC8" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="AF8" s="35"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -3687,7 +3722,7 @@
       <c r="F9" s="7">
         <v>90</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="65" t="s">
         <v>94</v>
       </c>
       <c r="H9" s="10">
@@ -3732,10 +3767,11 @@
       <c r="AC9" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="AF9" s="35"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="80"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -3756,7 +3792,7 @@
       <c r="F10" s="7">
         <v>90</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="65" t="s">
         <v>99</v>
       </c>
       <c r="H10" s="10">
@@ -3801,10 +3837,11 @@
       <c r="AC10" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AD10" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="AF10" s="35"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="80"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -3825,7 +3862,7 @@
       <c r="F11" s="7">
         <v>90</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="65" t="s">
         <v>104</v>
       </c>
       <c r="H11" s="10">
@@ -3870,10 +3907,11 @@
       <c r="AC11" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AD11" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="AF11" s="35"/>
+      <c r="AE11" s="80"/>
+      <c r="AF11" s="80"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -3894,7 +3932,7 @@
       <c r="F12" s="7">
         <v>90</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="65" t="s">
         <v>109</v>
       </c>
       <c r="H12" s="10">
@@ -3939,10 +3977,11 @@
       <c r="AC12" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AD12" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="AF12" s="35"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="80"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -3963,7 +4002,7 @@
       <c r="F13" s="7">
         <v>90</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="65" t="s">
         <v>113</v>
       </c>
       <c r="H13" s="10">
@@ -4008,10 +4047,11 @@
       <c r="AC13" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AD13" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="AF13" s="35"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="80"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -4032,7 +4072,7 @@
       <c r="F14" s="7">
         <v>90</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="65" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="10">
@@ -4080,8 +4120,10 @@
       <c r="AD14" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="37"/>
+      <c r="AE14" s="84" t="s">
+        <v>687</v>
+      </c>
+      <c r="AF14" s="80"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -4102,7 +4144,7 @@
       <c r="F15" s="7">
         <v>90</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="65" t="s">
         <v>123</v>
       </c>
       <c r="H15" s="10">
@@ -4164,7 +4206,7 @@
       <c r="F16" s="7">
         <v>90</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="65" t="s">
         <v>126</v>
       </c>
       <c r="H16" s="10">
@@ -4288,7 +4330,7 @@
       <c r="F18" s="7">
         <v>90</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="65" t="s">
         <v>132</v>
       </c>
       <c r="H18" s="10">
@@ -4412,7 +4454,7 @@
       <c r="F20" s="7">
         <v>90</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="65" t="s">
         <v>138</v>
       </c>
       <c r="H20" s="10">
@@ -4536,7 +4578,7 @@
       <c r="F22" s="7">
         <v>90</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="65" t="s">
         <v>144</v>
       </c>
       <c r="H22" s="10">
@@ -4660,7 +4702,7 @@
       <c r="F24" s="7">
         <v>90</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="65" t="s">
         <v>150</v>
       </c>
       <c r="H24" s="10">
@@ -5752,7 +5794,7 @@
       <c r="A43" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="58" t="s">
         <v>202</v>
       </c>
       <c r="G43" t="s">
@@ -6183,7 +6225,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>-1</v>
       </c>
@@ -6260,7 +6302,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>1</v>
       </c>
@@ -6337,7 +6379,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>1</v>
       </c>
@@ -6414,7 +6456,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>10</v>
       </c>
@@ -6491,7 +6533,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>-10</v>
       </c>
@@ -6567,8 +6609,11 @@
       <c r="AD53" s="37" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE53" s="84" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>10</v>
       </c>
@@ -6639,7 +6684,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>10</v>
       </c>
@@ -6710,7 +6755,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>1</v>
       </c>
@@ -6781,7 +6826,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>-1</v>
       </c>
@@ -6852,7 +6897,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>1</v>
       </c>
@@ -6923,7 +6968,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>1</v>
       </c>
@@ -6994,7 +7039,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>10</v>
       </c>
@@ -7065,7 +7110,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>-10</v>
       </c>
@@ -7136,7 +7181,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>10</v>
       </c>
@@ -7207,7 +7252,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>10</v>
       </c>
@@ -7278,7 +7323,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>1</v>
       </c>
@@ -7349,7 +7394,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>-1</v>
       </c>
@@ -7420,7 +7465,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>1</v>
       </c>
@@ -7491,7 +7536,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>1</v>
       </c>
@@ -7562,7 +7607,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -7615,11 +7660,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="58" t="s">
         <v>277</v>
       </c>
       <c r="G70" t="s">
@@ -7665,11 +7710,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A71" s="60">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" s="59">
         <v>10</v>
       </c>
-      <c r="B71" s="60">
+      <c r="B71" s="59">
         <v>-1.000013</v>
       </c>
       <c r="C71">
@@ -7690,25 +7735,25 @@
       <c r="H71" s="10">
         <v>-0.99997390192000002</v>
       </c>
-      <c r="I71" s="61">
+      <c r="I71" s="60">
         <v>2.7510384511630302E-7</v>
       </c>
       <c r="J71">
         <v>25569.5</v>
       </c>
-      <c r="K71" s="62">
-        <v>0</v>
-      </c>
-      <c r="L71" s="62">
+      <c r="K71" s="61">
+        <v>0</v>
+      </c>
+      <c r="L71" s="61">
         <v>0</v>
       </c>
       <c r="M71" t="s">
         <v>279</v>
       </c>
-      <c r="N71" s="61">
+      <c r="N71" s="60">
         <v>2.2158380267700001E-7</v>
       </c>
-      <c r="O71" s="61">
+      <c r="O71" s="60">
         <v>4.5524229434266199E-7</v>
       </c>
       <c r="P71" t="s">
@@ -7717,13 +7762,13 @@
       <c r="Q71" s="10">
         <v>10.000070323999999</v>
       </c>
-      <c r="R71" s="61">
+      <c r="R71" s="60">
         <v>2.7764005480391E-7</v>
       </c>
-      <c r="S71" s="63">
+      <c r="S71" s="62">
         <v>3.30422376171148</v>
       </c>
-      <c r="T71" s="63">
+      <c r="T71" s="62">
         <v>3.30422376171148</v>
       </c>
       <c r="U71">
@@ -7751,11 +7796,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A72" s="60">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72" s="59">
         <v>-10</v>
       </c>
-      <c r="B72" s="60">
+      <c r="B72" s="59">
         <v>1.000013</v>
       </c>
       <c r="C72">
@@ -7776,25 +7821,25 @@
       <c r="H72" s="10">
         <v>0.99997431377000001</v>
       </c>
-      <c r="I72" s="61">
+      <c r="I72" s="60">
         <v>5.2279433824287198E-7</v>
       </c>
       <c r="J72">
         <v>25569.5</v>
       </c>
-      <c r="K72" s="62">
-        <v>0</v>
-      </c>
-      <c r="L72" s="62">
+      <c r="K72" s="61">
+        <v>0</v>
+      </c>
+      <c r="L72" s="61">
         <v>0</v>
       </c>
       <c r="M72" t="s">
         <v>282</v>
       </c>
-      <c r="N72" s="61">
+      <c r="N72" s="60">
         <v>-1.3379068932700001E-6</v>
       </c>
-      <c r="O72" s="61">
+      <c r="O72" s="60">
         <v>2.8707757692249003E-7</v>
       </c>
       <c r="P72" t="s">
@@ -7803,13 +7848,13 @@
       <c r="Q72" s="10">
         <v>-10.000069737</v>
       </c>
-      <c r="R72" s="61">
+      <c r="R72" s="60">
         <v>1.9514353696004599E-7</v>
       </c>
-      <c r="S72" s="63">
+      <c r="S72" s="62">
         <v>3.1058107242042299</v>
       </c>
-      <c r="T72" s="63">
+      <c r="T72" s="62">
         <v>3.1058107242042299</v>
       </c>
       <c r="U72">
@@ -7837,11 +7882,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A73" s="60">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A73" s="59">
         <v>10</v>
       </c>
-      <c r="B73" s="60">
+      <c r="B73" s="59">
         <v>-1.000013</v>
       </c>
       <c r="C73">
@@ -7862,25 +7907,25 @@
       <c r="H73" s="10">
         <v>-0.99997428645999997</v>
       </c>
-      <c r="I73" s="61">
+      <c r="I73" s="60">
         <v>2.5492687266466999E-7</v>
       </c>
       <c r="J73">
         <v>25569.5</v>
       </c>
-      <c r="K73" s="62">
-        <v>0</v>
-      </c>
-      <c r="L73" s="62">
+      <c r="K73" s="61">
+        <v>0</v>
+      </c>
+      <c r="L73" s="61">
         <v>0</v>
       </c>
       <c r="M73" t="s">
         <v>285</v>
       </c>
-      <c r="N73" s="61">
+      <c r="N73" s="60">
         <v>7.2233979892999996E-8</v>
       </c>
-      <c r="O73" s="61">
+      <c r="O73" s="60">
         <v>4.7677355076427699E-7</v>
       </c>
       <c r="P73" t="s">
@@ -7889,13 +7934,13 @@
       <c r="Q73" s="10">
         <v>10.000070702</v>
       </c>
-      <c r="R73" s="61">
+      <c r="R73" s="60">
         <v>3.7190859070864599E-7</v>
       </c>
-      <c r="S73" s="63">
+      <c r="S73" s="62">
         <v>3.0398724326303901</v>
       </c>
-      <c r="T73" s="63">
+      <c r="T73" s="62">
         <v>3.0398724326303901</v>
       </c>
       <c r="U73">
@@ -7923,11 +7968,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A74" s="60">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74" s="59">
         <v>10</v>
       </c>
-      <c r="B74" s="60">
+      <c r="B74" s="59">
         <v>-1.0010130129999999</v>
       </c>
       <c r="C74">
@@ -7948,25 +7993,25 @@
       <c r="H74" s="10">
         <v>-1.0009736354000001</v>
       </c>
-      <c r="I74" s="61">
+      <c r="I74" s="60">
         <v>4.0975900229871497E-7</v>
       </c>
       <c r="J74">
         <v>25569.5</v>
       </c>
-      <c r="K74" s="62">
-        <v>0</v>
-      </c>
-      <c r="L74" s="62">
+      <c r="K74" s="61">
+        <v>0</v>
+      </c>
+      <c r="L74" s="61">
         <v>0</v>
       </c>
       <c r="M74" t="s">
         <v>288</v>
       </c>
-      <c r="N74" s="61">
+      <c r="N74" s="60">
         <v>-9.0860737673000003E-4</v>
       </c>
-      <c r="O74" s="61">
+      <c r="O74" s="60">
         <v>4.9068310472496198E-7</v>
       </c>
       <c r="P74" t="s">
@@ -7975,13 +8020,13 @@
       <c r="Q74" s="10">
         <v>10.000070564</v>
       </c>
-      <c r="R74" s="61">
+      <c r="R74" s="60">
         <v>2.62914434561699E-7</v>
       </c>
-      <c r="S74" s="63">
+      <c r="S74" s="62">
         <v>2.8531785027619301</v>
       </c>
-      <c r="T74" s="63">
+      <c r="T74" s="62">
         <v>2.8531785027619301</v>
       </c>
       <c r="U74">
@@ -8009,7 +8054,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -8034,25 +8079,25 @@
       <c r="H75" s="10">
         <v>-9.9946121696000007E-2</v>
       </c>
-      <c r="I75" s="61">
+      <c r="I75" s="60">
         <v>3.8098053021017298E-8</v>
       </c>
       <c r="J75">
         <v>25569.5</v>
       </c>
-      <c r="K75" s="62">
-        <v>0</v>
-      </c>
-      <c r="L75" s="62">
+      <c r="K75" s="61">
+        <v>0</v>
+      </c>
+      <c r="L75" s="61">
         <v>0</v>
       </c>
       <c r="M75" t="s">
         <v>291</v>
       </c>
-      <c r="N75" s="61">
+      <c r="N75" s="60">
         <v>4.6756515731999998E-5</v>
       </c>
-      <c r="O75" s="61">
+      <c r="O75" s="60">
         <v>2.1682419733535401E-7</v>
       </c>
       <c r="P75" t="s">
@@ -8061,13 +8106,13 @@
       <c r="Q75" s="10">
         <v>1.0000117694999999</v>
       </c>
-      <c r="R75" s="61">
+      <c r="R75" s="60">
         <v>1.3390911100119801E-7</v>
       </c>
-      <c r="S75" s="63">
+      <c r="S75" s="62">
         <v>2.7954680013428099</v>
       </c>
-      <c r="T75" s="63">
+      <c r="T75" s="62">
         <v>2.7954680013428099</v>
       </c>
       <c r="U75">
@@ -8095,7 +8140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-1</v>
       </c>
@@ -8120,25 +8165,25 @@
       <c r="H76" s="10">
         <v>9.9946583411999995E-2</v>
       </c>
-      <c r="I76" s="61">
+      <c r="I76" s="60">
         <v>4.5280054723911497E-8</v>
       </c>
       <c r="J76">
         <v>25569.5</v>
       </c>
-      <c r="K76" s="62">
-        <v>0</v>
-      </c>
-      <c r="L76" s="62">
+      <c r="K76" s="61">
+        <v>0</v>
+      </c>
+      <c r="L76" s="61">
         <v>0</v>
       </c>
       <c r="M76" t="s">
         <v>294</v>
       </c>
-      <c r="N76" s="61">
+      <c r="N76" s="60">
         <v>-4.6971243908E-5</v>
       </c>
-      <c r="O76" s="61">
+      <c r="O76" s="60">
         <v>1.5642570879637101E-7</v>
       </c>
       <c r="P76" t="s">
@@ -8147,13 +8192,13 @@
       <c r="Q76" s="10">
         <v>-1.0000112913000001</v>
       </c>
-      <c r="R76" s="61">
+      <c r="R76" s="60">
         <v>9.4771356422582001E-8</v>
       </c>
-      <c r="S76" s="63">
+      <c r="S76" s="62">
         <v>2.6823480941190798</v>
       </c>
-      <c r="T76" s="63">
+      <c r="T76" s="62">
         <v>2.6823480941190798</v>
       </c>
       <c r="U76">
@@ -8181,7 +8226,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -8206,25 +8251,25 @@
       <c r="H77" s="10">
         <v>-9.9946110005000005E-2</v>
       </c>
-      <c r="I77" s="61">
+      <c r="I77" s="60">
         <v>3.1744135601902098E-8</v>
       </c>
       <c r="J77">
         <v>25569.5</v>
       </c>
-      <c r="K77" s="62">
-        <v>0</v>
-      </c>
-      <c r="L77" s="62">
+      <c r="K77" s="61">
+        <v>0</v>
+      </c>
+      <c r="L77" s="61">
         <v>0</v>
       </c>
       <c r="M77" t="s">
         <v>297</v>
       </c>
-      <c r="N77" s="61">
+      <c r="N77" s="60">
         <v>4.6601488054000002E-5</v>
       </c>
-      <c r="O77" s="61">
+      <c r="O77" s="60">
         <v>1.9396567815715201E-7</v>
       </c>
       <c r="P77" t="s">
@@ -8233,13 +8278,13 @@
       <c r="Q77" s="10">
         <v>1.0000117372999999</v>
       </c>
-      <c r="R77" s="61">
+      <c r="R77" s="60">
         <v>5.9518148476465997E-8</v>
       </c>
-      <c r="S77" s="63">
+      <c r="S77" s="62">
         <v>2.6971373638111502</v>
       </c>
-      <c r="T77" s="63">
+      <c r="T77" s="62">
         <v>2.6971373638111502</v>
       </c>
       <c r="U77">
@@ -8267,7 +8312,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -8292,25 +8337,25 @@
       <c r="H78" s="10">
         <v>-0.10004603268999999</v>
       </c>
-      <c r="I78" s="61">
+      <c r="I78" s="60">
         <v>4.2109487056767999E-8</v>
       </c>
       <c r="J78">
         <v>25569.5</v>
       </c>
-      <c r="K78" s="62">
-        <v>0</v>
-      </c>
-      <c r="L78" s="62">
+      <c r="K78" s="61">
+        <v>0</v>
+      </c>
+      <c r="L78" s="61">
         <v>0</v>
       </c>
       <c r="M78" t="s">
         <v>300</v>
       </c>
-      <c r="N78" s="61">
+      <c r="N78" s="60">
         <v>-4.4140252181000001E-5</v>
       </c>
-      <c r="O78" s="61">
+      <c r="O78" s="60">
         <v>1.87553863068239E-7</v>
       </c>
       <c r="P78" t="s">
@@ -8319,13 +8364,13 @@
       <c r="Q78" s="10">
         <v>1.0000117331</v>
       </c>
-      <c r="R78" s="61">
+      <c r="R78" s="60">
         <v>1.04267396598967E-7</v>
       </c>
-      <c r="S78" s="63">
+      <c r="S78" s="62">
         <v>2.5754478591265602</v>
       </c>
-      <c r="T78" s="63">
+      <c r="T78" s="62">
         <v>2.5754478591265602</v>
       </c>
       <c r="U78">
@@ -8353,11 +8398,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A79" s="60">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A79" s="59">
         <v>10</v>
       </c>
-      <c r="B79" s="60">
+      <c r="B79" s="59">
         <v>-1.000013</v>
       </c>
       <c r="C79">
@@ -8378,25 +8423,25 @@
       <c r="H79" s="10">
         <v>-0.99997408894999995</v>
       </c>
-      <c r="I79" s="61">
+      <c r="I79" s="60">
         <v>3.3462343088609299E-7</v>
       </c>
       <c r="J79">
         <v>25569.5</v>
       </c>
-      <c r="K79" s="62">
-        <v>0</v>
-      </c>
-      <c r="L79" s="62">
+      <c r="K79" s="61">
+        <v>0</v>
+      </c>
+      <c r="L79" s="61">
         <v>0</v>
       </c>
       <c r="M79" t="s">
         <v>303</v>
       </c>
-      <c r="N79" s="61">
+      <c r="N79" s="60">
         <v>2.8105963399999901E-9</v>
       </c>
-      <c r="O79" s="61">
+      <c r="O79" s="60">
         <v>5.1298989317256303E-7</v>
       </c>
       <c r="P79" t="s">
@@ -8405,13 +8450,13 @@
       <c r="Q79" s="10">
         <v>10.000070073</v>
       </c>
-      <c r="R79" s="61">
+      <c r="R79" s="60">
         <v>3.2741563828606199E-7</v>
       </c>
-      <c r="S79" s="63">
+      <c r="S79" s="62">
         <v>2.6555833613086302</v>
       </c>
-      <c r="T79" s="63">
+      <c r="T79" s="62">
         <v>2.6555833613086302</v>
       </c>
       <c r="U79">
@@ -8439,11 +8484,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A80" s="60">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A80" s="59">
         <v>-10</v>
       </c>
-      <c r="B80" s="60">
+      <c r="B80" s="59">
         <v>1.000013</v>
       </c>
       <c r="C80">
@@ -8464,25 +8509,25 @@
       <c r="H80" s="10">
         <v>0.99997435851000005</v>
       </c>
-      <c r="I80" s="61">
+      <c r="I80" s="60">
         <v>4.9861047211067201E-7</v>
       </c>
       <c r="J80">
         <v>25569.5</v>
       </c>
-      <c r="K80" s="62">
-        <v>0</v>
-      </c>
-      <c r="L80" s="62">
+      <c r="K80" s="61">
+        <v>0</v>
+      </c>
+      <c r="L80" s="61">
         <v>0</v>
       </c>
       <c r="M80" t="s">
         <v>306</v>
       </c>
-      <c r="N80" s="61">
+      <c r="N80" s="60">
         <v>-1.1398370235499999E-6</v>
       </c>
-      <c r="O80" s="61">
+      <c r="O80" s="60">
         <v>4.2684043643897802E-7</v>
       </c>
       <c r="P80" t="s">
@@ -8491,13 +8536,13 @@
       <c r="Q80" s="10">
         <v>-10.000070263</v>
       </c>
-      <c r="R80" s="61">
+      <c r="R80" s="60">
         <v>2.12087246465164E-7</v>
       </c>
-      <c r="S80" s="63">
+      <c r="S80" s="62">
         <v>2.8355510116885898</v>
       </c>
-      <c r="T80" s="63">
+      <c r="T80" s="62">
         <v>2.8355510116885898</v>
       </c>
       <c r="U80">
@@ -8524,12 +8569,15 @@
       <c r="AD80" s="37" t="s">
         <v>117</v>
       </c>
+      <c r="AE80" s="84" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="60">
+      <c r="A81" s="59">
         <v>10</v>
       </c>
-      <c r="B81" s="60">
+      <c r="B81" s="59">
         <v>-1.000013</v>
       </c>
       <c r="C81">
@@ -8550,25 +8598,25 @@
       <c r="H81" s="10">
         <v>-0.99997435212999997</v>
       </c>
-      <c r="I81" s="61">
+      <c r="I81" s="60">
         <v>2.9350586382013501E-7</v>
       </c>
       <c r="J81">
         <v>25569.5</v>
       </c>
-      <c r="K81" s="62">
-        <v>0</v>
-      </c>
-      <c r="L81" s="62">
+      <c r="K81" s="61">
+        <v>0</v>
+      </c>
+      <c r="L81" s="61">
         <v>0</v>
       </c>
       <c r="M81" t="s">
         <v>309</v>
       </c>
-      <c r="N81" s="61">
+      <c r="N81" s="60">
         <v>1.03307129259E-7</v>
       </c>
-      <c r="O81" s="61">
+      <c r="O81" s="60">
         <v>4.6013822335680601E-7</v>
       </c>
       <c r="P81" t="s">
@@ -8577,13 +8625,13 @@
       <c r="Q81" s="10">
         <v>10.000069989</v>
       </c>
-      <c r="R81" s="61">
+      <c r="R81" s="60">
         <v>1.99822421126527E-7</v>
       </c>
-      <c r="S81" s="63">
+      <c r="S81" s="62">
         <v>2.7454664754173401</v>
       </c>
-      <c r="T81" s="63">
+      <c r="T81" s="62">
         <v>2.7454664754173401</v>
       </c>
       <c r="U81">
@@ -8606,10 +8654,10 @@
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="60">
+      <c r="A82" s="59">
         <v>10</v>
       </c>
-      <c r="B82" s="60">
+      <c r="B82" s="59">
         <v>-1.0010130129999999</v>
       </c>
       <c r="C82">
@@ -8630,25 +8678,25 @@
       <c r="H82" s="10">
         <v>-1.0009736412000001</v>
       </c>
-      <c r="I82" s="61">
+      <c r="I82" s="60">
         <v>4.5899385619731698E-7</v>
       </c>
       <c r="J82">
         <v>25569.5</v>
       </c>
-      <c r="K82" s="62">
-        <v>0</v>
-      </c>
-      <c r="L82" s="62">
+      <c r="K82" s="61">
+        <v>0</v>
+      </c>
+      <c r="L82" s="61">
         <v>0</v>
       </c>
       <c r="M82" t="s">
         <v>312</v>
       </c>
-      <c r="N82" s="61">
+      <c r="N82" s="60">
         <v>-9.0860630510000001E-4</v>
       </c>
-      <c r="O82" s="61">
+      <c r="O82" s="60">
         <v>3.9393623481442402E-7</v>
       </c>
       <c r="P82" t="s">
@@ -8657,13 +8705,13 @@
       <c r="Q82" s="10">
         <v>10.000070911</v>
       </c>
-      <c r="R82" s="61">
+      <c r="R82" s="60">
         <v>2.53473864659635E-7</v>
       </c>
-      <c r="S82" s="63">
+      <c r="S82" s="62">
         <v>2.72318185979797</v>
       </c>
-      <c r="T82" s="63">
+      <c r="T82" s="62">
         <v>2.72318185979797</v>
       </c>
       <c r="U82">
@@ -8710,25 +8758,25 @@
       <c r="H83" s="10">
         <v>-9.9946076304000001E-2</v>
       </c>
-      <c r="I83" s="61">
+      <c r="I83" s="60">
         <v>6.3662450346140605E-8</v>
       </c>
       <c r="J83">
         <v>25569.5</v>
       </c>
-      <c r="K83" s="62">
-        <v>0</v>
-      </c>
-      <c r="L83" s="62">
+      <c r="K83" s="61">
+        <v>0</v>
+      </c>
+      <c r="L83" s="61">
         <v>0</v>
       </c>
       <c r="M83" t="s">
         <v>315</v>
       </c>
-      <c r="N83" s="61">
+      <c r="N83" s="60">
         <v>4.6704392011000001E-5</v>
       </c>
-      <c r="O83" s="61">
+      <c r="O83" s="60">
         <v>3.3168177654994901E-7</v>
       </c>
       <c r="P83" t="s">
@@ -8737,13 +8785,13 @@
       <c r="Q83" s="10">
         <v>1.0000117990999999</v>
       </c>
-      <c r="R83" s="61">
+      <c r="R83" s="60">
         <v>8.2203953717264893E-8</v>
       </c>
-      <c r="S83" s="63">
+      <c r="S83" s="62">
         <v>2.56677449873348</v>
       </c>
-      <c r="T83" s="63">
+      <c r="T83" s="62">
         <v>2.56677449873348</v>
       </c>
       <c r="U83">
@@ -8790,25 +8838,25 @@
       <c r="H84" s="10">
         <v>9.9946588219000002E-2</v>
       </c>
-      <c r="I84" s="61">
+      <c r="I84" s="60">
         <v>3.6719657529448102E-8</v>
       </c>
       <c r="J84">
         <v>25569.5</v>
       </c>
-      <c r="K84" s="62">
-        <v>0</v>
-      </c>
-      <c r="L84" s="62">
+      <c r="K84" s="61">
+        <v>0</v>
+      </c>
+      <c r="L84" s="61">
         <v>0</v>
       </c>
       <c r="M84" t="s">
         <v>318</v>
       </c>
-      <c r="N84" s="61">
+      <c r="N84" s="60">
         <v>-4.7038864586000001E-5</v>
       </c>
-      <c r="O84" s="61">
+      <c r="O84" s="60">
         <v>2.00341581711084E-7</v>
       </c>
       <c r="P84" t="s">
@@ -8817,13 +8865,13 @@
       <c r="Q84" s="10">
         <v>-1.0000113642999999</v>
       </c>
-      <c r="R84" s="61">
+      <c r="R84" s="60">
         <v>9.36152230769216E-8</v>
       </c>
-      <c r="S84" s="63">
+      <c r="S84" s="62">
         <v>2.6460676900540201</v>
       </c>
-      <c r="T84" s="63">
+      <c r="T84" s="62">
         <v>2.6460676900540201</v>
       </c>
       <c r="U84">
@@ -8870,25 +8918,25 @@
       <c r="H85" s="10">
         <v>-9.9946113907999998E-2</v>
       </c>
-      <c r="I85" s="61">
+      <c r="I85" s="60">
         <v>5.4829127078265399E-8</v>
       </c>
       <c r="J85">
         <v>25569.5</v>
       </c>
-      <c r="K85" s="62">
-        <v>0</v>
-      </c>
-      <c r="L85" s="62">
+      <c r="K85" s="61">
+        <v>0</v>
+      </c>
+      <c r="L85" s="61">
         <v>0</v>
       </c>
       <c r="M85" t="s">
         <v>321</v>
       </c>
-      <c r="N85" s="61">
+      <c r="N85" s="60">
         <v>4.6571319508999999E-5</v>
       </c>
-      <c r="O85" s="61">
+      <c r="O85" s="60">
         <v>2.8801180570090799E-7</v>
       </c>
       <c r="P85" t="s">
@@ -8897,13 +8945,13 @@
       <c r="Q85" s="10">
         <v>1.0000117108</v>
       </c>
-      <c r="R85" s="61">
+      <c r="R85" s="60">
         <v>6.3963739705855804E-8</v>
       </c>
-      <c r="S85" s="63">
+      <c r="S85" s="62">
         <v>2.6718070009460702</v>
       </c>
-      <c r="T85" s="63">
+      <c r="T85" s="62">
         <v>2.6718070009460702</v>
       </c>
       <c r="U85">
@@ -8950,25 +8998,25 @@
       <c r="H86" s="10">
         <v>-0.10004605212000001</v>
       </c>
-      <c r="I86" s="61">
+      <c r="I86" s="60">
         <v>5.4222334880300101E-8</v>
       </c>
       <c r="J86">
         <v>25569.5</v>
       </c>
-      <c r="K86" s="62">
-        <v>0</v>
-      </c>
-      <c r="L86" s="62">
+      <c r="K86" s="61">
+        <v>0</v>
+      </c>
+      <c r="L86" s="61">
         <v>0</v>
       </c>
       <c r="M86" t="s">
         <v>324</v>
       </c>
-      <c r="N86" s="61">
+      <c r="N86" s="60">
         <v>-4.4471870742000003E-5</v>
       </c>
-      <c r="O86" s="61">
+      <c r="O86" s="60">
         <v>2.0403248827810599E-7</v>
       </c>
       <c r="P86" t="s">
@@ -8977,13 +9025,13 @@
       <c r="Q86" s="10">
         <v>1.0000116711</v>
       </c>
-      <c r="R86" s="61">
+      <c r="R86" s="60">
         <v>6.6431092114188205E-8</v>
       </c>
-      <c r="S86" s="63">
+      <c r="S86" s="62">
         <v>2.48840907010102</v>
       </c>
-      <c r="T86" s="63">
+      <c r="T86" s="62">
         <v>2.48840907010102</v>
       </c>
       <c r="U86">
@@ -9006,10 +9054,10 @@
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" s="60">
+      <c r="A87" s="59">
         <v>10</v>
       </c>
-      <c r="B87" s="60">
+      <c r="B87" s="59">
         <v>-1.000013</v>
       </c>
       <c r="C87">
@@ -9030,25 +9078,25 @@
       <c r="H87" s="10">
         <v>-0.99997416585999999</v>
       </c>
-      <c r="I87" s="61">
+      <c r="I87" s="60">
         <v>4.0900926443948899E-7</v>
       </c>
       <c r="J87">
         <v>25569.5</v>
       </c>
-      <c r="K87" s="62">
-        <v>0</v>
-      </c>
-      <c r="L87" s="62">
+      <c r="K87" s="61">
+        <v>0</v>
+      </c>
+      <c r="L87" s="61">
         <v>0</v>
       </c>
       <c r="M87" t="s">
         <v>327</v>
       </c>
-      <c r="N87" s="61">
+      <c r="N87" s="60">
         <v>-2.3086991506299999E-7</v>
       </c>
-      <c r="O87" s="61">
+      <c r="O87" s="60">
         <v>5.1511912788819598E-7</v>
       </c>
       <c r="P87" t="s">
@@ -9057,13 +9105,13 @@
       <c r="Q87" s="10">
         <v>10.000069754</v>
       </c>
-      <c r="R87" s="61">
+      <c r="R87" s="60">
         <v>1.94638125648343E-7</v>
       </c>
-      <c r="S87" s="63">
+      <c r="S87" s="62">
         <v>2.3544755394146502</v>
       </c>
-      <c r="T87" s="63">
+      <c r="T87" s="62">
         <v>2.3544755394146502</v>
       </c>
       <c r="U87">
@@ -9086,10 +9134,10 @@
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="60">
+      <c r="A88" s="59">
         <v>-10</v>
       </c>
-      <c r="B88" s="60">
+      <c r="B88" s="59">
         <v>1.000013</v>
       </c>
       <c r="C88">
@@ -9110,25 +9158,25 @@
       <c r="H88" s="10">
         <v>0.99997453080999998</v>
       </c>
-      <c r="I88" s="61">
+      <c r="I88" s="60">
         <v>2.8189452088333898E-7</v>
       </c>
       <c r="J88">
         <v>25569.5</v>
       </c>
-      <c r="K88" s="62">
-        <v>0</v>
-      </c>
-      <c r="L88" s="62">
+      <c r="K88" s="61">
+        <v>0</v>
+      </c>
+      <c r="L88" s="61">
         <v>0</v>
       </c>
       <c r="M88" t="s">
         <v>330</v>
       </c>
-      <c r="N88" s="61">
+      <c r="N88" s="60">
         <v>-8.9333923857000004E-7</v>
       </c>
-      <c r="O88" s="61">
+      <c r="O88" s="60">
         <v>4.0854333845968803E-7</v>
       </c>
       <c r="P88" t="s">
@@ -9137,13 +9185,13 @@
       <c r="Q88" s="10">
         <v>-10.000069183000001</v>
       </c>
-      <c r="R88" s="61">
+      <c r="R88" s="60">
         <v>2.4174573419124298E-7</v>
       </c>
-      <c r="S88" s="63">
+      <c r="S88" s="62">
         <v>2.4806695760978998</v>
       </c>
-      <c r="T88" s="63">
+      <c r="T88" s="62">
         <v>2.4806695760978998</v>
       </c>
       <c r="U88">
@@ -9166,10 +9214,10 @@
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="60">
+      <c r="A89" s="59">
         <v>10</v>
       </c>
-      <c r="B89" s="60">
+      <c r="B89" s="59">
         <v>-1.000013</v>
       </c>
       <c r="C89">
@@ -9190,25 +9238,25 @@
       <c r="H89" s="10">
         <v>-0.99997412939999997</v>
       </c>
-      <c r="I89" s="61">
+      <c r="I89" s="60">
         <v>3.5612418339122702E-7</v>
       </c>
       <c r="J89">
         <v>25569.5</v>
       </c>
-      <c r="K89" s="62">
-        <v>0</v>
-      </c>
-      <c r="L89" s="62">
+      <c r="K89" s="61">
+        <v>0</v>
+      </c>
+      <c r="L89" s="61">
         <v>0</v>
       </c>
       <c r="M89" t="s">
         <v>333</v>
       </c>
-      <c r="N89" s="61">
+      <c r="N89" s="60">
         <v>-2.37261623069E-7</v>
       </c>
-      <c r="O89" s="61">
+      <c r="O89" s="60">
         <v>5.1827690082452001E-7</v>
       </c>
       <c r="P89" t="s">
@@ -9217,13 +9265,13 @@
       <c r="Q89" s="10">
         <v>10.000070204</v>
       </c>
-      <c r="R89" s="61">
+      <c r="R89" s="60">
         <v>2.7255091268450402E-7</v>
       </c>
-      <c r="S89" s="63">
+      <c r="S89" s="62">
         <v>2.5548844874416301</v>
       </c>
-      <c r="T89" s="63">
+      <c r="T89" s="62">
         <v>2.5548844874416301</v>
       </c>
       <c r="U89">
@@ -9246,10 +9294,10 @@
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A90" s="60">
+      <c r="A90" s="59">
         <v>10</v>
       </c>
-      <c r="B90" s="60">
+      <c r="B90" s="59">
         <v>-1.0010130129999999</v>
       </c>
       <c r="C90">
@@ -9270,25 +9318,25 @@
       <c r="H90" s="10">
         <v>-1.0009733151</v>
       </c>
-      <c r="I90" s="61">
+      <c r="I90" s="60">
         <v>3.0025037888174002E-7</v>
       </c>
       <c r="J90">
         <v>25569.5</v>
       </c>
-      <c r="K90" s="62">
-        <v>0</v>
-      </c>
-      <c r="L90" s="62">
+      <c r="K90" s="61">
+        <v>0</v>
+      </c>
+      <c r="L90" s="61">
         <v>0</v>
       </c>
       <c r="M90" t="s">
         <v>336</v>
       </c>
-      <c r="N90" s="61">
+      <c r="N90" s="60">
         <v>-9.0884182129999998E-4</v>
       </c>
-      <c r="O90" s="61">
+      <c r="O90" s="60">
         <v>1.90475898397676E-7</v>
       </c>
       <c r="P90" t="s">
@@ -9297,13 +9345,13 @@
       <c r="Q90" s="10">
         <v>10.000069763000001</v>
       </c>
-      <c r="R90" s="61">
+      <c r="R90" s="60">
         <v>2.8312717961466497E-7</v>
       </c>
-      <c r="S90" s="63">
+      <c r="S90" s="62">
         <v>2.6606433301797501</v>
       </c>
-      <c r="T90" s="63">
+      <c r="T90" s="62">
         <v>2.6606433301797501</v>
       </c>
       <c r="U90">
@@ -9350,25 +9398,25 @@
       <c r="H91" s="10">
         <v>-9.9946108960999994E-2</v>
       </c>
-      <c r="I91" s="61">
+      <c r="I91" s="60">
         <v>3.2036387886534498E-8</v>
       </c>
       <c r="J91">
         <v>25569.5</v>
       </c>
-      <c r="K91" s="62">
-        <v>0</v>
-      </c>
-      <c r="L91" s="62">
+      <c r="K91" s="61">
+        <v>0</v>
+      </c>
+      <c r="L91" s="61">
         <v>0</v>
       </c>
       <c r="M91" t="s">
         <v>339</v>
       </c>
-      <c r="N91" s="61">
+      <c r="N91" s="60">
         <v>4.6694991784000003E-5</v>
       </c>
-      <c r="O91" s="61">
+      <c r="O91" s="60">
         <v>2.2205019114583301E-7</v>
       </c>
       <c r="P91" t="s">
@@ -9377,13 +9425,13 @@
       <c r="Q91" s="10">
         <v>1.000011703</v>
       </c>
-      <c r="R91" s="61">
+      <c r="R91" s="60">
         <v>9.3926567038818496E-8</v>
       </c>
-      <c r="S91" s="63">
+      <c r="S91" s="62">
         <v>2.79169591357158</v>
       </c>
-      <c r="T91" s="63">
+      <c r="T91" s="62">
         <v>2.79169591357158</v>
       </c>
       <c r="U91">
@@ -9430,25 +9478,25 @@
       <c r="H92" s="10">
         <v>9.9946558662000001E-2</v>
       </c>
-      <c r="I92" s="61">
+      <c r="I92" s="60">
         <v>3.4932058569709698E-8</v>
       </c>
       <c r="J92">
         <v>25569.5</v>
       </c>
-      <c r="K92" s="62">
-        <v>0</v>
-      </c>
-      <c r="L92" s="62">
+      <c r="K92" s="61">
+        <v>0</v>
+      </c>
+      <c r="L92" s="61">
         <v>0</v>
       </c>
       <c r="M92" t="s">
         <v>342</v>
       </c>
-      <c r="N92" s="61">
+      <c r="N92" s="60">
         <v>-4.7209528048000001E-5</v>
       </c>
-      <c r="O92" s="61">
+      <c r="O92" s="60">
         <v>2.3909441489875699E-7</v>
       </c>
       <c r="P92" t="s">
@@ -9457,13 +9505,13 @@
       <c r="Q92" s="10">
         <v>-1.0000113306</v>
       </c>
-      <c r="R92" s="61">
+      <c r="R92" s="60">
         <v>8.8339345700952906E-8</v>
       </c>
-      <c r="S92" s="63">
+      <c r="S92" s="62">
         <v>2.9755088961455098</v>
       </c>
-      <c r="T92" s="63">
+      <c r="T92" s="62">
         <v>2.9755088961455098</v>
       </c>
       <c r="U92">
@@ -9510,25 +9558,25 @@
       <c r="H93" s="10">
         <v>-9.9946095858999995E-2</v>
       </c>
-      <c r="I93" s="61">
+      <c r="I93" s="60">
         <v>2.11008234192052E-8</v>
       </c>
       <c r="J93">
         <v>25569.5</v>
       </c>
-      <c r="K93" s="62">
-        <v>0</v>
-      </c>
-      <c r="L93" s="62">
+      <c r="K93" s="61">
+        <v>0</v>
+      </c>
+      <c r="L93" s="61">
         <v>0</v>
       </c>
       <c r="M93" t="s">
         <v>345</v>
       </c>
-      <c r="N93" s="61">
+      <c r="N93" s="60">
         <v>4.6534205521999998E-5</v>
       </c>
-      <c r="O93" s="61">
+      <c r="O93" s="60">
         <v>2.6517975931865599E-7</v>
       </c>
       <c r="P93" t="s">
@@ -9537,13 +9585,13 @@
       <c r="Q93" s="10">
         <v>1.0000116158000001</v>
       </c>
-      <c r="R93" s="61">
+      <c r="R93" s="60">
         <v>1.12188947744649E-7</v>
       </c>
-      <c r="S93" s="63">
+      <c r="S93" s="62">
         <v>2.86328012939848</v>
       </c>
-      <c r="T93" s="63">
+      <c r="T93" s="62">
         <v>2.86328012939848</v>
       </c>
       <c r="U93">
@@ -9590,25 +9638,25 @@
       <c r="H94" s="10">
         <v>-0.10004608488</v>
       </c>
-      <c r="I94" s="61">
+      <c r="I94" s="60">
         <v>2.9815391999730999E-8</v>
       </c>
       <c r="J94">
         <v>25569.5</v>
       </c>
-      <c r="K94" s="62">
-        <v>0</v>
-      </c>
-      <c r="L94" s="62">
+      <c r="K94" s="61">
+        <v>0</v>
+      </c>
+      <c r="L94" s="61">
         <v>0</v>
       </c>
       <c r="M94" t="s">
         <v>348</v>
       </c>
-      <c r="N94" s="61">
+      <c r="N94" s="60">
         <v>-4.4300507145999999E-5</v>
       </c>
-      <c r="O94" s="61">
+      <c r="O94" s="60">
         <v>2.20661266958143E-7</v>
       </c>
       <c r="P94" t="s">
@@ -9617,13 +9665,13 @@
       <c r="Q94" s="10">
         <v>1.0000115987</v>
       </c>
-      <c r="R94" s="61">
+      <c r="R94" s="60">
         <v>8.8079566315561694E-8</v>
       </c>
-      <c r="S94" s="63">
+      <c r="S94" s="62">
         <v>2.8340006714072099</v>
       </c>
-      <c r="T94" s="63">
+      <c r="T94" s="62">
         <v>2.8340006714072099</v>
       </c>
       <c r="U94">
@@ -9669,21 +9717,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="68" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="0" style="68" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="0" style="68" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="67" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="0" style="67" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="0" style="67" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10139,10 +10187,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="58" t="s">
         <v>277</v>
       </c>
     </row>
@@ -10551,10 +10599,10 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="58" t="s">
         <v>202</v>
       </c>
     </row>
@@ -11005,34 +11053,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U166"/>
+  <dimension ref="A1:U171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="540" topLeftCell="A29" activePane="bottomLeft"/>
+    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="540" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomLeft" activeCell="O90" sqref="O90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="68" customWidth="1"/>
-    <col min="6" max="6" width="71.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="68" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="68" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="68" customWidth="1"/>
-    <col min="14" max="14" width="27.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="74" style="68" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="0" style="68" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="87" style="68" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="71.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="67" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="67" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="67" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="74" style="67" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="0" style="67" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="87" style="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12083,19 +12131,19 @@
       <c r="B32" t="s">
         <v>391</v>
       </c>
-      <c r="C32" s="75">
+      <c r="C32" s="72">
         <v>8.9500000000000007E-6</v>
       </c>
-      <c r="D32" s="75">
+      <c r="D32" s="72">
         <v>1.6999999999999999E-7</v>
       </c>
-      <c r="E32" s="76">
+      <c r="E32" s="73">
         <v>8.4</v>
       </c>
-      <c r="F32" s="76" t="s">
+      <c r="F32" s="73" t="s">
         <v>467</v>
       </c>
-      <c r="G32" s="76" t="s">
+      <c r="G32" s="73" t="s">
         <v>468</v>
       </c>
       <c r="I32" t="s">
@@ -12179,7 +12227,7 @@
       <c r="B35" t="s">
         <v>401</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="65">
         <v>42797.571519740217</v>
       </c>
       <c r="G35" t="s">
@@ -12200,19 +12248,19 @@
       <c r="O35" s="26"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="66" t="s">
         <v>405</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67" t="s">
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66" t="s">
         <v>458</v>
       </c>
       <c r="I36" t="s">
@@ -12700,6 +12748,7 @@
         <v>487</v>
       </c>
       <c r="N63" s="38"/>
+      <c r="O63" s="66"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I64" s="12" t="s">
@@ -12720,7 +12769,9 @@
       <c r="N64" t="s">
         <v>491</v>
       </c>
-      <c r="O64" s="12"/>
+      <c r="O64" s="30" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="65" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
@@ -12741,6 +12792,9 @@
       <c r="N65" t="s">
         <v>492</v>
       </c>
+      <c r="O65" s="30" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="66" spans="9:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
@@ -12761,6 +12815,9 @@
       <c r="N66" t="s">
         <v>492</v>
       </c>
+      <c r="O66" s="30" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
@@ -12781,36 +12838,39 @@
       <c r="N67" t="s">
         <v>493</v>
       </c>
+      <c r="O67" s="30" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
         <v>490</v>
       </c>
-      <c r="J68" t="s">
-        <v>494</v>
-      </c>
-      <c r="K68" s="53">
+      <c r="J68" s="71" t="s">
+        <v>680</v>
+      </c>
+      <c r="K68" s="83">
         <v>1.000001000001</v>
       </c>
-      <c r="L68" s="54">
+      <c r="L68" s="81">
         <v>1.414216390804462E-6</v>
       </c>
-      <c r="M68" s="55">
+      <c r="M68" s="82">
         <v>120.87512900978579</v>
       </c>
       <c r="N68" t="s">
-        <v>495</v>
-      </c>
-      <c r="O68" t="s">
-        <v>496</v>
+        <v>657</v>
+      </c>
+      <c r="O68" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="69" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
         <v>490</v>
       </c>
-      <c r="J69" t="s">
-        <v>497</v>
+      <c r="J69" s="71" t="s">
+        <v>638</v>
       </c>
       <c r="K69" s="53">
         <v>1.0000013000016901</v>
@@ -12822,18 +12882,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N69" t="s">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="O69" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
         <v>490</v>
       </c>
-      <c r="J70" t="s">
-        <v>499</v>
+      <c r="J70" s="71" t="s">
+        <v>639</v>
       </c>
       <c r="K70" s="53">
         <v>1.00000120000144</v>
@@ -12845,125 +12905,125 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N70" t="s">
-        <v>500</v>
+        <v>662</v>
       </c>
       <c r="O70" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I71" t="s">
+      <c r="I71" s="71" t="s">
         <v>490</v>
       </c>
-      <c r="J71" t="s">
-        <v>501</v>
-      </c>
-      <c r="K71" s="53">
-        <v>1.00000120000144</v>
-      </c>
-      <c r="L71" s="54">
-        <v>3.5355423912293848E-7</v>
-      </c>
-      <c r="M71" s="55">
+      <c r="J71" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="K71" s="77">
+        <v>1.0000010500011025</v>
+      </c>
+      <c r="L71" s="78">
+        <v>8.1317450603009567E-7</v>
+      </c>
+      <c r="M71" s="79">
         <v>120.87512900978579</v>
       </c>
-      <c r="N71" t="s">
-        <v>502</v>
-      </c>
-      <c r="O71" t="s">
-        <v>496</v>
+      <c r="N71" s="71" t="s">
+        <v>658</v>
+      </c>
+      <c r="O71" s="71" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
         <v>490</v>
       </c>
-      <c r="J72" t="s">
-        <v>503</v>
+      <c r="J72" s="71" t="s">
+        <v>640</v>
       </c>
       <c r="K72" s="53">
-        <v>1.0000011500013219</v>
+        <v>1.00000120000144</v>
       </c>
       <c r="L72" s="54">
-        <v>2.4748794263723231E-7</v>
+        <v>3.5355423912293848E-7</v>
       </c>
       <c r="M72" s="55">
         <v>120.87512900978579</v>
       </c>
       <c r="N72" t="s">
-        <v>504</v>
+        <v>663</v>
       </c>
       <c r="O72" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
         <v>490</v>
       </c>
-      <c r="J73" t="s">
-        <v>505</v>
+      <c r="J73" s="71" t="s">
+        <v>641</v>
       </c>
       <c r="K73" s="53">
-        <v>1.000001000001</v>
+        <v>1.0000011500013219</v>
       </c>
       <c r="L73" s="54">
-        <v>8.4852983448267751E-7</v>
+        <v>2.4748794263723231E-7</v>
       </c>
       <c r="M73" s="55">
         <v>120.87512900978579</v>
       </c>
       <c r="N73" t="s">
-        <v>506</v>
+        <v>664</v>
       </c>
       <c r="O73" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="74" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="74" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
         <v>490</v>
       </c>
-      <c r="J74" t="s">
-        <v>507</v>
-      </c>
-      <c r="K74" s="53">
-        <v>1.00000070000049</v>
-      </c>
-      <c r="L74" s="54">
-        <v>7.0710777113708063E-7</v>
-      </c>
-      <c r="M74" s="55">
+      <c r="J74" s="71" t="s">
+        <v>683</v>
+      </c>
+      <c r="K74" s="83">
+        <v>1.000001000001</v>
+      </c>
+      <c r="L74" s="81">
+        <v>8.4852983448267751E-7</v>
+      </c>
+      <c r="M74" s="82">
         <v>120.87512900978579</v>
       </c>
       <c r="N74" t="s">
-        <v>508</v>
-      </c>
-      <c r="O74" t="s">
-        <v>496</v>
+        <v>665</v>
+      </c>
+      <c r="O74" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="75" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I75" t="s">
         <v>490</v>
       </c>
-      <c r="J75" t="s">
-        <v>509</v>
-      </c>
-      <c r="K75" s="56">
-        <v>0</v>
-      </c>
-      <c r="L75" s="57">
-        <v>2.9000000000000002E-8</v>
+      <c r="J75" s="71" t="s">
+        <v>642</v>
+      </c>
+      <c r="K75" s="53">
+        <v>1.00000070000049</v>
+      </c>
+      <c r="L75" s="54">
+        <v>7.0710777113708063E-7</v>
       </c>
       <c r="M75" s="55">
-        <v>18</v>
+        <v>120.87512900978579</v>
       </c>
       <c r="N75" t="s">
-        <v>510</v>
+        <v>666</v>
       </c>
       <c r="O75" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12971,7 +13031,7 @@
         <v>490</v>
       </c>
       <c r="J76" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="K76" s="56">
         <v>0</v>
@@ -12983,21 +13043,33 @@
         <v>18</v>
       </c>
       <c r="N76" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="O76" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="77" spans="9:15" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="77" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
         <v>490</v>
       </c>
       <c r="J77" t="s">
-        <v>398</v>
-      </c>
-      <c r="K77" s="30">
-        <v>0</v>
+        <v>498</v>
+      </c>
+      <c r="K77" s="56">
+        <v>0</v>
+      </c>
+      <c r="L77" s="57">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="M77" s="55">
+        <v>18</v>
+      </c>
+      <c r="N77" t="s">
+        <v>499</v>
+      </c>
+      <c r="O77" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.25">
@@ -13005,10 +13077,10 @@
         <v>490</v>
       </c>
       <c r="J78" t="s">
-        <v>402</v>
-      </c>
-      <c r="K78" s="30" t="s">
-        <v>514</v>
+        <v>398</v>
+      </c>
+      <c r="K78" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.25">
@@ -13016,10 +13088,10 @@
         <v>490</v>
       </c>
       <c r="J79" t="s">
-        <v>484</v>
-      </c>
-      <c r="K79" t="s">
-        <v>515</v>
+        <v>402</v>
+      </c>
+      <c r="K79" s="30" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.25">
@@ -13027,761 +13099,776 @@
         <v>490</v>
       </c>
       <c r="J80" t="s">
+        <v>484</v>
+      </c>
+      <c r="K80" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="81" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>490</v>
+      </c>
+      <c r="J81" t="s">
         <v>406</v>
       </c>
-      <c r="K80" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="81" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I81" s="41" t="s">
+      <c r="K81" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="82" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I82" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="J81" s="41" t="s">
+      <c r="J82" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="K81" s="41" t="s">
-        <v>517</v>
-      </c>
-      <c r="L81" s="41"/>
-      <c r="M81" s="41"/>
-      <c r="N81" s="41"/>
-      <c r="O81" s="41"/>
-    </row>
-    <row r="82" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I82" t="s">
-        <v>518</v>
-      </c>
-      <c r="J82" t="s">
-        <v>472</v>
-      </c>
-      <c r="K82" s="30">
-        <v>0</v>
-      </c>
-      <c r="L82" s="30">
-        <v>0</v>
-      </c>
-      <c r="M82" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="N82" t="s">
-        <v>519</v>
-      </c>
+      <c r="K82" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="41"/>
+      <c r="O82" s="41"/>
     </row>
     <row r="83" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="J83" t="s">
-        <v>473</v>
-      </c>
-      <c r="K83" s="29">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L83" s="29">
-        <v>1.9999999999999999E-7</v>
+        <v>472</v>
+      </c>
+      <c r="K83" s="30">
+        <v>0</v>
+      </c>
+      <c r="L83" s="30">
+        <v>0</v>
       </c>
       <c r="M83" s="30" t="s">
         <v>379</v>
       </c>
       <c r="N83" t="s">
-        <v>520</v>
+        <v>505</v>
+      </c>
+      <c r="O83" s="30" t="s">
+        <v>682</v>
       </c>
       <c r="P83" s="40"/>
     </row>
     <row r="84" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="J84" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K84" s="29">
-        <v>-5.63E-5</v>
+        <v>-5.6799999999999998E-5</v>
       </c>
       <c r="L84" s="29">
-        <v>5.9999999999999997E-7</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="M84" s="30" t="s">
         <v>379</v>
       </c>
       <c r="N84" t="s">
-        <v>521</v>
+        <v>506</v>
+      </c>
+      <c r="O84" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="85" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="J85" t="s">
-        <v>494</v>
-      </c>
-      <c r="K85" s="53">
-        <v>1</v>
-      </c>
-      <c r="L85" s="54">
-        <v>1.4142135623730949E-6</v>
-      </c>
-      <c r="M85" s="55">
-        <v>120.87512900978579</v>
+        <v>474</v>
+      </c>
+      <c r="K85" s="29">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L85" s="29">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M85" s="30" t="s">
+        <v>379</v>
       </c>
       <c r="N85" t="s">
-        <v>522</v>
-      </c>
-      <c r="O85" t="s">
-        <v>523</v>
+        <v>507</v>
+      </c>
+      <c r="O85" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="86" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
-        <v>518</v>
-      </c>
-      <c r="J86" t="s">
-        <v>497</v>
-      </c>
-      <c r="K86" s="53">
-        <v>1.0000001000000101</v>
-      </c>
-      <c r="L86" s="54">
-        <v>9.1923899939030255E-7</v>
-      </c>
-      <c r="M86" s="55">
+        <v>504</v>
+      </c>
+      <c r="J86" s="71" t="s">
+        <v>680</v>
+      </c>
+      <c r="K86" s="83">
+        <v>1</v>
+      </c>
+      <c r="L86" s="81">
+        <v>1.4142135623730949E-6</v>
+      </c>
+      <c r="M86" s="82">
         <v>120.87512900978579</v>
       </c>
       <c r="N86" t="s">
-        <v>524</v>
-      </c>
-      <c r="O86" t="s">
-        <v>523</v>
+        <v>667</v>
+      </c>
+      <c r="O86" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="87" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>518</v>
-      </c>
-      <c r="J87" t="s">
-        <v>499</v>
+        <v>504</v>
+      </c>
+      <c r="J87" s="71" t="s">
+        <v>638</v>
       </c>
       <c r="K87" s="53">
-        <v>1</v>
+        <v>1.0000001000000101</v>
       </c>
       <c r="L87" s="54">
-        <v>7.0710678118654747E-7</v>
+        <v>9.1923899939030255E-7</v>
       </c>
       <c r="M87" s="55">
         <v>120.87512900978579</v>
       </c>
       <c r="N87" t="s">
-        <v>525</v>
+        <v>668</v>
       </c>
       <c r="O87" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="88" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
-        <v>518</v>
-      </c>
-      <c r="J88" t="s">
-        <v>501</v>
+        <v>504</v>
+      </c>
+      <c r="J88" s="71" t="s">
+        <v>639</v>
       </c>
       <c r="K88" s="53">
-        <v>1.0000002000000401</v>
+        <v>1</v>
       </c>
       <c r="L88" s="54">
-        <v>3.535535320146725E-7</v>
+        <v>7.0710678118654747E-7</v>
       </c>
       <c r="M88" s="55">
         <v>120.87512900978579</v>
       </c>
       <c r="N88" t="s">
-        <v>526</v>
+        <v>669</v>
       </c>
       <c r="O88" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="89" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I89" t="s">
-        <v>518</v>
-      </c>
-      <c r="J89" t="s">
-        <v>503</v>
-      </c>
-      <c r="K89" s="53">
-        <v>1.0000002000000401</v>
-      </c>
-      <c r="L89" s="54">
-        <v>2.4748747241027072E-7</v>
-      </c>
-      <c r="M89" s="55">
+      <c r="I89" s="71" t="s">
+        <v>504</v>
+      </c>
+      <c r="J89" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="K89" s="77">
+        <v>1.0000000500000024</v>
+      </c>
+      <c r="L89" s="78">
+        <v>8.1317287968181555E-7</v>
+      </c>
+      <c r="M89" s="79">
         <v>120.87512900978579</v>
       </c>
-      <c r="N89" t="s">
-        <v>527</v>
-      </c>
-      <c r="O89" t="s">
-        <v>523</v>
+      <c r="N89" s="71" t="s">
+        <v>659</v>
+      </c>
+      <c r="O89" s="71" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="90" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I90" t="s">
-        <v>518</v>
-      </c>
-      <c r="J90" t="s">
-        <v>505</v>
+        <v>504</v>
+      </c>
+      <c r="J90" s="71" t="s">
+        <v>640</v>
       </c>
       <c r="K90" s="53">
-        <v>0.99999970000008986</v>
+        <v>1.0000002000000401</v>
       </c>
       <c r="L90" s="54">
-        <v>8.4852762830720346E-7</v>
+        <v>3.535535320146725E-7</v>
       </c>
       <c r="M90" s="55">
         <v>120.87512900978579</v>
       </c>
       <c r="N90" t="s">
-        <v>528</v>
+        <v>670</v>
       </c>
       <c r="O90" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="91" spans="9:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="91" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I91" t="s">
-        <v>518</v>
-      </c>
-      <c r="J91" t="s">
-        <v>507</v>
+        <v>504</v>
+      </c>
+      <c r="J91" s="71" t="s">
+        <v>641</v>
       </c>
       <c r="K91" s="53">
-        <v>0.99999960000015997</v>
+        <v>1.0000002000000401</v>
       </c>
       <c r="L91" s="54">
-        <v>7.07106215501462E-7</v>
+        <v>2.4748747241027072E-7</v>
       </c>
       <c r="M91" s="55">
         <v>120.87512900978579</v>
       </c>
       <c r="N91" t="s">
-        <v>529</v>
+        <v>671</v>
       </c>
       <c r="O91" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="92" spans="9:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="92" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I92" t="s">
-        <v>518</v>
-      </c>
-      <c r="J92" t="s">
-        <v>509</v>
-      </c>
-      <c r="K92" s="56">
-        <v>0</v>
-      </c>
-      <c r="L92" s="57">
-        <v>2E-8</v>
-      </c>
-      <c r="M92" s="55">
-        <v>18</v>
+        <v>504</v>
+      </c>
+      <c r="J92" s="71" t="s">
+        <v>683</v>
+      </c>
+      <c r="K92" s="83">
+        <v>0.99999970000008986</v>
+      </c>
+      <c r="L92" s="81">
+        <v>8.4852762830720346E-7</v>
+      </c>
+      <c r="M92" s="82">
+        <v>120.87512900978579</v>
       </c>
       <c r="N92" t="s">
-        <v>530</v>
-      </c>
-      <c r="O92" t="s">
-        <v>531</v>
+        <v>672</v>
+      </c>
+      <c r="O92" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="93" spans="9:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I93" t="s">
-        <v>518</v>
-      </c>
-      <c r="J93" t="s">
-        <v>512</v>
-      </c>
-      <c r="K93" s="56">
-        <v>0</v>
-      </c>
-      <c r="L93" s="57">
+        <v>504</v>
+      </c>
+      <c r="J93" s="71" t="s">
+        <v>642</v>
+      </c>
+      <c r="K93" s="53">
+        <v>0.99999960000015997</v>
+      </c>
+      <c r="L93" s="54">
+        <v>7.07106215501462E-7</v>
+      </c>
+      <c r="M93" s="55">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N93" t="s">
+        <v>673</v>
+      </c>
+      <c r="O93" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="94" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I94" t="s">
+        <v>504</v>
+      </c>
+      <c r="J94" t="s">
+        <v>495</v>
+      </c>
+      <c r="K94" s="56">
+        <v>0</v>
+      </c>
+      <c r="L94" s="57">
         <v>2E-8</v>
       </c>
-      <c r="M93" s="55">
+      <c r="M94" s="55">
         <v>18</v>
       </c>
-      <c r="N93" t="s">
-        <v>532</v>
-      </c>
-      <c r="O93" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="94" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I94" t="s">
-        <v>518</v>
-      </c>
-      <c r="J94" t="s">
-        <v>398</v>
-      </c>
-      <c r="K94" s="30">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>509</v>
+      </c>
+      <c r="O94" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="95" spans="9:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="J95" t="s">
-        <v>402</v>
-      </c>
-      <c r="K95" s="30" t="s">
-        <v>533</v>
+        <v>498</v>
+      </c>
+      <c r="K95" s="56">
+        <v>0</v>
+      </c>
+      <c r="L95" s="57">
+        <v>2E-8</v>
+      </c>
+      <c r="M95" s="55">
+        <v>18</v>
+      </c>
+      <c r="N95" t="s">
+        <v>511</v>
+      </c>
+      <c r="O95" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="96" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I96" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="J96" t="s">
-        <v>484</v>
-      </c>
-      <c r="K96" t="s">
-        <v>515</v>
+        <v>398</v>
+      </c>
+      <c r="K96" s="30">
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="J97" t="s">
-        <v>406</v>
-      </c>
-      <c r="K97" t="s">
-        <v>534</v>
+        <v>402</v>
+      </c>
+      <c r="K97" s="30" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I98" s="41" t="s">
-        <v>518</v>
-      </c>
-      <c r="J98" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="K98" s="41" t="s">
-        <v>517</v>
-      </c>
-      <c r="L98" s="41"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="41"/>
+      <c r="I98" t="s">
+        <v>504</v>
+      </c>
+      <c r="J98" t="s">
+        <v>484</v>
+      </c>
+      <c r="K98" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="99" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I99" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="J99" t="s">
-        <v>472</v>
-      </c>
-      <c r="K99" s="30">
-        <v>0</v>
-      </c>
-      <c r="L99" s="30">
-        <v>0</v>
-      </c>
-      <c r="M99" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="N99" t="s">
-        <v>536</v>
+        <v>406</v>
+      </c>
+      <c r="K99" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="100" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I100" t="s">
-        <v>535</v>
-      </c>
-      <c r="J100" t="s">
-        <v>473</v>
-      </c>
-      <c r="K100" s="29">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L100" s="29">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M100" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="N100" t="s">
-        <v>537</v>
-      </c>
+      <c r="I100" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="J100" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="K100" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="L100" s="41"/>
+      <c r="M100" s="41"/>
+      <c r="N100" s="41"/>
+      <c r="O100" s="41"/>
     </row>
     <row r="101" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I101" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="J101" t="s">
-        <v>474</v>
-      </c>
-      <c r="K101" s="29">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L101" s="29">
-        <v>5.9999999999999997E-7</v>
+        <v>472</v>
+      </c>
+      <c r="K101" s="30">
+        <v>0</v>
+      </c>
+      <c r="L101" s="30">
+        <v>0</v>
       </c>
       <c r="M101" s="30" t="s">
         <v>379</v>
       </c>
       <c r="N101" t="s">
-        <v>538</v>
+        <v>515</v>
+      </c>
+      <c r="O101" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="102" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I102" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="J102" t="s">
-        <v>494</v>
-      </c>
-      <c r="K102" s="53">
-        <v>1.00000250000625</v>
-      </c>
-      <c r="L102" s="54">
-        <v>1.414220633467423E-6</v>
-      </c>
-      <c r="M102" s="55">
-        <v>120.87512900978579</v>
+        <v>473</v>
+      </c>
+      <c r="K102" s="29">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L102" s="29">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M102" s="30" t="s">
+        <v>379</v>
       </c>
       <c r="N102" t="s">
-        <v>539</v>
-      </c>
-      <c r="O102" t="s">
-        <v>540</v>
+        <v>516</v>
+      </c>
+      <c r="O102" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="103" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I103" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="J103" t="s">
-        <v>497</v>
-      </c>
-      <c r="K103" s="53">
-        <v>1.0000031000096099</v>
-      </c>
-      <c r="L103" s="54">
-        <v>9.1924451484967022E-7</v>
-      </c>
-      <c r="M103" s="55">
-        <v>120.87512900978579</v>
+        <v>474</v>
+      </c>
+      <c r="K103" s="29">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L103" s="29">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M103" s="30" t="s">
+        <v>379</v>
       </c>
       <c r="N103" t="s">
-        <v>541</v>
-      </c>
-      <c r="O103" t="s">
-        <v>540</v>
+        <v>517</v>
+      </c>
+      <c r="O103" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="104" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I104" t="s">
-        <v>535</v>
-      </c>
-      <c r="J104" t="s">
-        <v>499</v>
-      </c>
-      <c r="K104" s="53">
-        <v>1.000003050009302</v>
-      </c>
-      <c r="L104" s="54">
-        <v>7.0711109455764635E-7</v>
-      </c>
-      <c r="M104" s="55">
+        <v>514</v>
+      </c>
+      <c r="J104" s="71" t="s">
+        <v>680</v>
+      </c>
+      <c r="K104" s="83">
+        <v>1.00000250000625</v>
+      </c>
+      <c r="L104" s="81">
+        <v>1.414220633467423E-6</v>
+      </c>
+      <c r="M104" s="82">
         <v>120.87512900978579</v>
       </c>
       <c r="N104" t="s">
-        <v>542</v>
-      </c>
-      <c r="O104" t="s">
-        <v>540</v>
+        <v>674</v>
+      </c>
+      <c r="O104" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="105" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I105" t="s">
-        <v>535</v>
-      </c>
-      <c r="J105" t="s">
-        <v>501</v>
+        <v>514</v>
+      </c>
+      <c r="J105" s="71" t="s">
+        <v>638</v>
       </c>
       <c r="K105" s="53">
-        <v>1.0000034000115601</v>
+        <v>1.0000031000096099</v>
       </c>
       <c r="L105" s="54">
-        <v>3.5355579476859112E-7</v>
+        <v>9.1924451484967022E-7</v>
       </c>
       <c r="M105" s="55">
         <v>120.87512900978579</v>
       </c>
       <c r="N105" t="s">
-        <v>543</v>
+        <v>675</v>
       </c>
       <c r="O105" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
     </row>
     <row r="106" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I106" t="s">
-        <v>535</v>
-      </c>
-      <c r="J106" t="s">
-        <v>503</v>
+        <v>514</v>
+      </c>
+      <c r="J106" s="71" t="s">
+        <v>639</v>
       </c>
       <c r="K106" s="53">
-        <v>1.0000033000108901</v>
+        <v>1.000003050009302</v>
       </c>
       <c r="L106" s="54">
-        <v>2.4748900684004159E-7</v>
+        <v>7.0711109455764635E-7</v>
       </c>
       <c r="M106" s="55">
         <v>120.87512900978579</v>
       </c>
       <c r="N106" t="s">
-        <v>544</v>
+        <v>676</v>
       </c>
       <c r="O106" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
     </row>
     <row r="107" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I107" t="s">
-        <v>535</v>
-      </c>
-      <c r="J107" t="s">
-        <v>505</v>
-      </c>
-      <c r="K107" s="53">
-        <v>1.0000029000084101</v>
-      </c>
-      <c r="L107" s="54">
-        <v>8.4853305890846271E-7</v>
-      </c>
-      <c r="M107" s="55">
+      <c r="I107" s="71" t="s">
+        <v>514</v>
+      </c>
+      <c r="J107" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="K107" s="77">
+        <v>1.0000032500105625</v>
+      </c>
+      <c r="L107" s="78">
+        <v>8.1317808401348648E-7</v>
+      </c>
+      <c r="M107" s="79">
         <v>120.87512900978579</v>
       </c>
-      <c r="N107" t="s">
-        <v>545</v>
-      </c>
-      <c r="O107" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="108" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N107" s="71" t="s">
+        <v>660</v>
+      </c>
+      <c r="O107" s="71" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="108" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I108" t="s">
-        <v>535</v>
-      </c>
-      <c r="J108" t="s">
-        <v>507</v>
+        <v>514</v>
+      </c>
+      <c r="J108" s="71" t="s">
+        <v>640</v>
       </c>
       <c r="K108" s="53">
-        <v>1.000002750007563</v>
+        <v>1.0000034000115601</v>
       </c>
       <c r="L108" s="54">
-        <v>7.0711067028988679E-7</v>
+        <v>3.5355579476859112E-7</v>
       </c>
       <c r="M108" s="55">
         <v>120.87512900978579</v>
       </c>
       <c r="N108" t="s">
-        <v>546</v>
+        <v>677</v>
       </c>
       <c r="O108" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="109" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="109" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I109" t="s">
-        <v>535</v>
-      </c>
-      <c r="J109" t="s">
-        <v>509</v>
-      </c>
-      <c r="K109" s="56">
-        <v>0</v>
-      </c>
-      <c r="L109" s="57">
+        <v>514</v>
+      </c>
+      <c r="J109" s="71" t="s">
+        <v>641</v>
+      </c>
+      <c r="K109" s="53">
+        <v>1.0000033000108901</v>
+      </c>
+      <c r="L109" s="54">
+        <v>2.4748900684004159E-7</v>
+      </c>
+      <c r="M109" s="55">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N109" t="s">
+        <v>678</v>
+      </c>
+      <c r="O109" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="110" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>514</v>
+      </c>
+      <c r="J110" s="71" t="s">
+        <v>683</v>
+      </c>
+      <c r="K110" s="83">
+        <v>1.0000029000084101</v>
+      </c>
+      <c r="L110" s="81">
+        <v>8.4853305890846271E-7</v>
+      </c>
+      <c r="M110" s="82">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N110" t="s">
+        <v>686</v>
+      </c>
+      <c r="O110" s="30" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="111" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I111" t="s">
+        <v>514</v>
+      </c>
+      <c r="J111" s="71" t="s">
+        <v>642</v>
+      </c>
+      <c r="K111" s="53">
+        <v>1.000002750007563</v>
+      </c>
+      <c r="L111" s="54">
+        <v>7.0711067028988679E-7</v>
+      </c>
+      <c r="M111" s="55">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N111" t="s">
+        <v>679</v>
+      </c>
+      <c r="O111" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="112" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I112" t="s">
+        <v>514</v>
+      </c>
+      <c r="J112" t="s">
+        <v>495</v>
+      </c>
+      <c r="K112" s="56">
+        <v>0</v>
+      </c>
+      <c r="L112" s="57">
         <v>2E-8</v>
       </c>
-      <c r="M109" s="55">
+      <c r="M112" s="55">
         <v>18</v>
       </c>
-      <c r="N109" t="s">
-        <v>547</v>
-      </c>
-      <c r="O109" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="110" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I110" t="s">
-        <v>535</v>
-      </c>
-      <c r="J110" t="s">
-        <v>512</v>
-      </c>
-      <c r="K110" s="56">
-        <v>0</v>
-      </c>
-      <c r="L110" s="57">
+      <c r="N112" t="s">
+        <v>519</v>
+      </c>
+      <c r="O112" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="113" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I113" t="s">
+        <v>514</v>
+      </c>
+      <c r="J113" t="s">
+        <v>498</v>
+      </c>
+      <c r="K113" s="56">
+        <v>0</v>
+      </c>
+      <c r="L113" s="57">
         <v>2E-8</v>
       </c>
-      <c r="M110" s="55">
+      <c r="M113" s="55">
         <v>18</v>
       </c>
-      <c r="N110" t="s">
-        <v>549</v>
-      </c>
-      <c r="O110" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="111" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I111" t="s">
-        <v>535</v>
-      </c>
-      <c r="J111" t="s">
-        <v>398</v>
-      </c>
-      <c r="K111" s="30">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I112" t="s">
-        <v>535</v>
-      </c>
-      <c r="J112" t="s">
-        <v>402</v>
-      </c>
-      <c r="K112" s="30" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="113" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I113" t="s">
-        <v>535</v>
-      </c>
-      <c r="J113" t="s">
-        <v>484</v>
-      </c>
-      <c r="K113" t="s">
-        <v>515</v>
+      <c r="N113" t="s">
+        <v>521</v>
+      </c>
+      <c r="O113" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="114" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I114" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="J114" t="s">
-        <v>406</v>
-      </c>
-      <c r="K114" t="s">
-        <v>551</v>
+        <v>398</v>
+      </c>
+      <c r="K114" s="30">
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I115" s="41" t="s">
-        <v>535</v>
-      </c>
-      <c r="J115" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="K115" s="41" t="s">
-        <v>517</v>
-      </c>
-      <c r="L115" s="41"/>
-      <c r="M115" s="41"/>
-      <c r="N115" s="41"/>
-      <c r="O115" s="41"/>
+      <c r="I115" t="s">
+        <v>514</v>
+      </c>
+      <c r="J115" t="s">
+        <v>402</v>
+      </c>
+      <c r="K115" s="30" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="116" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>108</v>
+        <v>514</v>
       </c>
       <c r="J116" t="s">
-        <v>472</v>
-      </c>
-      <c r="K116" s="30">
-        <v>0</v>
-      </c>
-      <c r="L116" s="30">
-        <v>0</v>
-      </c>
-      <c r="M116" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="N116" t="s">
-        <v>552</v>
+        <v>484</v>
+      </c>
+      <c r="K116" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="117" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
-        <v>108</v>
+        <v>514</v>
       </c>
       <c r="J117" t="s">
-        <v>473</v>
-      </c>
-      <c r="K117" s="29">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L117" s="29">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M117" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="N117" t="s">
-        <v>553</v>
+        <v>406</v>
+      </c>
+      <c r="K117" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="118" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I118" t="s">
-        <v>108</v>
-      </c>
-      <c r="J118" t="s">
-        <v>474</v>
-      </c>
-      <c r="K118" s="29">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L118" s="29">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M118" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="N118" t="s">
-        <v>554</v>
-      </c>
+      <c r="I118" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="J118" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="K118" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="L118" s="41"/>
+      <c r="M118" s="41"/>
+      <c r="N118" s="41"/>
+      <c r="O118" s="41"/>
     </row>
     <row r="119" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I119" t="s">
         <v>108</v>
       </c>
       <c r="J119" t="s">
-        <v>494</v>
-      </c>
-      <c r="K119" s="58">
-        <v>1</v>
-      </c>
-      <c r="L119" s="54">
-        <v>1.4142135623730949E-6</v>
-      </c>
-      <c r="M119" s="55">
-        <v>120.87512900978579</v>
+        <v>472</v>
+      </c>
+      <c r="K119" s="30">
+        <v>0</v>
+      </c>
+      <c r="L119" s="30">
+        <v>0</v>
+      </c>
+      <c r="M119" s="30" t="s">
+        <v>379</v>
       </c>
       <c r="N119" t="s">
-        <v>555</v>
-      </c>
-      <c r="O119" t="s">
-        <v>556</v>
+        <v>524</v>
+      </c>
+      <c r="O119" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="120" spans="9:15" x14ac:dyDescent="0.25">
@@ -13789,22 +13876,22 @@
         <v>108</v>
       </c>
       <c r="J120" t="s">
-        <v>497</v>
-      </c>
-      <c r="K120" s="53">
-        <v>1.00000150000225</v>
-      </c>
-      <c r="L120" s="54">
-        <v>9.1924157326516319E-7</v>
-      </c>
-      <c r="M120" s="55">
-        <v>120.87512900978579</v>
+        <v>473</v>
+      </c>
+      <c r="K120" s="29">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L120" s="29">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M120" s="30" t="s">
+        <v>379</v>
       </c>
       <c r="N120" t="s">
-        <v>557</v>
-      </c>
-      <c r="O120" t="s">
-        <v>556</v>
+        <v>525</v>
+      </c>
+      <c r="O120" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="121" spans="9:15" x14ac:dyDescent="0.25">
@@ -13812,22 +13899,22 @@
         <v>108</v>
       </c>
       <c r="J121" t="s">
-        <v>499</v>
-      </c>
-      <c r="K121" s="53">
-        <v>1.00000160000256</v>
-      </c>
-      <c r="L121" s="54">
-        <v>7.0710904393367791E-7</v>
-      </c>
-      <c r="M121" s="55">
-        <v>120.87512900978579</v>
+        <v>474</v>
+      </c>
+      <c r="K121" s="29">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L121" s="29">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M121" s="30" t="s">
+        <v>379</v>
       </c>
       <c r="N121" t="s">
-        <v>558</v>
-      </c>
-      <c r="O121" t="s">
-        <v>556</v>
+        <v>526</v>
+      </c>
+      <c r="O121" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="122" spans="9:15" x14ac:dyDescent="0.25">
@@ -13835,22 +13922,22 @@
         <v>108</v>
       </c>
       <c r="J122" t="s">
-        <v>501</v>
-      </c>
-      <c r="K122" s="53">
-        <v>1.00000170000289</v>
-      </c>
-      <c r="L122" s="54">
-        <v>3.5355459267786709E-7</v>
-      </c>
-      <c r="M122" s="55">
+        <v>680</v>
+      </c>
+      <c r="K122" s="21">
+        <v>1</v>
+      </c>
+      <c r="L122" s="81">
+        <v>1.4142135623730949E-6</v>
+      </c>
+      <c r="M122" s="82">
         <v>120.87512900978579</v>
       </c>
       <c r="N122" t="s">
-        <v>559</v>
-      </c>
-      <c r="O122" t="s">
-        <v>556</v>
+        <v>650</v>
+      </c>
+      <c r="O122" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="123" spans="9:15" x14ac:dyDescent="0.25">
@@ -13858,279 +13945,288 @@
         <v>108</v>
       </c>
       <c r="J123" t="s">
-        <v>503</v>
+        <v>638</v>
       </c>
       <c r="K123" s="53">
-        <v>1.000001850003422</v>
+        <v>1.00000150000225</v>
       </c>
       <c r="L123" s="54">
-        <v>2.4748828912111432E-7</v>
+        <v>9.1924157326516319E-7</v>
       </c>
       <c r="M123" s="55">
         <v>120.87512900978579</v>
       </c>
       <c r="N123" t="s">
-        <v>560</v>
+        <v>651</v>
       </c>
       <c r="O123" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
     </row>
     <row r="124" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I124" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J124" t="s">
-        <v>505</v>
+        <v>639</v>
       </c>
       <c r="K124" s="53">
-        <v>1.00000180000324</v>
+        <v>1.00000160000256</v>
       </c>
       <c r="L124" s="54">
-        <v>8.4853119213339951E-7</v>
+        <v>7.0710904393367791E-7</v>
       </c>
       <c r="M124" s="55">
         <v>120.87512900978579</v>
       </c>
       <c r="N124" t="s">
-        <v>561</v>
+        <v>652</v>
       </c>
       <c r="O124" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="125" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I125" t="s">
-        <v>117</v>
-      </c>
-      <c r="J125" t="s">
-        <v>507</v>
-      </c>
-      <c r="K125" s="53">
-        <v>1.000001750003062</v>
-      </c>
-      <c r="L125" s="54">
-        <v>7.0710925606677826E-7</v>
-      </c>
-      <c r="M125" s="55">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="125" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I125" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="J125" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="K125" s="77">
+        <v>1.0000015500024024</v>
+      </c>
+      <c r="L125" s="78">
+        <v>8.1317531920606548E-7</v>
+      </c>
+      <c r="M125" s="79">
         <v>120.87512900978579</v>
       </c>
-      <c r="N125" t="s">
-        <v>562</v>
-      </c>
-      <c r="O125" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="126" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N125" s="71" t="s">
+        <v>653</v>
+      </c>
+      <c r="O125" s="71" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="126" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I126" t="s">
         <v>108</v>
       </c>
       <c r="J126" t="s">
-        <v>509</v>
-      </c>
-      <c r="K126" s="56">
-        <v>0</v>
-      </c>
-      <c r="L126" s="57">
-        <v>1.9000000000000001E-8</v>
+        <v>640</v>
+      </c>
+      <c r="K126" s="53">
+        <v>1.00000170000289</v>
+      </c>
+      <c r="L126" s="54">
+        <v>3.5355459267786709E-7</v>
       </c>
       <c r="M126" s="55">
-        <v>18</v>
+        <v>120.87512900978579</v>
       </c>
       <c r="N126" t="s">
-        <v>563</v>
+        <v>654</v>
       </c>
       <c r="O126" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="127" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="127" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I127" t="s">
         <v>108</v>
       </c>
       <c r="J127" t="s">
-        <v>512</v>
-      </c>
-      <c r="K127" s="56">
-        <v>0</v>
-      </c>
-      <c r="L127" s="57">
-        <v>1.9000000000000001E-8</v>
+        <v>641</v>
+      </c>
+      <c r="K127" s="53">
+        <v>1.000001850003422</v>
+      </c>
+      <c r="L127" s="54">
+        <v>2.4748828912111432E-7</v>
       </c>
       <c r="M127" s="55">
-        <v>18</v>
+        <v>120.87512900978579</v>
       </c>
       <c r="N127" t="s">
-        <v>565</v>
+        <v>655</v>
       </c>
       <c r="O127" t="s">
-        <v>564</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I128" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J128" t="s">
-        <v>398</v>
-      </c>
-      <c r="K128">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="129" spans="9:15" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="K128" s="83">
+        <v>1.00000180000324</v>
+      </c>
+      <c r="L128" s="81">
+        <v>8.4853119213339951E-7</v>
+      </c>
+      <c r="M128" s="82">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N128" t="s">
+        <v>685</v>
+      </c>
+      <c r="O128" s="30" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="129" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I129" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J129" t="s">
-        <v>402</v>
-      </c>
-      <c r="K129" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="130" spans="9:15" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+      <c r="K129" s="53">
+        <v>1.000001750003062</v>
+      </c>
+      <c r="L129" s="54">
+        <v>7.0710925606677826E-7</v>
+      </c>
+      <c r="M129" s="55">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N129" t="s">
+        <v>656</v>
+      </c>
+      <c r="O129" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="130" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I130" t="s">
         <v>108</v>
       </c>
       <c r="J130" t="s">
-        <v>484</v>
-      </c>
-      <c r="K130" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="131" spans="9:15" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="K130" s="56">
+        <v>0</v>
+      </c>
+      <c r="L130" s="57">
+        <v>1.9000000000000001E-8</v>
+      </c>
+      <c r="M130" s="55">
+        <v>18</v>
+      </c>
+      <c r="N130" t="s">
+        <v>528</v>
+      </c>
+      <c r="O130" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="131" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I131" t="s">
         <v>108</v>
       </c>
       <c r="J131" t="s">
-        <v>406</v>
-      </c>
-      <c r="K131" t="s">
-        <v>567</v>
+        <v>498</v>
+      </c>
+      <c r="K131" s="56">
+        <v>0</v>
+      </c>
+      <c r="L131" s="57">
+        <v>1.9000000000000001E-8</v>
+      </c>
+      <c r="M131" s="55">
+        <v>18</v>
+      </c>
+      <c r="N131" t="s">
+        <v>530</v>
+      </c>
+      <c r="O131" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I132" s="41" t="s">
+      <c r="I132" t="s">
         <v>108</v>
       </c>
-      <c r="J132" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="K132" s="41" t="s">
-        <v>517</v>
-      </c>
-      <c r="L132" s="41"/>
-      <c r="M132" s="41"/>
-      <c r="N132" s="41"/>
-      <c r="O132" s="41"/>
+      <c r="J132" t="s">
+        <v>398</v>
+      </c>
+      <c r="K132">
+        <v>23</v>
+      </c>
     </row>
     <row r="133" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I133" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J133" t="s">
-        <v>472</v>
-      </c>
-      <c r="K133" s="30">
-        <v>0</v>
-      </c>
-      <c r="L133" s="30">
-        <v>0</v>
-      </c>
-      <c r="M133" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="N133" t="s">
-        <v>568</v>
+        <v>402</v>
+      </c>
+      <c r="K133" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="134" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I134" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J134" t="s">
-        <v>473</v>
-      </c>
-      <c r="K134" s="29">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L134" s="29">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M134" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="N134" t="s">
-        <v>569</v>
+        <v>484</v>
+      </c>
+      <c r="K134" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I135" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J135" t="s">
-        <v>474</v>
-      </c>
-      <c r="K135" s="29">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L135" s="29">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M135" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="N135" t="s">
-        <v>570</v>
+        <v>406</v>
+      </c>
+      <c r="K135" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="136" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I136" t="s">
-        <v>117</v>
-      </c>
-      <c r="J136" t="s">
-        <v>494</v>
-      </c>
-      <c r="K136" s="58">
-        <v>1</v>
-      </c>
-      <c r="L136" s="54">
-        <v>1.4142135623730949E-6</v>
-      </c>
-      <c r="M136" s="55">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N136" t="s">
-        <v>571</v>
-      </c>
-      <c r="O136" t="s">
-        <v>572</v>
-      </c>
+      <c r="I136" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="J136" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="K136" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="L136" s="41"/>
+      <c r="M136" s="41"/>
+      <c r="N136" s="41"/>
+      <c r="O136" s="41"/>
     </row>
     <row r="137" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I137" t="s">
         <v>117</v>
       </c>
       <c r="J137" t="s">
-        <v>497</v>
-      </c>
-      <c r="K137" s="53">
-        <v>1.00000150000225</v>
-      </c>
-      <c r="L137" s="54">
-        <v>9.1924157326516319E-7</v>
-      </c>
-      <c r="M137" s="55">
-        <v>120.87512900978579</v>
+        <v>472</v>
+      </c>
+      <c r="K137" s="30">
+        <v>0</v>
+      </c>
+      <c r="L137" s="30">
+        <v>0</v>
+      </c>
+      <c r="M137" s="30" t="s">
+        <v>379</v>
       </c>
       <c r="N137" t="s">
-        <v>573</v>
-      </c>
-      <c r="O137" t="s">
-        <v>572</v>
+        <v>533</v>
+      </c>
+      <c r="O137" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.25">
@@ -14138,22 +14234,22 @@
         <v>117</v>
       </c>
       <c r="J138" t="s">
-        <v>499</v>
-      </c>
-      <c r="K138" s="53">
-        <v>1.00000160000256</v>
-      </c>
-      <c r="L138" s="54">
-        <v>7.0710904393367791E-7</v>
-      </c>
-      <c r="M138" s="55">
-        <v>120.87512900978579</v>
+        <v>473</v>
+      </c>
+      <c r="K138" s="29">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L138" s="29">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M138" s="30" t="s">
+        <v>379</v>
       </c>
       <c r="N138" t="s">
-        <v>574</v>
-      </c>
-      <c r="O138" t="s">
-        <v>572</v>
+        <v>534</v>
+      </c>
+      <c r="O138" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.25">
@@ -14161,45 +14257,45 @@
         <v>117</v>
       </c>
       <c r="J139" t="s">
-        <v>501</v>
-      </c>
-      <c r="K139" s="53">
-        <v>1.00000170000289</v>
-      </c>
-      <c r="L139" s="54">
-        <v>3.5355459267786709E-7</v>
-      </c>
-      <c r="M139" s="55">
-        <v>120.87512900978579</v>
+        <v>474</v>
+      </c>
+      <c r="K139" s="29">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L139" s="29">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M139" s="30" t="s">
+        <v>379</v>
       </c>
       <c r="N139" t="s">
-        <v>575</v>
-      </c>
-      <c r="O139" t="s">
-        <v>572</v>
+        <v>535</v>
+      </c>
+      <c r="O139" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I140" t="s">
         <v>117</v>
       </c>
-      <c r="J140" t="s">
-        <v>503</v>
-      </c>
-      <c r="K140" s="53">
-        <v>1.000001850003422</v>
-      </c>
-      <c r="L140" s="54">
-        <v>2.4748828912111432E-7</v>
-      </c>
-      <c r="M140" s="55">
+      <c r="J140" s="73" t="s">
+        <v>680</v>
+      </c>
+      <c r="K140" s="21">
+        <v>1</v>
+      </c>
+      <c r="L140" s="81">
+        <v>1.4142135623730949E-6</v>
+      </c>
+      <c r="M140" s="82">
         <v>120.87512900978579</v>
       </c>
       <c r="N140" t="s">
-        <v>576</v>
-      </c>
-      <c r="O140" t="s">
-        <v>572</v>
+        <v>681</v>
+      </c>
+      <c r="O140" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="141" spans="9:15" x14ac:dyDescent="0.25">
@@ -14207,91 +14303,91 @@
         <v>117</v>
       </c>
       <c r="J141" t="s">
-        <v>505</v>
+        <v>638</v>
       </c>
       <c r="K141" s="53">
-        <v>1.00000180000324</v>
+        <v>1.00000150000225</v>
       </c>
       <c r="L141" s="54">
-        <v>8.4853119213339951E-7</v>
+        <v>9.1924157326516319E-7</v>
       </c>
       <c r="M141" s="55">
         <v>120.87512900978579</v>
       </c>
       <c r="N141" t="s">
-        <v>577</v>
+        <v>644</v>
       </c>
       <c r="O141" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="142" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I142" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="142" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I142" s="71" t="s">
         <v>117</v>
       </c>
       <c r="J142" t="s">
-        <v>507</v>
+        <v>639</v>
       </c>
       <c r="K142" s="53">
-        <v>1.000001750003062</v>
+        <v>1.00000160000256</v>
       </c>
       <c r="L142" s="54">
-        <v>7.0710925606677826E-7</v>
+        <v>7.0710904393367791E-7</v>
       </c>
       <c r="M142" s="55">
         <v>120.87512900978579</v>
       </c>
       <c r="N142" t="s">
-        <v>578</v>
-      </c>
-      <c r="O142" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="143" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+      <c r="O142" s="71" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="143" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I143" t="s">
         <v>117</v>
       </c>
-      <c r="J143" t="s">
-        <v>509</v>
-      </c>
-      <c r="K143" s="56">
-        <v>0</v>
-      </c>
-      <c r="L143" s="57">
-        <v>1.7E-8</v>
-      </c>
-      <c r="M143" s="55">
-        <v>18</v>
-      </c>
-      <c r="N143" t="s">
-        <v>579</v>
+      <c r="J143" s="67" t="s">
+        <v>643</v>
+      </c>
+      <c r="K143" s="77">
+        <v>1.0000096500931235</v>
+      </c>
+      <c r="L143" s="78">
+        <v>8.1318849282671504E-7</v>
+      </c>
+      <c r="M143" s="79">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N143" s="71" t="s">
+        <v>646</v>
       </c>
       <c r="O143" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="144" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="144" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I144" t="s">
         <v>117</v>
       </c>
       <c r="J144" t="s">
-        <v>512</v>
-      </c>
-      <c r="K144" s="56">
-        <v>0</v>
-      </c>
-      <c r="L144" s="57">
-        <v>1.7E-8</v>
+        <v>640</v>
+      </c>
+      <c r="K144" s="53">
+        <v>1.00000170000289</v>
+      </c>
+      <c r="L144" s="54">
+        <v>3.5355459267786709E-7</v>
       </c>
       <c r="M144" s="55">
-        <v>18</v>
+        <v>120.87512900978579</v>
       </c>
       <c r="N144" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="O144" t="s">
-        <v>580</v>
+        <v>536</v>
       </c>
     </row>
     <row r="145" spans="9:15" x14ac:dyDescent="0.25">
@@ -14299,280 +14395,395 @@
         <v>117</v>
       </c>
       <c r="J145" t="s">
-        <v>398</v>
-      </c>
-      <c r="K145">
-        <v>24</v>
+        <v>641</v>
+      </c>
+      <c r="K145" s="53">
+        <v>1.000001850003422</v>
+      </c>
+      <c r="L145" s="54">
+        <v>2.4748828912111432E-7</v>
+      </c>
+      <c r="M145" s="55">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N145" t="s">
+        <v>648</v>
+      </c>
+      <c r="O145" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="146" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I146" t="s">
         <v>117</v>
       </c>
-      <c r="J146" t="s">
-        <v>402</v>
-      </c>
-      <c r="K146" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="147" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J146" s="73" t="s">
+        <v>683</v>
+      </c>
+      <c r="K146" s="83">
+        <v>1.00000180000324</v>
+      </c>
+      <c r="L146" s="81">
+        <v>8.4853119213339951E-7</v>
+      </c>
+      <c r="M146" s="82">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N146" t="s">
+        <v>684</v>
+      </c>
+      <c r="O146" s="30" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="147" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I147" t="s">
         <v>117</v>
       </c>
       <c r="J147" t="s">
-        <v>484</v>
-      </c>
-      <c r="K147" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="148" spans="9:15" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+      <c r="K147" s="53">
+        <v>1.000001750003062</v>
+      </c>
+      <c r="L147" s="54">
+        <v>7.0710925606677826E-7</v>
+      </c>
+      <c r="M147" s="55">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N147" t="s">
+        <v>649</v>
+      </c>
+      <c r="O147" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="148" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I148" t="s">
         <v>117</v>
       </c>
       <c r="J148" t="s">
-        <v>406</v>
-      </c>
-      <c r="K148" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="149" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I149" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="K148" s="56">
+        <v>0</v>
+      </c>
+      <c r="L148" s="57">
+        <v>1.7E-8</v>
+      </c>
+      <c r="M148" s="55">
+        <v>18</v>
+      </c>
+      <c r="N148" t="s">
+        <v>537</v>
+      </c>
+      <c r="O148" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="149" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I149" t="s">
         <v>117</v>
       </c>
-      <c r="J149" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="K149" s="41" t="s">
-        <v>517</v>
-      </c>
-      <c r="L149" s="41"/>
-      <c r="M149" s="41"/>
-      <c r="N149" s="41"/>
-      <c r="O149" s="41"/>
+      <c r="J149" t="s">
+        <v>498</v>
+      </c>
+      <c r="K149" s="56">
+        <v>0</v>
+      </c>
+      <c r="L149" s="57">
+        <v>1.7E-8</v>
+      </c>
+      <c r="M149" s="55">
+        <v>18</v>
+      </c>
+      <c r="N149" t="s">
+        <v>539</v>
+      </c>
+      <c r="O149" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="150" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I150" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="J150" t="s">
         <v>398</v>
       </c>
       <c r="K150">
-        <v>2</v>
-      </c>
-      <c r="L150" s="30"/>
-      <c r="M150" s="30"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="151" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I151" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="J151" t="s">
         <v>402</v>
       </c>
       <c r="K151" t="s">
-        <v>584</v>
-      </c>
-      <c r="L151" s="29"/>
-      <c r="M151" s="30"/>
+        <v>540</v>
+      </c>
     </row>
     <row r="152" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I152" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="J152" t="s">
-        <v>585</v>
+        <v>484</v>
       </c>
       <c r="K152" t="s">
-        <v>586</v>
-      </c>
-      <c r="L152" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="M152" s="18" t="s">
-        <v>588</v>
+        <v>501</v>
       </c>
     </row>
     <row r="153" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I153" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="J153" t="s">
-        <v>589</v>
+        <v>406</v>
       </c>
       <c r="K153" t="s">
-        <v>590</v>
-      </c>
-      <c r="L153" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="M153" s="30"/>
+        <v>541</v>
+      </c>
     </row>
     <row r="154" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I154" t="s">
-        <v>88</v>
-      </c>
-      <c r="J154" t="s">
-        <v>592</v>
-      </c>
-      <c r="K154" t="s">
-        <v>593</v>
-      </c>
-      <c r="L154" s="29"/>
-      <c r="M154" s="30"/>
+      <c r="I154" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J154" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="K154" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="L154" s="41"/>
+      <c r="M154" s="41"/>
+      <c r="N154" s="41"/>
+      <c r="O154" s="41"/>
     </row>
     <row r="155" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I155" t="s">
         <v>88</v>
       </c>
       <c r="J155" t="s">
-        <v>594</v>
-      </c>
-      <c r="K155" t="s">
-        <v>595</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155" s="30"/>
+      <c r="M155" s="30"/>
     </row>
     <row r="156" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I156" t="s">
         <v>88</v>
       </c>
       <c r="J156" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K156" t="s">
-        <v>596</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="L156" s="29"/>
+      <c r="M156" s="30"/>
     </row>
     <row r="157" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I157" s="41" t="s">
+      <c r="I157" t="s">
         <v>88</v>
       </c>
-      <c r="J157" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="K157" s="41" t="s">
-        <v>597</v>
-      </c>
-      <c r="L157" s="41"/>
-      <c r="M157" s="41"/>
-      <c r="N157" s="41"/>
-      <c r="O157" s="41"/>
+      <c r="J157" t="s">
+        <v>543</v>
+      </c>
+      <c r="K157" t="s">
+        <v>544</v>
+      </c>
+      <c r="L157" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="M157" s="18" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="158" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I158" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J158" t="s">
-        <v>398</v>
-      </c>
-      <c r="K158">
-        <v>4</v>
-      </c>
-      <c r="L158" s="30"/>
+        <v>547</v>
+      </c>
+      <c r="K158" t="s">
+        <v>548</v>
+      </c>
+      <c r="L158" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="M158" s="30"/>
     </row>
     <row r="159" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I159" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J159" t="s">
-        <v>402</v>
+        <v>550</v>
       </c>
       <c r="K159" t="s">
-        <v>598</v>
+        <v>551</v>
       </c>
       <c r="L159" s="29"/>
+      <c r="M159" s="30"/>
     </row>
     <row r="160" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I160" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J160" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="K160" t="s">
-        <v>599</v>
-      </c>
-      <c r="L160" s="29"/>
+        <v>553</v>
+      </c>
     </row>
     <row r="161" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I161" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J161" t="s">
-        <v>589</v>
+        <v>406</v>
       </c>
       <c r="K161" t="s">
-        <v>600</v>
-      </c>
-      <c r="L161" s="17" t="s">
-        <v>601</v>
+        <v>554</v>
       </c>
     </row>
     <row r="162" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I162" t="s">
-        <v>78</v>
-      </c>
-      <c r="J162" t="s">
-        <v>592</v>
-      </c>
-      <c r="K162" t="s">
-        <v>602</v>
-      </c>
-      <c r="L162" s="29"/>
+      <c r="I162" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J162" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="K162" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="L162" s="41"/>
+      <c r="M162" s="41"/>
+      <c r="N162" s="41"/>
+      <c r="O162" s="41"/>
     </row>
     <row r="163" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I163" t="s">
         <v>78</v>
       </c>
       <c r="J163" t="s">
-        <v>594</v>
-      </c>
-      <c r="K163" t="s">
-        <v>603</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="K163">
+        <v>4</v>
+      </c>
+      <c r="L163" s="30"/>
     </row>
     <row r="164" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I164" t="s">
         <v>78</v>
       </c>
       <c r="J164" t="s">
-        <v>604</v>
+        <v>402</v>
       </c>
       <c r="K164" t="s">
-        <v>605</v>
-      </c>
-      <c r="L164" t="s">
-        <v>606</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="L164" s="29"/>
     </row>
     <row r="165" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I165" t="s">
         <v>78</v>
       </c>
       <c r="J165" t="s">
+        <v>543</v>
+      </c>
+      <c r="K165" t="s">
+        <v>557</v>
+      </c>
+      <c r="L165" s="29"/>
+    </row>
+    <row r="166" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I166" t="s">
+        <v>78</v>
+      </c>
+      <c r="J166" t="s">
+        <v>547</v>
+      </c>
+      <c r="K166" t="s">
+        <v>558</v>
+      </c>
+      <c r="L166" s="17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="167" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I167" t="s">
+        <v>78</v>
+      </c>
+      <c r="J167" t="s">
+        <v>550</v>
+      </c>
+      <c r="K167" t="s">
+        <v>560</v>
+      </c>
+      <c r="L167" s="29"/>
+    </row>
+    <row r="168" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I168" t="s">
+        <v>78</v>
+      </c>
+      <c r="J168" t="s">
+        <v>552</v>
+      </c>
+      <c r="K168" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="169" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I169" t="s">
+        <v>78</v>
+      </c>
+      <c r="J169" t="s">
+        <v>562</v>
+      </c>
+      <c r="K169" t="s">
+        <v>563</v>
+      </c>
+      <c r="L169" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="170" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I170" t="s">
+        <v>78</v>
+      </c>
+      <c r="J170" t="s">
         <v>406</v>
       </c>
-      <c r="K165" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="166" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I166" s="41" t="s">
+      <c r="K170" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="171" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I171" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="J166" s="41" t="s">
+      <c r="J171" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="K166" s="41" t="s">
+      <c r="K171" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="L166" s="41"/>
-      <c r="M166" s="41"/>
-      <c r="N166" s="41"/>
-      <c r="O166" s="41"/>
+      <c r="L171" s="41"/>
+      <c r="M171" s="41"/>
+      <c r="N171" s="41"/>
+      <c r="O171" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14584,30 +14795,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB406"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="900" topLeftCell="A231" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="915" topLeftCell="A350"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D251" sqref="D251"/>
+      <selection pane="bottomLeft" activeCell="J408" sqref="J408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="68" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="68" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="68" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="68" customWidth="1"/>
-    <col min="10" max="10" width="66.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="11.42578125" style="68" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33" style="68" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" style="68" customWidth="1"/>
-    <col min="22" max="22" width="38" style="68" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="68" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="14.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.42578125" style="67" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="67" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="67" customWidth="1"/>
+    <col min="10" max="10" width="66.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="11.42578125" style="67" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" style="67" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" style="67" customWidth="1"/>
+    <col min="22" max="22" width="38" style="67" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="67" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="14.7109375" style="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14615,12 +14826,12 @@
         <v>350</v>
       </c>
       <c r="B1" s="52">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -14631,33 +14842,33 @@
         <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="R4" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="U4" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="V4" t="s">
-        <v>612</v>
+        <v>570</v>
       </c>
       <c r="Y4" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="Z4" t="s">
-        <v>614</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="B5" t="s">
-        <v>616</v>
+        <v>574</v>
       </c>
       <c r="C5" t="s">
-        <v>617</v>
+        <v>575</v>
       </c>
       <c r="D5" t="s">
         <v>70</v>
@@ -14666,34 +14877,34 @@
         <v>358</v>
       </c>
       <c r="F5" t="s">
-        <v>618</v>
+        <v>576</v>
       </c>
       <c r="G5" t="s">
         <v>373</v>
       </c>
       <c r="H5" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="J5" t="s">
-        <v>619</v>
+        <v>577</v>
       </c>
       <c r="K5" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="L5" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="M5" t="s">
         <v>373</v>
       </c>
       <c r="N5" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="O5" t="s">
-        <v>623</v>
+        <v>581</v>
       </c>
       <c r="Q5" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="R5">
         <v>100003.625478355</v>
@@ -14717,7 +14928,7 @@
         <v>13</v>
       </c>
       <c r="Y5" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="Z5">
         <v>10.00002202005556</v>
@@ -14737,7 +14948,7 @@
         <v>10.00002188875</v>
       </c>
       <c r="C6" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="D6">
         <v>20.764612499999998</v>
@@ -14755,7 +14966,7 @@
         <v>0.43497730069211082</v>
       </c>
       <c r="J6" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="K6">
         <v>-2.7000000000000001E-7</v>
@@ -14773,7 +14984,7 @@
         <v>0.21000755139425789</v>
       </c>
       <c r="Q6" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
       <c r="R6">
         <v>100003.625478355</v>
@@ -14797,7 +15008,7 @@
         <v>13</v>
       </c>
       <c r="Y6" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="Z6">
         <v>10.00002202005556</v>
@@ -14811,7 +15022,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="K7">
         <v>1.0003017303999999</v>
@@ -14831,7 +15042,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="K8">
         <v>3.0350254677000003E-4</v>
@@ -14849,15 +15060,15 @@
         <v>3.0644807316790989E-2</v>
       </c>
       <c r="R8" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
       <c r="V8" t="s">
-        <v>632</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="K9">
         <v>-3.0451918841999998E-4</v>
@@ -14895,7 +15106,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="K10">
         <v>-3.0446364500999999E-4</v>
@@ -14915,7 +15126,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="K11">
         <v>-1.0003009423</v>
@@ -14935,7 +15146,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="K12">
         <v>-1.0003009775</v>
@@ -14955,7 +15166,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="K13">
         <v>5.1170541267839013E-3</v>
@@ -14995,7 +15206,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -15015,7 +15226,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="K16">
         <v>-10.000020509000001</v>
@@ -15035,7 +15246,7 @@
     </row>
     <row r="17" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
       <c r="K17">
         <v>-9.3983150759000007E-3</v>
@@ -15075,7 +15286,7 @@
     </row>
     <row r="19" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="K19">
         <v>10.000023067000001</v>
@@ -15095,7 +15306,7 @@
     </row>
     <row r="20" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="K20">
         <v>10.00002347</v>
@@ -15115,7 +15326,7 @@
     </row>
     <row r="21" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="K21">
         <v>-1.0103043347</v>
@@ -15135,7 +15346,7 @@
     </row>
     <row r="22" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K22">
         <v>8.0000000000000005E-9</v>
@@ -15175,7 +15386,7 @@
     </row>
     <row r="24" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -15195,7 +15406,7 @@
     </row>
     <row r="25" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="K25">
         <v>20.894085</v>
@@ -15215,7 +15426,7 @@
     </row>
     <row r="26" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -15235,7 +15446,7 @@
     </row>
     <row r="27" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K27">
         <v>8.0000000000000005E-9</v>
@@ -15315,7 +15526,7 @@
     </row>
     <row r="31" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
       <c r="K31">
         <v>10.000024109</v>
@@ -15341,7 +15552,7 @@
         <v>10.00002227575</v>
       </c>
       <c r="C33" t="s">
-        <v>648</v>
+        <v>606</v>
       </c>
       <c r="D33">
         <v>20.792098750000001</v>
@@ -15359,7 +15570,7 @@
         <v>0.43476282307155639</v>
       </c>
       <c r="J33" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="K33">
         <v>-2.7000000000000001E-7</v>
@@ -15379,7 +15590,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="K34">
         <v>3.0412604709000003E-4</v>
@@ -15399,7 +15610,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J35" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="K35">
         <v>1.0003017431000001</v>
@@ -15419,7 +15630,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J36" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="K36">
         <v>-3.0449704612E-4</v>
@@ -15439,7 +15650,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J37" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="K37">
         <v>-1.0003004150000001</v>
@@ -15459,7 +15670,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J38" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="K38">
         <v>-3.0520115826999998E-4</v>
@@ -15479,7 +15690,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J39" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="K39">
         <v>-1.0003010632</v>
@@ -15499,7 +15710,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J40" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="K40">
         <v>5.1170541267839013E-3</v>
@@ -15539,7 +15750,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -15559,7 +15770,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J43" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
       <c r="K43">
         <v>-9.3988829519000006E-3</v>
@@ -15579,7 +15790,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="K44">
         <v>-1.0103038602000001</v>
@@ -15599,7 +15810,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="K45">
         <v>-10.000021125</v>
@@ -15639,7 +15850,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="K47">
         <v>10.000023240000001</v>
@@ -15659,7 +15870,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K48">
         <v>8.0000000000000005E-9</v>
@@ -15679,7 +15890,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="K49">
         <v>10.000023613</v>
@@ -15719,7 +15930,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -15739,7 +15950,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -15759,7 +15970,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="K53">
         <v>20.8915875</v>
@@ -15779,7 +15990,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K54">
         <v>8.0000000000000005E-9</v>
@@ -15859,7 +16070,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J58" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
       <c r="K58">
         <v>10.000023558000001</v>
@@ -15885,7 +16096,7 @@
         <v>10.000022352249999</v>
       </c>
       <c r="C60" t="s">
-        <v>649</v>
+        <v>607</v>
       </c>
       <c r="D60">
         <v>20.824582500000002</v>
@@ -15903,7 +16114,7 @@
         <v>0.43212417370800482</v>
       </c>
       <c r="J60" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="K60">
         <v>-2.7000000000000001E-7</v>
@@ -15923,7 +16134,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J61" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="K61">
         <v>3.0430913590000002E-4</v>
@@ -15943,7 +16154,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J62" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="K62">
         <v>1.0003016184</v>
@@ -15963,7 +16174,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J63" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="K63">
         <v>-3.0492296447999999E-4</v>
@@ -15983,7 +16194,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J64" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="K64">
         <v>-1.0003006325999999</v>
@@ -16003,7 +16214,7 @@
     </row>
     <row r="65" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J65" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="K65">
         <v>-3.0511738654999989E-4</v>
@@ -16023,7 +16234,7 @@
     </row>
     <row r="66" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J66" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="K66">
         <v>-1.0003008807</v>
@@ -16043,7 +16254,7 @@
     </row>
     <row r="67" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J67" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="K67">
         <v>5.1170541267839013E-3</v>
@@ -16083,7 +16294,7 @@
     </row>
     <row r="69" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J69" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="K69">
         <v>-1.010303849</v>
@@ -16103,7 +16314,7 @@
     </row>
     <row r="70" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J70" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="K70">
         <v>-10.000021151</v>
@@ -16123,7 +16334,7 @@
     </row>
     <row r="71" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J71" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
       <c r="K71">
         <v>-9.3988667592000003E-3</v>
@@ -16163,7 +16374,7 @@
     </row>
     <row r="73" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J73" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="K73">
         <v>10.000023560000001</v>
@@ -16183,7 +16394,7 @@
     </row>
     <row r="74" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J74" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="K74">
         <v>10.000023547</v>
@@ -16203,7 +16414,7 @@
     </row>
     <row r="75" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J75" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K75">
         <v>8.0000000000000005E-9</v>
@@ -16223,7 +16434,7 @@
     </row>
     <row r="76" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J76" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -16263,7 +16474,7 @@
     </row>
     <row r="78" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J78" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -16283,7 +16494,7 @@
     </row>
     <row r="79" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J79" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K79">
         <v>8.0000000000000005E-9</v>
@@ -16303,7 +16514,7 @@
     </row>
     <row r="80" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J80" t="s">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -16383,7 +16594,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J84" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="K84">
         <v>20.899080000000001</v>
@@ -16403,7 +16614,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J85" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
       <c r="K85">
         <v>10.000024298</v>
@@ -16429,7 +16640,7 @@
         <v>10.00002214375</v>
       </c>
       <c r="C87" t="s">
-        <v>650</v>
+        <v>608</v>
       </c>
       <c r="D87">
         <v>20.819585</v>
@@ -16447,7 +16658,7 @@
         <v>0.43570080488824792</v>
       </c>
       <c r="J87" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="K87">
         <v>-2.7000000000000001E-7</v>
@@ -16467,7 +16678,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J88" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="K88">
         <v>3.0447996242999998E-4</v>
@@ -16487,7 +16698,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J89" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="K89">
         <v>1.0003014786</v>
@@ -16507,7 +16718,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J90" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="K90">
         <v>-3.0495051743000001E-4</v>
@@ -16527,7 +16738,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J91" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -16547,7 +16758,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J92" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="K92">
         <v>-1.0003005756000001</v>
@@ -16567,7 +16778,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J93" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="K93">
         <v>-3.0505884931000002E-4</v>
@@ -16587,7 +16798,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J94" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="K94">
         <v>-1.0003015235999999</v>
@@ -16607,7 +16818,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J95" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="K95">
         <v>5.1170541267839013E-3</v>
@@ -16647,7 +16858,7 @@
     </row>
     <row r="97" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J97" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
       <c r="K97">
         <v>-9.3983049583999997E-3</v>
@@ -16667,7 +16878,7 @@
     </row>
     <row r="98" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J98" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="K98">
         <v>-1.0103038239</v>
@@ -16707,7 +16918,7 @@
     </row>
     <row r="100" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J100" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="K100">
         <v>10.000024202000001</v>
@@ -16727,7 +16938,7 @@
     </row>
     <row r="101" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J101" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="K101">
         <v>10.000023888999999</v>
@@ -16747,7 +16958,7 @@
     </row>
     <row r="102" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J102" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="K102">
         <v>-10.000020242</v>
@@ -16767,7 +16978,7 @@
     </row>
     <row r="103" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J103" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K103">
         <v>8.0000000000000005E-9</v>
@@ -16787,7 +16998,7 @@
     </row>
     <row r="104" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J104" t="s">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -16827,7 +17038,7 @@
     </row>
     <row r="106" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J106" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -16847,7 +17058,7 @@
     </row>
     <row r="107" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J107" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="K107">
         <v>20.8915875</v>
@@ -16867,7 +17078,7 @@
     </row>
     <row r="108" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J108" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K108">
         <v>8.0000000000000005E-9</v>
@@ -16947,7 +17158,7 @@
     </row>
     <row r="112" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J112" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
       <c r="K112">
         <v>10.000024446999999</v>
@@ -16973,7 +17184,7 @@
         <v>10.000021957</v>
       </c>
       <c r="C114" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="D114">
         <v>20.794597499999998</v>
@@ -16991,7 +17202,7 @@
         <v>0.43599974846217932</v>
       </c>
       <c r="J114" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="K114">
         <v>-2.7000000000000001E-7</v>
@@ -17011,7 +17222,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J115" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="K115">
         <v>1.0003019523000001</v>
@@ -17031,7 +17242,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J116" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="K116">
         <v>3.0442563560000003E-4</v>
@@ -17051,7 +17262,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J117" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="K117">
         <v>-3.0477900539999998E-4</v>
@@ -17071,7 +17282,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J118" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="K118">
         <v>-3.0468557529000011E-4</v>
@@ -17091,7 +17302,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J119" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="K119">
         <v>-1.0003009982</v>
@@ -17111,7 +17322,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J120" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="K120">
         <v>-1.0003010532000001</v>
@@ -17131,7 +17342,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J121" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="K121">
         <v>5.1170541267839013E-3</v>
@@ -17151,7 +17362,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J122" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -17191,7 +17402,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J124" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
       <c r="K124">
         <v>-9.398484954500002E-3</v>
@@ -17211,7 +17422,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J125" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="K125">
         <v>-10.000020631</v>
@@ -17251,7 +17462,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J127" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="K127">
         <v>-1.0103039235</v>
@@ -17271,7 +17482,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J128" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="K128">
         <v>10.000023493</v>
@@ -17291,7 +17502,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J129" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="K129">
         <v>10.000023072999999</v>
@@ -17311,7 +17522,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J130" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K130">
         <v>8.0000000000000005E-9</v>
@@ -17351,7 +17562,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J132" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -17371,7 +17582,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J133" t="s">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -17391,7 +17602,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J134" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K134">
         <v>8.0000000000000005E-9</v>
@@ -17471,7 +17682,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J138" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="K138">
         <v>20.889089999999999</v>
@@ -17491,7 +17702,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J139" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
       <c r="K139">
         <v>10.000023782</v>
@@ -17517,7 +17728,7 @@
         <v>10.000022103999999</v>
       </c>
       <c r="C141" t="s">
-        <v>651</v>
+        <v>609</v>
       </c>
       <c r="D141">
         <v>20.794597499999998</v>
@@ -17535,7 +17746,7 @@
         <v>0.43965729800926601</v>
       </c>
       <c r="J141" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="K141">
         <v>-2.7000000000000001E-7</v>
@@ -17555,7 +17766,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J142" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="K142">
         <v>3.0450394397000001E-4</v>
@@ -17575,7 +17786,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J143" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="K143">
         <v>1.0003012131</v>
@@ -17595,7 +17806,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J144" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="K144">
         <v>-3.0469905695000002E-4</v>
@@ -17615,7 +17826,7 @@
     </row>
     <row r="145" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J145" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -17635,7 +17846,7 @@
     </row>
     <row r="146" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J146" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="K146">
         <v>-1.0003015239999999</v>
@@ -17655,7 +17866,7 @@
     </row>
     <row r="147" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J147" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="K147">
         <v>-1.0003004069999999</v>
@@ -17675,7 +17886,7 @@
     </row>
     <row r="148" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J148" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="K148">
         <v>-3.0484762067999998E-4</v>
@@ -17695,7 +17906,7 @@
     </row>
     <row r="149" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J149" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="K149">
         <v>5.1170541267839013E-3</v>
@@ -17735,7 +17946,7 @@
     </row>
     <row r="151" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J151" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="K151">
         <v>-1.0103038608999999</v>
@@ -17755,7 +17966,7 @@
     </row>
     <row r="152" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J152" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="K152">
         <v>-10.000021075999999</v>
@@ -17775,7 +17986,7 @@
     </row>
     <row r="153" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J153" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
       <c r="K153">
         <v>-9.3985903548000002E-3</v>
@@ -17815,7 +18026,7 @@
     </row>
     <row r="155" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J155" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="K155">
         <v>10.000023293</v>
@@ -17835,7 +18046,7 @@
     </row>
     <row r="156" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J156" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="K156">
         <v>10.000022971</v>
@@ -17855,7 +18066,7 @@
     </row>
     <row r="157" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J157" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K157">
         <v>8.0000000000000005E-9</v>
@@ -17875,7 +18086,7 @@
     </row>
     <row r="158" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J158" t="s">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -17915,7 +18126,7 @@
     </row>
     <row r="160" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J160" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -17935,7 +18146,7 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J161" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K161">
         <v>8.0000000000000005E-9</v>
@@ -18015,7 +18226,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J165" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="K165">
         <v>20.889089999999999</v>
@@ -18035,7 +18246,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J166" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
       <c r="K166">
         <v>10.000023334</v>
@@ -18061,7 +18272,7 @@
         <v>10.000021891999999</v>
       </c>
       <c r="C168" t="s">
-        <v>652</v>
+        <v>610</v>
       </c>
       <c r="D168">
         <v>20.792098750000001</v>
@@ -18079,7 +18290,7 @@
         <v>0.43783352624551419</v>
       </c>
       <c r="J168" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="K168">
         <v>-2.7000000000000001E-7</v>
@@ -18099,7 +18310,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J169" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="K169">
         <v>1.0003020302000001</v>
@@ -18119,7 +18330,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J170" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="K170">
         <v>3.0437386631000001E-4</v>
@@ -18139,7 +18350,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J171" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="K171">
         <v>-1.0003008587</v>
@@ -18159,7 +18370,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J172" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="K172">
         <v>-3.0463584712000011E-4</v>
@@ -18179,7 +18390,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J173" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="K173">
         <v>-3.0459166463999999E-4</v>
@@ -18199,7 +18410,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J174" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="K174">
         <v>-1.0003009251999999</v>
@@ -18219,7 +18430,7 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J175" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="K175">
         <v>5.1170541267839013E-3</v>
@@ -18259,7 +18470,7 @@
     </row>
     <row r="177" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J177" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="K177">
         <v>-10.000019817</v>
@@ -18279,7 +18490,7 @@
     </row>
     <row r="178" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J178" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="K178">
         <v>-1.0103044137999999</v>
@@ -18319,7 +18530,7 @@
     </row>
     <row r="180" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J180" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
       <c r="K180">
         <v>-9.3982111768999999E-3</v>
@@ -18339,7 +18550,7 @@
     </row>
     <row r="181" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J181" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="K181">
         <v>10.000024016999999</v>
@@ -18359,7 +18570,7 @@
     </row>
     <row r="182" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J182" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K182">
         <v>8.0000000000000005E-9</v>
@@ -18379,7 +18590,7 @@
     </row>
     <row r="183" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J183" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="K183">
         <v>10.000023917</v>
@@ -18399,7 +18610,7 @@
     </row>
     <row r="184" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J184" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -18439,7 +18650,7 @@
     </row>
     <row r="186" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J186" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -18459,7 +18670,7 @@
     </row>
     <row r="187" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J187" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="K187">
         <v>20.886592499999999</v>
@@ -18479,7 +18690,7 @@
     </row>
     <row r="188" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J188" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K188">
         <v>8.0000000000000005E-9</v>
@@ -18499,7 +18710,7 @@
     </row>
     <row r="189" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J189" t="s">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -18579,7 +18790,7 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J193" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
       <c r="K193">
         <v>10.000022755</v>
@@ -18605,7 +18816,7 @@
         <v>10.000021795249999</v>
       </c>
       <c r="C195" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="D195">
         <v>20.767111249999999</v>
@@ -18623,7 +18834,7 @@
         <v>0.42962450614870867</v>
       </c>
       <c r="J195" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="K195">
         <v>-2.7000000000000001E-7</v>
@@ -18643,7 +18854,7 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J196" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="K196">
         <v>-3.0464299228999999E-4</v>
@@ -18663,7 +18874,7 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J197" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="K197">
         <v>1.0003018430999999</v>
@@ -18683,7 +18894,7 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J198" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="K198">
         <v>-1.0003004669</v>
@@ -18703,7 +18914,7 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J199" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="K199">
         <v>3.0400439026000001E-4</v>
@@ -18723,7 +18934,7 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J200" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="K200">
         <v>-1.000300816</v>
@@ -18743,7 +18954,7 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J201" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="K201">
         <v>-3.0453863689000003E-4</v>
@@ -18763,7 +18974,7 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J202" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -18783,7 +18994,7 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J203" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="K203">
         <v>5.1170541267839013E-3</v>
@@ -18823,7 +19034,7 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J205" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
       <c r="K205">
         <v>-9.3983995658000006E-3</v>
@@ -18843,7 +19054,7 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J206" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="K206">
         <v>-10.000020214999999</v>
@@ -18863,7 +19074,7 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J207" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="K207">
         <v>-1.0103038233999999</v>
@@ -18903,7 +19114,7 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J209" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="K209">
         <v>10.000023741</v>
@@ -18923,7 +19134,7 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J210" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="K210">
         <v>10.00002301</v>
@@ -18943,7 +19154,7 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J211" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K211">
         <v>8.0000000000000005E-9</v>
@@ -18983,7 +19194,7 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J213" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="K213">
         <v>0</v>
@@ -19003,7 +19214,7 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J214" t="s">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="K214">
         <v>0</v>
@@ -19023,7 +19234,7 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J215" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K215">
         <v>8.0000000000000005E-9</v>
@@ -19103,7 +19314,7 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J219" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="K219">
         <v>20.879100000000001</v>
@@ -19123,7 +19334,7 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J220" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
       <c r="K220">
         <v>10.000022384999999</v>
@@ -19149,7 +19360,7 @@
         <v>10.000021771749999</v>
       </c>
       <c r="C222" t="s">
-        <v>654</v>
+        <v>612</v>
       </c>
       <c r="D222">
         <v>20.764612499999998</v>
@@ -19167,7 +19378,7 @@
         <v>0.44003306729035152</v>
       </c>
       <c r="J222" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="K222">
         <v>-2.7000000000000001E-7</v>
@@ -19187,7 +19398,7 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J223" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="K223">
         <v>3.0377552598999998E-4</v>
@@ -19207,7 +19418,7 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J224" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="K224">
         <v>1.0003015202000001</v>
@@ -19227,7 +19438,7 @@
     </row>
     <row r="225" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J225" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="K225">
         <v>-1.0003008959999999</v>
@@ -19247,7 +19458,7 @@
     </row>
     <row r="226" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J226" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="K226">
         <v>-1.0003008641</v>
@@ -19267,7 +19478,7 @@
     </row>
     <row r="227" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J227" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="K227">
         <v>-3.0421448952999989E-4</v>
@@ -19287,7 +19498,7 @@
     </row>
     <row r="228" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J228" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="K228">
         <v>-3.0450454660999998E-4</v>
@@ -19307,7 +19518,7 @@
     </row>
     <row r="229" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J229" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -19327,7 +19538,7 @@
     </row>
     <row r="230" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J230" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="K230">
         <v>5.1170541267839013E-3</v>
@@ -19367,7 +19578,7 @@
     </row>
     <row r="232" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J232" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="K232">
         <v>-1.0103041966999999</v>
@@ -19387,7 +19598,7 @@
     </row>
     <row r="233" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J233" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="K233">
         <v>-10.000020528</v>
@@ -19407,7 +19618,7 @@
     </row>
     <row r="234" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J234" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
       <c r="K234">
         <v>-9.3981304052999995E-3</v>
@@ -19447,7 +19658,7 @@
     </row>
     <row r="236" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J236" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="K236">
         <v>10.000022766000001</v>
@@ -19467,7 +19678,7 @@
     </row>
     <row r="237" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J237" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="K237">
         <v>10.000023264999999</v>
@@ -19487,7 +19698,7 @@
     </row>
     <row r="238" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J238" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K238">
         <v>8.0000000000000005E-9</v>
@@ -19527,7 +19738,7 @@
     </row>
     <row r="240" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J240" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -19547,7 +19758,7 @@
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J241" t="s">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="K241">
         <v>0</v>
@@ -19567,7 +19778,7 @@
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J242" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K242">
         <v>8.0000000000000005E-9</v>
@@ -19647,7 +19858,7 @@
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J246" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="K246">
         <v>20.879100000000001</v>
@@ -19667,7 +19878,7 @@
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J247" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
       <c r="K247">
         <v>10.000023814</v>
@@ -19686,8 +19897,8 @@
       </c>
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A248" s="70" t="s">
-        <v>655</v>
+      <c r="A248" s="69" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.25">
@@ -19698,33 +19909,33 @@
         <v>202</v>
       </c>
       <c r="J249" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="R249" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="U249" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="V249" t="s">
-        <v>612</v>
+        <v>570</v>
       </c>
       <c r="Y249" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="Z249" t="s">
-        <v>614</v>
+        <v>572</v>
       </c>
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="B250" t="s">
-        <v>616</v>
+        <v>574</v>
       </c>
       <c r="C250" t="s">
-        <v>617</v>
+        <v>575</v>
       </c>
       <c r="D250" t="s">
         <v>70</v>
@@ -19733,34 +19944,34 @@
         <v>358</v>
       </c>
       <c r="F250" t="s">
-        <v>618</v>
+        <v>576</v>
       </c>
       <c r="G250" t="s">
         <v>373</v>
       </c>
       <c r="H250" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="J250" t="s">
-        <v>619</v>
+        <v>577</v>
       </c>
       <c r="K250" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="L250" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="M250" t="s">
         <v>373</v>
       </c>
       <c r="N250" t="s">
-        <v>622</v>
+        <v>580</v>
       </c>
       <c r="O250" t="s">
-        <v>623</v>
+        <v>581</v>
       </c>
       <c r="Q250" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="R250">
         <v>1000070.712968647</v>
@@ -19784,7 +19995,7 @@
         <v>10</v>
       </c>
       <c r="Y250" t="s">
-        <v>656</v>
+        <v>614</v>
       </c>
       <c r="Z250">
         <v>1.0000115617333341</v>
@@ -19797,19 +20008,19 @@
       </c>
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A251" s="71" t="s">
+      <c r="A251" s="70" t="s">
         <v>364</v>
       </c>
       <c r="B251">
         <v>10.00007089775</v>
       </c>
       <c r="C251" t="s">
-        <v>657</v>
+        <v>615</v>
       </c>
       <c r="D251">
         <v>20.804500000000001</v>
       </c>
-      <c r="E251" s="65">
+      <c r="E251" s="64">
         <v>1000068.824972069</v>
       </c>
       <c r="F251">
@@ -19840,7 +20051,7 @@
         <v>2.1111787589002078</v>
       </c>
       <c r="Q251" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
       <c r="R251">
         <v>1000068.678573876</v>
@@ -19864,7 +20075,7 @@
         <v>10</v>
       </c>
       <c r="Y251" t="s">
-        <v>658</v>
+        <v>616</v>
       </c>
       <c r="Z251">
         <v>10.000070656083331</v>
@@ -19907,7 +20118,7 @@
         <v>3.506887627034287</v>
       </c>
       <c r="J253" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
       <c r="K253">
         <v>0.99997442679000004</v>
@@ -19925,15 +20136,15 @@
         <v>0.3258683215413769</v>
       </c>
       <c r="R253" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
       <c r="V253" t="s">
-        <v>632</v>
+        <v>590</v>
       </c>
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J254" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="K254">
         <v>-1.21759646598E-6</v>
@@ -19971,7 +20182,7 @@
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J255" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="K255">
         <v>5.010079220600001E-7</v>
@@ -19991,7 +20202,7 @@
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J256" t="s">
-        <v>662</v>
+        <v>620</v>
       </c>
       <c r="K256">
         <v>-0.99997409883999988</v>
@@ -20011,7 +20222,7 @@
     </row>
     <row r="257" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J257" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
       <c r="K257">
         <v>-0.99997379125000008</v>
@@ -20031,7 +20242,7 @@
     </row>
     <row r="258" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J258" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -20051,7 +20262,7 @@
     </row>
     <row r="259" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J259" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="K259">
         <v>2.4540955671799997E-7</v>
@@ -20071,7 +20282,7 @@
     </row>
     <row r="260" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J260" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="K260">
         <v>20.871500000000001</v>
@@ -20091,7 +20302,7 @@
     </row>
     <row r="261" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J261" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K261">
         <v>0</v>
@@ -20111,7 +20322,7 @@
     </row>
     <row r="262" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J262" t="s">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="K262">
         <v>-10.000069902</v>
@@ -20151,7 +20362,7 @@
     </row>
     <row r="264" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J264" t="s">
-        <v>668</v>
+        <v>626</v>
       </c>
       <c r="K264">
         <v>6.30322018354E-3</v>
@@ -20191,7 +20402,7 @@
     </row>
     <row r="266" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J266" t="s">
-        <v>669</v>
+        <v>627</v>
       </c>
       <c r="K266">
         <v>10.000071999999999</v>
@@ -20211,7 +20422,7 @@
     </row>
     <row r="267" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J267" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="K267">
         <v>0</v>
@@ -20231,7 +20442,7 @@
     </row>
     <row r="268" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J268" t="s">
-        <v>671</v>
+        <v>629</v>
       </c>
       <c r="K268">
         <v>10.000071787</v>
@@ -20251,7 +20462,7 @@
     </row>
     <row r="269" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J269" t="s">
-        <v>672</v>
+        <v>630</v>
       </c>
       <c r="K269">
         <v>-9.0798130002999985E-4</v>
@@ -20271,7 +20482,7 @@
     </row>
     <row r="270" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J270" t="s">
-        <v>673</v>
+        <v>631</v>
       </c>
       <c r="K270">
         <v>-1.0009730435999999</v>
@@ -20291,7 +20502,7 @@
     </row>
     <row r="271" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J271" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K271">
         <v>0</v>
@@ -20311,7 +20522,7 @@
     </row>
     <row r="272" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J272" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="K272">
         <v>0</v>
@@ -20391,7 +20602,7 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J276" t="s">
-        <v>675</v>
+        <v>633</v>
       </c>
       <c r="K276">
         <v>10.000071431</v>
@@ -20410,14 +20621,14 @@
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A278" s="71" t="s">
+      <c r="A278" s="70" t="s">
         <v>364</v>
       </c>
       <c r="B278">
         <v>1.0000115566250001</v>
       </c>
       <c r="C278" t="s">
-        <v>676</v>
+        <v>634</v>
       </c>
       <c r="D278">
         <v>20.799499999999998</v>
@@ -20484,7 +20695,7 @@
         <v>3.5068876270344829</v>
       </c>
       <c r="J280" t="s">
-        <v>672</v>
+        <v>630</v>
       </c>
       <c r="K280">
         <v>-4.4299019982E-5</v>
@@ -20504,7 +20715,7 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J281" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="K281">
         <v>-4.7280303858000001E-5</v>
@@ -20524,7 +20735,7 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J282" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="K282">
         <v>4.6700269812000003E-5</v>
@@ -20544,7 +20755,7 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J283" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="K283">
         <v>4.6670363381999999E-5</v>
@@ -20564,7 +20775,7 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J284" t="s">
-        <v>673</v>
+        <v>631</v>
       </c>
       <c r="K284">
         <v>-0.10004595518000001</v>
@@ -20584,7 +20795,7 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J285" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
       <c r="K285">
         <v>9.9946685046000003E-2</v>
@@ -20604,7 +20815,7 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J286" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="K286">
         <v>0</v>
@@ -20624,7 +20835,7 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J287" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="K287">
         <v>0</v>
@@ -20644,7 +20855,7 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J288" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K288">
         <v>0</v>
@@ -20664,7 +20875,7 @@
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J289" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K289">
         <v>0</v>
@@ -20684,7 +20895,7 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J290" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="K290">
         <v>0</v>
@@ -20704,7 +20915,7 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J291" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
       <c r="K291">
         <v>-9.9946064873000007E-2</v>
@@ -20724,7 +20935,7 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J292" t="s">
-        <v>662</v>
+        <v>620</v>
       </c>
       <c r="K292">
         <v>-9.9946130290999996E-2</v>
@@ -20744,7 +20955,7 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J293" t="s">
-        <v>669</v>
+        <v>627</v>
       </c>
       <c r="K293">
         <v>1.0000118695</v>
@@ -20764,7 +20975,7 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J294" t="s">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="K294">
         <v>-1.0000112086999999</v>
@@ -20784,7 +20995,7 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J295" t="s">
-        <v>671</v>
+        <v>629</v>
       </c>
       <c r="K295">
         <v>1.0000119396</v>
@@ -20804,7 +21015,7 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J296" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="K296">
         <v>20.866499999999998</v>
@@ -20924,7 +21135,7 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J302" t="s">
-        <v>675</v>
+        <v>633</v>
       </c>
       <c r="K302">
         <v>1.0000118230999999</v>
@@ -20943,14 +21154,14 @@
       </c>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A304" s="71" t="s">
+      <c r="A304" s="70" t="s">
         <v>364</v>
       </c>
       <c r="B304">
         <v>10.000070770000001</v>
       </c>
       <c r="C304" t="s">
-        <v>658</v>
+        <v>616</v>
       </c>
       <c r="D304">
         <v>20.794499999999999</v>
@@ -21017,7 +21228,7 @@
         <v>3.5068876270346361</v>
       </c>
       <c r="J306" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
       <c r="K306">
         <v>0.99997410146999999</v>
@@ -21037,7 +21248,7 @@
     </row>
     <row r="307" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J307" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="K307">
         <v>-1.00681942905E-6</v>
@@ -21057,7 +21268,7 @@
     </row>
     <row r="308" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J308" t="s">
-        <v>662</v>
+        <v>620</v>
       </c>
       <c r="K308">
         <v>-0.99997407008000005</v>
@@ -21077,7 +21288,7 @@
     </row>
     <row r="309" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J309" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="K309">
         <v>7.1815947877999985E-7</v>
@@ -21097,7 +21308,7 @@
     </row>
     <row r="310" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J310" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="K310">
         <v>0</v>
@@ -21117,7 +21328,7 @@
     </row>
     <row r="311" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J311" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="K311">
         <v>2.9231589348000001E-7</v>
@@ -21137,7 +21348,7 @@
     </row>
     <row r="312" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J312" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="K312">
         <v>0</v>
@@ -21157,7 +21368,7 @@
     </row>
     <row r="313" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J313" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
       <c r="K313">
         <v>-0.99997416679999984</v>
@@ -21177,7 +21388,7 @@
     </row>
     <row r="314" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J314" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="K314">
         <v>20.849</v>
@@ -21197,7 +21408,7 @@
     </row>
     <row r="315" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J315" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K315">
         <v>0</v>
@@ -21217,7 +21428,7 @@
     </row>
     <row r="316" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J316" t="s">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="K316">
         <v>-10.000070692</v>
@@ -21277,7 +21488,7 @@
     </row>
     <row r="319" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J319" t="s">
-        <v>669</v>
+        <v>627</v>
       </c>
       <c r="K319">
         <v>10.000070652</v>
@@ -21297,7 +21508,7 @@
     </row>
     <row r="320" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J320" t="s">
-        <v>671</v>
+        <v>629</v>
       </c>
       <c r="K320">
         <v>10.000071044</v>
@@ -21317,7 +21528,7 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J321" t="s">
-        <v>672</v>
+        <v>630</v>
       </c>
       <c r="K321">
         <v>-9.0842257880000021E-4</v>
@@ -21337,7 +21548,7 @@
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J322" t="s">
-        <v>673</v>
+        <v>631</v>
       </c>
       <c r="K322">
         <v>-1.0009731546</v>
@@ -21357,7 +21568,7 @@
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J323" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="K323">
         <v>0</v>
@@ -21377,7 +21588,7 @@
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J324" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K324">
         <v>0</v>
@@ -21457,7 +21668,7 @@
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J328" t="s">
-        <v>675</v>
+        <v>633</v>
       </c>
       <c r="K328">
         <v>10.000071116999999</v>
@@ -21476,14 +21687,14 @@
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A330" s="71" t="s">
+      <c r="A330" s="70" t="s">
         <v>364</v>
       </c>
       <c r="B330">
         <v>1.0000115922249999</v>
       </c>
       <c r="C330" t="s">
-        <v>677</v>
+        <v>635</v>
       </c>
       <c r="D330">
         <v>20.784500000000001</v>
@@ -21501,7 +21712,7 @@
         <v>8.1492586712856863</v>
       </c>
       <c r="J330" t="s">
-        <v>672</v>
+        <v>630</v>
       </c>
       <c r="K330">
         <v>-4.4213902103999999E-5</v>
@@ -21570,7 +21781,7 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J333" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="K333">
         <v>-4.7168734113999997E-5</v>
@@ -21590,7 +21801,7 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J334" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="K334">
         <v>0</v>
@@ -21610,7 +21821,7 @@
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J335" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="K335">
         <v>4.6513497436999998E-5</v>
@@ -21630,7 +21841,7 @@
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J336" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="K336">
         <v>0</v>
@@ -21650,7 +21861,7 @@
     </row>
     <row r="337" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J337" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="K337">
         <v>4.6820726262999998E-5</v>
@@ -21670,7 +21881,7 @@
     </row>
     <row r="338" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J338" t="s">
-        <v>673</v>
+        <v>631</v>
       </c>
       <c r="K338">
         <v>-0.10004592436</v>
@@ -21690,7 +21901,7 @@
     </row>
     <row r="339" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J339" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
       <c r="K339">
         <v>9.9946665886000013E-2</v>
@@ -21710,7 +21921,7 @@
     </row>
     <row r="340" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J340" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K340">
         <v>0</v>
@@ -21730,7 +21941,7 @@
     </row>
     <row r="341" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J341" t="s">
-        <v>662</v>
+        <v>620</v>
       </c>
       <c r="K341">
         <v>-9.9946071979999995E-2</v>
@@ -21750,7 +21961,7 @@
     </row>
     <row r="342" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J342" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K342">
         <v>0</v>
@@ -21770,7 +21981,7 @@
     </row>
     <row r="343" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J343" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="K343">
         <v>0</v>
@@ -21790,7 +22001,7 @@
     </row>
     <row r="344" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J344" t="s">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="K344">
         <v>-1.0000113017000001</v>
@@ -21810,7 +22021,7 @@
     </row>
     <row r="345" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J345" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
       <c r="K345">
         <v>-9.9946116420999986E-2</v>
@@ -21830,7 +22041,7 @@
     </row>
     <row r="346" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J346" t="s">
-        <v>669</v>
+        <v>627</v>
       </c>
       <c r="K346">
         <v>1.0000119673000001</v>
@@ -21850,7 +22061,7 @@
     </row>
     <row r="347" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J347" t="s">
-        <v>671</v>
+        <v>629</v>
       </c>
       <c r="K347">
         <v>1.0000117982000001</v>
@@ -21870,7 +22081,7 @@
     </row>
     <row r="348" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J348" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="K348">
         <v>20.8415</v>
@@ -21990,7 +22201,7 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J354" t="s">
-        <v>675</v>
+        <v>633</v>
       </c>
       <c r="K354">
         <v>1.0000118683999999</v>
@@ -22009,14 +22220,14 @@
       </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A356" s="71" t="s">
+      <c r="A356" s="70" t="s">
         <v>364</v>
       </c>
       <c r="B356">
         <v>10.000070300499999</v>
       </c>
       <c r="C356" t="s">
-        <v>678</v>
+        <v>636</v>
       </c>
       <c r="D356">
         <v>20.777000000000001</v>
@@ -22083,7 +22294,7 @@
         <v>3.383708817432022</v>
       </c>
       <c r="J358" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="K358">
         <v>2.626020855046E-7</v>
@@ -22103,7 +22314,7 @@
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J359" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="K359">
         <v>-1.21562234644E-6</v>
@@ -22123,7 +22334,7 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J360" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
       <c r="K360">
         <v>0.99997429208999988</v>
@@ -22143,7 +22354,7 @@
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J361" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="K361">
         <v>5.0445092863E-7</v>
@@ -22163,7 +22374,7 @@
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J362" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
       <c r="K362">
         <v>-0.99997382933000001</v>
@@ -22183,7 +22394,7 @@
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J363" t="s">
-        <v>662</v>
+        <v>620</v>
       </c>
       <c r="K363">
         <v>-0.99997410931000008</v>
@@ -22203,7 +22414,7 @@
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J364" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="K364">
         <v>0</v>
@@ -22223,7 +22434,7 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J365" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="K365">
         <v>20.834</v>
@@ -22243,7 +22454,7 @@
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J366" t="s">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="K366">
         <v>-10.000069559</v>
@@ -22263,7 +22474,7 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J367" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K367">
         <v>0</v>
@@ -22303,7 +22514,7 @@
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J369" t="s">
-        <v>669</v>
+        <v>627</v>
       </c>
       <c r="K369">
         <v>10.000071212</v>
@@ -22343,7 +22554,7 @@
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J371" t="s">
-        <v>671</v>
+        <v>629</v>
       </c>
       <c r="K371">
         <v>10.000070872</v>
@@ -22363,7 +22574,7 @@
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J372" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="K372">
         <v>0</v>
@@ -22383,7 +22594,7 @@
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J373" t="s">
-        <v>673</v>
+        <v>631</v>
       </c>
       <c r="K373">
         <v>-1.0009729646000001</v>
@@ -22403,7 +22614,7 @@
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J374" t="s">
-        <v>672</v>
+        <v>630</v>
       </c>
       <c r="K374">
         <v>-9.0862777823000015E-4</v>
@@ -22423,7 +22634,7 @@
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J375" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K375">
         <v>0</v>
@@ -22443,7 +22654,7 @@
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J376" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="K376">
         <v>0</v>
@@ -22523,7 +22734,7 @@
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J380" t="s">
-        <v>675</v>
+        <v>633</v>
       </c>
       <c r="K380">
         <v>10.000071191</v>
@@ -22542,14 +22753,14 @@
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A382" s="71" t="s">
+      <c r="A382" s="70" t="s">
         <v>364</v>
       </c>
       <c r="B382">
         <v>1.00001153635</v>
       </c>
       <c r="C382" t="s">
-        <v>679</v>
+        <v>637</v>
       </c>
       <c r="D382">
         <v>20.771999999999998</v>
@@ -22593,7 +22804,7 @@
         <v>1.031552228440237E-2</v>
       </c>
       <c r="J383" t="s">
-        <v>672</v>
+        <v>630</v>
       </c>
       <c r="K383">
         <v>-4.4298356766999998E-5</v>
@@ -22636,7 +22847,7 @@
     </row>
     <row r="385" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J385" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="K385">
         <v>-4.7058270525E-5</v>
@@ -22656,7 +22867,7 @@
     </row>
     <row r="386" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J386" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="K386">
         <v>4.6669617529999999E-5</v>
@@ -22676,7 +22887,7 @@
     </row>
     <row r="387" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J387" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="K387">
         <v>4.6730681908999998E-5</v>
@@ -22696,7 +22907,7 @@
     </row>
     <row r="388" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J388" t="s">
-        <v>673</v>
+        <v>631</v>
       </c>
       <c r="K388">
         <v>-0.10004595107</v>
@@ -22716,7 +22927,7 @@
     </row>
     <row r="389" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J389" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
       <c r="K389">
         <v>9.9946641030999997E-2</v>
@@ -22736,7 +22947,7 @@
     </row>
     <row r="390" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J390" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="K390">
         <v>0</v>
@@ -22756,7 +22967,7 @@
     </row>
     <row r="391" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J391" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="K391">
         <v>0</v>
@@ -22776,7 +22987,7 @@
     </row>
     <row r="392" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J392" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="K392">
         <v>0</v>
@@ -22796,7 +23007,7 @@
     </row>
     <row r="393" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J393" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="K393">
         <v>0</v>
@@ -22816,7 +23027,7 @@
     </row>
     <row r="394" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J394" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="K394">
         <v>0</v>
@@ -22836,7 +23047,7 @@
     </row>
     <row r="395" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J395" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
       <c r="K395">
         <v>-9.9946052337000005E-2</v>
@@ -22856,7 +23067,7 @@
     </row>
     <row r="396" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J396" t="s">
-        <v>662</v>
+        <v>620</v>
       </c>
       <c r="K396">
         <v>-9.9946060631000005E-2</v>
@@ -22876,7 +23087,7 @@
     </row>
     <row r="397" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J397" t="s">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="K397">
         <v>-1.0000112345000001</v>
@@ -22896,7 +23107,7 @@
     </row>
     <row r="398" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J398" t="s">
-        <v>669</v>
+        <v>627</v>
       </c>
       <c r="K398">
         <v>1.0000118654000001</v>
@@ -22916,7 +23127,7 @@
     </row>
     <row r="399" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J399" t="s">
-        <v>671</v>
+        <v>629</v>
       </c>
       <c r="K399">
         <v>1.000011811</v>
@@ -22936,7 +23147,7 @@
     </row>
     <row r="400" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J400" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="K400">
         <v>20.826499999999999</v>
@@ -23056,7 +23267,7 @@
     </row>
     <row r="406" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J406" t="s">
-        <v>675</v>
+        <v>633</v>
       </c>
       <c r="K406">
         <v>1.0000120260000001</v>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="12150" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="12150" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Comments" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Parameters" sheetId="4" r:id="rId4"/>
     <sheet name="Results" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -3251,7 +3251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="765" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="AE80" sqref="AE80"/>
@@ -12038,10 +12038,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U171"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="540" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="540" topLeftCell="A28" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="O90" sqref="O90"/>
+      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HRBC_template.xlsx
+++ b/HRBC_template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="687">
   <si>
     <t>WARNING: DO NOT INSERT ANY COMMENTS IN THIS WORKBOOK!</t>
   </si>
@@ -1237,9 +1237,6 @@
     <t>str_addr</t>
   </si>
   <si>
-    <t>COM6</t>
-  </si>
-  <si>
     <t>5. Calibration dates relate to the LV measurement.</t>
   </si>
   <si>
@@ -1336,9 +1333,6 @@
     <t>SR104r_Vref_LV &lt;source?&gt;</t>
   </si>
   <si>
-    <t>COM4</t>
-  </si>
-  <si>
     <t>Vdav = (Vd[0]-2*Vd[1]+Vd[2])/4 + Vlin_Vd + Vdrift_Vd</t>
   </si>
   <si>
@@ -1471,9 +1465,6 @@
     <t>NO_ADDRESS</t>
   </si>
   <si>
-    <t>NOT USED</t>
-  </si>
-  <si>
     <t>DVM: HP34420A, s/n130</t>
   </si>
   <si>
@@ -2084,6 +2075,15 @@
   </si>
   <si>
     <t>02/08/2017 18:45:35</t>
+  </si>
+  <si>
+    <t>COM8</t>
+  </si>
+  <si>
+    <t>COM9</t>
+  </si>
+  <si>
+    <t>UNUSED</t>
   </si>
 </sst>
 </file>
@@ -2476,7 +2476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2561,6 +2561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3322,21 +3323,21 @@
       <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="M3" s="78" t="s">
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="M3" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="78" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
       <c r="S3" t="s">
         <v>57</v>
       </c>
@@ -3349,11 +3350,11 @@
       <c r="V3" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="78" t="s">
+      <c r="W3" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
       <c r="Z3" t="s">
         <v>62</v>
       </c>
@@ -12039,9 +12040,9 @@
   <dimension ref="A1:U171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="540" topLeftCell="A28" activePane="bottomLeft"/>
+      <pane ySplit="540" topLeftCell="A36" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12258,7 +12259,7 @@
         <v>399</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O6" t="s">
         <v>400</v>
@@ -12284,13 +12285,13 @@
         <v>403</v>
       </c>
       <c r="K7" t="s">
-        <v>404</v>
+        <v>684</v>
       </c>
       <c r="O7" t="s">
         <v>400</v>
       </c>
       <c r="Q7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12298,7 +12299,7 @@
         <v>378</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>83</v>
@@ -12311,18 +12312,21 @@
         <v>122</v>
       </c>
       <c r="J8" t="s">
+        <v>406</v>
+      </c>
+      <c r="K8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="76" t="s">
         <v>407</v>
       </c>
-      <c r="K8" t="s">
+      <c r="Q8" t="s">
         <v>408</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B9" t="s">
         <v>379</v>
@@ -12337,28 +12341,28 @@
         <v>380</v>
       </c>
       <c r="F9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>122</v>
       </c>
       <c r="J9" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="K9" s="26" t="s">
         <v>412</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>413</v>
       </c>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
       <c r="Q9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
         <v>387</v>
@@ -12373,7 +12377,7 @@
         <v>380</v>
       </c>
       <c r="F10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I10" t="s">
         <v>98</v>
@@ -12391,18 +12395,18 @@
         <v>380</v>
       </c>
       <c r="N10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O10" t="s">
         <v>385</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B11" t="s">
         <v>392</v>
@@ -12417,7 +12421,7 @@
         <v>380</v>
       </c>
       <c r="F11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I11" t="s">
         <v>98</v>
@@ -12426,21 +12430,21 @@
         <v>399</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O11" t="s">
         <v>400</v>
       </c>
       <c r="R11" t="s">
+        <v>418</v>
+      </c>
+      <c r="S11" s="27" t="s">
         <v>419</v>
-      </c>
-      <c r="S11" s="27" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s">
         <v>397</v>
@@ -12455,7 +12459,7 @@
         <v>380</v>
       </c>
       <c r="F12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I12" t="s">
         <v>98</v>
@@ -12464,21 +12468,21 @@
         <v>403</v>
       </c>
       <c r="K12" t="s">
-        <v>422</v>
+        <v>685</v>
       </c>
       <c r="O12" t="s">
         <v>400</v>
       </c>
       <c r="S12" t="s">
+        <v>422</v>
+      </c>
+      <c r="T12" s="27" t="s">
         <v>423</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B13" t="s">
         <v>402</v>
@@ -12490,24 +12494,27 @@
         <v>98</v>
       </c>
       <c r="J13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="T13" t="s">
         <v>425</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" s="27" t="s">
         <v>426</v>
-      </c>
-      <c r="U13" s="27" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>83</v>
@@ -12520,7 +12527,7 @@
         <v>98</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K14" s="26" t="s">
         <v>70</v>
@@ -12529,10 +12536,10 @@
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="T14" s="27" t="s">
         <v>428</v>
-      </c>
-      <c r="T14" s="27" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12552,7 +12559,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I15" t="s">
         <v>93</v>
@@ -12570,13 +12577,13 @@
         <v>380</v>
       </c>
       <c r="N15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O15" t="s">
         <v>385</v>
       </c>
       <c r="S15" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T15" s="27"/>
     </row>
@@ -12597,7 +12604,7 @@
         <v>380</v>
       </c>
       <c r="F16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I16" t="s">
         <v>93</v>
@@ -12606,13 +12613,13 @@
         <v>399</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O16" t="s">
         <v>400</v>
       </c>
       <c r="S16" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T16" s="27"/>
     </row>
@@ -12621,7 +12628,7 @@
         <v>362</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C17" s="39">
         <v>5</v>
@@ -12633,7 +12640,7 @@
         <v>380</v>
       </c>
       <c r="F17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I17" t="s">
         <v>93</v>
@@ -12642,13 +12649,13 @@
         <v>403</v>
       </c>
       <c r="K17" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="O17" t="s">
         <v>400</v>
       </c>
       <c r="S17" s="27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="T17" s="27"/>
     </row>
@@ -12657,7 +12664,7 @@
         <v>362</v>
       </c>
       <c r="B18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C18">
         <v>9999.9992600000005</v>
@@ -12669,22 +12676,25 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I18" t="s">
         <v>93</v>
       </c>
       <c r="J18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K18" t="s">
-        <v>441</v>
+        <v>92</v>
+      </c>
+      <c r="O18" s="76" t="s">
+        <v>439</v>
       </c>
       <c r="S18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -12692,7 +12702,7 @@
         <v>362</v>
       </c>
       <c r="B19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C19" s="9">
         <v>20</v>
@@ -12704,13 +12714,13 @@
         <v>380</v>
       </c>
       <c r="F19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>93</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K19" s="26" t="s">
         <v>70</v>
@@ -12719,10 +12729,10 @@
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
       <c r="O19" s="26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="T19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -12730,7 +12740,7 @@
         <v>362</v>
       </c>
       <c r="B20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -12742,7 +12752,7 @@
         <v>380</v>
       </c>
       <c r="F20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I20" t="s">
         <v>56</v>
@@ -12754,7 +12764,7 @@
         <v>2</v>
       </c>
       <c r="S20" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -12774,7 +12784,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I21" t="s">
         <v>56</v>
@@ -12783,13 +12793,13 @@
         <v>403</v>
       </c>
       <c r="K21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="S21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -12809,19 +12819,19 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I22" t="s">
         <v>56</v>
       </c>
       <c r="J22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K22" t="s">
         <v>112</v>
       </c>
       <c r="T22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -12829,7 +12839,7 @@
         <v>362</v>
       </c>
       <c r="B23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -12841,26 +12851,26 @@
         <v>380</v>
       </c>
       <c r="F23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I23" s="26" t="s">
         <v>56</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="T23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U23" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -12888,10 +12898,10 @@
         <v>362</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -12904,7 +12914,7 @@
         <v>403</v>
       </c>
       <c r="K25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12924,16 +12934,16 @@
         <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G26" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I26" t="s">
         <v>55</v>
       </c>
       <c r="J26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K26" t="s">
         <v>112</v>
@@ -12956,19 +12966,19 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G27" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I27" t="s">
         <v>55</v>
       </c>
       <c r="J27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -12976,7 +12986,7 @@
         <v>360</v>
       </c>
       <c r="B28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C28">
         <v>10.00002202005556</v>
@@ -12988,13 +12998,13 @@
         <v>147</v>
       </c>
       <c r="F28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>399</v>
@@ -13012,7 +13022,7 @@
         <v>360</v>
       </c>
       <c r="B29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C29">
         <v>100003.625478355</v>
@@ -13024,19 +13034,19 @@
         <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G29" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J29" t="s">
         <v>403</v>
       </c>
       <c r="K29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -13044,7 +13054,7 @@
         <v>360</v>
       </c>
       <c r="B30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C30">
         <v>20.79043291666666</v>
@@ -13056,16 +13066,16 @@
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G30" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K30" t="s">
         <v>112</v>
@@ -13076,7 +13086,7 @@
         <v>360</v>
       </c>
       <c r="B31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C31">
         <v>10.00002202005556</v>
@@ -13088,19 +13098,19 @@
         <v>147</v>
       </c>
       <c r="F31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G31" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L31" s="26"/>
       <c r="M31" s="26"/>
@@ -13124,10 +13134,10 @@
         <v>8.4</v>
       </c>
       <c r="F32" s="67" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G32" s="67" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I32" t="s">
         <v>54</v>
@@ -13156,10 +13166,10 @@
         <v>380</v>
       </c>
       <c r="F33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I33" t="s">
         <v>54</v>
@@ -13168,7 +13178,7 @@
         <v>403</v>
       </c>
       <c r="K33" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -13176,7 +13186,7 @@
         <v>360</v>
       </c>
       <c r="B34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -13188,16 +13198,16 @@
         <v>380</v>
       </c>
       <c r="F34" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I34" t="s">
         <v>54</v>
       </c>
       <c r="J34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K34" t="s">
         <v>112</v>
@@ -13214,16 +13224,16 @@
         <v>42797.571519740217</v>
       </c>
       <c r="G35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I35" s="26" t="s">
         <v>54</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L35" s="26"/>
       <c r="M35" s="26"/>
@@ -13235,7 +13245,7 @@
         <v>360</v>
       </c>
       <c r="B36" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C36" s="63" t="s">
         <v>83</v>
@@ -13244,13 +13254,13 @@
       <c r="E36" s="63"/>
       <c r="F36" s="63"/>
       <c r="G36" s="63" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I36" t="s">
         <v>83</v>
       </c>
       <c r="J36" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -13267,7 +13277,7 @@
         <v>83</v>
       </c>
       <c r="J37" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -13284,7 +13294,7 @@
         <v>83</v>
       </c>
       <c r="J38" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -13301,7 +13311,7 @@
         <v>83</v>
       </c>
       <c r="J39" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -13318,7 +13328,7 @@
         <v>83</v>
       </c>
       <c r="J40" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -13335,7 +13345,7 @@
         <v>83</v>
       </c>
       <c r="J41" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -13352,7 +13362,7 @@
         <v>83</v>
       </c>
       <c r="J42" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -13369,7 +13379,7 @@
         <v>83</v>
       </c>
       <c r="J43" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -13400,7 +13410,7 @@
         <v>403</v>
       </c>
       <c r="K45" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -13408,10 +13418,10 @@
         <v>83</v>
       </c>
       <c r="J46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K46" t="s">
-        <v>482</v>
+        <v>686</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -13419,7 +13429,7 @@
         <v>83</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
@@ -13429,10 +13439,10 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J48" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -13446,10 +13456,10 @@
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I49" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J49" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -13463,10 +13473,10 @@
     </row>
     <row r="50" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J50" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -13480,7 +13490,7 @@
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J51" t="s">
         <v>399</v>
@@ -13492,49 +13502,49 @@
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I52" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J52" t="s">
         <v>403</v>
       </c>
       <c r="K52" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M52" s="30"/>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
+        <v>480</v>
+      </c>
+      <c r="J53" t="s">
+        <v>482</v>
+      </c>
+      <c r="K53" t="s">
         <v>483</v>
-      </c>
-      <c r="J53" t="s">
-        <v>485</v>
-      </c>
-      <c r="K53" t="s">
-        <v>486</v>
       </c>
       <c r="M53" s="30"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I54" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J54" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K54" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M54" s="30"/>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I55" s="26" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K55" s="26" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L55" s="26"/>
       <c r="M55" s="31"/>
@@ -13546,7 +13556,7 @@
         <v>103</v>
       </c>
       <c r="J56" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -13563,7 +13573,7 @@
         <v>103</v>
       </c>
       <c r="J57" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -13580,7 +13590,7 @@
         <v>103</v>
       </c>
       <c r="J58" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -13611,7 +13621,7 @@
         <v>403</v>
       </c>
       <c r="K60" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.25">
@@ -13619,10 +13629,10 @@
         <v>103</v>
       </c>
       <c r="J61" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K61" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.25">
@@ -13630,10 +13640,10 @@
         <v>103</v>
       </c>
       <c r="J62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K62" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.25">
@@ -13641,20 +13651,20 @@
         <v>103</v>
       </c>
       <c r="J63" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K63" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="N63" s="38"/>
       <c r="O63" s="63"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I64" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K64" s="28">
         <v>0</v>
@@ -13666,18 +13676,18 @@
         <v>380</v>
       </c>
       <c r="N64" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="O64" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J65" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K65" s="29">
         <v>-5.6799999999999998E-5</v>
@@ -13689,18 +13699,18 @@
         <v>380</v>
       </c>
       <c r="N65" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O65" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66" spans="9:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J66" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K66" s="29">
         <v>-5.63E-5</v>
@@ -13712,18 +13722,18 @@
         <v>380</v>
       </c>
       <c r="N66" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O66" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J67" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K67" s="30">
         <v>0</v>
@@ -13735,18 +13745,18 @@
         <v>380</v>
       </c>
       <c r="N67" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="O67" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J68" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K68" s="73">
         <v>1.000001000001</v>
@@ -13758,18 +13768,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N68" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="O68" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J69" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K69" s="68">
         <v>1.0000013000016901</v>
@@ -13781,18 +13791,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N69" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O69" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J70" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K70" s="68">
         <v>1.00000120000144</v>
@@ -13804,18 +13814,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N70" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O70" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J71" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K71" s="68">
         <v>1.000001050001103</v>
@@ -13827,18 +13837,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N71" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O71" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J72" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K72" s="68">
         <v>1.00000120000144</v>
@@ -13850,18 +13860,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N72" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="O72" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J73" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K73" s="68">
         <v>1.0000011500013219</v>
@@ -13873,18 +13883,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N73" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O73" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J74" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K74" s="73">
         <v>1.000001000001</v>
@@ -13896,18 +13906,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N74" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O74" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="75" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I75" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J75" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K75" s="68">
         <v>1.00000070000049</v>
@@ -13919,18 +13929,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N75" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="O75" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="76" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J76" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K76" s="53">
         <v>0</v>
@@ -13942,18 +13952,18 @@
         <v>18</v>
       </c>
       <c r="N76" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O76" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="77" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I77" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J77" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K77" s="53">
         <v>0</v>
@@ -13965,15 +13975,15 @@
         <v>18</v>
       </c>
       <c r="N77" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O77" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J78" t="s">
         <v>399</v>
@@ -13984,46 +13994,49 @@
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J79" t="s">
         <v>403</v>
       </c>
       <c r="K79" s="30" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J80" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K80" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="81" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J81" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K81" t="s">
-        <v>520</v>
+        <v>116</v>
+      </c>
+      <c r="O81" s="76" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I82" s="41" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J82" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K82" s="41" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L82" s="41"/>
       <c r="M82" s="41"/>
@@ -14032,10 +14045,10 @@
     </row>
     <row r="83" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J83" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K83" s="30">
         <v>0</v>
@@ -14047,19 +14060,19 @@
         <v>380</v>
       </c>
       <c r="N83" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="O83" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="P83" s="40"/>
     </row>
     <row r="84" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J84" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K84" s="29">
         <v>-5.6799999999999998E-5</v>
@@ -14071,18 +14084,18 @@
         <v>380</v>
       </c>
       <c r="N84" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O84" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J85" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K85" s="29">
         <v>-5.63E-5</v>
@@ -14094,18 +14107,18 @@
         <v>380</v>
       </c>
       <c r="N85" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="O85" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J86" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K86" s="73">
         <v>1</v>
@@ -14117,18 +14130,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N86" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="O86" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J87" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K87" s="68">
         <v>1.0000001000000101</v>
@@ -14140,18 +14153,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N87" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="O87" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="88" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J88" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K88" s="68">
         <v>1</v>
@@ -14163,18 +14176,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N88" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O88" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I89" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J89" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K89" s="68">
         <v>1.0000000500000019</v>
@@ -14186,18 +14199,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N89" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O89" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="90" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I90" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J90" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K90" s="68">
         <v>1.0000002000000401</v>
@@ -14209,18 +14222,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N90" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O90" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="91" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I91" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J91" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K91" s="68">
         <v>1.0000002000000401</v>
@@ -14232,18 +14245,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N91" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="O91" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="92" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I92" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J92" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K92" s="73">
         <v>0.99999970000008986</v>
@@ -14255,18 +14268,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N92" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O92" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" spans="9:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I93" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J93" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K93" s="68">
         <v>0.99999960000015997</v>
@@ -14278,18 +14291,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N93" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O93" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="94" spans="9:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I94" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J94" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K94" s="53">
         <v>0</v>
@@ -14301,18 +14314,18 @@
         <v>18</v>
       </c>
       <c r="N94" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="O94" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="95" spans="9:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I95" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J95" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K95" s="53">
         <v>0</v>
@@ -14324,15 +14337,15 @@
         <v>18</v>
       </c>
       <c r="N95" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O95" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="96" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I96" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J96" t="s">
         <v>399</v>
@@ -14343,46 +14356,46 @@
     </row>
     <row r="97" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J97" t="s">
         <v>403</v>
       </c>
       <c r="K97" s="30" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="98" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I98" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J98" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K98" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="99" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I99" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J99" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K99" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="100" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I100" s="41" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J100" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K100" s="41" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L100" s="41"/>
       <c r="M100" s="41"/>
@@ -14394,7 +14407,7 @@
         <v>350</v>
       </c>
       <c r="J101" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K101" s="30">
         <v>0</v>
@@ -14406,10 +14419,10 @@
         <v>380</v>
       </c>
       <c r="N101" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="O101" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="102" spans="9:15" x14ac:dyDescent="0.25">
@@ -14417,7 +14430,7 @@
         <v>350</v>
       </c>
       <c r="J102" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K102" s="29">
         <v>-5.6799999999999998E-5</v>
@@ -14429,10 +14442,10 @@
         <v>380</v>
       </c>
       <c r="N102" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="O102" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="103" spans="9:15" x14ac:dyDescent="0.25">
@@ -14440,7 +14453,7 @@
         <v>350</v>
       </c>
       <c r="J103" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K103" s="29">
         <v>-5.63E-5</v>
@@ -14452,10 +14465,10 @@
         <v>380</v>
       </c>
       <c r="N103" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="O103" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="104" spans="9:15" x14ac:dyDescent="0.25">
@@ -14463,7 +14476,7 @@
         <v>350</v>
       </c>
       <c r="J104" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K104" s="73">
         <v>1.00000250000625</v>
@@ -14475,10 +14488,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N104" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="O104" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105" spans="9:15" x14ac:dyDescent="0.25">
@@ -14486,7 +14499,7 @@
         <v>350</v>
       </c>
       <c r="J105" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K105" s="68">
         <v>1.0000031000096099</v>
@@ -14498,10 +14511,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N105" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="O105" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="106" spans="9:15" x14ac:dyDescent="0.25">
@@ -14509,7 +14522,7 @@
         <v>350</v>
       </c>
       <c r="J106" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K106" s="68">
         <v>1.000003050009302</v>
@@ -14521,10 +14534,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N106" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="O106" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="107" spans="9:15" x14ac:dyDescent="0.25">
@@ -14532,7 +14545,7 @@
         <v>350</v>
       </c>
       <c r="J107" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K107" s="68">
         <v>1.000003250010562</v>
@@ -14544,10 +14557,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N107" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="O107" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="108" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14555,7 +14568,7 @@
         <v>350</v>
       </c>
       <c r="J108" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K108" s="68">
         <v>1.0000034000115601</v>
@@ -14567,10 +14580,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N108" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="O108" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="109" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14578,7 +14591,7 @@
         <v>350</v>
       </c>
       <c r="J109" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K109" s="68">
         <v>1.0000033000108901</v>
@@ -14590,10 +14603,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N109" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="O109" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="110" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14601,7 +14614,7 @@
         <v>350</v>
       </c>
       <c r="J110" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K110" s="73">
         <v>1.0000029000084101</v>
@@ -14613,10 +14626,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N110" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O110" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="111" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14624,7 +14637,7 @@
         <v>350</v>
       </c>
       <c r="J111" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K111" s="68">
         <v>1.000002750007563</v>
@@ -14636,10 +14649,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N111" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="O111" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="112" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14647,7 +14660,7 @@
         <v>350</v>
       </c>
       <c r="J112" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K112" s="53">
         <v>0</v>
@@ -14659,10 +14672,10 @@
         <v>18</v>
       </c>
       <c r="N112" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="O112" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14670,7 +14683,7 @@
         <v>350</v>
       </c>
       <c r="J113" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K113" s="53">
         <v>0</v>
@@ -14682,10 +14695,10 @@
         <v>18</v>
       </c>
       <c r="N113" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="O113" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="114" spans="9:15" x14ac:dyDescent="0.25">
@@ -14707,7 +14720,7 @@
         <v>403</v>
       </c>
       <c r="K115" s="30" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="116" spans="9:15" x14ac:dyDescent="0.25">
@@ -14715,10 +14728,10 @@
         <v>350</v>
       </c>
       <c r="J116" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K116" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="117" spans="9:15" x14ac:dyDescent="0.25">
@@ -14726,10 +14739,10 @@
         <v>350</v>
       </c>
       <c r="J117" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K117" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="118" spans="9:15" x14ac:dyDescent="0.25">
@@ -14737,10 +14750,10 @@
         <v>350</v>
       </c>
       <c r="J118" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K118" s="41" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L118" s="41"/>
       <c r="M118" s="41"/>
@@ -14752,7 +14765,7 @@
         <v>108</v>
       </c>
       <c r="J119" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K119" s="30">
         <v>0</v>
@@ -14764,10 +14777,10 @@
         <v>380</v>
       </c>
       <c r="N119" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="O119" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="120" spans="9:15" x14ac:dyDescent="0.25">
@@ -14775,7 +14788,7 @@
         <v>108</v>
       </c>
       <c r="J120" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K120" s="29">
         <v>-5.6799999999999998E-5</v>
@@ -14787,10 +14800,10 @@
         <v>380</v>
       </c>
       <c r="N120" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="O120" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="121" spans="9:15" x14ac:dyDescent="0.25">
@@ -14798,7 +14811,7 @@
         <v>108</v>
       </c>
       <c r="J121" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K121" s="29">
         <v>-5.63E-5</v>
@@ -14810,10 +14823,10 @@
         <v>380</v>
       </c>
       <c r="N121" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="O121" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="122" spans="9:15" x14ac:dyDescent="0.25">
@@ -14821,7 +14834,7 @@
         <v>108</v>
       </c>
       <c r="J122" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K122" s="21">
         <v>1</v>
@@ -14833,10 +14846,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N122" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="O122" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="123" spans="9:15" x14ac:dyDescent="0.25">
@@ -14844,7 +14857,7 @@
         <v>108</v>
       </c>
       <c r="J123" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K123" s="68">
         <v>1.00000150000225</v>
@@ -14856,10 +14869,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N123" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="O123" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="124" spans="9:15" x14ac:dyDescent="0.25">
@@ -14867,7 +14880,7 @@
         <v>108</v>
       </c>
       <c r="J124" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K124" s="68">
         <v>1.00000160000256</v>
@@ -14879,10 +14892,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N124" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="O124" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="125" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14890,7 +14903,7 @@
         <v>108</v>
       </c>
       <c r="J125" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K125" s="68">
         <v>1.000001550002402</v>
@@ -14902,10 +14915,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N125" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="O125" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="126" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14913,7 +14926,7 @@
         <v>108</v>
       </c>
       <c r="J126" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K126" s="68">
         <v>1.00000170000289</v>
@@ -14925,10 +14938,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N126" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="O126" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="127" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14936,7 +14949,7 @@
         <v>108</v>
       </c>
       <c r="J127" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K127" s="68">
         <v>1.000001850003422</v>
@@ -14948,18 +14961,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N127" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="O127" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="128" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I128" t="s">
-        <v>117</v>
+      <c r="I128" s="76" t="s">
+        <v>108</v>
       </c>
       <c r="J128" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K128" s="73">
         <v>1.00000180000324</v>
@@ -14971,18 +14984,18 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N128" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="O128" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="129" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I129" t="s">
-        <v>117</v>
+      <c r="I129" s="76" t="s">
+        <v>108</v>
       </c>
       <c r="J129" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K129" s="68">
         <v>1.000001750003062</v>
@@ -14994,10 +15007,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N129" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="O129" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="130" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15005,7 +15018,7 @@
         <v>108</v>
       </c>
       <c r="J130" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K130" s="53">
         <v>0</v>
@@ -15017,10 +15030,10 @@
         <v>18</v>
       </c>
       <c r="N130" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="O130" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="131" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15028,7 +15041,7 @@
         <v>108</v>
       </c>
       <c r="J131" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K131" s="53">
         <v>0</v>
@@ -15040,10 +15053,10 @@
         <v>18</v>
       </c>
       <c r="N131" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="O131" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.25">
@@ -15065,7 +15078,7 @@
         <v>403</v>
       </c>
       <c r="K133" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="134" spans="9:15" x14ac:dyDescent="0.25">
@@ -15073,10 +15086,10 @@
         <v>108</v>
       </c>
       <c r="J134" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K134" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.25">
@@ -15084,10 +15097,10 @@
         <v>108</v>
       </c>
       <c r="J135" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K135" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="136" spans="9:15" x14ac:dyDescent="0.25">
@@ -15095,10 +15108,10 @@
         <v>108</v>
       </c>
       <c r="J136" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K136" s="41" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L136" s="41"/>
       <c r="M136" s="41"/>
@@ -15110,7 +15123,7 @@
         <v>117</v>
       </c>
       <c r="J137" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K137" s="30">
         <v>0</v>
@@ -15122,10 +15135,10 @@
         <v>380</v>
       </c>
       <c r="N137" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="O137" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.25">
@@ -15133,7 +15146,7 @@
         <v>117</v>
       </c>
       <c r="J138" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K138" s="29">
         <v>-5.6799999999999998E-5</v>
@@ -15145,10 +15158,10 @@
         <v>380</v>
       </c>
       <c r="N138" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="O138" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.25">
@@ -15156,7 +15169,7 @@
         <v>117</v>
       </c>
       <c r="J139" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K139" s="29">
         <v>-5.63E-5</v>
@@ -15168,10 +15181,10 @@
         <v>380</v>
       </c>
       <c r="N139" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="O139" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.25">
@@ -15179,7 +15192,7 @@
         <v>117</v>
       </c>
       <c r="J140" s="67" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K140" s="21">
         <v>1</v>
@@ -15191,10 +15204,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N140" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="O140" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="141" spans="9:15" x14ac:dyDescent="0.25">
@@ -15202,7 +15215,7 @@
         <v>117</v>
       </c>
       <c r="J141" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K141" s="68">
         <v>1.00000150000225</v>
@@ -15214,10 +15227,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N141" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="O141" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="142" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15225,7 +15238,7 @@
         <v>117</v>
       </c>
       <c r="J142" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K142" s="68">
         <v>1.00000160000256</v>
@@ -15237,10 +15250,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N142" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="O142" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15248,7 +15261,7 @@
         <v>117</v>
       </c>
       <c r="J143" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K143" s="68">
         <v>1.000009650093123</v>
@@ -15260,10 +15273,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N143" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="O143" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="144" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15271,7 +15284,7 @@
         <v>117</v>
       </c>
       <c r="J144" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K144" s="68">
         <v>1.00000170000289</v>
@@ -15283,10 +15296,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N144" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="O144" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="145" spans="9:15" x14ac:dyDescent="0.25">
@@ -15294,7 +15307,7 @@
         <v>117</v>
       </c>
       <c r="J145" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K145" s="68">
         <v>1.000001850003422</v>
@@ -15306,10 +15319,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N145" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="O145" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="146" spans="9:15" x14ac:dyDescent="0.25">
@@ -15317,7 +15330,7 @@
         <v>117</v>
       </c>
       <c r="J146" s="67" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K146" s="73">
         <v>1.00000180000324</v>
@@ -15329,10 +15342,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N146" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="O146" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="147" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15340,7 +15353,7 @@
         <v>117</v>
       </c>
       <c r="J147" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K147" s="68">
         <v>1.000001750003062</v>
@@ -15352,10 +15365,10 @@
         <v>120.87512900978579</v>
       </c>
       <c r="N147" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="O147" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="148" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15363,7 +15376,7 @@
         <v>117</v>
       </c>
       <c r="J148" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K148" s="53">
         <v>0</v>
@@ -15375,10 +15388,10 @@
         <v>18</v>
       </c>
       <c r="N148" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="O148" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="149" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15386,7 +15399,7 @@
         <v>117</v>
       </c>
       <c r="J149" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K149" s="53">
         <v>0</v>
@@ -15398,10 +15411,10 @@
         <v>18</v>
       </c>
       <c r="N149" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="O149" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="150" spans="9:15" x14ac:dyDescent="0.25">
@@ -15423,7 +15436,7 @@
         <v>403</v>
       </c>
       <c r="K151" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="152" spans="9:15" x14ac:dyDescent="0.25">
@@ -15431,10 +15444,10 @@
         <v>117</v>
       </c>
       <c r="J152" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K152" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="153" spans="9:15" x14ac:dyDescent="0.25">
@@ -15442,10 +15455,13 @@
         <v>117</v>
       </c>
       <c r="J153" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K153" t="s">
-        <v>590</v>
+        <v>107</v>
+      </c>
+      <c r="O153" s="76" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="154" spans="9:15" x14ac:dyDescent="0.25">
@@ -15453,10 +15469,10 @@
         <v>117</v>
       </c>
       <c r="J154" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K154" s="41" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L154" s="41"/>
       <c r="M154" s="41"/>
@@ -15484,7 +15500,7 @@
         <v>403</v>
       </c>
       <c r="K156" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L156" s="29"/>
       <c r="M156" s="30"/>
@@ -15494,16 +15510,16 @@
         <v>88</v>
       </c>
       <c r="J157" t="s">
+        <v>589</v>
+      </c>
+      <c r="K157" t="s">
+        <v>590</v>
+      </c>
+      <c r="L157" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="M157" s="18" t="s">
         <v>592</v>
-      </c>
-      <c r="K157" t="s">
-        <v>593</v>
-      </c>
-      <c r="L157" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="M157" s="18" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="158" spans="9:15" x14ac:dyDescent="0.25">
@@ -15511,13 +15527,13 @@
         <v>88</v>
       </c>
       <c r="J158" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K158" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L158" s="17" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M158" s="30"/>
     </row>
@@ -15526,10 +15542,10 @@
         <v>88</v>
       </c>
       <c r="J159" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K159" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L159" s="29"/>
       <c r="M159" s="30"/>
@@ -15539,10 +15555,10 @@
         <v>88</v>
       </c>
       <c r="J160" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="K160" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="161" spans="9:15" x14ac:dyDescent="0.25">
@@ -15550,10 +15566,13 @@
         <v>88</v>
       </c>
       <c r="J161" t="s">
-        <v>407</v>
-      </c>
-      <c r="K161" t="s">
-        <v>603</v>
+        <v>406</v>
+      </c>
+      <c r="K161" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="O161" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="162" spans="9:15" x14ac:dyDescent="0.25">
@@ -15561,10 +15580,10 @@
         <v>88</v>
       </c>
       <c r="J162" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K162" s="41" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="L162" s="41"/>
       <c r="M162" s="41"/>
@@ -15591,7 +15610,7 @@
         <v>403</v>
       </c>
       <c r="K164" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="L164" s="29"/>
     </row>
@@ -15600,10 +15619,10 @@
         <v>78</v>
       </c>
       <c r="J165" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="K165" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="L165" s="29"/>
     </row>
@@ -15612,13 +15631,13 @@
         <v>78</v>
       </c>
       <c r="J166" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K166" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="L166" s="17" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="167" spans="9:15" x14ac:dyDescent="0.25">
@@ -15626,10 +15645,10 @@
         <v>78</v>
       </c>
       <c r="J167" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K167" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="L167" s="29"/>
     </row>
@@ -15638,10 +15657,10 @@
         <v>78</v>
       </c>
       <c r="J168" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="K168" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="169" spans="9:15" x14ac:dyDescent="0.25">
@@ -15649,13 +15668,13 @@
         <v>78</v>
       </c>
       <c r="J169" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K169" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="L169" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="170" spans="9:15" x14ac:dyDescent="0.25">
@@ -15663,10 +15682,13 @@
         <v>78</v>
       </c>
       <c r="J170" t="s">
-        <v>407</v>
-      </c>
-      <c r="K170" t="s">
-        <v>614</v>
+        <v>406</v>
+      </c>
+      <c r="K170" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="O170" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="171" spans="9:15" x14ac:dyDescent="0.25">
@@ -15674,10 +15696,10 @@
         <v>78</v>
       </c>
       <c r="J171" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K171" s="41" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L171" s="41"/>
       <c r="M171" s="41"/>
@@ -15730,7 +15752,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -15741,33 +15763,33 @@
         <v>66</v>
       </c>
       <c r="J4" t="s">
+        <v>613</v>
+      </c>
+      <c r="R4" t="s">
+        <v>614</v>
+      </c>
+      <c r="U4" t="s">
+        <v>615</v>
+      </c>
+      <c r="V4" t="s">
         <v>616</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Y4" t="s">
         <v>617</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Z4" t="s">
         <v>618</v>
-      </c>
-      <c r="V4" t="s">
-        <v>619</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>620</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D5" t="s">
         <v>70</v>
@@ -15776,34 +15798,34 @@
         <v>359</v>
       </c>
       <c r="F5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G5" t="s">
         <v>374</v>
       </c>
       <c r="H5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="L5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M5" t="s">
         <v>374</v>
       </c>
       <c r="N5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="Q5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="R5">
         <v>100003.625478355</v>
@@ -15827,7 +15849,7 @@
         <v>13</v>
       </c>
       <c r="Y5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Z5">
         <v>10.00002202005556</v>
@@ -15847,7 +15869,7 @@
         <v>10.00002188875</v>
       </c>
       <c r="C6" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D6">
         <v>20.764612499999998</v>
@@ -15865,7 +15887,7 @@
         <v>0.43497730069211082</v>
       </c>
       <c r="J6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K6">
         <v>-2.7000000000000001E-7</v>
@@ -15883,7 +15905,7 @@
         <v>0.21000755139425789</v>
       </c>
       <c r="Q6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="R6">
         <v>100003.625478355</v>
@@ -15907,7 +15929,7 @@
         <v>13</v>
       </c>
       <c r="Y6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Z6">
         <v>10.00002202005556</v>
@@ -15921,7 +15943,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K7">
         <v>1.0003017303999999</v>
@@ -15941,7 +15963,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K8">
         <v>3.0350254677000003E-4</v>
@@ -15959,15 +15981,15 @@
         <v>3.0644807316790989E-2</v>
       </c>
       <c r="R8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="V8" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K9">
         <v>-3.0451918841999998E-4</v>
@@ -16005,7 +16027,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K10">
         <v>-3.0446364500999999E-4</v>
@@ -16025,7 +16047,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K11">
         <v>-1.0003009423</v>
@@ -16045,7 +16067,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K12">
         <v>-1.0003009775</v>
@@ -16065,7 +16087,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K13">
         <v>5.1170541267839013E-3</v>
@@ -16085,7 +16107,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K14">
         <v>9999.9992600000005</v>
@@ -16105,7 +16127,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -16125,7 +16147,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K16">
         <v>-10.000020509000001</v>
@@ -16145,7 +16167,7 @@
     </row>
     <row r="17" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K17">
         <v>-9.3983150759000007E-3</v>
@@ -16165,7 +16187,7 @@
     </row>
     <row r="18" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K18">
         <v>3.4200000000000002E-7</v>
@@ -16185,7 +16207,7 @@
     </row>
     <row r="19" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K19">
         <v>10.000023067000001</v>
@@ -16205,7 +16227,7 @@
     </row>
     <row r="20" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="K20">
         <v>10.00002347</v>
@@ -16225,7 +16247,7 @@
     </row>
     <row r="21" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K21">
         <v>-1.0103043347</v>
@@ -16245,7 +16267,7 @@
     </row>
     <row r="22" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K22">
         <v>8.0000000000000005E-9</v>
@@ -16265,7 +16287,7 @@
     </row>
     <row r="23" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K23">
         <v>-2.7E-8</v>
@@ -16285,7 +16307,7 @@
     </row>
     <row r="24" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -16305,7 +16327,7 @@
     </row>
     <row r="25" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K25">
         <v>20.894085</v>
@@ -16325,7 +16347,7 @@
     </row>
     <row r="26" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -16345,7 +16367,7 @@
     </row>
     <row r="27" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K27">
         <v>8.0000000000000005E-9</v>
@@ -16365,7 +16387,7 @@
     </row>
     <row r="28" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K28">
         <v>20</v>
@@ -16385,7 +16407,7 @@
     </row>
     <row r="29" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -16405,7 +16427,7 @@
     </row>
     <row r="30" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -16425,7 +16447,7 @@
     </row>
     <row r="31" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K31">
         <v>10.000024109</v>
@@ -16451,7 +16473,7 @@
         <v>10.00002227575</v>
       </c>
       <c r="C33" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D33">
         <v>20.792098750000001</v>
@@ -16469,7 +16491,7 @@
         <v>0.43476282307155639</v>
       </c>
       <c r="J33" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K33">
         <v>-2.7000000000000001E-7</v>
@@ -16489,7 +16511,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K34">
         <v>3.0412604709000003E-4</v>
@@ -16509,7 +16531,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J35" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K35">
         <v>1.0003017431000001</v>
@@ -16529,7 +16551,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J36" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K36">
         <v>-3.0449704612E-4</v>
@@ -16549,7 +16571,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J37" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K37">
         <v>-1.0003004150000001</v>
@@ -16569,7 +16591,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J38" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K38">
         <v>-3.0520115826999998E-4</v>
@@ -16589,7 +16611,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J39" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K39">
         <v>-1.0003010632</v>
@@ -16609,7 +16631,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J40" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K40">
         <v>5.1170541267839013E-3</v>
@@ -16629,7 +16651,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K41">
         <v>9999.9992600000005</v>
@@ -16649,7 +16671,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -16669,7 +16691,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J43" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K43">
         <v>-9.3988829519000006E-3</v>
@@ -16689,7 +16711,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K44">
         <v>-1.0103038602000001</v>
@@ -16709,7 +16731,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K45">
         <v>-10.000021125</v>
@@ -16729,7 +16751,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J46" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K46">
         <v>3.4200000000000002E-7</v>
@@ -16749,7 +16771,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="K47">
         <v>10.000023240000001</v>
@@ -16769,7 +16791,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K48">
         <v>8.0000000000000005E-9</v>
@@ -16789,7 +16811,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K49">
         <v>10.000023613</v>
@@ -16809,7 +16831,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K50">
         <v>-2.7E-8</v>
@@ -16829,7 +16851,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -16849,7 +16871,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -16869,7 +16891,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K53">
         <v>20.8915875</v>
@@ -16889,7 +16911,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K54">
         <v>8.0000000000000005E-9</v>
@@ -16909,7 +16931,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K55">
         <v>20</v>
@@ -16929,7 +16951,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J56" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K56">
         <v>5</v>
@@ -16949,7 +16971,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J57" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -16969,7 +16991,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J58" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K58">
         <v>10.000023558000001</v>
@@ -16995,7 +17017,7 @@
         <v>10.000022352249999</v>
       </c>
       <c r="C60" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D60">
         <v>20.824582500000002</v>
@@ -17013,7 +17035,7 @@
         <v>0.43212417370800482</v>
       </c>
       <c r="J60" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K60">
         <v>-2.7000000000000001E-7</v>
@@ -17033,7 +17055,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J61" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K61">
         <v>3.0430913590000002E-4</v>
@@ -17053,7 +17075,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J62" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K62">
         <v>1.0003016184</v>
@@ -17073,7 +17095,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J63" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K63">
         <v>-3.0492296447999999E-4</v>
@@ -17093,7 +17115,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J64" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K64">
         <v>-1.0003006325999999</v>
@@ -17113,7 +17135,7 @@
     </row>
     <row r="65" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J65" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K65">
         <v>-3.0511738654999989E-4</v>
@@ -17133,7 +17155,7 @@
     </row>
     <row r="66" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J66" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K66">
         <v>-1.0003008807</v>
@@ -17153,7 +17175,7 @@
     </row>
     <row r="67" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J67" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K67">
         <v>5.1170541267839013E-3</v>
@@ -17173,7 +17195,7 @@
     </row>
     <row r="68" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J68" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K68">
         <v>9999.9992600000005</v>
@@ -17193,7 +17215,7 @@
     </row>
     <row r="69" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J69" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K69">
         <v>-1.010303849</v>
@@ -17213,7 +17235,7 @@
     </row>
     <row r="70" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J70" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K70">
         <v>-10.000021151</v>
@@ -17233,7 +17255,7 @@
     </row>
     <row r="71" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J71" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K71">
         <v>-9.3988667592000003E-3</v>
@@ -17253,7 +17275,7 @@
     </row>
     <row r="72" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J72" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K72">
         <v>3.4200000000000002E-7</v>
@@ -17273,7 +17295,7 @@
     </row>
     <row r="73" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J73" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K73">
         <v>10.000023560000001</v>
@@ -17293,7 +17315,7 @@
     </row>
     <row r="74" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J74" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="K74">
         <v>10.000023547</v>
@@ -17313,7 +17335,7 @@
     </row>
     <row r="75" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J75" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K75">
         <v>8.0000000000000005E-9</v>
@@ -17333,7 +17355,7 @@
     </row>
     <row r="76" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J76" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -17353,7 +17375,7 @@
     </row>
     <row r="77" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J77" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K77">
         <v>-2.7E-8</v>
@@ -17373,7 +17395,7 @@
     </row>
     <row r="78" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J78" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -17393,7 +17415,7 @@
     </row>
     <row r="79" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J79" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K79">
         <v>8.0000000000000005E-9</v>
@@ -17413,7 +17435,7 @@
     </row>
     <row r="80" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J80" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -17433,7 +17455,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J81" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K81">
         <v>20</v>
@@ -17453,7 +17475,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J82" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K82">
         <v>5</v>
@@ -17473,7 +17495,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J83" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -17493,7 +17515,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J84" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K84">
         <v>20.899080000000001</v>
@@ -17513,7 +17535,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J85" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K85">
         <v>10.000024298</v>
@@ -17539,7 +17561,7 @@
         <v>10.00002214375</v>
       </c>
       <c r="C87" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D87">
         <v>20.819585</v>
@@ -17557,7 +17579,7 @@
         <v>0.43570080488824792</v>
       </c>
       <c r="J87" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K87">
         <v>-2.7000000000000001E-7</v>
@@ -17577,7 +17599,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J88" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K88">
         <v>3.0447996242999998E-4</v>
@@ -17597,7 +17619,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J89" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K89">
         <v>1.0003014786</v>
@@ -17617,7 +17639,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J90" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K90">
         <v>-3.0495051743000001E-4</v>
@@ -17637,7 +17659,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J91" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -17657,7 +17679,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J92" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K92">
         <v>-1.0003005756000001</v>
@@ -17677,7 +17699,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J93" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K93">
         <v>-3.0505884931000002E-4</v>
@@ -17697,7 +17719,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J94" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K94">
         <v>-1.0003015235999999</v>
@@ -17717,7 +17739,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J95" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K95">
         <v>5.1170541267839013E-3</v>
@@ -17737,7 +17759,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J96" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K96">
         <v>9999.9992600000005</v>
@@ -17757,7 +17779,7 @@
     </row>
     <row r="97" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J97" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K97">
         <v>-9.3983049583999997E-3</v>
@@ -17777,7 +17799,7 @@
     </row>
     <row r="98" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J98" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K98">
         <v>-1.0103038239</v>
@@ -17797,7 +17819,7 @@
     </row>
     <row r="99" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J99" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K99">
         <v>3.4200000000000002E-7</v>
@@ -17817,7 +17839,7 @@
     </row>
     <row r="100" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J100" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="K100">
         <v>10.000024202000001</v>
@@ -17837,7 +17859,7 @@
     </row>
     <row r="101" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J101" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K101">
         <v>10.000023888999999</v>
@@ -17857,7 +17879,7 @@
     </row>
     <row r="102" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J102" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K102">
         <v>-10.000020242</v>
@@ -17877,7 +17899,7 @@
     </row>
     <row r="103" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J103" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K103">
         <v>8.0000000000000005E-9</v>
@@ -17897,7 +17919,7 @@
     </row>
     <row r="104" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J104" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -17917,7 +17939,7 @@
     </row>
     <row r="105" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J105" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K105">
         <v>-2.7E-8</v>
@@ -17937,7 +17959,7 @@
     </row>
     <row r="106" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J106" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -17957,7 +17979,7 @@
     </row>
     <row r="107" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J107" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K107">
         <v>20.8915875</v>
@@ -17977,7 +17999,7 @@
     </row>
     <row r="108" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J108" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K108">
         <v>8.0000000000000005E-9</v>
@@ -17997,7 +18019,7 @@
     </row>
     <row r="109" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J109" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K109">
         <v>20</v>
@@ -18017,7 +18039,7 @@
     </row>
     <row r="110" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J110" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K110">
         <v>5</v>
@@ -18037,7 +18059,7 @@
     </row>
     <row r="111" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J111" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -18057,7 +18079,7 @@
     </row>
     <row r="112" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J112" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K112">
         <v>10.000024446999999</v>
@@ -18083,7 +18105,7 @@
         <v>10.000021957</v>
       </c>
       <c r="C114" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D114">
         <v>20.794597499999998</v>
@@ -18101,7 +18123,7 @@
         <v>0.43599974846217932</v>
       </c>
       <c r="J114" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K114">
         <v>-2.7000000000000001E-7</v>
@@ -18121,7 +18143,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J115" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K115">
         <v>1.0003019523000001</v>
@@ -18141,7 +18163,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J116" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K116">
         <v>3.0442563560000003E-4</v>
@@ -18161,7 +18183,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J117" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K117">
         <v>-3.0477900539999998E-4</v>
@@ -18181,7 +18203,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J118" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K118">
         <v>-3.0468557529000011E-4</v>
@@ -18201,7 +18223,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J119" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K119">
         <v>-1.0003009982</v>
@@ -18221,7 +18243,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J120" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K120">
         <v>-1.0003010532000001</v>
@@ -18241,7 +18263,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J121" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K121">
         <v>5.1170541267839013E-3</v>
@@ -18261,7 +18283,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J122" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -18281,7 +18303,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J123" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K123">
         <v>9999.9992600000005</v>
@@ -18301,7 +18323,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J124" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K124">
         <v>-9.398484954500002E-3</v>
@@ -18321,7 +18343,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J125" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K125">
         <v>-10.000020631</v>
@@ -18341,7 +18363,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J126" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K126">
         <v>3.4200000000000002E-7</v>
@@ -18361,7 +18383,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J127" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K127">
         <v>-1.0103039235</v>
@@ -18381,7 +18403,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J128" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="K128">
         <v>10.000023493</v>
@@ -18401,7 +18423,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J129" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K129">
         <v>10.000023072999999</v>
@@ -18421,7 +18443,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J130" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K130">
         <v>8.0000000000000005E-9</v>
@@ -18441,7 +18463,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J131" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K131">
         <v>-2.7E-8</v>
@@ -18461,7 +18483,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J132" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -18481,7 +18503,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J133" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -18501,7 +18523,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J134" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K134">
         <v>8.0000000000000005E-9</v>
@@ -18521,7 +18543,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J135" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K135">
         <v>20</v>
@@ -18541,7 +18563,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J136" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K136">
         <v>5</v>
@@ -18561,7 +18583,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J137" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -18581,7 +18603,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J138" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K138">
         <v>20.889089999999999</v>
@@ -18601,7 +18623,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J139" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K139">
         <v>10.000023782</v>
@@ -18627,7 +18649,7 @@
         <v>10.000022103999999</v>
       </c>
       <c r="C141" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D141">
         <v>20.794597499999998</v>
@@ -18645,7 +18667,7 @@
         <v>0.43965729800926601</v>
       </c>
       <c r="J141" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K141">
         <v>-2.7000000000000001E-7</v>
@@ -18665,7 +18687,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J142" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K142">
         <v>3.0450394397000001E-4</v>
@@ -18685,7 +18707,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J143" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K143">
         <v>1.0003012131</v>
@@ -18705,7 +18727,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J144" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K144">
         <v>-3.0469905695000002E-4</v>
@@ -18725,7 +18747,7 @@
     </row>
     <row r="145" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J145" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -18745,7 +18767,7 @@
     </row>
     <row r="146" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J146" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K146">
         <v>-1.0003015239999999</v>
@@ -18765,7 +18787,7 @@
     </row>
     <row r="147" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J147" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K147">
         <v>-1.0003004069999999</v>
@@ -18785,7 +18807,7 @@
     </row>
     <row r="148" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J148" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K148">
         <v>-3.0484762067999998E-4</v>
@@ -18805,7 +18827,7 @@
     </row>
     <row r="149" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J149" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K149">
         <v>5.1170541267839013E-3</v>
@@ -18825,7 +18847,7 @@
     </row>
     <row r="150" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J150" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K150">
         <v>9999.9992600000005</v>
@@ -18845,7 +18867,7 @@
     </row>
     <row r="151" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J151" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K151">
         <v>-1.0103038608999999</v>
@@ -18865,7 +18887,7 @@
     </row>
     <row r="152" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J152" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K152">
         <v>-10.000021075999999</v>
@@ -18885,7 +18907,7 @@
     </row>
     <row r="153" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J153" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K153">
         <v>-9.3985903548000002E-3</v>
@@ -18905,7 +18927,7 @@
     </row>
     <row r="154" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J154" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K154">
         <v>3.4200000000000002E-7</v>
@@ -18925,7 +18947,7 @@
     </row>
     <row r="155" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J155" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="K155">
         <v>10.000023293</v>
@@ -18945,7 +18967,7 @@
     </row>
     <row r="156" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J156" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K156">
         <v>10.000022971</v>
@@ -18965,7 +18987,7 @@
     </row>
     <row r="157" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J157" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K157">
         <v>8.0000000000000005E-9</v>
@@ -18985,7 +19007,7 @@
     </row>
     <row r="158" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J158" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -19005,7 +19027,7 @@
     </row>
     <row r="159" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J159" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K159">
         <v>-2.7E-8</v>
@@ -19025,7 +19047,7 @@
     </row>
     <row r="160" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J160" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -19045,7 +19067,7 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J161" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K161">
         <v>8.0000000000000005E-9</v>
@@ -19065,7 +19087,7 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J162" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K162">
         <v>20</v>
@@ -19085,7 +19107,7 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J163" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K163">
         <v>5</v>
@@ -19105,7 +19127,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J164" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -19125,7 +19147,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J165" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K165">
         <v>20.889089999999999</v>
@@ -19145,7 +19167,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J166" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K166">
         <v>10.000023334</v>
@@ -19171,7 +19193,7 @@
         <v>10.000021891999999</v>
       </c>
       <c r="C168" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D168">
         <v>20.792098750000001</v>
@@ -19189,7 +19211,7 @@
         <v>0.43783352624551419</v>
       </c>
       <c r="J168" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K168">
         <v>-2.7000000000000001E-7</v>
@@ -19209,7 +19231,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J169" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K169">
         <v>1.0003020302000001</v>
@@ -19229,7 +19251,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J170" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K170">
         <v>3.0437386631000001E-4</v>
@@ -19249,7 +19271,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J171" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K171">
         <v>-1.0003008587</v>
@@ -19269,7 +19291,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J172" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K172">
         <v>-3.0463584712000011E-4</v>
@@ -19289,7 +19311,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J173" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K173">
         <v>-3.0459166463999999E-4</v>
@@ -19309,7 +19331,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J174" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K174">
         <v>-1.0003009251999999</v>
@@ -19329,7 +19351,7 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J175" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K175">
         <v>5.1170541267839013E-3</v>
@@ -19349,7 +19371,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J176" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K176">
         <v>9999.9992600000005</v>
@@ -19369,7 +19391,7 @@
     </row>
     <row r="177" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J177" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K177">
         <v>-10.000019817</v>
@@ -19389,7 +19411,7 @@
     </row>
     <row r="178" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J178" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K178">
         <v>-1.0103044137999999</v>
@@ -19409,7 +19431,7 @@
     </row>
     <row r="179" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J179" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K179">
         <v>3.4200000000000002E-7</v>
@@ -19429,7 +19451,7 @@
     </row>
     <row r="180" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J180" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K180">
         <v>-9.3982111768999999E-3</v>
@@ -19449,7 +19471,7 @@
     </row>
     <row r="181" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J181" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K181">
         <v>10.000024016999999</v>
@@ -19469,7 +19491,7 @@
     </row>
     <row r="182" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J182" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K182">
         <v>8.0000000000000005E-9</v>
@@ -19489,7 +19511,7 @@
     </row>
     <row r="183" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J183" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="K183">
         <v>10.000023917</v>
@@ -19509,7 +19531,7 @@
     </row>
     <row r="184" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J184" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -19529,7 +19551,7 @@
     </row>
     <row r="185" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J185" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K185">
         <v>-2.7E-8</v>
@@ -19549,7 +19571,7 @@
     </row>
     <row r="186" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J186" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -19569,7 +19591,7 @@
     </row>
     <row r="187" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J187" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K187">
         <v>20.886592499999999</v>
@@ -19589,7 +19611,7 @@
     </row>
     <row r="188" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J188" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K188">
         <v>8.0000000000000005E-9</v>
@@ -19609,7 +19631,7 @@
     </row>
     <row r="189" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J189" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -19629,7 +19651,7 @@
     </row>
     <row r="190" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J190" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K190">
         <v>20</v>
@@ -19649,7 +19671,7 @@
     </row>
     <row r="191" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J191" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K191">
         <v>5</v>
@@ -19669,7 +19691,7 @@
     </row>
     <row r="192" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J192" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -19689,7 +19711,7 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J193" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K193">
         <v>10.000022755</v>
@@ -19715,7 +19737,7 @@
         <v>10.000021795249999</v>
       </c>
       <c r="C195" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D195">
         <v>20.767111249999999</v>
@@ -19733,7 +19755,7 @@
         <v>0.42962450614870867</v>
       </c>
       <c r="J195" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K195">
         <v>-2.7000000000000001E-7</v>
@@ -19753,7 +19775,7 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J196" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K196">
         <v>-3.0464299228999999E-4</v>
@@ -19773,7 +19795,7 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J197" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K197">
         <v>1.0003018430999999</v>
@@ -19793,7 +19815,7 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J198" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K198">
         <v>-1.0003004669</v>
@@ -19813,7 +19835,7 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J199" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K199">
         <v>3.0400439026000001E-4</v>
@@ -19833,7 +19855,7 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J200" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K200">
         <v>-1.000300816</v>
@@ -19853,7 +19875,7 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J201" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K201">
         <v>-3.0453863689000003E-4</v>
@@ -19873,7 +19895,7 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J202" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -19893,7 +19915,7 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J203" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K203">
         <v>5.1170541267839013E-3</v>
@@ -19913,7 +19935,7 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J204" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K204">
         <v>9999.9992600000005</v>
@@ -19933,7 +19955,7 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J205" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K205">
         <v>-9.3983995658000006E-3</v>
@@ -19953,7 +19975,7 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J206" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K206">
         <v>-10.000020214999999</v>
@@ -19973,7 +19995,7 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J207" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K207">
         <v>-1.0103038233999999</v>
@@ -19993,7 +20015,7 @@
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J208" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K208">
         <v>3.4200000000000002E-7</v>
@@ -20013,7 +20035,7 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J209" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="K209">
         <v>10.000023741</v>
@@ -20033,7 +20055,7 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J210" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K210">
         <v>10.00002301</v>
@@ -20053,7 +20075,7 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J211" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K211">
         <v>8.0000000000000005E-9</v>
@@ -20073,7 +20095,7 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J212" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K212">
         <v>-2.7E-8</v>
@@ -20093,7 +20115,7 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J213" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K213">
         <v>0</v>
@@ -20113,7 +20135,7 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J214" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K214">
         <v>0</v>
@@ -20133,7 +20155,7 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J215" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K215">
         <v>8.0000000000000005E-9</v>
@@ -20153,7 +20175,7 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J216" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K216">
         <v>20</v>
@@ -20173,7 +20195,7 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J217" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K217">
         <v>5</v>
@@ -20193,7 +20215,7 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J218" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K218">
         <v>0</v>
@@ -20213,7 +20235,7 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J219" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K219">
         <v>20.879100000000001</v>
@@ -20233,7 +20255,7 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J220" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K220">
         <v>10.000022384999999</v>
@@ -20259,7 +20281,7 @@
         <v>10.000021771749999</v>
       </c>
       <c r="C222" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D222">
         <v>20.764612499999998</v>
@@ -20277,7 +20299,7 @@
         <v>0.44003306729035152</v>
       </c>
       <c r="J222" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K222">
         <v>-2.7000000000000001E-7</v>
@@ -20297,7 +20319,7 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J223" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K223">
         <v>3.0377552598999998E-4</v>
@@ -20317,7 +20339,7 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J224" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="K224">
         <v>1.0003015202000001</v>
@@ -20337,7 +20359,7 @@
     </row>
     <row r="225" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J225" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K225">
         <v>-1.0003008959999999</v>
@@ -20357,7 +20379,7 @@
     </row>
     <row r="226" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J226" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K226">
         <v>-1.0003008641</v>
@@ -20377,7 +20399,7 @@
     </row>
     <row r="227" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J227" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K227">
         <v>-3.0421448952999989E-4</v>
@@ -20397,7 +20419,7 @@
     </row>
     <row r="228" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J228" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K228">
         <v>-3.0450454660999998E-4</v>
@@ -20417,7 +20439,7 @@
     </row>
     <row r="229" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J229" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -20437,7 +20459,7 @@
     </row>
     <row r="230" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J230" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K230">
         <v>5.1170541267839013E-3</v>
@@ -20457,7 +20479,7 @@
     </row>
     <row r="231" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J231" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K231">
         <v>9999.9992600000005</v>
@@ -20477,7 +20499,7 @@
     </row>
     <row r="232" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J232" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K232">
         <v>-1.0103041966999999</v>
@@ -20497,7 +20519,7 @@
     </row>
     <row r="233" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J233" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K233">
         <v>-10.000020528</v>
@@ -20517,7 +20539,7 @@
     </row>
     <row r="234" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J234" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K234">
         <v>-9.3981304052999995E-3</v>
@@ -20537,7 +20559,7 @@
     </row>
     <row r="235" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J235" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K235">
         <v>3.4200000000000002E-7</v>
@@ -20557,7 +20579,7 @@
     </row>
     <row r="236" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J236" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="K236">
         <v>10.000022766000001</v>
@@ -20577,7 +20599,7 @@
     </row>
     <row r="237" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J237" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K237">
         <v>10.000023264999999</v>
@@ -20597,7 +20619,7 @@
     </row>
     <row r="238" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J238" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K238">
         <v>8.0000000000000005E-9</v>
@@ -20617,7 +20639,7 @@
     </row>
     <row r="239" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J239" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K239">
         <v>-2.7E-8</v>
@@ -20637,7 +20659,7 @@
     </row>
     <row r="240" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J240" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -20657,7 +20679,7 @@
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J241" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K241">
         <v>0</v>
@@ -20677,7 +20699,7 @@
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J242" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K242">
         <v>8.0000000000000005E-9</v>
@@ -20697,7 +20719,7 @@
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J243" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K243">
         <v>20</v>
@@ -20717,7 +20739,7 @@
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J244" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K244">
         <v>5</v>
@@ -20737,7 +20759,7 @@
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J245" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K245">
         <v>0</v>
@@ -20757,7 +20779,7 @@
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J246" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K246">
         <v>20.879100000000001</v>
@@ -20777,7 +20799,7 @@
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J247" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K247">
         <v>10.000023814</v>
@@ -20797,7 +20819,7 @@
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A248" s="64" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.25">
@@ -20808,33 +20830,33 @@
         <v>202</v>
       </c>
       <c r="J249" t="s">
+        <v>613</v>
+      </c>
+      <c r="R249" t="s">
+        <v>614</v>
+      </c>
+      <c r="U249" t="s">
+        <v>615</v>
+      </c>
+      <c r="V249" t="s">
         <v>616</v>
       </c>
-      <c r="R249" t="s">
+      <c r="Y249" t="s">
         <v>617</v>
       </c>
-      <c r="U249" t="s">
+      <c r="Z249" t="s">
         <v>618</v>
-      </c>
-      <c r="V249" t="s">
-        <v>619</v>
-      </c>
-      <c r="Y249" t="s">
-        <v>620</v>
-      </c>
-      <c r="Z249" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B250" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C250" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D250" t="s">
         <v>70</v>
@@ -20843,34 +20865,34 @@
         <v>359</v>
       </c>
       <c r="F250" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G250" t="s">
         <v>374</v>
       </c>
       <c r="H250" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J250" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K250" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="L250" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M250" t="s">
         <v>374</v>
       </c>
       <c r="N250" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O250" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="Q250" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="R250">
         <v>1000070.712968647</v>
@@ -20894,7 +20916,7 @@
         <v>10</v>
       </c>
       <c r="Y250" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="Z250">
         <v>1.0000115617333341</v>
@@ -20914,7 +20936,7 @@
         <v>10.00007089775</v>
       </c>
       <c r="C251" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D251">
         <v>20.804500000000001</v>
@@ -20932,7 +20954,7 @@
         <v>4.5571138234003001</v>
       </c>
       <c r="J251" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K251">
         <v>100003.625478355</v>
@@ -20950,7 +20972,7 @@
         <v>2.1111787589002078</v>
       </c>
       <c r="Q251" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="R251">
         <v>1000068.678573876</v>
@@ -20974,7 +20996,7 @@
         <v>10</v>
       </c>
       <c r="Y251" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="Z251">
         <v>10.000070656083331</v>
@@ -21017,7 +21039,7 @@
         <v>3.506887627034287</v>
       </c>
       <c r="J253" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K253">
         <v>0.99997442679000004</v>
@@ -21035,15 +21057,15 @@
         <v>0.3258683215413769</v>
       </c>
       <c r="R253" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="V253" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J254" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K254">
         <v>-1.21759646598E-6</v>
@@ -21081,7 +21103,7 @@
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J255" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K255">
         <v>5.010079220600001E-7</v>
@@ -21101,7 +21123,7 @@
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J256" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="K256">
         <v>-0.99997409883999988</v>
@@ -21121,7 +21143,7 @@
     </row>
     <row r="257" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J257" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="K257">
         <v>-0.99997379125000008</v>
@@ -21141,7 +21163,7 @@
     </row>
     <row r="258" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J258" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -21161,7 +21183,7 @@
     </row>
     <row r="259" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J259" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K259">
         <v>2.4540955671799997E-7</v>
@@ -21181,7 +21203,7 @@
     </row>
     <row r="260" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J260" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K260">
         <v>20.871500000000001</v>
@@ -21201,7 +21223,7 @@
     </row>
     <row r="261" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J261" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K261">
         <v>0</v>
@@ -21221,7 +21243,7 @@
     </row>
     <row r="262" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J262" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K262">
         <v>-10.000069902</v>
@@ -21241,7 +21263,7 @@
     </row>
     <row r="263" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J263" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K263">
         <v>8.9500000000000007E-6</v>
@@ -21261,7 +21283,7 @@
     </row>
     <row r="264" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J264" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="K264">
         <v>6.30322018354E-3</v>
@@ -21281,7 +21303,7 @@
     </row>
     <row r="265" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J265" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K265">
         <v>20.79043291666666</v>
@@ -21301,7 +21323,7 @@
     </row>
     <row r="266" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J266" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K266">
         <v>10.000071999999999</v>
@@ -21321,7 +21343,7 @@
     </row>
     <row r="267" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J267" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K267">
         <v>0</v>
@@ -21341,7 +21363,7 @@
     </row>
     <row r="268" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J268" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K268">
         <v>10.000071787</v>
@@ -21361,7 +21383,7 @@
     </row>
     <row r="269" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J269" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K269">
         <v>-9.0798130002999985E-4</v>
@@ -21381,7 +21403,7 @@
     </row>
     <row r="270" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J270" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K270">
         <v>-1.0009730435999999</v>
@@ -21401,7 +21423,7 @@
     </row>
     <row r="271" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J271" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K271">
         <v>0</v>
@@ -21421,7 +21443,7 @@
     </row>
     <row r="272" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J272" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K272">
         <v>0</v>
@@ -21441,7 +21463,7 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J273" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K273">
         <v>10.00002202005556</v>
@@ -21461,7 +21483,7 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J274" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K274">
         <v>0</v>
@@ -21481,7 +21503,7 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J275" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K275">
         <v>0</v>
@@ -21501,7 +21523,7 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J276" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K276">
         <v>10.000071431</v>
@@ -21527,7 +21549,7 @@
         <v>1.0000115566250001</v>
       </c>
       <c r="C278" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D278">
         <v>20.799499999999998</v>
@@ -21545,7 +21567,7 @@
         <v>6.0560926009855338</v>
       </c>
       <c r="J278" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K278">
         <v>100003.625478355</v>
@@ -21594,7 +21616,7 @@
         <v>3.5068876270344829</v>
       </c>
       <c r="J280" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K280">
         <v>-4.4299019982E-5</v>
@@ -21614,7 +21636,7 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J281" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K281">
         <v>-4.7280303858000001E-5</v>
@@ -21634,7 +21656,7 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J282" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K282">
         <v>4.6700269812000003E-5</v>
@@ -21654,7 +21676,7 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J283" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K283">
         <v>4.6670363381999999E-5</v>
@@ -21674,7 +21696,7 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J284" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K284">
         <v>-0.10004595518000001</v>
@@ -21694,7 +21716,7 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J285" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K285">
         <v>9.9946685046000003E-2</v>
@@ -21714,7 +21736,7 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J286" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K286">
         <v>0</v>
@@ -21734,7 +21756,7 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J287" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K287">
         <v>0</v>
@@ -21754,7 +21776,7 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J288" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K288">
         <v>0</v>
@@ -21774,7 +21796,7 @@
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J289" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K289">
         <v>0</v>
@@ -21794,7 +21816,7 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J290" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="K290">
         <v>0</v>
@@ -21814,7 +21836,7 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J291" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="K291">
         <v>-9.9946064873000007E-2</v>
@@ -21834,7 +21856,7 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J292" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="K292">
         <v>-9.9946130290999996E-2</v>
@@ -21854,7 +21876,7 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J293" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K293">
         <v>1.0000118695</v>
@@ -21874,7 +21896,7 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J294" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K294">
         <v>-1.0000112086999999</v>
@@ -21894,7 +21916,7 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J295" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K295">
         <v>1.0000119396</v>
@@ -21914,7 +21936,7 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J296" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K296">
         <v>20.866499999999998</v>
@@ -21934,7 +21956,7 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J297" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K297">
         <v>20.79043291666666</v>
@@ -21954,7 +21976,7 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J298" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K298">
         <v>8.9500000000000007E-6</v>
@@ -21974,7 +21996,7 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J299" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K299">
         <v>10.00002202005556</v>
@@ -21994,7 +22016,7 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J300" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K300">
         <v>0</v>
@@ -22014,7 +22036,7 @@
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J301" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K301">
         <v>0</v>
@@ -22034,7 +22056,7 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J302" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K302">
         <v>1.0000118230999999</v>
@@ -22060,7 +22082,7 @@
         <v>10.000070770000001</v>
       </c>
       <c r="C304" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D304">
         <v>20.794499999999999</v>
@@ -22078,7 +22100,7 @@
         <v>4.5894875216759541</v>
       </c>
       <c r="J304" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K304">
         <v>100003.625478355</v>
@@ -22127,7 +22149,7 @@
         <v>3.5068876270346361</v>
       </c>
       <c r="J306" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K306">
         <v>0.99997410146999999</v>
@@ -22147,7 +22169,7 @@
     </row>
     <row r="307" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J307" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K307">
         <v>-1.00681942905E-6</v>
@@ -22167,7 +22189,7 @@
     </row>
     <row r="308" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J308" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="K308">
         <v>-0.99997407008000005</v>
@@ -22187,7 +22209,7 @@
     </row>
     <row r="309" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J309" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K309">
         <v>7.1815947877999985E-7</v>
@@ -22207,7 +22229,7 @@
     </row>
     <row r="310" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J310" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K310">
         <v>0</v>
@@ -22227,7 +22249,7 @@
     </row>
     <row r="311" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J311" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K311">
         <v>2.9231589348000001E-7</v>
@@ -22247,7 +22269,7 @@
     </row>
     <row r="312" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J312" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="K312">
         <v>0</v>
@@ -22267,7 +22289,7 @@
     </row>
     <row r="313" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J313" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="K313">
         <v>-0.99997416679999984</v>
@@ -22287,7 +22309,7 @@
     </row>
     <row r="314" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J314" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K314">
         <v>20.849</v>
@@ -22307,7 +22329,7 @@
     </row>
     <row r="315" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J315" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K315">
         <v>0</v>
@@ -22327,7 +22349,7 @@
     </row>
     <row r="316" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J316" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K316">
         <v>-10.000070692</v>
@@ -22347,7 +22369,7 @@
     </row>
     <row r="317" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J317" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K317">
         <v>20.79043291666666</v>
@@ -22367,7 +22389,7 @@
     </row>
     <row r="318" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J318" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K318">
         <v>8.9500000000000007E-6</v>
@@ -22387,7 +22409,7 @@
     </row>
     <row r="319" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J319" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K319">
         <v>10.000070652</v>
@@ -22407,7 +22429,7 @@
     </row>
     <row r="320" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J320" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K320">
         <v>10.000071044</v>
@@ -22427,7 +22449,7 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J321" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K321">
         <v>-9.0842257880000021E-4</v>
@@ -22447,7 +22469,7 @@
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J322" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K322">
         <v>-1.0009731546</v>
@@ -22467,7 +22489,7 @@
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J323" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K323">
         <v>0</v>
@@ -22487,7 +22509,7 @@
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J324" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K324">
         <v>0</v>
@@ -22507,7 +22529,7 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J325" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K325">
         <v>10.00002202005556</v>
@@ -22527,7 +22549,7 @@
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J326" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K326">
         <v>0</v>
@@ -22547,7 +22569,7 @@
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J327" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K327">
         <v>0</v>
@@ -22567,7 +22589,7 @@
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J328" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K328">
         <v>10.000071116999999</v>
@@ -22593,7 +22615,7 @@
         <v>1.0000115922249999</v>
       </c>
       <c r="C330" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D330">
         <v>20.784500000000001</v>
@@ -22611,7 +22633,7 @@
         <v>8.1492586712856863</v>
       </c>
       <c r="J330" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K330">
         <v>-4.4213902103999999E-5</v>
@@ -22637,7 +22659,7 @@
         <v>1.0416013312843361E-2</v>
       </c>
       <c r="J331" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K331">
         <v>100003.625478355</v>
@@ -22680,7 +22702,7 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J333" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K333">
         <v>-4.7168734113999997E-5</v>
@@ -22700,7 +22722,7 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J334" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K334">
         <v>0</v>
@@ -22720,7 +22742,7 @@
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J335" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K335">
         <v>4.6513497436999998E-5</v>
@@ -22740,7 +22762,7 @@
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J336" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K336">
         <v>0</v>
@@ -22760,7 +22782,7 @@
     </row>
     <row r="337" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J337" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K337">
         <v>4.6820726262999998E-5</v>
@@ -22780,7 +22802,7 @@
     </row>
     <row r="338" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J338" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K338">
         <v>-0.10004592436</v>
@@ -22800,7 +22822,7 @@
     </row>
     <row r="339" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J339" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K339">
         <v>9.9946665886000013E-2</v>
@@ -22820,7 +22842,7 @@
     </row>
     <row r="340" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J340" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K340">
         <v>0</v>
@@ -22840,7 +22862,7 @@
     </row>
     <row r="341" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J341" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="K341">
         <v>-9.9946071979999995E-2</v>
@@ -22860,7 +22882,7 @@
     </row>
     <row r="342" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J342" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K342">
         <v>0</v>
@@ -22880,7 +22902,7 @@
     </row>
     <row r="343" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J343" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="K343">
         <v>0</v>
@@ -22900,7 +22922,7 @@
     </row>
     <row r="344" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J344" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K344">
         <v>-1.0000113017000001</v>
@@ -22920,7 +22942,7 @@
     </row>
     <row r="345" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J345" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="K345">
         <v>-9.9946116420999986E-2</v>
@@ -22940,7 +22962,7 @@
     </row>
     <row r="346" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J346" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K346">
         <v>1.0000119673000001</v>
@@ -22960,7 +22982,7 @@
     </row>
     <row r="347" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J347" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K347">
         <v>1.0000117982000001</v>
@@ -22980,7 +23002,7 @@
     </row>
     <row r="348" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J348" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K348">
         <v>20.8415</v>
@@ -23000,7 +23022,7 @@
     </row>
     <row r="349" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J349" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K349">
         <v>20.79043291666666</v>
@@ -23020,7 +23042,7 @@
     </row>
     <row r="350" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J350" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K350">
         <v>8.9500000000000007E-6</v>
@@ -23040,7 +23062,7 @@
     </row>
     <row r="351" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J351" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K351">
         <v>10.00002202005556</v>
@@ -23060,7 +23082,7 @@
     </row>
     <row r="352" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J352" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K352">
         <v>0</v>
@@ -23080,7 +23102,7 @@
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J353" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K353">
         <v>0</v>
@@ -23100,7 +23122,7 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J354" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K354">
         <v>1.0000118683999999</v>
@@ -23126,7 +23148,7 @@
         <v>10.000070300499999</v>
       </c>
       <c r="C356" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D356">
         <v>20.777000000000001</v>
@@ -23144,7 +23166,7 @@
         <v>4.5241688985704984</v>
       </c>
       <c r="J356" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K356">
         <v>100003.625478355</v>
@@ -23193,7 +23215,7 @@
         <v>3.383708817432022</v>
       </c>
       <c r="J358" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K358">
         <v>2.626020855046E-7</v>
@@ -23213,7 +23235,7 @@
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J359" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K359">
         <v>-1.21562234644E-6</v>
@@ -23233,7 +23255,7 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J360" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K360">
         <v>0.99997429208999988</v>
@@ -23253,7 +23275,7 @@
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J361" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K361">
         <v>5.0445092863E-7</v>
@@ -23273,7 +23295,7 @@
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J362" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="K362">
         <v>-0.99997382933000001</v>
@@ -23293,7 +23315,7 @@
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J363" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="K363">
         <v>-0.99997410931000008</v>
@@ -23313,7 +23335,7 @@
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J364" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="K364">
         <v>0</v>
@@ -23333,7 +23355,7 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J365" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K365">
         <v>20.834</v>
@@ -23353,7 +23375,7 @@
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J366" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K366">
         <v>-10.000069559</v>
@@ -23373,7 +23395,7 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J367" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K367">
         <v>0</v>
@@ -23393,7 +23415,7 @@
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J368" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K368">
         <v>20.79043291666666</v>
@@ -23413,7 +23435,7 @@
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J369" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K369">
         <v>10.000071212</v>
@@ -23433,7 +23455,7 @@
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J370" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K370">
         <v>8.9500000000000007E-6</v>
@@ -23453,7 +23475,7 @@
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J371" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K371">
         <v>10.000070872</v>
@@ -23473,7 +23495,7 @@
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J372" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K372">
         <v>0</v>
@@ -23493,7 +23515,7 @@
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J373" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K373">
         <v>-1.0009729646000001</v>
@@ -23513,7 +23535,7 @@
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J374" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K374">
         <v>-9.0862777823000015E-4</v>
@@ -23533,7 +23555,7 @@
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J375" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K375">
         <v>0</v>
@@ -23553,7 +23575,7 @@
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J376" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K376">
         <v>0</v>
@@ -23573,7 +23595,7 @@
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J377" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K377">
         <v>10.00002202005556</v>
@@ -23593,7 +23615,7 @@
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J378" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K378">
         <v>0</v>
@@ -23613,7 +23635,7 @@
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J379" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K379">
         <v>0</v>
@@ -23633,7 +23655,7 @@
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J380" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K380">
         <v>10.000071191</v>
@@ -23659,7 +23681,7 @@
         <v>1.00001153635</v>
       </c>
       <c r="C382" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D382">
         <v>20.771999999999998</v>
@@ -23677,7 +23699,7 @@
         <v>6.6958705862489456</v>
       </c>
       <c r="J382" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K382">
         <v>100003.625478355</v>
@@ -23703,7 +23725,7 @@
         <v>1.031552228440237E-2</v>
       </c>
       <c r="J383" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K383">
         <v>-4.4298356766999998E-5</v>
@@ -23746,7 +23768,7 @@
     </row>
     <row r="385" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J385" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K385">
         <v>-4.7058270525E-5</v>
@@ -23766,7 +23788,7 @@
     </row>
     <row r="386" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J386" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K386">
         <v>4.6669617529999999E-5</v>
@@ -23786,7 +23808,7 @@
     </row>
     <row r="387" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J387" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K387">
         <v>4.6730681908999998E-5</v>
@@ -23806,7 +23828,7 @@
     </row>
     <row r="388" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J388" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K388">
         <v>-0.10004595107</v>
@@ -23826,7 +23848,7 @@
     </row>
     <row r="389" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J389" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K389">
         <v>9.9946641030999997E-2</v>
@@ -23846,7 +23868,7 @@
     </row>
     <row r="390" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J390" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K390">
         <v>0</v>
@@ -23866,7 +23888,7 @@
     </row>
     <row r="391" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J391" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K391">
         <v>0</v>
@@ -23886,7 +23908,7 @@
     </row>
     <row r="392" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J392" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="K392">
         <v>0</v>
@@ -23906,7 +23928,7 @@
     </row>
     <row r="393" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J393" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K393">
         <v>0</v>
@@ -23926,7 +23948,7 @@
     </row>
     <row r="394" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J394" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K394">
         <v>0</v>
@@ -23946,7 +23968,7 @@
     </row>
     <row r="395" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J395" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="K395">
         <v>-9.9946052337000005E-2</v>
@@ -23966,7 +23988,7 @@
     </row>
     <row r="396" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J396" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="K396">
         <v>-9.9946060631000005E-2</v>
@@ -23986,7 +24008,7 @@
     </row>
     <row r="397" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J397" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K397">
         <v>-1.0000112345000001</v>
@@ -24006,7 +24028,7 @@
     </row>
     <row r="398" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J398" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K398">
         <v>1.0000118654000001</v>
@@ -24026,7 +24048,7 @@
     </row>
     <row r="399" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J399" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K399">
         <v>1.000011811</v>
@@ -24046,7 +24068,7 @@
     </row>
     <row r="400" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J400" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K400">
         <v>20.826499999999999</v>
@@ -24066,7 +24088,7 @@
     </row>
     <row r="401" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J401" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K401">
         <v>20.79043291666666</v>
@@ -24086,7 +24108,7 @@
     </row>
     <row r="402" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J402" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K402">
         <v>8.9500000000000007E-6</v>
@@ -24106,7 +24128,7 @@
     </row>
     <row r="403" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J403" t="s">
-        <v>462</v>
+        <v>460</v>
       </c